--- a/ol-handback/PowerShell/powerShell-Docs/live/localization-status.xlsx
+++ b/ol-handback/PowerShell/powerShell-Docs/live/localization-status.xlsx
@@ -561,7 +561,7 @@
     <t>archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.ja-jp.xlf</t>
   </si>
   <si>
-    <t>2016-02-22 03:00:58</t>
+    <t>2016-02-23 03:01:00</t>
   </si>
   <si>
     <t>0001-01-01 00:00:00</t>
@@ -756,7 +756,7 @@
     <t>archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-02-22 03:01:54</t>
+    <t>2016-02-23 03:01:20</t>
   </si>
   <si>
     <t>authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.de-de.xlf</t>
@@ -921,7 +921,7 @@
     <t>archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.fr-fr.xlf</t>
   </si>
   <si>
-    <t>2016-02-22 03:02:49</t>
+    <t>2016-02-23 03:01:38</t>
   </si>
   <si>
     <t>authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.fr-fr.xlf</t>
@@ -1086,7 +1086,7 @@
     <t>archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-02-22 03:03:44</t>
+    <t>2016-02-23 03:01:57</t>
   </si>
   <si>
     <t>authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.zh-cn.xlf</t>
@@ -1251,7 +1251,7 @@
     <t>archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.zh-tw.xlf</t>
   </si>
   <si>
-    <t>2016-02-22 03:08:23</t>
+    <t>2016-02-23 03:02:16</t>
   </si>
   <si>
     <t>authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.zh-tw.xlf</t>
@@ -1416,7 +1416,7 @@
     <t>archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.ko-kr.xlf</t>
   </si>
   <si>
-    <t>2016-02-22 03:08:46</t>
+    <t>2016-02-23 03:02:35</t>
   </si>
   <si>
     <t>authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.ko-kr.xlf</t>
@@ -1581,7 +1581,7 @@
     <t>archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.es-es.xlf</t>
   </si>
   <si>
-    <t>2016-02-22 03:09:09</t>
+    <t>2016-02-23 03:02:55</t>
   </si>
   <si>
     <t>authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.es-es.xlf</t>
@@ -1746,7 +1746,7 @@
     <t>archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.it-it.xlf</t>
   </si>
   <si>
-    <t>2016-02-22 03:09:32</t>
+    <t>2016-02-23 03:03:15</t>
   </si>
   <si>
     <t>authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.it-it.xlf</t>
@@ -1911,7 +1911,7 @@
     <t>archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.ru-ru.xlf</t>
   </si>
   <si>
-    <t>2016-02-22 03:06:43</t>
+    <t>2016-02-23 03:03:35</t>
   </si>
   <si>
     <t>authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.ru-ru.xlf</t>
@@ -2076,7 +2076,7 @@
     <t>archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.pt-br.xlf</t>
   </si>
   <si>
-    <t>2016-02-22 03:09:57</t>
+    <t>2016-02-23 03:03:56</t>
   </si>
   <si>
     <t>authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.pt-br.xlf</t>

--- a/ol-handback/PowerShell/powerShell-Docs/live/localization-status.xlsx
+++ b/ol-handback/PowerShell/powerShell-Docs/live/localization-status.xlsx
@@ -558,7 +558,7 @@
     <t>authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.ja-jp.xlf</t>
   </si>
   <si>
-    <t>2016-03-02 17:43:02</t>
+    <t>2016-03-02 17:52:35</t>
   </si>
   <si>
     <t>authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.ja-jp.xlf</t>
@@ -750,7 +750,7 @@
     <t>authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-03-02 17:43:11</t>
+    <t>2016-03-02 17:52:44</t>
   </si>
   <si>
     <t>authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.de-de.xlf</t>
@@ -918,7 +918,7 @@
     <t>authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.fr-fr.xlf</t>
   </si>
   <si>
-    <t>2016-03-02 17:43:19</t>
+    <t>2016-03-02 17:52:52</t>
   </si>
   <si>
     <t>authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.fr-fr.xlf</t>
@@ -1086,7 +1086,7 @@
     <t>authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-03-02 17:43:28</t>
+    <t>2016-03-02 17:53:00</t>
   </si>
   <si>
     <t>authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.zh-cn.xlf</t>
@@ -1254,7 +1254,7 @@
     <t>authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.zh-tw.xlf</t>
   </si>
   <si>
-    <t>2016-03-02 17:43:37</t>
+    <t>2016-03-02 17:53:09</t>
   </si>
   <si>
     <t>authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.zh-tw.xlf</t>

--- a/ol-handback/PowerShell/powerShell-Docs/live/localization-status.xlsx
+++ b/ol-handback/PowerShell/powerShell-Docs/live/localization-status.xlsx
@@ -6,19 +6,19 @@
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId2"/>
-    <sheet name="ru-ru" sheetId="2" r:id="rId3"/>
+    <sheet name="ja-jp" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="336">
   <si>
     <t>File Name</t>
   </si>
   <si>
-    <t>ru-ru</t>
+    <t>ja-jp</t>
   </si>
   <si>
     <t>Latest Handoff Date</t>
@@ -30,12 +30,15 @@
     <t>Handed back: in sync with en-US</t>
   </si>
   <si>
-    <t>2016-04-11 01:04:17</t>
+    <t>2016-02-11 01:02:12</t>
   </si>
   <si>
     <t>PartialConfigPullServer.jpg</t>
   </si>
   <si>
+    <t>Pull.png</t>
+  </si>
+  <si>
     <t>Push.png</t>
   </si>
   <si>
@@ -45,7 +48,7 @@
     <t>Ready for handoff</t>
   </si>
   <si>
-    <t>2016-03-23 03:03:35</t>
+    <t>2016-01-23 03:01:00</t>
   </si>
   <si>
     <t>authoringResource.md</t>
@@ -54,7 +57,7 @@
     <t>authoringResourceClass.md</t>
   </si>
   <si>
-    <t>2016-44-02 17:44:15</t>
+    <t>2016-52-02 17:52:35</t>
   </si>
   <si>
     <t>authoringResourceComposite.md</t>
@@ -84,13 +87,13 @@
     <t>debugResource.md</t>
   </si>
   <si>
-    <t>2016-44-10 21:44:01</t>
+    <t>2016-41-10 21:41:53</t>
   </si>
   <si>
     <t>decisionMaker.md</t>
   </si>
   <si>
-    <t>2016-32-07 19:32:54</t>
+    <t>2016-31-07 19:31:07</t>
   </si>
   <si>
     <t>enactingConfigurations.md</t>
@@ -111,9 +114,6 @@
     <t>CredentialEncryptionDiagram1.png</t>
   </si>
   <si>
-    <t>Pull.png</t>
-  </si>
-  <si>
     <t>lnxArchiveResource.md</t>
   </si>
   <si>
@@ -132,7 +132,7 @@
     <t>lnxGettingStarted.md</t>
   </si>
   <si>
-    <t>2016-34-10 20:34:03</t>
+    <t>2016-32-10 20:32:04</t>
   </si>
   <si>
     <t>lnxGroupResource.md</t>
@@ -180,7 +180,7 @@
     <t>pullClientConfigID4.md</t>
   </si>
   <si>
-    <t>2016-03-09 20:03:34</t>
+    <t>2016-01-09 20:01:18</t>
   </si>
   <si>
     <t>pullClientConfigNames.md</t>
@@ -189,7 +189,7 @@
     <t>pullServer.md</t>
   </si>
   <si>
-    <t>2016-52-16 22:52:20</t>
+    <t>2016-51-16 22:51:47</t>
   </si>
   <si>
     <t>pullServerSMB.md</t>
@@ -231,7 +231,7 @@
     <t>troubleshooting.md</t>
   </si>
   <si>
-    <t>2016-12-04 21:12:41</t>
+    <t>2016-11-04 21:11:25</t>
   </si>
   <si>
     <t>userResource.md</t>
@@ -246,7 +246,7 @@
     <t>audit_cms.md</t>
   </si>
   <si>
-    <t>2016-15-08 01:15:35</t>
+    <t>2016-11-08 01:11:31</t>
   </si>
   <si>
     <t>audit_overview.md</t>
@@ -528,10 +528,10 @@
     <t>3e61149f7b05f74d662d3038233013ffdcbed1a3.jpg</t>
   </si>
   <si>
-    <t>2016-03-11 01:04:17</t>
-  </si>
-  <si>
-    <t>2016-03-16 23:59:51</t>
+    <t>2016-03-11 01:02:12</t>
+  </si>
+  <si>
+    <t>2016-03-17 01:31:01</t>
   </si>
   <si>
     <t>IsDependency</t>
@@ -546,19 +546,22 @@
     <t>.png</t>
   </si>
   <si>
+    <t>86d829b1fcdd41e648ed0594eaf337b3726c143c.png</t>
+  </si>
+  <si>
+    <t>dsc\enactingConfigurations.md</t>
+  </si>
+  <si>
     <t>d3008e3fe7da4c118c693d2b34a0b329780f8d86.png</t>
   </si>
   <si>
-    <t>dsc\enactingConfigurations.md</t>
-  </si>
-  <si>
     <t>.md</t>
   </si>
   <si>
-    <t>archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>2016-02-23 03:03:35</t>
+    <t>archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>2016-02-23 03:01:00</t>
   </si>
   <si>
     <t>0001-01-01 00:00:00</t>
@@ -567,64 +570,64 @@
     <t>Include</t>
   </si>
   <si>
-    <t>authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-02 17:44:15</t>
-  </si>
-  <si>
-    <t>authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>authoringResourceMofCS.0647b27b00ec52b2f524a2856e48bc7c29c0f867.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>authoringResourceMofDesigner.09b1adffc4afb0d9b1154880e2dab0b25d82d51b.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>configData.51d01a46dd9af8b425788cc485523b09f8470b95.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>configDataCredentials.f3e75119e7d93b2f914823c5ea23bfde3935a874.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>debugResource.ac634156affe5c723cc149a298f5aa4268d17016.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-10 21:44:01</t>
-  </si>
-  <si>
-    <t>decisionMaker.01553169f2ba4241995260fad925e2784b5f5567.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-07 19:32:54</t>
-  </si>
-  <si>
-    <t>enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>environmentResource.eb91ffd4cd8bdb9476e5a83de1a20d3b7b502a56.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>gettingStarted.92e02d8bd273df5c304475a9b4fa251c22a7ea19.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>groupResource.d19d416269795c92566b62c36b9782062dcea43e.ru-ru.xlf</t>
+    <t>authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-02 17:52:35</t>
+  </si>
+  <si>
+    <t>authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>authoringResourceMofCS.0647b27b00ec52b2f524a2856e48bc7c29c0f867.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>authoringResourceMofDesigner.09b1adffc4afb0d9b1154880e2dab0b25d82d51b.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>configData.51d01a46dd9af8b425788cc485523b09f8470b95.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>configDataCredentials.f3e75119e7d93b2f914823c5ea23bfde3935a874.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>debugResource.ac634156affe5c723cc149a298f5aa4268d17016.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-10 21:41:53</t>
+  </si>
+  <si>
+    <t>decisionMaker.01553169f2ba4241995260fad925e2784b5f5567.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-07 19:31:07</t>
+  </si>
+  <si>
+    <t>enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>environmentResource.eb91ffd4cd8bdb9476e5a83de1a20d3b7b502a56.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>gettingStarted.92e02d8bd273df5c304475a9b4fa251c22a7ea19.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>groupResource.d19d416269795c92566b62c36b9782062dcea43e.ja-jp.xlf</t>
   </si>
   <si>
     <t>d9f53a805041164f5070845c0fd216b63d17ae58.png</t>
@@ -633,301 +636,301 @@
     <t>dsc\secureMOF.md</t>
   </si>
   <si>
-    <t>86d829b1fcdd41e648ed0594eaf337b3726c143c.png</t>
-  </si>
-  <si>
-    <t>lnxArchiveResource.095aab7d23720fd394f2573c30223a6bbcc0a4ef.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>lnxFileLineResource.d91fc802a4c6cdbff5a2e35f92b34c36c6dbf5eb.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-10 20:34:03</t>
-  </si>
-  <si>
-    <t>lnxGroupResource.0cedb684d797032bd47cdb852629c36da0884567.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>lnxPackageResource.db35ab938bbfbb38cae53fe9ae98fd22b5f18009.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>lnxScriptResource.1344a5d5b807ee53705e93842d9ef5e25a883359.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>lnxServiceResource.e637c7f7b18939ec8c16eadf2c42ab00e236fb7b.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>logResource.07af9dfcf6076ef19059178c3b404762677920f0.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>packageResource.132c4949cee174dc0dc324456d220436cb9884e6.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>pullServer.4b925b277da29998394af746bdbdd508fda48909.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-16 22:52:20</t>
-  </si>
-  <si>
-    <t>pullServerSMB.772aec5ae27ccb19ced78e3eb665a4e16db1c4df.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>reportServer.53df4bc8b7b80c0a19c11434bdf5f4304e8248f7.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>resourceAuthoringChecklist.3b9ae254d826cc45519d37d06044f28a69bdfa69.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>runAsUser.d2b90b6bc42ef965e454f9c9f5fd19bc7b488b34.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>secureServer.ce207607010d18109152742ba23c923cd3cddba2.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-04 21:12:41</t>
-  </si>
-  <si>
-    <t>userResource.5de4fbe03e9e06934442ba451eb0564931863f45.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>audit_cms.3e422ca243ac938b46bfcf1497a703e55bde970e.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-08 01:15:35</t>
-  </si>
-  <si>
-    <t>audit_overview.fc5b51e2734a2af986c9edf42b4395b1aad2435d.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>audit_script.e89f3a9316d1125e1efd23b41b756a3a6161016b.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>audit_transcript.c21a6554932939cbf4c744bf7c9f07cc4e1e7160.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>class_base.29a9fbe4987503d5575c151f4271f58398cb7e55.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>class_baseconstructor.82f951e800b06ccc68090b1be9923c8210a233ac.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>class_basemethod.6b60292188d0081f30fbaf4b111db8a439348f5b.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>class_interface.84a08fd30808364a820bdd4440de18ec4504a6c7.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>class_newtype.a9f52b670970046f8b1147d4ba646b73abb430dc.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>class_overview.91227b885afcb8df385ab601ab970b924eca2533.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>debug_overview.70b71c20b8b625704c25da28a58e804a048bafb0.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>dsc_authoring.364878cde8f156d8999773842812e0c08f70191c.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>dsc_classbasedresource.a3d6b22652db939b51db1218584247396454ae0f.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>dsc_confighelp.bcfa7e85acae98499089edc9fba25b68953d7bbf.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>dsc_directaccess.014c91015162b26b678e0a5fdfd453a3bf6e41b0.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>dsc_encryptedmof.a35c44de669ea81f25dd29f152f03493e52e327b.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>dsc_freqnomultiple.2848e52c73280aca59e73136bac0c2c7ae02aad6.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>dsc_getconfigurationstatus.1705e4bcaa9dfd9d69f00aecdc7ef0d04bf44899.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>dsc_identicalduplicate.eb7167ccd4a72d68aa1683327e9b3877927158ab.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>dsc_importdscresource.a0169ad862dfcaa5c958c07ecd52c856d5dc8436.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>dsc_improvements.d9ed6ffedf9d9650bb6b26b5ed611e420a0aacbb.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>dsc_lcmstate.21ea1c36f37c94e8e0363199fbd07bcced3aea40.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>dsc_metaconfiguration.e8bbca05aa1692ad54cadd83b93a1902f179f365.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>dsc_newresources.b9c40f591f875ea205c834f7675f3edbe1050592.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>dsc_nodeid.e3c9049aa6c1d151f8b286f28502537b2f8d22a4.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>dsc_partialconfig.a493787c3f8663ac3e2994162ffd1bee429544d3.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>dsc_partialconfig_mixedmode.ff4b9a8a421441da62574192650493bf2407028d.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>dsc_publishconfig.bfe86d4253abdd777c205caec637c50ec79103ee.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>dsc_refreshmode.b0529a06a4d3e07b3fce300f74760d63b27523f6.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>dsc_removeconfigdoc.d16cdab7eaedf468bcc38dae34e93be26a204318.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>dsc_reporting.b042cd21b9bcfc8e50bc361ddee59333602fad42.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>dsc_repository.ec5040a823a6b64e969393e00f3d859fd0b4551c.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>dsc_resourcedebugging.95c69e55eb065b349f52e18126d699b1906ba03f.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>dsc_runas.9e19a42a6d5e1ea1772358a6fd8ff24b98a5b6ba.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>dsc_setdsclcm.1f0e3cab81cf5fc1feda678f202451fe150632e3.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>dsc_statestatus.b6f3670f776a8f63a705ba16bed2f20be34fc48f.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>dsc_sxsresource.c9d4ce6109370ac1cbc1fb07f191e02f9a61d5d3.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>dsc_testconfiguration.b0e5afe2c8f173ebe49c97c9ea9a2f11d81ea5fa.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>dsc_updateconfig.a07eb85e3458d42d7ab1ed5c57dcfc70df709d07.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>dsc_waitfor.2b09933f08f1020166ce0f0cd7548a5a3845c48f.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>dsc_wow64.ea039aaa1bd77415311fc30d80fed43cda07a6e3.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>feedback.3662230166299ef7c1fb7a7a7f5cdbd64b1d812a.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>feedback_archive.20de26911a704368058401c7e2bd6ebaac692ff5.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>feedback_clipboard.872e5c147ef02cb86067651f41e3c00b55386664.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>feedback_cmdlets.a4c0dfb806ca0da232eeb75ad3706177b8a5ec48.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>feedback_convertfromString.acdeaa33e8fa59b93649b6abf3a7d5ef64fb7664.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>feedback_convertstring.42e964e30093962871c3a4d586ed6c54f25f840d.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>feedback_fileinfo.0192edad2d6504d26a9632f95fc9e5b66ffd8003.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>feedback_formathex.f97931c887efb620e5f4314facc1f0e20e3dffbe.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>feedback_getchilditem.ce02ca20cc4417a80fe65eb509a8e92f2cecc79c.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>feedback_moduleversionranges.611b3a3219d64dbfa1d01541b60a727b880a0c4b.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>feedback_newguid.f8756fbdb96e6fe06a7e0cbb6ac4af32b1c64983.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>feedback_nonewline.7a9b7e24c50399879089bba2b8eee7dc325572e2.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>feedback_symbolic.1c3ac8128fb9df60512ec024044d48be7d0cb59f.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>feedback_tempfile.fc029065af6bbba3a8c4abbf36023bede7d1416d.ru-ru.xlf</t>
+    <t>lnxArchiveResource.095aab7d23720fd394f2573c30223a6bbcc0a4ef.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>lnxFileLineResource.d91fc802a4c6cdbff5a2e35f92b34c36c6dbf5eb.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-10 20:32:04</t>
+  </si>
+  <si>
+    <t>lnxGroupResource.0cedb684d797032bd47cdb852629c36da0884567.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>lnxPackageResource.db35ab938bbfbb38cae53fe9ae98fd22b5f18009.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>lnxScriptResource.1344a5d5b807ee53705e93842d9ef5e25a883359.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>lnxServiceResource.e637c7f7b18939ec8c16eadf2c42ab00e236fb7b.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>logResource.07af9dfcf6076ef19059178c3b404762677920f0.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>packageResource.132c4949cee174dc0dc324456d220436cb9884e6.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-09 20:01:18</t>
+  </si>
+  <si>
+    <t>pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>pullServer.4b925b277da29998394af746bdbdd508fda48909.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-16 22:51:47</t>
+  </si>
+  <si>
+    <t>pullServerSMB.772aec5ae27ccb19ced78e3eb665a4e16db1c4df.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>reportServer.53df4bc8b7b80c0a19c11434bdf5f4304e8248f7.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>resourceAuthoringChecklist.3b9ae254d826cc45519d37d06044f28a69bdfa69.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>runAsUser.d2b90b6bc42ef965e454f9c9f5fd19bc7b488b34.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>secureServer.ce207607010d18109152742ba23c923cd3cddba2.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-04 21:11:25</t>
+  </si>
+  <si>
+    <t>userResource.5de4fbe03e9e06934442ba451eb0564931863f45.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>audit_cms.3e422ca243ac938b46bfcf1497a703e55bde970e.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-08 01:11:31</t>
+  </si>
+  <si>
+    <t>audit_overview.fc5b51e2734a2af986c9edf42b4395b1aad2435d.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>audit_script.e89f3a9316d1125e1efd23b41b756a3a6161016b.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>audit_transcript.c21a6554932939cbf4c744bf7c9f07cc4e1e7160.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>class_base.29a9fbe4987503d5575c151f4271f58398cb7e55.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>class_baseconstructor.82f951e800b06ccc68090b1be9923c8210a233ac.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>class_basemethod.6b60292188d0081f30fbaf4b111db8a439348f5b.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>class_interface.84a08fd30808364a820bdd4440de18ec4504a6c7.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>class_newtype.a9f52b670970046f8b1147d4ba646b73abb430dc.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>class_overview.91227b885afcb8df385ab601ab970b924eca2533.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>debug_overview.70b71c20b8b625704c25da28a58e804a048bafb0.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>dsc_authoring.364878cde8f156d8999773842812e0c08f70191c.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>dsc_classbasedresource.a3d6b22652db939b51db1218584247396454ae0f.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>dsc_confighelp.bcfa7e85acae98499089edc9fba25b68953d7bbf.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>dsc_directaccess.014c91015162b26b678e0a5fdfd453a3bf6e41b0.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>dsc_encryptedmof.a35c44de669ea81f25dd29f152f03493e52e327b.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>dsc_freqnomultiple.2848e52c73280aca59e73136bac0c2c7ae02aad6.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>dsc_getconfigurationstatus.1705e4bcaa9dfd9d69f00aecdc7ef0d04bf44899.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>dsc_identicalduplicate.eb7167ccd4a72d68aa1683327e9b3877927158ab.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>dsc_importdscresource.a0169ad862dfcaa5c958c07ecd52c856d5dc8436.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>dsc_improvements.d9ed6ffedf9d9650bb6b26b5ed611e420a0aacbb.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>dsc_lcmstate.21ea1c36f37c94e8e0363199fbd07bcced3aea40.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>dsc_metaconfiguration.e8bbca05aa1692ad54cadd83b93a1902f179f365.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>dsc_newresources.b9c40f591f875ea205c834f7675f3edbe1050592.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>dsc_nodeid.e3c9049aa6c1d151f8b286f28502537b2f8d22a4.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>dsc_partialconfig.a493787c3f8663ac3e2994162ffd1bee429544d3.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>dsc_partialconfig_mixedmode.ff4b9a8a421441da62574192650493bf2407028d.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>dsc_publishconfig.bfe86d4253abdd777c205caec637c50ec79103ee.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>dsc_refreshmode.b0529a06a4d3e07b3fce300f74760d63b27523f6.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>dsc_removeconfigdoc.d16cdab7eaedf468bcc38dae34e93be26a204318.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>dsc_reporting.b042cd21b9bcfc8e50bc361ddee59333602fad42.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>dsc_repository.ec5040a823a6b64e969393e00f3d859fd0b4551c.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>dsc_resourcedebugging.95c69e55eb065b349f52e18126d699b1906ba03f.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>dsc_runas.9e19a42a6d5e1ea1772358a6fd8ff24b98a5b6ba.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>dsc_setdsclcm.1f0e3cab81cf5fc1feda678f202451fe150632e3.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>dsc_statestatus.b6f3670f776a8f63a705ba16bed2f20be34fc48f.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>dsc_sxsresource.c9d4ce6109370ac1cbc1fb07f191e02f9a61d5d3.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>dsc_testconfiguration.b0e5afe2c8f173ebe49c97c9ea9a2f11d81ea5fa.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>dsc_updateconfig.a07eb85e3458d42d7ab1ed5c57dcfc70df709d07.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>dsc_waitfor.2b09933f08f1020166ce0f0cd7548a5a3845c48f.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>dsc_wow64.ea039aaa1bd77415311fc30d80fed43cda07a6e3.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>feedback.3662230166299ef7c1fb7a7a7f5cdbd64b1d812a.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>feedback_archive.20de26911a704368058401c7e2bd6ebaac692ff5.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>feedback_clipboard.872e5c147ef02cb86067651f41e3c00b55386664.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>feedback_cmdlets.a4c0dfb806ca0da232eeb75ad3706177b8a5ec48.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>feedback_convertfromString.acdeaa33e8fa59b93649b6abf3a7d5ef64fb7664.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>feedback_convertstring.42e964e30093962871c3a4d586ed6c54f25f840d.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>feedback_fileinfo.0192edad2d6504d26a9632f95fc9e5b66ffd8003.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>feedback_formathex.f97931c887efb620e5f4314facc1f0e20e3dffbe.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>feedback_getchilditem.ce02ca20cc4417a80fe65eb509a8e92f2cecc79c.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>feedback_moduleversionranges.611b3a3219d64dbfa1d01541b60a727b880a0c4b.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>feedback_newguid.f8756fbdb96e6fe06a7e0cbb6ac4af32b1c64983.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>feedback_nonewline.7a9b7e24c50399879089bba2b8eee7dc325572e2.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>feedback_symbolic.1c3ac8128fb9df60512ec024044d48be7d0cb59f.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>feedback_tempfile.fc029065af6bbba3a8c4abbf36023bede7d1416d.ja-jp.xlf</t>
   </si>
   <si>
     <t>ba1897f38317f5fe38f2d8caf0efcc57bc8bb19d.jpg</t>
@@ -948,76 +951,76 @@
     <t>wmf\dsc_encryptedmof.md</t>
   </si>
   <si>
-    <t>informationstream_overview.d2f238b2b4021ccdb7271cf89f53d58970d56cf5.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>install.317fc924c0f766547c4725878af59c3c9d8facba.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>jea_endpoint.1dc052fe583a907a6c090cf8bfd42293d94d2975.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>jea_overview.3fa3008e719be8235adffe51808ac66714940871.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>jea_report.7860cec6e93b7405844ccbbe5bc879921447ac0b.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>limitation_dsc.3684c81bb088cba98089dffdb1a1e56e1c098335.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>limitation_overview.6cc9c8c028f5912636637d836aed7db0614de522.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>networkswitch_overview.7a87eb0741cd43b8b9284ea6cb605920c4961b79.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>odata_overview.c3f7efdde29fe7ac5685a61cd61d75b65524a4c3.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>oneget_cmdlets.469b2350a72495ac2cf62e4130b4df8036f5d135.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>oneget_overview.e71a25f36f957ab7471d259c6e716651f6f23c94.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>productincompat.62bb00299c0283b5297001553476a745e28a49cb.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>psget_module_overview.4149c468ffd0f17a2fabd03f90059c12effc3170.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>psget_modulecmdlets.1f808cfdf9a9aa920f88e15f7f5fa4701fe805e3.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>psget_moduledependency.89ba9310335ae64db5481a3c02034ac4fe01b6a2.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>psget_modulesxsinstall.110ba80d8f917899ef488b46bd15f5654f6ba06c.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>psget_psrepository.c4381b2ff7bb6496ab74ed8bb2b07325cfbfc056.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>psget_script_overview.f035cc99497d17dc73e3a61f214e40a5860fc70a.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>psget_scriptcmdlets.1762d5f29292d59c1afb37cb29eb11a34cf63990.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>releasenotes.311750b4da54b1d4ef7997b328edd6ff177fb71f.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>requirements.ef8332f358d65b1759bfd4c7336b11d1dc8c2d46.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>sil_overview.a2b1f7c716aad317993a5eaffba21fa28ce0c0d8.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>TOC.60497266061c38453b3db893ec675eb65584af89.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>uninstall.b07adaaaf7f41869dfa201b88e29342aced76c96.ru-ru.xlf</t>
+    <t>informationstream_overview.d2f238b2b4021ccdb7271cf89f53d58970d56cf5.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>install.317fc924c0f766547c4725878af59c3c9d8facba.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>jea_endpoint.1dc052fe583a907a6c090cf8bfd42293d94d2975.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>jea_overview.3fa3008e719be8235adffe51808ac66714940871.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>jea_report.7860cec6e93b7405844ccbbe5bc879921447ac0b.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>limitation_dsc.3684c81bb088cba98089dffdb1a1e56e1c098335.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>limitation_overview.6cc9c8c028f5912636637d836aed7db0614de522.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>networkswitch_overview.7a87eb0741cd43b8b9284ea6cb605920c4961b79.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>odata_overview.c3f7efdde29fe7ac5685a61cd61d75b65524a4c3.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>oneget_cmdlets.469b2350a72495ac2cf62e4130b4df8036f5d135.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>oneget_overview.e71a25f36f957ab7471d259c6e716651f6f23c94.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>productincompat.62bb00299c0283b5297001553476a745e28a49cb.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>psget_module_overview.4149c468ffd0f17a2fabd03f90059c12effc3170.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>psget_modulecmdlets.1f808cfdf9a9aa920f88e15f7f5fa4701fe805e3.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>psget_moduledependency.89ba9310335ae64db5481a3c02034ac4fe01b6a2.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>psget_modulesxsinstall.110ba80d8f917899ef488b46bd15f5654f6ba06c.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>psget_psrepository.c4381b2ff7bb6496ab74ed8bb2b07325cfbfc056.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>psget_script_overview.f035cc99497d17dc73e3a61f214e40a5860fc70a.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>psget_scriptcmdlets.1762d5f29292d59c1afb37cb29eb11a34cf63990.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>releasenotes.311750b4da54b1d4ef7997b328edd6ff177fb71f.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>requirements.ef8332f358d65b1759bfd4c7336b11d1dc8c2d46.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>sil_overview.a2b1f7c716aad317993a5eaffba21fa28ce0c0d8.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>TOC.60497266061c38453b3db893ec675eb65584af89.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>uninstall.b07adaaaf7f41869dfa201b88e29342aced76c96.ja-jp.xlf</t>
   </si>
 </sst>
 </file>
@@ -1074,7 +1077,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="ru-ru" displayName="ru_ru" ref="A1:L1" headerRowCount="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="ja-jp" displayName="ja_jp" ref="A1:L1" headerRowCount="0">
   <tableColumns count="12">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -1097,7 +1100,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Overview" displayName="Overview" ref="A1:D1" headerRowCount="0">
   <tableColumns count="4">
     <tableColumn id="1" name="File Name"/>
-    <tableColumn id="2" name="ru-ru"/>
+    <tableColumn id="2" name="ja-jp"/>
     <tableColumn id="3" name="Latest Handoff Date"/>
     <tableColumn id="4" name="Column4"/>
   </tableColumns>
@@ -1167,21 +1170,21 @@
         <v>8</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="0" t="s">
         <v>11</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -1189,21 +1192,21 @@
         <v>12</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="0" t="s">
         <v>14</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -1211,10 +1214,10 @@
         <v>15</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10">
@@ -1222,10 +1225,10 @@
         <v>16</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11">
@@ -1233,10 +1236,10 @@
         <v>17</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12">
@@ -1244,10 +1247,10 @@
         <v>18</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13">
@@ -1255,10 +1258,10 @@
         <v>19</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14">
@@ -1266,10 +1269,10 @@
         <v>20</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15">
@@ -1277,10 +1280,10 @@
         <v>21</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16">
@@ -1288,32 +1291,32 @@
         <v>22</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="0" t="s">
         <v>24</v>
-      </c>
-      <c r="B17" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="0" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="0" t="s">
         <v>26</v>
-      </c>
-      <c r="B18" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="0" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="19">
@@ -1321,10 +1324,10 @@
         <v>27</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20">
@@ -1332,10 +1335,10 @@
         <v>28</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21">
@@ -1343,10 +1346,10 @@
         <v>29</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22">
@@ -1354,10 +1357,10 @@
         <v>30</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23">
@@ -1365,10 +1368,10 @@
         <v>31</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24">
@@ -1376,7 +1379,7 @@
         <v>32</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C24" s="0" t="s">
         <v>5</v>
@@ -1387,10 +1390,10 @@
         <v>33</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26">
@@ -1398,10 +1401,10 @@
         <v>34</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27">
@@ -1409,10 +1412,10 @@
         <v>35</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28">
@@ -1420,10 +1423,10 @@
         <v>36</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29">
@@ -1431,10 +1434,10 @@
         <v>37</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30">
@@ -1442,7 +1445,7 @@
         <v>38</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C30" s="0" t="s">
         <v>39</v>
@@ -1453,10 +1456,10 @@
         <v>40</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32">
@@ -1464,10 +1467,10 @@
         <v>41</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33">
@@ -1475,10 +1478,10 @@
         <v>42</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34">
@@ -1486,10 +1489,10 @@
         <v>43</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35">
@@ -1497,10 +1500,10 @@
         <v>44</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36">
@@ -1508,10 +1511,10 @@
         <v>45</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37">
@@ -1519,10 +1522,10 @@
         <v>46</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38">
@@ -1530,10 +1533,10 @@
         <v>47</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="39">
@@ -1541,10 +1544,10 @@
         <v>48</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40">
@@ -1552,10 +1555,10 @@
         <v>49</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41">
@@ -1563,10 +1566,10 @@
         <v>50</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="42">
@@ -1574,10 +1577,10 @@
         <v>51</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43">
@@ -1585,10 +1588,10 @@
         <v>52</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="44">
@@ -1596,10 +1599,10 @@
         <v>53</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="45">
@@ -1607,7 +1610,7 @@
         <v>54</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C45" s="0" t="s">
         <v>55</v>
@@ -1618,10 +1621,10 @@
         <v>56</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="47">
@@ -1629,7 +1632,7 @@
         <v>57</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C47" s="0" t="s">
         <v>58</v>
@@ -1640,7 +1643,7 @@
         <v>59</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C48" s="0" t="s">
         <v>55</v>
@@ -1651,10 +1654,10 @@
         <v>60</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="50">
@@ -1662,10 +1665,10 @@
         <v>61</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="51">
@@ -1673,10 +1676,10 @@
         <v>62</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="52">
@@ -1684,7 +1687,7 @@
         <v>63</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C52" s="0" t="s">
         <v>55</v>
@@ -1695,10 +1698,10 @@
         <v>64</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="54">
@@ -1706,10 +1709,10 @@
         <v>65</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="55">
@@ -1717,10 +1720,10 @@
         <v>66</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="56">
@@ -1728,7 +1731,7 @@
         <v>67</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C56" s="0" t="s">
         <v>5</v>
@@ -1739,10 +1742,10 @@
         <v>68</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="58">
@@ -1750,10 +1753,10 @@
         <v>69</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="59">
@@ -1761,10 +1764,10 @@
         <v>70</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="60">
@@ -1772,7 +1775,7 @@
         <v>71</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C60" s="0" t="s">
         <v>72</v>
@@ -1783,10 +1786,10 @@
         <v>73</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="62">
@@ -1794,10 +1797,10 @@
         <v>74</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="63">
@@ -1805,10 +1808,10 @@
         <v>75</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="64">
@@ -1816,7 +1819,7 @@
         <v>76</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C64" s="0" t="s">
         <v>77</v>
@@ -1827,7 +1830,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C65" s="0" t="s">
         <v>77</v>
@@ -1838,7 +1841,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C66" s="0" t="s">
         <v>77</v>
@@ -1849,7 +1852,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C67" s="0" t="s">
         <v>77</v>
@@ -1860,7 +1863,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C68" s="0" t="s">
         <v>77</v>
@@ -1871,7 +1874,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C69" s="0" t="s">
         <v>77</v>
@@ -1882,7 +1885,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C70" s="0" t="s">
         <v>77</v>
@@ -1893,7 +1896,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C71" s="0" t="s">
         <v>77</v>
@@ -1904,7 +1907,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C72" s="0" t="s">
         <v>77</v>
@@ -1915,7 +1918,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C73" s="0" t="s">
         <v>77</v>
@@ -1926,7 +1929,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C74" s="0" t="s">
         <v>77</v>
@@ -1937,7 +1940,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C75" s="0" t="s">
         <v>77</v>
@@ -1948,7 +1951,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C76" s="0" t="s">
         <v>77</v>
@@ -1959,7 +1962,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C77" s="0" t="s">
         <v>77</v>
@@ -1970,7 +1973,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C78" s="0" t="s">
         <v>77</v>
@@ -1981,7 +1984,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C79" s="0" t="s">
         <v>77</v>
@@ -1992,7 +1995,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C80" s="0" t="s">
         <v>77</v>
@@ -2003,7 +2006,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C81" s="0" t="s">
         <v>77</v>
@@ -2014,7 +2017,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C82" s="0" t="s">
         <v>77</v>
@@ -2025,7 +2028,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C83" s="0" t="s">
         <v>77</v>
@@ -2036,7 +2039,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C84" s="0" t="s">
         <v>77</v>
@@ -2047,7 +2050,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C85" s="0" t="s">
         <v>77</v>
@@ -2058,7 +2061,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C86" s="0" t="s">
         <v>77</v>
@@ -2069,7 +2072,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C87" s="0" t="s">
         <v>77</v>
@@ -2080,7 +2083,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C88" s="0" t="s">
         <v>77</v>
@@ -2091,7 +2094,7 @@
         <v>102</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C89" s="0" t="s">
         <v>77</v>
@@ -2102,7 +2105,7 @@
         <v>103</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C90" s="0" t="s">
         <v>77</v>
@@ -2113,7 +2116,7 @@
         <v>104</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C91" s="0" t="s">
         <v>77</v>
@@ -2124,7 +2127,7 @@
         <v>105</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C92" s="0" t="s">
         <v>77</v>
@@ -2135,7 +2138,7 @@
         <v>106</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C93" s="0" t="s">
         <v>77</v>
@@ -2146,7 +2149,7 @@
         <v>107</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C94" s="0" t="s">
         <v>77</v>
@@ -2157,7 +2160,7 @@
         <v>108</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C95" s="0" t="s">
         <v>77</v>
@@ -2168,7 +2171,7 @@
         <v>109</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C96" s="0" t="s">
         <v>77</v>
@@ -2179,7 +2182,7 @@
         <v>110</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C97" s="0" t="s">
         <v>77</v>
@@ -2190,7 +2193,7 @@
         <v>111</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C98" s="0" t="s">
         <v>77</v>
@@ -2201,7 +2204,7 @@
         <v>112</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C99" s="0" t="s">
         <v>77</v>
@@ -2212,7 +2215,7 @@
         <v>113</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C100" s="0" t="s">
         <v>77</v>
@@ -2223,7 +2226,7 @@
         <v>114</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C101" s="0" t="s">
         <v>77</v>
@@ -2234,7 +2237,7 @@
         <v>115</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C102" s="0" t="s">
         <v>77</v>
@@ -2245,7 +2248,7 @@
         <v>116</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C103" s="0" t="s">
         <v>77</v>
@@ -2256,7 +2259,7 @@
         <v>117</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C104" s="0" t="s">
         <v>77</v>
@@ -2267,7 +2270,7 @@
         <v>118</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C105" s="0" t="s">
         <v>77</v>
@@ -2278,7 +2281,7 @@
         <v>119</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C106" s="0" t="s">
         <v>77</v>
@@ -2289,7 +2292,7 @@
         <v>120</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C107" s="0" t="s">
         <v>77</v>
@@ -2300,7 +2303,7 @@
         <v>121</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C108" s="0" t="s">
         <v>77</v>
@@ -2311,7 +2314,7 @@
         <v>122</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C109" s="0" t="s">
         <v>77</v>
@@ -2322,7 +2325,7 @@
         <v>123</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C110" s="0" t="s">
         <v>77</v>
@@ -2333,7 +2336,7 @@
         <v>124</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C111" s="0" t="s">
         <v>77</v>
@@ -2344,7 +2347,7 @@
         <v>125</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C112" s="0" t="s">
         <v>77</v>
@@ -2355,7 +2358,7 @@
         <v>126</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C113" s="0" t="s">
         <v>77</v>
@@ -2366,7 +2369,7 @@
         <v>127</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C114" s="0" t="s">
         <v>77</v>
@@ -2377,7 +2380,7 @@
         <v>128</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C115" s="0" t="s">
         <v>77</v>
@@ -2388,7 +2391,7 @@
         <v>129</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C116" s="0" t="s">
         <v>77</v>
@@ -2399,7 +2402,7 @@
         <v>130</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C117" s="0" t="s">
         <v>77</v>
@@ -2410,7 +2413,7 @@
         <v>131</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C118" s="0" t="s">
         <v>77</v>
@@ -2421,7 +2424,7 @@
         <v>132</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C119" s="0" t="s">
         <v>5</v>
@@ -2432,7 +2435,7 @@
         <v>133</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C120" s="0" t="s">
         <v>5</v>
@@ -2443,7 +2446,7 @@
         <v>134</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C121" s="0" t="s">
         <v>5</v>
@@ -2454,7 +2457,7 @@
         <v>135</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C122" s="0" t="s">
         <v>77</v>
@@ -2465,7 +2468,7 @@
         <v>136</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C123" s="0" t="s">
         <v>77</v>
@@ -2476,7 +2479,7 @@
         <v>137</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C124" s="0" t="s">
         <v>77</v>
@@ -2487,7 +2490,7 @@
         <v>138</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C125" s="0" t="s">
         <v>77</v>
@@ -2498,7 +2501,7 @@
         <v>139</v>
       </c>
       <c r="B126" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C126" s="0" t="s">
         <v>77</v>
@@ -2509,7 +2512,7 @@
         <v>140</v>
       </c>
       <c r="B127" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C127" s="0" t="s">
         <v>77</v>
@@ -2520,7 +2523,7 @@
         <v>141</v>
       </c>
       <c r="B128" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C128" s="0" t="s">
         <v>77</v>
@@ -2531,7 +2534,7 @@
         <v>142</v>
       </c>
       <c r="B129" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C129" s="0" t="s">
         <v>77</v>
@@ -2542,7 +2545,7 @@
         <v>143</v>
       </c>
       <c r="B130" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C130" s="0" t="s">
         <v>77</v>
@@ -2553,7 +2556,7 @@
         <v>144</v>
       </c>
       <c r="B131" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C131" s="0" t="s">
         <v>77</v>
@@ -2564,7 +2567,7 @@
         <v>145</v>
       </c>
       <c r="B132" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C132" s="0" t="s">
         <v>77</v>
@@ -2575,7 +2578,7 @@
         <v>146</v>
       </c>
       <c r="B133" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C133" s="0" t="s">
         <v>77</v>
@@ -2586,7 +2589,7 @@
         <v>147</v>
       </c>
       <c r="B134" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C134" s="0" t="s">
         <v>77</v>
@@ -2597,7 +2600,7 @@
         <v>148</v>
       </c>
       <c r="B135" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C135" s="0" t="s">
         <v>77</v>
@@ -2608,7 +2611,7 @@
         <v>149</v>
       </c>
       <c r="B136" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C136" s="0" t="s">
         <v>77</v>
@@ -2619,7 +2622,7 @@
         <v>150</v>
       </c>
       <c r="B137" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C137" s="0" t="s">
         <v>77</v>
@@ -2630,7 +2633,7 @@
         <v>151</v>
       </c>
       <c r="B138" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C138" s="0" t="s">
         <v>77</v>
@@ -2641,7 +2644,7 @@
         <v>152</v>
       </c>
       <c r="B139" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C139" s="0" t="s">
         <v>77</v>
@@ -2652,7 +2655,7 @@
         <v>153</v>
       </c>
       <c r="B140" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C140" s="0" t="s">
         <v>77</v>
@@ -2663,7 +2666,7 @@
         <v>154</v>
       </c>
       <c r="B141" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C141" s="0" t="s">
         <v>77</v>
@@ -2674,7 +2677,7 @@
         <v>155</v>
       </c>
       <c r="B142" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C142" s="0" t="s">
         <v>77</v>
@@ -2685,7 +2688,7 @@
         <v>156</v>
       </c>
       <c r="B143" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C143" s="0" t="s">
         <v>77</v>
@@ -2696,7 +2699,7 @@
         <v>70</v>
       </c>
       <c r="B144" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C144" s="0" t="s">
         <v>58</v>
@@ -2707,7 +2710,7 @@
         <v>157</v>
       </c>
       <c r="B145" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C145" s="0" t="s">
         <v>77</v>
@@ -2717,27 +2720,27 @@
   <hyperlinks>
     <hyperlink ref="A2" display="PartialConfig1.jpg" r:id="rId2"/>
     <hyperlink ref="A3" display="PartialConfigPullServer.jpg" r:id="rId3"/>
-    <hyperlink ref="A4" display="Push.png" r:id="rId4"/>
-    <hyperlink ref="A5" display="archiveResource.md" r:id="rId5"/>
-    <hyperlink ref="A6" display="authoringResource.md" r:id="rId6"/>
-    <hyperlink ref="A7" display="authoringResourceClass.md" r:id="rId7"/>
-    <hyperlink ref="A8" display="authoringResourceComposite.md" r:id="rId8"/>
-    <hyperlink ref="A9" display="authoringResourceMOF.md" r:id="rId9"/>
-    <hyperlink ref="A10" display="authoringResourceMofCS.md" r:id="rId10"/>
-    <hyperlink ref="A11" display="authoringResourceMofDesigner.md" r:id="rId11"/>
-    <hyperlink ref="A12" display="builtInResource.md" r:id="rId12"/>
-    <hyperlink ref="A13" display="configData.md" r:id="rId13"/>
-    <hyperlink ref="A14" display="configDataCredentials.md" r:id="rId14"/>
-    <hyperlink ref="A15" display="configurations.md" r:id="rId15"/>
-    <hyperlink ref="A16" display="debugResource.md" r:id="rId16"/>
-    <hyperlink ref="A17" display="decisionMaker.md" r:id="rId17"/>
-    <hyperlink ref="A18" display="enactingConfigurations.md" r:id="rId18"/>
-    <hyperlink ref="A19" display="environmentResource.md" r:id="rId19"/>
-    <hyperlink ref="A20" display="fileResource.md" r:id="rId20"/>
-    <hyperlink ref="A21" display="gettingStarted.md" r:id="rId21"/>
-    <hyperlink ref="A22" display="groupResource.md" r:id="rId22"/>
-    <hyperlink ref="A23" display="CredentialEncryptionDiagram1.png" r:id="rId23"/>
-    <hyperlink ref="A24" display="Pull.png" r:id="rId24"/>
+    <hyperlink ref="A4" display="Pull.png" r:id="rId4"/>
+    <hyperlink ref="A5" display="Push.png" r:id="rId5"/>
+    <hyperlink ref="A6" display="archiveResource.md" r:id="rId6"/>
+    <hyperlink ref="A7" display="authoringResource.md" r:id="rId7"/>
+    <hyperlink ref="A8" display="authoringResourceClass.md" r:id="rId8"/>
+    <hyperlink ref="A9" display="authoringResourceComposite.md" r:id="rId9"/>
+    <hyperlink ref="A10" display="authoringResourceMOF.md" r:id="rId10"/>
+    <hyperlink ref="A11" display="authoringResourceMofCS.md" r:id="rId11"/>
+    <hyperlink ref="A12" display="authoringResourceMofDesigner.md" r:id="rId12"/>
+    <hyperlink ref="A13" display="builtInResource.md" r:id="rId13"/>
+    <hyperlink ref="A14" display="configData.md" r:id="rId14"/>
+    <hyperlink ref="A15" display="configDataCredentials.md" r:id="rId15"/>
+    <hyperlink ref="A16" display="configurations.md" r:id="rId16"/>
+    <hyperlink ref="A17" display="debugResource.md" r:id="rId17"/>
+    <hyperlink ref="A18" display="decisionMaker.md" r:id="rId18"/>
+    <hyperlink ref="A19" display="enactingConfigurations.md" r:id="rId19"/>
+    <hyperlink ref="A20" display="environmentResource.md" r:id="rId20"/>
+    <hyperlink ref="A21" display="fileResource.md" r:id="rId21"/>
+    <hyperlink ref="A22" display="gettingStarted.md" r:id="rId22"/>
+    <hyperlink ref="A23" display="groupResource.md" r:id="rId23"/>
+    <hyperlink ref="A24" display="CredentialEncryptionDiagram1.png" r:id="rId24"/>
     <hyperlink ref="A25" display="lnxArchiveResource.md" r:id="rId25"/>
     <hyperlink ref="A26" display="lnxBuiltInResources.md" r:id="rId26"/>
     <hyperlink ref="A27" display="lnxEnvironmentResource.md" r:id="rId27"/>
@@ -3024,45 +3027,54 @@
         <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="C5" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>180</v>
-      </c>
       <c r="E5" s="2" t="s">
-        <v>181</v>
+        <v>171</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>179</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>183</v>
+        <v>173</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7">
@@ -3070,45 +3082,45 @@
         <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>185</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>181</v>
-      </c>
       <c r="H8" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="9">
@@ -3116,22 +3128,22 @@
         <v>15</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>188</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="10">
@@ -3139,22 +3151,22 @@
         <v>16</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>189</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11">
@@ -3162,22 +3174,22 @@
         <v>17</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>190</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="12">
@@ -3185,22 +3197,22 @@
         <v>18</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>191</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="13">
@@ -3208,22 +3220,22 @@
         <v>19</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>192</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="14">
@@ -3231,22 +3243,22 @@
         <v>20</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>193</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="15">
@@ -3254,22 +3266,22 @@
         <v>21</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>194</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="16">
@@ -3277,68 +3289,68 @@
         <v>22</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>195</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="E17" s="2" t="s">
-        <v>198</v>
-      </c>
       <c r="H17" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="E18" s="2" t="s">
-        <v>181</v>
-      </c>
       <c r="H18" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="19">
@@ -3346,22 +3358,22 @@
         <v>27</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>200</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="20">
@@ -3369,22 +3381,22 @@
         <v>28</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>201</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="21">
@@ -3392,22 +3404,22 @@
         <v>29</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>202</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I21" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="22">
@@ -3415,22 +3427,22 @@
         <v>30</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>203</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I22" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="23">
@@ -3438,25 +3450,22 @@
         <v>31</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>204</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>173</v>
-      </c>
-      <c r="J23" s="0" t="s">
-        <v>205</v>
+        <v>184</v>
       </c>
     </row>
     <row r="24">
@@ -3467,22 +3476,22 @@
         <v>176</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>171</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I24" s="0" t="s">
         <v>173</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>178</v>
+        <v>206</v>
       </c>
     </row>
     <row r="25">
@@ -3490,22 +3499,22 @@
         <v>33</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>207</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I25" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="26">
@@ -3513,22 +3522,22 @@
         <v>34</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>208</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I26" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="27">
@@ -3536,22 +3545,22 @@
         <v>35</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>209</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I27" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="28">
@@ -3559,22 +3568,22 @@
         <v>36</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>210</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I28" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="29">
@@ -3582,22 +3591,22 @@
         <v>37</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>211</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I29" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="30">
@@ -3605,10 +3614,10 @@
         <v>38</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>212</v>
@@ -3617,10 +3626,10 @@
         <v>213</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I30" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="31">
@@ -3628,22 +3637,22 @@
         <v>40</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>214</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I31" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="32">
@@ -3651,22 +3660,22 @@
         <v>41</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>215</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I32" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="33">
@@ -3674,22 +3683,22 @@
         <v>42</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>216</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I33" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="34">
@@ -3697,22 +3706,22 @@
         <v>43</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>217</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I34" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="35">
@@ -3720,22 +3729,22 @@
         <v>44</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>218</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I35" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="36">
@@ -3743,22 +3752,22 @@
         <v>45</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>219</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I36" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="37">
@@ -3766,22 +3775,22 @@
         <v>46</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>220</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I37" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="38">
@@ -3789,22 +3798,22 @@
         <v>47</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>221</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I38" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="39">
@@ -3812,22 +3821,22 @@
         <v>48</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>222</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I39" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="40">
@@ -3835,22 +3844,22 @@
         <v>49</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>223</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H40" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I40" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="41">
@@ -3858,22 +3867,22 @@
         <v>50</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>224</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H41" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I41" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="42">
@@ -3881,22 +3890,22 @@
         <v>51</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>225</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H42" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I42" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="43">
@@ -3904,22 +3913,22 @@
         <v>52</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>226</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H43" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I43" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="44">
@@ -3927,22 +3936,22 @@
         <v>53</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>227</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H44" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I44" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="45">
@@ -3950,22 +3959,22 @@
         <v>54</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>228</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>55</v>
+        <v>229</v>
       </c>
       <c r="H45" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I45" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="46">
@@ -3973,22 +3982,22 @@
         <v>56</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H46" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I46" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="47">
@@ -3996,22 +4005,22 @@
         <v>57</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H47" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I47" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="48">
@@ -4019,22 +4028,22 @@
         <v>59</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>55</v>
+        <v>229</v>
       </c>
       <c r="H48" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I48" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="49">
@@ -4042,22 +4051,22 @@
         <v>60</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H49" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I49" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="50">
@@ -4065,22 +4074,22 @@
         <v>61</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H50" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I50" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="51">
@@ -4088,22 +4097,22 @@
         <v>62</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H51" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I51" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="52">
@@ -4111,22 +4120,22 @@
         <v>63</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>55</v>
+        <v>229</v>
       </c>
       <c r="H52" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I52" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="53">
@@ -4134,22 +4143,22 @@
         <v>64</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H53" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I53" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="54">
@@ -4157,22 +4166,22 @@
         <v>65</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H54" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I54" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="55">
@@ -4180,22 +4189,22 @@
         <v>66</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H55" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I55" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="56">
@@ -4203,22 +4212,22 @@
         <v>67</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>171</v>
       </c>
       <c r="H56" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I56" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="57">
@@ -4226,22 +4235,22 @@
         <v>68</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H57" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I57" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="58">
@@ -4249,22 +4258,22 @@
         <v>69</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H58" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I58" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="59">
@@ -4272,22 +4281,22 @@
         <v>70</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H59" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I59" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="60">
@@ -4295,22 +4304,22 @@
         <v>71</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H60" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I60" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="61">
@@ -4318,22 +4327,22 @@
         <v>73</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H61" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I61" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="62">
@@ -4341,22 +4350,22 @@
         <v>74</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H62" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I62" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="63">
@@ -4364,22 +4373,22 @@
         <v>75</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H63" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I63" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="64">
@@ -4387,22 +4396,22 @@
         <v>76</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H64" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I64" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="65">
@@ -4410,22 +4419,22 @@
         <v>78</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H65" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I65" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="66">
@@ -4433,22 +4442,22 @@
         <v>79</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H66" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I66" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="67">
@@ -4456,22 +4465,22 @@
         <v>80</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H67" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I67" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="68">
@@ -4479,22 +4488,22 @@
         <v>81</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H68" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I68" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="69">
@@ -4502,22 +4511,22 @@
         <v>82</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H69" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I69" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="70">
@@ -4525,22 +4534,22 @@
         <v>83</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H70" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I70" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="71">
@@ -4548,22 +4557,22 @@
         <v>84</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H71" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I71" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="72">
@@ -4571,22 +4580,22 @@
         <v>85</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H72" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I72" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="73">
@@ -4594,22 +4603,22 @@
         <v>86</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H73" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I73" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="74">
@@ -4617,22 +4626,22 @@
         <v>87</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H74" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I74" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="75">
@@ -4640,22 +4649,22 @@
         <v>88</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H75" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I75" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="76">
@@ -4663,22 +4672,22 @@
         <v>89</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H76" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I76" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="77">
@@ -4686,22 +4695,22 @@
         <v>90</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H77" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I77" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="78">
@@ -4709,22 +4718,22 @@
         <v>91</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H78" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I78" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="79">
@@ -4732,22 +4741,22 @@
         <v>92</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H79" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I79" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="80">
@@ -4755,22 +4764,22 @@
         <v>93</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H80" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I80" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="81">
@@ -4778,22 +4787,22 @@
         <v>94</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H81" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I81" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="82">
@@ -4801,22 +4810,22 @@
         <v>95</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H82" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I82" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="83">
@@ -4824,22 +4833,22 @@
         <v>96</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H83" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I83" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="84">
@@ -4847,22 +4856,22 @@
         <v>97</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H84" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I84" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="85">
@@ -4870,22 +4879,22 @@
         <v>98</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H85" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I85" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="86">
@@ -4893,22 +4902,22 @@
         <v>99</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H86" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I86" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="87">
@@ -4916,22 +4925,22 @@
         <v>100</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H87" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I87" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="88">
@@ -4939,22 +4948,22 @@
         <v>101</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H88" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I88" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="89">
@@ -4962,22 +4971,22 @@
         <v>102</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H89" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I89" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="90">
@@ -4985,22 +4994,22 @@
         <v>103</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H90" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I90" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="91">
@@ -5008,22 +5017,22 @@
         <v>104</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H91" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I91" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="92">
@@ -5031,22 +5040,22 @@
         <v>105</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H92" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I92" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="93">
@@ -5054,22 +5063,22 @@
         <v>106</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H93" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I93" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="94">
@@ -5077,22 +5086,22 @@
         <v>107</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H94" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I94" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="95">
@@ -5100,22 +5109,22 @@
         <v>108</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H95" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I95" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="96">
@@ -5123,22 +5132,22 @@
         <v>109</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H96" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I96" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="97">
@@ -5146,22 +5155,22 @@
         <v>110</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H97" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I97" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="98">
@@ -5169,22 +5178,22 @@
         <v>111</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H98" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I98" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="99">
@@ -5192,22 +5201,22 @@
         <v>112</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H99" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I99" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="100">
@@ -5215,22 +5224,22 @@
         <v>113</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H100" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I100" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="101">
@@ -5238,22 +5247,22 @@
         <v>114</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H101" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I101" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="102">
@@ -5261,22 +5270,22 @@
         <v>115</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H102" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I102" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="103">
@@ -5284,22 +5293,22 @@
         <v>116</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H103" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I103" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="104">
@@ -5307,22 +5316,22 @@
         <v>117</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H104" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I104" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="105">
@@ -5330,22 +5339,22 @@
         <v>118</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H105" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I105" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="106">
@@ -5353,22 +5362,22 @@
         <v>119</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H106" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I106" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="107">
@@ -5376,22 +5385,22 @@
         <v>120</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H107" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I107" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="108">
@@ -5399,22 +5408,22 @@
         <v>121</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H108" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I108" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="109">
@@ -5422,22 +5431,22 @@
         <v>122</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H109" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I109" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="110">
@@ -5445,22 +5454,22 @@
         <v>123</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H110" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I110" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="111">
@@ -5468,22 +5477,22 @@
         <v>124</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H111" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I111" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="112">
@@ -5491,22 +5500,22 @@
         <v>125</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H112" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I112" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="113">
@@ -5514,22 +5523,22 @@
         <v>126</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H113" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I113" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="114">
@@ -5537,22 +5546,22 @@
         <v>127</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H114" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I114" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="115">
@@ -5560,22 +5569,22 @@
         <v>128</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H115" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I115" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="116">
@@ -5583,22 +5592,22 @@
         <v>129</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H116" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I116" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="117">
@@ -5606,22 +5615,22 @@
         <v>130</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H117" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I117" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="118">
@@ -5629,22 +5638,22 @@
         <v>131</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H118" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I118" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="119">
@@ -5655,22 +5664,22 @@
         <v>169</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>171</v>
       </c>
       <c r="H119" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I119" s="0" t="s">
         <v>173</v>
       </c>
       <c r="J119" s="0" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="120">
@@ -5681,22 +5690,22 @@
         <v>169</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>171</v>
       </c>
       <c r="H120" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I120" s="0" t="s">
         <v>173</v>
       </c>
       <c r="J120" s="0" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="121">
@@ -5707,22 +5716,22 @@
         <v>169</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>171</v>
       </c>
       <c r="H121" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I121" s="0" t="s">
         <v>173</v>
       </c>
       <c r="J121" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="122">
@@ -5730,22 +5739,22 @@
         <v>135</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H122" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I122" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="123">
@@ -5753,22 +5762,22 @@
         <v>136</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H123" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I123" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="124">
@@ -5776,22 +5785,22 @@
         <v>137</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H124" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I124" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="125">
@@ -5799,22 +5808,22 @@
         <v>138</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C125" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H125" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I125" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="126">
@@ -5822,22 +5831,22 @@
         <v>139</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C126" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H126" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I126" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="127">
@@ -5845,22 +5854,22 @@
         <v>140</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C127" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H127" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I127" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="128">
@@ -5868,22 +5877,22 @@
         <v>141</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C128" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H128" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I128" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="129">
@@ -5891,22 +5900,22 @@
         <v>142</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C129" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H129" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I129" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="130">
@@ -5914,22 +5923,22 @@
         <v>143</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C130" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H130" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I130" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="131">
@@ -5937,22 +5946,22 @@
         <v>144</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C131" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H131" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I131" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="132">
@@ -5960,22 +5969,22 @@
         <v>145</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C132" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H132" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I132" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="133">
@@ -5983,22 +5992,22 @@
         <v>146</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C133" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H133" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I133" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="134">
@@ -6006,22 +6015,22 @@
         <v>147</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C134" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H134" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I134" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="135">
@@ -6029,22 +6038,22 @@
         <v>148</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C135" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H135" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I135" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="136">
@@ -6052,22 +6061,22 @@
         <v>149</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C136" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H136" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I136" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="137">
@@ -6075,22 +6084,22 @@
         <v>150</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C137" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H137" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I137" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="138">
@@ -6098,22 +6107,22 @@
         <v>151</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C138" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H138" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I138" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="139">
@@ -6121,22 +6130,22 @@
         <v>152</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C139" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H139" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I139" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="140">
@@ -6144,22 +6153,22 @@
         <v>153</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C140" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H140" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I140" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="141">
@@ -6167,22 +6176,22 @@
         <v>154</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C141" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H141" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I141" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="142">
@@ -6190,22 +6199,22 @@
         <v>155</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C142" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H142" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I142" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="143">
@@ -6213,22 +6222,22 @@
         <v>156</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C143" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H143" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I143" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="144">
@@ -6236,22 +6245,22 @@
         <v>70</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C144" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H144" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I144" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="145">
@@ -6259,22 +6268,22 @@
         <v>157</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C145" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H145" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I145" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -6289,434 +6298,436 @@
     <hyperlink ref="D3" display="1ba842005c2b1ce80a3670429b3e010c7b1c1f59.jpg" r:id="rId9"/>
     <hyperlink ref="F3" display="PartialConfigPullServer.jpg" r:id="rId10"/>
     <hyperlink ref="G3" display="1ba842005c2b1ce80a3670429b3e010c7b1c1f59.jpg" r:id="rId11"/>
-    <hyperlink ref="A4" display="Push.png" r:id="rId12"/>
+    <hyperlink ref="A4" display="Pull.png" r:id="rId12"/>
     <hyperlink ref="B4" display=".png" r:id="rId13"/>
-    <hyperlink ref="D4" display="d3008e3fe7da4c118c693d2b34a0b329780f8d86.png" r:id="rId14"/>
-    <hyperlink ref="F4" display="Push.png" r:id="rId15"/>
-    <hyperlink ref="G4" display="d3008e3fe7da4c118c693d2b34a0b329780f8d86.png" r:id="rId16"/>
-    <hyperlink ref="A5" display="archiveResource.md" r:id="rId17"/>
-    <hyperlink ref="B5" display=".md" r:id="rId18"/>
-    <hyperlink ref="D5" display="archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.ru-ru.xlf" r:id="rId19"/>
-    <hyperlink ref="A6" display="authoringResource.md" r:id="rId20"/>
-    <hyperlink ref="B6" display=".md" r:id="rId21"/>
-    <hyperlink ref="D6" display="authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.ru-ru.xlf" r:id="rId22"/>
-    <hyperlink ref="A7" display="authoringResourceClass.md" r:id="rId23"/>
-    <hyperlink ref="B7" display=".md" r:id="rId24"/>
-    <hyperlink ref="D7" display="authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.ru-ru.xlf" r:id="rId25"/>
-    <hyperlink ref="A8" display="authoringResourceComposite.md" r:id="rId26"/>
-    <hyperlink ref="B8" display=".md" r:id="rId27"/>
-    <hyperlink ref="D8" display="authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.ru-ru.xlf" r:id="rId28"/>
-    <hyperlink ref="A9" display="authoringResourceMOF.md" r:id="rId29"/>
-    <hyperlink ref="B9" display=".md" r:id="rId30"/>
-    <hyperlink ref="D9" display="authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.ru-ru.xlf" r:id="rId31"/>
-    <hyperlink ref="A10" display="authoringResourceMofCS.md" r:id="rId32"/>
-    <hyperlink ref="B10" display=".md" r:id="rId33"/>
-    <hyperlink ref="D10" display="authoringResourceMofCS.0647b27b00ec52b2f524a2856e48bc7c29c0f867.ru-ru.xlf" r:id="rId34"/>
-    <hyperlink ref="A11" display="authoringResourceMofDesigner.md" r:id="rId35"/>
-    <hyperlink ref="B11" display=".md" r:id="rId36"/>
-    <hyperlink ref="D11" display="authoringResourceMofDesigner.09b1adffc4afb0d9b1154880e2dab0b25d82d51b.ru-ru.xlf" r:id="rId37"/>
-    <hyperlink ref="A12" display="builtInResource.md" r:id="rId38"/>
-    <hyperlink ref="B12" display=".md" r:id="rId39"/>
-    <hyperlink ref="D12" display="builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.ru-ru.xlf" r:id="rId40"/>
-    <hyperlink ref="A13" display="configData.md" r:id="rId41"/>
-    <hyperlink ref="B13" display=".md" r:id="rId42"/>
-    <hyperlink ref="D13" display="configData.51d01a46dd9af8b425788cc485523b09f8470b95.ru-ru.xlf" r:id="rId43"/>
-    <hyperlink ref="A14" display="configDataCredentials.md" r:id="rId44"/>
-    <hyperlink ref="B14" display=".md" r:id="rId45"/>
-    <hyperlink ref="D14" display="configDataCredentials.f3e75119e7d93b2f914823c5ea23bfde3935a874.ru-ru.xlf" r:id="rId46"/>
-    <hyperlink ref="A15" display="configurations.md" r:id="rId47"/>
-    <hyperlink ref="B15" display=".md" r:id="rId48"/>
-    <hyperlink ref="D15" display="configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.ru-ru.xlf" r:id="rId49"/>
-    <hyperlink ref="A16" display="debugResource.md" r:id="rId50"/>
-    <hyperlink ref="B16" display=".md" r:id="rId51"/>
-    <hyperlink ref="D16" display="debugResource.ac634156affe5c723cc149a298f5aa4268d17016.ru-ru.xlf" r:id="rId52"/>
-    <hyperlink ref="A17" display="decisionMaker.md" r:id="rId53"/>
-    <hyperlink ref="B17" display=".md" r:id="rId54"/>
-    <hyperlink ref="D17" display="decisionMaker.01553169f2ba4241995260fad925e2784b5f5567.ru-ru.xlf" r:id="rId55"/>
-    <hyperlink ref="A18" display="enactingConfigurations.md" r:id="rId56"/>
-    <hyperlink ref="B18" display=".md" r:id="rId57"/>
-    <hyperlink ref="D18" display="enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.ru-ru.xlf" r:id="rId58"/>
-    <hyperlink ref="A19" display="environmentResource.md" r:id="rId59"/>
-    <hyperlink ref="B19" display=".md" r:id="rId60"/>
-    <hyperlink ref="D19" display="environmentResource.eb91ffd4cd8bdb9476e5a83de1a20d3b7b502a56.ru-ru.xlf" r:id="rId61"/>
-    <hyperlink ref="A20" display="fileResource.md" r:id="rId62"/>
-    <hyperlink ref="B20" display=".md" r:id="rId63"/>
-    <hyperlink ref="D20" display="fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.ru-ru.xlf" r:id="rId64"/>
-    <hyperlink ref="A21" display="gettingStarted.md" r:id="rId65"/>
-    <hyperlink ref="B21" display=".md" r:id="rId66"/>
-    <hyperlink ref="D21" display="gettingStarted.92e02d8bd273df5c304475a9b4fa251c22a7ea19.ru-ru.xlf" r:id="rId67"/>
-    <hyperlink ref="A22" display="groupResource.md" r:id="rId68"/>
-    <hyperlink ref="B22" display=".md" r:id="rId69"/>
-    <hyperlink ref="D22" display="groupResource.d19d416269795c92566b62c36b9782062dcea43e.ru-ru.xlf" r:id="rId70"/>
-    <hyperlink ref="A23" display="CredentialEncryptionDiagram1.png" r:id="rId71"/>
-    <hyperlink ref="B23" display=".png" r:id="rId72"/>
-    <hyperlink ref="D23" display="d9f53a805041164f5070845c0fd216b63d17ae58.png" r:id="rId73"/>
-    <hyperlink ref="A24" display="Pull.png" r:id="rId74"/>
-    <hyperlink ref="B24" display=".png" r:id="rId75"/>
-    <hyperlink ref="D24" display="86d829b1fcdd41e648ed0594eaf337b3726c143c.png" r:id="rId76"/>
-    <hyperlink ref="A25" display="lnxArchiveResource.md" r:id="rId77"/>
-    <hyperlink ref="B25" display=".md" r:id="rId78"/>
-    <hyperlink ref="D25" display="lnxArchiveResource.095aab7d23720fd394f2573c30223a6bbcc0a4ef.ru-ru.xlf" r:id="rId79"/>
-    <hyperlink ref="A26" display="lnxBuiltInResources.md" r:id="rId80"/>
-    <hyperlink ref="B26" display=".md" r:id="rId81"/>
-    <hyperlink ref="D26" display="lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.ru-ru.xlf" r:id="rId82"/>
-    <hyperlink ref="A27" display="lnxEnvironmentResource.md" r:id="rId83"/>
-    <hyperlink ref="B27" display=".md" r:id="rId84"/>
-    <hyperlink ref="D27" display="lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.ru-ru.xlf" r:id="rId85"/>
-    <hyperlink ref="A28" display="lnxFileLineResource.md" r:id="rId86"/>
-    <hyperlink ref="B28" display=".md" r:id="rId87"/>
-    <hyperlink ref="D28" display="lnxFileLineResource.d91fc802a4c6cdbff5a2e35f92b34c36c6dbf5eb.ru-ru.xlf" r:id="rId88"/>
-    <hyperlink ref="A29" display="lnxFileResource.md" r:id="rId89"/>
-    <hyperlink ref="B29" display=".md" r:id="rId90"/>
-    <hyperlink ref="D29" display="lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.ru-ru.xlf" r:id="rId91"/>
-    <hyperlink ref="A30" display="lnxGettingStarted.md" r:id="rId92"/>
-    <hyperlink ref="B30" display=".md" r:id="rId93"/>
-    <hyperlink ref="D30" display="lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.ru-ru.xlf" r:id="rId94"/>
-    <hyperlink ref="A31" display="lnxGroupResource.md" r:id="rId95"/>
-    <hyperlink ref="B31" display=".md" r:id="rId96"/>
-    <hyperlink ref="D31" display="lnxGroupResource.0cedb684d797032bd47cdb852629c36da0884567.ru-ru.xlf" r:id="rId97"/>
-    <hyperlink ref="A32" display="lnxPackageResource.md" r:id="rId98"/>
-    <hyperlink ref="B32" display=".md" r:id="rId99"/>
-    <hyperlink ref="D32" display="lnxPackageResource.db35ab938bbfbb38cae53fe9ae98fd22b5f18009.ru-ru.xlf" r:id="rId100"/>
-    <hyperlink ref="A33" display="lnxScriptResource.md" r:id="rId101"/>
-    <hyperlink ref="B33" display=".md" r:id="rId102"/>
-    <hyperlink ref="D33" display="lnxScriptResource.1344a5d5b807ee53705e93842d9ef5e25a883359.ru-ru.xlf" r:id="rId103"/>
-    <hyperlink ref="A34" display="lnxServiceResource.md" r:id="rId104"/>
-    <hyperlink ref="B34" display=".md" r:id="rId105"/>
-    <hyperlink ref="D34" display="lnxServiceResource.e637c7f7b18939ec8c16eadf2c42ab00e236fb7b.ru-ru.xlf" r:id="rId106"/>
-    <hyperlink ref="A35" display="lnxSshAuthorizedKeysResource.md" r:id="rId107"/>
-    <hyperlink ref="B35" display=".md" r:id="rId108"/>
-    <hyperlink ref="D35" display="lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.ru-ru.xlf" r:id="rId109"/>
-    <hyperlink ref="A36" display="lnxUserResource.md" r:id="rId110"/>
-    <hyperlink ref="B36" display=".md" r:id="rId111"/>
-    <hyperlink ref="D36" display="lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.ru-ru.xlf" r:id="rId112"/>
-    <hyperlink ref="A37" display="logResource.md" r:id="rId113"/>
-    <hyperlink ref="B37" display=".md" r:id="rId114"/>
-    <hyperlink ref="D37" display="logResource.07af9dfcf6076ef19059178c3b404762677920f0.ru-ru.xlf" r:id="rId115"/>
-    <hyperlink ref="A38" display="metaConfig.md" r:id="rId116"/>
-    <hyperlink ref="B38" display=".md" r:id="rId117"/>
-    <hyperlink ref="D38" display="metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.ru-ru.xlf" r:id="rId118"/>
-    <hyperlink ref="A39" display="metaConfig4.md" r:id="rId119"/>
-    <hyperlink ref="B39" display=".md" r:id="rId120"/>
-    <hyperlink ref="D39" display="metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.ru-ru.xlf" r:id="rId121"/>
-    <hyperlink ref="A40" display="overview.md" r:id="rId122"/>
-    <hyperlink ref="B40" display=".md" r:id="rId123"/>
-    <hyperlink ref="D40" display="overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.ru-ru.xlf" r:id="rId124"/>
-    <hyperlink ref="A41" display="packageResource.md" r:id="rId125"/>
-    <hyperlink ref="B41" display=".md" r:id="rId126"/>
-    <hyperlink ref="D41" display="packageResource.132c4949cee174dc0dc324456d220436cb9884e6.ru-ru.xlf" r:id="rId127"/>
-    <hyperlink ref="A42" display="partialConfigs.md" r:id="rId128"/>
-    <hyperlink ref="B42" display=".md" r:id="rId129"/>
-    <hyperlink ref="D42" display="partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.ru-ru.xlf" r:id="rId130"/>
-    <hyperlink ref="A43" display="pullClient.md" r:id="rId131"/>
-    <hyperlink ref="B43" display=".md" r:id="rId132"/>
-    <hyperlink ref="D43" display="pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.ru-ru.xlf" r:id="rId133"/>
-    <hyperlink ref="A44" display="pullClientConfigID.md" r:id="rId134"/>
-    <hyperlink ref="B44" display=".md" r:id="rId135"/>
-    <hyperlink ref="D44" display="pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.ru-ru.xlf" r:id="rId136"/>
-    <hyperlink ref="A45" display="pullClientConfigID4.md" r:id="rId137"/>
-    <hyperlink ref="B45" display=".md" r:id="rId138"/>
-    <hyperlink ref="D45" display="pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.ru-ru.xlf" r:id="rId139"/>
-    <hyperlink ref="A46" display="pullClientConfigNames.md" r:id="rId140"/>
-    <hyperlink ref="B46" display=".md" r:id="rId141"/>
-    <hyperlink ref="D46" display="pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.ru-ru.xlf" r:id="rId142"/>
-    <hyperlink ref="A47" display="pullServer.md" r:id="rId143"/>
-    <hyperlink ref="B47" display=".md" r:id="rId144"/>
-    <hyperlink ref="D47" display="pullServer.4b925b277da29998394af746bdbdd508fda48909.ru-ru.xlf" r:id="rId145"/>
-    <hyperlink ref="A48" display="pullServerSMB.md" r:id="rId146"/>
-    <hyperlink ref="B48" display=".md" r:id="rId147"/>
-    <hyperlink ref="D48" display="pullServerSMB.772aec5ae27ccb19ced78e3eb665a4e16db1c4df.ru-ru.xlf" r:id="rId148"/>
-    <hyperlink ref="A49" display="queryServerNodes.md" r:id="rId149"/>
-    <hyperlink ref="B49" display=".md" r:id="rId150"/>
-    <hyperlink ref="D49" display="queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.ru-ru.xlf" r:id="rId151"/>
-    <hyperlink ref="A50" display="registryResource.md" r:id="rId152"/>
-    <hyperlink ref="B50" display=".md" r:id="rId153"/>
-    <hyperlink ref="D50" display="registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.ru-ru.xlf" r:id="rId154"/>
-    <hyperlink ref="A51" display="reportServer.md" r:id="rId155"/>
-    <hyperlink ref="B51" display=".md" r:id="rId156"/>
-    <hyperlink ref="D51" display="reportServer.53df4bc8b7b80c0a19c11434bdf5f4304e8248f7.ru-ru.xlf" r:id="rId157"/>
-    <hyperlink ref="A52" display="resourceAuthoringChecklist.md" r:id="rId158"/>
-    <hyperlink ref="B52" display=".md" r:id="rId159"/>
-    <hyperlink ref="D52" display="resourceAuthoringChecklist.3b9ae254d826cc45519d37d06044f28a69bdfa69.ru-ru.xlf" r:id="rId160"/>
-    <hyperlink ref="A53" display="resources.md" r:id="rId161"/>
-    <hyperlink ref="B53" display=".md" r:id="rId162"/>
-    <hyperlink ref="D53" display="resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.ru-ru.xlf" r:id="rId163"/>
-    <hyperlink ref="A54" display="runAsUser.md" r:id="rId164"/>
-    <hyperlink ref="B54" display=".md" r:id="rId165"/>
-    <hyperlink ref="D54" display="runAsUser.d2b90b6bc42ef965e454f9c9f5fd19bc7b488b34.ru-ru.xlf" r:id="rId166"/>
-    <hyperlink ref="A55" display="scriptResource.md" r:id="rId167"/>
-    <hyperlink ref="B55" display=".md" r:id="rId168"/>
-    <hyperlink ref="D55" display="scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.ru-ru.xlf" r:id="rId169"/>
-    <hyperlink ref="A56" display="secureMOF.md" r:id="rId170"/>
-    <hyperlink ref="B56" display=".md" r:id="rId171"/>
-    <hyperlink ref="D56" display="secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.ru-ru.xlf" r:id="rId172"/>
-    <hyperlink ref="A57" display="secureServer.md" r:id="rId173"/>
-    <hyperlink ref="B57" display=".md" r:id="rId174"/>
-    <hyperlink ref="D57" display="secureServer.ce207607010d18109152742ba23c923cd3cddba2.ru-ru.xlf" r:id="rId175"/>
-    <hyperlink ref="A58" display="serviceResource.md" r:id="rId176"/>
-    <hyperlink ref="B58" display=".md" r:id="rId177"/>
-    <hyperlink ref="D58" display="serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.ru-ru.xlf" r:id="rId178"/>
-    <hyperlink ref="A59" display="TOC.md" r:id="rId179"/>
-    <hyperlink ref="B59" display=".md" r:id="rId180"/>
-    <hyperlink ref="D59" display="TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.ru-ru.xlf" r:id="rId181"/>
-    <hyperlink ref="A60" display="troubleshooting.md" r:id="rId182"/>
-    <hyperlink ref="B60" display=".md" r:id="rId183"/>
-    <hyperlink ref="D60" display="troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.ru-ru.xlf" r:id="rId184"/>
-    <hyperlink ref="A61" display="userResource.md" r:id="rId185"/>
-    <hyperlink ref="B61" display=".md" r:id="rId186"/>
-    <hyperlink ref="D61" display="userResource.5de4fbe03e9e06934442ba451eb0564931863f45.ru-ru.xlf" r:id="rId187"/>
-    <hyperlink ref="A62" display="windowsfeatureResource.md" r:id="rId188"/>
-    <hyperlink ref="B62" display=".md" r:id="rId189"/>
-    <hyperlink ref="D62" display="windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.ru-ru.xlf" r:id="rId190"/>
-    <hyperlink ref="A63" display="windowsProcessResource.md" r:id="rId191"/>
-    <hyperlink ref="B63" display=".md" r:id="rId192"/>
-    <hyperlink ref="D63" display="windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.ru-ru.xlf" r:id="rId193"/>
-    <hyperlink ref="A64" display="audit_cms.md" r:id="rId194"/>
-    <hyperlink ref="B64" display=".md" r:id="rId195"/>
-    <hyperlink ref="D64" display="audit_cms.3e422ca243ac938b46bfcf1497a703e55bde970e.ru-ru.xlf" r:id="rId196"/>
-    <hyperlink ref="A65" display="audit_overview.md" r:id="rId197"/>
-    <hyperlink ref="B65" display=".md" r:id="rId198"/>
-    <hyperlink ref="D65" display="audit_overview.fc5b51e2734a2af986c9edf42b4395b1aad2435d.ru-ru.xlf" r:id="rId199"/>
-    <hyperlink ref="A66" display="audit_script.md" r:id="rId200"/>
-    <hyperlink ref="B66" display=".md" r:id="rId201"/>
-    <hyperlink ref="D66" display="audit_script.e89f3a9316d1125e1efd23b41b756a3a6161016b.ru-ru.xlf" r:id="rId202"/>
-    <hyperlink ref="A67" display="audit_transcript.md" r:id="rId203"/>
-    <hyperlink ref="B67" display=".md" r:id="rId204"/>
-    <hyperlink ref="D67" display="audit_transcript.c21a6554932939cbf4c744bf7c9f07cc4e1e7160.ru-ru.xlf" r:id="rId205"/>
-    <hyperlink ref="A68" display="class_base.md" r:id="rId206"/>
-    <hyperlink ref="B68" display=".md" r:id="rId207"/>
-    <hyperlink ref="D68" display="class_base.29a9fbe4987503d5575c151f4271f58398cb7e55.ru-ru.xlf" r:id="rId208"/>
-    <hyperlink ref="A69" display="class_baseconstructor.md" r:id="rId209"/>
-    <hyperlink ref="B69" display=".md" r:id="rId210"/>
-    <hyperlink ref="D69" display="class_baseconstructor.82f951e800b06ccc68090b1be9923c8210a233ac.ru-ru.xlf" r:id="rId211"/>
-    <hyperlink ref="A70" display="class_basemethod.md" r:id="rId212"/>
-    <hyperlink ref="B70" display=".md" r:id="rId213"/>
-    <hyperlink ref="D70" display="class_basemethod.6b60292188d0081f30fbaf4b111db8a439348f5b.ru-ru.xlf" r:id="rId214"/>
-    <hyperlink ref="A71" display="class_interface.md" r:id="rId215"/>
-    <hyperlink ref="B71" display=".md" r:id="rId216"/>
-    <hyperlink ref="D71" display="class_interface.84a08fd30808364a820bdd4440de18ec4504a6c7.ru-ru.xlf" r:id="rId217"/>
-    <hyperlink ref="A72" display="class_newtype.md" r:id="rId218"/>
-    <hyperlink ref="B72" display=".md" r:id="rId219"/>
-    <hyperlink ref="D72" display="class_newtype.a9f52b670970046f8b1147d4ba646b73abb430dc.ru-ru.xlf" r:id="rId220"/>
-    <hyperlink ref="A73" display="class_overview.md" r:id="rId221"/>
-    <hyperlink ref="B73" display=".md" r:id="rId222"/>
-    <hyperlink ref="D73" display="class_overview.91227b885afcb8df385ab601ab970b924eca2533.ru-ru.xlf" r:id="rId223"/>
-    <hyperlink ref="A74" display="debug_overview.md" r:id="rId224"/>
-    <hyperlink ref="B74" display=".md" r:id="rId225"/>
-    <hyperlink ref="D74" display="debug_overview.70b71c20b8b625704c25da28a58e804a048bafb0.ru-ru.xlf" r:id="rId226"/>
-    <hyperlink ref="A75" display="dsc_authoring.md" r:id="rId227"/>
-    <hyperlink ref="B75" display=".md" r:id="rId228"/>
-    <hyperlink ref="D75" display="dsc_authoring.364878cde8f156d8999773842812e0c08f70191c.ru-ru.xlf" r:id="rId229"/>
-    <hyperlink ref="A76" display="dsc_classbasedresource.md" r:id="rId230"/>
-    <hyperlink ref="B76" display=".md" r:id="rId231"/>
-    <hyperlink ref="D76" display="dsc_classbasedresource.a3d6b22652db939b51db1218584247396454ae0f.ru-ru.xlf" r:id="rId232"/>
-    <hyperlink ref="A77" display="dsc_confighelp.md" r:id="rId233"/>
-    <hyperlink ref="B77" display=".md" r:id="rId234"/>
-    <hyperlink ref="D77" display="dsc_confighelp.bcfa7e85acae98499089edc9fba25b68953d7bbf.ru-ru.xlf" r:id="rId235"/>
-    <hyperlink ref="A78" display="dsc_directaccess.md" r:id="rId236"/>
-    <hyperlink ref="B78" display=".md" r:id="rId237"/>
-    <hyperlink ref="D78" display="dsc_directaccess.014c91015162b26b678e0a5fdfd453a3bf6e41b0.ru-ru.xlf" r:id="rId238"/>
-    <hyperlink ref="A79" display="dsc_encryptedmof.md" r:id="rId239"/>
-    <hyperlink ref="B79" display=".md" r:id="rId240"/>
-    <hyperlink ref="D79" display="dsc_encryptedmof.a35c44de669ea81f25dd29f152f03493e52e327b.ru-ru.xlf" r:id="rId241"/>
-    <hyperlink ref="A80" display="dsc_freqnomultiple.md" r:id="rId242"/>
-    <hyperlink ref="B80" display=".md" r:id="rId243"/>
-    <hyperlink ref="D80" display="dsc_freqnomultiple.2848e52c73280aca59e73136bac0c2c7ae02aad6.ru-ru.xlf" r:id="rId244"/>
-    <hyperlink ref="A81" display="dsc_getconfigurationstatus.md" r:id="rId245"/>
-    <hyperlink ref="B81" display=".md" r:id="rId246"/>
-    <hyperlink ref="D81" display="dsc_getconfigurationstatus.1705e4bcaa9dfd9d69f00aecdc7ef0d04bf44899.ru-ru.xlf" r:id="rId247"/>
-    <hyperlink ref="A82" display="dsc_identicalduplicate.md" r:id="rId248"/>
-    <hyperlink ref="B82" display=".md" r:id="rId249"/>
-    <hyperlink ref="D82" display="dsc_identicalduplicate.eb7167ccd4a72d68aa1683327e9b3877927158ab.ru-ru.xlf" r:id="rId250"/>
-    <hyperlink ref="A83" display="dsc_importdscresource.md" r:id="rId251"/>
-    <hyperlink ref="B83" display=".md" r:id="rId252"/>
-    <hyperlink ref="D83" display="dsc_importdscresource.a0169ad862dfcaa5c958c07ecd52c856d5dc8436.ru-ru.xlf" r:id="rId253"/>
-    <hyperlink ref="A84" display="dsc_improvements.md" r:id="rId254"/>
-    <hyperlink ref="B84" display=".md" r:id="rId255"/>
-    <hyperlink ref="D84" display="dsc_improvements.d9ed6ffedf9d9650bb6b26b5ed611e420a0aacbb.ru-ru.xlf" r:id="rId256"/>
-    <hyperlink ref="A85" display="dsc_lcmstate.md" r:id="rId257"/>
-    <hyperlink ref="B85" display=".md" r:id="rId258"/>
-    <hyperlink ref="D85" display="dsc_lcmstate.21ea1c36f37c94e8e0363199fbd07bcced3aea40.ru-ru.xlf" r:id="rId259"/>
-    <hyperlink ref="A86" display="dsc_metaconfiguration.md" r:id="rId260"/>
-    <hyperlink ref="B86" display=".md" r:id="rId261"/>
-    <hyperlink ref="D86" display="dsc_metaconfiguration.e8bbca05aa1692ad54cadd83b93a1902f179f365.ru-ru.xlf" r:id="rId262"/>
-    <hyperlink ref="A87" display="dsc_newresources.md" r:id="rId263"/>
-    <hyperlink ref="B87" display=".md" r:id="rId264"/>
-    <hyperlink ref="D87" display="dsc_newresources.b9c40f591f875ea205c834f7675f3edbe1050592.ru-ru.xlf" r:id="rId265"/>
-    <hyperlink ref="A88" display="dsc_nodeid.md" r:id="rId266"/>
-    <hyperlink ref="B88" display=".md" r:id="rId267"/>
-    <hyperlink ref="D88" display="dsc_nodeid.e3c9049aa6c1d151f8b286f28502537b2f8d22a4.ru-ru.xlf" r:id="rId268"/>
-    <hyperlink ref="A89" display="dsc_partialconfig.md" r:id="rId269"/>
-    <hyperlink ref="B89" display=".md" r:id="rId270"/>
-    <hyperlink ref="D89" display="dsc_partialconfig.a493787c3f8663ac3e2994162ffd1bee429544d3.ru-ru.xlf" r:id="rId271"/>
-    <hyperlink ref="A90" display="dsc_partialconfig_mixedmode.md" r:id="rId272"/>
-    <hyperlink ref="B90" display=".md" r:id="rId273"/>
-    <hyperlink ref="D90" display="dsc_partialconfig_mixedmode.ff4b9a8a421441da62574192650493bf2407028d.ru-ru.xlf" r:id="rId274"/>
-    <hyperlink ref="A91" display="dsc_publishconfig.md" r:id="rId275"/>
-    <hyperlink ref="B91" display=".md" r:id="rId276"/>
-    <hyperlink ref="D91" display="dsc_publishconfig.bfe86d4253abdd777c205caec637c50ec79103ee.ru-ru.xlf" r:id="rId277"/>
-    <hyperlink ref="A92" display="dsc_refreshmode.md" r:id="rId278"/>
-    <hyperlink ref="B92" display=".md" r:id="rId279"/>
-    <hyperlink ref="D92" display="dsc_refreshmode.b0529a06a4d3e07b3fce300f74760d63b27523f6.ru-ru.xlf" r:id="rId280"/>
-    <hyperlink ref="A93" display="dsc_removeconfigdoc.md" r:id="rId281"/>
-    <hyperlink ref="B93" display=".md" r:id="rId282"/>
-    <hyperlink ref="D93" display="dsc_removeconfigdoc.d16cdab7eaedf468bcc38dae34e93be26a204318.ru-ru.xlf" r:id="rId283"/>
-    <hyperlink ref="A94" display="dsc_reporting.md" r:id="rId284"/>
-    <hyperlink ref="B94" display=".md" r:id="rId285"/>
-    <hyperlink ref="D94" display="dsc_reporting.b042cd21b9bcfc8e50bc361ddee59333602fad42.ru-ru.xlf" r:id="rId286"/>
-    <hyperlink ref="A95" display="dsc_repository.md" r:id="rId287"/>
-    <hyperlink ref="B95" display=".md" r:id="rId288"/>
-    <hyperlink ref="D95" display="dsc_repository.ec5040a823a6b64e969393e00f3d859fd0b4551c.ru-ru.xlf" r:id="rId289"/>
-    <hyperlink ref="A96" display="dsc_resourcedebugging.md" r:id="rId290"/>
-    <hyperlink ref="B96" display=".md" r:id="rId291"/>
-    <hyperlink ref="D96" display="dsc_resourcedebugging.95c69e55eb065b349f52e18126d699b1906ba03f.ru-ru.xlf" r:id="rId292"/>
-    <hyperlink ref="A97" display="dsc_runas.md" r:id="rId293"/>
-    <hyperlink ref="B97" display=".md" r:id="rId294"/>
-    <hyperlink ref="D97" display="dsc_runas.9e19a42a6d5e1ea1772358a6fd8ff24b98a5b6ba.ru-ru.xlf" r:id="rId295"/>
-    <hyperlink ref="A98" display="dsc_setdsclcm.md" r:id="rId296"/>
-    <hyperlink ref="B98" display=".md" r:id="rId297"/>
-    <hyperlink ref="D98" display="dsc_setdsclcm.1f0e3cab81cf5fc1feda678f202451fe150632e3.ru-ru.xlf" r:id="rId298"/>
-    <hyperlink ref="A99" display="dsc_statestatus.md" r:id="rId299"/>
-    <hyperlink ref="B99" display=".md" r:id="rId300"/>
-    <hyperlink ref="D99" display="dsc_statestatus.b6f3670f776a8f63a705ba16bed2f20be34fc48f.ru-ru.xlf" r:id="rId301"/>
-    <hyperlink ref="A100" display="dsc_sxsresource.md" r:id="rId302"/>
-    <hyperlink ref="B100" display=".md" r:id="rId303"/>
-    <hyperlink ref="D100" display="dsc_sxsresource.c9d4ce6109370ac1cbc1fb07f191e02f9a61d5d3.ru-ru.xlf" r:id="rId304"/>
-    <hyperlink ref="A101" display="dsc_testconfiguration.md" r:id="rId305"/>
-    <hyperlink ref="B101" display=".md" r:id="rId306"/>
-    <hyperlink ref="D101" display="dsc_testconfiguration.b0e5afe2c8f173ebe49c97c9ea9a2f11d81ea5fa.ru-ru.xlf" r:id="rId307"/>
-    <hyperlink ref="A102" display="dsc_updateconfig.md" r:id="rId308"/>
-    <hyperlink ref="B102" display=".md" r:id="rId309"/>
-    <hyperlink ref="D102" display="dsc_updateconfig.a07eb85e3458d42d7ab1ed5c57dcfc70df709d07.ru-ru.xlf" r:id="rId310"/>
-    <hyperlink ref="A103" display="dsc_waitfor.md" r:id="rId311"/>
-    <hyperlink ref="B103" display=".md" r:id="rId312"/>
-    <hyperlink ref="D103" display="dsc_waitfor.2b09933f08f1020166ce0f0cd7548a5a3845c48f.ru-ru.xlf" r:id="rId313"/>
-    <hyperlink ref="A104" display="dsc_wow64.md" r:id="rId314"/>
-    <hyperlink ref="B104" display=".md" r:id="rId315"/>
-    <hyperlink ref="D104" display="dsc_wow64.ea039aaa1bd77415311fc30d80fed43cda07a6e3.ru-ru.xlf" r:id="rId316"/>
-    <hyperlink ref="A105" display="feedback.md" r:id="rId317"/>
-    <hyperlink ref="B105" display=".md" r:id="rId318"/>
-    <hyperlink ref="D105" display="feedback.3662230166299ef7c1fb7a7a7f5cdbd64b1d812a.ru-ru.xlf" r:id="rId319"/>
-    <hyperlink ref="A106" display="feedback_archive.md" r:id="rId320"/>
-    <hyperlink ref="B106" display=".md" r:id="rId321"/>
-    <hyperlink ref="D106" display="feedback_archive.20de26911a704368058401c7e2bd6ebaac692ff5.ru-ru.xlf" r:id="rId322"/>
-    <hyperlink ref="A107" display="feedback_clipboard.md" r:id="rId323"/>
-    <hyperlink ref="B107" display=".md" r:id="rId324"/>
-    <hyperlink ref="D107" display="feedback_clipboard.872e5c147ef02cb86067651f41e3c00b55386664.ru-ru.xlf" r:id="rId325"/>
-    <hyperlink ref="A108" display="feedback_cmdlets.md" r:id="rId326"/>
-    <hyperlink ref="B108" display=".md" r:id="rId327"/>
-    <hyperlink ref="D108" display="feedback_cmdlets.a4c0dfb806ca0da232eeb75ad3706177b8a5ec48.ru-ru.xlf" r:id="rId328"/>
-    <hyperlink ref="A109" display="feedback_convertfromString.md" r:id="rId329"/>
-    <hyperlink ref="B109" display=".md" r:id="rId330"/>
-    <hyperlink ref="D109" display="feedback_convertfromString.acdeaa33e8fa59b93649b6abf3a7d5ef64fb7664.ru-ru.xlf" r:id="rId331"/>
-    <hyperlink ref="A110" display="feedback_convertstring.md" r:id="rId332"/>
-    <hyperlink ref="B110" display=".md" r:id="rId333"/>
-    <hyperlink ref="D110" display="feedback_convertstring.42e964e30093962871c3a4d586ed6c54f25f840d.ru-ru.xlf" r:id="rId334"/>
-    <hyperlink ref="A111" display="feedback_fileinfo.md" r:id="rId335"/>
-    <hyperlink ref="B111" display=".md" r:id="rId336"/>
-    <hyperlink ref="D111" display="feedback_fileinfo.0192edad2d6504d26a9632f95fc9e5b66ffd8003.ru-ru.xlf" r:id="rId337"/>
-    <hyperlink ref="A112" display="feedback_formathex.md" r:id="rId338"/>
-    <hyperlink ref="B112" display=".md" r:id="rId339"/>
-    <hyperlink ref="D112" display="feedback_formathex.f97931c887efb620e5f4314facc1f0e20e3dffbe.ru-ru.xlf" r:id="rId340"/>
-    <hyperlink ref="A113" display="feedback_getchilditem.md" r:id="rId341"/>
-    <hyperlink ref="B113" display=".md" r:id="rId342"/>
-    <hyperlink ref="D113" display="feedback_getchilditem.ce02ca20cc4417a80fe65eb509a8e92f2cecc79c.ru-ru.xlf" r:id="rId343"/>
-    <hyperlink ref="A114" display="feedback_moduleversionranges.md" r:id="rId344"/>
-    <hyperlink ref="B114" display=".md" r:id="rId345"/>
-    <hyperlink ref="D114" display="feedback_moduleversionranges.611b3a3219d64dbfa1d01541b60a727b880a0c4b.ru-ru.xlf" r:id="rId346"/>
-    <hyperlink ref="A115" display="feedback_newguid.md" r:id="rId347"/>
-    <hyperlink ref="B115" display=".md" r:id="rId348"/>
-    <hyperlink ref="D115" display="feedback_newguid.f8756fbdb96e6fe06a7e0cbb6ac4af32b1c64983.ru-ru.xlf" r:id="rId349"/>
-    <hyperlink ref="A116" display="feedback_nonewline.md" r:id="rId350"/>
-    <hyperlink ref="B116" display=".md" r:id="rId351"/>
-    <hyperlink ref="D116" display="feedback_nonewline.7a9b7e24c50399879089bba2b8eee7dc325572e2.ru-ru.xlf" r:id="rId352"/>
-    <hyperlink ref="A117" display="feedback_symbolic.md" r:id="rId353"/>
-    <hyperlink ref="B117" display=".md" r:id="rId354"/>
-    <hyperlink ref="D117" display="feedback_symbolic.1c3ac8128fb9df60512ec024044d48be7d0cb59f.ru-ru.xlf" r:id="rId355"/>
-    <hyperlink ref="A118" display="feedback_tempfile.md" r:id="rId356"/>
-    <hyperlink ref="B118" display=".md" r:id="rId357"/>
-    <hyperlink ref="D118" display="feedback_tempfile.fc029065af6bbba3a8c4abbf36023bede7d1416d.ru-ru.xlf" r:id="rId358"/>
-    <hyperlink ref="A119" display="DscResourceDebugging.jpg" r:id="rId359"/>
-    <hyperlink ref="B119" display=".jpg" r:id="rId360"/>
-    <hyperlink ref="D119" display="ba1897f38317f5fe38f2d8caf0efcc57bc8bb19d.jpg" r:id="rId361"/>
-    <hyperlink ref="A120" display="Import-DscResource-Modversion.jpg" r:id="rId362"/>
-    <hyperlink ref="B120" display=".jpg" r:id="rId363"/>
-    <hyperlink ref="D120" display="e6ed57c70f1b1380eb67c6998a1c9c67f3f246fc.jpg" r:id="rId364"/>
-    <hyperlink ref="A121" display="MOF_Encryption.jpg" r:id="rId365"/>
-    <hyperlink ref="B121" display=".jpg" r:id="rId366"/>
-    <hyperlink ref="D121" display="9a44a53029d37d4165bbffbdcaa79d9be76e5fac.jpg" r:id="rId367"/>
-    <hyperlink ref="A122" display="informationstream_overview.md" r:id="rId368"/>
-    <hyperlink ref="B122" display=".md" r:id="rId369"/>
-    <hyperlink ref="D122" display="informationstream_overview.d2f238b2b4021ccdb7271cf89f53d58970d56cf5.ru-ru.xlf" r:id="rId370"/>
-    <hyperlink ref="A123" display="install.md" r:id="rId371"/>
-    <hyperlink ref="B123" display=".md" r:id="rId372"/>
-    <hyperlink ref="D123" display="install.317fc924c0f766547c4725878af59c3c9d8facba.ru-ru.xlf" r:id="rId373"/>
-    <hyperlink ref="A124" display="jea_endpoint.md" r:id="rId374"/>
-    <hyperlink ref="B124" display=".md" r:id="rId375"/>
-    <hyperlink ref="D124" display="jea_endpoint.1dc052fe583a907a6c090cf8bfd42293d94d2975.ru-ru.xlf" r:id="rId376"/>
-    <hyperlink ref="A125" display="jea_overview.md" r:id="rId377"/>
-    <hyperlink ref="B125" display=".md" r:id="rId378"/>
-    <hyperlink ref="D125" display="jea_overview.3fa3008e719be8235adffe51808ac66714940871.ru-ru.xlf" r:id="rId379"/>
-    <hyperlink ref="A126" display="jea_report.md" r:id="rId380"/>
-    <hyperlink ref="B126" display=".md" r:id="rId381"/>
-    <hyperlink ref="D126" display="jea_report.7860cec6e93b7405844ccbbe5bc879921447ac0b.ru-ru.xlf" r:id="rId382"/>
-    <hyperlink ref="A127" display="limitation_dsc.md" r:id="rId383"/>
-    <hyperlink ref="B127" display=".md" r:id="rId384"/>
-    <hyperlink ref="D127" display="limitation_dsc.3684c81bb088cba98089dffdb1a1e56e1c098335.ru-ru.xlf" r:id="rId385"/>
-    <hyperlink ref="A128" display="limitation_overview.md" r:id="rId386"/>
-    <hyperlink ref="B128" display=".md" r:id="rId387"/>
-    <hyperlink ref="D128" display="limitation_overview.6cc9c8c028f5912636637d836aed7db0614de522.ru-ru.xlf" r:id="rId388"/>
-    <hyperlink ref="A129" display="networkswitch_overview.md" r:id="rId389"/>
-    <hyperlink ref="B129" display=".md" r:id="rId390"/>
-    <hyperlink ref="D129" display="networkswitch_overview.7a87eb0741cd43b8b9284ea6cb605920c4961b79.ru-ru.xlf" r:id="rId391"/>
-    <hyperlink ref="A130" display="odata_overview.md" r:id="rId392"/>
-    <hyperlink ref="B130" display=".md" r:id="rId393"/>
-    <hyperlink ref="D130" display="odata_overview.c3f7efdde29fe7ac5685a61cd61d75b65524a4c3.ru-ru.xlf" r:id="rId394"/>
-    <hyperlink ref="A131" display="oneget_cmdlets.md" r:id="rId395"/>
-    <hyperlink ref="B131" display=".md" r:id="rId396"/>
-    <hyperlink ref="D131" display="oneget_cmdlets.469b2350a72495ac2cf62e4130b4df8036f5d135.ru-ru.xlf" r:id="rId397"/>
-    <hyperlink ref="A132" display="oneget_overview.md" r:id="rId398"/>
-    <hyperlink ref="B132" display=".md" r:id="rId399"/>
-    <hyperlink ref="D132" display="oneget_overview.e71a25f36f957ab7471d259c6e716651f6f23c94.ru-ru.xlf" r:id="rId400"/>
-    <hyperlink ref="A133" display="productincompat.md" r:id="rId401"/>
-    <hyperlink ref="B133" display=".md" r:id="rId402"/>
-    <hyperlink ref="D133" display="productincompat.62bb00299c0283b5297001553476a745e28a49cb.ru-ru.xlf" r:id="rId403"/>
-    <hyperlink ref="A134" display="psget_module_overview.md" r:id="rId404"/>
-    <hyperlink ref="B134" display=".md" r:id="rId405"/>
-    <hyperlink ref="D134" display="psget_module_overview.4149c468ffd0f17a2fabd03f90059c12effc3170.ru-ru.xlf" r:id="rId406"/>
-    <hyperlink ref="A135" display="psget_modulecmdlets.md" r:id="rId407"/>
-    <hyperlink ref="B135" display=".md" r:id="rId408"/>
-    <hyperlink ref="D135" display="psget_modulecmdlets.1f808cfdf9a9aa920f88e15f7f5fa4701fe805e3.ru-ru.xlf" r:id="rId409"/>
-    <hyperlink ref="A136" display="psget_moduledependency.md" r:id="rId410"/>
-    <hyperlink ref="B136" display=".md" r:id="rId411"/>
-    <hyperlink ref="D136" display="psget_moduledependency.89ba9310335ae64db5481a3c02034ac4fe01b6a2.ru-ru.xlf" r:id="rId412"/>
-    <hyperlink ref="A137" display="psget_modulesxsinstall.md" r:id="rId413"/>
-    <hyperlink ref="B137" display=".md" r:id="rId414"/>
-    <hyperlink ref="D137" display="psget_modulesxsinstall.110ba80d8f917899ef488b46bd15f5654f6ba06c.ru-ru.xlf" r:id="rId415"/>
-    <hyperlink ref="A138" display="psget_psrepository.md" r:id="rId416"/>
-    <hyperlink ref="B138" display=".md" r:id="rId417"/>
-    <hyperlink ref="D138" display="psget_psrepository.c4381b2ff7bb6496ab74ed8bb2b07325cfbfc056.ru-ru.xlf" r:id="rId418"/>
-    <hyperlink ref="A139" display="psget_script_overview.md" r:id="rId419"/>
-    <hyperlink ref="B139" display=".md" r:id="rId420"/>
-    <hyperlink ref="D139" display="psget_script_overview.f035cc99497d17dc73e3a61f214e40a5860fc70a.ru-ru.xlf" r:id="rId421"/>
-    <hyperlink ref="A140" display="psget_scriptcmdlets.md" r:id="rId422"/>
-    <hyperlink ref="B140" display=".md" r:id="rId423"/>
-    <hyperlink ref="D140" display="psget_scriptcmdlets.1762d5f29292d59c1afb37cb29eb11a34cf63990.ru-ru.xlf" r:id="rId424"/>
-    <hyperlink ref="A141" display="releasenotes.md" r:id="rId425"/>
-    <hyperlink ref="B141" display=".md" r:id="rId426"/>
-    <hyperlink ref="D141" display="releasenotes.311750b4da54b1d4ef7997b328edd6ff177fb71f.ru-ru.xlf" r:id="rId427"/>
-    <hyperlink ref="A142" display="requirements.md" r:id="rId428"/>
-    <hyperlink ref="B142" display=".md" r:id="rId429"/>
-    <hyperlink ref="D142" display="requirements.ef8332f358d65b1759bfd4c7336b11d1dc8c2d46.ru-ru.xlf" r:id="rId430"/>
-    <hyperlink ref="A143" display="sil_overview.md" r:id="rId431"/>
-    <hyperlink ref="B143" display=".md" r:id="rId432"/>
-    <hyperlink ref="D143" display="sil_overview.a2b1f7c716aad317993a5eaffba21fa28ce0c0d8.ru-ru.xlf" r:id="rId433"/>
-    <hyperlink ref="A144" display="TOC.md" r:id="rId434"/>
-    <hyperlink ref="B144" display=".md" r:id="rId435"/>
-    <hyperlink ref="D144" display="TOC.60497266061c38453b3db893ec675eb65584af89.ru-ru.xlf" r:id="rId436"/>
-    <hyperlink ref="A145" display="uninstall.md" r:id="rId437"/>
-    <hyperlink ref="B145" display=".md" r:id="rId438"/>
-    <hyperlink ref="D145" display="uninstall.b07adaaaf7f41869dfa201b88e29342aced76c96.ru-ru.xlf" r:id="rId439"/>
+    <hyperlink ref="D4" display="86d829b1fcdd41e648ed0594eaf337b3726c143c.png" r:id="rId14"/>
+    <hyperlink ref="F4" display="Pull.png" r:id="rId15"/>
+    <hyperlink ref="G4" display="86d829b1fcdd41e648ed0594eaf337b3726c143c.png" r:id="rId16"/>
+    <hyperlink ref="A5" display="Push.png" r:id="rId17"/>
+    <hyperlink ref="B5" display=".png" r:id="rId18"/>
+    <hyperlink ref="D5" display="d3008e3fe7da4c118c693d2b34a0b329780f8d86.png" r:id="rId19"/>
+    <hyperlink ref="F5" display="Push.png" r:id="rId20"/>
+    <hyperlink ref="G5" display="d3008e3fe7da4c118c693d2b34a0b329780f8d86.png" r:id="rId21"/>
+    <hyperlink ref="A6" display="archiveResource.md" r:id="rId22"/>
+    <hyperlink ref="B6" display=".md" r:id="rId23"/>
+    <hyperlink ref="D6" display="archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.ja-jp.xlf" r:id="rId24"/>
+    <hyperlink ref="A7" display="authoringResource.md" r:id="rId25"/>
+    <hyperlink ref="B7" display=".md" r:id="rId26"/>
+    <hyperlink ref="D7" display="authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.ja-jp.xlf" r:id="rId27"/>
+    <hyperlink ref="A8" display="authoringResourceClass.md" r:id="rId28"/>
+    <hyperlink ref="B8" display=".md" r:id="rId29"/>
+    <hyperlink ref="D8" display="authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.ja-jp.xlf" r:id="rId30"/>
+    <hyperlink ref="A9" display="authoringResourceComposite.md" r:id="rId31"/>
+    <hyperlink ref="B9" display=".md" r:id="rId32"/>
+    <hyperlink ref="D9" display="authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.ja-jp.xlf" r:id="rId33"/>
+    <hyperlink ref="A10" display="authoringResourceMOF.md" r:id="rId34"/>
+    <hyperlink ref="B10" display=".md" r:id="rId35"/>
+    <hyperlink ref="D10" display="authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.ja-jp.xlf" r:id="rId36"/>
+    <hyperlink ref="A11" display="authoringResourceMofCS.md" r:id="rId37"/>
+    <hyperlink ref="B11" display=".md" r:id="rId38"/>
+    <hyperlink ref="D11" display="authoringResourceMofCS.0647b27b00ec52b2f524a2856e48bc7c29c0f867.ja-jp.xlf" r:id="rId39"/>
+    <hyperlink ref="A12" display="authoringResourceMofDesigner.md" r:id="rId40"/>
+    <hyperlink ref="B12" display=".md" r:id="rId41"/>
+    <hyperlink ref="D12" display="authoringResourceMofDesigner.09b1adffc4afb0d9b1154880e2dab0b25d82d51b.ja-jp.xlf" r:id="rId42"/>
+    <hyperlink ref="A13" display="builtInResource.md" r:id="rId43"/>
+    <hyperlink ref="B13" display=".md" r:id="rId44"/>
+    <hyperlink ref="D13" display="builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.ja-jp.xlf" r:id="rId45"/>
+    <hyperlink ref="A14" display="configData.md" r:id="rId46"/>
+    <hyperlink ref="B14" display=".md" r:id="rId47"/>
+    <hyperlink ref="D14" display="configData.51d01a46dd9af8b425788cc485523b09f8470b95.ja-jp.xlf" r:id="rId48"/>
+    <hyperlink ref="A15" display="configDataCredentials.md" r:id="rId49"/>
+    <hyperlink ref="B15" display=".md" r:id="rId50"/>
+    <hyperlink ref="D15" display="configDataCredentials.f3e75119e7d93b2f914823c5ea23bfde3935a874.ja-jp.xlf" r:id="rId51"/>
+    <hyperlink ref="A16" display="configurations.md" r:id="rId52"/>
+    <hyperlink ref="B16" display=".md" r:id="rId53"/>
+    <hyperlink ref="D16" display="configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.ja-jp.xlf" r:id="rId54"/>
+    <hyperlink ref="A17" display="debugResource.md" r:id="rId55"/>
+    <hyperlink ref="B17" display=".md" r:id="rId56"/>
+    <hyperlink ref="D17" display="debugResource.ac634156affe5c723cc149a298f5aa4268d17016.ja-jp.xlf" r:id="rId57"/>
+    <hyperlink ref="A18" display="decisionMaker.md" r:id="rId58"/>
+    <hyperlink ref="B18" display=".md" r:id="rId59"/>
+    <hyperlink ref="D18" display="decisionMaker.01553169f2ba4241995260fad925e2784b5f5567.ja-jp.xlf" r:id="rId60"/>
+    <hyperlink ref="A19" display="enactingConfigurations.md" r:id="rId61"/>
+    <hyperlink ref="B19" display=".md" r:id="rId62"/>
+    <hyperlink ref="D19" display="enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.ja-jp.xlf" r:id="rId63"/>
+    <hyperlink ref="A20" display="environmentResource.md" r:id="rId64"/>
+    <hyperlink ref="B20" display=".md" r:id="rId65"/>
+    <hyperlink ref="D20" display="environmentResource.eb91ffd4cd8bdb9476e5a83de1a20d3b7b502a56.ja-jp.xlf" r:id="rId66"/>
+    <hyperlink ref="A21" display="fileResource.md" r:id="rId67"/>
+    <hyperlink ref="B21" display=".md" r:id="rId68"/>
+    <hyperlink ref="D21" display="fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.ja-jp.xlf" r:id="rId69"/>
+    <hyperlink ref="A22" display="gettingStarted.md" r:id="rId70"/>
+    <hyperlink ref="B22" display=".md" r:id="rId71"/>
+    <hyperlink ref="D22" display="gettingStarted.92e02d8bd273df5c304475a9b4fa251c22a7ea19.ja-jp.xlf" r:id="rId72"/>
+    <hyperlink ref="A23" display="groupResource.md" r:id="rId73"/>
+    <hyperlink ref="B23" display=".md" r:id="rId74"/>
+    <hyperlink ref="D23" display="groupResource.d19d416269795c92566b62c36b9782062dcea43e.ja-jp.xlf" r:id="rId75"/>
+    <hyperlink ref="A24" display="CredentialEncryptionDiagram1.png" r:id="rId76"/>
+    <hyperlink ref="B24" display=".png" r:id="rId77"/>
+    <hyperlink ref="D24" display="d9f53a805041164f5070845c0fd216b63d17ae58.png" r:id="rId78"/>
+    <hyperlink ref="A25" display="lnxArchiveResource.md" r:id="rId79"/>
+    <hyperlink ref="B25" display=".md" r:id="rId80"/>
+    <hyperlink ref="D25" display="lnxArchiveResource.095aab7d23720fd394f2573c30223a6bbcc0a4ef.ja-jp.xlf" r:id="rId81"/>
+    <hyperlink ref="A26" display="lnxBuiltInResources.md" r:id="rId82"/>
+    <hyperlink ref="B26" display=".md" r:id="rId83"/>
+    <hyperlink ref="D26" display="lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.ja-jp.xlf" r:id="rId84"/>
+    <hyperlink ref="A27" display="lnxEnvironmentResource.md" r:id="rId85"/>
+    <hyperlink ref="B27" display=".md" r:id="rId86"/>
+    <hyperlink ref="D27" display="lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.ja-jp.xlf" r:id="rId87"/>
+    <hyperlink ref="A28" display="lnxFileLineResource.md" r:id="rId88"/>
+    <hyperlink ref="B28" display=".md" r:id="rId89"/>
+    <hyperlink ref="D28" display="lnxFileLineResource.d91fc802a4c6cdbff5a2e35f92b34c36c6dbf5eb.ja-jp.xlf" r:id="rId90"/>
+    <hyperlink ref="A29" display="lnxFileResource.md" r:id="rId91"/>
+    <hyperlink ref="B29" display=".md" r:id="rId92"/>
+    <hyperlink ref="D29" display="lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.ja-jp.xlf" r:id="rId93"/>
+    <hyperlink ref="A30" display="lnxGettingStarted.md" r:id="rId94"/>
+    <hyperlink ref="B30" display=".md" r:id="rId95"/>
+    <hyperlink ref="D30" display="lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.ja-jp.xlf" r:id="rId96"/>
+    <hyperlink ref="A31" display="lnxGroupResource.md" r:id="rId97"/>
+    <hyperlink ref="B31" display=".md" r:id="rId98"/>
+    <hyperlink ref="D31" display="lnxGroupResource.0cedb684d797032bd47cdb852629c36da0884567.ja-jp.xlf" r:id="rId99"/>
+    <hyperlink ref="A32" display="lnxPackageResource.md" r:id="rId100"/>
+    <hyperlink ref="B32" display=".md" r:id="rId101"/>
+    <hyperlink ref="D32" display="lnxPackageResource.db35ab938bbfbb38cae53fe9ae98fd22b5f18009.ja-jp.xlf" r:id="rId102"/>
+    <hyperlink ref="A33" display="lnxScriptResource.md" r:id="rId103"/>
+    <hyperlink ref="B33" display=".md" r:id="rId104"/>
+    <hyperlink ref="D33" display="lnxScriptResource.1344a5d5b807ee53705e93842d9ef5e25a883359.ja-jp.xlf" r:id="rId105"/>
+    <hyperlink ref="A34" display="lnxServiceResource.md" r:id="rId106"/>
+    <hyperlink ref="B34" display=".md" r:id="rId107"/>
+    <hyperlink ref="D34" display="lnxServiceResource.e637c7f7b18939ec8c16eadf2c42ab00e236fb7b.ja-jp.xlf" r:id="rId108"/>
+    <hyperlink ref="A35" display="lnxSshAuthorizedKeysResource.md" r:id="rId109"/>
+    <hyperlink ref="B35" display=".md" r:id="rId110"/>
+    <hyperlink ref="D35" display="lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.ja-jp.xlf" r:id="rId111"/>
+    <hyperlink ref="A36" display="lnxUserResource.md" r:id="rId112"/>
+    <hyperlink ref="B36" display=".md" r:id="rId113"/>
+    <hyperlink ref="D36" display="lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.ja-jp.xlf" r:id="rId114"/>
+    <hyperlink ref="A37" display="logResource.md" r:id="rId115"/>
+    <hyperlink ref="B37" display=".md" r:id="rId116"/>
+    <hyperlink ref="D37" display="logResource.07af9dfcf6076ef19059178c3b404762677920f0.ja-jp.xlf" r:id="rId117"/>
+    <hyperlink ref="A38" display="metaConfig.md" r:id="rId118"/>
+    <hyperlink ref="B38" display=".md" r:id="rId119"/>
+    <hyperlink ref="D38" display="metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.ja-jp.xlf" r:id="rId120"/>
+    <hyperlink ref="A39" display="metaConfig4.md" r:id="rId121"/>
+    <hyperlink ref="B39" display=".md" r:id="rId122"/>
+    <hyperlink ref="D39" display="metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.ja-jp.xlf" r:id="rId123"/>
+    <hyperlink ref="A40" display="overview.md" r:id="rId124"/>
+    <hyperlink ref="B40" display=".md" r:id="rId125"/>
+    <hyperlink ref="D40" display="overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.ja-jp.xlf" r:id="rId126"/>
+    <hyperlink ref="A41" display="packageResource.md" r:id="rId127"/>
+    <hyperlink ref="B41" display=".md" r:id="rId128"/>
+    <hyperlink ref="D41" display="packageResource.132c4949cee174dc0dc324456d220436cb9884e6.ja-jp.xlf" r:id="rId129"/>
+    <hyperlink ref="A42" display="partialConfigs.md" r:id="rId130"/>
+    <hyperlink ref="B42" display=".md" r:id="rId131"/>
+    <hyperlink ref="D42" display="partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.ja-jp.xlf" r:id="rId132"/>
+    <hyperlink ref="A43" display="pullClient.md" r:id="rId133"/>
+    <hyperlink ref="B43" display=".md" r:id="rId134"/>
+    <hyperlink ref="D43" display="pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.ja-jp.xlf" r:id="rId135"/>
+    <hyperlink ref="A44" display="pullClientConfigID.md" r:id="rId136"/>
+    <hyperlink ref="B44" display=".md" r:id="rId137"/>
+    <hyperlink ref="D44" display="pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.ja-jp.xlf" r:id="rId138"/>
+    <hyperlink ref="A45" display="pullClientConfigID4.md" r:id="rId139"/>
+    <hyperlink ref="B45" display=".md" r:id="rId140"/>
+    <hyperlink ref="D45" display="pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.ja-jp.xlf" r:id="rId141"/>
+    <hyperlink ref="A46" display="pullClientConfigNames.md" r:id="rId142"/>
+    <hyperlink ref="B46" display=".md" r:id="rId143"/>
+    <hyperlink ref="D46" display="pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.ja-jp.xlf" r:id="rId144"/>
+    <hyperlink ref="A47" display="pullServer.md" r:id="rId145"/>
+    <hyperlink ref="B47" display=".md" r:id="rId146"/>
+    <hyperlink ref="D47" display="pullServer.4b925b277da29998394af746bdbdd508fda48909.ja-jp.xlf" r:id="rId147"/>
+    <hyperlink ref="A48" display="pullServerSMB.md" r:id="rId148"/>
+    <hyperlink ref="B48" display=".md" r:id="rId149"/>
+    <hyperlink ref="D48" display="pullServerSMB.772aec5ae27ccb19ced78e3eb665a4e16db1c4df.ja-jp.xlf" r:id="rId150"/>
+    <hyperlink ref="A49" display="queryServerNodes.md" r:id="rId151"/>
+    <hyperlink ref="B49" display=".md" r:id="rId152"/>
+    <hyperlink ref="D49" display="queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.ja-jp.xlf" r:id="rId153"/>
+    <hyperlink ref="A50" display="registryResource.md" r:id="rId154"/>
+    <hyperlink ref="B50" display=".md" r:id="rId155"/>
+    <hyperlink ref="D50" display="registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.ja-jp.xlf" r:id="rId156"/>
+    <hyperlink ref="A51" display="reportServer.md" r:id="rId157"/>
+    <hyperlink ref="B51" display=".md" r:id="rId158"/>
+    <hyperlink ref="D51" display="reportServer.53df4bc8b7b80c0a19c11434bdf5f4304e8248f7.ja-jp.xlf" r:id="rId159"/>
+    <hyperlink ref="A52" display="resourceAuthoringChecklist.md" r:id="rId160"/>
+    <hyperlink ref="B52" display=".md" r:id="rId161"/>
+    <hyperlink ref="D52" display="resourceAuthoringChecklist.3b9ae254d826cc45519d37d06044f28a69bdfa69.ja-jp.xlf" r:id="rId162"/>
+    <hyperlink ref="A53" display="resources.md" r:id="rId163"/>
+    <hyperlink ref="B53" display=".md" r:id="rId164"/>
+    <hyperlink ref="D53" display="resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.ja-jp.xlf" r:id="rId165"/>
+    <hyperlink ref="A54" display="runAsUser.md" r:id="rId166"/>
+    <hyperlink ref="B54" display=".md" r:id="rId167"/>
+    <hyperlink ref="D54" display="runAsUser.d2b90b6bc42ef965e454f9c9f5fd19bc7b488b34.ja-jp.xlf" r:id="rId168"/>
+    <hyperlink ref="A55" display="scriptResource.md" r:id="rId169"/>
+    <hyperlink ref="B55" display=".md" r:id="rId170"/>
+    <hyperlink ref="D55" display="scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.ja-jp.xlf" r:id="rId171"/>
+    <hyperlink ref="A56" display="secureMOF.md" r:id="rId172"/>
+    <hyperlink ref="B56" display=".md" r:id="rId173"/>
+    <hyperlink ref="D56" display="secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.ja-jp.xlf" r:id="rId174"/>
+    <hyperlink ref="A57" display="secureServer.md" r:id="rId175"/>
+    <hyperlink ref="B57" display=".md" r:id="rId176"/>
+    <hyperlink ref="D57" display="secureServer.ce207607010d18109152742ba23c923cd3cddba2.ja-jp.xlf" r:id="rId177"/>
+    <hyperlink ref="A58" display="serviceResource.md" r:id="rId178"/>
+    <hyperlink ref="B58" display=".md" r:id="rId179"/>
+    <hyperlink ref="D58" display="serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.ja-jp.xlf" r:id="rId180"/>
+    <hyperlink ref="A59" display="TOC.md" r:id="rId181"/>
+    <hyperlink ref="B59" display=".md" r:id="rId182"/>
+    <hyperlink ref="D59" display="TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.ja-jp.xlf" r:id="rId183"/>
+    <hyperlink ref="A60" display="troubleshooting.md" r:id="rId184"/>
+    <hyperlink ref="B60" display=".md" r:id="rId185"/>
+    <hyperlink ref="D60" display="troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.ja-jp.xlf" r:id="rId186"/>
+    <hyperlink ref="A61" display="userResource.md" r:id="rId187"/>
+    <hyperlink ref="B61" display=".md" r:id="rId188"/>
+    <hyperlink ref="D61" display="userResource.5de4fbe03e9e06934442ba451eb0564931863f45.ja-jp.xlf" r:id="rId189"/>
+    <hyperlink ref="A62" display="windowsfeatureResource.md" r:id="rId190"/>
+    <hyperlink ref="B62" display=".md" r:id="rId191"/>
+    <hyperlink ref="D62" display="windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.ja-jp.xlf" r:id="rId192"/>
+    <hyperlink ref="A63" display="windowsProcessResource.md" r:id="rId193"/>
+    <hyperlink ref="B63" display=".md" r:id="rId194"/>
+    <hyperlink ref="D63" display="windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.ja-jp.xlf" r:id="rId195"/>
+    <hyperlink ref="A64" display="audit_cms.md" r:id="rId196"/>
+    <hyperlink ref="B64" display=".md" r:id="rId197"/>
+    <hyperlink ref="D64" display="audit_cms.3e422ca243ac938b46bfcf1497a703e55bde970e.ja-jp.xlf" r:id="rId198"/>
+    <hyperlink ref="A65" display="audit_overview.md" r:id="rId199"/>
+    <hyperlink ref="B65" display=".md" r:id="rId200"/>
+    <hyperlink ref="D65" display="audit_overview.fc5b51e2734a2af986c9edf42b4395b1aad2435d.ja-jp.xlf" r:id="rId201"/>
+    <hyperlink ref="A66" display="audit_script.md" r:id="rId202"/>
+    <hyperlink ref="B66" display=".md" r:id="rId203"/>
+    <hyperlink ref="D66" display="audit_script.e89f3a9316d1125e1efd23b41b756a3a6161016b.ja-jp.xlf" r:id="rId204"/>
+    <hyperlink ref="A67" display="audit_transcript.md" r:id="rId205"/>
+    <hyperlink ref="B67" display=".md" r:id="rId206"/>
+    <hyperlink ref="D67" display="audit_transcript.c21a6554932939cbf4c744bf7c9f07cc4e1e7160.ja-jp.xlf" r:id="rId207"/>
+    <hyperlink ref="A68" display="class_base.md" r:id="rId208"/>
+    <hyperlink ref="B68" display=".md" r:id="rId209"/>
+    <hyperlink ref="D68" display="class_base.29a9fbe4987503d5575c151f4271f58398cb7e55.ja-jp.xlf" r:id="rId210"/>
+    <hyperlink ref="A69" display="class_baseconstructor.md" r:id="rId211"/>
+    <hyperlink ref="B69" display=".md" r:id="rId212"/>
+    <hyperlink ref="D69" display="class_baseconstructor.82f951e800b06ccc68090b1be9923c8210a233ac.ja-jp.xlf" r:id="rId213"/>
+    <hyperlink ref="A70" display="class_basemethod.md" r:id="rId214"/>
+    <hyperlink ref="B70" display=".md" r:id="rId215"/>
+    <hyperlink ref="D70" display="class_basemethod.6b60292188d0081f30fbaf4b111db8a439348f5b.ja-jp.xlf" r:id="rId216"/>
+    <hyperlink ref="A71" display="class_interface.md" r:id="rId217"/>
+    <hyperlink ref="B71" display=".md" r:id="rId218"/>
+    <hyperlink ref="D71" display="class_interface.84a08fd30808364a820bdd4440de18ec4504a6c7.ja-jp.xlf" r:id="rId219"/>
+    <hyperlink ref="A72" display="class_newtype.md" r:id="rId220"/>
+    <hyperlink ref="B72" display=".md" r:id="rId221"/>
+    <hyperlink ref="D72" display="class_newtype.a9f52b670970046f8b1147d4ba646b73abb430dc.ja-jp.xlf" r:id="rId222"/>
+    <hyperlink ref="A73" display="class_overview.md" r:id="rId223"/>
+    <hyperlink ref="B73" display=".md" r:id="rId224"/>
+    <hyperlink ref="D73" display="class_overview.91227b885afcb8df385ab601ab970b924eca2533.ja-jp.xlf" r:id="rId225"/>
+    <hyperlink ref="A74" display="debug_overview.md" r:id="rId226"/>
+    <hyperlink ref="B74" display=".md" r:id="rId227"/>
+    <hyperlink ref="D74" display="debug_overview.70b71c20b8b625704c25da28a58e804a048bafb0.ja-jp.xlf" r:id="rId228"/>
+    <hyperlink ref="A75" display="dsc_authoring.md" r:id="rId229"/>
+    <hyperlink ref="B75" display=".md" r:id="rId230"/>
+    <hyperlink ref="D75" display="dsc_authoring.364878cde8f156d8999773842812e0c08f70191c.ja-jp.xlf" r:id="rId231"/>
+    <hyperlink ref="A76" display="dsc_classbasedresource.md" r:id="rId232"/>
+    <hyperlink ref="B76" display=".md" r:id="rId233"/>
+    <hyperlink ref="D76" display="dsc_classbasedresource.a3d6b22652db939b51db1218584247396454ae0f.ja-jp.xlf" r:id="rId234"/>
+    <hyperlink ref="A77" display="dsc_confighelp.md" r:id="rId235"/>
+    <hyperlink ref="B77" display=".md" r:id="rId236"/>
+    <hyperlink ref="D77" display="dsc_confighelp.bcfa7e85acae98499089edc9fba25b68953d7bbf.ja-jp.xlf" r:id="rId237"/>
+    <hyperlink ref="A78" display="dsc_directaccess.md" r:id="rId238"/>
+    <hyperlink ref="B78" display=".md" r:id="rId239"/>
+    <hyperlink ref="D78" display="dsc_directaccess.014c91015162b26b678e0a5fdfd453a3bf6e41b0.ja-jp.xlf" r:id="rId240"/>
+    <hyperlink ref="A79" display="dsc_encryptedmof.md" r:id="rId241"/>
+    <hyperlink ref="B79" display=".md" r:id="rId242"/>
+    <hyperlink ref="D79" display="dsc_encryptedmof.a35c44de669ea81f25dd29f152f03493e52e327b.ja-jp.xlf" r:id="rId243"/>
+    <hyperlink ref="A80" display="dsc_freqnomultiple.md" r:id="rId244"/>
+    <hyperlink ref="B80" display=".md" r:id="rId245"/>
+    <hyperlink ref="D80" display="dsc_freqnomultiple.2848e52c73280aca59e73136bac0c2c7ae02aad6.ja-jp.xlf" r:id="rId246"/>
+    <hyperlink ref="A81" display="dsc_getconfigurationstatus.md" r:id="rId247"/>
+    <hyperlink ref="B81" display=".md" r:id="rId248"/>
+    <hyperlink ref="D81" display="dsc_getconfigurationstatus.1705e4bcaa9dfd9d69f00aecdc7ef0d04bf44899.ja-jp.xlf" r:id="rId249"/>
+    <hyperlink ref="A82" display="dsc_identicalduplicate.md" r:id="rId250"/>
+    <hyperlink ref="B82" display=".md" r:id="rId251"/>
+    <hyperlink ref="D82" display="dsc_identicalduplicate.eb7167ccd4a72d68aa1683327e9b3877927158ab.ja-jp.xlf" r:id="rId252"/>
+    <hyperlink ref="A83" display="dsc_importdscresource.md" r:id="rId253"/>
+    <hyperlink ref="B83" display=".md" r:id="rId254"/>
+    <hyperlink ref="D83" display="dsc_importdscresource.a0169ad862dfcaa5c958c07ecd52c856d5dc8436.ja-jp.xlf" r:id="rId255"/>
+    <hyperlink ref="A84" display="dsc_improvements.md" r:id="rId256"/>
+    <hyperlink ref="B84" display=".md" r:id="rId257"/>
+    <hyperlink ref="D84" display="dsc_improvements.d9ed6ffedf9d9650bb6b26b5ed611e420a0aacbb.ja-jp.xlf" r:id="rId258"/>
+    <hyperlink ref="A85" display="dsc_lcmstate.md" r:id="rId259"/>
+    <hyperlink ref="B85" display=".md" r:id="rId260"/>
+    <hyperlink ref="D85" display="dsc_lcmstate.21ea1c36f37c94e8e0363199fbd07bcced3aea40.ja-jp.xlf" r:id="rId261"/>
+    <hyperlink ref="A86" display="dsc_metaconfiguration.md" r:id="rId262"/>
+    <hyperlink ref="B86" display=".md" r:id="rId263"/>
+    <hyperlink ref="D86" display="dsc_metaconfiguration.e8bbca05aa1692ad54cadd83b93a1902f179f365.ja-jp.xlf" r:id="rId264"/>
+    <hyperlink ref="A87" display="dsc_newresources.md" r:id="rId265"/>
+    <hyperlink ref="B87" display=".md" r:id="rId266"/>
+    <hyperlink ref="D87" display="dsc_newresources.b9c40f591f875ea205c834f7675f3edbe1050592.ja-jp.xlf" r:id="rId267"/>
+    <hyperlink ref="A88" display="dsc_nodeid.md" r:id="rId268"/>
+    <hyperlink ref="B88" display=".md" r:id="rId269"/>
+    <hyperlink ref="D88" display="dsc_nodeid.e3c9049aa6c1d151f8b286f28502537b2f8d22a4.ja-jp.xlf" r:id="rId270"/>
+    <hyperlink ref="A89" display="dsc_partialconfig.md" r:id="rId271"/>
+    <hyperlink ref="B89" display=".md" r:id="rId272"/>
+    <hyperlink ref="D89" display="dsc_partialconfig.a493787c3f8663ac3e2994162ffd1bee429544d3.ja-jp.xlf" r:id="rId273"/>
+    <hyperlink ref="A90" display="dsc_partialconfig_mixedmode.md" r:id="rId274"/>
+    <hyperlink ref="B90" display=".md" r:id="rId275"/>
+    <hyperlink ref="D90" display="dsc_partialconfig_mixedmode.ff4b9a8a421441da62574192650493bf2407028d.ja-jp.xlf" r:id="rId276"/>
+    <hyperlink ref="A91" display="dsc_publishconfig.md" r:id="rId277"/>
+    <hyperlink ref="B91" display=".md" r:id="rId278"/>
+    <hyperlink ref="D91" display="dsc_publishconfig.bfe86d4253abdd777c205caec637c50ec79103ee.ja-jp.xlf" r:id="rId279"/>
+    <hyperlink ref="A92" display="dsc_refreshmode.md" r:id="rId280"/>
+    <hyperlink ref="B92" display=".md" r:id="rId281"/>
+    <hyperlink ref="D92" display="dsc_refreshmode.b0529a06a4d3e07b3fce300f74760d63b27523f6.ja-jp.xlf" r:id="rId282"/>
+    <hyperlink ref="A93" display="dsc_removeconfigdoc.md" r:id="rId283"/>
+    <hyperlink ref="B93" display=".md" r:id="rId284"/>
+    <hyperlink ref="D93" display="dsc_removeconfigdoc.d16cdab7eaedf468bcc38dae34e93be26a204318.ja-jp.xlf" r:id="rId285"/>
+    <hyperlink ref="A94" display="dsc_reporting.md" r:id="rId286"/>
+    <hyperlink ref="B94" display=".md" r:id="rId287"/>
+    <hyperlink ref="D94" display="dsc_reporting.b042cd21b9bcfc8e50bc361ddee59333602fad42.ja-jp.xlf" r:id="rId288"/>
+    <hyperlink ref="A95" display="dsc_repository.md" r:id="rId289"/>
+    <hyperlink ref="B95" display=".md" r:id="rId290"/>
+    <hyperlink ref="D95" display="dsc_repository.ec5040a823a6b64e969393e00f3d859fd0b4551c.ja-jp.xlf" r:id="rId291"/>
+    <hyperlink ref="A96" display="dsc_resourcedebugging.md" r:id="rId292"/>
+    <hyperlink ref="B96" display=".md" r:id="rId293"/>
+    <hyperlink ref="D96" display="dsc_resourcedebugging.95c69e55eb065b349f52e18126d699b1906ba03f.ja-jp.xlf" r:id="rId294"/>
+    <hyperlink ref="A97" display="dsc_runas.md" r:id="rId295"/>
+    <hyperlink ref="B97" display=".md" r:id="rId296"/>
+    <hyperlink ref="D97" display="dsc_runas.9e19a42a6d5e1ea1772358a6fd8ff24b98a5b6ba.ja-jp.xlf" r:id="rId297"/>
+    <hyperlink ref="A98" display="dsc_setdsclcm.md" r:id="rId298"/>
+    <hyperlink ref="B98" display=".md" r:id="rId299"/>
+    <hyperlink ref="D98" display="dsc_setdsclcm.1f0e3cab81cf5fc1feda678f202451fe150632e3.ja-jp.xlf" r:id="rId300"/>
+    <hyperlink ref="A99" display="dsc_statestatus.md" r:id="rId301"/>
+    <hyperlink ref="B99" display=".md" r:id="rId302"/>
+    <hyperlink ref="D99" display="dsc_statestatus.b6f3670f776a8f63a705ba16bed2f20be34fc48f.ja-jp.xlf" r:id="rId303"/>
+    <hyperlink ref="A100" display="dsc_sxsresource.md" r:id="rId304"/>
+    <hyperlink ref="B100" display=".md" r:id="rId305"/>
+    <hyperlink ref="D100" display="dsc_sxsresource.c9d4ce6109370ac1cbc1fb07f191e02f9a61d5d3.ja-jp.xlf" r:id="rId306"/>
+    <hyperlink ref="A101" display="dsc_testconfiguration.md" r:id="rId307"/>
+    <hyperlink ref="B101" display=".md" r:id="rId308"/>
+    <hyperlink ref="D101" display="dsc_testconfiguration.b0e5afe2c8f173ebe49c97c9ea9a2f11d81ea5fa.ja-jp.xlf" r:id="rId309"/>
+    <hyperlink ref="A102" display="dsc_updateconfig.md" r:id="rId310"/>
+    <hyperlink ref="B102" display=".md" r:id="rId311"/>
+    <hyperlink ref="D102" display="dsc_updateconfig.a07eb85e3458d42d7ab1ed5c57dcfc70df709d07.ja-jp.xlf" r:id="rId312"/>
+    <hyperlink ref="A103" display="dsc_waitfor.md" r:id="rId313"/>
+    <hyperlink ref="B103" display=".md" r:id="rId314"/>
+    <hyperlink ref="D103" display="dsc_waitfor.2b09933f08f1020166ce0f0cd7548a5a3845c48f.ja-jp.xlf" r:id="rId315"/>
+    <hyperlink ref="A104" display="dsc_wow64.md" r:id="rId316"/>
+    <hyperlink ref="B104" display=".md" r:id="rId317"/>
+    <hyperlink ref="D104" display="dsc_wow64.ea039aaa1bd77415311fc30d80fed43cda07a6e3.ja-jp.xlf" r:id="rId318"/>
+    <hyperlink ref="A105" display="feedback.md" r:id="rId319"/>
+    <hyperlink ref="B105" display=".md" r:id="rId320"/>
+    <hyperlink ref="D105" display="feedback.3662230166299ef7c1fb7a7a7f5cdbd64b1d812a.ja-jp.xlf" r:id="rId321"/>
+    <hyperlink ref="A106" display="feedback_archive.md" r:id="rId322"/>
+    <hyperlink ref="B106" display=".md" r:id="rId323"/>
+    <hyperlink ref="D106" display="feedback_archive.20de26911a704368058401c7e2bd6ebaac692ff5.ja-jp.xlf" r:id="rId324"/>
+    <hyperlink ref="A107" display="feedback_clipboard.md" r:id="rId325"/>
+    <hyperlink ref="B107" display=".md" r:id="rId326"/>
+    <hyperlink ref="D107" display="feedback_clipboard.872e5c147ef02cb86067651f41e3c00b55386664.ja-jp.xlf" r:id="rId327"/>
+    <hyperlink ref="A108" display="feedback_cmdlets.md" r:id="rId328"/>
+    <hyperlink ref="B108" display=".md" r:id="rId329"/>
+    <hyperlink ref="D108" display="feedback_cmdlets.a4c0dfb806ca0da232eeb75ad3706177b8a5ec48.ja-jp.xlf" r:id="rId330"/>
+    <hyperlink ref="A109" display="feedback_convertfromString.md" r:id="rId331"/>
+    <hyperlink ref="B109" display=".md" r:id="rId332"/>
+    <hyperlink ref="D109" display="feedback_convertfromString.acdeaa33e8fa59b93649b6abf3a7d5ef64fb7664.ja-jp.xlf" r:id="rId333"/>
+    <hyperlink ref="A110" display="feedback_convertstring.md" r:id="rId334"/>
+    <hyperlink ref="B110" display=".md" r:id="rId335"/>
+    <hyperlink ref="D110" display="feedback_convertstring.42e964e30093962871c3a4d586ed6c54f25f840d.ja-jp.xlf" r:id="rId336"/>
+    <hyperlink ref="A111" display="feedback_fileinfo.md" r:id="rId337"/>
+    <hyperlink ref="B111" display=".md" r:id="rId338"/>
+    <hyperlink ref="D111" display="feedback_fileinfo.0192edad2d6504d26a9632f95fc9e5b66ffd8003.ja-jp.xlf" r:id="rId339"/>
+    <hyperlink ref="A112" display="feedback_formathex.md" r:id="rId340"/>
+    <hyperlink ref="B112" display=".md" r:id="rId341"/>
+    <hyperlink ref="D112" display="feedback_formathex.f97931c887efb620e5f4314facc1f0e20e3dffbe.ja-jp.xlf" r:id="rId342"/>
+    <hyperlink ref="A113" display="feedback_getchilditem.md" r:id="rId343"/>
+    <hyperlink ref="B113" display=".md" r:id="rId344"/>
+    <hyperlink ref="D113" display="feedback_getchilditem.ce02ca20cc4417a80fe65eb509a8e92f2cecc79c.ja-jp.xlf" r:id="rId345"/>
+    <hyperlink ref="A114" display="feedback_moduleversionranges.md" r:id="rId346"/>
+    <hyperlink ref="B114" display=".md" r:id="rId347"/>
+    <hyperlink ref="D114" display="feedback_moduleversionranges.611b3a3219d64dbfa1d01541b60a727b880a0c4b.ja-jp.xlf" r:id="rId348"/>
+    <hyperlink ref="A115" display="feedback_newguid.md" r:id="rId349"/>
+    <hyperlink ref="B115" display=".md" r:id="rId350"/>
+    <hyperlink ref="D115" display="feedback_newguid.f8756fbdb96e6fe06a7e0cbb6ac4af32b1c64983.ja-jp.xlf" r:id="rId351"/>
+    <hyperlink ref="A116" display="feedback_nonewline.md" r:id="rId352"/>
+    <hyperlink ref="B116" display=".md" r:id="rId353"/>
+    <hyperlink ref="D116" display="feedback_nonewline.7a9b7e24c50399879089bba2b8eee7dc325572e2.ja-jp.xlf" r:id="rId354"/>
+    <hyperlink ref="A117" display="feedback_symbolic.md" r:id="rId355"/>
+    <hyperlink ref="B117" display=".md" r:id="rId356"/>
+    <hyperlink ref="D117" display="feedback_symbolic.1c3ac8128fb9df60512ec024044d48be7d0cb59f.ja-jp.xlf" r:id="rId357"/>
+    <hyperlink ref="A118" display="feedback_tempfile.md" r:id="rId358"/>
+    <hyperlink ref="B118" display=".md" r:id="rId359"/>
+    <hyperlink ref="D118" display="feedback_tempfile.fc029065af6bbba3a8c4abbf36023bede7d1416d.ja-jp.xlf" r:id="rId360"/>
+    <hyperlink ref="A119" display="DscResourceDebugging.jpg" r:id="rId361"/>
+    <hyperlink ref="B119" display=".jpg" r:id="rId362"/>
+    <hyperlink ref="D119" display="ba1897f38317f5fe38f2d8caf0efcc57bc8bb19d.jpg" r:id="rId363"/>
+    <hyperlink ref="A120" display="Import-DscResource-Modversion.jpg" r:id="rId364"/>
+    <hyperlink ref="B120" display=".jpg" r:id="rId365"/>
+    <hyperlink ref="D120" display="e6ed57c70f1b1380eb67c6998a1c9c67f3f246fc.jpg" r:id="rId366"/>
+    <hyperlink ref="A121" display="MOF_Encryption.jpg" r:id="rId367"/>
+    <hyperlink ref="B121" display=".jpg" r:id="rId368"/>
+    <hyperlink ref="D121" display="9a44a53029d37d4165bbffbdcaa79d9be76e5fac.jpg" r:id="rId369"/>
+    <hyperlink ref="A122" display="informationstream_overview.md" r:id="rId370"/>
+    <hyperlink ref="B122" display=".md" r:id="rId371"/>
+    <hyperlink ref="D122" display="informationstream_overview.d2f238b2b4021ccdb7271cf89f53d58970d56cf5.ja-jp.xlf" r:id="rId372"/>
+    <hyperlink ref="A123" display="install.md" r:id="rId373"/>
+    <hyperlink ref="B123" display=".md" r:id="rId374"/>
+    <hyperlink ref="D123" display="install.317fc924c0f766547c4725878af59c3c9d8facba.ja-jp.xlf" r:id="rId375"/>
+    <hyperlink ref="A124" display="jea_endpoint.md" r:id="rId376"/>
+    <hyperlink ref="B124" display=".md" r:id="rId377"/>
+    <hyperlink ref="D124" display="jea_endpoint.1dc052fe583a907a6c090cf8bfd42293d94d2975.ja-jp.xlf" r:id="rId378"/>
+    <hyperlink ref="A125" display="jea_overview.md" r:id="rId379"/>
+    <hyperlink ref="B125" display=".md" r:id="rId380"/>
+    <hyperlink ref="D125" display="jea_overview.3fa3008e719be8235adffe51808ac66714940871.ja-jp.xlf" r:id="rId381"/>
+    <hyperlink ref="A126" display="jea_report.md" r:id="rId382"/>
+    <hyperlink ref="B126" display=".md" r:id="rId383"/>
+    <hyperlink ref="D126" display="jea_report.7860cec6e93b7405844ccbbe5bc879921447ac0b.ja-jp.xlf" r:id="rId384"/>
+    <hyperlink ref="A127" display="limitation_dsc.md" r:id="rId385"/>
+    <hyperlink ref="B127" display=".md" r:id="rId386"/>
+    <hyperlink ref="D127" display="limitation_dsc.3684c81bb088cba98089dffdb1a1e56e1c098335.ja-jp.xlf" r:id="rId387"/>
+    <hyperlink ref="A128" display="limitation_overview.md" r:id="rId388"/>
+    <hyperlink ref="B128" display=".md" r:id="rId389"/>
+    <hyperlink ref="D128" display="limitation_overview.6cc9c8c028f5912636637d836aed7db0614de522.ja-jp.xlf" r:id="rId390"/>
+    <hyperlink ref="A129" display="networkswitch_overview.md" r:id="rId391"/>
+    <hyperlink ref="B129" display=".md" r:id="rId392"/>
+    <hyperlink ref="D129" display="networkswitch_overview.7a87eb0741cd43b8b9284ea6cb605920c4961b79.ja-jp.xlf" r:id="rId393"/>
+    <hyperlink ref="A130" display="odata_overview.md" r:id="rId394"/>
+    <hyperlink ref="B130" display=".md" r:id="rId395"/>
+    <hyperlink ref="D130" display="odata_overview.c3f7efdde29fe7ac5685a61cd61d75b65524a4c3.ja-jp.xlf" r:id="rId396"/>
+    <hyperlink ref="A131" display="oneget_cmdlets.md" r:id="rId397"/>
+    <hyperlink ref="B131" display=".md" r:id="rId398"/>
+    <hyperlink ref="D131" display="oneget_cmdlets.469b2350a72495ac2cf62e4130b4df8036f5d135.ja-jp.xlf" r:id="rId399"/>
+    <hyperlink ref="A132" display="oneget_overview.md" r:id="rId400"/>
+    <hyperlink ref="B132" display=".md" r:id="rId401"/>
+    <hyperlink ref="D132" display="oneget_overview.e71a25f36f957ab7471d259c6e716651f6f23c94.ja-jp.xlf" r:id="rId402"/>
+    <hyperlink ref="A133" display="productincompat.md" r:id="rId403"/>
+    <hyperlink ref="B133" display=".md" r:id="rId404"/>
+    <hyperlink ref="D133" display="productincompat.62bb00299c0283b5297001553476a745e28a49cb.ja-jp.xlf" r:id="rId405"/>
+    <hyperlink ref="A134" display="psget_module_overview.md" r:id="rId406"/>
+    <hyperlink ref="B134" display=".md" r:id="rId407"/>
+    <hyperlink ref="D134" display="psget_module_overview.4149c468ffd0f17a2fabd03f90059c12effc3170.ja-jp.xlf" r:id="rId408"/>
+    <hyperlink ref="A135" display="psget_modulecmdlets.md" r:id="rId409"/>
+    <hyperlink ref="B135" display=".md" r:id="rId410"/>
+    <hyperlink ref="D135" display="psget_modulecmdlets.1f808cfdf9a9aa920f88e15f7f5fa4701fe805e3.ja-jp.xlf" r:id="rId411"/>
+    <hyperlink ref="A136" display="psget_moduledependency.md" r:id="rId412"/>
+    <hyperlink ref="B136" display=".md" r:id="rId413"/>
+    <hyperlink ref="D136" display="psget_moduledependency.89ba9310335ae64db5481a3c02034ac4fe01b6a2.ja-jp.xlf" r:id="rId414"/>
+    <hyperlink ref="A137" display="psget_modulesxsinstall.md" r:id="rId415"/>
+    <hyperlink ref="B137" display=".md" r:id="rId416"/>
+    <hyperlink ref="D137" display="psget_modulesxsinstall.110ba80d8f917899ef488b46bd15f5654f6ba06c.ja-jp.xlf" r:id="rId417"/>
+    <hyperlink ref="A138" display="psget_psrepository.md" r:id="rId418"/>
+    <hyperlink ref="B138" display=".md" r:id="rId419"/>
+    <hyperlink ref="D138" display="psget_psrepository.c4381b2ff7bb6496ab74ed8bb2b07325cfbfc056.ja-jp.xlf" r:id="rId420"/>
+    <hyperlink ref="A139" display="psget_script_overview.md" r:id="rId421"/>
+    <hyperlink ref="B139" display=".md" r:id="rId422"/>
+    <hyperlink ref="D139" display="psget_script_overview.f035cc99497d17dc73e3a61f214e40a5860fc70a.ja-jp.xlf" r:id="rId423"/>
+    <hyperlink ref="A140" display="psget_scriptcmdlets.md" r:id="rId424"/>
+    <hyperlink ref="B140" display=".md" r:id="rId425"/>
+    <hyperlink ref="D140" display="psget_scriptcmdlets.1762d5f29292d59c1afb37cb29eb11a34cf63990.ja-jp.xlf" r:id="rId426"/>
+    <hyperlink ref="A141" display="releasenotes.md" r:id="rId427"/>
+    <hyperlink ref="B141" display=".md" r:id="rId428"/>
+    <hyperlink ref="D141" display="releasenotes.311750b4da54b1d4ef7997b328edd6ff177fb71f.ja-jp.xlf" r:id="rId429"/>
+    <hyperlink ref="A142" display="requirements.md" r:id="rId430"/>
+    <hyperlink ref="B142" display=".md" r:id="rId431"/>
+    <hyperlink ref="D142" display="requirements.ef8332f358d65b1759bfd4c7336b11d1dc8c2d46.ja-jp.xlf" r:id="rId432"/>
+    <hyperlink ref="A143" display="sil_overview.md" r:id="rId433"/>
+    <hyperlink ref="B143" display=".md" r:id="rId434"/>
+    <hyperlink ref="D143" display="sil_overview.a2b1f7c716aad317993a5eaffba21fa28ce0c0d8.ja-jp.xlf" r:id="rId435"/>
+    <hyperlink ref="A144" display="TOC.md" r:id="rId436"/>
+    <hyperlink ref="B144" display=".md" r:id="rId437"/>
+    <hyperlink ref="D144" display="TOC.60497266061c38453b3db893ec675eb65584af89.ja-jp.xlf" r:id="rId438"/>
+    <hyperlink ref="A145" display="uninstall.md" r:id="rId439"/>
+    <hyperlink ref="B145" display=".md" r:id="rId440"/>
+    <hyperlink ref="D145" display="uninstall.b07adaaaf7f41869dfa201b88e29342aced76c96.ja-jp.xlf" r:id="rId441"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/PowerShell/powerShell-Docs/live/localization-status.xlsx
+++ b/ol-handback/PowerShell/powerShell-Docs/live/localization-status.xlsx
@@ -6,19 +6,19 @@
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId2"/>
-    <sheet name="ja-jp" sheetId="2" r:id="rId3"/>
+    <sheet name="it-it" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="335">
   <si>
     <t>File Name</t>
   </si>
   <si>
-    <t>ja-jp</t>
+    <t>it-it</t>
   </si>
   <si>
     <t>Latest Handoff Date</t>
@@ -30,7 +30,7 @@
     <t>Handed back: in sync with en-US</t>
   </si>
   <si>
-    <t>2016-02-11 01:02:12</t>
+    <t>2016-04-11 01:04:01</t>
   </si>
   <si>
     <t>PartialConfigPullServer.jpg</t>
@@ -48,7 +48,7 @@
     <t>Ready for handoff</t>
   </si>
   <si>
-    <t>2016-01-23 03:01:00</t>
+    <t>2016-03-23 03:03:15</t>
   </si>
   <si>
     <t>authoringResource.md</t>
@@ -57,7 +57,7 @@
     <t>authoringResourceClass.md</t>
   </si>
   <si>
-    <t>2016-52-02 17:52:35</t>
+    <t>2016-44-02 17:44:06</t>
   </si>
   <si>
     <t>authoringResourceComposite.md</t>
@@ -87,13 +87,13 @@
     <t>debugResource.md</t>
   </si>
   <si>
-    <t>2016-41-10 21:41:53</t>
+    <t>2016-43-10 21:43:44</t>
   </si>
   <si>
     <t>decisionMaker.md</t>
   </si>
   <si>
-    <t>2016-31-07 19:31:07</t>
+    <t>2016-32-07 19:32:43</t>
   </si>
   <si>
     <t>enactingConfigurations.md</t>
@@ -132,7 +132,7 @@
     <t>lnxGettingStarted.md</t>
   </si>
   <si>
-    <t>2016-32-10 20:32:04</t>
+    <t>2016-33-10 20:33:47</t>
   </si>
   <si>
     <t>lnxGroupResource.md</t>
@@ -180,7 +180,7 @@
     <t>pullClientConfigID4.md</t>
   </si>
   <si>
-    <t>2016-01-09 20:01:18</t>
+    <t>2016-03-09 20:03:18</t>
   </si>
   <si>
     <t>pullClientConfigNames.md</t>
@@ -189,7 +189,7 @@
     <t>pullServer.md</t>
   </si>
   <si>
-    <t>2016-51-16 22:51:47</t>
+    <t>2016-52-16 22:52:16</t>
   </si>
   <si>
     <t>pullServerSMB.md</t>
@@ -231,7 +231,7 @@
     <t>troubleshooting.md</t>
   </si>
   <si>
-    <t>2016-11-04 21:11:25</t>
+    <t>2016-12-04 21:12:32</t>
   </si>
   <si>
     <t>userResource.md</t>
@@ -246,7 +246,7 @@
     <t>audit_cms.md</t>
   </si>
   <si>
-    <t>2016-11-08 01:11:31</t>
+    <t>2016-15-08 01:15:01</t>
   </si>
   <si>
     <t>audit_overview.md</t>
@@ -528,10 +528,10 @@
     <t>3e61149f7b05f74d662d3038233013ffdcbed1a3.jpg</t>
   </si>
   <si>
-    <t>2016-03-11 01:02:12</t>
-  </si>
-  <si>
-    <t>2016-03-17 01:31:01</t>
+    <t>2016-03-11 01:04:01</t>
+  </si>
+  <si>
+    <t>2016-03-17 01:40:10</t>
   </si>
   <si>
     <t>IsDependency</t>
@@ -558,10 +558,10 @@
     <t>.md</t>
   </si>
   <si>
-    <t>archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>2016-02-23 03:01:00</t>
+    <t>archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.it-it.xlf</t>
+  </si>
+  <si>
+    <t>2016-02-23 03:03:15</t>
   </si>
   <si>
     <t>0001-01-01 00:00:00</t>
@@ -570,64 +570,64 @@
     <t>Include</t>
   </si>
   <si>
-    <t>authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-02 17:52:35</t>
-  </si>
-  <si>
-    <t>authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>authoringResourceMofCS.0647b27b00ec52b2f524a2856e48bc7c29c0f867.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>authoringResourceMofDesigner.09b1adffc4afb0d9b1154880e2dab0b25d82d51b.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>configData.51d01a46dd9af8b425788cc485523b09f8470b95.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>configDataCredentials.f3e75119e7d93b2f914823c5ea23bfde3935a874.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>debugResource.ac634156affe5c723cc149a298f5aa4268d17016.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-10 21:41:53</t>
-  </si>
-  <si>
-    <t>decisionMaker.01553169f2ba4241995260fad925e2784b5f5567.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-07 19:31:07</t>
-  </si>
-  <si>
-    <t>enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>environmentResource.eb91ffd4cd8bdb9476e5a83de1a20d3b7b502a56.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>gettingStarted.92e02d8bd273df5c304475a9b4fa251c22a7ea19.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>groupResource.d19d416269795c92566b62c36b9782062dcea43e.ja-jp.xlf</t>
+    <t>authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.it-it.xlf</t>
+  </si>
+  <si>
+    <t>authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.it-it.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-02 17:44:06</t>
+  </si>
+  <si>
+    <t>authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.it-it.xlf</t>
+  </si>
+  <si>
+    <t>authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.it-it.xlf</t>
+  </si>
+  <si>
+    <t>authoringResourceMofCS.0647b27b00ec52b2f524a2856e48bc7c29c0f867.it-it.xlf</t>
+  </si>
+  <si>
+    <t>authoringResourceMofDesigner.09b1adffc4afb0d9b1154880e2dab0b25d82d51b.it-it.xlf</t>
+  </si>
+  <si>
+    <t>builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.it-it.xlf</t>
+  </si>
+  <si>
+    <t>configData.51d01a46dd9af8b425788cc485523b09f8470b95.it-it.xlf</t>
+  </si>
+  <si>
+    <t>configDataCredentials.f3e75119e7d93b2f914823c5ea23bfde3935a874.it-it.xlf</t>
+  </si>
+  <si>
+    <t>configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.it-it.xlf</t>
+  </si>
+  <si>
+    <t>debugResource.ac634156affe5c723cc149a298f5aa4268d17016.it-it.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-10 21:43:44</t>
+  </si>
+  <si>
+    <t>decisionMaker.01553169f2ba4241995260fad925e2784b5f5567.it-it.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-07 19:32:43</t>
+  </si>
+  <si>
+    <t>enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.it-it.xlf</t>
+  </si>
+  <si>
+    <t>environmentResource.eb91ffd4cd8bdb9476e5a83de1a20d3b7b502a56.it-it.xlf</t>
+  </si>
+  <si>
+    <t>fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.it-it.xlf</t>
+  </si>
+  <si>
+    <t>gettingStarted.92e02d8bd273df5c304475a9b4fa251c22a7ea19.it-it.xlf</t>
+  </si>
+  <si>
+    <t>groupResource.d19d416269795c92566b62c36b9782062dcea43e.it-it.xlf</t>
   </si>
   <si>
     <t>d9f53a805041164f5070845c0fd216b63d17ae58.png</t>
@@ -636,301 +636,298 @@
     <t>dsc\secureMOF.md</t>
   </si>
   <si>
-    <t>lnxArchiveResource.095aab7d23720fd394f2573c30223a6bbcc0a4ef.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>lnxFileLineResource.d91fc802a4c6cdbff5a2e35f92b34c36c6dbf5eb.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-10 20:32:04</t>
-  </si>
-  <si>
-    <t>lnxGroupResource.0cedb684d797032bd47cdb852629c36da0884567.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>lnxPackageResource.db35ab938bbfbb38cae53fe9ae98fd22b5f18009.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>lnxScriptResource.1344a5d5b807ee53705e93842d9ef5e25a883359.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>lnxServiceResource.e637c7f7b18939ec8c16eadf2c42ab00e236fb7b.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>logResource.07af9dfcf6076ef19059178c3b404762677920f0.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>packageResource.132c4949cee174dc0dc324456d220436cb9884e6.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-09 20:01:18</t>
-  </si>
-  <si>
-    <t>pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>pullServer.4b925b277da29998394af746bdbdd508fda48909.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-16 22:51:47</t>
-  </si>
-  <si>
-    <t>pullServerSMB.772aec5ae27ccb19ced78e3eb665a4e16db1c4df.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>reportServer.53df4bc8b7b80c0a19c11434bdf5f4304e8248f7.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>resourceAuthoringChecklist.3b9ae254d826cc45519d37d06044f28a69bdfa69.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>runAsUser.d2b90b6bc42ef965e454f9c9f5fd19bc7b488b34.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>secureServer.ce207607010d18109152742ba23c923cd3cddba2.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-04 21:11:25</t>
-  </si>
-  <si>
-    <t>userResource.5de4fbe03e9e06934442ba451eb0564931863f45.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>audit_cms.3e422ca243ac938b46bfcf1497a703e55bde970e.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-08 01:11:31</t>
-  </si>
-  <si>
-    <t>audit_overview.fc5b51e2734a2af986c9edf42b4395b1aad2435d.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>audit_script.e89f3a9316d1125e1efd23b41b756a3a6161016b.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>audit_transcript.c21a6554932939cbf4c744bf7c9f07cc4e1e7160.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>class_base.29a9fbe4987503d5575c151f4271f58398cb7e55.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>class_baseconstructor.82f951e800b06ccc68090b1be9923c8210a233ac.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>class_basemethod.6b60292188d0081f30fbaf4b111db8a439348f5b.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>class_interface.84a08fd30808364a820bdd4440de18ec4504a6c7.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>class_newtype.a9f52b670970046f8b1147d4ba646b73abb430dc.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>class_overview.91227b885afcb8df385ab601ab970b924eca2533.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>debug_overview.70b71c20b8b625704c25da28a58e804a048bafb0.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>dsc_authoring.364878cde8f156d8999773842812e0c08f70191c.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>dsc_classbasedresource.a3d6b22652db939b51db1218584247396454ae0f.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>dsc_confighelp.bcfa7e85acae98499089edc9fba25b68953d7bbf.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>dsc_directaccess.014c91015162b26b678e0a5fdfd453a3bf6e41b0.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>dsc_encryptedmof.a35c44de669ea81f25dd29f152f03493e52e327b.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>dsc_freqnomultiple.2848e52c73280aca59e73136bac0c2c7ae02aad6.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>dsc_getconfigurationstatus.1705e4bcaa9dfd9d69f00aecdc7ef0d04bf44899.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>dsc_identicalduplicate.eb7167ccd4a72d68aa1683327e9b3877927158ab.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>dsc_importdscresource.a0169ad862dfcaa5c958c07ecd52c856d5dc8436.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>dsc_improvements.d9ed6ffedf9d9650bb6b26b5ed611e420a0aacbb.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>dsc_lcmstate.21ea1c36f37c94e8e0363199fbd07bcced3aea40.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>dsc_metaconfiguration.e8bbca05aa1692ad54cadd83b93a1902f179f365.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>dsc_newresources.b9c40f591f875ea205c834f7675f3edbe1050592.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>dsc_nodeid.e3c9049aa6c1d151f8b286f28502537b2f8d22a4.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>dsc_partialconfig.a493787c3f8663ac3e2994162ffd1bee429544d3.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>dsc_partialconfig_mixedmode.ff4b9a8a421441da62574192650493bf2407028d.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>dsc_publishconfig.bfe86d4253abdd777c205caec637c50ec79103ee.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>dsc_refreshmode.b0529a06a4d3e07b3fce300f74760d63b27523f6.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>dsc_removeconfigdoc.d16cdab7eaedf468bcc38dae34e93be26a204318.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>dsc_reporting.b042cd21b9bcfc8e50bc361ddee59333602fad42.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>dsc_repository.ec5040a823a6b64e969393e00f3d859fd0b4551c.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>dsc_resourcedebugging.95c69e55eb065b349f52e18126d699b1906ba03f.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>dsc_runas.9e19a42a6d5e1ea1772358a6fd8ff24b98a5b6ba.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>dsc_setdsclcm.1f0e3cab81cf5fc1feda678f202451fe150632e3.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>dsc_statestatus.b6f3670f776a8f63a705ba16bed2f20be34fc48f.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>dsc_sxsresource.c9d4ce6109370ac1cbc1fb07f191e02f9a61d5d3.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>dsc_testconfiguration.b0e5afe2c8f173ebe49c97c9ea9a2f11d81ea5fa.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>dsc_updateconfig.a07eb85e3458d42d7ab1ed5c57dcfc70df709d07.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>dsc_waitfor.2b09933f08f1020166ce0f0cd7548a5a3845c48f.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>dsc_wow64.ea039aaa1bd77415311fc30d80fed43cda07a6e3.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>feedback.3662230166299ef7c1fb7a7a7f5cdbd64b1d812a.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>feedback_archive.20de26911a704368058401c7e2bd6ebaac692ff5.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>feedback_clipboard.872e5c147ef02cb86067651f41e3c00b55386664.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>feedback_cmdlets.a4c0dfb806ca0da232eeb75ad3706177b8a5ec48.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>feedback_convertfromString.acdeaa33e8fa59b93649b6abf3a7d5ef64fb7664.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>feedback_convertstring.42e964e30093962871c3a4d586ed6c54f25f840d.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>feedback_fileinfo.0192edad2d6504d26a9632f95fc9e5b66ffd8003.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>feedback_formathex.f97931c887efb620e5f4314facc1f0e20e3dffbe.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>feedback_getchilditem.ce02ca20cc4417a80fe65eb509a8e92f2cecc79c.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>feedback_moduleversionranges.611b3a3219d64dbfa1d01541b60a727b880a0c4b.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>feedback_newguid.f8756fbdb96e6fe06a7e0cbb6ac4af32b1c64983.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>feedback_nonewline.7a9b7e24c50399879089bba2b8eee7dc325572e2.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>feedback_symbolic.1c3ac8128fb9df60512ec024044d48be7d0cb59f.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>feedback_tempfile.fc029065af6bbba3a8c4abbf36023bede7d1416d.ja-jp.xlf</t>
+    <t>lnxArchiveResource.095aab7d23720fd394f2573c30223a6bbcc0a4ef.it-it.xlf</t>
+  </si>
+  <si>
+    <t>lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.it-it.xlf</t>
+  </si>
+  <si>
+    <t>lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.it-it.xlf</t>
+  </si>
+  <si>
+    <t>lnxFileLineResource.d91fc802a4c6cdbff5a2e35f92b34c36c6dbf5eb.it-it.xlf</t>
+  </si>
+  <si>
+    <t>lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.it-it.xlf</t>
+  </si>
+  <si>
+    <t>lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.it-it.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-10 20:33:47</t>
+  </si>
+  <si>
+    <t>lnxGroupResource.0cedb684d797032bd47cdb852629c36da0884567.it-it.xlf</t>
+  </si>
+  <si>
+    <t>lnxPackageResource.db35ab938bbfbb38cae53fe9ae98fd22b5f18009.it-it.xlf</t>
+  </si>
+  <si>
+    <t>lnxScriptResource.1344a5d5b807ee53705e93842d9ef5e25a883359.it-it.xlf</t>
+  </si>
+  <si>
+    <t>lnxServiceResource.e637c7f7b18939ec8c16eadf2c42ab00e236fb7b.it-it.xlf</t>
+  </si>
+  <si>
+    <t>lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.it-it.xlf</t>
+  </si>
+  <si>
+    <t>lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.it-it.xlf</t>
+  </si>
+  <si>
+    <t>logResource.07af9dfcf6076ef19059178c3b404762677920f0.it-it.xlf</t>
+  </si>
+  <si>
+    <t>metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.it-it.xlf</t>
+  </si>
+  <si>
+    <t>metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.it-it.xlf</t>
+  </si>
+  <si>
+    <t>overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.it-it.xlf</t>
+  </si>
+  <si>
+    <t>packageResource.132c4949cee174dc0dc324456d220436cb9884e6.it-it.xlf</t>
+  </si>
+  <si>
+    <t>partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.it-it.xlf</t>
+  </si>
+  <si>
+    <t>pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.it-it.xlf</t>
+  </si>
+  <si>
+    <t>pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.it-it.xlf</t>
+  </si>
+  <si>
+    <t>pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.it-it.xlf</t>
+  </si>
+  <si>
+    <t>pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.it-it.xlf</t>
+  </si>
+  <si>
+    <t>pullServer.4b925b277da29998394af746bdbdd508fda48909.it-it.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-16 22:52:16</t>
+  </si>
+  <si>
+    <t>pullServerSMB.772aec5ae27ccb19ced78e3eb665a4e16db1c4df.it-it.xlf</t>
+  </si>
+  <si>
+    <t>queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.it-it.xlf</t>
+  </si>
+  <si>
+    <t>registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.it-it.xlf</t>
+  </si>
+  <si>
+    <t>reportServer.53df4bc8b7b80c0a19c11434bdf5f4304e8248f7.it-it.xlf</t>
+  </si>
+  <si>
+    <t>resourceAuthoringChecklist.3b9ae254d826cc45519d37d06044f28a69bdfa69.it-it.xlf</t>
+  </si>
+  <si>
+    <t>resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.it-it.xlf</t>
+  </si>
+  <si>
+    <t>runAsUser.d2b90b6bc42ef965e454f9c9f5fd19bc7b488b34.it-it.xlf</t>
+  </si>
+  <si>
+    <t>scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.it-it.xlf</t>
+  </si>
+  <si>
+    <t>secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.it-it.xlf</t>
+  </si>
+  <si>
+    <t>secureServer.ce207607010d18109152742ba23c923cd3cddba2.it-it.xlf</t>
+  </si>
+  <si>
+    <t>serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.it-it.xlf</t>
+  </si>
+  <si>
+    <t>TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.it-it.xlf</t>
+  </si>
+  <si>
+    <t>troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.it-it.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-04 21:12:32</t>
+  </si>
+  <si>
+    <t>userResource.5de4fbe03e9e06934442ba451eb0564931863f45.it-it.xlf</t>
+  </si>
+  <si>
+    <t>windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.it-it.xlf</t>
+  </si>
+  <si>
+    <t>windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.it-it.xlf</t>
+  </si>
+  <si>
+    <t>audit_cms.3e422ca243ac938b46bfcf1497a703e55bde970e.it-it.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-08 01:15:01</t>
+  </si>
+  <si>
+    <t>audit_overview.fc5b51e2734a2af986c9edf42b4395b1aad2435d.it-it.xlf</t>
+  </si>
+  <si>
+    <t>audit_script.e89f3a9316d1125e1efd23b41b756a3a6161016b.it-it.xlf</t>
+  </si>
+  <si>
+    <t>audit_transcript.c21a6554932939cbf4c744bf7c9f07cc4e1e7160.it-it.xlf</t>
+  </si>
+  <si>
+    <t>class_base.29a9fbe4987503d5575c151f4271f58398cb7e55.it-it.xlf</t>
+  </si>
+  <si>
+    <t>class_baseconstructor.82f951e800b06ccc68090b1be9923c8210a233ac.it-it.xlf</t>
+  </si>
+  <si>
+    <t>class_basemethod.6b60292188d0081f30fbaf4b111db8a439348f5b.it-it.xlf</t>
+  </si>
+  <si>
+    <t>class_interface.84a08fd30808364a820bdd4440de18ec4504a6c7.it-it.xlf</t>
+  </si>
+  <si>
+    <t>class_newtype.a9f52b670970046f8b1147d4ba646b73abb430dc.it-it.xlf</t>
+  </si>
+  <si>
+    <t>class_overview.91227b885afcb8df385ab601ab970b924eca2533.it-it.xlf</t>
+  </si>
+  <si>
+    <t>debug_overview.70b71c20b8b625704c25da28a58e804a048bafb0.it-it.xlf</t>
+  </si>
+  <si>
+    <t>dsc_authoring.364878cde8f156d8999773842812e0c08f70191c.it-it.xlf</t>
+  </si>
+  <si>
+    <t>dsc_classbasedresource.a3d6b22652db939b51db1218584247396454ae0f.it-it.xlf</t>
+  </si>
+  <si>
+    <t>dsc_confighelp.bcfa7e85acae98499089edc9fba25b68953d7bbf.it-it.xlf</t>
+  </si>
+  <si>
+    <t>dsc_directaccess.014c91015162b26b678e0a5fdfd453a3bf6e41b0.it-it.xlf</t>
+  </si>
+  <si>
+    <t>dsc_encryptedmof.a35c44de669ea81f25dd29f152f03493e52e327b.it-it.xlf</t>
+  </si>
+  <si>
+    <t>dsc_freqnomultiple.2848e52c73280aca59e73136bac0c2c7ae02aad6.it-it.xlf</t>
+  </si>
+  <si>
+    <t>dsc_getconfigurationstatus.1705e4bcaa9dfd9d69f00aecdc7ef0d04bf44899.it-it.xlf</t>
+  </si>
+  <si>
+    <t>dsc_identicalduplicate.eb7167ccd4a72d68aa1683327e9b3877927158ab.it-it.xlf</t>
+  </si>
+  <si>
+    <t>dsc_importdscresource.a0169ad862dfcaa5c958c07ecd52c856d5dc8436.it-it.xlf</t>
+  </si>
+  <si>
+    <t>dsc_improvements.d9ed6ffedf9d9650bb6b26b5ed611e420a0aacbb.it-it.xlf</t>
+  </si>
+  <si>
+    <t>dsc_lcmstate.21ea1c36f37c94e8e0363199fbd07bcced3aea40.it-it.xlf</t>
+  </si>
+  <si>
+    <t>dsc_metaconfiguration.e8bbca05aa1692ad54cadd83b93a1902f179f365.it-it.xlf</t>
+  </si>
+  <si>
+    <t>dsc_newresources.b9c40f591f875ea205c834f7675f3edbe1050592.it-it.xlf</t>
+  </si>
+  <si>
+    <t>dsc_nodeid.e3c9049aa6c1d151f8b286f28502537b2f8d22a4.it-it.xlf</t>
+  </si>
+  <si>
+    <t>dsc_partialconfig.a493787c3f8663ac3e2994162ffd1bee429544d3.it-it.xlf</t>
+  </si>
+  <si>
+    <t>dsc_partialconfig_mixedmode.ff4b9a8a421441da62574192650493bf2407028d.it-it.xlf</t>
+  </si>
+  <si>
+    <t>dsc_publishconfig.bfe86d4253abdd777c205caec637c50ec79103ee.it-it.xlf</t>
+  </si>
+  <si>
+    <t>dsc_refreshmode.b0529a06a4d3e07b3fce300f74760d63b27523f6.it-it.xlf</t>
+  </si>
+  <si>
+    <t>dsc_removeconfigdoc.d16cdab7eaedf468bcc38dae34e93be26a204318.it-it.xlf</t>
+  </si>
+  <si>
+    <t>dsc_reporting.b042cd21b9bcfc8e50bc361ddee59333602fad42.it-it.xlf</t>
+  </si>
+  <si>
+    <t>dsc_repository.ec5040a823a6b64e969393e00f3d859fd0b4551c.it-it.xlf</t>
+  </si>
+  <si>
+    <t>dsc_resourcedebugging.95c69e55eb065b349f52e18126d699b1906ba03f.it-it.xlf</t>
+  </si>
+  <si>
+    <t>dsc_runas.9e19a42a6d5e1ea1772358a6fd8ff24b98a5b6ba.it-it.xlf</t>
+  </si>
+  <si>
+    <t>dsc_setdsclcm.1f0e3cab81cf5fc1feda678f202451fe150632e3.it-it.xlf</t>
+  </si>
+  <si>
+    <t>dsc_statestatus.b6f3670f776a8f63a705ba16bed2f20be34fc48f.it-it.xlf</t>
+  </si>
+  <si>
+    <t>dsc_sxsresource.c9d4ce6109370ac1cbc1fb07f191e02f9a61d5d3.it-it.xlf</t>
+  </si>
+  <si>
+    <t>dsc_testconfiguration.b0e5afe2c8f173ebe49c97c9ea9a2f11d81ea5fa.it-it.xlf</t>
+  </si>
+  <si>
+    <t>dsc_updateconfig.a07eb85e3458d42d7ab1ed5c57dcfc70df709d07.it-it.xlf</t>
+  </si>
+  <si>
+    <t>dsc_waitfor.2b09933f08f1020166ce0f0cd7548a5a3845c48f.it-it.xlf</t>
+  </si>
+  <si>
+    <t>dsc_wow64.ea039aaa1bd77415311fc30d80fed43cda07a6e3.it-it.xlf</t>
+  </si>
+  <si>
+    <t>feedback.3662230166299ef7c1fb7a7a7f5cdbd64b1d812a.it-it.xlf</t>
+  </si>
+  <si>
+    <t>feedback_archive.20de26911a704368058401c7e2bd6ebaac692ff5.it-it.xlf</t>
+  </si>
+  <si>
+    <t>feedback_clipboard.872e5c147ef02cb86067651f41e3c00b55386664.it-it.xlf</t>
+  </si>
+  <si>
+    <t>feedback_cmdlets.a4c0dfb806ca0da232eeb75ad3706177b8a5ec48.it-it.xlf</t>
+  </si>
+  <si>
+    <t>feedback_convertfromString.acdeaa33e8fa59b93649b6abf3a7d5ef64fb7664.it-it.xlf</t>
+  </si>
+  <si>
+    <t>feedback_convertstring.42e964e30093962871c3a4d586ed6c54f25f840d.it-it.xlf</t>
+  </si>
+  <si>
+    <t>feedback_fileinfo.0192edad2d6504d26a9632f95fc9e5b66ffd8003.it-it.xlf</t>
+  </si>
+  <si>
+    <t>feedback_formathex.f97931c887efb620e5f4314facc1f0e20e3dffbe.it-it.xlf</t>
+  </si>
+  <si>
+    <t>feedback_getchilditem.ce02ca20cc4417a80fe65eb509a8e92f2cecc79c.it-it.xlf</t>
+  </si>
+  <si>
+    <t>feedback_moduleversionranges.611b3a3219d64dbfa1d01541b60a727b880a0c4b.it-it.xlf</t>
+  </si>
+  <si>
+    <t>feedback_newguid.f8756fbdb96e6fe06a7e0cbb6ac4af32b1c64983.it-it.xlf</t>
+  </si>
+  <si>
+    <t>feedback_nonewline.7a9b7e24c50399879089bba2b8eee7dc325572e2.it-it.xlf</t>
+  </si>
+  <si>
+    <t>feedback_symbolic.1c3ac8128fb9df60512ec024044d48be7d0cb59f.it-it.xlf</t>
+  </si>
+  <si>
+    <t>feedback_tempfile.fc029065af6bbba3a8c4abbf36023bede7d1416d.it-it.xlf</t>
   </si>
   <si>
     <t>ba1897f38317f5fe38f2d8caf0efcc57bc8bb19d.jpg</t>
@@ -951,76 +948,76 @@
     <t>wmf\dsc_encryptedmof.md</t>
   </si>
   <si>
-    <t>informationstream_overview.d2f238b2b4021ccdb7271cf89f53d58970d56cf5.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>install.317fc924c0f766547c4725878af59c3c9d8facba.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>jea_endpoint.1dc052fe583a907a6c090cf8bfd42293d94d2975.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>jea_overview.3fa3008e719be8235adffe51808ac66714940871.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>jea_report.7860cec6e93b7405844ccbbe5bc879921447ac0b.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>limitation_dsc.3684c81bb088cba98089dffdb1a1e56e1c098335.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>limitation_overview.6cc9c8c028f5912636637d836aed7db0614de522.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>networkswitch_overview.7a87eb0741cd43b8b9284ea6cb605920c4961b79.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>odata_overview.c3f7efdde29fe7ac5685a61cd61d75b65524a4c3.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>oneget_cmdlets.469b2350a72495ac2cf62e4130b4df8036f5d135.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>oneget_overview.e71a25f36f957ab7471d259c6e716651f6f23c94.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>productincompat.62bb00299c0283b5297001553476a745e28a49cb.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>psget_module_overview.4149c468ffd0f17a2fabd03f90059c12effc3170.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>psget_modulecmdlets.1f808cfdf9a9aa920f88e15f7f5fa4701fe805e3.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>psget_moduledependency.89ba9310335ae64db5481a3c02034ac4fe01b6a2.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>psget_modulesxsinstall.110ba80d8f917899ef488b46bd15f5654f6ba06c.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>psget_psrepository.c4381b2ff7bb6496ab74ed8bb2b07325cfbfc056.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>psget_script_overview.f035cc99497d17dc73e3a61f214e40a5860fc70a.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>psget_scriptcmdlets.1762d5f29292d59c1afb37cb29eb11a34cf63990.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>releasenotes.311750b4da54b1d4ef7997b328edd6ff177fb71f.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>requirements.ef8332f358d65b1759bfd4c7336b11d1dc8c2d46.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>sil_overview.a2b1f7c716aad317993a5eaffba21fa28ce0c0d8.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>TOC.60497266061c38453b3db893ec675eb65584af89.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>uninstall.b07adaaaf7f41869dfa201b88e29342aced76c96.ja-jp.xlf</t>
+    <t>informationstream_overview.d2f238b2b4021ccdb7271cf89f53d58970d56cf5.it-it.xlf</t>
+  </si>
+  <si>
+    <t>install.317fc924c0f766547c4725878af59c3c9d8facba.it-it.xlf</t>
+  </si>
+  <si>
+    <t>jea_endpoint.1dc052fe583a907a6c090cf8bfd42293d94d2975.it-it.xlf</t>
+  </si>
+  <si>
+    <t>jea_overview.3fa3008e719be8235adffe51808ac66714940871.it-it.xlf</t>
+  </si>
+  <si>
+    <t>jea_report.7860cec6e93b7405844ccbbe5bc879921447ac0b.it-it.xlf</t>
+  </si>
+  <si>
+    <t>limitation_dsc.3684c81bb088cba98089dffdb1a1e56e1c098335.it-it.xlf</t>
+  </si>
+  <si>
+    <t>limitation_overview.6cc9c8c028f5912636637d836aed7db0614de522.it-it.xlf</t>
+  </si>
+  <si>
+    <t>networkswitch_overview.7a87eb0741cd43b8b9284ea6cb605920c4961b79.it-it.xlf</t>
+  </si>
+  <si>
+    <t>odata_overview.c3f7efdde29fe7ac5685a61cd61d75b65524a4c3.it-it.xlf</t>
+  </si>
+  <si>
+    <t>oneget_cmdlets.469b2350a72495ac2cf62e4130b4df8036f5d135.it-it.xlf</t>
+  </si>
+  <si>
+    <t>oneget_overview.e71a25f36f957ab7471d259c6e716651f6f23c94.it-it.xlf</t>
+  </si>
+  <si>
+    <t>productincompat.62bb00299c0283b5297001553476a745e28a49cb.it-it.xlf</t>
+  </si>
+  <si>
+    <t>psget_module_overview.4149c468ffd0f17a2fabd03f90059c12effc3170.it-it.xlf</t>
+  </si>
+  <si>
+    <t>psget_modulecmdlets.1f808cfdf9a9aa920f88e15f7f5fa4701fe805e3.it-it.xlf</t>
+  </si>
+  <si>
+    <t>psget_moduledependency.89ba9310335ae64db5481a3c02034ac4fe01b6a2.it-it.xlf</t>
+  </si>
+  <si>
+    <t>psget_modulesxsinstall.110ba80d8f917899ef488b46bd15f5654f6ba06c.it-it.xlf</t>
+  </si>
+  <si>
+    <t>psget_psrepository.c4381b2ff7bb6496ab74ed8bb2b07325cfbfc056.it-it.xlf</t>
+  </si>
+  <si>
+    <t>psget_script_overview.f035cc99497d17dc73e3a61f214e40a5860fc70a.it-it.xlf</t>
+  </si>
+  <si>
+    <t>psget_scriptcmdlets.1762d5f29292d59c1afb37cb29eb11a34cf63990.it-it.xlf</t>
+  </si>
+  <si>
+    <t>releasenotes.311750b4da54b1d4ef7997b328edd6ff177fb71f.it-it.xlf</t>
+  </si>
+  <si>
+    <t>requirements.ef8332f358d65b1759bfd4c7336b11d1dc8c2d46.it-it.xlf</t>
+  </si>
+  <si>
+    <t>sil_overview.a2b1f7c716aad317993a5eaffba21fa28ce0c0d8.it-it.xlf</t>
+  </si>
+  <si>
+    <t>TOC.60497266061c38453b3db893ec675eb65584af89.it-it.xlf</t>
+  </si>
+  <si>
+    <t>uninstall.b07adaaaf7f41869dfa201b88e29342aced76c96.it-it.xlf</t>
   </si>
 </sst>
 </file>
@@ -1077,7 +1074,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="ja-jp" displayName="ja_jp" ref="A1:L1" headerRowCount="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="it-it" displayName="it_it" ref="A1:L1" headerRowCount="0">
   <tableColumns count="12">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -1100,7 +1097,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Overview" displayName="Overview" ref="A1:D1" headerRowCount="0">
   <tableColumns count="4">
     <tableColumn id="1" name="File Name"/>
-    <tableColumn id="2" name="ja-jp"/>
+    <tableColumn id="2" name="it-it"/>
     <tableColumn id="3" name="Latest Handoff Date"/>
     <tableColumn id="4" name="Column4"/>
   </tableColumns>
@@ -3968,7 +3965,7 @@
         <v>228</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>229</v>
+        <v>55</v>
       </c>
       <c r="H45" s="0" t="s">
         <v>183</v>
@@ -3988,7 +3985,7 @@
         <v>10</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>182</v>
@@ -4011,10 +4008,10 @@
         <v>10</v>
       </c>
       <c r="D47" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>231</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>232</v>
       </c>
       <c r="H47" s="0" t="s">
         <v>183</v>
@@ -4034,10 +4031,10 @@
         <v>10</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>229</v>
+        <v>55</v>
       </c>
       <c r="H48" s="0" t="s">
         <v>183</v>
@@ -4057,7 +4054,7 @@
         <v>10</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>182</v>
@@ -4080,7 +4077,7 @@
         <v>10</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>182</v>
@@ -4103,7 +4100,7 @@
         <v>10</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>182</v>
@@ -4126,10 +4123,10 @@
         <v>10</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>229</v>
+        <v>55</v>
       </c>
       <c r="H52" s="0" t="s">
         <v>183</v>
@@ -4149,7 +4146,7 @@
         <v>10</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>182</v>
@@ -4172,7 +4169,7 @@
         <v>10</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>197</v>
@@ -4195,7 +4192,7 @@
         <v>10</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>182</v>
@@ -4218,7 +4215,7 @@
         <v>10</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>171</v>
@@ -4241,7 +4238,7 @@
         <v>10</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>182</v>
@@ -4264,7 +4261,7 @@
         <v>10</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>182</v>
@@ -4287,7 +4284,7 @@
         <v>10</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>197</v>
@@ -4310,10 +4307,10 @@
         <v>10</v>
       </c>
       <c r="D60" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E60" s="2" t="s">
         <v>245</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>246</v>
       </c>
       <c r="H60" s="0" t="s">
         <v>183</v>
@@ -4333,7 +4330,7 @@
         <v>10</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>182</v>
@@ -4356,7 +4353,7 @@
         <v>10</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>182</v>
@@ -4379,7 +4376,7 @@
         <v>10</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>182</v>
@@ -4402,10 +4399,10 @@
         <v>10</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H64" s="0" t="s">
         <v>183</v>
@@ -4425,10 +4422,10 @@
         <v>10</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H65" s="0" t="s">
         <v>183</v>
@@ -4448,10 +4445,10 @@
         <v>10</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H66" s="0" t="s">
         <v>183</v>
@@ -4471,10 +4468,10 @@
         <v>10</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H67" s="0" t="s">
         <v>183</v>
@@ -4494,10 +4491,10 @@
         <v>10</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H68" s="0" t="s">
         <v>183</v>
@@ -4517,10 +4514,10 @@
         <v>10</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H69" s="0" t="s">
         <v>183</v>
@@ -4540,10 +4537,10 @@
         <v>10</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H70" s="0" t="s">
         <v>183</v>
@@ -4563,10 +4560,10 @@
         <v>10</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H71" s="0" t="s">
         <v>183</v>
@@ -4586,10 +4583,10 @@
         <v>10</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H72" s="0" t="s">
         <v>183</v>
@@ -4609,10 +4606,10 @@
         <v>10</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H73" s="0" t="s">
         <v>183</v>
@@ -4632,10 +4629,10 @@
         <v>10</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H74" s="0" t="s">
         <v>183</v>
@@ -4655,10 +4652,10 @@
         <v>10</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H75" s="0" t="s">
         <v>183</v>
@@ -4678,10 +4675,10 @@
         <v>10</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H76" s="0" t="s">
         <v>183</v>
@@ -4701,10 +4698,10 @@
         <v>10</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H77" s="0" t="s">
         <v>183</v>
@@ -4724,10 +4721,10 @@
         <v>10</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H78" s="0" t="s">
         <v>183</v>
@@ -4747,10 +4744,10 @@
         <v>10</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H79" s="0" t="s">
         <v>183</v>
@@ -4770,10 +4767,10 @@
         <v>10</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H80" s="0" t="s">
         <v>183</v>
@@ -4793,10 +4790,10 @@
         <v>10</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H81" s="0" t="s">
         <v>183</v>
@@ -4816,10 +4813,10 @@
         <v>10</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H82" s="0" t="s">
         <v>183</v>
@@ -4839,10 +4836,10 @@
         <v>10</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H83" s="0" t="s">
         <v>183</v>
@@ -4862,10 +4859,10 @@
         <v>10</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H84" s="0" t="s">
         <v>183</v>
@@ -4885,10 +4882,10 @@
         <v>10</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H85" s="0" t="s">
         <v>183</v>
@@ -4908,10 +4905,10 @@
         <v>10</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H86" s="0" t="s">
         <v>183</v>
@@ -4931,10 +4928,10 @@
         <v>10</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H87" s="0" t="s">
         <v>183</v>
@@ -4954,10 +4951,10 @@
         <v>10</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H88" s="0" t="s">
         <v>183</v>
@@ -4977,10 +4974,10 @@
         <v>10</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H89" s="0" t="s">
         <v>183</v>
@@ -5000,10 +4997,10 @@
         <v>10</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H90" s="0" t="s">
         <v>183</v>
@@ -5023,10 +5020,10 @@
         <v>10</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H91" s="0" t="s">
         <v>183</v>
@@ -5046,10 +5043,10 @@
         <v>10</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H92" s="0" t="s">
         <v>183</v>
@@ -5069,10 +5066,10 @@
         <v>10</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H93" s="0" t="s">
         <v>183</v>
@@ -5092,10 +5089,10 @@
         <v>10</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H94" s="0" t="s">
         <v>183</v>
@@ -5115,10 +5112,10 @@
         <v>10</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H95" s="0" t="s">
         <v>183</v>
@@ -5138,10 +5135,10 @@
         <v>10</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H96" s="0" t="s">
         <v>183</v>
@@ -5161,10 +5158,10 @@
         <v>10</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H97" s="0" t="s">
         <v>183</v>
@@ -5184,10 +5181,10 @@
         <v>10</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H98" s="0" t="s">
         <v>183</v>
@@ -5207,10 +5204,10 @@
         <v>10</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H99" s="0" t="s">
         <v>183</v>
@@ -5230,10 +5227,10 @@
         <v>10</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H100" s="0" t="s">
         <v>183</v>
@@ -5253,10 +5250,10 @@
         <v>10</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H101" s="0" t="s">
         <v>183</v>
@@ -5276,10 +5273,10 @@
         <v>10</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H102" s="0" t="s">
         <v>183</v>
@@ -5299,10 +5296,10 @@
         <v>10</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H103" s="0" t="s">
         <v>183</v>
@@ -5322,10 +5319,10 @@
         <v>10</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H104" s="0" t="s">
         <v>183</v>
@@ -5345,10 +5342,10 @@
         <v>10</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H105" s="0" t="s">
         <v>183</v>
@@ -5368,10 +5365,10 @@
         <v>10</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H106" s="0" t="s">
         <v>183</v>
@@ -5391,10 +5388,10 @@
         <v>10</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H107" s="0" t="s">
         <v>183</v>
@@ -5414,10 +5411,10 @@
         <v>10</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H108" s="0" t="s">
         <v>183</v>
@@ -5437,10 +5434,10 @@
         <v>10</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H109" s="0" t="s">
         <v>183</v>
@@ -5460,10 +5457,10 @@
         <v>10</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H110" s="0" t="s">
         <v>183</v>
@@ -5483,10 +5480,10 @@
         <v>10</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H111" s="0" t="s">
         <v>183</v>
@@ -5506,10 +5503,10 @@
         <v>10</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H112" s="0" t="s">
         <v>183</v>
@@ -5529,10 +5526,10 @@
         <v>10</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H113" s="0" t="s">
         <v>183</v>
@@ -5552,10 +5549,10 @@
         <v>10</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H114" s="0" t="s">
         <v>183</v>
@@ -5575,10 +5572,10 @@
         <v>10</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H115" s="0" t="s">
         <v>183</v>
@@ -5598,10 +5595,10 @@
         <v>10</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H116" s="0" t="s">
         <v>183</v>
@@ -5621,10 +5618,10 @@
         <v>10</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H117" s="0" t="s">
         <v>183</v>
@@ -5644,10 +5641,10 @@
         <v>10</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H118" s="0" t="s">
         <v>183</v>
@@ -5667,7 +5664,7 @@
         <v>10</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>171</v>
@@ -5679,7 +5676,7 @@
         <v>173</v>
       </c>
       <c r="J119" s="0" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="120">
@@ -5693,7 +5690,7 @@
         <v>10</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>171</v>
@@ -5705,7 +5702,7 @@
         <v>173</v>
       </c>
       <c r="J120" s="0" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="121">
@@ -5719,7 +5716,7 @@
         <v>10</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>171</v>
@@ -5731,7 +5728,7 @@
         <v>173</v>
       </c>
       <c r="J121" s="0" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="122">
@@ -5745,10 +5742,10 @@
         <v>10</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H122" s="0" t="s">
         <v>183</v>
@@ -5768,10 +5765,10 @@
         <v>10</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H123" s="0" t="s">
         <v>183</v>
@@ -5791,10 +5788,10 @@
         <v>10</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H124" s="0" t="s">
         <v>183</v>
@@ -5814,10 +5811,10 @@
         <v>10</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H125" s="0" t="s">
         <v>183</v>
@@ -5837,10 +5834,10 @@
         <v>10</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H126" s="0" t="s">
         <v>183</v>
@@ -5860,10 +5857,10 @@
         <v>10</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H127" s="0" t="s">
         <v>183</v>
@@ -5883,10 +5880,10 @@
         <v>10</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H128" s="0" t="s">
         <v>183</v>
@@ -5906,10 +5903,10 @@
         <v>10</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H129" s="0" t="s">
         <v>183</v>
@@ -5929,10 +5926,10 @@
         <v>10</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H130" s="0" t="s">
         <v>183</v>
@@ -5952,10 +5949,10 @@
         <v>10</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H131" s="0" t="s">
         <v>183</v>
@@ -5975,10 +5972,10 @@
         <v>10</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H132" s="0" t="s">
         <v>183</v>
@@ -5998,10 +5995,10 @@
         <v>10</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H133" s="0" t="s">
         <v>183</v>
@@ -6021,10 +6018,10 @@
         <v>10</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H134" s="0" t="s">
         <v>183</v>
@@ -6044,10 +6041,10 @@
         <v>10</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H135" s="0" t="s">
         <v>183</v>
@@ -6067,10 +6064,10 @@
         <v>10</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H136" s="0" t="s">
         <v>183</v>
@@ -6090,10 +6087,10 @@
         <v>10</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H137" s="0" t="s">
         <v>183</v>
@@ -6113,10 +6110,10 @@
         <v>10</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H138" s="0" t="s">
         <v>183</v>
@@ -6136,10 +6133,10 @@
         <v>10</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H139" s="0" t="s">
         <v>183</v>
@@ -6159,10 +6156,10 @@
         <v>10</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H140" s="0" t="s">
         <v>183</v>
@@ -6182,10 +6179,10 @@
         <v>10</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H141" s="0" t="s">
         <v>183</v>
@@ -6205,10 +6202,10 @@
         <v>10</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H142" s="0" t="s">
         <v>183</v>
@@ -6228,10 +6225,10 @@
         <v>10</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H143" s="0" t="s">
         <v>183</v>
@@ -6251,10 +6248,10 @@
         <v>10</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H144" s="0" t="s">
         <v>183</v>
@@ -6274,10 +6271,10 @@
         <v>10</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H145" s="0" t="s">
         <v>183</v>
@@ -6310,343 +6307,343 @@
     <hyperlink ref="G5" display="d3008e3fe7da4c118c693d2b34a0b329780f8d86.png" r:id="rId21"/>
     <hyperlink ref="A6" display="archiveResource.md" r:id="rId22"/>
     <hyperlink ref="B6" display=".md" r:id="rId23"/>
-    <hyperlink ref="D6" display="archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.ja-jp.xlf" r:id="rId24"/>
+    <hyperlink ref="D6" display="archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.it-it.xlf" r:id="rId24"/>
     <hyperlink ref="A7" display="authoringResource.md" r:id="rId25"/>
     <hyperlink ref="B7" display=".md" r:id="rId26"/>
-    <hyperlink ref="D7" display="authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.ja-jp.xlf" r:id="rId27"/>
+    <hyperlink ref="D7" display="authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.it-it.xlf" r:id="rId27"/>
     <hyperlink ref="A8" display="authoringResourceClass.md" r:id="rId28"/>
     <hyperlink ref="B8" display=".md" r:id="rId29"/>
-    <hyperlink ref="D8" display="authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.ja-jp.xlf" r:id="rId30"/>
+    <hyperlink ref="D8" display="authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.it-it.xlf" r:id="rId30"/>
     <hyperlink ref="A9" display="authoringResourceComposite.md" r:id="rId31"/>
     <hyperlink ref="B9" display=".md" r:id="rId32"/>
-    <hyperlink ref="D9" display="authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.ja-jp.xlf" r:id="rId33"/>
+    <hyperlink ref="D9" display="authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.it-it.xlf" r:id="rId33"/>
     <hyperlink ref="A10" display="authoringResourceMOF.md" r:id="rId34"/>
     <hyperlink ref="B10" display=".md" r:id="rId35"/>
-    <hyperlink ref="D10" display="authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.ja-jp.xlf" r:id="rId36"/>
+    <hyperlink ref="D10" display="authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.it-it.xlf" r:id="rId36"/>
     <hyperlink ref="A11" display="authoringResourceMofCS.md" r:id="rId37"/>
     <hyperlink ref="B11" display=".md" r:id="rId38"/>
-    <hyperlink ref="D11" display="authoringResourceMofCS.0647b27b00ec52b2f524a2856e48bc7c29c0f867.ja-jp.xlf" r:id="rId39"/>
+    <hyperlink ref="D11" display="authoringResourceMofCS.0647b27b00ec52b2f524a2856e48bc7c29c0f867.it-it.xlf" r:id="rId39"/>
     <hyperlink ref="A12" display="authoringResourceMofDesigner.md" r:id="rId40"/>
     <hyperlink ref="B12" display=".md" r:id="rId41"/>
-    <hyperlink ref="D12" display="authoringResourceMofDesigner.09b1adffc4afb0d9b1154880e2dab0b25d82d51b.ja-jp.xlf" r:id="rId42"/>
+    <hyperlink ref="D12" display="authoringResourceMofDesigner.09b1adffc4afb0d9b1154880e2dab0b25d82d51b.it-it.xlf" r:id="rId42"/>
     <hyperlink ref="A13" display="builtInResource.md" r:id="rId43"/>
     <hyperlink ref="B13" display=".md" r:id="rId44"/>
-    <hyperlink ref="D13" display="builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.ja-jp.xlf" r:id="rId45"/>
+    <hyperlink ref="D13" display="builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.it-it.xlf" r:id="rId45"/>
     <hyperlink ref="A14" display="configData.md" r:id="rId46"/>
     <hyperlink ref="B14" display=".md" r:id="rId47"/>
-    <hyperlink ref="D14" display="configData.51d01a46dd9af8b425788cc485523b09f8470b95.ja-jp.xlf" r:id="rId48"/>
+    <hyperlink ref="D14" display="configData.51d01a46dd9af8b425788cc485523b09f8470b95.it-it.xlf" r:id="rId48"/>
     <hyperlink ref="A15" display="configDataCredentials.md" r:id="rId49"/>
     <hyperlink ref="B15" display=".md" r:id="rId50"/>
-    <hyperlink ref="D15" display="configDataCredentials.f3e75119e7d93b2f914823c5ea23bfde3935a874.ja-jp.xlf" r:id="rId51"/>
+    <hyperlink ref="D15" display="configDataCredentials.f3e75119e7d93b2f914823c5ea23bfde3935a874.it-it.xlf" r:id="rId51"/>
     <hyperlink ref="A16" display="configurations.md" r:id="rId52"/>
     <hyperlink ref="B16" display=".md" r:id="rId53"/>
-    <hyperlink ref="D16" display="configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.ja-jp.xlf" r:id="rId54"/>
+    <hyperlink ref="D16" display="configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.it-it.xlf" r:id="rId54"/>
     <hyperlink ref="A17" display="debugResource.md" r:id="rId55"/>
     <hyperlink ref="B17" display=".md" r:id="rId56"/>
-    <hyperlink ref="D17" display="debugResource.ac634156affe5c723cc149a298f5aa4268d17016.ja-jp.xlf" r:id="rId57"/>
+    <hyperlink ref="D17" display="debugResource.ac634156affe5c723cc149a298f5aa4268d17016.it-it.xlf" r:id="rId57"/>
     <hyperlink ref="A18" display="decisionMaker.md" r:id="rId58"/>
     <hyperlink ref="B18" display=".md" r:id="rId59"/>
-    <hyperlink ref="D18" display="decisionMaker.01553169f2ba4241995260fad925e2784b5f5567.ja-jp.xlf" r:id="rId60"/>
+    <hyperlink ref="D18" display="decisionMaker.01553169f2ba4241995260fad925e2784b5f5567.it-it.xlf" r:id="rId60"/>
     <hyperlink ref="A19" display="enactingConfigurations.md" r:id="rId61"/>
     <hyperlink ref="B19" display=".md" r:id="rId62"/>
-    <hyperlink ref="D19" display="enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.ja-jp.xlf" r:id="rId63"/>
+    <hyperlink ref="D19" display="enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.it-it.xlf" r:id="rId63"/>
     <hyperlink ref="A20" display="environmentResource.md" r:id="rId64"/>
     <hyperlink ref="B20" display=".md" r:id="rId65"/>
-    <hyperlink ref="D20" display="environmentResource.eb91ffd4cd8bdb9476e5a83de1a20d3b7b502a56.ja-jp.xlf" r:id="rId66"/>
+    <hyperlink ref="D20" display="environmentResource.eb91ffd4cd8bdb9476e5a83de1a20d3b7b502a56.it-it.xlf" r:id="rId66"/>
     <hyperlink ref="A21" display="fileResource.md" r:id="rId67"/>
     <hyperlink ref="B21" display=".md" r:id="rId68"/>
-    <hyperlink ref="D21" display="fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.ja-jp.xlf" r:id="rId69"/>
+    <hyperlink ref="D21" display="fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.it-it.xlf" r:id="rId69"/>
     <hyperlink ref="A22" display="gettingStarted.md" r:id="rId70"/>
     <hyperlink ref="B22" display=".md" r:id="rId71"/>
-    <hyperlink ref="D22" display="gettingStarted.92e02d8bd273df5c304475a9b4fa251c22a7ea19.ja-jp.xlf" r:id="rId72"/>
+    <hyperlink ref="D22" display="gettingStarted.92e02d8bd273df5c304475a9b4fa251c22a7ea19.it-it.xlf" r:id="rId72"/>
     <hyperlink ref="A23" display="groupResource.md" r:id="rId73"/>
     <hyperlink ref="B23" display=".md" r:id="rId74"/>
-    <hyperlink ref="D23" display="groupResource.d19d416269795c92566b62c36b9782062dcea43e.ja-jp.xlf" r:id="rId75"/>
+    <hyperlink ref="D23" display="groupResource.d19d416269795c92566b62c36b9782062dcea43e.it-it.xlf" r:id="rId75"/>
     <hyperlink ref="A24" display="CredentialEncryptionDiagram1.png" r:id="rId76"/>
     <hyperlink ref="B24" display=".png" r:id="rId77"/>
     <hyperlink ref="D24" display="d9f53a805041164f5070845c0fd216b63d17ae58.png" r:id="rId78"/>
     <hyperlink ref="A25" display="lnxArchiveResource.md" r:id="rId79"/>
     <hyperlink ref="B25" display=".md" r:id="rId80"/>
-    <hyperlink ref="D25" display="lnxArchiveResource.095aab7d23720fd394f2573c30223a6bbcc0a4ef.ja-jp.xlf" r:id="rId81"/>
+    <hyperlink ref="D25" display="lnxArchiveResource.095aab7d23720fd394f2573c30223a6bbcc0a4ef.it-it.xlf" r:id="rId81"/>
     <hyperlink ref="A26" display="lnxBuiltInResources.md" r:id="rId82"/>
     <hyperlink ref="B26" display=".md" r:id="rId83"/>
-    <hyperlink ref="D26" display="lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.ja-jp.xlf" r:id="rId84"/>
+    <hyperlink ref="D26" display="lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.it-it.xlf" r:id="rId84"/>
     <hyperlink ref="A27" display="lnxEnvironmentResource.md" r:id="rId85"/>
     <hyperlink ref="B27" display=".md" r:id="rId86"/>
-    <hyperlink ref="D27" display="lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.ja-jp.xlf" r:id="rId87"/>
+    <hyperlink ref="D27" display="lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.it-it.xlf" r:id="rId87"/>
     <hyperlink ref="A28" display="lnxFileLineResource.md" r:id="rId88"/>
     <hyperlink ref="B28" display=".md" r:id="rId89"/>
-    <hyperlink ref="D28" display="lnxFileLineResource.d91fc802a4c6cdbff5a2e35f92b34c36c6dbf5eb.ja-jp.xlf" r:id="rId90"/>
+    <hyperlink ref="D28" display="lnxFileLineResource.d91fc802a4c6cdbff5a2e35f92b34c36c6dbf5eb.it-it.xlf" r:id="rId90"/>
     <hyperlink ref="A29" display="lnxFileResource.md" r:id="rId91"/>
     <hyperlink ref="B29" display=".md" r:id="rId92"/>
-    <hyperlink ref="D29" display="lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.ja-jp.xlf" r:id="rId93"/>
+    <hyperlink ref="D29" display="lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.it-it.xlf" r:id="rId93"/>
     <hyperlink ref="A30" display="lnxGettingStarted.md" r:id="rId94"/>
     <hyperlink ref="B30" display=".md" r:id="rId95"/>
-    <hyperlink ref="D30" display="lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.ja-jp.xlf" r:id="rId96"/>
+    <hyperlink ref="D30" display="lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.it-it.xlf" r:id="rId96"/>
     <hyperlink ref="A31" display="lnxGroupResource.md" r:id="rId97"/>
     <hyperlink ref="B31" display=".md" r:id="rId98"/>
-    <hyperlink ref="D31" display="lnxGroupResource.0cedb684d797032bd47cdb852629c36da0884567.ja-jp.xlf" r:id="rId99"/>
+    <hyperlink ref="D31" display="lnxGroupResource.0cedb684d797032bd47cdb852629c36da0884567.it-it.xlf" r:id="rId99"/>
     <hyperlink ref="A32" display="lnxPackageResource.md" r:id="rId100"/>
     <hyperlink ref="B32" display=".md" r:id="rId101"/>
-    <hyperlink ref="D32" display="lnxPackageResource.db35ab938bbfbb38cae53fe9ae98fd22b5f18009.ja-jp.xlf" r:id="rId102"/>
+    <hyperlink ref="D32" display="lnxPackageResource.db35ab938bbfbb38cae53fe9ae98fd22b5f18009.it-it.xlf" r:id="rId102"/>
     <hyperlink ref="A33" display="lnxScriptResource.md" r:id="rId103"/>
     <hyperlink ref="B33" display=".md" r:id="rId104"/>
-    <hyperlink ref="D33" display="lnxScriptResource.1344a5d5b807ee53705e93842d9ef5e25a883359.ja-jp.xlf" r:id="rId105"/>
+    <hyperlink ref="D33" display="lnxScriptResource.1344a5d5b807ee53705e93842d9ef5e25a883359.it-it.xlf" r:id="rId105"/>
     <hyperlink ref="A34" display="lnxServiceResource.md" r:id="rId106"/>
     <hyperlink ref="B34" display=".md" r:id="rId107"/>
-    <hyperlink ref="D34" display="lnxServiceResource.e637c7f7b18939ec8c16eadf2c42ab00e236fb7b.ja-jp.xlf" r:id="rId108"/>
+    <hyperlink ref="D34" display="lnxServiceResource.e637c7f7b18939ec8c16eadf2c42ab00e236fb7b.it-it.xlf" r:id="rId108"/>
     <hyperlink ref="A35" display="lnxSshAuthorizedKeysResource.md" r:id="rId109"/>
     <hyperlink ref="B35" display=".md" r:id="rId110"/>
-    <hyperlink ref="D35" display="lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.ja-jp.xlf" r:id="rId111"/>
+    <hyperlink ref="D35" display="lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.it-it.xlf" r:id="rId111"/>
     <hyperlink ref="A36" display="lnxUserResource.md" r:id="rId112"/>
     <hyperlink ref="B36" display=".md" r:id="rId113"/>
-    <hyperlink ref="D36" display="lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.ja-jp.xlf" r:id="rId114"/>
+    <hyperlink ref="D36" display="lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.it-it.xlf" r:id="rId114"/>
     <hyperlink ref="A37" display="logResource.md" r:id="rId115"/>
     <hyperlink ref="B37" display=".md" r:id="rId116"/>
-    <hyperlink ref="D37" display="logResource.07af9dfcf6076ef19059178c3b404762677920f0.ja-jp.xlf" r:id="rId117"/>
+    <hyperlink ref="D37" display="logResource.07af9dfcf6076ef19059178c3b404762677920f0.it-it.xlf" r:id="rId117"/>
     <hyperlink ref="A38" display="metaConfig.md" r:id="rId118"/>
     <hyperlink ref="B38" display=".md" r:id="rId119"/>
-    <hyperlink ref="D38" display="metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.ja-jp.xlf" r:id="rId120"/>
+    <hyperlink ref="D38" display="metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.it-it.xlf" r:id="rId120"/>
     <hyperlink ref="A39" display="metaConfig4.md" r:id="rId121"/>
     <hyperlink ref="B39" display=".md" r:id="rId122"/>
-    <hyperlink ref="D39" display="metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.ja-jp.xlf" r:id="rId123"/>
+    <hyperlink ref="D39" display="metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.it-it.xlf" r:id="rId123"/>
     <hyperlink ref="A40" display="overview.md" r:id="rId124"/>
     <hyperlink ref="B40" display=".md" r:id="rId125"/>
-    <hyperlink ref="D40" display="overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.ja-jp.xlf" r:id="rId126"/>
+    <hyperlink ref="D40" display="overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.it-it.xlf" r:id="rId126"/>
     <hyperlink ref="A41" display="packageResource.md" r:id="rId127"/>
     <hyperlink ref="B41" display=".md" r:id="rId128"/>
-    <hyperlink ref="D41" display="packageResource.132c4949cee174dc0dc324456d220436cb9884e6.ja-jp.xlf" r:id="rId129"/>
+    <hyperlink ref="D41" display="packageResource.132c4949cee174dc0dc324456d220436cb9884e6.it-it.xlf" r:id="rId129"/>
     <hyperlink ref="A42" display="partialConfigs.md" r:id="rId130"/>
     <hyperlink ref="B42" display=".md" r:id="rId131"/>
-    <hyperlink ref="D42" display="partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.ja-jp.xlf" r:id="rId132"/>
+    <hyperlink ref="D42" display="partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.it-it.xlf" r:id="rId132"/>
     <hyperlink ref="A43" display="pullClient.md" r:id="rId133"/>
     <hyperlink ref="B43" display=".md" r:id="rId134"/>
-    <hyperlink ref="D43" display="pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.ja-jp.xlf" r:id="rId135"/>
+    <hyperlink ref="D43" display="pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.it-it.xlf" r:id="rId135"/>
     <hyperlink ref="A44" display="pullClientConfigID.md" r:id="rId136"/>
     <hyperlink ref="B44" display=".md" r:id="rId137"/>
-    <hyperlink ref="D44" display="pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.ja-jp.xlf" r:id="rId138"/>
+    <hyperlink ref="D44" display="pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.it-it.xlf" r:id="rId138"/>
     <hyperlink ref="A45" display="pullClientConfigID4.md" r:id="rId139"/>
     <hyperlink ref="B45" display=".md" r:id="rId140"/>
-    <hyperlink ref="D45" display="pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.ja-jp.xlf" r:id="rId141"/>
+    <hyperlink ref="D45" display="pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.it-it.xlf" r:id="rId141"/>
     <hyperlink ref="A46" display="pullClientConfigNames.md" r:id="rId142"/>
     <hyperlink ref="B46" display=".md" r:id="rId143"/>
-    <hyperlink ref="D46" display="pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.ja-jp.xlf" r:id="rId144"/>
+    <hyperlink ref="D46" display="pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.it-it.xlf" r:id="rId144"/>
     <hyperlink ref="A47" display="pullServer.md" r:id="rId145"/>
     <hyperlink ref="B47" display=".md" r:id="rId146"/>
-    <hyperlink ref="D47" display="pullServer.4b925b277da29998394af746bdbdd508fda48909.ja-jp.xlf" r:id="rId147"/>
+    <hyperlink ref="D47" display="pullServer.4b925b277da29998394af746bdbdd508fda48909.it-it.xlf" r:id="rId147"/>
     <hyperlink ref="A48" display="pullServerSMB.md" r:id="rId148"/>
     <hyperlink ref="B48" display=".md" r:id="rId149"/>
-    <hyperlink ref="D48" display="pullServerSMB.772aec5ae27ccb19ced78e3eb665a4e16db1c4df.ja-jp.xlf" r:id="rId150"/>
+    <hyperlink ref="D48" display="pullServerSMB.772aec5ae27ccb19ced78e3eb665a4e16db1c4df.it-it.xlf" r:id="rId150"/>
     <hyperlink ref="A49" display="queryServerNodes.md" r:id="rId151"/>
     <hyperlink ref="B49" display=".md" r:id="rId152"/>
-    <hyperlink ref="D49" display="queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.ja-jp.xlf" r:id="rId153"/>
+    <hyperlink ref="D49" display="queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.it-it.xlf" r:id="rId153"/>
     <hyperlink ref="A50" display="registryResource.md" r:id="rId154"/>
     <hyperlink ref="B50" display=".md" r:id="rId155"/>
-    <hyperlink ref="D50" display="registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.ja-jp.xlf" r:id="rId156"/>
+    <hyperlink ref="D50" display="registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.it-it.xlf" r:id="rId156"/>
     <hyperlink ref="A51" display="reportServer.md" r:id="rId157"/>
     <hyperlink ref="B51" display=".md" r:id="rId158"/>
-    <hyperlink ref="D51" display="reportServer.53df4bc8b7b80c0a19c11434bdf5f4304e8248f7.ja-jp.xlf" r:id="rId159"/>
+    <hyperlink ref="D51" display="reportServer.53df4bc8b7b80c0a19c11434bdf5f4304e8248f7.it-it.xlf" r:id="rId159"/>
     <hyperlink ref="A52" display="resourceAuthoringChecklist.md" r:id="rId160"/>
     <hyperlink ref="B52" display=".md" r:id="rId161"/>
-    <hyperlink ref="D52" display="resourceAuthoringChecklist.3b9ae254d826cc45519d37d06044f28a69bdfa69.ja-jp.xlf" r:id="rId162"/>
+    <hyperlink ref="D52" display="resourceAuthoringChecklist.3b9ae254d826cc45519d37d06044f28a69bdfa69.it-it.xlf" r:id="rId162"/>
     <hyperlink ref="A53" display="resources.md" r:id="rId163"/>
     <hyperlink ref="B53" display=".md" r:id="rId164"/>
-    <hyperlink ref="D53" display="resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.ja-jp.xlf" r:id="rId165"/>
+    <hyperlink ref="D53" display="resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.it-it.xlf" r:id="rId165"/>
     <hyperlink ref="A54" display="runAsUser.md" r:id="rId166"/>
     <hyperlink ref="B54" display=".md" r:id="rId167"/>
-    <hyperlink ref="D54" display="runAsUser.d2b90b6bc42ef965e454f9c9f5fd19bc7b488b34.ja-jp.xlf" r:id="rId168"/>
+    <hyperlink ref="D54" display="runAsUser.d2b90b6bc42ef965e454f9c9f5fd19bc7b488b34.it-it.xlf" r:id="rId168"/>
     <hyperlink ref="A55" display="scriptResource.md" r:id="rId169"/>
     <hyperlink ref="B55" display=".md" r:id="rId170"/>
-    <hyperlink ref="D55" display="scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.ja-jp.xlf" r:id="rId171"/>
+    <hyperlink ref="D55" display="scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.it-it.xlf" r:id="rId171"/>
     <hyperlink ref="A56" display="secureMOF.md" r:id="rId172"/>
     <hyperlink ref="B56" display=".md" r:id="rId173"/>
-    <hyperlink ref="D56" display="secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.ja-jp.xlf" r:id="rId174"/>
+    <hyperlink ref="D56" display="secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.it-it.xlf" r:id="rId174"/>
     <hyperlink ref="A57" display="secureServer.md" r:id="rId175"/>
     <hyperlink ref="B57" display=".md" r:id="rId176"/>
-    <hyperlink ref="D57" display="secureServer.ce207607010d18109152742ba23c923cd3cddba2.ja-jp.xlf" r:id="rId177"/>
+    <hyperlink ref="D57" display="secureServer.ce207607010d18109152742ba23c923cd3cddba2.it-it.xlf" r:id="rId177"/>
     <hyperlink ref="A58" display="serviceResource.md" r:id="rId178"/>
     <hyperlink ref="B58" display=".md" r:id="rId179"/>
-    <hyperlink ref="D58" display="serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.ja-jp.xlf" r:id="rId180"/>
+    <hyperlink ref="D58" display="serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.it-it.xlf" r:id="rId180"/>
     <hyperlink ref="A59" display="TOC.md" r:id="rId181"/>
     <hyperlink ref="B59" display=".md" r:id="rId182"/>
-    <hyperlink ref="D59" display="TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.ja-jp.xlf" r:id="rId183"/>
+    <hyperlink ref="D59" display="TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.it-it.xlf" r:id="rId183"/>
     <hyperlink ref="A60" display="troubleshooting.md" r:id="rId184"/>
     <hyperlink ref="B60" display=".md" r:id="rId185"/>
-    <hyperlink ref="D60" display="troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.ja-jp.xlf" r:id="rId186"/>
+    <hyperlink ref="D60" display="troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.it-it.xlf" r:id="rId186"/>
     <hyperlink ref="A61" display="userResource.md" r:id="rId187"/>
     <hyperlink ref="B61" display=".md" r:id="rId188"/>
-    <hyperlink ref="D61" display="userResource.5de4fbe03e9e06934442ba451eb0564931863f45.ja-jp.xlf" r:id="rId189"/>
+    <hyperlink ref="D61" display="userResource.5de4fbe03e9e06934442ba451eb0564931863f45.it-it.xlf" r:id="rId189"/>
     <hyperlink ref="A62" display="windowsfeatureResource.md" r:id="rId190"/>
     <hyperlink ref="B62" display=".md" r:id="rId191"/>
-    <hyperlink ref="D62" display="windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.ja-jp.xlf" r:id="rId192"/>
+    <hyperlink ref="D62" display="windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.it-it.xlf" r:id="rId192"/>
     <hyperlink ref="A63" display="windowsProcessResource.md" r:id="rId193"/>
     <hyperlink ref="B63" display=".md" r:id="rId194"/>
-    <hyperlink ref="D63" display="windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.ja-jp.xlf" r:id="rId195"/>
+    <hyperlink ref="D63" display="windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.it-it.xlf" r:id="rId195"/>
     <hyperlink ref="A64" display="audit_cms.md" r:id="rId196"/>
     <hyperlink ref="B64" display=".md" r:id="rId197"/>
-    <hyperlink ref="D64" display="audit_cms.3e422ca243ac938b46bfcf1497a703e55bde970e.ja-jp.xlf" r:id="rId198"/>
+    <hyperlink ref="D64" display="audit_cms.3e422ca243ac938b46bfcf1497a703e55bde970e.it-it.xlf" r:id="rId198"/>
     <hyperlink ref="A65" display="audit_overview.md" r:id="rId199"/>
     <hyperlink ref="B65" display=".md" r:id="rId200"/>
-    <hyperlink ref="D65" display="audit_overview.fc5b51e2734a2af986c9edf42b4395b1aad2435d.ja-jp.xlf" r:id="rId201"/>
+    <hyperlink ref="D65" display="audit_overview.fc5b51e2734a2af986c9edf42b4395b1aad2435d.it-it.xlf" r:id="rId201"/>
     <hyperlink ref="A66" display="audit_script.md" r:id="rId202"/>
     <hyperlink ref="B66" display=".md" r:id="rId203"/>
-    <hyperlink ref="D66" display="audit_script.e89f3a9316d1125e1efd23b41b756a3a6161016b.ja-jp.xlf" r:id="rId204"/>
+    <hyperlink ref="D66" display="audit_script.e89f3a9316d1125e1efd23b41b756a3a6161016b.it-it.xlf" r:id="rId204"/>
     <hyperlink ref="A67" display="audit_transcript.md" r:id="rId205"/>
     <hyperlink ref="B67" display=".md" r:id="rId206"/>
-    <hyperlink ref="D67" display="audit_transcript.c21a6554932939cbf4c744bf7c9f07cc4e1e7160.ja-jp.xlf" r:id="rId207"/>
+    <hyperlink ref="D67" display="audit_transcript.c21a6554932939cbf4c744bf7c9f07cc4e1e7160.it-it.xlf" r:id="rId207"/>
     <hyperlink ref="A68" display="class_base.md" r:id="rId208"/>
     <hyperlink ref="B68" display=".md" r:id="rId209"/>
-    <hyperlink ref="D68" display="class_base.29a9fbe4987503d5575c151f4271f58398cb7e55.ja-jp.xlf" r:id="rId210"/>
+    <hyperlink ref="D68" display="class_base.29a9fbe4987503d5575c151f4271f58398cb7e55.it-it.xlf" r:id="rId210"/>
     <hyperlink ref="A69" display="class_baseconstructor.md" r:id="rId211"/>
     <hyperlink ref="B69" display=".md" r:id="rId212"/>
-    <hyperlink ref="D69" display="class_baseconstructor.82f951e800b06ccc68090b1be9923c8210a233ac.ja-jp.xlf" r:id="rId213"/>
+    <hyperlink ref="D69" display="class_baseconstructor.82f951e800b06ccc68090b1be9923c8210a233ac.it-it.xlf" r:id="rId213"/>
     <hyperlink ref="A70" display="class_basemethod.md" r:id="rId214"/>
     <hyperlink ref="B70" display=".md" r:id="rId215"/>
-    <hyperlink ref="D70" display="class_basemethod.6b60292188d0081f30fbaf4b111db8a439348f5b.ja-jp.xlf" r:id="rId216"/>
+    <hyperlink ref="D70" display="class_basemethod.6b60292188d0081f30fbaf4b111db8a439348f5b.it-it.xlf" r:id="rId216"/>
     <hyperlink ref="A71" display="class_interface.md" r:id="rId217"/>
     <hyperlink ref="B71" display=".md" r:id="rId218"/>
-    <hyperlink ref="D71" display="class_interface.84a08fd30808364a820bdd4440de18ec4504a6c7.ja-jp.xlf" r:id="rId219"/>
+    <hyperlink ref="D71" display="class_interface.84a08fd30808364a820bdd4440de18ec4504a6c7.it-it.xlf" r:id="rId219"/>
     <hyperlink ref="A72" display="class_newtype.md" r:id="rId220"/>
     <hyperlink ref="B72" display=".md" r:id="rId221"/>
-    <hyperlink ref="D72" display="class_newtype.a9f52b670970046f8b1147d4ba646b73abb430dc.ja-jp.xlf" r:id="rId222"/>
+    <hyperlink ref="D72" display="class_newtype.a9f52b670970046f8b1147d4ba646b73abb430dc.it-it.xlf" r:id="rId222"/>
     <hyperlink ref="A73" display="class_overview.md" r:id="rId223"/>
     <hyperlink ref="B73" display=".md" r:id="rId224"/>
-    <hyperlink ref="D73" display="class_overview.91227b885afcb8df385ab601ab970b924eca2533.ja-jp.xlf" r:id="rId225"/>
+    <hyperlink ref="D73" display="class_overview.91227b885afcb8df385ab601ab970b924eca2533.it-it.xlf" r:id="rId225"/>
     <hyperlink ref="A74" display="debug_overview.md" r:id="rId226"/>
     <hyperlink ref="B74" display=".md" r:id="rId227"/>
-    <hyperlink ref="D74" display="debug_overview.70b71c20b8b625704c25da28a58e804a048bafb0.ja-jp.xlf" r:id="rId228"/>
+    <hyperlink ref="D74" display="debug_overview.70b71c20b8b625704c25da28a58e804a048bafb0.it-it.xlf" r:id="rId228"/>
     <hyperlink ref="A75" display="dsc_authoring.md" r:id="rId229"/>
     <hyperlink ref="B75" display=".md" r:id="rId230"/>
-    <hyperlink ref="D75" display="dsc_authoring.364878cde8f156d8999773842812e0c08f70191c.ja-jp.xlf" r:id="rId231"/>
+    <hyperlink ref="D75" display="dsc_authoring.364878cde8f156d8999773842812e0c08f70191c.it-it.xlf" r:id="rId231"/>
     <hyperlink ref="A76" display="dsc_classbasedresource.md" r:id="rId232"/>
     <hyperlink ref="B76" display=".md" r:id="rId233"/>
-    <hyperlink ref="D76" display="dsc_classbasedresource.a3d6b22652db939b51db1218584247396454ae0f.ja-jp.xlf" r:id="rId234"/>
+    <hyperlink ref="D76" display="dsc_classbasedresource.a3d6b22652db939b51db1218584247396454ae0f.it-it.xlf" r:id="rId234"/>
     <hyperlink ref="A77" display="dsc_confighelp.md" r:id="rId235"/>
     <hyperlink ref="B77" display=".md" r:id="rId236"/>
-    <hyperlink ref="D77" display="dsc_confighelp.bcfa7e85acae98499089edc9fba25b68953d7bbf.ja-jp.xlf" r:id="rId237"/>
+    <hyperlink ref="D77" display="dsc_confighelp.bcfa7e85acae98499089edc9fba25b68953d7bbf.it-it.xlf" r:id="rId237"/>
     <hyperlink ref="A78" display="dsc_directaccess.md" r:id="rId238"/>
     <hyperlink ref="B78" display=".md" r:id="rId239"/>
-    <hyperlink ref="D78" display="dsc_directaccess.014c91015162b26b678e0a5fdfd453a3bf6e41b0.ja-jp.xlf" r:id="rId240"/>
+    <hyperlink ref="D78" display="dsc_directaccess.014c91015162b26b678e0a5fdfd453a3bf6e41b0.it-it.xlf" r:id="rId240"/>
     <hyperlink ref="A79" display="dsc_encryptedmof.md" r:id="rId241"/>
     <hyperlink ref="B79" display=".md" r:id="rId242"/>
-    <hyperlink ref="D79" display="dsc_encryptedmof.a35c44de669ea81f25dd29f152f03493e52e327b.ja-jp.xlf" r:id="rId243"/>
+    <hyperlink ref="D79" display="dsc_encryptedmof.a35c44de669ea81f25dd29f152f03493e52e327b.it-it.xlf" r:id="rId243"/>
     <hyperlink ref="A80" display="dsc_freqnomultiple.md" r:id="rId244"/>
     <hyperlink ref="B80" display=".md" r:id="rId245"/>
-    <hyperlink ref="D80" display="dsc_freqnomultiple.2848e52c73280aca59e73136bac0c2c7ae02aad6.ja-jp.xlf" r:id="rId246"/>
+    <hyperlink ref="D80" display="dsc_freqnomultiple.2848e52c73280aca59e73136bac0c2c7ae02aad6.it-it.xlf" r:id="rId246"/>
     <hyperlink ref="A81" display="dsc_getconfigurationstatus.md" r:id="rId247"/>
     <hyperlink ref="B81" display=".md" r:id="rId248"/>
-    <hyperlink ref="D81" display="dsc_getconfigurationstatus.1705e4bcaa9dfd9d69f00aecdc7ef0d04bf44899.ja-jp.xlf" r:id="rId249"/>
+    <hyperlink ref="D81" display="dsc_getconfigurationstatus.1705e4bcaa9dfd9d69f00aecdc7ef0d04bf44899.it-it.xlf" r:id="rId249"/>
     <hyperlink ref="A82" display="dsc_identicalduplicate.md" r:id="rId250"/>
     <hyperlink ref="B82" display=".md" r:id="rId251"/>
-    <hyperlink ref="D82" display="dsc_identicalduplicate.eb7167ccd4a72d68aa1683327e9b3877927158ab.ja-jp.xlf" r:id="rId252"/>
+    <hyperlink ref="D82" display="dsc_identicalduplicate.eb7167ccd4a72d68aa1683327e9b3877927158ab.it-it.xlf" r:id="rId252"/>
     <hyperlink ref="A83" display="dsc_importdscresource.md" r:id="rId253"/>
     <hyperlink ref="B83" display=".md" r:id="rId254"/>
-    <hyperlink ref="D83" display="dsc_importdscresource.a0169ad862dfcaa5c958c07ecd52c856d5dc8436.ja-jp.xlf" r:id="rId255"/>
+    <hyperlink ref="D83" display="dsc_importdscresource.a0169ad862dfcaa5c958c07ecd52c856d5dc8436.it-it.xlf" r:id="rId255"/>
     <hyperlink ref="A84" display="dsc_improvements.md" r:id="rId256"/>
     <hyperlink ref="B84" display=".md" r:id="rId257"/>
-    <hyperlink ref="D84" display="dsc_improvements.d9ed6ffedf9d9650bb6b26b5ed611e420a0aacbb.ja-jp.xlf" r:id="rId258"/>
+    <hyperlink ref="D84" display="dsc_improvements.d9ed6ffedf9d9650bb6b26b5ed611e420a0aacbb.it-it.xlf" r:id="rId258"/>
     <hyperlink ref="A85" display="dsc_lcmstate.md" r:id="rId259"/>
     <hyperlink ref="B85" display=".md" r:id="rId260"/>
-    <hyperlink ref="D85" display="dsc_lcmstate.21ea1c36f37c94e8e0363199fbd07bcced3aea40.ja-jp.xlf" r:id="rId261"/>
+    <hyperlink ref="D85" display="dsc_lcmstate.21ea1c36f37c94e8e0363199fbd07bcced3aea40.it-it.xlf" r:id="rId261"/>
     <hyperlink ref="A86" display="dsc_metaconfiguration.md" r:id="rId262"/>
     <hyperlink ref="B86" display=".md" r:id="rId263"/>
-    <hyperlink ref="D86" display="dsc_metaconfiguration.e8bbca05aa1692ad54cadd83b93a1902f179f365.ja-jp.xlf" r:id="rId264"/>
+    <hyperlink ref="D86" display="dsc_metaconfiguration.e8bbca05aa1692ad54cadd83b93a1902f179f365.it-it.xlf" r:id="rId264"/>
     <hyperlink ref="A87" display="dsc_newresources.md" r:id="rId265"/>
     <hyperlink ref="B87" display=".md" r:id="rId266"/>
-    <hyperlink ref="D87" display="dsc_newresources.b9c40f591f875ea205c834f7675f3edbe1050592.ja-jp.xlf" r:id="rId267"/>
+    <hyperlink ref="D87" display="dsc_newresources.b9c40f591f875ea205c834f7675f3edbe1050592.it-it.xlf" r:id="rId267"/>
     <hyperlink ref="A88" display="dsc_nodeid.md" r:id="rId268"/>
     <hyperlink ref="B88" display=".md" r:id="rId269"/>
-    <hyperlink ref="D88" display="dsc_nodeid.e3c9049aa6c1d151f8b286f28502537b2f8d22a4.ja-jp.xlf" r:id="rId270"/>
+    <hyperlink ref="D88" display="dsc_nodeid.e3c9049aa6c1d151f8b286f28502537b2f8d22a4.it-it.xlf" r:id="rId270"/>
     <hyperlink ref="A89" display="dsc_partialconfig.md" r:id="rId271"/>
     <hyperlink ref="B89" display=".md" r:id="rId272"/>
-    <hyperlink ref="D89" display="dsc_partialconfig.a493787c3f8663ac3e2994162ffd1bee429544d3.ja-jp.xlf" r:id="rId273"/>
+    <hyperlink ref="D89" display="dsc_partialconfig.a493787c3f8663ac3e2994162ffd1bee429544d3.it-it.xlf" r:id="rId273"/>
     <hyperlink ref="A90" display="dsc_partialconfig_mixedmode.md" r:id="rId274"/>
     <hyperlink ref="B90" display=".md" r:id="rId275"/>
-    <hyperlink ref="D90" display="dsc_partialconfig_mixedmode.ff4b9a8a421441da62574192650493bf2407028d.ja-jp.xlf" r:id="rId276"/>
+    <hyperlink ref="D90" display="dsc_partialconfig_mixedmode.ff4b9a8a421441da62574192650493bf2407028d.it-it.xlf" r:id="rId276"/>
     <hyperlink ref="A91" display="dsc_publishconfig.md" r:id="rId277"/>
     <hyperlink ref="B91" display=".md" r:id="rId278"/>
-    <hyperlink ref="D91" display="dsc_publishconfig.bfe86d4253abdd777c205caec637c50ec79103ee.ja-jp.xlf" r:id="rId279"/>
+    <hyperlink ref="D91" display="dsc_publishconfig.bfe86d4253abdd777c205caec637c50ec79103ee.it-it.xlf" r:id="rId279"/>
     <hyperlink ref="A92" display="dsc_refreshmode.md" r:id="rId280"/>
     <hyperlink ref="B92" display=".md" r:id="rId281"/>
-    <hyperlink ref="D92" display="dsc_refreshmode.b0529a06a4d3e07b3fce300f74760d63b27523f6.ja-jp.xlf" r:id="rId282"/>
+    <hyperlink ref="D92" display="dsc_refreshmode.b0529a06a4d3e07b3fce300f74760d63b27523f6.it-it.xlf" r:id="rId282"/>
     <hyperlink ref="A93" display="dsc_removeconfigdoc.md" r:id="rId283"/>
     <hyperlink ref="B93" display=".md" r:id="rId284"/>
-    <hyperlink ref="D93" display="dsc_removeconfigdoc.d16cdab7eaedf468bcc38dae34e93be26a204318.ja-jp.xlf" r:id="rId285"/>
+    <hyperlink ref="D93" display="dsc_removeconfigdoc.d16cdab7eaedf468bcc38dae34e93be26a204318.it-it.xlf" r:id="rId285"/>
     <hyperlink ref="A94" display="dsc_reporting.md" r:id="rId286"/>
     <hyperlink ref="B94" display=".md" r:id="rId287"/>
-    <hyperlink ref="D94" display="dsc_reporting.b042cd21b9bcfc8e50bc361ddee59333602fad42.ja-jp.xlf" r:id="rId288"/>
+    <hyperlink ref="D94" display="dsc_reporting.b042cd21b9bcfc8e50bc361ddee59333602fad42.it-it.xlf" r:id="rId288"/>
     <hyperlink ref="A95" display="dsc_repository.md" r:id="rId289"/>
     <hyperlink ref="B95" display=".md" r:id="rId290"/>
-    <hyperlink ref="D95" display="dsc_repository.ec5040a823a6b64e969393e00f3d859fd0b4551c.ja-jp.xlf" r:id="rId291"/>
+    <hyperlink ref="D95" display="dsc_repository.ec5040a823a6b64e969393e00f3d859fd0b4551c.it-it.xlf" r:id="rId291"/>
     <hyperlink ref="A96" display="dsc_resourcedebugging.md" r:id="rId292"/>
     <hyperlink ref="B96" display=".md" r:id="rId293"/>
-    <hyperlink ref="D96" display="dsc_resourcedebugging.95c69e55eb065b349f52e18126d699b1906ba03f.ja-jp.xlf" r:id="rId294"/>
+    <hyperlink ref="D96" display="dsc_resourcedebugging.95c69e55eb065b349f52e18126d699b1906ba03f.it-it.xlf" r:id="rId294"/>
     <hyperlink ref="A97" display="dsc_runas.md" r:id="rId295"/>
     <hyperlink ref="B97" display=".md" r:id="rId296"/>
-    <hyperlink ref="D97" display="dsc_runas.9e19a42a6d5e1ea1772358a6fd8ff24b98a5b6ba.ja-jp.xlf" r:id="rId297"/>
+    <hyperlink ref="D97" display="dsc_runas.9e19a42a6d5e1ea1772358a6fd8ff24b98a5b6ba.it-it.xlf" r:id="rId297"/>
     <hyperlink ref="A98" display="dsc_setdsclcm.md" r:id="rId298"/>
     <hyperlink ref="B98" display=".md" r:id="rId299"/>
-    <hyperlink ref="D98" display="dsc_setdsclcm.1f0e3cab81cf5fc1feda678f202451fe150632e3.ja-jp.xlf" r:id="rId300"/>
+    <hyperlink ref="D98" display="dsc_setdsclcm.1f0e3cab81cf5fc1feda678f202451fe150632e3.it-it.xlf" r:id="rId300"/>
     <hyperlink ref="A99" display="dsc_statestatus.md" r:id="rId301"/>
     <hyperlink ref="B99" display=".md" r:id="rId302"/>
-    <hyperlink ref="D99" display="dsc_statestatus.b6f3670f776a8f63a705ba16bed2f20be34fc48f.ja-jp.xlf" r:id="rId303"/>
+    <hyperlink ref="D99" display="dsc_statestatus.b6f3670f776a8f63a705ba16bed2f20be34fc48f.it-it.xlf" r:id="rId303"/>
     <hyperlink ref="A100" display="dsc_sxsresource.md" r:id="rId304"/>
     <hyperlink ref="B100" display=".md" r:id="rId305"/>
-    <hyperlink ref="D100" display="dsc_sxsresource.c9d4ce6109370ac1cbc1fb07f191e02f9a61d5d3.ja-jp.xlf" r:id="rId306"/>
+    <hyperlink ref="D100" display="dsc_sxsresource.c9d4ce6109370ac1cbc1fb07f191e02f9a61d5d3.it-it.xlf" r:id="rId306"/>
     <hyperlink ref="A101" display="dsc_testconfiguration.md" r:id="rId307"/>
     <hyperlink ref="B101" display=".md" r:id="rId308"/>
-    <hyperlink ref="D101" display="dsc_testconfiguration.b0e5afe2c8f173ebe49c97c9ea9a2f11d81ea5fa.ja-jp.xlf" r:id="rId309"/>
+    <hyperlink ref="D101" display="dsc_testconfiguration.b0e5afe2c8f173ebe49c97c9ea9a2f11d81ea5fa.it-it.xlf" r:id="rId309"/>
     <hyperlink ref="A102" display="dsc_updateconfig.md" r:id="rId310"/>
     <hyperlink ref="B102" display=".md" r:id="rId311"/>
-    <hyperlink ref="D102" display="dsc_updateconfig.a07eb85e3458d42d7ab1ed5c57dcfc70df709d07.ja-jp.xlf" r:id="rId312"/>
+    <hyperlink ref="D102" display="dsc_updateconfig.a07eb85e3458d42d7ab1ed5c57dcfc70df709d07.it-it.xlf" r:id="rId312"/>
     <hyperlink ref="A103" display="dsc_waitfor.md" r:id="rId313"/>
     <hyperlink ref="B103" display=".md" r:id="rId314"/>
-    <hyperlink ref="D103" display="dsc_waitfor.2b09933f08f1020166ce0f0cd7548a5a3845c48f.ja-jp.xlf" r:id="rId315"/>
+    <hyperlink ref="D103" display="dsc_waitfor.2b09933f08f1020166ce0f0cd7548a5a3845c48f.it-it.xlf" r:id="rId315"/>
     <hyperlink ref="A104" display="dsc_wow64.md" r:id="rId316"/>
     <hyperlink ref="B104" display=".md" r:id="rId317"/>
-    <hyperlink ref="D104" display="dsc_wow64.ea039aaa1bd77415311fc30d80fed43cda07a6e3.ja-jp.xlf" r:id="rId318"/>
+    <hyperlink ref="D104" display="dsc_wow64.ea039aaa1bd77415311fc30d80fed43cda07a6e3.it-it.xlf" r:id="rId318"/>
     <hyperlink ref="A105" display="feedback.md" r:id="rId319"/>
     <hyperlink ref="B105" display=".md" r:id="rId320"/>
-    <hyperlink ref="D105" display="feedback.3662230166299ef7c1fb7a7a7f5cdbd64b1d812a.ja-jp.xlf" r:id="rId321"/>
+    <hyperlink ref="D105" display="feedback.3662230166299ef7c1fb7a7a7f5cdbd64b1d812a.it-it.xlf" r:id="rId321"/>
     <hyperlink ref="A106" display="feedback_archive.md" r:id="rId322"/>
     <hyperlink ref="B106" display=".md" r:id="rId323"/>
-    <hyperlink ref="D106" display="feedback_archive.20de26911a704368058401c7e2bd6ebaac692ff5.ja-jp.xlf" r:id="rId324"/>
+    <hyperlink ref="D106" display="feedback_archive.20de26911a704368058401c7e2bd6ebaac692ff5.it-it.xlf" r:id="rId324"/>
     <hyperlink ref="A107" display="feedback_clipboard.md" r:id="rId325"/>
     <hyperlink ref="B107" display=".md" r:id="rId326"/>
-    <hyperlink ref="D107" display="feedback_clipboard.872e5c147ef02cb86067651f41e3c00b55386664.ja-jp.xlf" r:id="rId327"/>
+    <hyperlink ref="D107" display="feedback_clipboard.872e5c147ef02cb86067651f41e3c00b55386664.it-it.xlf" r:id="rId327"/>
     <hyperlink ref="A108" display="feedback_cmdlets.md" r:id="rId328"/>
     <hyperlink ref="B108" display=".md" r:id="rId329"/>
-    <hyperlink ref="D108" display="feedback_cmdlets.a4c0dfb806ca0da232eeb75ad3706177b8a5ec48.ja-jp.xlf" r:id="rId330"/>
+    <hyperlink ref="D108" display="feedback_cmdlets.a4c0dfb806ca0da232eeb75ad3706177b8a5ec48.it-it.xlf" r:id="rId330"/>
     <hyperlink ref="A109" display="feedback_convertfromString.md" r:id="rId331"/>
     <hyperlink ref="B109" display=".md" r:id="rId332"/>
-    <hyperlink ref="D109" display="feedback_convertfromString.acdeaa33e8fa59b93649b6abf3a7d5ef64fb7664.ja-jp.xlf" r:id="rId333"/>
+    <hyperlink ref="D109" display="feedback_convertfromString.acdeaa33e8fa59b93649b6abf3a7d5ef64fb7664.it-it.xlf" r:id="rId333"/>
     <hyperlink ref="A110" display="feedback_convertstring.md" r:id="rId334"/>
     <hyperlink ref="B110" display=".md" r:id="rId335"/>
-    <hyperlink ref="D110" display="feedback_convertstring.42e964e30093962871c3a4d586ed6c54f25f840d.ja-jp.xlf" r:id="rId336"/>
+    <hyperlink ref="D110" display="feedback_convertstring.42e964e30093962871c3a4d586ed6c54f25f840d.it-it.xlf" r:id="rId336"/>
     <hyperlink ref="A111" display="feedback_fileinfo.md" r:id="rId337"/>
     <hyperlink ref="B111" display=".md" r:id="rId338"/>
-    <hyperlink ref="D111" display="feedback_fileinfo.0192edad2d6504d26a9632f95fc9e5b66ffd8003.ja-jp.xlf" r:id="rId339"/>
+    <hyperlink ref="D111" display="feedback_fileinfo.0192edad2d6504d26a9632f95fc9e5b66ffd8003.it-it.xlf" r:id="rId339"/>
     <hyperlink ref="A112" display="feedback_formathex.md" r:id="rId340"/>
     <hyperlink ref="B112" display=".md" r:id="rId341"/>
-    <hyperlink ref="D112" display="feedback_formathex.f97931c887efb620e5f4314facc1f0e20e3dffbe.ja-jp.xlf" r:id="rId342"/>
+    <hyperlink ref="D112" display="feedback_formathex.f97931c887efb620e5f4314facc1f0e20e3dffbe.it-it.xlf" r:id="rId342"/>
     <hyperlink ref="A113" display="feedback_getchilditem.md" r:id="rId343"/>
     <hyperlink ref="B113" display=".md" r:id="rId344"/>
-    <hyperlink ref="D113" display="feedback_getchilditem.ce02ca20cc4417a80fe65eb509a8e92f2cecc79c.ja-jp.xlf" r:id="rId345"/>
+    <hyperlink ref="D113" display="feedback_getchilditem.ce02ca20cc4417a80fe65eb509a8e92f2cecc79c.it-it.xlf" r:id="rId345"/>
     <hyperlink ref="A114" display="feedback_moduleversionranges.md" r:id="rId346"/>
     <hyperlink ref="B114" display=".md" r:id="rId347"/>
-    <hyperlink ref="D114" display="feedback_moduleversionranges.611b3a3219d64dbfa1d01541b60a727b880a0c4b.ja-jp.xlf" r:id="rId348"/>
+    <hyperlink ref="D114" display="feedback_moduleversionranges.611b3a3219d64dbfa1d01541b60a727b880a0c4b.it-it.xlf" r:id="rId348"/>
     <hyperlink ref="A115" display="feedback_newguid.md" r:id="rId349"/>
     <hyperlink ref="B115" display=".md" r:id="rId350"/>
-    <hyperlink ref="D115" display="feedback_newguid.f8756fbdb96e6fe06a7e0cbb6ac4af32b1c64983.ja-jp.xlf" r:id="rId351"/>
+    <hyperlink ref="D115" display="feedback_newguid.f8756fbdb96e6fe06a7e0cbb6ac4af32b1c64983.it-it.xlf" r:id="rId351"/>
     <hyperlink ref="A116" display="feedback_nonewline.md" r:id="rId352"/>
     <hyperlink ref="B116" display=".md" r:id="rId353"/>
-    <hyperlink ref="D116" display="feedback_nonewline.7a9b7e24c50399879089bba2b8eee7dc325572e2.ja-jp.xlf" r:id="rId354"/>
+    <hyperlink ref="D116" display="feedback_nonewline.7a9b7e24c50399879089bba2b8eee7dc325572e2.it-it.xlf" r:id="rId354"/>
     <hyperlink ref="A117" display="feedback_symbolic.md" r:id="rId355"/>
     <hyperlink ref="B117" display=".md" r:id="rId356"/>
-    <hyperlink ref="D117" display="feedback_symbolic.1c3ac8128fb9df60512ec024044d48be7d0cb59f.ja-jp.xlf" r:id="rId357"/>
+    <hyperlink ref="D117" display="feedback_symbolic.1c3ac8128fb9df60512ec024044d48be7d0cb59f.it-it.xlf" r:id="rId357"/>
     <hyperlink ref="A118" display="feedback_tempfile.md" r:id="rId358"/>
     <hyperlink ref="B118" display=".md" r:id="rId359"/>
-    <hyperlink ref="D118" display="feedback_tempfile.fc029065af6bbba3a8c4abbf36023bede7d1416d.ja-jp.xlf" r:id="rId360"/>
+    <hyperlink ref="D118" display="feedback_tempfile.fc029065af6bbba3a8c4abbf36023bede7d1416d.it-it.xlf" r:id="rId360"/>
     <hyperlink ref="A119" display="DscResourceDebugging.jpg" r:id="rId361"/>
     <hyperlink ref="B119" display=".jpg" r:id="rId362"/>
     <hyperlink ref="D119" display="ba1897f38317f5fe38f2d8caf0efcc57bc8bb19d.jpg" r:id="rId363"/>
@@ -6658,76 +6655,76 @@
     <hyperlink ref="D121" display="9a44a53029d37d4165bbffbdcaa79d9be76e5fac.jpg" r:id="rId369"/>
     <hyperlink ref="A122" display="informationstream_overview.md" r:id="rId370"/>
     <hyperlink ref="B122" display=".md" r:id="rId371"/>
-    <hyperlink ref="D122" display="informationstream_overview.d2f238b2b4021ccdb7271cf89f53d58970d56cf5.ja-jp.xlf" r:id="rId372"/>
+    <hyperlink ref="D122" display="informationstream_overview.d2f238b2b4021ccdb7271cf89f53d58970d56cf5.it-it.xlf" r:id="rId372"/>
     <hyperlink ref="A123" display="install.md" r:id="rId373"/>
     <hyperlink ref="B123" display=".md" r:id="rId374"/>
-    <hyperlink ref="D123" display="install.317fc924c0f766547c4725878af59c3c9d8facba.ja-jp.xlf" r:id="rId375"/>
+    <hyperlink ref="D123" display="install.317fc924c0f766547c4725878af59c3c9d8facba.it-it.xlf" r:id="rId375"/>
     <hyperlink ref="A124" display="jea_endpoint.md" r:id="rId376"/>
     <hyperlink ref="B124" display=".md" r:id="rId377"/>
-    <hyperlink ref="D124" display="jea_endpoint.1dc052fe583a907a6c090cf8bfd42293d94d2975.ja-jp.xlf" r:id="rId378"/>
+    <hyperlink ref="D124" display="jea_endpoint.1dc052fe583a907a6c090cf8bfd42293d94d2975.it-it.xlf" r:id="rId378"/>
     <hyperlink ref="A125" display="jea_overview.md" r:id="rId379"/>
     <hyperlink ref="B125" display=".md" r:id="rId380"/>
-    <hyperlink ref="D125" display="jea_overview.3fa3008e719be8235adffe51808ac66714940871.ja-jp.xlf" r:id="rId381"/>
+    <hyperlink ref="D125" display="jea_overview.3fa3008e719be8235adffe51808ac66714940871.it-it.xlf" r:id="rId381"/>
     <hyperlink ref="A126" display="jea_report.md" r:id="rId382"/>
     <hyperlink ref="B126" display=".md" r:id="rId383"/>
-    <hyperlink ref="D126" display="jea_report.7860cec6e93b7405844ccbbe5bc879921447ac0b.ja-jp.xlf" r:id="rId384"/>
+    <hyperlink ref="D126" display="jea_report.7860cec6e93b7405844ccbbe5bc879921447ac0b.it-it.xlf" r:id="rId384"/>
     <hyperlink ref="A127" display="limitation_dsc.md" r:id="rId385"/>
     <hyperlink ref="B127" display=".md" r:id="rId386"/>
-    <hyperlink ref="D127" display="limitation_dsc.3684c81bb088cba98089dffdb1a1e56e1c098335.ja-jp.xlf" r:id="rId387"/>
+    <hyperlink ref="D127" display="limitation_dsc.3684c81bb088cba98089dffdb1a1e56e1c098335.it-it.xlf" r:id="rId387"/>
     <hyperlink ref="A128" display="limitation_overview.md" r:id="rId388"/>
     <hyperlink ref="B128" display=".md" r:id="rId389"/>
-    <hyperlink ref="D128" display="limitation_overview.6cc9c8c028f5912636637d836aed7db0614de522.ja-jp.xlf" r:id="rId390"/>
+    <hyperlink ref="D128" display="limitation_overview.6cc9c8c028f5912636637d836aed7db0614de522.it-it.xlf" r:id="rId390"/>
     <hyperlink ref="A129" display="networkswitch_overview.md" r:id="rId391"/>
     <hyperlink ref="B129" display=".md" r:id="rId392"/>
-    <hyperlink ref="D129" display="networkswitch_overview.7a87eb0741cd43b8b9284ea6cb605920c4961b79.ja-jp.xlf" r:id="rId393"/>
+    <hyperlink ref="D129" display="networkswitch_overview.7a87eb0741cd43b8b9284ea6cb605920c4961b79.it-it.xlf" r:id="rId393"/>
     <hyperlink ref="A130" display="odata_overview.md" r:id="rId394"/>
     <hyperlink ref="B130" display=".md" r:id="rId395"/>
-    <hyperlink ref="D130" display="odata_overview.c3f7efdde29fe7ac5685a61cd61d75b65524a4c3.ja-jp.xlf" r:id="rId396"/>
+    <hyperlink ref="D130" display="odata_overview.c3f7efdde29fe7ac5685a61cd61d75b65524a4c3.it-it.xlf" r:id="rId396"/>
     <hyperlink ref="A131" display="oneget_cmdlets.md" r:id="rId397"/>
     <hyperlink ref="B131" display=".md" r:id="rId398"/>
-    <hyperlink ref="D131" display="oneget_cmdlets.469b2350a72495ac2cf62e4130b4df8036f5d135.ja-jp.xlf" r:id="rId399"/>
+    <hyperlink ref="D131" display="oneget_cmdlets.469b2350a72495ac2cf62e4130b4df8036f5d135.it-it.xlf" r:id="rId399"/>
     <hyperlink ref="A132" display="oneget_overview.md" r:id="rId400"/>
     <hyperlink ref="B132" display=".md" r:id="rId401"/>
-    <hyperlink ref="D132" display="oneget_overview.e71a25f36f957ab7471d259c6e716651f6f23c94.ja-jp.xlf" r:id="rId402"/>
+    <hyperlink ref="D132" display="oneget_overview.e71a25f36f957ab7471d259c6e716651f6f23c94.it-it.xlf" r:id="rId402"/>
     <hyperlink ref="A133" display="productincompat.md" r:id="rId403"/>
     <hyperlink ref="B133" display=".md" r:id="rId404"/>
-    <hyperlink ref="D133" display="productincompat.62bb00299c0283b5297001553476a745e28a49cb.ja-jp.xlf" r:id="rId405"/>
+    <hyperlink ref="D133" display="productincompat.62bb00299c0283b5297001553476a745e28a49cb.it-it.xlf" r:id="rId405"/>
     <hyperlink ref="A134" display="psget_module_overview.md" r:id="rId406"/>
     <hyperlink ref="B134" display=".md" r:id="rId407"/>
-    <hyperlink ref="D134" display="psget_module_overview.4149c468ffd0f17a2fabd03f90059c12effc3170.ja-jp.xlf" r:id="rId408"/>
+    <hyperlink ref="D134" display="psget_module_overview.4149c468ffd0f17a2fabd03f90059c12effc3170.it-it.xlf" r:id="rId408"/>
     <hyperlink ref="A135" display="psget_modulecmdlets.md" r:id="rId409"/>
     <hyperlink ref="B135" display=".md" r:id="rId410"/>
-    <hyperlink ref="D135" display="psget_modulecmdlets.1f808cfdf9a9aa920f88e15f7f5fa4701fe805e3.ja-jp.xlf" r:id="rId411"/>
+    <hyperlink ref="D135" display="psget_modulecmdlets.1f808cfdf9a9aa920f88e15f7f5fa4701fe805e3.it-it.xlf" r:id="rId411"/>
     <hyperlink ref="A136" display="psget_moduledependency.md" r:id="rId412"/>
     <hyperlink ref="B136" display=".md" r:id="rId413"/>
-    <hyperlink ref="D136" display="psget_moduledependency.89ba9310335ae64db5481a3c02034ac4fe01b6a2.ja-jp.xlf" r:id="rId414"/>
+    <hyperlink ref="D136" display="psget_moduledependency.89ba9310335ae64db5481a3c02034ac4fe01b6a2.it-it.xlf" r:id="rId414"/>
     <hyperlink ref="A137" display="psget_modulesxsinstall.md" r:id="rId415"/>
     <hyperlink ref="B137" display=".md" r:id="rId416"/>
-    <hyperlink ref="D137" display="psget_modulesxsinstall.110ba80d8f917899ef488b46bd15f5654f6ba06c.ja-jp.xlf" r:id="rId417"/>
+    <hyperlink ref="D137" display="psget_modulesxsinstall.110ba80d8f917899ef488b46bd15f5654f6ba06c.it-it.xlf" r:id="rId417"/>
     <hyperlink ref="A138" display="psget_psrepository.md" r:id="rId418"/>
     <hyperlink ref="B138" display=".md" r:id="rId419"/>
-    <hyperlink ref="D138" display="psget_psrepository.c4381b2ff7bb6496ab74ed8bb2b07325cfbfc056.ja-jp.xlf" r:id="rId420"/>
+    <hyperlink ref="D138" display="psget_psrepository.c4381b2ff7bb6496ab74ed8bb2b07325cfbfc056.it-it.xlf" r:id="rId420"/>
     <hyperlink ref="A139" display="psget_script_overview.md" r:id="rId421"/>
     <hyperlink ref="B139" display=".md" r:id="rId422"/>
-    <hyperlink ref="D139" display="psget_script_overview.f035cc99497d17dc73e3a61f214e40a5860fc70a.ja-jp.xlf" r:id="rId423"/>
+    <hyperlink ref="D139" display="psget_script_overview.f035cc99497d17dc73e3a61f214e40a5860fc70a.it-it.xlf" r:id="rId423"/>
     <hyperlink ref="A140" display="psget_scriptcmdlets.md" r:id="rId424"/>
     <hyperlink ref="B140" display=".md" r:id="rId425"/>
-    <hyperlink ref="D140" display="psget_scriptcmdlets.1762d5f29292d59c1afb37cb29eb11a34cf63990.ja-jp.xlf" r:id="rId426"/>
+    <hyperlink ref="D140" display="psget_scriptcmdlets.1762d5f29292d59c1afb37cb29eb11a34cf63990.it-it.xlf" r:id="rId426"/>
     <hyperlink ref="A141" display="releasenotes.md" r:id="rId427"/>
     <hyperlink ref="B141" display=".md" r:id="rId428"/>
-    <hyperlink ref="D141" display="releasenotes.311750b4da54b1d4ef7997b328edd6ff177fb71f.ja-jp.xlf" r:id="rId429"/>
+    <hyperlink ref="D141" display="releasenotes.311750b4da54b1d4ef7997b328edd6ff177fb71f.it-it.xlf" r:id="rId429"/>
     <hyperlink ref="A142" display="requirements.md" r:id="rId430"/>
     <hyperlink ref="B142" display=".md" r:id="rId431"/>
-    <hyperlink ref="D142" display="requirements.ef8332f358d65b1759bfd4c7336b11d1dc8c2d46.ja-jp.xlf" r:id="rId432"/>
+    <hyperlink ref="D142" display="requirements.ef8332f358d65b1759bfd4c7336b11d1dc8c2d46.it-it.xlf" r:id="rId432"/>
     <hyperlink ref="A143" display="sil_overview.md" r:id="rId433"/>
     <hyperlink ref="B143" display=".md" r:id="rId434"/>
-    <hyperlink ref="D143" display="sil_overview.a2b1f7c716aad317993a5eaffba21fa28ce0c0d8.ja-jp.xlf" r:id="rId435"/>
+    <hyperlink ref="D143" display="sil_overview.a2b1f7c716aad317993a5eaffba21fa28ce0c0d8.it-it.xlf" r:id="rId435"/>
     <hyperlink ref="A144" display="TOC.md" r:id="rId436"/>
     <hyperlink ref="B144" display=".md" r:id="rId437"/>
-    <hyperlink ref="D144" display="TOC.60497266061c38453b3db893ec675eb65584af89.ja-jp.xlf" r:id="rId438"/>
+    <hyperlink ref="D144" display="TOC.60497266061c38453b3db893ec675eb65584af89.it-it.xlf" r:id="rId438"/>
     <hyperlink ref="A145" display="uninstall.md" r:id="rId439"/>
     <hyperlink ref="B145" display=".md" r:id="rId440"/>
-    <hyperlink ref="D145" display="uninstall.b07adaaaf7f41869dfa201b88e29342aced76c96.ja-jp.xlf" r:id="rId441"/>
+    <hyperlink ref="D145" display="uninstall.b07adaaaf7f41869dfa201b88e29342aced76c96.it-it.xlf" r:id="rId441"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/PowerShell/powerShell-Docs/live/localization-status.xlsx
+++ b/ol-handback/PowerShell/powerShell-Docs/live/localization-status.xlsx
@@ -6,19 +6,19 @@
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId2"/>
-    <sheet name="it-it" sheetId="2" r:id="rId3"/>
+    <sheet name="de-de" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="337">
   <si>
     <t>File Name</t>
   </si>
   <si>
-    <t>it-it</t>
+    <t>de-de</t>
   </si>
   <si>
     <t>Latest Handoff Date</t>
@@ -30,7 +30,7 @@
     <t>Handed back: in sync with en-US</t>
   </si>
   <si>
-    <t>2016-04-11 01:04:01</t>
+    <t>2016-02-11 01:02:28</t>
   </si>
   <si>
     <t>PartialConfigPullServer.jpg</t>
@@ -42,22 +42,25 @@
     <t>Push.png</t>
   </si>
   <si>
+    <t>authoringResource.md</t>
+  </si>
+  <si>
+    <t>In Translation</t>
+  </si>
+  <si>
+    <t>2016-01-23 03:01:20</t>
+  </si>
+  <si>
     <t>archiveResource.md</t>
   </si>
   <si>
     <t>Ready for handoff</t>
   </si>
   <si>
-    <t>2016-03-23 03:03:15</t>
-  </si>
-  <si>
-    <t>authoringResource.md</t>
-  </si>
-  <si>
     <t>authoringResourceClass.md</t>
   </si>
   <si>
-    <t>2016-44-02 17:44:06</t>
+    <t>2016-52-02 17:52:44</t>
   </si>
   <si>
     <t>authoringResourceComposite.md</t>
@@ -87,13 +90,13 @@
     <t>debugResource.md</t>
   </si>
   <si>
-    <t>2016-43-10 21:43:44</t>
+    <t>2016-42-10 21:42:08</t>
   </si>
   <si>
     <t>decisionMaker.md</t>
   </si>
   <si>
-    <t>2016-32-07 19:32:43</t>
+    <t>2016-31-07 19:31:26</t>
   </si>
   <si>
     <t>enactingConfigurations.md</t>
@@ -132,7 +135,7 @@
     <t>lnxGettingStarted.md</t>
   </si>
   <si>
-    <t>2016-33-10 20:33:47</t>
+    <t>2016-32-10 20:32:18</t>
   </si>
   <si>
     <t>lnxGroupResource.md</t>
@@ -180,7 +183,7 @@
     <t>pullClientConfigID4.md</t>
   </si>
   <si>
-    <t>2016-03-09 20:03:18</t>
+    <t>2016-01-09 20:01:41</t>
   </si>
   <si>
     <t>pullClientConfigNames.md</t>
@@ -189,7 +192,7 @@
     <t>pullServer.md</t>
   </si>
   <si>
-    <t>2016-52-16 22:52:16</t>
+    <t>2016-51-16 22:51:51</t>
   </si>
   <si>
     <t>pullServerSMB.md</t>
@@ -231,7 +234,7 @@
     <t>troubleshooting.md</t>
   </si>
   <si>
-    <t>2016-12-04 21:12:32</t>
+    <t>2016-11-04 21:11:35</t>
   </si>
   <si>
     <t>userResource.md</t>
@@ -246,7 +249,7 @@
     <t>audit_cms.md</t>
   </si>
   <si>
-    <t>2016-15-08 01:15:01</t>
+    <t>2016-12-08 01:12:00</t>
   </si>
   <si>
     <t>audit_overview.md</t>
@@ -528,10 +531,10 @@
     <t>3e61149f7b05f74d662d3038233013ffdcbed1a3.jpg</t>
   </si>
   <si>
-    <t>2016-03-11 01:04:01</t>
-  </si>
-  <si>
-    <t>2016-03-17 01:40:10</t>
+    <t>2016-03-11 01:02:28</t>
+  </si>
+  <si>
+    <t>2016-03-17 02:07:40</t>
   </si>
   <si>
     <t>IsDependency</t>
@@ -558,10 +561,10 @@
     <t>.md</t>
   </si>
   <si>
-    <t>archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.it-it.xlf</t>
-  </si>
-  <si>
-    <t>2016-02-23 03:03:15</t>
+    <t>authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-02-23 03:01:20</t>
   </si>
   <si>
     <t>0001-01-01 00:00:00</t>
@@ -570,64 +573,64 @@
     <t>Include</t>
   </si>
   <si>
-    <t>authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.it-it.xlf</t>
-  </si>
-  <si>
-    <t>authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.it-it.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-02 17:44:06</t>
-  </si>
-  <si>
-    <t>authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.it-it.xlf</t>
-  </si>
-  <si>
-    <t>authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.it-it.xlf</t>
-  </si>
-  <si>
-    <t>authoringResourceMofCS.0647b27b00ec52b2f524a2856e48bc7c29c0f867.it-it.xlf</t>
-  </si>
-  <si>
-    <t>authoringResourceMofDesigner.09b1adffc4afb0d9b1154880e2dab0b25d82d51b.it-it.xlf</t>
-  </si>
-  <si>
-    <t>builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.it-it.xlf</t>
-  </si>
-  <si>
-    <t>configData.51d01a46dd9af8b425788cc485523b09f8470b95.it-it.xlf</t>
-  </si>
-  <si>
-    <t>configDataCredentials.f3e75119e7d93b2f914823c5ea23bfde3935a874.it-it.xlf</t>
-  </si>
-  <si>
-    <t>configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.it-it.xlf</t>
-  </si>
-  <si>
-    <t>debugResource.ac634156affe5c723cc149a298f5aa4268d17016.it-it.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-10 21:43:44</t>
-  </si>
-  <si>
-    <t>decisionMaker.01553169f2ba4241995260fad925e2784b5f5567.it-it.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-07 19:32:43</t>
-  </si>
-  <si>
-    <t>enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.it-it.xlf</t>
-  </si>
-  <si>
-    <t>environmentResource.eb91ffd4cd8bdb9476e5a83de1a20d3b7b502a56.it-it.xlf</t>
-  </si>
-  <si>
-    <t>fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.it-it.xlf</t>
-  </si>
-  <si>
-    <t>gettingStarted.92e02d8bd273df5c304475a9b4fa251c22a7ea19.it-it.xlf</t>
-  </si>
-  <si>
-    <t>groupResource.d19d416269795c92566b62c36b9782062dcea43e.it-it.xlf</t>
+    <t>archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.de-de.xlf</t>
+  </si>
+  <si>
+    <t>authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-02 17:52:44</t>
+  </si>
+  <si>
+    <t>authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.de-de.xlf</t>
+  </si>
+  <si>
+    <t>authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.de-de.xlf</t>
+  </si>
+  <si>
+    <t>authoringResourceMofCS.0647b27b00ec52b2f524a2856e48bc7c29c0f867.de-de.xlf</t>
+  </si>
+  <si>
+    <t>authoringResourceMofDesigner.09b1adffc4afb0d9b1154880e2dab0b25d82d51b.de-de.xlf</t>
+  </si>
+  <si>
+    <t>builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.de-de.xlf</t>
+  </si>
+  <si>
+    <t>configData.51d01a46dd9af8b425788cc485523b09f8470b95.de-de.xlf</t>
+  </si>
+  <si>
+    <t>configDataCredentials.f3e75119e7d93b2f914823c5ea23bfde3935a874.de-de.xlf</t>
+  </si>
+  <si>
+    <t>configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.de-de.xlf</t>
+  </si>
+  <si>
+    <t>debugResource.ac634156affe5c723cc149a298f5aa4268d17016.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-10 21:42:08</t>
+  </si>
+  <si>
+    <t>decisionMaker.01553169f2ba4241995260fad925e2784b5f5567.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-07 19:31:26</t>
+  </si>
+  <si>
+    <t>enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.de-de.xlf</t>
+  </si>
+  <si>
+    <t>environmentResource.eb91ffd4cd8bdb9476e5a83de1a20d3b7b502a56.de-de.xlf</t>
+  </si>
+  <si>
+    <t>fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.de-de.xlf</t>
+  </si>
+  <si>
+    <t>gettingStarted.92e02d8bd273df5c304475a9b4fa251c22a7ea19.de-de.xlf</t>
+  </si>
+  <si>
+    <t>groupResource.d19d416269795c92566b62c36b9782062dcea43e.de-de.xlf</t>
   </si>
   <si>
     <t>d9f53a805041164f5070845c0fd216b63d17ae58.png</t>
@@ -636,298 +639,301 @@
     <t>dsc\secureMOF.md</t>
   </si>
   <si>
-    <t>lnxArchiveResource.095aab7d23720fd394f2573c30223a6bbcc0a4ef.it-it.xlf</t>
-  </si>
-  <si>
-    <t>lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.it-it.xlf</t>
-  </si>
-  <si>
-    <t>lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.it-it.xlf</t>
-  </si>
-  <si>
-    <t>lnxFileLineResource.d91fc802a4c6cdbff5a2e35f92b34c36c6dbf5eb.it-it.xlf</t>
-  </si>
-  <si>
-    <t>lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.it-it.xlf</t>
-  </si>
-  <si>
-    <t>lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.it-it.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-10 20:33:47</t>
-  </si>
-  <si>
-    <t>lnxGroupResource.0cedb684d797032bd47cdb852629c36da0884567.it-it.xlf</t>
-  </si>
-  <si>
-    <t>lnxPackageResource.db35ab938bbfbb38cae53fe9ae98fd22b5f18009.it-it.xlf</t>
-  </si>
-  <si>
-    <t>lnxScriptResource.1344a5d5b807ee53705e93842d9ef5e25a883359.it-it.xlf</t>
-  </si>
-  <si>
-    <t>lnxServiceResource.e637c7f7b18939ec8c16eadf2c42ab00e236fb7b.it-it.xlf</t>
-  </si>
-  <si>
-    <t>lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.it-it.xlf</t>
-  </si>
-  <si>
-    <t>lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.it-it.xlf</t>
-  </si>
-  <si>
-    <t>logResource.07af9dfcf6076ef19059178c3b404762677920f0.it-it.xlf</t>
-  </si>
-  <si>
-    <t>metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.it-it.xlf</t>
-  </si>
-  <si>
-    <t>metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.it-it.xlf</t>
-  </si>
-  <si>
-    <t>overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.it-it.xlf</t>
-  </si>
-  <si>
-    <t>packageResource.132c4949cee174dc0dc324456d220436cb9884e6.it-it.xlf</t>
-  </si>
-  <si>
-    <t>partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.it-it.xlf</t>
-  </si>
-  <si>
-    <t>pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.it-it.xlf</t>
-  </si>
-  <si>
-    <t>pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.it-it.xlf</t>
-  </si>
-  <si>
-    <t>pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.it-it.xlf</t>
-  </si>
-  <si>
-    <t>pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.it-it.xlf</t>
-  </si>
-  <si>
-    <t>pullServer.4b925b277da29998394af746bdbdd508fda48909.it-it.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-16 22:52:16</t>
-  </si>
-  <si>
-    <t>pullServerSMB.772aec5ae27ccb19ced78e3eb665a4e16db1c4df.it-it.xlf</t>
-  </si>
-  <si>
-    <t>queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.it-it.xlf</t>
-  </si>
-  <si>
-    <t>registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.it-it.xlf</t>
-  </si>
-  <si>
-    <t>reportServer.53df4bc8b7b80c0a19c11434bdf5f4304e8248f7.it-it.xlf</t>
-  </si>
-  <si>
-    <t>resourceAuthoringChecklist.3b9ae254d826cc45519d37d06044f28a69bdfa69.it-it.xlf</t>
-  </si>
-  <si>
-    <t>resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.it-it.xlf</t>
-  </si>
-  <si>
-    <t>runAsUser.d2b90b6bc42ef965e454f9c9f5fd19bc7b488b34.it-it.xlf</t>
-  </si>
-  <si>
-    <t>scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.it-it.xlf</t>
-  </si>
-  <si>
-    <t>secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.it-it.xlf</t>
-  </si>
-  <si>
-    <t>secureServer.ce207607010d18109152742ba23c923cd3cddba2.it-it.xlf</t>
-  </si>
-  <si>
-    <t>serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.it-it.xlf</t>
-  </si>
-  <si>
-    <t>TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.it-it.xlf</t>
-  </si>
-  <si>
-    <t>troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.it-it.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-04 21:12:32</t>
-  </si>
-  <si>
-    <t>userResource.5de4fbe03e9e06934442ba451eb0564931863f45.it-it.xlf</t>
-  </si>
-  <si>
-    <t>windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.it-it.xlf</t>
-  </si>
-  <si>
-    <t>windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.it-it.xlf</t>
-  </si>
-  <si>
-    <t>audit_cms.3e422ca243ac938b46bfcf1497a703e55bde970e.it-it.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-08 01:15:01</t>
-  </si>
-  <si>
-    <t>audit_overview.fc5b51e2734a2af986c9edf42b4395b1aad2435d.it-it.xlf</t>
-  </si>
-  <si>
-    <t>audit_script.e89f3a9316d1125e1efd23b41b756a3a6161016b.it-it.xlf</t>
-  </si>
-  <si>
-    <t>audit_transcript.c21a6554932939cbf4c744bf7c9f07cc4e1e7160.it-it.xlf</t>
-  </si>
-  <si>
-    <t>class_base.29a9fbe4987503d5575c151f4271f58398cb7e55.it-it.xlf</t>
-  </si>
-  <si>
-    <t>class_baseconstructor.82f951e800b06ccc68090b1be9923c8210a233ac.it-it.xlf</t>
-  </si>
-  <si>
-    <t>class_basemethod.6b60292188d0081f30fbaf4b111db8a439348f5b.it-it.xlf</t>
-  </si>
-  <si>
-    <t>class_interface.84a08fd30808364a820bdd4440de18ec4504a6c7.it-it.xlf</t>
-  </si>
-  <si>
-    <t>class_newtype.a9f52b670970046f8b1147d4ba646b73abb430dc.it-it.xlf</t>
-  </si>
-  <si>
-    <t>class_overview.91227b885afcb8df385ab601ab970b924eca2533.it-it.xlf</t>
-  </si>
-  <si>
-    <t>debug_overview.70b71c20b8b625704c25da28a58e804a048bafb0.it-it.xlf</t>
-  </si>
-  <si>
-    <t>dsc_authoring.364878cde8f156d8999773842812e0c08f70191c.it-it.xlf</t>
-  </si>
-  <si>
-    <t>dsc_classbasedresource.a3d6b22652db939b51db1218584247396454ae0f.it-it.xlf</t>
-  </si>
-  <si>
-    <t>dsc_confighelp.bcfa7e85acae98499089edc9fba25b68953d7bbf.it-it.xlf</t>
-  </si>
-  <si>
-    <t>dsc_directaccess.014c91015162b26b678e0a5fdfd453a3bf6e41b0.it-it.xlf</t>
-  </si>
-  <si>
-    <t>dsc_encryptedmof.a35c44de669ea81f25dd29f152f03493e52e327b.it-it.xlf</t>
-  </si>
-  <si>
-    <t>dsc_freqnomultiple.2848e52c73280aca59e73136bac0c2c7ae02aad6.it-it.xlf</t>
-  </si>
-  <si>
-    <t>dsc_getconfigurationstatus.1705e4bcaa9dfd9d69f00aecdc7ef0d04bf44899.it-it.xlf</t>
-  </si>
-  <si>
-    <t>dsc_identicalduplicate.eb7167ccd4a72d68aa1683327e9b3877927158ab.it-it.xlf</t>
-  </si>
-  <si>
-    <t>dsc_importdscresource.a0169ad862dfcaa5c958c07ecd52c856d5dc8436.it-it.xlf</t>
-  </si>
-  <si>
-    <t>dsc_improvements.d9ed6ffedf9d9650bb6b26b5ed611e420a0aacbb.it-it.xlf</t>
-  </si>
-  <si>
-    <t>dsc_lcmstate.21ea1c36f37c94e8e0363199fbd07bcced3aea40.it-it.xlf</t>
-  </si>
-  <si>
-    <t>dsc_metaconfiguration.e8bbca05aa1692ad54cadd83b93a1902f179f365.it-it.xlf</t>
-  </si>
-  <si>
-    <t>dsc_newresources.b9c40f591f875ea205c834f7675f3edbe1050592.it-it.xlf</t>
-  </si>
-  <si>
-    <t>dsc_nodeid.e3c9049aa6c1d151f8b286f28502537b2f8d22a4.it-it.xlf</t>
-  </si>
-  <si>
-    <t>dsc_partialconfig.a493787c3f8663ac3e2994162ffd1bee429544d3.it-it.xlf</t>
-  </si>
-  <si>
-    <t>dsc_partialconfig_mixedmode.ff4b9a8a421441da62574192650493bf2407028d.it-it.xlf</t>
-  </si>
-  <si>
-    <t>dsc_publishconfig.bfe86d4253abdd777c205caec637c50ec79103ee.it-it.xlf</t>
-  </si>
-  <si>
-    <t>dsc_refreshmode.b0529a06a4d3e07b3fce300f74760d63b27523f6.it-it.xlf</t>
-  </si>
-  <si>
-    <t>dsc_removeconfigdoc.d16cdab7eaedf468bcc38dae34e93be26a204318.it-it.xlf</t>
-  </si>
-  <si>
-    <t>dsc_reporting.b042cd21b9bcfc8e50bc361ddee59333602fad42.it-it.xlf</t>
-  </si>
-  <si>
-    <t>dsc_repository.ec5040a823a6b64e969393e00f3d859fd0b4551c.it-it.xlf</t>
-  </si>
-  <si>
-    <t>dsc_resourcedebugging.95c69e55eb065b349f52e18126d699b1906ba03f.it-it.xlf</t>
-  </si>
-  <si>
-    <t>dsc_runas.9e19a42a6d5e1ea1772358a6fd8ff24b98a5b6ba.it-it.xlf</t>
-  </si>
-  <si>
-    <t>dsc_setdsclcm.1f0e3cab81cf5fc1feda678f202451fe150632e3.it-it.xlf</t>
-  </si>
-  <si>
-    <t>dsc_statestatus.b6f3670f776a8f63a705ba16bed2f20be34fc48f.it-it.xlf</t>
-  </si>
-  <si>
-    <t>dsc_sxsresource.c9d4ce6109370ac1cbc1fb07f191e02f9a61d5d3.it-it.xlf</t>
-  </si>
-  <si>
-    <t>dsc_testconfiguration.b0e5afe2c8f173ebe49c97c9ea9a2f11d81ea5fa.it-it.xlf</t>
-  </si>
-  <si>
-    <t>dsc_updateconfig.a07eb85e3458d42d7ab1ed5c57dcfc70df709d07.it-it.xlf</t>
-  </si>
-  <si>
-    <t>dsc_waitfor.2b09933f08f1020166ce0f0cd7548a5a3845c48f.it-it.xlf</t>
-  </si>
-  <si>
-    <t>dsc_wow64.ea039aaa1bd77415311fc30d80fed43cda07a6e3.it-it.xlf</t>
-  </si>
-  <si>
-    <t>feedback.3662230166299ef7c1fb7a7a7f5cdbd64b1d812a.it-it.xlf</t>
-  </si>
-  <si>
-    <t>feedback_archive.20de26911a704368058401c7e2bd6ebaac692ff5.it-it.xlf</t>
-  </si>
-  <si>
-    <t>feedback_clipboard.872e5c147ef02cb86067651f41e3c00b55386664.it-it.xlf</t>
-  </si>
-  <si>
-    <t>feedback_cmdlets.a4c0dfb806ca0da232eeb75ad3706177b8a5ec48.it-it.xlf</t>
-  </si>
-  <si>
-    <t>feedback_convertfromString.acdeaa33e8fa59b93649b6abf3a7d5ef64fb7664.it-it.xlf</t>
-  </si>
-  <si>
-    <t>feedback_convertstring.42e964e30093962871c3a4d586ed6c54f25f840d.it-it.xlf</t>
-  </si>
-  <si>
-    <t>feedback_fileinfo.0192edad2d6504d26a9632f95fc9e5b66ffd8003.it-it.xlf</t>
-  </si>
-  <si>
-    <t>feedback_formathex.f97931c887efb620e5f4314facc1f0e20e3dffbe.it-it.xlf</t>
-  </si>
-  <si>
-    <t>feedback_getchilditem.ce02ca20cc4417a80fe65eb509a8e92f2cecc79c.it-it.xlf</t>
-  </si>
-  <si>
-    <t>feedback_moduleversionranges.611b3a3219d64dbfa1d01541b60a727b880a0c4b.it-it.xlf</t>
-  </si>
-  <si>
-    <t>feedback_newguid.f8756fbdb96e6fe06a7e0cbb6ac4af32b1c64983.it-it.xlf</t>
-  </si>
-  <si>
-    <t>feedback_nonewline.7a9b7e24c50399879089bba2b8eee7dc325572e2.it-it.xlf</t>
-  </si>
-  <si>
-    <t>feedback_symbolic.1c3ac8128fb9df60512ec024044d48be7d0cb59f.it-it.xlf</t>
-  </si>
-  <si>
-    <t>feedback_tempfile.fc029065af6bbba3a8c4abbf36023bede7d1416d.it-it.xlf</t>
+    <t>lnxArchiveResource.095aab7d23720fd394f2573c30223a6bbcc0a4ef.de-de.xlf</t>
+  </si>
+  <si>
+    <t>lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.de-de.xlf</t>
+  </si>
+  <si>
+    <t>lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.de-de.xlf</t>
+  </si>
+  <si>
+    <t>lnxFileLineResource.d91fc802a4c6cdbff5a2e35f92b34c36c6dbf5eb.de-de.xlf</t>
+  </si>
+  <si>
+    <t>lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.de-de.xlf</t>
+  </si>
+  <si>
+    <t>lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-10 20:32:18</t>
+  </si>
+  <si>
+    <t>lnxGroupResource.0cedb684d797032bd47cdb852629c36da0884567.de-de.xlf</t>
+  </si>
+  <si>
+    <t>lnxPackageResource.db35ab938bbfbb38cae53fe9ae98fd22b5f18009.de-de.xlf</t>
+  </si>
+  <si>
+    <t>lnxScriptResource.1344a5d5b807ee53705e93842d9ef5e25a883359.de-de.xlf</t>
+  </si>
+  <si>
+    <t>lnxServiceResource.e637c7f7b18939ec8c16eadf2c42ab00e236fb7b.de-de.xlf</t>
+  </si>
+  <si>
+    <t>lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.de-de.xlf</t>
+  </si>
+  <si>
+    <t>lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.de-de.xlf</t>
+  </si>
+  <si>
+    <t>logResource.07af9dfcf6076ef19059178c3b404762677920f0.de-de.xlf</t>
+  </si>
+  <si>
+    <t>metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.de-de.xlf</t>
+  </si>
+  <si>
+    <t>metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.de-de.xlf</t>
+  </si>
+  <si>
+    <t>overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.de-de.xlf</t>
+  </si>
+  <si>
+    <t>packageResource.132c4949cee174dc0dc324456d220436cb9884e6.de-de.xlf</t>
+  </si>
+  <si>
+    <t>partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.de-de.xlf</t>
+  </si>
+  <si>
+    <t>pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.de-de.xlf</t>
+  </si>
+  <si>
+    <t>pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.de-de.xlf</t>
+  </si>
+  <si>
+    <t>pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-09 20:01:41</t>
+  </si>
+  <si>
+    <t>pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.de-de.xlf</t>
+  </si>
+  <si>
+    <t>pullServer.4b925b277da29998394af746bdbdd508fda48909.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-16 22:51:51</t>
+  </si>
+  <si>
+    <t>pullServerSMB.772aec5ae27ccb19ced78e3eb665a4e16db1c4df.de-de.xlf</t>
+  </si>
+  <si>
+    <t>queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.de-de.xlf</t>
+  </si>
+  <si>
+    <t>registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.de-de.xlf</t>
+  </si>
+  <si>
+    <t>reportServer.53df4bc8b7b80c0a19c11434bdf5f4304e8248f7.de-de.xlf</t>
+  </si>
+  <si>
+    <t>resourceAuthoringChecklist.3b9ae254d826cc45519d37d06044f28a69bdfa69.de-de.xlf</t>
+  </si>
+  <si>
+    <t>resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.de-de.xlf</t>
+  </si>
+  <si>
+    <t>runAsUser.d2b90b6bc42ef965e454f9c9f5fd19bc7b488b34.de-de.xlf</t>
+  </si>
+  <si>
+    <t>scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.de-de.xlf</t>
+  </si>
+  <si>
+    <t>secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.de-de.xlf</t>
+  </si>
+  <si>
+    <t>secureServer.ce207607010d18109152742ba23c923cd3cddba2.de-de.xlf</t>
+  </si>
+  <si>
+    <t>serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.de-de.xlf</t>
+  </si>
+  <si>
+    <t>TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.de-de.xlf</t>
+  </si>
+  <si>
+    <t>troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-04 21:11:35</t>
+  </si>
+  <si>
+    <t>userResource.5de4fbe03e9e06934442ba451eb0564931863f45.de-de.xlf</t>
+  </si>
+  <si>
+    <t>windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.de-de.xlf</t>
+  </si>
+  <si>
+    <t>windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.de-de.xlf</t>
+  </si>
+  <si>
+    <t>audit_cms.3e422ca243ac938b46bfcf1497a703e55bde970e.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-08 01:12:00</t>
+  </si>
+  <si>
+    <t>audit_overview.fc5b51e2734a2af986c9edf42b4395b1aad2435d.de-de.xlf</t>
+  </si>
+  <si>
+    <t>audit_script.e89f3a9316d1125e1efd23b41b756a3a6161016b.de-de.xlf</t>
+  </si>
+  <si>
+    <t>audit_transcript.c21a6554932939cbf4c744bf7c9f07cc4e1e7160.de-de.xlf</t>
+  </si>
+  <si>
+    <t>class_base.29a9fbe4987503d5575c151f4271f58398cb7e55.de-de.xlf</t>
+  </si>
+  <si>
+    <t>class_baseconstructor.82f951e800b06ccc68090b1be9923c8210a233ac.de-de.xlf</t>
+  </si>
+  <si>
+    <t>class_basemethod.6b60292188d0081f30fbaf4b111db8a439348f5b.de-de.xlf</t>
+  </si>
+  <si>
+    <t>class_interface.84a08fd30808364a820bdd4440de18ec4504a6c7.de-de.xlf</t>
+  </si>
+  <si>
+    <t>class_newtype.a9f52b670970046f8b1147d4ba646b73abb430dc.de-de.xlf</t>
+  </si>
+  <si>
+    <t>class_overview.91227b885afcb8df385ab601ab970b924eca2533.de-de.xlf</t>
+  </si>
+  <si>
+    <t>debug_overview.70b71c20b8b625704c25da28a58e804a048bafb0.de-de.xlf</t>
+  </si>
+  <si>
+    <t>dsc_authoring.364878cde8f156d8999773842812e0c08f70191c.de-de.xlf</t>
+  </si>
+  <si>
+    <t>dsc_classbasedresource.a3d6b22652db939b51db1218584247396454ae0f.de-de.xlf</t>
+  </si>
+  <si>
+    <t>dsc_confighelp.bcfa7e85acae98499089edc9fba25b68953d7bbf.de-de.xlf</t>
+  </si>
+  <si>
+    <t>dsc_directaccess.014c91015162b26b678e0a5fdfd453a3bf6e41b0.de-de.xlf</t>
+  </si>
+  <si>
+    <t>dsc_encryptedmof.a35c44de669ea81f25dd29f152f03493e52e327b.de-de.xlf</t>
+  </si>
+  <si>
+    <t>dsc_freqnomultiple.2848e52c73280aca59e73136bac0c2c7ae02aad6.de-de.xlf</t>
+  </si>
+  <si>
+    <t>dsc_getconfigurationstatus.1705e4bcaa9dfd9d69f00aecdc7ef0d04bf44899.de-de.xlf</t>
+  </si>
+  <si>
+    <t>dsc_identicalduplicate.eb7167ccd4a72d68aa1683327e9b3877927158ab.de-de.xlf</t>
+  </si>
+  <si>
+    <t>dsc_importdscresource.a0169ad862dfcaa5c958c07ecd52c856d5dc8436.de-de.xlf</t>
+  </si>
+  <si>
+    <t>dsc_improvements.d9ed6ffedf9d9650bb6b26b5ed611e420a0aacbb.de-de.xlf</t>
+  </si>
+  <si>
+    <t>dsc_lcmstate.21ea1c36f37c94e8e0363199fbd07bcced3aea40.de-de.xlf</t>
+  </si>
+  <si>
+    <t>dsc_metaconfiguration.e8bbca05aa1692ad54cadd83b93a1902f179f365.de-de.xlf</t>
+  </si>
+  <si>
+    <t>dsc_newresources.b9c40f591f875ea205c834f7675f3edbe1050592.de-de.xlf</t>
+  </si>
+  <si>
+    <t>dsc_nodeid.e3c9049aa6c1d151f8b286f28502537b2f8d22a4.de-de.xlf</t>
+  </si>
+  <si>
+    <t>dsc_partialconfig.a493787c3f8663ac3e2994162ffd1bee429544d3.de-de.xlf</t>
+  </si>
+  <si>
+    <t>dsc_partialconfig_mixedmode.ff4b9a8a421441da62574192650493bf2407028d.de-de.xlf</t>
+  </si>
+  <si>
+    <t>dsc_publishconfig.bfe86d4253abdd777c205caec637c50ec79103ee.de-de.xlf</t>
+  </si>
+  <si>
+    <t>dsc_refreshmode.b0529a06a4d3e07b3fce300f74760d63b27523f6.de-de.xlf</t>
+  </si>
+  <si>
+    <t>dsc_removeconfigdoc.d16cdab7eaedf468bcc38dae34e93be26a204318.de-de.xlf</t>
+  </si>
+  <si>
+    <t>dsc_reporting.b042cd21b9bcfc8e50bc361ddee59333602fad42.de-de.xlf</t>
+  </si>
+  <si>
+    <t>dsc_repository.ec5040a823a6b64e969393e00f3d859fd0b4551c.de-de.xlf</t>
+  </si>
+  <si>
+    <t>dsc_resourcedebugging.95c69e55eb065b349f52e18126d699b1906ba03f.de-de.xlf</t>
+  </si>
+  <si>
+    <t>dsc_runas.9e19a42a6d5e1ea1772358a6fd8ff24b98a5b6ba.de-de.xlf</t>
+  </si>
+  <si>
+    <t>dsc_setdsclcm.1f0e3cab81cf5fc1feda678f202451fe150632e3.de-de.xlf</t>
+  </si>
+  <si>
+    <t>dsc_statestatus.b6f3670f776a8f63a705ba16bed2f20be34fc48f.de-de.xlf</t>
+  </si>
+  <si>
+    <t>dsc_sxsresource.c9d4ce6109370ac1cbc1fb07f191e02f9a61d5d3.de-de.xlf</t>
+  </si>
+  <si>
+    <t>dsc_testconfiguration.b0e5afe2c8f173ebe49c97c9ea9a2f11d81ea5fa.de-de.xlf</t>
+  </si>
+  <si>
+    <t>dsc_updateconfig.a07eb85e3458d42d7ab1ed5c57dcfc70df709d07.de-de.xlf</t>
+  </si>
+  <si>
+    <t>dsc_waitfor.2b09933f08f1020166ce0f0cd7548a5a3845c48f.de-de.xlf</t>
+  </si>
+  <si>
+    <t>dsc_wow64.ea039aaa1bd77415311fc30d80fed43cda07a6e3.de-de.xlf</t>
+  </si>
+  <si>
+    <t>feedback.3662230166299ef7c1fb7a7a7f5cdbd64b1d812a.de-de.xlf</t>
+  </si>
+  <si>
+    <t>feedback_archive.20de26911a704368058401c7e2bd6ebaac692ff5.de-de.xlf</t>
+  </si>
+  <si>
+    <t>feedback_clipboard.872e5c147ef02cb86067651f41e3c00b55386664.de-de.xlf</t>
+  </si>
+  <si>
+    <t>feedback_cmdlets.a4c0dfb806ca0da232eeb75ad3706177b8a5ec48.de-de.xlf</t>
+  </si>
+  <si>
+    <t>feedback_convertfromString.acdeaa33e8fa59b93649b6abf3a7d5ef64fb7664.de-de.xlf</t>
+  </si>
+  <si>
+    <t>feedback_convertstring.42e964e30093962871c3a4d586ed6c54f25f840d.de-de.xlf</t>
+  </si>
+  <si>
+    <t>feedback_fileinfo.0192edad2d6504d26a9632f95fc9e5b66ffd8003.de-de.xlf</t>
+  </si>
+  <si>
+    <t>feedback_formathex.f97931c887efb620e5f4314facc1f0e20e3dffbe.de-de.xlf</t>
+  </si>
+  <si>
+    <t>feedback_getchilditem.ce02ca20cc4417a80fe65eb509a8e92f2cecc79c.de-de.xlf</t>
+  </si>
+  <si>
+    <t>feedback_moduleversionranges.611b3a3219d64dbfa1d01541b60a727b880a0c4b.de-de.xlf</t>
+  </si>
+  <si>
+    <t>feedback_newguid.f8756fbdb96e6fe06a7e0cbb6ac4af32b1c64983.de-de.xlf</t>
+  </si>
+  <si>
+    <t>feedback_nonewline.7a9b7e24c50399879089bba2b8eee7dc325572e2.de-de.xlf</t>
+  </si>
+  <si>
+    <t>feedback_symbolic.1c3ac8128fb9df60512ec024044d48be7d0cb59f.de-de.xlf</t>
+  </si>
+  <si>
+    <t>feedback_tempfile.fc029065af6bbba3a8c4abbf36023bede7d1416d.de-de.xlf</t>
   </si>
   <si>
     <t>ba1897f38317f5fe38f2d8caf0efcc57bc8bb19d.jpg</t>
@@ -948,76 +954,76 @@
     <t>wmf\dsc_encryptedmof.md</t>
   </si>
   <si>
-    <t>informationstream_overview.d2f238b2b4021ccdb7271cf89f53d58970d56cf5.it-it.xlf</t>
-  </si>
-  <si>
-    <t>install.317fc924c0f766547c4725878af59c3c9d8facba.it-it.xlf</t>
-  </si>
-  <si>
-    <t>jea_endpoint.1dc052fe583a907a6c090cf8bfd42293d94d2975.it-it.xlf</t>
-  </si>
-  <si>
-    <t>jea_overview.3fa3008e719be8235adffe51808ac66714940871.it-it.xlf</t>
-  </si>
-  <si>
-    <t>jea_report.7860cec6e93b7405844ccbbe5bc879921447ac0b.it-it.xlf</t>
-  </si>
-  <si>
-    <t>limitation_dsc.3684c81bb088cba98089dffdb1a1e56e1c098335.it-it.xlf</t>
-  </si>
-  <si>
-    <t>limitation_overview.6cc9c8c028f5912636637d836aed7db0614de522.it-it.xlf</t>
-  </si>
-  <si>
-    <t>networkswitch_overview.7a87eb0741cd43b8b9284ea6cb605920c4961b79.it-it.xlf</t>
-  </si>
-  <si>
-    <t>odata_overview.c3f7efdde29fe7ac5685a61cd61d75b65524a4c3.it-it.xlf</t>
-  </si>
-  <si>
-    <t>oneget_cmdlets.469b2350a72495ac2cf62e4130b4df8036f5d135.it-it.xlf</t>
-  </si>
-  <si>
-    <t>oneget_overview.e71a25f36f957ab7471d259c6e716651f6f23c94.it-it.xlf</t>
-  </si>
-  <si>
-    <t>productincompat.62bb00299c0283b5297001553476a745e28a49cb.it-it.xlf</t>
-  </si>
-  <si>
-    <t>psget_module_overview.4149c468ffd0f17a2fabd03f90059c12effc3170.it-it.xlf</t>
-  </si>
-  <si>
-    <t>psget_modulecmdlets.1f808cfdf9a9aa920f88e15f7f5fa4701fe805e3.it-it.xlf</t>
-  </si>
-  <si>
-    <t>psget_moduledependency.89ba9310335ae64db5481a3c02034ac4fe01b6a2.it-it.xlf</t>
-  </si>
-  <si>
-    <t>psget_modulesxsinstall.110ba80d8f917899ef488b46bd15f5654f6ba06c.it-it.xlf</t>
-  </si>
-  <si>
-    <t>psget_psrepository.c4381b2ff7bb6496ab74ed8bb2b07325cfbfc056.it-it.xlf</t>
-  </si>
-  <si>
-    <t>psget_script_overview.f035cc99497d17dc73e3a61f214e40a5860fc70a.it-it.xlf</t>
-  </si>
-  <si>
-    <t>psget_scriptcmdlets.1762d5f29292d59c1afb37cb29eb11a34cf63990.it-it.xlf</t>
-  </si>
-  <si>
-    <t>releasenotes.311750b4da54b1d4ef7997b328edd6ff177fb71f.it-it.xlf</t>
-  </si>
-  <si>
-    <t>requirements.ef8332f358d65b1759bfd4c7336b11d1dc8c2d46.it-it.xlf</t>
-  </si>
-  <si>
-    <t>sil_overview.a2b1f7c716aad317993a5eaffba21fa28ce0c0d8.it-it.xlf</t>
-  </si>
-  <si>
-    <t>TOC.60497266061c38453b3db893ec675eb65584af89.it-it.xlf</t>
-  </si>
-  <si>
-    <t>uninstall.b07adaaaf7f41869dfa201b88e29342aced76c96.it-it.xlf</t>
+    <t>informationstream_overview.d2f238b2b4021ccdb7271cf89f53d58970d56cf5.de-de.xlf</t>
+  </si>
+  <si>
+    <t>install.317fc924c0f766547c4725878af59c3c9d8facba.de-de.xlf</t>
+  </si>
+  <si>
+    <t>jea_endpoint.1dc052fe583a907a6c090cf8bfd42293d94d2975.de-de.xlf</t>
+  </si>
+  <si>
+    <t>jea_overview.3fa3008e719be8235adffe51808ac66714940871.de-de.xlf</t>
+  </si>
+  <si>
+    <t>jea_report.7860cec6e93b7405844ccbbe5bc879921447ac0b.de-de.xlf</t>
+  </si>
+  <si>
+    <t>limitation_dsc.3684c81bb088cba98089dffdb1a1e56e1c098335.de-de.xlf</t>
+  </si>
+  <si>
+    <t>limitation_overview.6cc9c8c028f5912636637d836aed7db0614de522.de-de.xlf</t>
+  </si>
+  <si>
+    <t>networkswitch_overview.7a87eb0741cd43b8b9284ea6cb605920c4961b79.de-de.xlf</t>
+  </si>
+  <si>
+    <t>odata_overview.c3f7efdde29fe7ac5685a61cd61d75b65524a4c3.de-de.xlf</t>
+  </si>
+  <si>
+    <t>oneget_cmdlets.469b2350a72495ac2cf62e4130b4df8036f5d135.de-de.xlf</t>
+  </si>
+  <si>
+    <t>oneget_overview.e71a25f36f957ab7471d259c6e716651f6f23c94.de-de.xlf</t>
+  </si>
+  <si>
+    <t>productincompat.62bb00299c0283b5297001553476a745e28a49cb.de-de.xlf</t>
+  </si>
+  <si>
+    <t>psget_module_overview.4149c468ffd0f17a2fabd03f90059c12effc3170.de-de.xlf</t>
+  </si>
+  <si>
+    <t>psget_modulecmdlets.1f808cfdf9a9aa920f88e15f7f5fa4701fe805e3.de-de.xlf</t>
+  </si>
+  <si>
+    <t>psget_moduledependency.89ba9310335ae64db5481a3c02034ac4fe01b6a2.de-de.xlf</t>
+  </si>
+  <si>
+    <t>psget_modulesxsinstall.110ba80d8f917899ef488b46bd15f5654f6ba06c.de-de.xlf</t>
+  </si>
+  <si>
+    <t>psget_psrepository.c4381b2ff7bb6496ab74ed8bb2b07325cfbfc056.de-de.xlf</t>
+  </si>
+  <si>
+    <t>psget_script_overview.f035cc99497d17dc73e3a61f214e40a5860fc70a.de-de.xlf</t>
+  </si>
+  <si>
+    <t>psget_scriptcmdlets.1762d5f29292d59c1afb37cb29eb11a34cf63990.de-de.xlf</t>
+  </si>
+  <si>
+    <t>releasenotes.311750b4da54b1d4ef7997b328edd6ff177fb71f.de-de.xlf</t>
+  </si>
+  <si>
+    <t>requirements.ef8332f358d65b1759bfd4c7336b11d1dc8c2d46.de-de.xlf</t>
+  </si>
+  <si>
+    <t>sil_overview.a2b1f7c716aad317993a5eaffba21fa28ce0c0d8.de-de.xlf</t>
+  </si>
+  <si>
+    <t>TOC.60497266061c38453b3db893ec675eb65584af89.de-de.xlf</t>
+  </si>
+  <si>
+    <t>uninstall.b07adaaaf7f41869dfa201b88e29342aced76c96.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -1074,7 +1080,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="it-it" displayName="it_it" ref="A1:L1" headerRowCount="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="de-de" displayName="de_de" ref="A1:L1" headerRowCount="0">
   <tableColumns count="12">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -1097,7 +1103,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Overview" displayName="Overview" ref="A1:D1" headerRowCount="0">
   <tableColumns count="4">
     <tableColumn id="1" name="File Name"/>
-    <tableColumn id="2" name="it-it"/>
+    <tableColumn id="2" name="de-de"/>
     <tableColumn id="3" name="Latest Handoff Date"/>
     <tableColumn id="4" name="Column4"/>
   </tableColumns>
@@ -1189,7 +1195,7 @@
         <v>12</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>11</v>
@@ -1197,21 +1203,21 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>11</v>
@@ -1219,10 +1225,10 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C10" s="0" t="s">
         <v>11</v>
@@ -1230,10 +1236,10 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C11" s="0" t="s">
         <v>11</v>
@@ -1241,10 +1247,10 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C12" s="0" t="s">
         <v>11</v>
@@ -1252,10 +1258,10 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C13" s="0" t="s">
         <v>11</v>
@@ -1263,10 +1269,10 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C14" s="0" t="s">
         <v>11</v>
@@ -1274,10 +1280,10 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C15" s="0" t="s">
         <v>11</v>
@@ -1285,10 +1291,10 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C16" s="0" t="s">
         <v>11</v>
@@ -1296,32 +1302,32 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C19" s="0" t="s">
         <v>11</v>
@@ -1329,10 +1335,10 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C20" s="0" t="s">
         <v>11</v>
@@ -1340,10 +1346,10 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C21" s="0" t="s">
         <v>11</v>
@@ -1351,21 +1357,21 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C23" s="0" t="s">
         <v>11</v>
@@ -1373,10 +1379,10 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C24" s="0" t="s">
         <v>5</v>
@@ -1384,10 +1390,10 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C25" s="0" t="s">
         <v>11</v>
@@ -1395,10 +1401,10 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C26" s="0" t="s">
         <v>11</v>
@@ -1406,10 +1412,10 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C27" s="0" t="s">
         <v>11</v>
@@ -1417,10 +1423,10 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C28" s="0" t="s">
         <v>11</v>
@@ -1428,10 +1434,10 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C29" s="0" t="s">
         <v>11</v>
@@ -1439,21 +1445,21 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C31" s="0" t="s">
         <v>11</v>
@@ -1461,10 +1467,10 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C32" s="0" t="s">
         <v>11</v>
@@ -1472,10 +1478,10 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C33" s="0" t="s">
         <v>11</v>
@@ -1483,21 +1489,21 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C35" s="0" t="s">
         <v>11</v>
@@ -1505,10 +1511,10 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C36" s="0" t="s">
         <v>11</v>
@@ -1516,10 +1522,10 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C37" s="0" t="s">
         <v>11</v>
@@ -1527,10 +1533,10 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C38" s="0" t="s">
         <v>11</v>
@@ -1538,10 +1544,10 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C39" s="0" t="s">
         <v>11</v>
@@ -1549,10 +1555,10 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C40" s="0" t="s">
         <v>11</v>
@@ -1560,10 +1566,10 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C41" s="0" t="s">
         <v>11</v>
@@ -1571,10 +1577,10 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C42" s="0" t="s">
         <v>11</v>
@@ -1582,10 +1588,10 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C43" s="0" t="s">
         <v>11</v>
@@ -1593,10 +1599,10 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C44" s="0" t="s">
         <v>11</v>
@@ -1604,21 +1610,21 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C46" s="0" t="s">
         <v>11</v>
@@ -1626,32 +1632,32 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C49" s="0" t="s">
         <v>11</v>
@@ -1659,10 +1665,10 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C50" s="0" t="s">
         <v>11</v>
@@ -1670,10 +1676,10 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C51" s="0" t="s">
         <v>11</v>
@@ -1681,21 +1687,21 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C53" s="0" t="s">
         <v>11</v>
@@ -1703,21 +1709,21 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C55" s="0" t="s">
         <v>11</v>
@@ -1725,10 +1731,10 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C56" s="0" t="s">
         <v>5</v>
@@ -1736,10 +1742,10 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C57" s="0" t="s">
         <v>11</v>
@@ -1747,10 +1753,10 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C58" s="0" t="s">
         <v>11</v>
@@ -1758,32 +1764,32 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C61" s="0" t="s">
         <v>11</v>
@@ -1791,10 +1797,10 @@
     </row>
     <row r="62">
       <c r="A62" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C62" s="0" t="s">
         <v>11</v>
@@ -1802,10 +1808,10 @@
     </row>
     <row r="63">
       <c r="A63" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C63" s="0" t="s">
         <v>11</v>
@@ -1813,615 +1819,615 @@
     </row>
     <row r="64">
       <c r="A64" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C119" s="0" t="s">
         <v>5</v>
@@ -2429,10 +2435,10 @@
     </row>
     <row r="120">
       <c r="A120" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C120" s="0" t="s">
         <v>5</v>
@@ -2440,10 +2446,10 @@
     </row>
     <row r="121">
       <c r="A121" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C121" s="0" t="s">
         <v>5</v>
@@ -2451,266 +2457,266 @@
     </row>
     <row r="122">
       <c r="A122" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C125" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B126" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C126" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B127" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C127" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B128" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C128" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B129" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C129" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B130" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C130" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B131" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C131" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B132" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C132" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B133" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C133" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B134" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C134" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B135" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C135" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B136" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C136" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B137" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C137" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B138" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C138" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B139" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C139" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B140" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C140" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B141" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C141" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B142" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C142" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B143" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C143" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B144" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C144" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B145" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C145" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -2719,8 +2725,8 @@
     <hyperlink ref="A3" display="PartialConfigPullServer.jpg" r:id="rId3"/>
     <hyperlink ref="A4" display="Pull.png" r:id="rId4"/>
     <hyperlink ref="A5" display="Push.png" r:id="rId5"/>
-    <hyperlink ref="A6" display="archiveResource.md" r:id="rId6"/>
-    <hyperlink ref="A7" display="authoringResource.md" r:id="rId7"/>
+    <hyperlink ref="A6" display="authoringResource.md" r:id="rId6"/>
+    <hyperlink ref="A7" display="archiveResource.md" r:id="rId7"/>
     <hyperlink ref="A8" display="authoringResourceClass.md" r:id="rId8"/>
     <hyperlink ref="A9" display="authoringResourceComposite.md" r:id="rId9"/>
     <hyperlink ref="A10" display="authoringResourceMOF.md" r:id="rId10"/>
@@ -2890,37 +2896,37 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="2">
@@ -2928,31 +2934,31 @@
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3">
@@ -2960,31 +2966,31 @@
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="J3" s="0" t="s">
         <v>175</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>172</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>173</v>
-      </c>
-      <c r="J3" s="0" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="4">
@@ -2992,31 +2998,31 @@
         <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5">
@@ -3024,31 +3030,31 @@
         <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>4</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G5" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="J5" s="0" t="s">
         <v>179</v>
-      </c>
-      <c r="H5" s="0" t="s">
-        <v>172</v>
-      </c>
-      <c r="I5" s="0" t="s">
-        <v>173</v>
-      </c>
-      <c r="J5" s="0" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="6">
@@ -3056,22 +3062,22 @@
         <v>9</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="7">
@@ -3079,3208 +3085,3208 @@
         <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I21" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I22" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I24" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I25" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I26" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I27" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I28" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I29" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I30" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I31" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I32" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I33" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I34" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I35" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I36" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I37" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I38" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I39" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H40" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I40" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H41" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I41" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H42" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I42" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H43" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I43" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H44" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I44" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>55</v>
+        <v>230</v>
       </c>
       <c r="H45" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I45" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H46" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I46" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="H47" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I47" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>55</v>
+        <v>230</v>
       </c>
       <c r="H48" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I48" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H49" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I49" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H50" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I50" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H51" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I51" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>55</v>
+        <v>230</v>
       </c>
       <c r="H52" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I52" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H53" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I53" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H54" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I54" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H55" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I55" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H56" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I56" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H57" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I57" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H58" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I58" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H59" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I59" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="H60" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I60" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H61" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I61" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H62" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I62" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H63" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I63" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H64" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I64" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H65" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I65" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H66" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I66" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H67" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I67" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H68" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I68" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H69" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I69" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H70" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I70" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H71" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I71" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H72" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I72" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H73" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I73" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H74" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I74" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H75" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I75" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H76" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I76" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H77" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I77" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H78" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I78" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H79" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I79" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H80" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I80" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H81" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I81" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H82" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I82" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H83" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I83" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H84" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I84" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H85" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I85" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H86" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I86" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H87" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I87" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H88" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I88" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H89" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I89" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H90" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I90" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H91" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I91" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H92" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I92" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H93" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I93" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H94" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I94" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H95" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I95" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H96" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I96" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H97" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I97" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H98" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I98" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H99" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I99" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H100" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I100" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H101" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I101" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H102" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I102" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H103" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I103" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H104" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I104" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H105" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I105" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H106" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I106" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H107" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I107" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H108" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I108" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H109" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I109" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H110" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I110" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H111" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I111" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H112" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I112" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H113" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I113" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H114" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I114" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H115" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I115" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H116" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I116" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H117" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I117" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H118" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I118" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H119" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I119" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="J119" s="0" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H120" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I120" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="J120" s="0" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H121" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I121" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="J121" s="0" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H122" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I122" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H123" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I123" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H124" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I124" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C125" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H125" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I125" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C126" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H126" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I126" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C127" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H127" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I127" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C128" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H128" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I128" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C129" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H129" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I129" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C130" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H130" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I130" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C131" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H131" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I131" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C132" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H132" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I132" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C133" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H133" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I133" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C134" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H134" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I134" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C135" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H135" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I135" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C136" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H136" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I136" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C137" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H137" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I137" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C138" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H138" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I138" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C139" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H139" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I139" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C140" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H140" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I140" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C141" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H141" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I141" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C142" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H142" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I142" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C143" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H143" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I143" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C144" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="H144" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I144" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C145" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H145" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I145" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -6305,345 +6311,345 @@
     <hyperlink ref="D5" display="d3008e3fe7da4c118c693d2b34a0b329780f8d86.png" r:id="rId19"/>
     <hyperlink ref="F5" display="Push.png" r:id="rId20"/>
     <hyperlink ref="G5" display="d3008e3fe7da4c118c693d2b34a0b329780f8d86.png" r:id="rId21"/>
-    <hyperlink ref="A6" display="archiveResource.md" r:id="rId22"/>
+    <hyperlink ref="A6" display="authoringResource.md" r:id="rId22"/>
     <hyperlink ref="B6" display=".md" r:id="rId23"/>
-    <hyperlink ref="D6" display="archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.it-it.xlf" r:id="rId24"/>
-    <hyperlink ref="A7" display="authoringResource.md" r:id="rId25"/>
+    <hyperlink ref="D6" display="authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.de-de.xlf" r:id="rId24"/>
+    <hyperlink ref="A7" display="archiveResource.md" r:id="rId25"/>
     <hyperlink ref="B7" display=".md" r:id="rId26"/>
-    <hyperlink ref="D7" display="authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.it-it.xlf" r:id="rId27"/>
+    <hyperlink ref="D7" display="archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.de-de.xlf" r:id="rId27"/>
     <hyperlink ref="A8" display="authoringResourceClass.md" r:id="rId28"/>
     <hyperlink ref="B8" display=".md" r:id="rId29"/>
-    <hyperlink ref="D8" display="authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.it-it.xlf" r:id="rId30"/>
+    <hyperlink ref="D8" display="authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.de-de.xlf" r:id="rId30"/>
     <hyperlink ref="A9" display="authoringResourceComposite.md" r:id="rId31"/>
     <hyperlink ref="B9" display=".md" r:id="rId32"/>
-    <hyperlink ref="D9" display="authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.it-it.xlf" r:id="rId33"/>
+    <hyperlink ref="D9" display="authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.de-de.xlf" r:id="rId33"/>
     <hyperlink ref="A10" display="authoringResourceMOF.md" r:id="rId34"/>
     <hyperlink ref="B10" display=".md" r:id="rId35"/>
-    <hyperlink ref="D10" display="authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.it-it.xlf" r:id="rId36"/>
+    <hyperlink ref="D10" display="authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.de-de.xlf" r:id="rId36"/>
     <hyperlink ref="A11" display="authoringResourceMofCS.md" r:id="rId37"/>
     <hyperlink ref="B11" display=".md" r:id="rId38"/>
-    <hyperlink ref="D11" display="authoringResourceMofCS.0647b27b00ec52b2f524a2856e48bc7c29c0f867.it-it.xlf" r:id="rId39"/>
+    <hyperlink ref="D11" display="authoringResourceMofCS.0647b27b00ec52b2f524a2856e48bc7c29c0f867.de-de.xlf" r:id="rId39"/>
     <hyperlink ref="A12" display="authoringResourceMofDesigner.md" r:id="rId40"/>
     <hyperlink ref="B12" display=".md" r:id="rId41"/>
-    <hyperlink ref="D12" display="authoringResourceMofDesigner.09b1adffc4afb0d9b1154880e2dab0b25d82d51b.it-it.xlf" r:id="rId42"/>
+    <hyperlink ref="D12" display="authoringResourceMofDesigner.09b1adffc4afb0d9b1154880e2dab0b25d82d51b.de-de.xlf" r:id="rId42"/>
     <hyperlink ref="A13" display="builtInResource.md" r:id="rId43"/>
     <hyperlink ref="B13" display=".md" r:id="rId44"/>
-    <hyperlink ref="D13" display="builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.it-it.xlf" r:id="rId45"/>
+    <hyperlink ref="D13" display="builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.de-de.xlf" r:id="rId45"/>
     <hyperlink ref="A14" display="configData.md" r:id="rId46"/>
     <hyperlink ref="B14" display=".md" r:id="rId47"/>
-    <hyperlink ref="D14" display="configData.51d01a46dd9af8b425788cc485523b09f8470b95.it-it.xlf" r:id="rId48"/>
+    <hyperlink ref="D14" display="configData.51d01a46dd9af8b425788cc485523b09f8470b95.de-de.xlf" r:id="rId48"/>
     <hyperlink ref="A15" display="configDataCredentials.md" r:id="rId49"/>
     <hyperlink ref="B15" display=".md" r:id="rId50"/>
-    <hyperlink ref="D15" display="configDataCredentials.f3e75119e7d93b2f914823c5ea23bfde3935a874.it-it.xlf" r:id="rId51"/>
+    <hyperlink ref="D15" display="configDataCredentials.f3e75119e7d93b2f914823c5ea23bfde3935a874.de-de.xlf" r:id="rId51"/>
     <hyperlink ref="A16" display="configurations.md" r:id="rId52"/>
     <hyperlink ref="B16" display=".md" r:id="rId53"/>
-    <hyperlink ref="D16" display="configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.it-it.xlf" r:id="rId54"/>
+    <hyperlink ref="D16" display="configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.de-de.xlf" r:id="rId54"/>
     <hyperlink ref="A17" display="debugResource.md" r:id="rId55"/>
     <hyperlink ref="B17" display=".md" r:id="rId56"/>
-    <hyperlink ref="D17" display="debugResource.ac634156affe5c723cc149a298f5aa4268d17016.it-it.xlf" r:id="rId57"/>
+    <hyperlink ref="D17" display="debugResource.ac634156affe5c723cc149a298f5aa4268d17016.de-de.xlf" r:id="rId57"/>
     <hyperlink ref="A18" display="decisionMaker.md" r:id="rId58"/>
     <hyperlink ref="B18" display=".md" r:id="rId59"/>
-    <hyperlink ref="D18" display="decisionMaker.01553169f2ba4241995260fad925e2784b5f5567.it-it.xlf" r:id="rId60"/>
+    <hyperlink ref="D18" display="decisionMaker.01553169f2ba4241995260fad925e2784b5f5567.de-de.xlf" r:id="rId60"/>
     <hyperlink ref="A19" display="enactingConfigurations.md" r:id="rId61"/>
     <hyperlink ref="B19" display=".md" r:id="rId62"/>
-    <hyperlink ref="D19" display="enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.it-it.xlf" r:id="rId63"/>
+    <hyperlink ref="D19" display="enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.de-de.xlf" r:id="rId63"/>
     <hyperlink ref="A20" display="environmentResource.md" r:id="rId64"/>
     <hyperlink ref="B20" display=".md" r:id="rId65"/>
-    <hyperlink ref="D20" display="environmentResource.eb91ffd4cd8bdb9476e5a83de1a20d3b7b502a56.it-it.xlf" r:id="rId66"/>
+    <hyperlink ref="D20" display="environmentResource.eb91ffd4cd8bdb9476e5a83de1a20d3b7b502a56.de-de.xlf" r:id="rId66"/>
     <hyperlink ref="A21" display="fileResource.md" r:id="rId67"/>
     <hyperlink ref="B21" display=".md" r:id="rId68"/>
-    <hyperlink ref="D21" display="fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.it-it.xlf" r:id="rId69"/>
+    <hyperlink ref="D21" display="fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.de-de.xlf" r:id="rId69"/>
     <hyperlink ref="A22" display="gettingStarted.md" r:id="rId70"/>
     <hyperlink ref="B22" display=".md" r:id="rId71"/>
-    <hyperlink ref="D22" display="gettingStarted.92e02d8bd273df5c304475a9b4fa251c22a7ea19.it-it.xlf" r:id="rId72"/>
+    <hyperlink ref="D22" display="gettingStarted.92e02d8bd273df5c304475a9b4fa251c22a7ea19.de-de.xlf" r:id="rId72"/>
     <hyperlink ref="A23" display="groupResource.md" r:id="rId73"/>
     <hyperlink ref="B23" display=".md" r:id="rId74"/>
-    <hyperlink ref="D23" display="groupResource.d19d416269795c92566b62c36b9782062dcea43e.it-it.xlf" r:id="rId75"/>
+    <hyperlink ref="D23" display="groupResource.d19d416269795c92566b62c36b9782062dcea43e.de-de.xlf" r:id="rId75"/>
     <hyperlink ref="A24" display="CredentialEncryptionDiagram1.png" r:id="rId76"/>
     <hyperlink ref="B24" display=".png" r:id="rId77"/>
     <hyperlink ref="D24" display="d9f53a805041164f5070845c0fd216b63d17ae58.png" r:id="rId78"/>
     <hyperlink ref="A25" display="lnxArchiveResource.md" r:id="rId79"/>
     <hyperlink ref="B25" display=".md" r:id="rId80"/>
-    <hyperlink ref="D25" display="lnxArchiveResource.095aab7d23720fd394f2573c30223a6bbcc0a4ef.it-it.xlf" r:id="rId81"/>
+    <hyperlink ref="D25" display="lnxArchiveResource.095aab7d23720fd394f2573c30223a6bbcc0a4ef.de-de.xlf" r:id="rId81"/>
     <hyperlink ref="A26" display="lnxBuiltInResources.md" r:id="rId82"/>
     <hyperlink ref="B26" display=".md" r:id="rId83"/>
-    <hyperlink ref="D26" display="lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.it-it.xlf" r:id="rId84"/>
+    <hyperlink ref="D26" display="lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.de-de.xlf" r:id="rId84"/>
     <hyperlink ref="A27" display="lnxEnvironmentResource.md" r:id="rId85"/>
     <hyperlink ref="B27" display=".md" r:id="rId86"/>
-    <hyperlink ref="D27" display="lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.it-it.xlf" r:id="rId87"/>
+    <hyperlink ref="D27" display="lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.de-de.xlf" r:id="rId87"/>
     <hyperlink ref="A28" display="lnxFileLineResource.md" r:id="rId88"/>
     <hyperlink ref="B28" display=".md" r:id="rId89"/>
-    <hyperlink ref="D28" display="lnxFileLineResource.d91fc802a4c6cdbff5a2e35f92b34c36c6dbf5eb.it-it.xlf" r:id="rId90"/>
+    <hyperlink ref="D28" display="lnxFileLineResource.d91fc802a4c6cdbff5a2e35f92b34c36c6dbf5eb.de-de.xlf" r:id="rId90"/>
     <hyperlink ref="A29" display="lnxFileResource.md" r:id="rId91"/>
     <hyperlink ref="B29" display=".md" r:id="rId92"/>
-    <hyperlink ref="D29" display="lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.it-it.xlf" r:id="rId93"/>
+    <hyperlink ref="D29" display="lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.de-de.xlf" r:id="rId93"/>
     <hyperlink ref="A30" display="lnxGettingStarted.md" r:id="rId94"/>
     <hyperlink ref="B30" display=".md" r:id="rId95"/>
-    <hyperlink ref="D30" display="lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.it-it.xlf" r:id="rId96"/>
+    <hyperlink ref="D30" display="lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.de-de.xlf" r:id="rId96"/>
     <hyperlink ref="A31" display="lnxGroupResource.md" r:id="rId97"/>
     <hyperlink ref="B31" display=".md" r:id="rId98"/>
-    <hyperlink ref="D31" display="lnxGroupResource.0cedb684d797032bd47cdb852629c36da0884567.it-it.xlf" r:id="rId99"/>
+    <hyperlink ref="D31" display="lnxGroupResource.0cedb684d797032bd47cdb852629c36da0884567.de-de.xlf" r:id="rId99"/>
     <hyperlink ref="A32" display="lnxPackageResource.md" r:id="rId100"/>
     <hyperlink ref="B32" display=".md" r:id="rId101"/>
-    <hyperlink ref="D32" display="lnxPackageResource.db35ab938bbfbb38cae53fe9ae98fd22b5f18009.it-it.xlf" r:id="rId102"/>
+    <hyperlink ref="D32" display="lnxPackageResource.db35ab938bbfbb38cae53fe9ae98fd22b5f18009.de-de.xlf" r:id="rId102"/>
     <hyperlink ref="A33" display="lnxScriptResource.md" r:id="rId103"/>
     <hyperlink ref="B33" display=".md" r:id="rId104"/>
-    <hyperlink ref="D33" display="lnxScriptResource.1344a5d5b807ee53705e93842d9ef5e25a883359.it-it.xlf" r:id="rId105"/>
+    <hyperlink ref="D33" display="lnxScriptResource.1344a5d5b807ee53705e93842d9ef5e25a883359.de-de.xlf" r:id="rId105"/>
     <hyperlink ref="A34" display="lnxServiceResource.md" r:id="rId106"/>
     <hyperlink ref="B34" display=".md" r:id="rId107"/>
-    <hyperlink ref="D34" display="lnxServiceResource.e637c7f7b18939ec8c16eadf2c42ab00e236fb7b.it-it.xlf" r:id="rId108"/>
+    <hyperlink ref="D34" display="lnxServiceResource.e637c7f7b18939ec8c16eadf2c42ab00e236fb7b.de-de.xlf" r:id="rId108"/>
     <hyperlink ref="A35" display="lnxSshAuthorizedKeysResource.md" r:id="rId109"/>
     <hyperlink ref="B35" display=".md" r:id="rId110"/>
-    <hyperlink ref="D35" display="lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.it-it.xlf" r:id="rId111"/>
+    <hyperlink ref="D35" display="lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.de-de.xlf" r:id="rId111"/>
     <hyperlink ref="A36" display="lnxUserResource.md" r:id="rId112"/>
     <hyperlink ref="B36" display=".md" r:id="rId113"/>
-    <hyperlink ref="D36" display="lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.it-it.xlf" r:id="rId114"/>
+    <hyperlink ref="D36" display="lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.de-de.xlf" r:id="rId114"/>
     <hyperlink ref="A37" display="logResource.md" r:id="rId115"/>
     <hyperlink ref="B37" display=".md" r:id="rId116"/>
-    <hyperlink ref="D37" display="logResource.07af9dfcf6076ef19059178c3b404762677920f0.it-it.xlf" r:id="rId117"/>
+    <hyperlink ref="D37" display="logResource.07af9dfcf6076ef19059178c3b404762677920f0.de-de.xlf" r:id="rId117"/>
     <hyperlink ref="A38" display="metaConfig.md" r:id="rId118"/>
     <hyperlink ref="B38" display=".md" r:id="rId119"/>
-    <hyperlink ref="D38" display="metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.it-it.xlf" r:id="rId120"/>
+    <hyperlink ref="D38" display="metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.de-de.xlf" r:id="rId120"/>
     <hyperlink ref="A39" display="metaConfig4.md" r:id="rId121"/>
     <hyperlink ref="B39" display=".md" r:id="rId122"/>
-    <hyperlink ref="D39" display="metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.it-it.xlf" r:id="rId123"/>
+    <hyperlink ref="D39" display="metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.de-de.xlf" r:id="rId123"/>
     <hyperlink ref="A40" display="overview.md" r:id="rId124"/>
     <hyperlink ref="B40" display=".md" r:id="rId125"/>
-    <hyperlink ref="D40" display="overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.it-it.xlf" r:id="rId126"/>
+    <hyperlink ref="D40" display="overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.de-de.xlf" r:id="rId126"/>
     <hyperlink ref="A41" display="packageResource.md" r:id="rId127"/>
     <hyperlink ref="B41" display=".md" r:id="rId128"/>
-    <hyperlink ref="D41" display="packageResource.132c4949cee174dc0dc324456d220436cb9884e6.it-it.xlf" r:id="rId129"/>
+    <hyperlink ref="D41" display="packageResource.132c4949cee174dc0dc324456d220436cb9884e6.de-de.xlf" r:id="rId129"/>
     <hyperlink ref="A42" display="partialConfigs.md" r:id="rId130"/>
     <hyperlink ref="B42" display=".md" r:id="rId131"/>
-    <hyperlink ref="D42" display="partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.it-it.xlf" r:id="rId132"/>
+    <hyperlink ref="D42" display="partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.de-de.xlf" r:id="rId132"/>
     <hyperlink ref="A43" display="pullClient.md" r:id="rId133"/>
     <hyperlink ref="B43" display=".md" r:id="rId134"/>
-    <hyperlink ref="D43" display="pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.it-it.xlf" r:id="rId135"/>
+    <hyperlink ref="D43" display="pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.de-de.xlf" r:id="rId135"/>
     <hyperlink ref="A44" display="pullClientConfigID.md" r:id="rId136"/>
     <hyperlink ref="B44" display=".md" r:id="rId137"/>
-    <hyperlink ref="D44" display="pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.it-it.xlf" r:id="rId138"/>
+    <hyperlink ref="D44" display="pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.de-de.xlf" r:id="rId138"/>
     <hyperlink ref="A45" display="pullClientConfigID4.md" r:id="rId139"/>
     <hyperlink ref="B45" display=".md" r:id="rId140"/>
-    <hyperlink ref="D45" display="pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.it-it.xlf" r:id="rId141"/>
+    <hyperlink ref="D45" display="pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.de-de.xlf" r:id="rId141"/>
     <hyperlink ref="A46" display="pullClientConfigNames.md" r:id="rId142"/>
     <hyperlink ref="B46" display=".md" r:id="rId143"/>
-    <hyperlink ref="D46" display="pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.it-it.xlf" r:id="rId144"/>
+    <hyperlink ref="D46" display="pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.de-de.xlf" r:id="rId144"/>
     <hyperlink ref="A47" display="pullServer.md" r:id="rId145"/>
     <hyperlink ref="B47" display=".md" r:id="rId146"/>
-    <hyperlink ref="D47" display="pullServer.4b925b277da29998394af746bdbdd508fda48909.it-it.xlf" r:id="rId147"/>
+    <hyperlink ref="D47" display="pullServer.4b925b277da29998394af746bdbdd508fda48909.de-de.xlf" r:id="rId147"/>
     <hyperlink ref="A48" display="pullServerSMB.md" r:id="rId148"/>
     <hyperlink ref="B48" display=".md" r:id="rId149"/>
-    <hyperlink ref="D48" display="pullServerSMB.772aec5ae27ccb19ced78e3eb665a4e16db1c4df.it-it.xlf" r:id="rId150"/>
+    <hyperlink ref="D48" display="pullServerSMB.772aec5ae27ccb19ced78e3eb665a4e16db1c4df.de-de.xlf" r:id="rId150"/>
     <hyperlink ref="A49" display="queryServerNodes.md" r:id="rId151"/>
     <hyperlink ref="B49" display=".md" r:id="rId152"/>
-    <hyperlink ref="D49" display="queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.it-it.xlf" r:id="rId153"/>
+    <hyperlink ref="D49" display="queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.de-de.xlf" r:id="rId153"/>
     <hyperlink ref="A50" display="registryResource.md" r:id="rId154"/>
     <hyperlink ref="B50" display=".md" r:id="rId155"/>
-    <hyperlink ref="D50" display="registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.it-it.xlf" r:id="rId156"/>
+    <hyperlink ref="D50" display="registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.de-de.xlf" r:id="rId156"/>
     <hyperlink ref="A51" display="reportServer.md" r:id="rId157"/>
     <hyperlink ref="B51" display=".md" r:id="rId158"/>
-    <hyperlink ref="D51" display="reportServer.53df4bc8b7b80c0a19c11434bdf5f4304e8248f7.it-it.xlf" r:id="rId159"/>
+    <hyperlink ref="D51" display="reportServer.53df4bc8b7b80c0a19c11434bdf5f4304e8248f7.de-de.xlf" r:id="rId159"/>
     <hyperlink ref="A52" display="resourceAuthoringChecklist.md" r:id="rId160"/>
     <hyperlink ref="B52" display=".md" r:id="rId161"/>
-    <hyperlink ref="D52" display="resourceAuthoringChecklist.3b9ae254d826cc45519d37d06044f28a69bdfa69.it-it.xlf" r:id="rId162"/>
+    <hyperlink ref="D52" display="resourceAuthoringChecklist.3b9ae254d826cc45519d37d06044f28a69bdfa69.de-de.xlf" r:id="rId162"/>
     <hyperlink ref="A53" display="resources.md" r:id="rId163"/>
     <hyperlink ref="B53" display=".md" r:id="rId164"/>
-    <hyperlink ref="D53" display="resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.it-it.xlf" r:id="rId165"/>
+    <hyperlink ref="D53" display="resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.de-de.xlf" r:id="rId165"/>
     <hyperlink ref="A54" display="runAsUser.md" r:id="rId166"/>
     <hyperlink ref="B54" display=".md" r:id="rId167"/>
-    <hyperlink ref="D54" display="runAsUser.d2b90b6bc42ef965e454f9c9f5fd19bc7b488b34.it-it.xlf" r:id="rId168"/>
+    <hyperlink ref="D54" display="runAsUser.d2b90b6bc42ef965e454f9c9f5fd19bc7b488b34.de-de.xlf" r:id="rId168"/>
     <hyperlink ref="A55" display="scriptResource.md" r:id="rId169"/>
     <hyperlink ref="B55" display=".md" r:id="rId170"/>
-    <hyperlink ref="D55" display="scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.it-it.xlf" r:id="rId171"/>
+    <hyperlink ref="D55" display="scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.de-de.xlf" r:id="rId171"/>
     <hyperlink ref="A56" display="secureMOF.md" r:id="rId172"/>
     <hyperlink ref="B56" display=".md" r:id="rId173"/>
-    <hyperlink ref="D56" display="secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.it-it.xlf" r:id="rId174"/>
+    <hyperlink ref="D56" display="secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.de-de.xlf" r:id="rId174"/>
     <hyperlink ref="A57" display="secureServer.md" r:id="rId175"/>
     <hyperlink ref="B57" display=".md" r:id="rId176"/>
-    <hyperlink ref="D57" display="secureServer.ce207607010d18109152742ba23c923cd3cddba2.it-it.xlf" r:id="rId177"/>
+    <hyperlink ref="D57" display="secureServer.ce207607010d18109152742ba23c923cd3cddba2.de-de.xlf" r:id="rId177"/>
     <hyperlink ref="A58" display="serviceResource.md" r:id="rId178"/>
     <hyperlink ref="B58" display=".md" r:id="rId179"/>
-    <hyperlink ref="D58" display="serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.it-it.xlf" r:id="rId180"/>
+    <hyperlink ref="D58" display="serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.de-de.xlf" r:id="rId180"/>
     <hyperlink ref="A59" display="TOC.md" r:id="rId181"/>
     <hyperlink ref="B59" display=".md" r:id="rId182"/>
-    <hyperlink ref="D59" display="TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.it-it.xlf" r:id="rId183"/>
+    <hyperlink ref="D59" display="TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.de-de.xlf" r:id="rId183"/>
     <hyperlink ref="A60" display="troubleshooting.md" r:id="rId184"/>
     <hyperlink ref="B60" display=".md" r:id="rId185"/>
-    <hyperlink ref="D60" display="troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.it-it.xlf" r:id="rId186"/>
+    <hyperlink ref="D60" display="troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.de-de.xlf" r:id="rId186"/>
     <hyperlink ref="A61" display="userResource.md" r:id="rId187"/>
     <hyperlink ref="B61" display=".md" r:id="rId188"/>
-    <hyperlink ref="D61" display="userResource.5de4fbe03e9e06934442ba451eb0564931863f45.it-it.xlf" r:id="rId189"/>
+    <hyperlink ref="D61" display="userResource.5de4fbe03e9e06934442ba451eb0564931863f45.de-de.xlf" r:id="rId189"/>
     <hyperlink ref="A62" display="windowsfeatureResource.md" r:id="rId190"/>
     <hyperlink ref="B62" display=".md" r:id="rId191"/>
-    <hyperlink ref="D62" display="windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.it-it.xlf" r:id="rId192"/>
+    <hyperlink ref="D62" display="windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.de-de.xlf" r:id="rId192"/>
     <hyperlink ref="A63" display="windowsProcessResource.md" r:id="rId193"/>
     <hyperlink ref="B63" display=".md" r:id="rId194"/>
-    <hyperlink ref="D63" display="windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.it-it.xlf" r:id="rId195"/>
+    <hyperlink ref="D63" display="windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.de-de.xlf" r:id="rId195"/>
     <hyperlink ref="A64" display="audit_cms.md" r:id="rId196"/>
     <hyperlink ref="B64" display=".md" r:id="rId197"/>
-    <hyperlink ref="D64" display="audit_cms.3e422ca243ac938b46bfcf1497a703e55bde970e.it-it.xlf" r:id="rId198"/>
+    <hyperlink ref="D64" display="audit_cms.3e422ca243ac938b46bfcf1497a703e55bde970e.de-de.xlf" r:id="rId198"/>
     <hyperlink ref="A65" display="audit_overview.md" r:id="rId199"/>
     <hyperlink ref="B65" display=".md" r:id="rId200"/>
-    <hyperlink ref="D65" display="audit_overview.fc5b51e2734a2af986c9edf42b4395b1aad2435d.it-it.xlf" r:id="rId201"/>
+    <hyperlink ref="D65" display="audit_overview.fc5b51e2734a2af986c9edf42b4395b1aad2435d.de-de.xlf" r:id="rId201"/>
     <hyperlink ref="A66" display="audit_script.md" r:id="rId202"/>
     <hyperlink ref="B66" display=".md" r:id="rId203"/>
-    <hyperlink ref="D66" display="audit_script.e89f3a9316d1125e1efd23b41b756a3a6161016b.it-it.xlf" r:id="rId204"/>
+    <hyperlink ref="D66" display="audit_script.e89f3a9316d1125e1efd23b41b756a3a6161016b.de-de.xlf" r:id="rId204"/>
     <hyperlink ref="A67" display="audit_transcript.md" r:id="rId205"/>
     <hyperlink ref="B67" display=".md" r:id="rId206"/>
-    <hyperlink ref="D67" display="audit_transcript.c21a6554932939cbf4c744bf7c9f07cc4e1e7160.it-it.xlf" r:id="rId207"/>
+    <hyperlink ref="D67" display="audit_transcript.c21a6554932939cbf4c744bf7c9f07cc4e1e7160.de-de.xlf" r:id="rId207"/>
     <hyperlink ref="A68" display="class_base.md" r:id="rId208"/>
     <hyperlink ref="B68" display=".md" r:id="rId209"/>
-    <hyperlink ref="D68" display="class_base.29a9fbe4987503d5575c151f4271f58398cb7e55.it-it.xlf" r:id="rId210"/>
+    <hyperlink ref="D68" display="class_base.29a9fbe4987503d5575c151f4271f58398cb7e55.de-de.xlf" r:id="rId210"/>
     <hyperlink ref="A69" display="class_baseconstructor.md" r:id="rId211"/>
     <hyperlink ref="B69" display=".md" r:id="rId212"/>
-    <hyperlink ref="D69" display="class_baseconstructor.82f951e800b06ccc68090b1be9923c8210a233ac.it-it.xlf" r:id="rId213"/>
+    <hyperlink ref="D69" display="class_baseconstructor.82f951e800b06ccc68090b1be9923c8210a233ac.de-de.xlf" r:id="rId213"/>
     <hyperlink ref="A70" display="class_basemethod.md" r:id="rId214"/>
     <hyperlink ref="B70" display=".md" r:id="rId215"/>
-    <hyperlink ref="D70" display="class_basemethod.6b60292188d0081f30fbaf4b111db8a439348f5b.it-it.xlf" r:id="rId216"/>
+    <hyperlink ref="D70" display="class_basemethod.6b60292188d0081f30fbaf4b111db8a439348f5b.de-de.xlf" r:id="rId216"/>
     <hyperlink ref="A71" display="class_interface.md" r:id="rId217"/>
     <hyperlink ref="B71" display=".md" r:id="rId218"/>
-    <hyperlink ref="D71" display="class_interface.84a08fd30808364a820bdd4440de18ec4504a6c7.it-it.xlf" r:id="rId219"/>
+    <hyperlink ref="D71" display="class_interface.84a08fd30808364a820bdd4440de18ec4504a6c7.de-de.xlf" r:id="rId219"/>
     <hyperlink ref="A72" display="class_newtype.md" r:id="rId220"/>
     <hyperlink ref="B72" display=".md" r:id="rId221"/>
-    <hyperlink ref="D72" display="class_newtype.a9f52b670970046f8b1147d4ba646b73abb430dc.it-it.xlf" r:id="rId222"/>
+    <hyperlink ref="D72" display="class_newtype.a9f52b670970046f8b1147d4ba646b73abb430dc.de-de.xlf" r:id="rId222"/>
     <hyperlink ref="A73" display="class_overview.md" r:id="rId223"/>
     <hyperlink ref="B73" display=".md" r:id="rId224"/>
-    <hyperlink ref="D73" display="class_overview.91227b885afcb8df385ab601ab970b924eca2533.it-it.xlf" r:id="rId225"/>
+    <hyperlink ref="D73" display="class_overview.91227b885afcb8df385ab601ab970b924eca2533.de-de.xlf" r:id="rId225"/>
     <hyperlink ref="A74" display="debug_overview.md" r:id="rId226"/>
     <hyperlink ref="B74" display=".md" r:id="rId227"/>
-    <hyperlink ref="D74" display="debug_overview.70b71c20b8b625704c25da28a58e804a048bafb0.it-it.xlf" r:id="rId228"/>
+    <hyperlink ref="D74" display="debug_overview.70b71c20b8b625704c25da28a58e804a048bafb0.de-de.xlf" r:id="rId228"/>
     <hyperlink ref="A75" display="dsc_authoring.md" r:id="rId229"/>
     <hyperlink ref="B75" display=".md" r:id="rId230"/>
-    <hyperlink ref="D75" display="dsc_authoring.364878cde8f156d8999773842812e0c08f70191c.it-it.xlf" r:id="rId231"/>
+    <hyperlink ref="D75" display="dsc_authoring.364878cde8f156d8999773842812e0c08f70191c.de-de.xlf" r:id="rId231"/>
     <hyperlink ref="A76" display="dsc_classbasedresource.md" r:id="rId232"/>
     <hyperlink ref="B76" display=".md" r:id="rId233"/>
-    <hyperlink ref="D76" display="dsc_classbasedresource.a3d6b22652db939b51db1218584247396454ae0f.it-it.xlf" r:id="rId234"/>
+    <hyperlink ref="D76" display="dsc_classbasedresource.a3d6b22652db939b51db1218584247396454ae0f.de-de.xlf" r:id="rId234"/>
     <hyperlink ref="A77" display="dsc_confighelp.md" r:id="rId235"/>
     <hyperlink ref="B77" display=".md" r:id="rId236"/>
-    <hyperlink ref="D77" display="dsc_confighelp.bcfa7e85acae98499089edc9fba25b68953d7bbf.it-it.xlf" r:id="rId237"/>
+    <hyperlink ref="D77" display="dsc_confighelp.bcfa7e85acae98499089edc9fba25b68953d7bbf.de-de.xlf" r:id="rId237"/>
     <hyperlink ref="A78" display="dsc_directaccess.md" r:id="rId238"/>
     <hyperlink ref="B78" display=".md" r:id="rId239"/>
-    <hyperlink ref="D78" display="dsc_directaccess.014c91015162b26b678e0a5fdfd453a3bf6e41b0.it-it.xlf" r:id="rId240"/>
+    <hyperlink ref="D78" display="dsc_directaccess.014c91015162b26b678e0a5fdfd453a3bf6e41b0.de-de.xlf" r:id="rId240"/>
     <hyperlink ref="A79" display="dsc_encryptedmof.md" r:id="rId241"/>
     <hyperlink ref="B79" display=".md" r:id="rId242"/>
-    <hyperlink ref="D79" display="dsc_encryptedmof.a35c44de669ea81f25dd29f152f03493e52e327b.it-it.xlf" r:id="rId243"/>
+    <hyperlink ref="D79" display="dsc_encryptedmof.a35c44de669ea81f25dd29f152f03493e52e327b.de-de.xlf" r:id="rId243"/>
     <hyperlink ref="A80" display="dsc_freqnomultiple.md" r:id="rId244"/>
     <hyperlink ref="B80" display=".md" r:id="rId245"/>
-    <hyperlink ref="D80" display="dsc_freqnomultiple.2848e52c73280aca59e73136bac0c2c7ae02aad6.it-it.xlf" r:id="rId246"/>
+    <hyperlink ref="D80" display="dsc_freqnomultiple.2848e52c73280aca59e73136bac0c2c7ae02aad6.de-de.xlf" r:id="rId246"/>
     <hyperlink ref="A81" display="dsc_getconfigurationstatus.md" r:id="rId247"/>
     <hyperlink ref="B81" display=".md" r:id="rId248"/>
-    <hyperlink ref="D81" display="dsc_getconfigurationstatus.1705e4bcaa9dfd9d69f00aecdc7ef0d04bf44899.it-it.xlf" r:id="rId249"/>
+    <hyperlink ref="D81" display="dsc_getconfigurationstatus.1705e4bcaa9dfd9d69f00aecdc7ef0d04bf44899.de-de.xlf" r:id="rId249"/>
     <hyperlink ref="A82" display="dsc_identicalduplicate.md" r:id="rId250"/>
     <hyperlink ref="B82" display=".md" r:id="rId251"/>
-    <hyperlink ref="D82" display="dsc_identicalduplicate.eb7167ccd4a72d68aa1683327e9b3877927158ab.it-it.xlf" r:id="rId252"/>
+    <hyperlink ref="D82" display="dsc_identicalduplicate.eb7167ccd4a72d68aa1683327e9b3877927158ab.de-de.xlf" r:id="rId252"/>
     <hyperlink ref="A83" display="dsc_importdscresource.md" r:id="rId253"/>
     <hyperlink ref="B83" display=".md" r:id="rId254"/>
-    <hyperlink ref="D83" display="dsc_importdscresource.a0169ad862dfcaa5c958c07ecd52c856d5dc8436.it-it.xlf" r:id="rId255"/>
+    <hyperlink ref="D83" display="dsc_importdscresource.a0169ad862dfcaa5c958c07ecd52c856d5dc8436.de-de.xlf" r:id="rId255"/>
     <hyperlink ref="A84" display="dsc_improvements.md" r:id="rId256"/>
     <hyperlink ref="B84" display=".md" r:id="rId257"/>
-    <hyperlink ref="D84" display="dsc_improvements.d9ed6ffedf9d9650bb6b26b5ed611e420a0aacbb.it-it.xlf" r:id="rId258"/>
+    <hyperlink ref="D84" display="dsc_improvements.d9ed6ffedf9d9650bb6b26b5ed611e420a0aacbb.de-de.xlf" r:id="rId258"/>
     <hyperlink ref="A85" display="dsc_lcmstate.md" r:id="rId259"/>
     <hyperlink ref="B85" display=".md" r:id="rId260"/>
-    <hyperlink ref="D85" display="dsc_lcmstate.21ea1c36f37c94e8e0363199fbd07bcced3aea40.it-it.xlf" r:id="rId261"/>
+    <hyperlink ref="D85" display="dsc_lcmstate.21ea1c36f37c94e8e0363199fbd07bcced3aea40.de-de.xlf" r:id="rId261"/>
     <hyperlink ref="A86" display="dsc_metaconfiguration.md" r:id="rId262"/>
     <hyperlink ref="B86" display=".md" r:id="rId263"/>
-    <hyperlink ref="D86" display="dsc_metaconfiguration.e8bbca05aa1692ad54cadd83b93a1902f179f365.it-it.xlf" r:id="rId264"/>
+    <hyperlink ref="D86" display="dsc_metaconfiguration.e8bbca05aa1692ad54cadd83b93a1902f179f365.de-de.xlf" r:id="rId264"/>
     <hyperlink ref="A87" display="dsc_newresources.md" r:id="rId265"/>
     <hyperlink ref="B87" display=".md" r:id="rId266"/>
-    <hyperlink ref="D87" display="dsc_newresources.b9c40f591f875ea205c834f7675f3edbe1050592.it-it.xlf" r:id="rId267"/>
+    <hyperlink ref="D87" display="dsc_newresources.b9c40f591f875ea205c834f7675f3edbe1050592.de-de.xlf" r:id="rId267"/>
     <hyperlink ref="A88" display="dsc_nodeid.md" r:id="rId268"/>
     <hyperlink ref="B88" display=".md" r:id="rId269"/>
-    <hyperlink ref="D88" display="dsc_nodeid.e3c9049aa6c1d151f8b286f28502537b2f8d22a4.it-it.xlf" r:id="rId270"/>
+    <hyperlink ref="D88" display="dsc_nodeid.e3c9049aa6c1d151f8b286f28502537b2f8d22a4.de-de.xlf" r:id="rId270"/>
     <hyperlink ref="A89" display="dsc_partialconfig.md" r:id="rId271"/>
     <hyperlink ref="B89" display=".md" r:id="rId272"/>
-    <hyperlink ref="D89" display="dsc_partialconfig.a493787c3f8663ac3e2994162ffd1bee429544d3.it-it.xlf" r:id="rId273"/>
+    <hyperlink ref="D89" display="dsc_partialconfig.a493787c3f8663ac3e2994162ffd1bee429544d3.de-de.xlf" r:id="rId273"/>
     <hyperlink ref="A90" display="dsc_partialconfig_mixedmode.md" r:id="rId274"/>
     <hyperlink ref="B90" display=".md" r:id="rId275"/>
-    <hyperlink ref="D90" display="dsc_partialconfig_mixedmode.ff4b9a8a421441da62574192650493bf2407028d.it-it.xlf" r:id="rId276"/>
+    <hyperlink ref="D90" display="dsc_partialconfig_mixedmode.ff4b9a8a421441da62574192650493bf2407028d.de-de.xlf" r:id="rId276"/>
     <hyperlink ref="A91" display="dsc_publishconfig.md" r:id="rId277"/>
     <hyperlink ref="B91" display=".md" r:id="rId278"/>
-    <hyperlink ref="D91" display="dsc_publishconfig.bfe86d4253abdd777c205caec637c50ec79103ee.it-it.xlf" r:id="rId279"/>
+    <hyperlink ref="D91" display="dsc_publishconfig.bfe86d4253abdd777c205caec637c50ec79103ee.de-de.xlf" r:id="rId279"/>
     <hyperlink ref="A92" display="dsc_refreshmode.md" r:id="rId280"/>
     <hyperlink ref="B92" display=".md" r:id="rId281"/>
-    <hyperlink ref="D92" display="dsc_refreshmode.b0529a06a4d3e07b3fce300f74760d63b27523f6.it-it.xlf" r:id="rId282"/>
+    <hyperlink ref="D92" display="dsc_refreshmode.b0529a06a4d3e07b3fce300f74760d63b27523f6.de-de.xlf" r:id="rId282"/>
     <hyperlink ref="A93" display="dsc_removeconfigdoc.md" r:id="rId283"/>
     <hyperlink ref="B93" display=".md" r:id="rId284"/>
-    <hyperlink ref="D93" display="dsc_removeconfigdoc.d16cdab7eaedf468bcc38dae34e93be26a204318.it-it.xlf" r:id="rId285"/>
+    <hyperlink ref="D93" display="dsc_removeconfigdoc.d16cdab7eaedf468bcc38dae34e93be26a204318.de-de.xlf" r:id="rId285"/>
     <hyperlink ref="A94" display="dsc_reporting.md" r:id="rId286"/>
     <hyperlink ref="B94" display=".md" r:id="rId287"/>
-    <hyperlink ref="D94" display="dsc_reporting.b042cd21b9bcfc8e50bc361ddee59333602fad42.it-it.xlf" r:id="rId288"/>
+    <hyperlink ref="D94" display="dsc_reporting.b042cd21b9bcfc8e50bc361ddee59333602fad42.de-de.xlf" r:id="rId288"/>
     <hyperlink ref="A95" display="dsc_repository.md" r:id="rId289"/>
     <hyperlink ref="B95" display=".md" r:id="rId290"/>
-    <hyperlink ref="D95" display="dsc_repository.ec5040a823a6b64e969393e00f3d859fd0b4551c.it-it.xlf" r:id="rId291"/>
+    <hyperlink ref="D95" display="dsc_repository.ec5040a823a6b64e969393e00f3d859fd0b4551c.de-de.xlf" r:id="rId291"/>
     <hyperlink ref="A96" display="dsc_resourcedebugging.md" r:id="rId292"/>
     <hyperlink ref="B96" display=".md" r:id="rId293"/>
-    <hyperlink ref="D96" display="dsc_resourcedebugging.95c69e55eb065b349f52e18126d699b1906ba03f.it-it.xlf" r:id="rId294"/>
+    <hyperlink ref="D96" display="dsc_resourcedebugging.95c69e55eb065b349f52e18126d699b1906ba03f.de-de.xlf" r:id="rId294"/>
     <hyperlink ref="A97" display="dsc_runas.md" r:id="rId295"/>
     <hyperlink ref="B97" display=".md" r:id="rId296"/>
-    <hyperlink ref="D97" display="dsc_runas.9e19a42a6d5e1ea1772358a6fd8ff24b98a5b6ba.it-it.xlf" r:id="rId297"/>
+    <hyperlink ref="D97" display="dsc_runas.9e19a42a6d5e1ea1772358a6fd8ff24b98a5b6ba.de-de.xlf" r:id="rId297"/>
     <hyperlink ref="A98" display="dsc_setdsclcm.md" r:id="rId298"/>
     <hyperlink ref="B98" display=".md" r:id="rId299"/>
-    <hyperlink ref="D98" display="dsc_setdsclcm.1f0e3cab81cf5fc1feda678f202451fe150632e3.it-it.xlf" r:id="rId300"/>
+    <hyperlink ref="D98" display="dsc_setdsclcm.1f0e3cab81cf5fc1feda678f202451fe150632e3.de-de.xlf" r:id="rId300"/>
     <hyperlink ref="A99" display="dsc_statestatus.md" r:id="rId301"/>
     <hyperlink ref="B99" display=".md" r:id="rId302"/>
-    <hyperlink ref="D99" display="dsc_statestatus.b6f3670f776a8f63a705ba16bed2f20be34fc48f.it-it.xlf" r:id="rId303"/>
+    <hyperlink ref="D99" display="dsc_statestatus.b6f3670f776a8f63a705ba16bed2f20be34fc48f.de-de.xlf" r:id="rId303"/>
     <hyperlink ref="A100" display="dsc_sxsresource.md" r:id="rId304"/>
     <hyperlink ref="B100" display=".md" r:id="rId305"/>
-    <hyperlink ref="D100" display="dsc_sxsresource.c9d4ce6109370ac1cbc1fb07f191e02f9a61d5d3.it-it.xlf" r:id="rId306"/>
+    <hyperlink ref="D100" display="dsc_sxsresource.c9d4ce6109370ac1cbc1fb07f191e02f9a61d5d3.de-de.xlf" r:id="rId306"/>
     <hyperlink ref="A101" display="dsc_testconfiguration.md" r:id="rId307"/>
     <hyperlink ref="B101" display=".md" r:id="rId308"/>
-    <hyperlink ref="D101" display="dsc_testconfiguration.b0e5afe2c8f173ebe49c97c9ea9a2f11d81ea5fa.it-it.xlf" r:id="rId309"/>
+    <hyperlink ref="D101" display="dsc_testconfiguration.b0e5afe2c8f173ebe49c97c9ea9a2f11d81ea5fa.de-de.xlf" r:id="rId309"/>
     <hyperlink ref="A102" display="dsc_updateconfig.md" r:id="rId310"/>
     <hyperlink ref="B102" display=".md" r:id="rId311"/>
-    <hyperlink ref="D102" display="dsc_updateconfig.a07eb85e3458d42d7ab1ed5c57dcfc70df709d07.it-it.xlf" r:id="rId312"/>
+    <hyperlink ref="D102" display="dsc_updateconfig.a07eb85e3458d42d7ab1ed5c57dcfc70df709d07.de-de.xlf" r:id="rId312"/>
     <hyperlink ref="A103" display="dsc_waitfor.md" r:id="rId313"/>
     <hyperlink ref="B103" display=".md" r:id="rId314"/>
-    <hyperlink ref="D103" display="dsc_waitfor.2b09933f08f1020166ce0f0cd7548a5a3845c48f.it-it.xlf" r:id="rId315"/>
+    <hyperlink ref="D103" display="dsc_waitfor.2b09933f08f1020166ce0f0cd7548a5a3845c48f.de-de.xlf" r:id="rId315"/>
     <hyperlink ref="A104" display="dsc_wow64.md" r:id="rId316"/>
     <hyperlink ref="B104" display=".md" r:id="rId317"/>
-    <hyperlink ref="D104" display="dsc_wow64.ea039aaa1bd77415311fc30d80fed43cda07a6e3.it-it.xlf" r:id="rId318"/>
+    <hyperlink ref="D104" display="dsc_wow64.ea039aaa1bd77415311fc30d80fed43cda07a6e3.de-de.xlf" r:id="rId318"/>
     <hyperlink ref="A105" display="feedback.md" r:id="rId319"/>
     <hyperlink ref="B105" display=".md" r:id="rId320"/>
-    <hyperlink ref="D105" display="feedback.3662230166299ef7c1fb7a7a7f5cdbd64b1d812a.it-it.xlf" r:id="rId321"/>
+    <hyperlink ref="D105" display="feedback.3662230166299ef7c1fb7a7a7f5cdbd64b1d812a.de-de.xlf" r:id="rId321"/>
     <hyperlink ref="A106" display="feedback_archive.md" r:id="rId322"/>
     <hyperlink ref="B106" display=".md" r:id="rId323"/>
-    <hyperlink ref="D106" display="feedback_archive.20de26911a704368058401c7e2bd6ebaac692ff5.it-it.xlf" r:id="rId324"/>
+    <hyperlink ref="D106" display="feedback_archive.20de26911a704368058401c7e2bd6ebaac692ff5.de-de.xlf" r:id="rId324"/>
     <hyperlink ref="A107" display="feedback_clipboard.md" r:id="rId325"/>
     <hyperlink ref="B107" display=".md" r:id="rId326"/>
-    <hyperlink ref="D107" display="feedback_clipboard.872e5c147ef02cb86067651f41e3c00b55386664.it-it.xlf" r:id="rId327"/>
+    <hyperlink ref="D107" display="feedback_clipboard.872e5c147ef02cb86067651f41e3c00b55386664.de-de.xlf" r:id="rId327"/>
     <hyperlink ref="A108" display="feedback_cmdlets.md" r:id="rId328"/>
     <hyperlink ref="B108" display=".md" r:id="rId329"/>
-    <hyperlink ref="D108" display="feedback_cmdlets.a4c0dfb806ca0da232eeb75ad3706177b8a5ec48.it-it.xlf" r:id="rId330"/>
+    <hyperlink ref="D108" display="feedback_cmdlets.a4c0dfb806ca0da232eeb75ad3706177b8a5ec48.de-de.xlf" r:id="rId330"/>
     <hyperlink ref="A109" display="feedback_convertfromString.md" r:id="rId331"/>
     <hyperlink ref="B109" display=".md" r:id="rId332"/>
-    <hyperlink ref="D109" display="feedback_convertfromString.acdeaa33e8fa59b93649b6abf3a7d5ef64fb7664.it-it.xlf" r:id="rId333"/>
+    <hyperlink ref="D109" display="feedback_convertfromString.acdeaa33e8fa59b93649b6abf3a7d5ef64fb7664.de-de.xlf" r:id="rId333"/>
     <hyperlink ref="A110" display="feedback_convertstring.md" r:id="rId334"/>
     <hyperlink ref="B110" display=".md" r:id="rId335"/>
-    <hyperlink ref="D110" display="feedback_convertstring.42e964e30093962871c3a4d586ed6c54f25f840d.it-it.xlf" r:id="rId336"/>
+    <hyperlink ref="D110" display="feedback_convertstring.42e964e30093962871c3a4d586ed6c54f25f840d.de-de.xlf" r:id="rId336"/>
     <hyperlink ref="A111" display="feedback_fileinfo.md" r:id="rId337"/>
     <hyperlink ref="B111" display=".md" r:id="rId338"/>
-    <hyperlink ref="D111" display="feedback_fileinfo.0192edad2d6504d26a9632f95fc9e5b66ffd8003.it-it.xlf" r:id="rId339"/>
+    <hyperlink ref="D111" display="feedback_fileinfo.0192edad2d6504d26a9632f95fc9e5b66ffd8003.de-de.xlf" r:id="rId339"/>
     <hyperlink ref="A112" display="feedback_formathex.md" r:id="rId340"/>
     <hyperlink ref="B112" display=".md" r:id="rId341"/>
-    <hyperlink ref="D112" display="feedback_formathex.f97931c887efb620e5f4314facc1f0e20e3dffbe.it-it.xlf" r:id="rId342"/>
+    <hyperlink ref="D112" display="feedback_formathex.f97931c887efb620e5f4314facc1f0e20e3dffbe.de-de.xlf" r:id="rId342"/>
     <hyperlink ref="A113" display="feedback_getchilditem.md" r:id="rId343"/>
     <hyperlink ref="B113" display=".md" r:id="rId344"/>
-    <hyperlink ref="D113" display="feedback_getchilditem.ce02ca20cc4417a80fe65eb509a8e92f2cecc79c.it-it.xlf" r:id="rId345"/>
+    <hyperlink ref="D113" display="feedback_getchilditem.ce02ca20cc4417a80fe65eb509a8e92f2cecc79c.de-de.xlf" r:id="rId345"/>
     <hyperlink ref="A114" display="feedback_moduleversionranges.md" r:id="rId346"/>
     <hyperlink ref="B114" display=".md" r:id="rId347"/>
-    <hyperlink ref="D114" display="feedback_moduleversionranges.611b3a3219d64dbfa1d01541b60a727b880a0c4b.it-it.xlf" r:id="rId348"/>
+    <hyperlink ref="D114" display="feedback_moduleversionranges.611b3a3219d64dbfa1d01541b60a727b880a0c4b.de-de.xlf" r:id="rId348"/>
     <hyperlink ref="A115" display="feedback_newguid.md" r:id="rId349"/>
     <hyperlink ref="B115" display=".md" r:id="rId350"/>
-    <hyperlink ref="D115" display="feedback_newguid.f8756fbdb96e6fe06a7e0cbb6ac4af32b1c64983.it-it.xlf" r:id="rId351"/>
+    <hyperlink ref="D115" display="feedback_newguid.f8756fbdb96e6fe06a7e0cbb6ac4af32b1c64983.de-de.xlf" r:id="rId351"/>
     <hyperlink ref="A116" display="feedback_nonewline.md" r:id="rId352"/>
     <hyperlink ref="B116" display=".md" r:id="rId353"/>
-    <hyperlink ref="D116" display="feedback_nonewline.7a9b7e24c50399879089bba2b8eee7dc325572e2.it-it.xlf" r:id="rId354"/>
+    <hyperlink ref="D116" display="feedback_nonewline.7a9b7e24c50399879089bba2b8eee7dc325572e2.de-de.xlf" r:id="rId354"/>
     <hyperlink ref="A117" display="feedback_symbolic.md" r:id="rId355"/>
     <hyperlink ref="B117" display=".md" r:id="rId356"/>
-    <hyperlink ref="D117" display="feedback_symbolic.1c3ac8128fb9df60512ec024044d48be7d0cb59f.it-it.xlf" r:id="rId357"/>
+    <hyperlink ref="D117" display="feedback_symbolic.1c3ac8128fb9df60512ec024044d48be7d0cb59f.de-de.xlf" r:id="rId357"/>
     <hyperlink ref="A118" display="feedback_tempfile.md" r:id="rId358"/>
     <hyperlink ref="B118" display=".md" r:id="rId359"/>
-    <hyperlink ref="D118" display="feedback_tempfile.fc029065af6bbba3a8c4abbf36023bede7d1416d.it-it.xlf" r:id="rId360"/>
+    <hyperlink ref="D118" display="feedback_tempfile.fc029065af6bbba3a8c4abbf36023bede7d1416d.de-de.xlf" r:id="rId360"/>
     <hyperlink ref="A119" display="DscResourceDebugging.jpg" r:id="rId361"/>
     <hyperlink ref="B119" display=".jpg" r:id="rId362"/>
     <hyperlink ref="D119" display="ba1897f38317f5fe38f2d8caf0efcc57bc8bb19d.jpg" r:id="rId363"/>
@@ -6655,76 +6661,76 @@
     <hyperlink ref="D121" display="9a44a53029d37d4165bbffbdcaa79d9be76e5fac.jpg" r:id="rId369"/>
     <hyperlink ref="A122" display="informationstream_overview.md" r:id="rId370"/>
     <hyperlink ref="B122" display=".md" r:id="rId371"/>
-    <hyperlink ref="D122" display="informationstream_overview.d2f238b2b4021ccdb7271cf89f53d58970d56cf5.it-it.xlf" r:id="rId372"/>
+    <hyperlink ref="D122" display="informationstream_overview.d2f238b2b4021ccdb7271cf89f53d58970d56cf5.de-de.xlf" r:id="rId372"/>
     <hyperlink ref="A123" display="install.md" r:id="rId373"/>
     <hyperlink ref="B123" display=".md" r:id="rId374"/>
-    <hyperlink ref="D123" display="install.317fc924c0f766547c4725878af59c3c9d8facba.it-it.xlf" r:id="rId375"/>
+    <hyperlink ref="D123" display="install.317fc924c0f766547c4725878af59c3c9d8facba.de-de.xlf" r:id="rId375"/>
     <hyperlink ref="A124" display="jea_endpoint.md" r:id="rId376"/>
     <hyperlink ref="B124" display=".md" r:id="rId377"/>
-    <hyperlink ref="D124" display="jea_endpoint.1dc052fe583a907a6c090cf8bfd42293d94d2975.it-it.xlf" r:id="rId378"/>
+    <hyperlink ref="D124" display="jea_endpoint.1dc052fe583a907a6c090cf8bfd42293d94d2975.de-de.xlf" r:id="rId378"/>
     <hyperlink ref="A125" display="jea_overview.md" r:id="rId379"/>
     <hyperlink ref="B125" display=".md" r:id="rId380"/>
-    <hyperlink ref="D125" display="jea_overview.3fa3008e719be8235adffe51808ac66714940871.it-it.xlf" r:id="rId381"/>
+    <hyperlink ref="D125" display="jea_overview.3fa3008e719be8235adffe51808ac66714940871.de-de.xlf" r:id="rId381"/>
     <hyperlink ref="A126" display="jea_report.md" r:id="rId382"/>
     <hyperlink ref="B126" display=".md" r:id="rId383"/>
-    <hyperlink ref="D126" display="jea_report.7860cec6e93b7405844ccbbe5bc879921447ac0b.it-it.xlf" r:id="rId384"/>
+    <hyperlink ref="D126" display="jea_report.7860cec6e93b7405844ccbbe5bc879921447ac0b.de-de.xlf" r:id="rId384"/>
     <hyperlink ref="A127" display="limitation_dsc.md" r:id="rId385"/>
     <hyperlink ref="B127" display=".md" r:id="rId386"/>
-    <hyperlink ref="D127" display="limitation_dsc.3684c81bb088cba98089dffdb1a1e56e1c098335.it-it.xlf" r:id="rId387"/>
+    <hyperlink ref="D127" display="limitation_dsc.3684c81bb088cba98089dffdb1a1e56e1c098335.de-de.xlf" r:id="rId387"/>
     <hyperlink ref="A128" display="limitation_overview.md" r:id="rId388"/>
     <hyperlink ref="B128" display=".md" r:id="rId389"/>
-    <hyperlink ref="D128" display="limitation_overview.6cc9c8c028f5912636637d836aed7db0614de522.it-it.xlf" r:id="rId390"/>
+    <hyperlink ref="D128" display="limitation_overview.6cc9c8c028f5912636637d836aed7db0614de522.de-de.xlf" r:id="rId390"/>
     <hyperlink ref="A129" display="networkswitch_overview.md" r:id="rId391"/>
     <hyperlink ref="B129" display=".md" r:id="rId392"/>
-    <hyperlink ref="D129" display="networkswitch_overview.7a87eb0741cd43b8b9284ea6cb605920c4961b79.it-it.xlf" r:id="rId393"/>
+    <hyperlink ref="D129" display="networkswitch_overview.7a87eb0741cd43b8b9284ea6cb605920c4961b79.de-de.xlf" r:id="rId393"/>
     <hyperlink ref="A130" display="odata_overview.md" r:id="rId394"/>
     <hyperlink ref="B130" display=".md" r:id="rId395"/>
-    <hyperlink ref="D130" display="odata_overview.c3f7efdde29fe7ac5685a61cd61d75b65524a4c3.it-it.xlf" r:id="rId396"/>
+    <hyperlink ref="D130" display="odata_overview.c3f7efdde29fe7ac5685a61cd61d75b65524a4c3.de-de.xlf" r:id="rId396"/>
     <hyperlink ref="A131" display="oneget_cmdlets.md" r:id="rId397"/>
     <hyperlink ref="B131" display=".md" r:id="rId398"/>
-    <hyperlink ref="D131" display="oneget_cmdlets.469b2350a72495ac2cf62e4130b4df8036f5d135.it-it.xlf" r:id="rId399"/>
+    <hyperlink ref="D131" display="oneget_cmdlets.469b2350a72495ac2cf62e4130b4df8036f5d135.de-de.xlf" r:id="rId399"/>
     <hyperlink ref="A132" display="oneget_overview.md" r:id="rId400"/>
     <hyperlink ref="B132" display=".md" r:id="rId401"/>
-    <hyperlink ref="D132" display="oneget_overview.e71a25f36f957ab7471d259c6e716651f6f23c94.it-it.xlf" r:id="rId402"/>
+    <hyperlink ref="D132" display="oneget_overview.e71a25f36f957ab7471d259c6e716651f6f23c94.de-de.xlf" r:id="rId402"/>
     <hyperlink ref="A133" display="productincompat.md" r:id="rId403"/>
     <hyperlink ref="B133" display=".md" r:id="rId404"/>
-    <hyperlink ref="D133" display="productincompat.62bb00299c0283b5297001553476a745e28a49cb.it-it.xlf" r:id="rId405"/>
+    <hyperlink ref="D133" display="productincompat.62bb00299c0283b5297001553476a745e28a49cb.de-de.xlf" r:id="rId405"/>
     <hyperlink ref="A134" display="psget_module_overview.md" r:id="rId406"/>
     <hyperlink ref="B134" display=".md" r:id="rId407"/>
-    <hyperlink ref="D134" display="psget_module_overview.4149c468ffd0f17a2fabd03f90059c12effc3170.it-it.xlf" r:id="rId408"/>
+    <hyperlink ref="D134" display="psget_module_overview.4149c468ffd0f17a2fabd03f90059c12effc3170.de-de.xlf" r:id="rId408"/>
     <hyperlink ref="A135" display="psget_modulecmdlets.md" r:id="rId409"/>
     <hyperlink ref="B135" display=".md" r:id="rId410"/>
-    <hyperlink ref="D135" display="psget_modulecmdlets.1f808cfdf9a9aa920f88e15f7f5fa4701fe805e3.it-it.xlf" r:id="rId411"/>
+    <hyperlink ref="D135" display="psget_modulecmdlets.1f808cfdf9a9aa920f88e15f7f5fa4701fe805e3.de-de.xlf" r:id="rId411"/>
     <hyperlink ref="A136" display="psget_moduledependency.md" r:id="rId412"/>
     <hyperlink ref="B136" display=".md" r:id="rId413"/>
-    <hyperlink ref="D136" display="psget_moduledependency.89ba9310335ae64db5481a3c02034ac4fe01b6a2.it-it.xlf" r:id="rId414"/>
+    <hyperlink ref="D136" display="psget_moduledependency.89ba9310335ae64db5481a3c02034ac4fe01b6a2.de-de.xlf" r:id="rId414"/>
     <hyperlink ref="A137" display="psget_modulesxsinstall.md" r:id="rId415"/>
     <hyperlink ref="B137" display=".md" r:id="rId416"/>
-    <hyperlink ref="D137" display="psget_modulesxsinstall.110ba80d8f917899ef488b46bd15f5654f6ba06c.it-it.xlf" r:id="rId417"/>
+    <hyperlink ref="D137" display="psget_modulesxsinstall.110ba80d8f917899ef488b46bd15f5654f6ba06c.de-de.xlf" r:id="rId417"/>
     <hyperlink ref="A138" display="psget_psrepository.md" r:id="rId418"/>
     <hyperlink ref="B138" display=".md" r:id="rId419"/>
-    <hyperlink ref="D138" display="psget_psrepository.c4381b2ff7bb6496ab74ed8bb2b07325cfbfc056.it-it.xlf" r:id="rId420"/>
+    <hyperlink ref="D138" display="psget_psrepository.c4381b2ff7bb6496ab74ed8bb2b07325cfbfc056.de-de.xlf" r:id="rId420"/>
     <hyperlink ref="A139" display="psget_script_overview.md" r:id="rId421"/>
     <hyperlink ref="B139" display=".md" r:id="rId422"/>
-    <hyperlink ref="D139" display="psget_script_overview.f035cc99497d17dc73e3a61f214e40a5860fc70a.it-it.xlf" r:id="rId423"/>
+    <hyperlink ref="D139" display="psget_script_overview.f035cc99497d17dc73e3a61f214e40a5860fc70a.de-de.xlf" r:id="rId423"/>
     <hyperlink ref="A140" display="psget_scriptcmdlets.md" r:id="rId424"/>
     <hyperlink ref="B140" display=".md" r:id="rId425"/>
-    <hyperlink ref="D140" display="psget_scriptcmdlets.1762d5f29292d59c1afb37cb29eb11a34cf63990.it-it.xlf" r:id="rId426"/>
+    <hyperlink ref="D140" display="psget_scriptcmdlets.1762d5f29292d59c1afb37cb29eb11a34cf63990.de-de.xlf" r:id="rId426"/>
     <hyperlink ref="A141" display="releasenotes.md" r:id="rId427"/>
     <hyperlink ref="B141" display=".md" r:id="rId428"/>
-    <hyperlink ref="D141" display="releasenotes.311750b4da54b1d4ef7997b328edd6ff177fb71f.it-it.xlf" r:id="rId429"/>
+    <hyperlink ref="D141" display="releasenotes.311750b4da54b1d4ef7997b328edd6ff177fb71f.de-de.xlf" r:id="rId429"/>
     <hyperlink ref="A142" display="requirements.md" r:id="rId430"/>
     <hyperlink ref="B142" display=".md" r:id="rId431"/>
-    <hyperlink ref="D142" display="requirements.ef8332f358d65b1759bfd4c7336b11d1dc8c2d46.it-it.xlf" r:id="rId432"/>
+    <hyperlink ref="D142" display="requirements.ef8332f358d65b1759bfd4c7336b11d1dc8c2d46.de-de.xlf" r:id="rId432"/>
     <hyperlink ref="A143" display="sil_overview.md" r:id="rId433"/>
     <hyperlink ref="B143" display=".md" r:id="rId434"/>
-    <hyperlink ref="D143" display="sil_overview.a2b1f7c716aad317993a5eaffba21fa28ce0c0d8.it-it.xlf" r:id="rId435"/>
+    <hyperlink ref="D143" display="sil_overview.a2b1f7c716aad317993a5eaffba21fa28ce0c0d8.de-de.xlf" r:id="rId435"/>
     <hyperlink ref="A144" display="TOC.md" r:id="rId436"/>
     <hyperlink ref="B144" display=".md" r:id="rId437"/>
-    <hyperlink ref="D144" display="TOC.60497266061c38453b3db893ec675eb65584af89.it-it.xlf" r:id="rId438"/>
+    <hyperlink ref="D144" display="TOC.60497266061c38453b3db893ec675eb65584af89.de-de.xlf" r:id="rId438"/>
     <hyperlink ref="A145" display="uninstall.md" r:id="rId439"/>
     <hyperlink ref="B145" display=".md" r:id="rId440"/>
-    <hyperlink ref="D145" display="uninstall.b07adaaaf7f41869dfa201b88e29342aced76c96.it-it.xlf" r:id="rId441"/>
+    <hyperlink ref="D145" display="uninstall.b07adaaaf7f41869dfa201b88e29342aced76c96.de-de.xlf" r:id="rId441"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/PowerShell/powerShell-Docs/live/localization-status.xlsx
+++ b/ol-handback/PowerShell/powerShell-Docs/live/localization-status.xlsx
@@ -6,19 +6,19 @@
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId2"/>
-    <sheet name="de-de" sheetId="2" r:id="rId3"/>
+    <sheet name="zh-tw" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="334">
   <si>
     <t>File Name</t>
   </si>
   <si>
-    <t>de-de</t>
+    <t>zh-tw</t>
   </si>
   <si>
     <t>Latest Handoff Date</t>
@@ -30,7 +30,7 @@
     <t>Handed back: in sync with en-US</t>
   </si>
   <si>
-    <t>2016-02-11 01:02:28</t>
+    <t>2016-03-11 01:03:15</t>
   </si>
   <si>
     <t>PartialConfigPullServer.jpg</t>
@@ -42,25 +42,22 @@
     <t>Push.png</t>
   </si>
   <si>
+    <t>archiveResource.md</t>
+  </si>
+  <si>
+    <t>Ready for handoff</t>
+  </si>
+  <si>
+    <t>2016-02-23 03:02:16</t>
+  </si>
+  <si>
     <t>authoringResource.md</t>
   </si>
   <si>
-    <t>In Translation</t>
-  </si>
-  <si>
-    <t>2016-01-23 03:01:20</t>
-  </si>
-  <si>
-    <t>archiveResource.md</t>
-  </si>
-  <si>
-    <t>Ready for handoff</t>
-  </si>
-  <si>
     <t>authoringResourceClass.md</t>
   </si>
   <si>
-    <t>2016-52-02 17:52:44</t>
+    <t>2016-53-02 17:53:09</t>
   </si>
   <si>
     <t>authoringResourceComposite.md</t>
@@ -90,13 +87,13 @@
     <t>debugResource.md</t>
   </si>
   <si>
-    <t>2016-42-10 21:42:08</t>
+    <t>2016-42-10 21:42:57</t>
   </si>
   <si>
     <t>decisionMaker.md</t>
   </si>
   <si>
-    <t>2016-31-07 19:31:26</t>
+    <t>2016-32-07 19:32:08</t>
   </si>
   <si>
     <t>enactingConfigurations.md</t>
@@ -135,7 +132,7 @@
     <t>lnxGettingStarted.md</t>
   </si>
   <si>
-    <t>2016-32-10 20:32:18</t>
+    <t>2016-33-10 20:33:03</t>
   </si>
   <si>
     <t>lnxGroupResource.md</t>
@@ -183,7 +180,7 @@
     <t>pullClientConfigID4.md</t>
   </si>
   <si>
-    <t>2016-01-09 20:01:41</t>
+    <t>2016-02-09 20:02:31</t>
   </si>
   <si>
     <t>pullClientConfigNames.md</t>
@@ -192,7 +189,7 @@
     <t>pullServer.md</t>
   </si>
   <si>
-    <t>2016-51-16 22:51:51</t>
+    <t>2016-52-16 22:52:01</t>
   </si>
   <si>
     <t>pullServerSMB.md</t>
@@ -234,7 +231,7 @@
     <t>troubleshooting.md</t>
   </si>
   <si>
-    <t>2016-11-04 21:11:35</t>
+    <t>2016-12-04 21:12:03</t>
   </si>
   <si>
     <t>userResource.md</t>
@@ -249,7 +246,7 @@
     <t>audit_cms.md</t>
   </si>
   <si>
-    <t>2016-12-08 01:12:00</t>
+    <t>2016-13-08 01:13:30</t>
   </si>
   <si>
     <t>audit_overview.md</t>
@@ -531,10 +528,7 @@
     <t>3e61149f7b05f74d662d3038233013ffdcbed1a3.jpg</t>
   </si>
   <si>
-    <t>2016-03-11 01:02:28</t>
-  </si>
-  <si>
-    <t>2016-03-17 02:07:40</t>
+    <t>2016-03-17 04:12:10</t>
   </si>
   <si>
     <t>IsDependency</t>
@@ -561,10 +555,7 @@
     <t>.md</t>
   </si>
   <si>
-    <t>authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-02-23 03:01:20</t>
+    <t>archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.zh-tw.xlf</t>
   </si>
   <si>
     <t>0001-01-01 00:00:00</t>
@@ -573,64 +564,64 @@
     <t>Include</t>
   </si>
   <si>
-    <t>archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.de-de.xlf</t>
-  </si>
-  <si>
-    <t>authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-02 17:52:44</t>
-  </si>
-  <si>
-    <t>authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.de-de.xlf</t>
-  </si>
-  <si>
-    <t>authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.de-de.xlf</t>
-  </si>
-  <si>
-    <t>authoringResourceMofCS.0647b27b00ec52b2f524a2856e48bc7c29c0f867.de-de.xlf</t>
-  </si>
-  <si>
-    <t>authoringResourceMofDesigner.09b1adffc4afb0d9b1154880e2dab0b25d82d51b.de-de.xlf</t>
-  </si>
-  <si>
-    <t>builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.de-de.xlf</t>
-  </si>
-  <si>
-    <t>configData.51d01a46dd9af8b425788cc485523b09f8470b95.de-de.xlf</t>
-  </si>
-  <si>
-    <t>configDataCredentials.f3e75119e7d93b2f914823c5ea23bfde3935a874.de-de.xlf</t>
-  </si>
-  <si>
-    <t>configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.de-de.xlf</t>
-  </si>
-  <si>
-    <t>debugResource.ac634156affe5c723cc149a298f5aa4268d17016.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-10 21:42:08</t>
-  </si>
-  <si>
-    <t>decisionMaker.01553169f2ba4241995260fad925e2784b5f5567.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-07 19:31:26</t>
-  </si>
-  <si>
-    <t>enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.de-de.xlf</t>
-  </si>
-  <si>
-    <t>environmentResource.eb91ffd4cd8bdb9476e5a83de1a20d3b7b502a56.de-de.xlf</t>
-  </si>
-  <si>
-    <t>fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.de-de.xlf</t>
-  </si>
-  <si>
-    <t>gettingStarted.92e02d8bd273df5c304475a9b4fa251c22a7ea19.de-de.xlf</t>
-  </si>
-  <si>
-    <t>groupResource.d19d416269795c92566b62c36b9782062dcea43e.de-de.xlf</t>
+    <t>authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.zh-tw.xlf</t>
+  </si>
+  <si>
+    <t>authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.zh-tw.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-02 17:53:09</t>
+  </si>
+  <si>
+    <t>authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.zh-tw.xlf</t>
+  </si>
+  <si>
+    <t>authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.zh-tw.xlf</t>
+  </si>
+  <si>
+    <t>authoringResourceMofCS.0647b27b00ec52b2f524a2856e48bc7c29c0f867.zh-tw.xlf</t>
+  </si>
+  <si>
+    <t>authoringResourceMofDesigner.09b1adffc4afb0d9b1154880e2dab0b25d82d51b.zh-tw.xlf</t>
+  </si>
+  <si>
+    <t>builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.zh-tw.xlf</t>
+  </si>
+  <si>
+    <t>configData.51d01a46dd9af8b425788cc485523b09f8470b95.zh-tw.xlf</t>
+  </si>
+  <si>
+    <t>configDataCredentials.f3e75119e7d93b2f914823c5ea23bfde3935a874.zh-tw.xlf</t>
+  </si>
+  <si>
+    <t>configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.zh-tw.xlf</t>
+  </si>
+  <si>
+    <t>debugResource.ac634156affe5c723cc149a298f5aa4268d17016.zh-tw.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-10 21:42:57</t>
+  </si>
+  <si>
+    <t>decisionMaker.01553169f2ba4241995260fad925e2784b5f5567.zh-tw.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-07 19:32:08</t>
+  </si>
+  <si>
+    <t>enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.zh-tw.xlf</t>
+  </si>
+  <si>
+    <t>environmentResource.eb91ffd4cd8bdb9476e5a83de1a20d3b7b502a56.zh-tw.xlf</t>
+  </si>
+  <si>
+    <t>fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.zh-tw.xlf</t>
+  </si>
+  <si>
+    <t>gettingStarted.92e02d8bd273df5c304475a9b4fa251c22a7ea19.zh-tw.xlf</t>
+  </si>
+  <si>
+    <t>groupResource.d19d416269795c92566b62c36b9782062dcea43e.zh-tw.xlf</t>
   </si>
   <si>
     <t>d9f53a805041164f5070845c0fd216b63d17ae58.png</t>
@@ -639,301 +630,301 @@
     <t>dsc\secureMOF.md</t>
   </si>
   <si>
-    <t>lnxArchiveResource.095aab7d23720fd394f2573c30223a6bbcc0a4ef.de-de.xlf</t>
-  </si>
-  <si>
-    <t>lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.de-de.xlf</t>
-  </si>
-  <si>
-    <t>lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.de-de.xlf</t>
-  </si>
-  <si>
-    <t>lnxFileLineResource.d91fc802a4c6cdbff5a2e35f92b34c36c6dbf5eb.de-de.xlf</t>
-  </si>
-  <si>
-    <t>lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.de-de.xlf</t>
-  </si>
-  <si>
-    <t>lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-10 20:32:18</t>
-  </si>
-  <si>
-    <t>lnxGroupResource.0cedb684d797032bd47cdb852629c36da0884567.de-de.xlf</t>
-  </si>
-  <si>
-    <t>lnxPackageResource.db35ab938bbfbb38cae53fe9ae98fd22b5f18009.de-de.xlf</t>
-  </si>
-  <si>
-    <t>lnxScriptResource.1344a5d5b807ee53705e93842d9ef5e25a883359.de-de.xlf</t>
-  </si>
-  <si>
-    <t>lnxServiceResource.e637c7f7b18939ec8c16eadf2c42ab00e236fb7b.de-de.xlf</t>
-  </si>
-  <si>
-    <t>lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.de-de.xlf</t>
-  </si>
-  <si>
-    <t>lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.de-de.xlf</t>
-  </si>
-  <si>
-    <t>logResource.07af9dfcf6076ef19059178c3b404762677920f0.de-de.xlf</t>
-  </si>
-  <si>
-    <t>metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.de-de.xlf</t>
-  </si>
-  <si>
-    <t>metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.de-de.xlf</t>
-  </si>
-  <si>
-    <t>overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.de-de.xlf</t>
-  </si>
-  <si>
-    <t>packageResource.132c4949cee174dc0dc324456d220436cb9884e6.de-de.xlf</t>
-  </si>
-  <si>
-    <t>partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.de-de.xlf</t>
-  </si>
-  <si>
-    <t>pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.de-de.xlf</t>
-  </si>
-  <si>
-    <t>pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.de-de.xlf</t>
-  </si>
-  <si>
-    <t>pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-09 20:01:41</t>
-  </si>
-  <si>
-    <t>pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.de-de.xlf</t>
-  </si>
-  <si>
-    <t>pullServer.4b925b277da29998394af746bdbdd508fda48909.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-16 22:51:51</t>
-  </si>
-  <si>
-    <t>pullServerSMB.772aec5ae27ccb19ced78e3eb665a4e16db1c4df.de-de.xlf</t>
-  </si>
-  <si>
-    <t>queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.de-de.xlf</t>
-  </si>
-  <si>
-    <t>registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.de-de.xlf</t>
-  </si>
-  <si>
-    <t>reportServer.53df4bc8b7b80c0a19c11434bdf5f4304e8248f7.de-de.xlf</t>
-  </si>
-  <si>
-    <t>resourceAuthoringChecklist.3b9ae254d826cc45519d37d06044f28a69bdfa69.de-de.xlf</t>
-  </si>
-  <si>
-    <t>resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.de-de.xlf</t>
-  </si>
-  <si>
-    <t>runAsUser.d2b90b6bc42ef965e454f9c9f5fd19bc7b488b34.de-de.xlf</t>
-  </si>
-  <si>
-    <t>scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.de-de.xlf</t>
-  </si>
-  <si>
-    <t>secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.de-de.xlf</t>
-  </si>
-  <si>
-    <t>secureServer.ce207607010d18109152742ba23c923cd3cddba2.de-de.xlf</t>
-  </si>
-  <si>
-    <t>serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.de-de.xlf</t>
-  </si>
-  <si>
-    <t>TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.de-de.xlf</t>
-  </si>
-  <si>
-    <t>troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-04 21:11:35</t>
-  </si>
-  <si>
-    <t>userResource.5de4fbe03e9e06934442ba451eb0564931863f45.de-de.xlf</t>
-  </si>
-  <si>
-    <t>windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.de-de.xlf</t>
-  </si>
-  <si>
-    <t>windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.de-de.xlf</t>
-  </si>
-  <si>
-    <t>audit_cms.3e422ca243ac938b46bfcf1497a703e55bde970e.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-08 01:12:00</t>
-  </si>
-  <si>
-    <t>audit_overview.fc5b51e2734a2af986c9edf42b4395b1aad2435d.de-de.xlf</t>
-  </si>
-  <si>
-    <t>audit_script.e89f3a9316d1125e1efd23b41b756a3a6161016b.de-de.xlf</t>
-  </si>
-  <si>
-    <t>audit_transcript.c21a6554932939cbf4c744bf7c9f07cc4e1e7160.de-de.xlf</t>
-  </si>
-  <si>
-    <t>class_base.29a9fbe4987503d5575c151f4271f58398cb7e55.de-de.xlf</t>
-  </si>
-  <si>
-    <t>class_baseconstructor.82f951e800b06ccc68090b1be9923c8210a233ac.de-de.xlf</t>
-  </si>
-  <si>
-    <t>class_basemethod.6b60292188d0081f30fbaf4b111db8a439348f5b.de-de.xlf</t>
-  </si>
-  <si>
-    <t>class_interface.84a08fd30808364a820bdd4440de18ec4504a6c7.de-de.xlf</t>
-  </si>
-  <si>
-    <t>class_newtype.a9f52b670970046f8b1147d4ba646b73abb430dc.de-de.xlf</t>
-  </si>
-  <si>
-    <t>class_overview.91227b885afcb8df385ab601ab970b924eca2533.de-de.xlf</t>
-  </si>
-  <si>
-    <t>debug_overview.70b71c20b8b625704c25da28a58e804a048bafb0.de-de.xlf</t>
-  </si>
-  <si>
-    <t>dsc_authoring.364878cde8f156d8999773842812e0c08f70191c.de-de.xlf</t>
-  </si>
-  <si>
-    <t>dsc_classbasedresource.a3d6b22652db939b51db1218584247396454ae0f.de-de.xlf</t>
-  </si>
-  <si>
-    <t>dsc_confighelp.bcfa7e85acae98499089edc9fba25b68953d7bbf.de-de.xlf</t>
-  </si>
-  <si>
-    <t>dsc_directaccess.014c91015162b26b678e0a5fdfd453a3bf6e41b0.de-de.xlf</t>
-  </si>
-  <si>
-    <t>dsc_encryptedmof.a35c44de669ea81f25dd29f152f03493e52e327b.de-de.xlf</t>
-  </si>
-  <si>
-    <t>dsc_freqnomultiple.2848e52c73280aca59e73136bac0c2c7ae02aad6.de-de.xlf</t>
-  </si>
-  <si>
-    <t>dsc_getconfigurationstatus.1705e4bcaa9dfd9d69f00aecdc7ef0d04bf44899.de-de.xlf</t>
-  </si>
-  <si>
-    <t>dsc_identicalduplicate.eb7167ccd4a72d68aa1683327e9b3877927158ab.de-de.xlf</t>
-  </si>
-  <si>
-    <t>dsc_importdscresource.a0169ad862dfcaa5c958c07ecd52c856d5dc8436.de-de.xlf</t>
-  </si>
-  <si>
-    <t>dsc_improvements.d9ed6ffedf9d9650bb6b26b5ed611e420a0aacbb.de-de.xlf</t>
-  </si>
-  <si>
-    <t>dsc_lcmstate.21ea1c36f37c94e8e0363199fbd07bcced3aea40.de-de.xlf</t>
-  </si>
-  <si>
-    <t>dsc_metaconfiguration.e8bbca05aa1692ad54cadd83b93a1902f179f365.de-de.xlf</t>
-  </si>
-  <si>
-    <t>dsc_newresources.b9c40f591f875ea205c834f7675f3edbe1050592.de-de.xlf</t>
-  </si>
-  <si>
-    <t>dsc_nodeid.e3c9049aa6c1d151f8b286f28502537b2f8d22a4.de-de.xlf</t>
-  </si>
-  <si>
-    <t>dsc_partialconfig.a493787c3f8663ac3e2994162ffd1bee429544d3.de-de.xlf</t>
-  </si>
-  <si>
-    <t>dsc_partialconfig_mixedmode.ff4b9a8a421441da62574192650493bf2407028d.de-de.xlf</t>
-  </si>
-  <si>
-    <t>dsc_publishconfig.bfe86d4253abdd777c205caec637c50ec79103ee.de-de.xlf</t>
-  </si>
-  <si>
-    <t>dsc_refreshmode.b0529a06a4d3e07b3fce300f74760d63b27523f6.de-de.xlf</t>
-  </si>
-  <si>
-    <t>dsc_removeconfigdoc.d16cdab7eaedf468bcc38dae34e93be26a204318.de-de.xlf</t>
-  </si>
-  <si>
-    <t>dsc_reporting.b042cd21b9bcfc8e50bc361ddee59333602fad42.de-de.xlf</t>
-  </si>
-  <si>
-    <t>dsc_repository.ec5040a823a6b64e969393e00f3d859fd0b4551c.de-de.xlf</t>
-  </si>
-  <si>
-    <t>dsc_resourcedebugging.95c69e55eb065b349f52e18126d699b1906ba03f.de-de.xlf</t>
-  </si>
-  <si>
-    <t>dsc_runas.9e19a42a6d5e1ea1772358a6fd8ff24b98a5b6ba.de-de.xlf</t>
-  </si>
-  <si>
-    <t>dsc_setdsclcm.1f0e3cab81cf5fc1feda678f202451fe150632e3.de-de.xlf</t>
-  </si>
-  <si>
-    <t>dsc_statestatus.b6f3670f776a8f63a705ba16bed2f20be34fc48f.de-de.xlf</t>
-  </si>
-  <si>
-    <t>dsc_sxsresource.c9d4ce6109370ac1cbc1fb07f191e02f9a61d5d3.de-de.xlf</t>
-  </si>
-  <si>
-    <t>dsc_testconfiguration.b0e5afe2c8f173ebe49c97c9ea9a2f11d81ea5fa.de-de.xlf</t>
-  </si>
-  <si>
-    <t>dsc_updateconfig.a07eb85e3458d42d7ab1ed5c57dcfc70df709d07.de-de.xlf</t>
-  </si>
-  <si>
-    <t>dsc_waitfor.2b09933f08f1020166ce0f0cd7548a5a3845c48f.de-de.xlf</t>
-  </si>
-  <si>
-    <t>dsc_wow64.ea039aaa1bd77415311fc30d80fed43cda07a6e3.de-de.xlf</t>
-  </si>
-  <si>
-    <t>feedback.3662230166299ef7c1fb7a7a7f5cdbd64b1d812a.de-de.xlf</t>
-  </si>
-  <si>
-    <t>feedback_archive.20de26911a704368058401c7e2bd6ebaac692ff5.de-de.xlf</t>
-  </si>
-  <si>
-    <t>feedback_clipboard.872e5c147ef02cb86067651f41e3c00b55386664.de-de.xlf</t>
-  </si>
-  <si>
-    <t>feedback_cmdlets.a4c0dfb806ca0da232eeb75ad3706177b8a5ec48.de-de.xlf</t>
-  </si>
-  <si>
-    <t>feedback_convertfromString.acdeaa33e8fa59b93649b6abf3a7d5ef64fb7664.de-de.xlf</t>
-  </si>
-  <si>
-    <t>feedback_convertstring.42e964e30093962871c3a4d586ed6c54f25f840d.de-de.xlf</t>
-  </si>
-  <si>
-    <t>feedback_fileinfo.0192edad2d6504d26a9632f95fc9e5b66ffd8003.de-de.xlf</t>
-  </si>
-  <si>
-    <t>feedback_formathex.f97931c887efb620e5f4314facc1f0e20e3dffbe.de-de.xlf</t>
-  </si>
-  <si>
-    <t>feedback_getchilditem.ce02ca20cc4417a80fe65eb509a8e92f2cecc79c.de-de.xlf</t>
-  </si>
-  <si>
-    <t>feedback_moduleversionranges.611b3a3219d64dbfa1d01541b60a727b880a0c4b.de-de.xlf</t>
-  </si>
-  <si>
-    <t>feedback_newguid.f8756fbdb96e6fe06a7e0cbb6ac4af32b1c64983.de-de.xlf</t>
-  </si>
-  <si>
-    <t>feedback_nonewline.7a9b7e24c50399879089bba2b8eee7dc325572e2.de-de.xlf</t>
-  </si>
-  <si>
-    <t>feedback_symbolic.1c3ac8128fb9df60512ec024044d48be7d0cb59f.de-de.xlf</t>
-  </si>
-  <si>
-    <t>feedback_tempfile.fc029065af6bbba3a8c4abbf36023bede7d1416d.de-de.xlf</t>
+    <t>lnxArchiveResource.095aab7d23720fd394f2573c30223a6bbcc0a4ef.zh-tw.xlf</t>
+  </si>
+  <si>
+    <t>lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.zh-tw.xlf</t>
+  </si>
+  <si>
+    <t>lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.zh-tw.xlf</t>
+  </si>
+  <si>
+    <t>lnxFileLineResource.d91fc802a4c6cdbff5a2e35f92b34c36c6dbf5eb.zh-tw.xlf</t>
+  </si>
+  <si>
+    <t>lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.zh-tw.xlf</t>
+  </si>
+  <si>
+    <t>lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.zh-tw.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-10 20:33:03</t>
+  </si>
+  <si>
+    <t>lnxGroupResource.0cedb684d797032bd47cdb852629c36da0884567.zh-tw.xlf</t>
+  </si>
+  <si>
+    <t>lnxPackageResource.db35ab938bbfbb38cae53fe9ae98fd22b5f18009.zh-tw.xlf</t>
+  </si>
+  <si>
+    <t>lnxScriptResource.1344a5d5b807ee53705e93842d9ef5e25a883359.zh-tw.xlf</t>
+  </si>
+  <si>
+    <t>lnxServiceResource.e637c7f7b18939ec8c16eadf2c42ab00e236fb7b.zh-tw.xlf</t>
+  </si>
+  <si>
+    <t>lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.zh-tw.xlf</t>
+  </si>
+  <si>
+    <t>lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.zh-tw.xlf</t>
+  </si>
+  <si>
+    <t>logResource.07af9dfcf6076ef19059178c3b404762677920f0.zh-tw.xlf</t>
+  </si>
+  <si>
+    <t>metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.zh-tw.xlf</t>
+  </si>
+  <si>
+    <t>metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.zh-tw.xlf</t>
+  </si>
+  <si>
+    <t>overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.zh-tw.xlf</t>
+  </si>
+  <si>
+    <t>packageResource.132c4949cee174dc0dc324456d220436cb9884e6.zh-tw.xlf</t>
+  </si>
+  <si>
+    <t>partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.zh-tw.xlf</t>
+  </si>
+  <si>
+    <t>pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.zh-tw.xlf</t>
+  </si>
+  <si>
+    <t>pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.zh-tw.xlf</t>
+  </si>
+  <si>
+    <t>pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.zh-tw.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-09 20:02:31</t>
+  </si>
+  <si>
+    <t>pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.zh-tw.xlf</t>
+  </si>
+  <si>
+    <t>pullServer.4b925b277da29998394af746bdbdd508fda48909.zh-tw.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-16 22:52:01</t>
+  </si>
+  <si>
+    <t>pullServerSMB.772aec5ae27ccb19ced78e3eb665a4e16db1c4df.zh-tw.xlf</t>
+  </si>
+  <si>
+    <t>queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.zh-tw.xlf</t>
+  </si>
+  <si>
+    <t>registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.zh-tw.xlf</t>
+  </si>
+  <si>
+    <t>reportServer.53df4bc8b7b80c0a19c11434bdf5f4304e8248f7.zh-tw.xlf</t>
+  </si>
+  <si>
+    <t>resourceAuthoringChecklist.3b9ae254d826cc45519d37d06044f28a69bdfa69.zh-tw.xlf</t>
+  </si>
+  <si>
+    <t>resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.zh-tw.xlf</t>
+  </si>
+  <si>
+    <t>runAsUser.d2b90b6bc42ef965e454f9c9f5fd19bc7b488b34.zh-tw.xlf</t>
+  </si>
+  <si>
+    <t>scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.zh-tw.xlf</t>
+  </si>
+  <si>
+    <t>secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.zh-tw.xlf</t>
+  </si>
+  <si>
+    <t>secureServer.ce207607010d18109152742ba23c923cd3cddba2.zh-tw.xlf</t>
+  </si>
+  <si>
+    <t>serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.zh-tw.xlf</t>
+  </si>
+  <si>
+    <t>TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.zh-tw.xlf</t>
+  </si>
+  <si>
+    <t>troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.zh-tw.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-04 21:12:03</t>
+  </si>
+  <si>
+    <t>userResource.5de4fbe03e9e06934442ba451eb0564931863f45.zh-tw.xlf</t>
+  </si>
+  <si>
+    <t>windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.zh-tw.xlf</t>
+  </si>
+  <si>
+    <t>windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.zh-tw.xlf</t>
+  </si>
+  <si>
+    <t>audit_cms.3e422ca243ac938b46bfcf1497a703e55bde970e.zh-tw.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-08 01:13:30</t>
+  </si>
+  <si>
+    <t>audit_overview.fc5b51e2734a2af986c9edf42b4395b1aad2435d.zh-tw.xlf</t>
+  </si>
+  <si>
+    <t>audit_script.e89f3a9316d1125e1efd23b41b756a3a6161016b.zh-tw.xlf</t>
+  </si>
+  <si>
+    <t>audit_transcript.c21a6554932939cbf4c744bf7c9f07cc4e1e7160.zh-tw.xlf</t>
+  </si>
+  <si>
+    <t>class_base.29a9fbe4987503d5575c151f4271f58398cb7e55.zh-tw.xlf</t>
+  </si>
+  <si>
+    <t>class_baseconstructor.82f951e800b06ccc68090b1be9923c8210a233ac.zh-tw.xlf</t>
+  </si>
+  <si>
+    <t>class_basemethod.6b60292188d0081f30fbaf4b111db8a439348f5b.zh-tw.xlf</t>
+  </si>
+  <si>
+    <t>class_interface.84a08fd30808364a820bdd4440de18ec4504a6c7.zh-tw.xlf</t>
+  </si>
+  <si>
+    <t>class_newtype.a9f52b670970046f8b1147d4ba646b73abb430dc.zh-tw.xlf</t>
+  </si>
+  <si>
+    <t>class_overview.91227b885afcb8df385ab601ab970b924eca2533.zh-tw.xlf</t>
+  </si>
+  <si>
+    <t>debug_overview.70b71c20b8b625704c25da28a58e804a048bafb0.zh-tw.xlf</t>
+  </si>
+  <si>
+    <t>dsc_authoring.364878cde8f156d8999773842812e0c08f70191c.zh-tw.xlf</t>
+  </si>
+  <si>
+    <t>dsc_classbasedresource.a3d6b22652db939b51db1218584247396454ae0f.zh-tw.xlf</t>
+  </si>
+  <si>
+    <t>dsc_confighelp.bcfa7e85acae98499089edc9fba25b68953d7bbf.zh-tw.xlf</t>
+  </si>
+  <si>
+    <t>dsc_directaccess.014c91015162b26b678e0a5fdfd453a3bf6e41b0.zh-tw.xlf</t>
+  </si>
+  <si>
+    <t>dsc_encryptedmof.a35c44de669ea81f25dd29f152f03493e52e327b.zh-tw.xlf</t>
+  </si>
+  <si>
+    <t>dsc_freqnomultiple.2848e52c73280aca59e73136bac0c2c7ae02aad6.zh-tw.xlf</t>
+  </si>
+  <si>
+    <t>dsc_getconfigurationstatus.1705e4bcaa9dfd9d69f00aecdc7ef0d04bf44899.zh-tw.xlf</t>
+  </si>
+  <si>
+    <t>dsc_identicalduplicate.eb7167ccd4a72d68aa1683327e9b3877927158ab.zh-tw.xlf</t>
+  </si>
+  <si>
+    <t>dsc_importdscresource.a0169ad862dfcaa5c958c07ecd52c856d5dc8436.zh-tw.xlf</t>
+  </si>
+  <si>
+    <t>dsc_improvements.d9ed6ffedf9d9650bb6b26b5ed611e420a0aacbb.zh-tw.xlf</t>
+  </si>
+  <si>
+    <t>dsc_lcmstate.21ea1c36f37c94e8e0363199fbd07bcced3aea40.zh-tw.xlf</t>
+  </si>
+  <si>
+    <t>dsc_metaconfiguration.e8bbca05aa1692ad54cadd83b93a1902f179f365.zh-tw.xlf</t>
+  </si>
+  <si>
+    <t>dsc_newresources.b9c40f591f875ea205c834f7675f3edbe1050592.zh-tw.xlf</t>
+  </si>
+  <si>
+    <t>dsc_nodeid.e3c9049aa6c1d151f8b286f28502537b2f8d22a4.zh-tw.xlf</t>
+  </si>
+  <si>
+    <t>dsc_partialconfig.a493787c3f8663ac3e2994162ffd1bee429544d3.zh-tw.xlf</t>
+  </si>
+  <si>
+    <t>dsc_partialconfig_mixedmode.ff4b9a8a421441da62574192650493bf2407028d.zh-tw.xlf</t>
+  </si>
+  <si>
+    <t>dsc_publishconfig.bfe86d4253abdd777c205caec637c50ec79103ee.zh-tw.xlf</t>
+  </si>
+  <si>
+    <t>dsc_refreshmode.b0529a06a4d3e07b3fce300f74760d63b27523f6.zh-tw.xlf</t>
+  </si>
+  <si>
+    <t>dsc_removeconfigdoc.d16cdab7eaedf468bcc38dae34e93be26a204318.zh-tw.xlf</t>
+  </si>
+  <si>
+    <t>dsc_reporting.b042cd21b9bcfc8e50bc361ddee59333602fad42.zh-tw.xlf</t>
+  </si>
+  <si>
+    <t>dsc_repository.ec5040a823a6b64e969393e00f3d859fd0b4551c.zh-tw.xlf</t>
+  </si>
+  <si>
+    <t>dsc_resourcedebugging.95c69e55eb065b349f52e18126d699b1906ba03f.zh-tw.xlf</t>
+  </si>
+  <si>
+    <t>dsc_runas.9e19a42a6d5e1ea1772358a6fd8ff24b98a5b6ba.zh-tw.xlf</t>
+  </si>
+  <si>
+    <t>dsc_setdsclcm.1f0e3cab81cf5fc1feda678f202451fe150632e3.zh-tw.xlf</t>
+  </si>
+  <si>
+    <t>dsc_statestatus.b6f3670f776a8f63a705ba16bed2f20be34fc48f.zh-tw.xlf</t>
+  </si>
+  <si>
+    <t>dsc_sxsresource.c9d4ce6109370ac1cbc1fb07f191e02f9a61d5d3.zh-tw.xlf</t>
+  </si>
+  <si>
+    <t>dsc_testconfiguration.b0e5afe2c8f173ebe49c97c9ea9a2f11d81ea5fa.zh-tw.xlf</t>
+  </si>
+  <si>
+    <t>dsc_updateconfig.a07eb85e3458d42d7ab1ed5c57dcfc70df709d07.zh-tw.xlf</t>
+  </si>
+  <si>
+    <t>dsc_waitfor.2b09933f08f1020166ce0f0cd7548a5a3845c48f.zh-tw.xlf</t>
+  </si>
+  <si>
+    <t>dsc_wow64.ea039aaa1bd77415311fc30d80fed43cda07a6e3.zh-tw.xlf</t>
+  </si>
+  <si>
+    <t>feedback.3662230166299ef7c1fb7a7a7f5cdbd64b1d812a.zh-tw.xlf</t>
+  </si>
+  <si>
+    <t>feedback_archive.20de26911a704368058401c7e2bd6ebaac692ff5.zh-tw.xlf</t>
+  </si>
+  <si>
+    <t>feedback_clipboard.872e5c147ef02cb86067651f41e3c00b55386664.zh-tw.xlf</t>
+  </si>
+  <si>
+    <t>feedback_cmdlets.a4c0dfb806ca0da232eeb75ad3706177b8a5ec48.zh-tw.xlf</t>
+  </si>
+  <si>
+    <t>feedback_convertfromString.acdeaa33e8fa59b93649b6abf3a7d5ef64fb7664.zh-tw.xlf</t>
+  </si>
+  <si>
+    <t>feedback_convertstring.42e964e30093962871c3a4d586ed6c54f25f840d.zh-tw.xlf</t>
+  </si>
+  <si>
+    <t>feedback_fileinfo.0192edad2d6504d26a9632f95fc9e5b66ffd8003.zh-tw.xlf</t>
+  </si>
+  <si>
+    <t>feedback_formathex.f97931c887efb620e5f4314facc1f0e20e3dffbe.zh-tw.xlf</t>
+  </si>
+  <si>
+    <t>feedback_getchilditem.ce02ca20cc4417a80fe65eb509a8e92f2cecc79c.zh-tw.xlf</t>
+  </si>
+  <si>
+    <t>feedback_moduleversionranges.611b3a3219d64dbfa1d01541b60a727b880a0c4b.zh-tw.xlf</t>
+  </si>
+  <si>
+    <t>feedback_newguid.f8756fbdb96e6fe06a7e0cbb6ac4af32b1c64983.zh-tw.xlf</t>
+  </si>
+  <si>
+    <t>feedback_nonewline.7a9b7e24c50399879089bba2b8eee7dc325572e2.zh-tw.xlf</t>
+  </si>
+  <si>
+    <t>feedback_symbolic.1c3ac8128fb9df60512ec024044d48be7d0cb59f.zh-tw.xlf</t>
+  </si>
+  <si>
+    <t>feedback_tempfile.fc029065af6bbba3a8c4abbf36023bede7d1416d.zh-tw.xlf</t>
   </si>
   <si>
     <t>ba1897f38317f5fe38f2d8caf0efcc57bc8bb19d.jpg</t>
@@ -954,76 +945,76 @@
     <t>wmf\dsc_encryptedmof.md</t>
   </si>
   <si>
-    <t>informationstream_overview.d2f238b2b4021ccdb7271cf89f53d58970d56cf5.de-de.xlf</t>
-  </si>
-  <si>
-    <t>install.317fc924c0f766547c4725878af59c3c9d8facba.de-de.xlf</t>
-  </si>
-  <si>
-    <t>jea_endpoint.1dc052fe583a907a6c090cf8bfd42293d94d2975.de-de.xlf</t>
-  </si>
-  <si>
-    <t>jea_overview.3fa3008e719be8235adffe51808ac66714940871.de-de.xlf</t>
-  </si>
-  <si>
-    <t>jea_report.7860cec6e93b7405844ccbbe5bc879921447ac0b.de-de.xlf</t>
-  </si>
-  <si>
-    <t>limitation_dsc.3684c81bb088cba98089dffdb1a1e56e1c098335.de-de.xlf</t>
-  </si>
-  <si>
-    <t>limitation_overview.6cc9c8c028f5912636637d836aed7db0614de522.de-de.xlf</t>
-  </si>
-  <si>
-    <t>networkswitch_overview.7a87eb0741cd43b8b9284ea6cb605920c4961b79.de-de.xlf</t>
-  </si>
-  <si>
-    <t>odata_overview.c3f7efdde29fe7ac5685a61cd61d75b65524a4c3.de-de.xlf</t>
-  </si>
-  <si>
-    <t>oneget_cmdlets.469b2350a72495ac2cf62e4130b4df8036f5d135.de-de.xlf</t>
-  </si>
-  <si>
-    <t>oneget_overview.e71a25f36f957ab7471d259c6e716651f6f23c94.de-de.xlf</t>
-  </si>
-  <si>
-    <t>productincompat.62bb00299c0283b5297001553476a745e28a49cb.de-de.xlf</t>
-  </si>
-  <si>
-    <t>psget_module_overview.4149c468ffd0f17a2fabd03f90059c12effc3170.de-de.xlf</t>
-  </si>
-  <si>
-    <t>psget_modulecmdlets.1f808cfdf9a9aa920f88e15f7f5fa4701fe805e3.de-de.xlf</t>
-  </si>
-  <si>
-    <t>psget_moduledependency.89ba9310335ae64db5481a3c02034ac4fe01b6a2.de-de.xlf</t>
-  </si>
-  <si>
-    <t>psget_modulesxsinstall.110ba80d8f917899ef488b46bd15f5654f6ba06c.de-de.xlf</t>
-  </si>
-  <si>
-    <t>psget_psrepository.c4381b2ff7bb6496ab74ed8bb2b07325cfbfc056.de-de.xlf</t>
-  </si>
-  <si>
-    <t>psget_script_overview.f035cc99497d17dc73e3a61f214e40a5860fc70a.de-de.xlf</t>
-  </si>
-  <si>
-    <t>psget_scriptcmdlets.1762d5f29292d59c1afb37cb29eb11a34cf63990.de-de.xlf</t>
-  </si>
-  <si>
-    <t>releasenotes.311750b4da54b1d4ef7997b328edd6ff177fb71f.de-de.xlf</t>
-  </si>
-  <si>
-    <t>requirements.ef8332f358d65b1759bfd4c7336b11d1dc8c2d46.de-de.xlf</t>
-  </si>
-  <si>
-    <t>sil_overview.a2b1f7c716aad317993a5eaffba21fa28ce0c0d8.de-de.xlf</t>
-  </si>
-  <si>
-    <t>TOC.60497266061c38453b3db893ec675eb65584af89.de-de.xlf</t>
-  </si>
-  <si>
-    <t>uninstall.b07adaaaf7f41869dfa201b88e29342aced76c96.de-de.xlf</t>
+    <t>informationstream_overview.d2f238b2b4021ccdb7271cf89f53d58970d56cf5.zh-tw.xlf</t>
+  </si>
+  <si>
+    <t>install.317fc924c0f766547c4725878af59c3c9d8facba.zh-tw.xlf</t>
+  </si>
+  <si>
+    <t>jea_endpoint.1dc052fe583a907a6c090cf8bfd42293d94d2975.zh-tw.xlf</t>
+  </si>
+  <si>
+    <t>jea_overview.3fa3008e719be8235adffe51808ac66714940871.zh-tw.xlf</t>
+  </si>
+  <si>
+    <t>jea_report.7860cec6e93b7405844ccbbe5bc879921447ac0b.zh-tw.xlf</t>
+  </si>
+  <si>
+    <t>limitation_dsc.3684c81bb088cba98089dffdb1a1e56e1c098335.zh-tw.xlf</t>
+  </si>
+  <si>
+    <t>limitation_overview.6cc9c8c028f5912636637d836aed7db0614de522.zh-tw.xlf</t>
+  </si>
+  <si>
+    <t>networkswitch_overview.7a87eb0741cd43b8b9284ea6cb605920c4961b79.zh-tw.xlf</t>
+  </si>
+  <si>
+    <t>odata_overview.c3f7efdde29fe7ac5685a61cd61d75b65524a4c3.zh-tw.xlf</t>
+  </si>
+  <si>
+    <t>oneget_cmdlets.469b2350a72495ac2cf62e4130b4df8036f5d135.zh-tw.xlf</t>
+  </si>
+  <si>
+    <t>oneget_overview.e71a25f36f957ab7471d259c6e716651f6f23c94.zh-tw.xlf</t>
+  </si>
+  <si>
+    <t>productincompat.62bb00299c0283b5297001553476a745e28a49cb.zh-tw.xlf</t>
+  </si>
+  <si>
+    <t>psget_module_overview.4149c468ffd0f17a2fabd03f90059c12effc3170.zh-tw.xlf</t>
+  </si>
+  <si>
+    <t>psget_modulecmdlets.1f808cfdf9a9aa920f88e15f7f5fa4701fe805e3.zh-tw.xlf</t>
+  </si>
+  <si>
+    <t>psget_moduledependency.89ba9310335ae64db5481a3c02034ac4fe01b6a2.zh-tw.xlf</t>
+  </si>
+  <si>
+    <t>psget_modulesxsinstall.110ba80d8f917899ef488b46bd15f5654f6ba06c.zh-tw.xlf</t>
+  </si>
+  <si>
+    <t>psget_psrepository.c4381b2ff7bb6496ab74ed8bb2b07325cfbfc056.zh-tw.xlf</t>
+  </si>
+  <si>
+    <t>psget_script_overview.f035cc99497d17dc73e3a61f214e40a5860fc70a.zh-tw.xlf</t>
+  </si>
+  <si>
+    <t>psget_scriptcmdlets.1762d5f29292d59c1afb37cb29eb11a34cf63990.zh-tw.xlf</t>
+  </si>
+  <si>
+    <t>releasenotes.311750b4da54b1d4ef7997b328edd6ff177fb71f.zh-tw.xlf</t>
+  </si>
+  <si>
+    <t>requirements.ef8332f358d65b1759bfd4c7336b11d1dc8c2d46.zh-tw.xlf</t>
+  </si>
+  <si>
+    <t>sil_overview.a2b1f7c716aad317993a5eaffba21fa28ce0c0d8.zh-tw.xlf</t>
+  </si>
+  <si>
+    <t>TOC.60497266061c38453b3db893ec675eb65584af89.zh-tw.xlf</t>
+  </si>
+  <si>
+    <t>uninstall.b07adaaaf7f41869dfa201b88e29342aced76c96.zh-tw.xlf</t>
   </si>
 </sst>
 </file>
@@ -1080,7 +1071,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="de-de" displayName="de_de" ref="A1:L1" headerRowCount="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-tw" displayName="zh_tw" ref="A1:L1" headerRowCount="0">
   <tableColumns count="12">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -1103,7 +1094,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Overview" displayName="Overview" ref="A1:D1" headerRowCount="0">
   <tableColumns count="4">
     <tableColumn id="1" name="File Name"/>
-    <tableColumn id="2" name="de-de"/>
+    <tableColumn id="2" name="zh-tw"/>
     <tableColumn id="3" name="Latest Handoff Date"/>
     <tableColumn id="4" name="Column4"/>
   </tableColumns>
@@ -1195,7 +1186,7 @@
         <v>12</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>11</v>
@@ -1203,21 +1194,21 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="0" t="s">
         <v>14</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>11</v>
@@ -1225,10 +1216,10 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C10" s="0" t="s">
         <v>11</v>
@@ -1236,10 +1227,10 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C11" s="0" t="s">
         <v>11</v>
@@ -1247,10 +1238,10 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C12" s="0" t="s">
         <v>11</v>
@@ -1258,10 +1249,10 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C13" s="0" t="s">
         <v>11</v>
@@ -1269,10 +1260,10 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C14" s="0" t="s">
         <v>11</v>
@@ -1280,10 +1271,10 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C15" s="0" t="s">
         <v>11</v>
@@ -1291,10 +1282,10 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C16" s="0" t="s">
         <v>11</v>
@@ -1302,32 +1293,32 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="0" t="s">
         <v>24</v>
-      </c>
-      <c r="B17" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="0" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="0" t="s">
         <v>26</v>
-      </c>
-      <c r="B18" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="0" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C19" s="0" t="s">
         <v>11</v>
@@ -1335,10 +1326,10 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C20" s="0" t="s">
         <v>11</v>
@@ -1346,10 +1337,10 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C21" s="0" t="s">
         <v>11</v>
@@ -1357,21 +1348,21 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C23" s="0" t="s">
         <v>11</v>
@@ -1379,10 +1370,10 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C24" s="0" t="s">
         <v>5</v>
@@ -1390,10 +1381,10 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C25" s="0" t="s">
         <v>11</v>
@@ -1401,10 +1392,10 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C26" s="0" t="s">
         <v>11</v>
@@ -1412,10 +1403,10 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C27" s="0" t="s">
         <v>11</v>
@@ -1423,10 +1414,10 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C28" s="0" t="s">
         <v>11</v>
@@ -1434,10 +1425,10 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C29" s="0" t="s">
         <v>11</v>
@@ -1445,21 +1436,21 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="0" t="s">
         <v>39</v>
-      </c>
-      <c r="B30" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="C30" s="0" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C31" s="0" t="s">
         <v>11</v>
@@ -1467,10 +1458,10 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C32" s="0" t="s">
         <v>11</v>
@@ -1478,10 +1469,10 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C33" s="0" t="s">
         <v>11</v>
@@ -1489,21 +1480,21 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C35" s="0" t="s">
         <v>11</v>
@@ -1511,10 +1502,10 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C36" s="0" t="s">
         <v>11</v>
@@ -1522,10 +1513,10 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C37" s="0" t="s">
         <v>11</v>
@@ -1533,10 +1524,10 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C38" s="0" t="s">
         <v>11</v>
@@ -1544,10 +1535,10 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C39" s="0" t="s">
         <v>11</v>
@@ -1555,10 +1546,10 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C40" s="0" t="s">
         <v>11</v>
@@ -1566,10 +1557,10 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C41" s="0" t="s">
         <v>11</v>
@@ -1577,10 +1568,10 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C42" s="0" t="s">
         <v>11</v>
@@ -1588,10 +1579,10 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C43" s="0" t="s">
         <v>11</v>
@@ -1599,10 +1590,10 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C44" s="0" t="s">
         <v>11</v>
@@ -1610,21 +1601,21 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C45" s="0" t="s">
         <v>55</v>
-      </c>
-      <c r="B45" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="C45" s="0" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C46" s="0" t="s">
         <v>11</v>
@@ -1632,32 +1623,32 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C47" s="0" t="s">
         <v>58</v>
-      </c>
-      <c r="B47" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="C47" s="0" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C49" s="0" t="s">
         <v>11</v>
@@ -1665,10 +1656,10 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C50" s="0" t="s">
         <v>11</v>
@@ -1676,10 +1667,10 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C51" s="0" t="s">
         <v>11</v>
@@ -1687,21 +1678,21 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C53" s="0" t="s">
         <v>11</v>
@@ -1709,21 +1700,21 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C55" s="0" t="s">
         <v>11</v>
@@ -1731,10 +1722,10 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C56" s="0" t="s">
         <v>5</v>
@@ -1742,10 +1733,10 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C57" s="0" t="s">
         <v>11</v>
@@ -1753,10 +1744,10 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C58" s="0" t="s">
         <v>11</v>
@@ -1764,32 +1755,32 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B60" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C60" s="0" t="s">
         <v>72</v>
-      </c>
-      <c r="B60" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="C60" s="0" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C61" s="0" t="s">
         <v>11</v>
@@ -1797,10 +1788,10 @@
     </row>
     <row r="62">
       <c r="A62" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C62" s="0" t="s">
         <v>11</v>
@@ -1808,10 +1799,10 @@
     </row>
     <row r="63">
       <c r="A63" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C63" s="0" t="s">
         <v>11</v>
@@ -1819,615 +1810,615 @@
     </row>
     <row r="64">
       <c r="A64" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C119" s="0" t="s">
         <v>5</v>
@@ -2435,10 +2426,10 @@
     </row>
     <row r="120">
       <c r="A120" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C120" s="0" t="s">
         <v>5</v>
@@ -2446,10 +2437,10 @@
     </row>
     <row r="121">
       <c r="A121" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C121" s="0" t="s">
         <v>5</v>
@@ -2457,266 +2448,266 @@
     </row>
     <row r="122">
       <c r="A122" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C125" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B126" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C126" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B127" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C127" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B128" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C128" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B129" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C129" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B130" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C130" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B131" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C131" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B132" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C132" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B133" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C133" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B134" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C134" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B135" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C135" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B136" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C136" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B137" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C137" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B138" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C138" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B139" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C139" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B140" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C140" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B141" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C141" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B142" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C142" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B143" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C143" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B144" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C144" s="0" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B145" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C145" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -2725,8 +2716,8 @@
     <hyperlink ref="A3" display="PartialConfigPullServer.jpg" r:id="rId3"/>
     <hyperlink ref="A4" display="Pull.png" r:id="rId4"/>
     <hyperlink ref="A5" display="Push.png" r:id="rId5"/>
-    <hyperlink ref="A6" display="authoringResource.md" r:id="rId6"/>
-    <hyperlink ref="A7" display="archiveResource.md" r:id="rId7"/>
+    <hyperlink ref="A6" display="archiveResource.md" r:id="rId6"/>
+    <hyperlink ref="A7" display="authoringResource.md" r:id="rId7"/>
     <hyperlink ref="A8" display="authoringResourceClass.md" r:id="rId8"/>
     <hyperlink ref="A9" display="authoringResourceComposite.md" r:id="rId9"/>
     <hyperlink ref="A10" display="authoringResourceMOF.md" r:id="rId10"/>
@@ -2896,37 +2887,37 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>159</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>160</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>161</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>162</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>163</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>164</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>165</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>166</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>167</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>168</v>
-      </c>
-      <c r="K1" s="0" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="2">
@@ -2934,31 +2925,31 @@
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>172</v>
+        <v>5</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="H2" s="0" t="s">
         <v>171</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="I2" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="J2" s="0" t="s">
         <v>173</v>
-      </c>
-      <c r="I2" s="0" t="s">
-        <v>174</v>
-      </c>
-      <c r="J2" s="0" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="3">
@@ -2966,31 +2957,31 @@
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>172</v>
+        <v>5</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H3" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="J3" s="0" t="s">
         <v>173</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>174</v>
-      </c>
-      <c r="J3" s="0" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="4">
@@ -2998,31 +2989,31 @@
         <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>172</v>
+        <v>5</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5">
@@ -3030,31 +3021,31 @@
         <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>4</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>172</v>
+        <v>5</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6">
@@ -3062,22 +3053,22 @@
         <v>9</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>183</v>
+        <v>11</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="7">
@@ -3085,3208 +3076,3208 @@
         <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>183</v>
+        <v>11</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>183</v>
+        <v>11</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>183</v>
+        <v>11</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>183</v>
+        <v>11</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>183</v>
+        <v>11</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>183</v>
+        <v>11</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>183</v>
+        <v>11</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>183</v>
+        <v>11</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>183</v>
+        <v>11</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>183</v>
+        <v>11</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>183</v>
+        <v>11</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>183</v>
+        <v>11</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I21" s="0" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I22" s="0" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>183</v>
+        <v>11</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E24" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H24" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="I24" s="0" t="s">
         <v>172</v>
       </c>
-      <c r="H24" s="0" t="s">
-        <v>184</v>
-      </c>
-      <c r="I24" s="0" t="s">
-        <v>174</v>
-      </c>
       <c r="J24" s="0" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>183</v>
+        <v>11</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I25" s="0" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>183</v>
+        <v>11</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I26" s="0" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>183</v>
+        <v>11</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I27" s="0" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>183</v>
+        <v>11</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I28" s="0" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>183</v>
+        <v>11</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I29" s="0" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I30" s="0" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>183</v>
+        <v>11</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I31" s="0" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>183</v>
+        <v>11</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I32" s="0" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>183</v>
+        <v>11</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I33" s="0" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I34" s="0" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>183</v>
+        <v>11</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I35" s="0" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>183</v>
+        <v>11</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I36" s="0" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>183</v>
+        <v>11</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I37" s="0" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>183</v>
+        <v>11</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I38" s="0" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>183</v>
+        <v>11</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I39" s="0" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>183</v>
+        <v>11</v>
       </c>
       <c r="H40" s="0" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I40" s="0" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>183</v>
+        <v>11</v>
       </c>
       <c r="H41" s="0" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I41" s="0" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>183</v>
+        <v>11</v>
       </c>
       <c r="H42" s="0" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I42" s="0" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>183</v>
+        <v>11</v>
       </c>
       <c r="H43" s="0" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I43" s="0" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>183</v>
+        <v>11</v>
       </c>
       <c r="H44" s="0" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I44" s="0" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="H45" s="0" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I45" s="0" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>183</v>
+        <v>11</v>
       </c>
       <c r="H46" s="0" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I46" s="0" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="H47" s="0" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I47" s="0" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="H48" s="0" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I48" s="0" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>183</v>
+        <v>11</v>
       </c>
       <c r="H49" s="0" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I49" s="0" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>183</v>
+        <v>11</v>
       </c>
       <c r="H50" s="0" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I50" s="0" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>183</v>
+        <v>11</v>
       </c>
       <c r="H51" s="0" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I51" s="0" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="H52" s="0" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I52" s="0" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>183</v>
+        <v>11</v>
       </c>
       <c r="H53" s="0" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I53" s="0" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="H54" s="0" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I54" s="0" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>183</v>
+        <v>11</v>
       </c>
       <c r="H55" s="0" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I55" s="0" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>172</v>
+        <v>5</v>
       </c>
       <c r="H56" s="0" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I56" s="0" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>183</v>
+        <v>11</v>
       </c>
       <c r="H57" s="0" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I57" s="0" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>183</v>
+        <v>11</v>
       </c>
       <c r="H58" s="0" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I58" s="0" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="H59" s="0" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I59" s="0" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="H60" s="0" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I60" s="0" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>183</v>
+        <v>11</v>
       </c>
       <c r="H61" s="0" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I61" s="0" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>183</v>
+        <v>11</v>
       </c>
       <c r="H62" s="0" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I62" s="0" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>183</v>
+        <v>11</v>
       </c>
       <c r="H63" s="0" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I63" s="0" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="H64" s="0" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I64" s="0" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="H65" s="0" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I65" s="0" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="H66" s="0" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I66" s="0" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="H67" s="0" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I67" s="0" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="H68" s="0" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I68" s="0" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="H69" s="0" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I69" s="0" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="H70" s="0" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I70" s="0" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="H71" s="0" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I71" s="0" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="H72" s="0" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I72" s="0" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="H73" s="0" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I73" s="0" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="H74" s="0" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I74" s="0" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="H75" s="0" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I75" s="0" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="H76" s="0" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I76" s="0" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="H77" s="0" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I77" s="0" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="H78" s="0" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I78" s="0" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="H79" s="0" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I79" s="0" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="H80" s="0" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I80" s="0" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="H81" s="0" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I81" s="0" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="H82" s="0" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I82" s="0" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="H83" s="0" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I83" s="0" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="H84" s="0" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I84" s="0" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="H85" s="0" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I85" s="0" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="H86" s="0" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I86" s="0" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="H87" s="0" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I87" s="0" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="H88" s="0" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I88" s="0" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="H89" s="0" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I89" s="0" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="H90" s="0" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I90" s="0" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="H91" s="0" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I91" s="0" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="H92" s="0" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I92" s="0" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="H93" s="0" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I93" s="0" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="H94" s="0" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I94" s="0" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="H95" s="0" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I95" s="0" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="H96" s="0" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I96" s="0" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="H97" s="0" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I97" s="0" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="H98" s="0" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I98" s="0" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="H99" s="0" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I99" s="0" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="H100" s="0" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I100" s="0" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="H101" s="0" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I101" s="0" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="H102" s="0" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I102" s="0" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="H103" s="0" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I103" s="0" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="H104" s="0" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I104" s="0" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="H105" s="0" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I105" s="0" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="H106" s="0" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I106" s="0" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="H107" s="0" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I107" s="0" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="H108" s="0" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I108" s="0" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="H109" s="0" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I109" s="0" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="H110" s="0" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I110" s="0" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="H111" s="0" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I111" s="0" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="H112" s="0" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I112" s="0" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="H113" s="0" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I113" s="0" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="H114" s="0" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I114" s="0" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="H115" s="0" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I115" s="0" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="H116" s="0" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I116" s="0" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="H117" s="0" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I117" s="0" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="H118" s="0" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I118" s="0" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="E119" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H119" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="I119" s="0" t="s">
         <v>172</v>
       </c>
-      <c r="H119" s="0" t="s">
-        <v>184</v>
-      </c>
-      <c r="I119" s="0" t="s">
-        <v>174</v>
-      </c>
       <c r="J119" s="0" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="E120" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H120" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="I120" s="0" t="s">
         <v>172</v>
       </c>
-      <c r="H120" s="0" t="s">
-        <v>184</v>
-      </c>
-      <c r="I120" s="0" t="s">
-        <v>174</v>
-      </c>
       <c r="J120" s="0" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="E121" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H121" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="I121" s="0" t="s">
         <v>172</v>
       </c>
-      <c r="H121" s="0" t="s">
-        <v>184</v>
-      </c>
-      <c r="I121" s="0" t="s">
-        <v>174</v>
-      </c>
       <c r="J121" s="0" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="H122" s="0" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I122" s="0" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="H123" s="0" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I123" s="0" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="H124" s="0" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I124" s="0" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C125" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="H125" s="0" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I125" s="0" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C126" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="H126" s="0" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I126" s="0" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C127" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="H127" s="0" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I127" s="0" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C128" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="H128" s="0" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I128" s="0" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C129" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="H129" s="0" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I129" s="0" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C130" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="H130" s="0" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I130" s="0" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C131" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="H131" s="0" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I131" s="0" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C132" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="H132" s="0" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I132" s="0" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C133" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="H133" s="0" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I133" s="0" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C134" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="H134" s="0" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I134" s="0" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C135" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="H135" s="0" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I135" s="0" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C136" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="H136" s="0" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I136" s="0" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C137" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="H137" s="0" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I137" s="0" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C138" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="H138" s="0" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I138" s="0" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C139" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="H139" s="0" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I139" s="0" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C140" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="H140" s="0" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I140" s="0" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C141" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="H141" s="0" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I141" s="0" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C142" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="H142" s="0" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I142" s="0" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C143" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="H143" s="0" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I143" s="0" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C144" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="H144" s="0" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I144" s="0" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C145" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="H145" s="0" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I145" s="0" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -6311,345 +6302,345 @@
     <hyperlink ref="D5" display="d3008e3fe7da4c118c693d2b34a0b329780f8d86.png" r:id="rId19"/>
     <hyperlink ref="F5" display="Push.png" r:id="rId20"/>
     <hyperlink ref="G5" display="d3008e3fe7da4c118c693d2b34a0b329780f8d86.png" r:id="rId21"/>
-    <hyperlink ref="A6" display="authoringResource.md" r:id="rId22"/>
+    <hyperlink ref="A6" display="archiveResource.md" r:id="rId22"/>
     <hyperlink ref="B6" display=".md" r:id="rId23"/>
-    <hyperlink ref="D6" display="authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.de-de.xlf" r:id="rId24"/>
-    <hyperlink ref="A7" display="archiveResource.md" r:id="rId25"/>
+    <hyperlink ref="D6" display="archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.zh-tw.xlf" r:id="rId24"/>
+    <hyperlink ref="A7" display="authoringResource.md" r:id="rId25"/>
     <hyperlink ref="B7" display=".md" r:id="rId26"/>
-    <hyperlink ref="D7" display="archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.de-de.xlf" r:id="rId27"/>
+    <hyperlink ref="D7" display="authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.zh-tw.xlf" r:id="rId27"/>
     <hyperlink ref="A8" display="authoringResourceClass.md" r:id="rId28"/>
     <hyperlink ref="B8" display=".md" r:id="rId29"/>
-    <hyperlink ref="D8" display="authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.de-de.xlf" r:id="rId30"/>
+    <hyperlink ref="D8" display="authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.zh-tw.xlf" r:id="rId30"/>
     <hyperlink ref="A9" display="authoringResourceComposite.md" r:id="rId31"/>
     <hyperlink ref="B9" display=".md" r:id="rId32"/>
-    <hyperlink ref="D9" display="authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.de-de.xlf" r:id="rId33"/>
+    <hyperlink ref="D9" display="authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.zh-tw.xlf" r:id="rId33"/>
     <hyperlink ref="A10" display="authoringResourceMOF.md" r:id="rId34"/>
     <hyperlink ref="B10" display=".md" r:id="rId35"/>
-    <hyperlink ref="D10" display="authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.de-de.xlf" r:id="rId36"/>
+    <hyperlink ref="D10" display="authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.zh-tw.xlf" r:id="rId36"/>
     <hyperlink ref="A11" display="authoringResourceMofCS.md" r:id="rId37"/>
     <hyperlink ref="B11" display=".md" r:id="rId38"/>
-    <hyperlink ref="D11" display="authoringResourceMofCS.0647b27b00ec52b2f524a2856e48bc7c29c0f867.de-de.xlf" r:id="rId39"/>
+    <hyperlink ref="D11" display="authoringResourceMofCS.0647b27b00ec52b2f524a2856e48bc7c29c0f867.zh-tw.xlf" r:id="rId39"/>
     <hyperlink ref="A12" display="authoringResourceMofDesigner.md" r:id="rId40"/>
     <hyperlink ref="B12" display=".md" r:id="rId41"/>
-    <hyperlink ref="D12" display="authoringResourceMofDesigner.09b1adffc4afb0d9b1154880e2dab0b25d82d51b.de-de.xlf" r:id="rId42"/>
+    <hyperlink ref="D12" display="authoringResourceMofDesigner.09b1adffc4afb0d9b1154880e2dab0b25d82d51b.zh-tw.xlf" r:id="rId42"/>
     <hyperlink ref="A13" display="builtInResource.md" r:id="rId43"/>
     <hyperlink ref="B13" display=".md" r:id="rId44"/>
-    <hyperlink ref="D13" display="builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.de-de.xlf" r:id="rId45"/>
+    <hyperlink ref="D13" display="builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.zh-tw.xlf" r:id="rId45"/>
     <hyperlink ref="A14" display="configData.md" r:id="rId46"/>
     <hyperlink ref="B14" display=".md" r:id="rId47"/>
-    <hyperlink ref="D14" display="configData.51d01a46dd9af8b425788cc485523b09f8470b95.de-de.xlf" r:id="rId48"/>
+    <hyperlink ref="D14" display="configData.51d01a46dd9af8b425788cc485523b09f8470b95.zh-tw.xlf" r:id="rId48"/>
     <hyperlink ref="A15" display="configDataCredentials.md" r:id="rId49"/>
     <hyperlink ref="B15" display=".md" r:id="rId50"/>
-    <hyperlink ref="D15" display="configDataCredentials.f3e75119e7d93b2f914823c5ea23bfde3935a874.de-de.xlf" r:id="rId51"/>
+    <hyperlink ref="D15" display="configDataCredentials.f3e75119e7d93b2f914823c5ea23bfde3935a874.zh-tw.xlf" r:id="rId51"/>
     <hyperlink ref="A16" display="configurations.md" r:id="rId52"/>
     <hyperlink ref="B16" display=".md" r:id="rId53"/>
-    <hyperlink ref="D16" display="configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.de-de.xlf" r:id="rId54"/>
+    <hyperlink ref="D16" display="configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.zh-tw.xlf" r:id="rId54"/>
     <hyperlink ref="A17" display="debugResource.md" r:id="rId55"/>
     <hyperlink ref="B17" display=".md" r:id="rId56"/>
-    <hyperlink ref="D17" display="debugResource.ac634156affe5c723cc149a298f5aa4268d17016.de-de.xlf" r:id="rId57"/>
+    <hyperlink ref="D17" display="debugResource.ac634156affe5c723cc149a298f5aa4268d17016.zh-tw.xlf" r:id="rId57"/>
     <hyperlink ref="A18" display="decisionMaker.md" r:id="rId58"/>
     <hyperlink ref="B18" display=".md" r:id="rId59"/>
-    <hyperlink ref="D18" display="decisionMaker.01553169f2ba4241995260fad925e2784b5f5567.de-de.xlf" r:id="rId60"/>
+    <hyperlink ref="D18" display="decisionMaker.01553169f2ba4241995260fad925e2784b5f5567.zh-tw.xlf" r:id="rId60"/>
     <hyperlink ref="A19" display="enactingConfigurations.md" r:id="rId61"/>
     <hyperlink ref="B19" display=".md" r:id="rId62"/>
-    <hyperlink ref="D19" display="enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.de-de.xlf" r:id="rId63"/>
+    <hyperlink ref="D19" display="enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.zh-tw.xlf" r:id="rId63"/>
     <hyperlink ref="A20" display="environmentResource.md" r:id="rId64"/>
     <hyperlink ref="B20" display=".md" r:id="rId65"/>
-    <hyperlink ref="D20" display="environmentResource.eb91ffd4cd8bdb9476e5a83de1a20d3b7b502a56.de-de.xlf" r:id="rId66"/>
+    <hyperlink ref="D20" display="environmentResource.eb91ffd4cd8bdb9476e5a83de1a20d3b7b502a56.zh-tw.xlf" r:id="rId66"/>
     <hyperlink ref="A21" display="fileResource.md" r:id="rId67"/>
     <hyperlink ref="B21" display=".md" r:id="rId68"/>
-    <hyperlink ref="D21" display="fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.de-de.xlf" r:id="rId69"/>
+    <hyperlink ref="D21" display="fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.zh-tw.xlf" r:id="rId69"/>
     <hyperlink ref="A22" display="gettingStarted.md" r:id="rId70"/>
     <hyperlink ref="B22" display=".md" r:id="rId71"/>
-    <hyperlink ref="D22" display="gettingStarted.92e02d8bd273df5c304475a9b4fa251c22a7ea19.de-de.xlf" r:id="rId72"/>
+    <hyperlink ref="D22" display="gettingStarted.92e02d8bd273df5c304475a9b4fa251c22a7ea19.zh-tw.xlf" r:id="rId72"/>
     <hyperlink ref="A23" display="groupResource.md" r:id="rId73"/>
     <hyperlink ref="B23" display=".md" r:id="rId74"/>
-    <hyperlink ref="D23" display="groupResource.d19d416269795c92566b62c36b9782062dcea43e.de-de.xlf" r:id="rId75"/>
+    <hyperlink ref="D23" display="groupResource.d19d416269795c92566b62c36b9782062dcea43e.zh-tw.xlf" r:id="rId75"/>
     <hyperlink ref="A24" display="CredentialEncryptionDiagram1.png" r:id="rId76"/>
     <hyperlink ref="B24" display=".png" r:id="rId77"/>
     <hyperlink ref="D24" display="d9f53a805041164f5070845c0fd216b63d17ae58.png" r:id="rId78"/>
     <hyperlink ref="A25" display="lnxArchiveResource.md" r:id="rId79"/>
     <hyperlink ref="B25" display=".md" r:id="rId80"/>
-    <hyperlink ref="D25" display="lnxArchiveResource.095aab7d23720fd394f2573c30223a6bbcc0a4ef.de-de.xlf" r:id="rId81"/>
+    <hyperlink ref="D25" display="lnxArchiveResource.095aab7d23720fd394f2573c30223a6bbcc0a4ef.zh-tw.xlf" r:id="rId81"/>
     <hyperlink ref="A26" display="lnxBuiltInResources.md" r:id="rId82"/>
     <hyperlink ref="B26" display=".md" r:id="rId83"/>
-    <hyperlink ref="D26" display="lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.de-de.xlf" r:id="rId84"/>
+    <hyperlink ref="D26" display="lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.zh-tw.xlf" r:id="rId84"/>
     <hyperlink ref="A27" display="lnxEnvironmentResource.md" r:id="rId85"/>
     <hyperlink ref="B27" display=".md" r:id="rId86"/>
-    <hyperlink ref="D27" display="lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.de-de.xlf" r:id="rId87"/>
+    <hyperlink ref="D27" display="lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.zh-tw.xlf" r:id="rId87"/>
     <hyperlink ref="A28" display="lnxFileLineResource.md" r:id="rId88"/>
     <hyperlink ref="B28" display=".md" r:id="rId89"/>
-    <hyperlink ref="D28" display="lnxFileLineResource.d91fc802a4c6cdbff5a2e35f92b34c36c6dbf5eb.de-de.xlf" r:id="rId90"/>
+    <hyperlink ref="D28" display="lnxFileLineResource.d91fc802a4c6cdbff5a2e35f92b34c36c6dbf5eb.zh-tw.xlf" r:id="rId90"/>
     <hyperlink ref="A29" display="lnxFileResource.md" r:id="rId91"/>
     <hyperlink ref="B29" display=".md" r:id="rId92"/>
-    <hyperlink ref="D29" display="lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.de-de.xlf" r:id="rId93"/>
+    <hyperlink ref="D29" display="lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.zh-tw.xlf" r:id="rId93"/>
     <hyperlink ref="A30" display="lnxGettingStarted.md" r:id="rId94"/>
     <hyperlink ref="B30" display=".md" r:id="rId95"/>
-    <hyperlink ref="D30" display="lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.de-de.xlf" r:id="rId96"/>
+    <hyperlink ref="D30" display="lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.zh-tw.xlf" r:id="rId96"/>
     <hyperlink ref="A31" display="lnxGroupResource.md" r:id="rId97"/>
     <hyperlink ref="B31" display=".md" r:id="rId98"/>
-    <hyperlink ref="D31" display="lnxGroupResource.0cedb684d797032bd47cdb852629c36da0884567.de-de.xlf" r:id="rId99"/>
+    <hyperlink ref="D31" display="lnxGroupResource.0cedb684d797032bd47cdb852629c36da0884567.zh-tw.xlf" r:id="rId99"/>
     <hyperlink ref="A32" display="lnxPackageResource.md" r:id="rId100"/>
     <hyperlink ref="B32" display=".md" r:id="rId101"/>
-    <hyperlink ref="D32" display="lnxPackageResource.db35ab938bbfbb38cae53fe9ae98fd22b5f18009.de-de.xlf" r:id="rId102"/>
+    <hyperlink ref="D32" display="lnxPackageResource.db35ab938bbfbb38cae53fe9ae98fd22b5f18009.zh-tw.xlf" r:id="rId102"/>
     <hyperlink ref="A33" display="lnxScriptResource.md" r:id="rId103"/>
     <hyperlink ref="B33" display=".md" r:id="rId104"/>
-    <hyperlink ref="D33" display="lnxScriptResource.1344a5d5b807ee53705e93842d9ef5e25a883359.de-de.xlf" r:id="rId105"/>
+    <hyperlink ref="D33" display="lnxScriptResource.1344a5d5b807ee53705e93842d9ef5e25a883359.zh-tw.xlf" r:id="rId105"/>
     <hyperlink ref="A34" display="lnxServiceResource.md" r:id="rId106"/>
     <hyperlink ref="B34" display=".md" r:id="rId107"/>
-    <hyperlink ref="D34" display="lnxServiceResource.e637c7f7b18939ec8c16eadf2c42ab00e236fb7b.de-de.xlf" r:id="rId108"/>
+    <hyperlink ref="D34" display="lnxServiceResource.e637c7f7b18939ec8c16eadf2c42ab00e236fb7b.zh-tw.xlf" r:id="rId108"/>
     <hyperlink ref="A35" display="lnxSshAuthorizedKeysResource.md" r:id="rId109"/>
     <hyperlink ref="B35" display=".md" r:id="rId110"/>
-    <hyperlink ref="D35" display="lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.de-de.xlf" r:id="rId111"/>
+    <hyperlink ref="D35" display="lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.zh-tw.xlf" r:id="rId111"/>
     <hyperlink ref="A36" display="lnxUserResource.md" r:id="rId112"/>
     <hyperlink ref="B36" display=".md" r:id="rId113"/>
-    <hyperlink ref="D36" display="lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.de-de.xlf" r:id="rId114"/>
+    <hyperlink ref="D36" display="lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.zh-tw.xlf" r:id="rId114"/>
     <hyperlink ref="A37" display="logResource.md" r:id="rId115"/>
     <hyperlink ref="B37" display=".md" r:id="rId116"/>
-    <hyperlink ref="D37" display="logResource.07af9dfcf6076ef19059178c3b404762677920f0.de-de.xlf" r:id="rId117"/>
+    <hyperlink ref="D37" display="logResource.07af9dfcf6076ef19059178c3b404762677920f0.zh-tw.xlf" r:id="rId117"/>
     <hyperlink ref="A38" display="metaConfig.md" r:id="rId118"/>
     <hyperlink ref="B38" display=".md" r:id="rId119"/>
-    <hyperlink ref="D38" display="metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.de-de.xlf" r:id="rId120"/>
+    <hyperlink ref="D38" display="metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.zh-tw.xlf" r:id="rId120"/>
     <hyperlink ref="A39" display="metaConfig4.md" r:id="rId121"/>
     <hyperlink ref="B39" display=".md" r:id="rId122"/>
-    <hyperlink ref="D39" display="metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.de-de.xlf" r:id="rId123"/>
+    <hyperlink ref="D39" display="metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.zh-tw.xlf" r:id="rId123"/>
     <hyperlink ref="A40" display="overview.md" r:id="rId124"/>
     <hyperlink ref="B40" display=".md" r:id="rId125"/>
-    <hyperlink ref="D40" display="overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.de-de.xlf" r:id="rId126"/>
+    <hyperlink ref="D40" display="overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.zh-tw.xlf" r:id="rId126"/>
     <hyperlink ref="A41" display="packageResource.md" r:id="rId127"/>
     <hyperlink ref="B41" display=".md" r:id="rId128"/>
-    <hyperlink ref="D41" display="packageResource.132c4949cee174dc0dc324456d220436cb9884e6.de-de.xlf" r:id="rId129"/>
+    <hyperlink ref="D41" display="packageResource.132c4949cee174dc0dc324456d220436cb9884e6.zh-tw.xlf" r:id="rId129"/>
     <hyperlink ref="A42" display="partialConfigs.md" r:id="rId130"/>
     <hyperlink ref="B42" display=".md" r:id="rId131"/>
-    <hyperlink ref="D42" display="partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.de-de.xlf" r:id="rId132"/>
+    <hyperlink ref="D42" display="partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.zh-tw.xlf" r:id="rId132"/>
     <hyperlink ref="A43" display="pullClient.md" r:id="rId133"/>
     <hyperlink ref="B43" display=".md" r:id="rId134"/>
-    <hyperlink ref="D43" display="pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.de-de.xlf" r:id="rId135"/>
+    <hyperlink ref="D43" display="pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.zh-tw.xlf" r:id="rId135"/>
     <hyperlink ref="A44" display="pullClientConfigID.md" r:id="rId136"/>
     <hyperlink ref="B44" display=".md" r:id="rId137"/>
-    <hyperlink ref="D44" display="pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.de-de.xlf" r:id="rId138"/>
+    <hyperlink ref="D44" display="pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.zh-tw.xlf" r:id="rId138"/>
     <hyperlink ref="A45" display="pullClientConfigID4.md" r:id="rId139"/>
     <hyperlink ref="B45" display=".md" r:id="rId140"/>
-    <hyperlink ref="D45" display="pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.de-de.xlf" r:id="rId141"/>
+    <hyperlink ref="D45" display="pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.zh-tw.xlf" r:id="rId141"/>
     <hyperlink ref="A46" display="pullClientConfigNames.md" r:id="rId142"/>
     <hyperlink ref="B46" display=".md" r:id="rId143"/>
-    <hyperlink ref="D46" display="pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.de-de.xlf" r:id="rId144"/>
+    <hyperlink ref="D46" display="pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.zh-tw.xlf" r:id="rId144"/>
     <hyperlink ref="A47" display="pullServer.md" r:id="rId145"/>
     <hyperlink ref="B47" display=".md" r:id="rId146"/>
-    <hyperlink ref="D47" display="pullServer.4b925b277da29998394af746bdbdd508fda48909.de-de.xlf" r:id="rId147"/>
+    <hyperlink ref="D47" display="pullServer.4b925b277da29998394af746bdbdd508fda48909.zh-tw.xlf" r:id="rId147"/>
     <hyperlink ref="A48" display="pullServerSMB.md" r:id="rId148"/>
     <hyperlink ref="B48" display=".md" r:id="rId149"/>
-    <hyperlink ref="D48" display="pullServerSMB.772aec5ae27ccb19ced78e3eb665a4e16db1c4df.de-de.xlf" r:id="rId150"/>
+    <hyperlink ref="D48" display="pullServerSMB.772aec5ae27ccb19ced78e3eb665a4e16db1c4df.zh-tw.xlf" r:id="rId150"/>
     <hyperlink ref="A49" display="queryServerNodes.md" r:id="rId151"/>
     <hyperlink ref="B49" display=".md" r:id="rId152"/>
-    <hyperlink ref="D49" display="queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.de-de.xlf" r:id="rId153"/>
+    <hyperlink ref="D49" display="queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.zh-tw.xlf" r:id="rId153"/>
     <hyperlink ref="A50" display="registryResource.md" r:id="rId154"/>
     <hyperlink ref="B50" display=".md" r:id="rId155"/>
-    <hyperlink ref="D50" display="registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.de-de.xlf" r:id="rId156"/>
+    <hyperlink ref="D50" display="registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.zh-tw.xlf" r:id="rId156"/>
     <hyperlink ref="A51" display="reportServer.md" r:id="rId157"/>
     <hyperlink ref="B51" display=".md" r:id="rId158"/>
-    <hyperlink ref="D51" display="reportServer.53df4bc8b7b80c0a19c11434bdf5f4304e8248f7.de-de.xlf" r:id="rId159"/>
+    <hyperlink ref="D51" display="reportServer.53df4bc8b7b80c0a19c11434bdf5f4304e8248f7.zh-tw.xlf" r:id="rId159"/>
     <hyperlink ref="A52" display="resourceAuthoringChecklist.md" r:id="rId160"/>
     <hyperlink ref="B52" display=".md" r:id="rId161"/>
-    <hyperlink ref="D52" display="resourceAuthoringChecklist.3b9ae254d826cc45519d37d06044f28a69bdfa69.de-de.xlf" r:id="rId162"/>
+    <hyperlink ref="D52" display="resourceAuthoringChecklist.3b9ae254d826cc45519d37d06044f28a69bdfa69.zh-tw.xlf" r:id="rId162"/>
     <hyperlink ref="A53" display="resources.md" r:id="rId163"/>
     <hyperlink ref="B53" display=".md" r:id="rId164"/>
-    <hyperlink ref="D53" display="resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.de-de.xlf" r:id="rId165"/>
+    <hyperlink ref="D53" display="resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.zh-tw.xlf" r:id="rId165"/>
     <hyperlink ref="A54" display="runAsUser.md" r:id="rId166"/>
     <hyperlink ref="B54" display=".md" r:id="rId167"/>
-    <hyperlink ref="D54" display="runAsUser.d2b90b6bc42ef965e454f9c9f5fd19bc7b488b34.de-de.xlf" r:id="rId168"/>
+    <hyperlink ref="D54" display="runAsUser.d2b90b6bc42ef965e454f9c9f5fd19bc7b488b34.zh-tw.xlf" r:id="rId168"/>
     <hyperlink ref="A55" display="scriptResource.md" r:id="rId169"/>
     <hyperlink ref="B55" display=".md" r:id="rId170"/>
-    <hyperlink ref="D55" display="scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.de-de.xlf" r:id="rId171"/>
+    <hyperlink ref="D55" display="scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.zh-tw.xlf" r:id="rId171"/>
     <hyperlink ref="A56" display="secureMOF.md" r:id="rId172"/>
     <hyperlink ref="B56" display=".md" r:id="rId173"/>
-    <hyperlink ref="D56" display="secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.de-de.xlf" r:id="rId174"/>
+    <hyperlink ref="D56" display="secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.zh-tw.xlf" r:id="rId174"/>
     <hyperlink ref="A57" display="secureServer.md" r:id="rId175"/>
     <hyperlink ref="B57" display=".md" r:id="rId176"/>
-    <hyperlink ref="D57" display="secureServer.ce207607010d18109152742ba23c923cd3cddba2.de-de.xlf" r:id="rId177"/>
+    <hyperlink ref="D57" display="secureServer.ce207607010d18109152742ba23c923cd3cddba2.zh-tw.xlf" r:id="rId177"/>
     <hyperlink ref="A58" display="serviceResource.md" r:id="rId178"/>
     <hyperlink ref="B58" display=".md" r:id="rId179"/>
-    <hyperlink ref="D58" display="serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.de-de.xlf" r:id="rId180"/>
+    <hyperlink ref="D58" display="serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.zh-tw.xlf" r:id="rId180"/>
     <hyperlink ref="A59" display="TOC.md" r:id="rId181"/>
     <hyperlink ref="B59" display=".md" r:id="rId182"/>
-    <hyperlink ref="D59" display="TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.de-de.xlf" r:id="rId183"/>
+    <hyperlink ref="D59" display="TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.zh-tw.xlf" r:id="rId183"/>
     <hyperlink ref="A60" display="troubleshooting.md" r:id="rId184"/>
     <hyperlink ref="B60" display=".md" r:id="rId185"/>
-    <hyperlink ref="D60" display="troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.de-de.xlf" r:id="rId186"/>
+    <hyperlink ref="D60" display="troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.zh-tw.xlf" r:id="rId186"/>
     <hyperlink ref="A61" display="userResource.md" r:id="rId187"/>
     <hyperlink ref="B61" display=".md" r:id="rId188"/>
-    <hyperlink ref="D61" display="userResource.5de4fbe03e9e06934442ba451eb0564931863f45.de-de.xlf" r:id="rId189"/>
+    <hyperlink ref="D61" display="userResource.5de4fbe03e9e06934442ba451eb0564931863f45.zh-tw.xlf" r:id="rId189"/>
     <hyperlink ref="A62" display="windowsfeatureResource.md" r:id="rId190"/>
     <hyperlink ref="B62" display=".md" r:id="rId191"/>
-    <hyperlink ref="D62" display="windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.de-de.xlf" r:id="rId192"/>
+    <hyperlink ref="D62" display="windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.zh-tw.xlf" r:id="rId192"/>
     <hyperlink ref="A63" display="windowsProcessResource.md" r:id="rId193"/>
     <hyperlink ref="B63" display=".md" r:id="rId194"/>
-    <hyperlink ref="D63" display="windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.de-de.xlf" r:id="rId195"/>
+    <hyperlink ref="D63" display="windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.zh-tw.xlf" r:id="rId195"/>
     <hyperlink ref="A64" display="audit_cms.md" r:id="rId196"/>
     <hyperlink ref="B64" display=".md" r:id="rId197"/>
-    <hyperlink ref="D64" display="audit_cms.3e422ca243ac938b46bfcf1497a703e55bde970e.de-de.xlf" r:id="rId198"/>
+    <hyperlink ref="D64" display="audit_cms.3e422ca243ac938b46bfcf1497a703e55bde970e.zh-tw.xlf" r:id="rId198"/>
     <hyperlink ref="A65" display="audit_overview.md" r:id="rId199"/>
     <hyperlink ref="B65" display=".md" r:id="rId200"/>
-    <hyperlink ref="D65" display="audit_overview.fc5b51e2734a2af986c9edf42b4395b1aad2435d.de-de.xlf" r:id="rId201"/>
+    <hyperlink ref="D65" display="audit_overview.fc5b51e2734a2af986c9edf42b4395b1aad2435d.zh-tw.xlf" r:id="rId201"/>
     <hyperlink ref="A66" display="audit_script.md" r:id="rId202"/>
     <hyperlink ref="B66" display=".md" r:id="rId203"/>
-    <hyperlink ref="D66" display="audit_script.e89f3a9316d1125e1efd23b41b756a3a6161016b.de-de.xlf" r:id="rId204"/>
+    <hyperlink ref="D66" display="audit_script.e89f3a9316d1125e1efd23b41b756a3a6161016b.zh-tw.xlf" r:id="rId204"/>
     <hyperlink ref="A67" display="audit_transcript.md" r:id="rId205"/>
     <hyperlink ref="B67" display=".md" r:id="rId206"/>
-    <hyperlink ref="D67" display="audit_transcript.c21a6554932939cbf4c744bf7c9f07cc4e1e7160.de-de.xlf" r:id="rId207"/>
+    <hyperlink ref="D67" display="audit_transcript.c21a6554932939cbf4c744bf7c9f07cc4e1e7160.zh-tw.xlf" r:id="rId207"/>
     <hyperlink ref="A68" display="class_base.md" r:id="rId208"/>
     <hyperlink ref="B68" display=".md" r:id="rId209"/>
-    <hyperlink ref="D68" display="class_base.29a9fbe4987503d5575c151f4271f58398cb7e55.de-de.xlf" r:id="rId210"/>
+    <hyperlink ref="D68" display="class_base.29a9fbe4987503d5575c151f4271f58398cb7e55.zh-tw.xlf" r:id="rId210"/>
     <hyperlink ref="A69" display="class_baseconstructor.md" r:id="rId211"/>
     <hyperlink ref="B69" display=".md" r:id="rId212"/>
-    <hyperlink ref="D69" display="class_baseconstructor.82f951e800b06ccc68090b1be9923c8210a233ac.de-de.xlf" r:id="rId213"/>
+    <hyperlink ref="D69" display="class_baseconstructor.82f951e800b06ccc68090b1be9923c8210a233ac.zh-tw.xlf" r:id="rId213"/>
     <hyperlink ref="A70" display="class_basemethod.md" r:id="rId214"/>
     <hyperlink ref="B70" display=".md" r:id="rId215"/>
-    <hyperlink ref="D70" display="class_basemethod.6b60292188d0081f30fbaf4b111db8a439348f5b.de-de.xlf" r:id="rId216"/>
+    <hyperlink ref="D70" display="class_basemethod.6b60292188d0081f30fbaf4b111db8a439348f5b.zh-tw.xlf" r:id="rId216"/>
     <hyperlink ref="A71" display="class_interface.md" r:id="rId217"/>
     <hyperlink ref="B71" display=".md" r:id="rId218"/>
-    <hyperlink ref="D71" display="class_interface.84a08fd30808364a820bdd4440de18ec4504a6c7.de-de.xlf" r:id="rId219"/>
+    <hyperlink ref="D71" display="class_interface.84a08fd30808364a820bdd4440de18ec4504a6c7.zh-tw.xlf" r:id="rId219"/>
     <hyperlink ref="A72" display="class_newtype.md" r:id="rId220"/>
     <hyperlink ref="B72" display=".md" r:id="rId221"/>
-    <hyperlink ref="D72" display="class_newtype.a9f52b670970046f8b1147d4ba646b73abb430dc.de-de.xlf" r:id="rId222"/>
+    <hyperlink ref="D72" display="class_newtype.a9f52b670970046f8b1147d4ba646b73abb430dc.zh-tw.xlf" r:id="rId222"/>
     <hyperlink ref="A73" display="class_overview.md" r:id="rId223"/>
     <hyperlink ref="B73" display=".md" r:id="rId224"/>
-    <hyperlink ref="D73" display="class_overview.91227b885afcb8df385ab601ab970b924eca2533.de-de.xlf" r:id="rId225"/>
+    <hyperlink ref="D73" display="class_overview.91227b885afcb8df385ab601ab970b924eca2533.zh-tw.xlf" r:id="rId225"/>
     <hyperlink ref="A74" display="debug_overview.md" r:id="rId226"/>
     <hyperlink ref="B74" display=".md" r:id="rId227"/>
-    <hyperlink ref="D74" display="debug_overview.70b71c20b8b625704c25da28a58e804a048bafb0.de-de.xlf" r:id="rId228"/>
+    <hyperlink ref="D74" display="debug_overview.70b71c20b8b625704c25da28a58e804a048bafb0.zh-tw.xlf" r:id="rId228"/>
     <hyperlink ref="A75" display="dsc_authoring.md" r:id="rId229"/>
     <hyperlink ref="B75" display=".md" r:id="rId230"/>
-    <hyperlink ref="D75" display="dsc_authoring.364878cde8f156d8999773842812e0c08f70191c.de-de.xlf" r:id="rId231"/>
+    <hyperlink ref="D75" display="dsc_authoring.364878cde8f156d8999773842812e0c08f70191c.zh-tw.xlf" r:id="rId231"/>
     <hyperlink ref="A76" display="dsc_classbasedresource.md" r:id="rId232"/>
     <hyperlink ref="B76" display=".md" r:id="rId233"/>
-    <hyperlink ref="D76" display="dsc_classbasedresource.a3d6b22652db939b51db1218584247396454ae0f.de-de.xlf" r:id="rId234"/>
+    <hyperlink ref="D76" display="dsc_classbasedresource.a3d6b22652db939b51db1218584247396454ae0f.zh-tw.xlf" r:id="rId234"/>
     <hyperlink ref="A77" display="dsc_confighelp.md" r:id="rId235"/>
     <hyperlink ref="B77" display=".md" r:id="rId236"/>
-    <hyperlink ref="D77" display="dsc_confighelp.bcfa7e85acae98499089edc9fba25b68953d7bbf.de-de.xlf" r:id="rId237"/>
+    <hyperlink ref="D77" display="dsc_confighelp.bcfa7e85acae98499089edc9fba25b68953d7bbf.zh-tw.xlf" r:id="rId237"/>
     <hyperlink ref="A78" display="dsc_directaccess.md" r:id="rId238"/>
     <hyperlink ref="B78" display=".md" r:id="rId239"/>
-    <hyperlink ref="D78" display="dsc_directaccess.014c91015162b26b678e0a5fdfd453a3bf6e41b0.de-de.xlf" r:id="rId240"/>
+    <hyperlink ref="D78" display="dsc_directaccess.014c91015162b26b678e0a5fdfd453a3bf6e41b0.zh-tw.xlf" r:id="rId240"/>
     <hyperlink ref="A79" display="dsc_encryptedmof.md" r:id="rId241"/>
     <hyperlink ref="B79" display=".md" r:id="rId242"/>
-    <hyperlink ref="D79" display="dsc_encryptedmof.a35c44de669ea81f25dd29f152f03493e52e327b.de-de.xlf" r:id="rId243"/>
+    <hyperlink ref="D79" display="dsc_encryptedmof.a35c44de669ea81f25dd29f152f03493e52e327b.zh-tw.xlf" r:id="rId243"/>
     <hyperlink ref="A80" display="dsc_freqnomultiple.md" r:id="rId244"/>
     <hyperlink ref="B80" display=".md" r:id="rId245"/>
-    <hyperlink ref="D80" display="dsc_freqnomultiple.2848e52c73280aca59e73136bac0c2c7ae02aad6.de-de.xlf" r:id="rId246"/>
+    <hyperlink ref="D80" display="dsc_freqnomultiple.2848e52c73280aca59e73136bac0c2c7ae02aad6.zh-tw.xlf" r:id="rId246"/>
     <hyperlink ref="A81" display="dsc_getconfigurationstatus.md" r:id="rId247"/>
     <hyperlink ref="B81" display=".md" r:id="rId248"/>
-    <hyperlink ref="D81" display="dsc_getconfigurationstatus.1705e4bcaa9dfd9d69f00aecdc7ef0d04bf44899.de-de.xlf" r:id="rId249"/>
+    <hyperlink ref="D81" display="dsc_getconfigurationstatus.1705e4bcaa9dfd9d69f00aecdc7ef0d04bf44899.zh-tw.xlf" r:id="rId249"/>
     <hyperlink ref="A82" display="dsc_identicalduplicate.md" r:id="rId250"/>
     <hyperlink ref="B82" display=".md" r:id="rId251"/>
-    <hyperlink ref="D82" display="dsc_identicalduplicate.eb7167ccd4a72d68aa1683327e9b3877927158ab.de-de.xlf" r:id="rId252"/>
+    <hyperlink ref="D82" display="dsc_identicalduplicate.eb7167ccd4a72d68aa1683327e9b3877927158ab.zh-tw.xlf" r:id="rId252"/>
     <hyperlink ref="A83" display="dsc_importdscresource.md" r:id="rId253"/>
     <hyperlink ref="B83" display=".md" r:id="rId254"/>
-    <hyperlink ref="D83" display="dsc_importdscresource.a0169ad862dfcaa5c958c07ecd52c856d5dc8436.de-de.xlf" r:id="rId255"/>
+    <hyperlink ref="D83" display="dsc_importdscresource.a0169ad862dfcaa5c958c07ecd52c856d5dc8436.zh-tw.xlf" r:id="rId255"/>
     <hyperlink ref="A84" display="dsc_improvements.md" r:id="rId256"/>
     <hyperlink ref="B84" display=".md" r:id="rId257"/>
-    <hyperlink ref="D84" display="dsc_improvements.d9ed6ffedf9d9650bb6b26b5ed611e420a0aacbb.de-de.xlf" r:id="rId258"/>
+    <hyperlink ref="D84" display="dsc_improvements.d9ed6ffedf9d9650bb6b26b5ed611e420a0aacbb.zh-tw.xlf" r:id="rId258"/>
     <hyperlink ref="A85" display="dsc_lcmstate.md" r:id="rId259"/>
     <hyperlink ref="B85" display=".md" r:id="rId260"/>
-    <hyperlink ref="D85" display="dsc_lcmstate.21ea1c36f37c94e8e0363199fbd07bcced3aea40.de-de.xlf" r:id="rId261"/>
+    <hyperlink ref="D85" display="dsc_lcmstate.21ea1c36f37c94e8e0363199fbd07bcced3aea40.zh-tw.xlf" r:id="rId261"/>
     <hyperlink ref="A86" display="dsc_metaconfiguration.md" r:id="rId262"/>
     <hyperlink ref="B86" display=".md" r:id="rId263"/>
-    <hyperlink ref="D86" display="dsc_metaconfiguration.e8bbca05aa1692ad54cadd83b93a1902f179f365.de-de.xlf" r:id="rId264"/>
+    <hyperlink ref="D86" display="dsc_metaconfiguration.e8bbca05aa1692ad54cadd83b93a1902f179f365.zh-tw.xlf" r:id="rId264"/>
     <hyperlink ref="A87" display="dsc_newresources.md" r:id="rId265"/>
     <hyperlink ref="B87" display=".md" r:id="rId266"/>
-    <hyperlink ref="D87" display="dsc_newresources.b9c40f591f875ea205c834f7675f3edbe1050592.de-de.xlf" r:id="rId267"/>
+    <hyperlink ref="D87" display="dsc_newresources.b9c40f591f875ea205c834f7675f3edbe1050592.zh-tw.xlf" r:id="rId267"/>
     <hyperlink ref="A88" display="dsc_nodeid.md" r:id="rId268"/>
     <hyperlink ref="B88" display=".md" r:id="rId269"/>
-    <hyperlink ref="D88" display="dsc_nodeid.e3c9049aa6c1d151f8b286f28502537b2f8d22a4.de-de.xlf" r:id="rId270"/>
+    <hyperlink ref="D88" display="dsc_nodeid.e3c9049aa6c1d151f8b286f28502537b2f8d22a4.zh-tw.xlf" r:id="rId270"/>
     <hyperlink ref="A89" display="dsc_partialconfig.md" r:id="rId271"/>
     <hyperlink ref="B89" display=".md" r:id="rId272"/>
-    <hyperlink ref="D89" display="dsc_partialconfig.a493787c3f8663ac3e2994162ffd1bee429544d3.de-de.xlf" r:id="rId273"/>
+    <hyperlink ref="D89" display="dsc_partialconfig.a493787c3f8663ac3e2994162ffd1bee429544d3.zh-tw.xlf" r:id="rId273"/>
     <hyperlink ref="A90" display="dsc_partialconfig_mixedmode.md" r:id="rId274"/>
     <hyperlink ref="B90" display=".md" r:id="rId275"/>
-    <hyperlink ref="D90" display="dsc_partialconfig_mixedmode.ff4b9a8a421441da62574192650493bf2407028d.de-de.xlf" r:id="rId276"/>
+    <hyperlink ref="D90" display="dsc_partialconfig_mixedmode.ff4b9a8a421441da62574192650493bf2407028d.zh-tw.xlf" r:id="rId276"/>
     <hyperlink ref="A91" display="dsc_publishconfig.md" r:id="rId277"/>
     <hyperlink ref="B91" display=".md" r:id="rId278"/>
-    <hyperlink ref="D91" display="dsc_publishconfig.bfe86d4253abdd777c205caec637c50ec79103ee.de-de.xlf" r:id="rId279"/>
+    <hyperlink ref="D91" display="dsc_publishconfig.bfe86d4253abdd777c205caec637c50ec79103ee.zh-tw.xlf" r:id="rId279"/>
     <hyperlink ref="A92" display="dsc_refreshmode.md" r:id="rId280"/>
     <hyperlink ref="B92" display=".md" r:id="rId281"/>
-    <hyperlink ref="D92" display="dsc_refreshmode.b0529a06a4d3e07b3fce300f74760d63b27523f6.de-de.xlf" r:id="rId282"/>
+    <hyperlink ref="D92" display="dsc_refreshmode.b0529a06a4d3e07b3fce300f74760d63b27523f6.zh-tw.xlf" r:id="rId282"/>
     <hyperlink ref="A93" display="dsc_removeconfigdoc.md" r:id="rId283"/>
     <hyperlink ref="B93" display=".md" r:id="rId284"/>
-    <hyperlink ref="D93" display="dsc_removeconfigdoc.d16cdab7eaedf468bcc38dae34e93be26a204318.de-de.xlf" r:id="rId285"/>
+    <hyperlink ref="D93" display="dsc_removeconfigdoc.d16cdab7eaedf468bcc38dae34e93be26a204318.zh-tw.xlf" r:id="rId285"/>
     <hyperlink ref="A94" display="dsc_reporting.md" r:id="rId286"/>
     <hyperlink ref="B94" display=".md" r:id="rId287"/>
-    <hyperlink ref="D94" display="dsc_reporting.b042cd21b9bcfc8e50bc361ddee59333602fad42.de-de.xlf" r:id="rId288"/>
+    <hyperlink ref="D94" display="dsc_reporting.b042cd21b9bcfc8e50bc361ddee59333602fad42.zh-tw.xlf" r:id="rId288"/>
     <hyperlink ref="A95" display="dsc_repository.md" r:id="rId289"/>
     <hyperlink ref="B95" display=".md" r:id="rId290"/>
-    <hyperlink ref="D95" display="dsc_repository.ec5040a823a6b64e969393e00f3d859fd0b4551c.de-de.xlf" r:id="rId291"/>
+    <hyperlink ref="D95" display="dsc_repository.ec5040a823a6b64e969393e00f3d859fd0b4551c.zh-tw.xlf" r:id="rId291"/>
     <hyperlink ref="A96" display="dsc_resourcedebugging.md" r:id="rId292"/>
     <hyperlink ref="B96" display=".md" r:id="rId293"/>
-    <hyperlink ref="D96" display="dsc_resourcedebugging.95c69e55eb065b349f52e18126d699b1906ba03f.de-de.xlf" r:id="rId294"/>
+    <hyperlink ref="D96" display="dsc_resourcedebugging.95c69e55eb065b349f52e18126d699b1906ba03f.zh-tw.xlf" r:id="rId294"/>
     <hyperlink ref="A97" display="dsc_runas.md" r:id="rId295"/>
     <hyperlink ref="B97" display=".md" r:id="rId296"/>
-    <hyperlink ref="D97" display="dsc_runas.9e19a42a6d5e1ea1772358a6fd8ff24b98a5b6ba.de-de.xlf" r:id="rId297"/>
+    <hyperlink ref="D97" display="dsc_runas.9e19a42a6d5e1ea1772358a6fd8ff24b98a5b6ba.zh-tw.xlf" r:id="rId297"/>
     <hyperlink ref="A98" display="dsc_setdsclcm.md" r:id="rId298"/>
     <hyperlink ref="B98" display=".md" r:id="rId299"/>
-    <hyperlink ref="D98" display="dsc_setdsclcm.1f0e3cab81cf5fc1feda678f202451fe150632e3.de-de.xlf" r:id="rId300"/>
+    <hyperlink ref="D98" display="dsc_setdsclcm.1f0e3cab81cf5fc1feda678f202451fe150632e3.zh-tw.xlf" r:id="rId300"/>
     <hyperlink ref="A99" display="dsc_statestatus.md" r:id="rId301"/>
     <hyperlink ref="B99" display=".md" r:id="rId302"/>
-    <hyperlink ref="D99" display="dsc_statestatus.b6f3670f776a8f63a705ba16bed2f20be34fc48f.de-de.xlf" r:id="rId303"/>
+    <hyperlink ref="D99" display="dsc_statestatus.b6f3670f776a8f63a705ba16bed2f20be34fc48f.zh-tw.xlf" r:id="rId303"/>
     <hyperlink ref="A100" display="dsc_sxsresource.md" r:id="rId304"/>
     <hyperlink ref="B100" display=".md" r:id="rId305"/>
-    <hyperlink ref="D100" display="dsc_sxsresource.c9d4ce6109370ac1cbc1fb07f191e02f9a61d5d3.de-de.xlf" r:id="rId306"/>
+    <hyperlink ref="D100" display="dsc_sxsresource.c9d4ce6109370ac1cbc1fb07f191e02f9a61d5d3.zh-tw.xlf" r:id="rId306"/>
     <hyperlink ref="A101" display="dsc_testconfiguration.md" r:id="rId307"/>
     <hyperlink ref="B101" display=".md" r:id="rId308"/>
-    <hyperlink ref="D101" display="dsc_testconfiguration.b0e5afe2c8f173ebe49c97c9ea9a2f11d81ea5fa.de-de.xlf" r:id="rId309"/>
+    <hyperlink ref="D101" display="dsc_testconfiguration.b0e5afe2c8f173ebe49c97c9ea9a2f11d81ea5fa.zh-tw.xlf" r:id="rId309"/>
     <hyperlink ref="A102" display="dsc_updateconfig.md" r:id="rId310"/>
     <hyperlink ref="B102" display=".md" r:id="rId311"/>
-    <hyperlink ref="D102" display="dsc_updateconfig.a07eb85e3458d42d7ab1ed5c57dcfc70df709d07.de-de.xlf" r:id="rId312"/>
+    <hyperlink ref="D102" display="dsc_updateconfig.a07eb85e3458d42d7ab1ed5c57dcfc70df709d07.zh-tw.xlf" r:id="rId312"/>
     <hyperlink ref="A103" display="dsc_waitfor.md" r:id="rId313"/>
     <hyperlink ref="B103" display=".md" r:id="rId314"/>
-    <hyperlink ref="D103" display="dsc_waitfor.2b09933f08f1020166ce0f0cd7548a5a3845c48f.de-de.xlf" r:id="rId315"/>
+    <hyperlink ref="D103" display="dsc_waitfor.2b09933f08f1020166ce0f0cd7548a5a3845c48f.zh-tw.xlf" r:id="rId315"/>
     <hyperlink ref="A104" display="dsc_wow64.md" r:id="rId316"/>
     <hyperlink ref="B104" display=".md" r:id="rId317"/>
-    <hyperlink ref="D104" display="dsc_wow64.ea039aaa1bd77415311fc30d80fed43cda07a6e3.de-de.xlf" r:id="rId318"/>
+    <hyperlink ref="D104" display="dsc_wow64.ea039aaa1bd77415311fc30d80fed43cda07a6e3.zh-tw.xlf" r:id="rId318"/>
     <hyperlink ref="A105" display="feedback.md" r:id="rId319"/>
     <hyperlink ref="B105" display=".md" r:id="rId320"/>
-    <hyperlink ref="D105" display="feedback.3662230166299ef7c1fb7a7a7f5cdbd64b1d812a.de-de.xlf" r:id="rId321"/>
+    <hyperlink ref="D105" display="feedback.3662230166299ef7c1fb7a7a7f5cdbd64b1d812a.zh-tw.xlf" r:id="rId321"/>
     <hyperlink ref="A106" display="feedback_archive.md" r:id="rId322"/>
     <hyperlink ref="B106" display=".md" r:id="rId323"/>
-    <hyperlink ref="D106" display="feedback_archive.20de26911a704368058401c7e2bd6ebaac692ff5.de-de.xlf" r:id="rId324"/>
+    <hyperlink ref="D106" display="feedback_archive.20de26911a704368058401c7e2bd6ebaac692ff5.zh-tw.xlf" r:id="rId324"/>
     <hyperlink ref="A107" display="feedback_clipboard.md" r:id="rId325"/>
     <hyperlink ref="B107" display=".md" r:id="rId326"/>
-    <hyperlink ref="D107" display="feedback_clipboard.872e5c147ef02cb86067651f41e3c00b55386664.de-de.xlf" r:id="rId327"/>
+    <hyperlink ref="D107" display="feedback_clipboard.872e5c147ef02cb86067651f41e3c00b55386664.zh-tw.xlf" r:id="rId327"/>
     <hyperlink ref="A108" display="feedback_cmdlets.md" r:id="rId328"/>
     <hyperlink ref="B108" display=".md" r:id="rId329"/>
-    <hyperlink ref="D108" display="feedback_cmdlets.a4c0dfb806ca0da232eeb75ad3706177b8a5ec48.de-de.xlf" r:id="rId330"/>
+    <hyperlink ref="D108" display="feedback_cmdlets.a4c0dfb806ca0da232eeb75ad3706177b8a5ec48.zh-tw.xlf" r:id="rId330"/>
     <hyperlink ref="A109" display="feedback_convertfromString.md" r:id="rId331"/>
     <hyperlink ref="B109" display=".md" r:id="rId332"/>
-    <hyperlink ref="D109" display="feedback_convertfromString.acdeaa33e8fa59b93649b6abf3a7d5ef64fb7664.de-de.xlf" r:id="rId333"/>
+    <hyperlink ref="D109" display="feedback_convertfromString.acdeaa33e8fa59b93649b6abf3a7d5ef64fb7664.zh-tw.xlf" r:id="rId333"/>
     <hyperlink ref="A110" display="feedback_convertstring.md" r:id="rId334"/>
     <hyperlink ref="B110" display=".md" r:id="rId335"/>
-    <hyperlink ref="D110" display="feedback_convertstring.42e964e30093962871c3a4d586ed6c54f25f840d.de-de.xlf" r:id="rId336"/>
+    <hyperlink ref="D110" display="feedback_convertstring.42e964e30093962871c3a4d586ed6c54f25f840d.zh-tw.xlf" r:id="rId336"/>
     <hyperlink ref="A111" display="feedback_fileinfo.md" r:id="rId337"/>
     <hyperlink ref="B111" display=".md" r:id="rId338"/>
-    <hyperlink ref="D111" display="feedback_fileinfo.0192edad2d6504d26a9632f95fc9e5b66ffd8003.de-de.xlf" r:id="rId339"/>
+    <hyperlink ref="D111" display="feedback_fileinfo.0192edad2d6504d26a9632f95fc9e5b66ffd8003.zh-tw.xlf" r:id="rId339"/>
     <hyperlink ref="A112" display="feedback_formathex.md" r:id="rId340"/>
     <hyperlink ref="B112" display=".md" r:id="rId341"/>
-    <hyperlink ref="D112" display="feedback_formathex.f97931c887efb620e5f4314facc1f0e20e3dffbe.de-de.xlf" r:id="rId342"/>
+    <hyperlink ref="D112" display="feedback_formathex.f97931c887efb620e5f4314facc1f0e20e3dffbe.zh-tw.xlf" r:id="rId342"/>
     <hyperlink ref="A113" display="feedback_getchilditem.md" r:id="rId343"/>
     <hyperlink ref="B113" display=".md" r:id="rId344"/>
-    <hyperlink ref="D113" display="feedback_getchilditem.ce02ca20cc4417a80fe65eb509a8e92f2cecc79c.de-de.xlf" r:id="rId345"/>
+    <hyperlink ref="D113" display="feedback_getchilditem.ce02ca20cc4417a80fe65eb509a8e92f2cecc79c.zh-tw.xlf" r:id="rId345"/>
     <hyperlink ref="A114" display="feedback_moduleversionranges.md" r:id="rId346"/>
     <hyperlink ref="B114" display=".md" r:id="rId347"/>
-    <hyperlink ref="D114" display="feedback_moduleversionranges.611b3a3219d64dbfa1d01541b60a727b880a0c4b.de-de.xlf" r:id="rId348"/>
+    <hyperlink ref="D114" display="feedback_moduleversionranges.611b3a3219d64dbfa1d01541b60a727b880a0c4b.zh-tw.xlf" r:id="rId348"/>
     <hyperlink ref="A115" display="feedback_newguid.md" r:id="rId349"/>
     <hyperlink ref="B115" display=".md" r:id="rId350"/>
-    <hyperlink ref="D115" display="feedback_newguid.f8756fbdb96e6fe06a7e0cbb6ac4af32b1c64983.de-de.xlf" r:id="rId351"/>
+    <hyperlink ref="D115" display="feedback_newguid.f8756fbdb96e6fe06a7e0cbb6ac4af32b1c64983.zh-tw.xlf" r:id="rId351"/>
     <hyperlink ref="A116" display="feedback_nonewline.md" r:id="rId352"/>
     <hyperlink ref="B116" display=".md" r:id="rId353"/>
-    <hyperlink ref="D116" display="feedback_nonewline.7a9b7e24c50399879089bba2b8eee7dc325572e2.de-de.xlf" r:id="rId354"/>
+    <hyperlink ref="D116" display="feedback_nonewline.7a9b7e24c50399879089bba2b8eee7dc325572e2.zh-tw.xlf" r:id="rId354"/>
     <hyperlink ref="A117" display="feedback_symbolic.md" r:id="rId355"/>
     <hyperlink ref="B117" display=".md" r:id="rId356"/>
-    <hyperlink ref="D117" display="feedback_symbolic.1c3ac8128fb9df60512ec024044d48be7d0cb59f.de-de.xlf" r:id="rId357"/>
+    <hyperlink ref="D117" display="feedback_symbolic.1c3ac8128fb9df60512ec024044d48be7d0cb59f.zh-tw.xlf" r:id="rId357"/>
     <hyperlink ref="A118" display="feedback_tempfile.md" r:id="rId358"/>
     <hyperlink ref="B118" display=".md" r:id="rId359"/>
-    <hyperlink ref="D118" display="feedback_tempfile.fc029065af6bbba3a8c4abbf36023bede7d1416d.de-de.xlf" r:id="rId360"/>
+    <hyperlink ref="D118" display="feedback_tempfile.fc029065af6bbba3a8c4abbf36023bede7d1416d.zh-tw.xlf" r:id="rId360"/>
     <hyperlink ref="A119" display="DscResourceDebugging.jpg" r:id="rId361"/>
     <hyperlink ref="B119" display=".jpg" r:id="rId362"/>
     <hyperlink ref="D119" display="ba1897f38317f5fe38f2d8caf0efcc57bc8bb19d.jpg" r:id="rId363"/>
@@ -6661,76 +6652,76 @@
     <hyperlink ref="D121" display="9a44a53029d37d4165bbffbdcaa79d9be76e5fac.jpg" r:id="rId369"/>
     <hyperlink ref="A122" display="informationstream_overview.md" r:id="rId370"/>
     <hyperlink ref="B122" display=".md" r:id="rId371"/>
-    <hyperlink ref="D122" display="informationstream_overview.d2f238b2b4021ccdb7271cf89f53d58970d56cf5.de-de.xlf" r:id="rId372"/>
+    <hyperlink ref="D122" display="informationstream_overview.d2f238b2b4021ccdb7271cf89f53d58970d56cf5.zh-tw.xlf" r:id="rId372"/>
     <hyperlink ref="A123" display="install.md" r:id="rId373"/>
     <hyperlink ref="B123" display=".md" r:id="rId374"/>
-    <hyperlink ref="D123" display="install.317fc924c0f766547c4725878af59c3c9d8facba.de-de.xlf" r:id="rId375"/>
+    <hyperlink ref="D123" display="install.317fc924c0f766547c4725878af59c3c9d8facba.zh-tw.xlf" r:id="rId375"/>
     <hyperlink ref="A124" display="jea_endpoint.md" r:id="rId376"/>
     <hyperlink ref="B124" display=".md" r:id="rId377"/>
-    <hyperlink ref="D124" display="jea_endpoint.1dc052fe583a907a6c090cf8bfd42293d94d2975.de-de.xlf" r:id="rId378"/>
+    <hyperlink ref="D124" display="jea_endpoint.1dc052fe583a907a6c090cf8bfd42293d94d2975.zh-tw.xlf" r:id="rId378"/>
     <hyperlink ref="A125" display="jea_overview.md" r:id="rId379"/>
     <hyperlink ref="B125" display=".md" r:id="rId380"/>
-    <hyperlink ref="D125" display="jea_overview.3fa3008e719be8235adffe51808ac66714940871.de-de.xlf" r:id="rId381"/>
+    <hyperlink ref="D125" display="jea_overview.3fa3008e719be8235adffe51808ac66714940871.zh-tw.xlf" r:id="rId381"/>
     <hyperlink ref="A126" display="jea_report.md" r:id="rId382"/>
     <hyperlink ref="B126" display=".md" r:id="rId383"/>
-    <hyperlink ref="D126" display="jea_report.7860cec6e93b7405844ccbbe5bc879921447ac0b.de-de.xlf" r:id="rId384"/>
+    <hyperlink ref="D126" display="jea_report.7860cec6e93b7405844ccbbe5bc879921447ac0b.zh-tw.xlf" r:id="rId384"/>
     <hyperlink ref="A127" display="limitation_dsc.md" r:id="rId385"/>
     <hyperlink ref="B127" display=".md" r:id="rId386"/>
-    <hyperlink ref="D127" display="limitation_dsc.3684c81bb088cba98089dffdb1a1e56e1c098335.de-de.xlf" r:id="rId387"/>
+    <hyperlink ref="D127" display="limitation_dsc.3684c81bb088cba98089dffdb1a1e56e1c098335.zh-tw.xlf" r:id="rId387"/>
     <hyperlink ref="A128" display="limitation_overview.md" r:id="rId388"/>
     <hyperlink ref="B128" display=".md" r:id="rId389"/>
-    <hyperlink ref="D128" display="limitation_overview.6cc9c8c028f5912636637d836aed7db0614de522.de-de.xlf" r:id="rId390"/>
+    <hyperlink ref="D128" display="limitation_overview.6cc9c8c028f5912636637d836aed7db0614de522.zh-tw.xlf" r:id="rId390"/>
     <hyperlink ref="A129" display="networkswitch_overview.md" r:id="rId391"/>
     <hyperlink ref="B129" display=".md" r:id="rId392"/>
-    <hyperlink ref="D129" display="networkswitch_overview.7a87eb0741cd43b8b9284ea6cb605920c4961b79.de-de.xlf" r:id="rId393"/>
+    <hyperlink ref="D129" display="networkswitch_overview.7a87eb0741cd43b8b9284ea6cb605920c4961b79.zh-tw.xlf" r:id="rId393"/>
     <hyperlink ref="A130" display="odata_overview.md" r:id="rId394"/>
     <hyperlink ref="B130" display=".md" r:id="rId395"/>
-    <hyperlink ref="D130" display="odata_overview.c3f7efdde29fe7ac5685a61cd61d75b65524a4c3.de-de.xlf" r:id="rId396"/>
+    <hyperlink ref="D130" display="odata_overview.c3f7efdde29fe7ac5685a61cd61d75b65524a4c3.zh-tw.xlf" r:id="rId396"/>
     <hyperlink ref="A131" display="oneget_cmdlets.md" r:id="rId397"/>
     <hyperlink ref="B131" display=".md" r:id="rId398"/>
-    <hyperlink ref="D131" display="oneget_cmdlets.469b2350a72495ac2cf62e4130b4df8036f5d135.de-de.xlf" r:id="rId399"/>
+    <hyperlink ref="D131" display="oneget_cmdlets.469b2350a72495ac2cf62e4130b4df8036f5d135.zh-tw.xlf" r:id="rId399"/>
     <hyperlink ref="A132" display="oneget_overview.md" r:id="rId400"/>
     <hyperlink ref="B132" display=".md" r:id="rId401"/>
-    <hyperlink ref="D132" display="oneget_overview.e71a25f36f957ab7471d259c6e716651f6f23c94.de-de.xlf" r:id="rId402"/>
+    <hyperlink ref="D132" display="oneget_overview.e71a25f36f957ab7471d259c6e716651f6f23c94.zh-tw.xlf" r:id="rId402"/>
     <hyperlink ref="A133" display="productincompat.md" r:id="rId403"/>
     <hyperlink ref="B133" display=".md" r:id="rId404"/>
-    <hyperlink ref="D133" display="productincompat.62bb00299c0283b5297001553476a745e28a49cb.de-de.xlf" r:id="rId405"/>
+    <hyperlink ref="D133" display="productincompat.62bb00299c0283b5297001553476a745e28a49cb.zh-tw.xlf" r:id="rId405"/>
     <hyperlink ref="A134" display="psget_module_overview.md" r:id="rId406"/>
     <hyperlink ref="B134" display=".md" r:id="rId407"/>
-    <hyperlink ref="D134" display="psget_module_overview.4149c468ffd0f17a2fabd03f90059c12effc3170.de-de.xlf" r:id="rId408"/>
+    <hyperlink ref="D134" display="psget_module_overview.4149c468ffd0f17a2fabd03f90059c12effc3170.zh-tw.xlf" r:id="rId408"/>
     <hyperlink ref="A135" display="psget_modulecmdlets.md" r:id="rId409"/>
     <hyperlink ref="B135" display=".md" r:id="rId410"/>
-    <hyperlink ref="D135" display="psget_modulecmdlets.1f808cfdf9a9aa920f88e15f7f5fa4701fe805e3.de-de.xlf" r:id="rId411"/>
+    <hyperlink ref="D135" display="psget_modulecmdlets.1f808cfdf9a9aa920f88e15f7f5fa4701fe805e3.zh-tw.xlf" r:id="rId411"/>
     <hyperlink ref="A136" display="psget_moduledependency.md" r:id="rId412"/>
     <hyperlink ref="B136" display=".md" r:id="rId413"/>
-    <hyperlink ref="D136" display="psget_moduledependency.89ba9310335ae64db5481a3c02034ac4fe01b6a2.de-de.xlf" r:id="rId414"/>
+    <hyperlink ref="D136" display="psget_moduledependency.89ba9310335ae64db5481a3c02034ac4fe01b6a2.zh-tw.xlf" r:id="rId414"/>
     <hyperlink ref="A137" display="psget_modulesxsinstall.md" r:id="rId415"/>
     <hyperlink ref="B137" display=".md" r:id="rId416"/>
-    <hyperlink ref="D137" display="psget_modulesxsinstall.110ba80d8f917899ef488b46bd15f5654f6ba06c.de-de.xlf" r:id="rId417"/>
+    <hyperlink ref="D137" display="psget_modulesxsinstall.110ba80d8f917899ef488b46bd15f5654f6ba06c.zh-tw.xlf" r:id="rId417"/>
     <hyperlink ref="A138" display="psget_psrepository.md" r:id="rId418"/>
     <hyperlink ref="B138" display=".md" r:id="rId419"/>
-    <hyperlink ref="D138" display="psget_psrepository.c4381b2ff7bb6496ab74ed8bb2b07325cfbfc056.de-de.xlf" r:id="rId420"/>
+    <hyperlink ref="D138" display="psget_psrepository.c4381b2ff7bb6496ab74ed8bb2b07325cfbfc056.zh-tw.xlf" r:id="rId420"/>
     <hyperlink ref="A139" display="psget_script_overview.md" r:id="rId421"/>
     <hyperlink ref="B139" display=".md" r:id="rId422"/>
-    <hyperlink ref="D139" display="psget_script_overview.f035cc99497d17dc73e3a61f214e40a5860fc70a.de-de.xlf" r:id="rId423"/>
+    <hyperlink ref="D139" display="psget_script_overview.f035cc99497d17dc73e3a61f214e40a5860fc70a.zh-tw.xlf" r:id="rId423"/>
     <hyperlink ref="A140" display="psget_scriptcmdlets.md" r:id="rId424"/>
     <hyperlink ref="B140" display=".md" r:id="rId425"/>
-    <hyperlink ref="D140" display="psget_scriptcmdlets.1762d5f29292d59c1afb37cb29eb11a34cf63990.de-de.xlf" r:id="rId426"/>
+    <hyperlink ref="D140" display="psget_scriptcmdlets.1762d5f29292d59c1afb37cb29eb11a34cf63990.zh-tw.xlf" r:id="rId426"/>
     <hyperlink ref="A141" display="releasenotes.md" r:id="rId427"/>
     <hyperlink ref="B141" display=".md" r:id="rId428"/>
-    <hyperlink ref="D141" display="releasenotes.311750b4da54b1d4ef7997b328edd6ff177fb71f.de-de.xlf" r:id="rId429"/>
+    <hyperlink ref="D141" display="releasenotes.311750b4da54b1d4ef7997b328edd6ff177fb71f.zh-tw.xlf" r:id="rId429"/>
     <hyperlink ref="A142" display="requirements.md" r:id="rId430"/>
     <hyperlink ref="B142" display=".md" r:id="rId431"/>
-    <hyperlink ref="D142" display="requirements.ef8332f358d65b1759bfd4c7336b11d1dc8c2d46.de-de.xlf" r:id="rId432"/>
+    <hyperlink ref="D142" display="requirements.ef8332f358d65b1759bfd4c7336b11d1dc8c2d46.zh-tw.xlf" r:id="rId432"/>
     <hyperlink ref="A143" display="sil_overview.md" r:id="rId433"/>
     <hyperlink ref="B143" display=".md" r:id="rId434"/>
-    <hyperlink ref="D143" display="sil_overview.a2b1f7c716aad317993a5eaffba21fa28ce0c0d8.de-de.xlf" r:id="rId435"/>
+    <hyperlink ref="D143" display="sil_overview.a2b1f7c716aad317993a5eaffba21fa28ce0c0d8.zh-tw.xlf" r:id="rId435"/>
     <hyperlink ref="A144" display="TOC.md" r:id="rId436"/>
     <hyperlink ref="B144" display=".md" r:id="rId437"/>
-    <hyperlink ref="D144" display="TOC.60497266061c38453b3db893ec675eb65584af89.de-de.xlf" r:id="rId438"/>
+    <hyperlink ref="D144" display="TOC.60497266061c38453b3db893ec675eb65584af89.zh-tw.xlf" r:id="rId438"/>
     <hyperlink ref="A145" display="uninstall.md" r:id="rId439"/>
     <hyperlink ref="B145" display=".md" r:id="rId440"/>
-    <hyperlink ref="D145" display="uninstall.b07adaaaf7f41869dfa201b88e29342aced76c96.de-de.xlf" r:id="rId441"/>
+    <hyperlink ref="D145" display="uninstall.b07adaaaf7f41869dfa201b88e29342aced76c96.zh-tw.xlf" r:id="rId441"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/PowerShell/powerShell-Docs/live/localization-status.xlsx
+++ b/ol-handback/PowerShell/powerShell-Docs/live/localization-status.xlsx
@@ -6,19 +6,19 @@
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId2"/>
-    <sheet name="zh-tw" sheetId="2" r:id="rId3"/>
+    <sheet name="ru-ru" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="336">
   <si>
     <t>File Name</t>
   </si>
   <si>
-    <t>zh-tw</t>
+    <t>ru-ru</t>
   </si>
   <si>
     <t>Latest Handoff Date</t>
@@ -30,7 +30,7 @@
     <t>Handed back: in sync with en-US</t>
   </si>
   <si>
-    <t>2016-03-11 01:03:15</t>
+    <t>2016-04-11 01:04:17</t>
   </si>
   <si>
     <t>PartialConfigPullServer.jpg</t>
@@ -48,7 +48,7 @@
     <t>Ready for handoff</t>
   </si>
   <si>
-    <t>2016-02-23 03:02:16</t>
+    <t>2016-03-23 03:03:35</t>
   </si>
   <si>
     <t>authoringResource.md</t>
@@ -57,7 +57,7 @@
     <t>authoringResourceClass.md</t>
   </si>
   <si>
-    <t>2016-53-02 17:53:09</t>
+    <t>2016-44-02 17:44:15</t>
   </si>
   <si>
     <t>authoringResourceComposite.md</t>
@@ -87,13 +87,13 @@
     <t>debugResource.md</t>
   </si>
   <si>
-    <t>2016-42-10 21:42:57</t>
+    <t>2016-44-10 21:44:01</t>
   </si>
   <si>
     <t>decisionMaker.md</t>
   </si>
   <si>
-    <t>2016-32-07 19:32:08</t>
+    <t>2016-32-07 19:32:54</t>
   </si>
   <si>
     <t>enactingConfigurations.md</t>
@@ -132,7 +132,7 @@
     <t>lnxGettingStarted.md</t>
   </si>
   <si>
-    <t>2016-33-10 20:33:03</t>
+    <t>2016-34-10 20:34:03</t>
   </si>
   <si>
     <t>lnxGroupResource.md</t>
@@ -180,7 +180,7 @@
     <t>pullClientConfigID4.md</t>
   </si>
   <si>
-    <t>2016-02-09 20:02:31</t>
+    <t>2016-03-09 20:03:34</t>
   </si>
   <si>
     <t>pullClientConfigNames.md</t>
@@ -189,7 +189,7 @@
     <t>pullServer.md</t>
   </si>
   <si>
-    <t>2016-52-16 22:52:01</t>
+    <t>2016-52-16 22:52:20</t>
   </si>
   <si>
     <t>pullServerSMB.md</t>
@@ -231,7 +231,7 @@
     <t>troubleshooting.md</t>
   </si>
   <si>
-    <t>2016-12-04 21:12:03</t>
+    <t>2016-12-04 21:12:41</t>
   </si>
   <si>
     <t>userResource.md</t>
@@ -246,7 +246,7 @@
     <t>audit_cms.md</t>
   </si>
   <si>
-    <t>2016-13-08 01:13:30</t>
+    <t>2016-15-08 01:15:35</t>
   </si>
   <si>
     <t>audit_overview.md</t>
@@ -528,7 +528,10 @@
     <t>3e61149f7b05f74d662d3038233013ffdcbed1a3.jpg</t>
   </si>
   <si>
-    <t>2016-03-17 04:12:10</t>
+    <t>2016-03-11 01:04:17</t>
+  </si>
+  <si>
+    <t>2016-03-16 23:59:51</t>
   </si>
   <si>
     <t>IsDependency</t>
@@ -546,6 +549,9 @@
     <t>86d829b1fcdd41e648ed0594eaf337b3726c143c.png</t>
   </si>
   <si>
+    <t>2016-03-17 16:45:12</t>
+  </si>
+  <si>
     <t>dsc\enactingConfigurations.md</t>
   </si>
   <si>
@@ -555,7 +561,10 @@
     <t>.md</t>
   </si>
   <si>
-    <t>archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.zh-tw.xlf</t>
+    <t>archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.ru-ru.xlf</t>
+  </si>
+  <si>
+    <t>2016-02-23 03:03:35</t>
   </si>
   <si>
     <t>0001-01-01 00:00:00</t>
@@ -564,64 +573,64 @@
     <t>Include</t>
   </si>
   <si>
-    <t>authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.zh-tw.xlf</t>
-  </si>
-  <si>
-    <t>authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.zh-tw.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-02 17:53:09</t>
-  </si>
-  <si>
-    <t>authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.zh-tw.xlf</t>
-  </si>
-  <si>
-    <t>authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.zh-tw.xlf</t>
-  </si>
-  <si>
-    <t>authoringResourceMofCS.0647b27b00ec52b2f524a2856e48bc7c29c0f867.zh-tw.xlf</t>
-  </si>
-  <si>
-    <t>authoringResourceMofDesigner.09b1adffc4afb0d9b1154880e2dab0b25d82d51b.zh-tw.xlf</t>
-  </si>
-  <si>
-    <t>builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.zh-tw.xlf</t>
-  </si>
-  <si>
-    <t>configData.51d01a46dd9af8b425788cc485523b09f8470b95.zh-tw.xlf</t>
-  </si>
-  <si>
-    <t>configDataCredentials.f3e75119e7d93b2f914823c5ea23bfde3935a874.zh-tw.xlf</t>
-  </si>
-  <si>
-    <t>configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.zh-tw.xlf</t>
-  </si>
-  <si>
-    <t>debugResource.ac634156affe5c723cc149a298f5aa4268d17016.zh-tw.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-10 21:42:57</t>
-  </si>
-  <si>
-    <t>decisionMaker.01553169f2ba4241995260fad925e2784b5f5567.zh-tw.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-07 19:32:08</t>
-  </si>
-  <si>
-    <t>enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.zh-tw.xlf</t>
-  </si>
-  <si>
-    <t>environmentResource.eb91ffd4cd8bdb9476e5a83de1a20d3b7b502a56.zh-tw.xlf</t>
-  </si>
-  <si>
-    <t>fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.zh-tw.xlf</t>
-  </si>
-  <si>
-    <t>gettingStarted.92e02d8bd273df5c304475a9b4fa251c22a7ea19.zh-tw.xlf</t>
-  </si>
-  <si>
-    <t>groupResource.d19d416269795c92566b62c36b9782062dcea43e.zh-tw.xlf</t>
+    <t>authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.ru-ru.xlf</t>
+  </si>
+  <si>
+    <t>authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.ru-ru.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-02 17:44:15</t>
+  </si>
+  <si>
+    <t>authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.ru-ru.xlf</t>
+  </si>
+  <si>
+    <t>authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.ru-ru.xlf</t>
+  </si>
+  <si>
+    <t>authoringResourceMofCS.0647b27b00ec52b2f524a2856e48bc7c29c0f867.ru-ru.xlf</t>
+  </si>
+  <si>
+    <t>authoringResourceMofDesigner.09b1adffc4afb0d9b1154880e2dab0b25d82d51b.ru-ru.xlf</t>
+  </si>
+  <si>
+    <t>builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.ru-ru.xlf</t>
+  </si>
+  <si>
+    <t>configData.51d01a46dd9af8b425788cc485523b09f8470b95.ru-ru.xlf</t>
+  </si>
+  <si>
+    <t>configDataCredentials.f3e75119e7d93b2f914823c5ea23bfde3935a874.ru-ru.xlf</t>
+  </si>
+  <si>
+    <t>configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.ru-ru.xlf</t>
+  </si>
+  <si>
+    <t>debugResource.ac634156affe5c723cc149a298f5aa4268d17016.ru-ru.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-10 21:44:01</t>
+  </si>
+  <si>
+    <t>decisionMaker.01553169f2ba4241995260fad925e2784b5f5567.ru-ru.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-07 19:32:54</t>
+  </si>
+  <si>
+    <t>enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.ru-ru.xlf</t>
+  </si>
+  <si>
+    <t>environmentResource.eb91ffd4cd8bdb9476e5a83de1a20d3b7b502a56.ru-ru.xlf</t>
+  </si>
+  <si>
+    <t>fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.ru-ru.xlf</t>
+  </si>
+  <si>
+    <t>gettingStarted.92e02d8bd273df5c304475a9b4fa251c22a7ea19.ru-ru.xlf</t>
+  </si>
+  <si>
+    <t>groupResource.d19d416269795c92566b62c36b9782062dcea43e.ru-ru.xlf</t>
   </si>
   <si>
     <t>d9f53a805041164f5070845c0fd216b63d17ae58.png</t>
@@ -630,301 +639,298 @@
     <t>dsc\secureMOF.md</t>
   </si>
   <si>
-    <t>lnxArchiveResource.095aab7d23720fd394f2573c30223a6bbcc0a4ef.zh-tw.xlf</t>
-  </si>
-  <si>
-    <t>lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.zh-tw.xlf</t>
-  </si>
-  <si>
-    <t>lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.zh-tw.xlf</t>
-  </si>
-  <si>
-    <t>lnxFileLineResource.d91fc802a4c6cdbff5a2e35f92b34c36c6dbf5eb.zh-tw.xlf</t>
-  </si>
-  <si>
-    <t>lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.zh-tw.xlf</t>
-  </si>
-  <si>
-    <t>lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.zh-tw.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-10 20:33:03</t>
-  </si>
-  <si>
-    <t>lnxGroupResource.0cedb684d797032bd47cdb852629c36da0884567.zh-tw.xlf</t>
-  </si>
-  <si>
-    <t>lnxPackageResource.db35ab938bbfbb38cae53fe9ae98fd22b5f18009.zh-tw.xlf</t>
-  </si>
-  <si>
-    <t>lnxScriptResource.1344a5d5b807ee53705e93842d9ef5e25a883359.zh-tw.xlf</t>
-  </si>
-  <si>
-    <t>lnxServiceResource.e637c7f7b18939ec8c16eadf2c42ab00e236fb7b.zh-tw.xlf</t>
-  </si>
-  <si>
-    <t>lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.zh-tw.xlf</t>
-  </si>
-  <si>
-    <t>lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.zh-tw.xlf</t>
-  </si>
-  <si>
-    <t>logResource.07af9dfcf6076ef19059178c3b404762677920f0.zh-tw.xlf</t>
-  </si>
-  <si>
-    <t>metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.zh-tw.xlf</t>
-  </si>
-  <si>
-    <t>metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.zh-tw.xlf</t>
-  </si>
-  <si>
-    <t>overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.zh-tw.xlf</t>
-  </si>
-  <si>
-    <t>packageResource.132c4949cee174dc0dc324456d220436cb9884e6.zh-tw.xlf</t>
-  </si>
-  <si>
-    <t>partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.zh-tw.xlf</t>
-  </si>
-  <si>
-    <t>pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.zh-tw.xlf</t>
-  </si>
-  <si>
-    <t>pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.zh-tw.xlf</t>
-  </si>
-  <si>
-    <t>pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.zh-tw.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-09 20:02:31</t>
-  </si>
-  <si>
-    <t>pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.zh-tw.xlf</t>
-  </si>
-  <si>
-    <t>pullServer.4b925b277da29998394af746bdbdd508fda48909.zh-tw.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-16 22:52:01</t>
-  </si>
-  <si>
-    <t>pullServerSMB.772aec5ae27ccb19ced78e3eb665a4e16db1c4df.zh-tw.xlf</t>
-  </si>
-  <si>
-    <t>queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.zh-tw.xlf</t>
-  </si>
-  <si>
-    <t>registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.zh-tw.xlf</t>
-  </si>
-  <si>
-    <t>reportServer.53df4bc8b7b80c0a19c11434bdf5f4304e8248f7.zh-tw.xlf</t>
-  </si>
-  <si>
-    <t>resourceAuthoringChecklist.3b9ae254d826cc45519d37d06044f28a69bdfa69.zh-tw.xlf</t>
-  </si>
-  <si>
-    <t>resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.zh-tw.xlf</t>
-  </si>
-  <si>
-    <t>runAsUser.d2b90b6bc42ef965e454f9c9f5fd19bc7b488b34.zh-tw.xlf</t>
-  </si>
-  <si>
-    <t>scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.zh-tw.xlf</t>
-  </si>
-  <si>
-    <t>secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.zh-tw.xlf</t>
-  </si>
-  <si>
-    <t>secureServer.ce207607010d18109152742ba23c923cd3cddba2.zh-tw.xlf</t>
-  </si>
-  <si>
-    <t>serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.zh-tw.xlf</t>
-  </si>
-  <si>
-    <t>TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.zh-tw.xlf</t>
-  </si>
-  <si>
-    <t>troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.zh-tw.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-04 21:12:03</t>
-  </si>
-  <si>
-    <t>userResource.5de4fbe03e9e06934442ba451eb0564931863f45.zh-tw.xlf</t>
-  </si>
-  <si>
-    <t>windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.zh-tw.xlf</t>
-  </si>
-  <si>
-    <t>windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.zh-tw.xlf</t>
-  </si>
-  <si>
-    <t>audit_cms.3e422ca243ac938b46bfcf1497a703e55bde970e.zh-tw.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-08 01:13:30</t>
-  </si>
-  <si>
-    <t>audit_overview.fc5b51e2734a2af986c9edf42b4395b1aad2435d.zh-tw.xlf</t>
-  </si>
-  <si>
-    <t>audit_script.e89f3a9316d1125e1efd23b41b756a3a6161016b.zh-tw.xlf</t>
-  </si>
-  <si>
-    <t>audit_transcript.c21a6554932939cbf4c744bf7c9f07cc4e1e7160.zh-tw.xlf</t>
-  </si>
-  <si>
-    <t>class_base.29a9fbe4987503d5575c151f4271f58398cb7e55.zh-tw.xlf</t>
-  </si>
-  <si>
-    <t>class_baseconstructor.82f951e800b06ccc68090b1be9923c8210a233ac.zh-tw.xlf</t>
-  </si>
-  <si>
-    <t>class_basemethod.6b60292188d0081f30fbaf4b111db8a439348f5b.zh-tw.xlf</t>
-  </si>
-  <si>
-    <t>class_interface.84a08fd30808364a820bdd4440de18ec4504a6c7.zh-tw.xlf</t>
-  </si>
-  <si>
-    <t>class_newtype.a9f52b670970046f8b1147d4ba646b73abb430dc.zh-tw.xlf</t>
-  </si>
-  <si>
-    <t>class_overview.91227b885afcb8df385ab601ab970b924eca2533.zh-tw.xlf</t>
-  </si>
-  <si>
-    <t>debug_overview.70b71c20b8b625704c25da28a58e804a048bafb0.zh-tw.xlf</t>
-  </si>
-  <si>
-    <t>dsc_authoring.364878cde8f156d8999773842812e0c08f70191c.zh-tw.xlf</t>
-  </si>
-  <si>
-    <t>dsc_classbasedresource.a3d6b22652db939b51db1218584247396454ae0f.zh-tw.xlf</t>
-  </si>
-  <si>
-    <t>dsc_confighelp.bcfa7e85acae98499089edc9fba25b68953d7bbf.zh-tw.xlf</t>
-  </si>
-  <si>
-    <t>dsc_directaccess.014c91015162b26b678e0a5fdfd453a3bf6e41b0.zh-tw.xlf</t>
-  </si>
-  <si>
-    <t>dsc_encryptedmof.a35c44de669ea81f25dd29f152f03493e52e327b.zh-tw.xlf</t>
-  </si>
-  <si>
-    <t>dsc_freqnomultiple.2848e52c73280aca59e73136bac0c2c7ae02aad6.zh-tw.xlf</t>
-  </si>
-  <si>
-    <t>dsc_getconfigurationstatus.1705e4bcaa9dfd9d69f00aecdc7ef0d04bf44899.zh-tw.xlf</t>
-  </si>
-  <si>
-    <t>dsc_identicalduplicate.eb7167ccd4a72d68aa1683327e9b3877927158ab.zh-tw.xlf</t>
-  </si>
-  <si>
-    <t>dsc_importdscresource.a0169ad862dfcaa5c958c07ecd52c856d5dc8436.zh-tw.xlf</t>
-  </si>
-  <si>
-    <t>dsc_improvements.d9ed6ffedf9d9650bb6b26b5ed611e420a0aacbb.zh-tw.xlf</t>
-  </si>
-  <si>
-    <t>dsc_lcmstate.21ea1c36f37c94e8e0363199fbd07bcced3aea40.zh-tw.xlf</t>
-  </si>
-  <si>
-    <t>dsc_metaconfiguration.e8bbca05aa1692ad54cadd83b93a1902f179f365.zh-tw.xlf</t>
-  </si>
-  <si>
-    <t>dsc_newresources.b9c40f591f875ea205c834f7675f3edbe1050592.zh-tw.xlf</t>
-  </si>
-  <si>
-    <t>dsc_nodeid.e3c9049aa6c1d151f8b286f28502537b2f8d22a4.zh-tw.xlf</t>
-  </si>
-  <si>
-    <t>dsc_partialconfig.a493787c3f8663ac3e2994162ffd1bee429544d3.zh-tw.xlf</t>
-  </si>
-  <si>
-    <t>dsc_partialconfig_mixedmode.ff4b9a8a421441da62574192650493bf2407028d.zh-tw.xlf</t>
-  </si>
-  <si>
-    <t>dsc_publishconfig.bfe86d4253abdd777c205caec637c50ec79103ee.zh-tw.xlf</t>
-  </si>
-  <si>
-    <t>dsc_refreshmode.b0529a06a4d3e07b3fce300f74760d63b27523f6.zh-tw.xlf</t>
-  </si>
-  <si>
-    <t>dsc_removeconfigdoc.d16cdab7eaedf468bcc38dae34e93be26a204318.zh-tw.xlf</t>
-  </si>
-  <si>
-    <t>dsc_reporting.b042cd21b9bcfc8e50bc361ddee59333602fad42.zh-tw.xlf</t>
-  </si>
-  <si>
-    <t>dsc_repository.ec5040a823a6b64e969393e00f3d859fd0b4551c.zh-tw.xlf</t>
-  </si>
-  <si>
-    <t>dsc_resourcedebugging.95c69e55eb065b349f52e18126d699b1906ba03f.zh-tw.xlf</t>
-  </si>
-  <si>
-    <t>dsc_runas.9e19a42a6d5e1ea1772358a6fd8ff24b98a5b6ba.zh-tw.xlf</t>
-  </si>
-  <si>
-    <t>dsc_setdsclcm.1f0e3cab81cf5fc1feda678f202451fe150632e3.zh-tw.xlf</t>
-  </si>
-  <si>
-    <t>dsc_statestatus.b6f3670f776a8f63a705ba16bed2f20be34fc48f.zh-tw.xlf</t>
-  </si>
-  <si>
-    <t>dsc_sxsresource.c9d4ce6109370ac1cbc1fb07f191e02f9a61d5d3.zh-tw.xlf</t>
-  </si>
-  <si>
-    <t>dsc_testconfiguration.b0e5afe2c8f173ebe49c97c9ea9a2f11d81ea5fa.zh-tw.xlf</t>
-  </si>
-  <si>
-    <t>dsc_updateconfig.a07eb85e3458d42d7ab1ed5c57dcfc70df709d07.zh-tw.xlf</t>
-  </si>
-  <si>
-    <t>dsc_waitfor.2b09933f08f1020166ce0f0cd7548a5a3845c48f.zh-tw.xlf</t>
-  </si>
-  <si>
-    <t>dsc_wow64.ea039aaa1bd77415311fc30d80fed43cda07a6e3.zh-tw.xlf</t>
-  </si>
-  <si>
-    <t>feedback.3662230166299ef7c1fb7a7a7f5cdbd64b1d812a.zh-tw.xlf</t>
-  </si>
-  <si>
-    <t>feedback_archive.20de26911a704368058401c7e2bd6ebaac692ff5.zh-tw.xlf</t>
-  </si>
-  <si>
-    <t>feedback_clipboard.872e5c147ef02cb86067651f41e3c00b55386664.zh-tw.xlf</t>
-  </si>
-  <si>
-    <t>feedback_cmdlets.a4c0dfb806ca0da232eeb75ad3706177b8a5ec48.zh-tw.xlf</t>
-  </si>
-  <si>
-    <t>feedback_convertfromString.acdeaa33e8fa59b93649b6abf3a7d5ef64fb7664.zh-tw.xlf</t>
-  </si>
-  <si>
-    <t>feedback_convertstring.42e964e30093962871c3a4d586ed6c54f25f840d.zh-tw.xlf</t>
-  </si>
-  <si>
-    <t>feedback_fileinfo.0192edad2d6504d26a9632f95fc9e5b66ffd8003.zh-tw.xlf</t>
-  </si>
-  <si>
-    <t>feedback_formathex.f97931c887efb620e5f4314facc1f0e20e3dffbe.zh-tw.xlf</t>
-  </si>
-  <si>
-    <t>feedback_getchilditem.ce02ca20cc4417a80fe65eb509a8e92f2cecc79c.zh-tw.xlf</t>
-  </si>
-  <si>
-    <t>feedback_moduleversionranges.611b3a3219d64dbfa1d01541b60a727b880a0c4b.zh-tw.xlf</t>
-  </si>
-  <si>
-    <t>feedback_newguid.f8756fbdb96e6fe06a7e0cbb6ac4af32b1c64983.zh-tw.xlf</t>
-  </si>
-  <si>
-    <t>feedback_nonewline.7a9b7e24c50399879089bba2b8eee7dc325572e2.zh-tw.xlf</t>
-  </si>
-  <si>
-    <t>feedback_symbolic.1c3ac8128fb9df60512ec024044d48be7d0cb59f.zh-tw.xlf</t>
-  </si>
-  <si>
-    <t>feedback_tempfile.fc029065af6bbba3a8c4abbf36023bede7d1416d.zh-tw.xlf</t>
+    <t>lnxArchiveResource.095aab7d23720fd394f2573c30223a6bbcc0a4ef.ru-ru.xlf</t>
+  </si>
+  <si>
+    <t>lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.ru-ru.xlf</t>
+  </si>
+  <si>
+    <t>lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.ru-ru.xlf</t>
+  </si>
+  <si>
+    <t>lnxFileLineResource.d91fc802a4c6cdbff5a2e35f92b34c36c6dbf5eb.ru-ru.xlf</t>
+  </si>
+  <si>
+    <t>lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.ru-ru.xlf</t>
+  </si>
+  <si>
+    <t>lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.ru-ru.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-10 20:34:03</t>
+  </si>
+  <si>
+    <t>lnxGroupResource.0cedb684d797032bd47cdb852629c36da0884567.ru-ru.xlf</t>
+  </si>
+  <si>
+    <t>lnxPackageResource.db35ab938bbfbb38cae53fe9ae98fd22b5f18009.ru-ru.xlf</t>
+  </si>
+  <si>
+    <t>lnxScriptResource.1344a5d5b807ee53705e93842d9ef5e25a883359.ru-ru.xlf</t>
+  </si>
+  <si>
+    <t>lnxServiceResource.e637c7f7b18939ec8c16eadf2c42ab00e236fb7b.ru-ru.xlf</t>
+  </si>
+  <si>
+    <t>lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.ru-ru.xlf</t>
+  </si>
+  <si>
+    <t>lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.ru-ru.xlf</t>
+  </si>
+  <si>
+    <t>logResource.07af9dfcf6076ef19059178c3b404762677920f0.ru-ru.xlf</t>
+  </si>
+  <si>
+    <t>metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.ru-ru.xlf</t>
+  </si>
+  <si>
+    <t>metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.ru-ru.xlf</t>
+  </si>
+  <si>
+    <t>overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.ru-ru.xlf</t>
+  </si>
+  <si>
+    <t>packageResource.132c4949cee174dc0dc324456d220436cb9884e6.ru-ru.xlf</t>
+  </si>
+  <si>
+    <t>partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.ru-ru.xlf</t>
+  </si>
+  <si>
+    <t>pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.ru-ru.xlf</t>
+  </si>
+  <si>
+    <t>pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.ru-ru.xlf</t>
+  </si>
+  <si>
+    <t>pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.ru-ru.xlf</t>
+  </si>
+  <si>
+    <t>pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.ru-ru.xlf</t>
+  </si>
+  <si>
+    <t>pullServer.4b925b277da29998394af746bdbdd508fda48909.ru-ru.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-16 22:52:20</t>
+  </si>
+  <si>
+    <t>pullServerSMB.772aec5ae27ccb19ced78e3eb665a4e16db1c4df.ru-ru.xlf</t>
+  </si>
+  <si>
+    <t>queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.ru-ru.xlf</t>
+  </si>
+  <si>
+    <t>registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.ru-ru.xlf</t>
+  </si>
+  <si>
+    <t>reportServer.53df4bc8b7b80c0a19c11434bdf5f4304e8248f7.ru-ru.xlf</t>
+  </si>
+  <si>
+    <t>resourceAuthoringChecklist.3b9ae254d826cc45519d37d06044f28a69bdfa69.ru-ru.xlf</t>
+  </si>
+  <si>
+    <t>resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.ru-ru.xlf</t>
+  </si>
+  <si>
+    <t>runAsUser.d2b90b6bc42ef965e454f9c9f5fd19bc7b488b34.ru-ru.xlf</t>
+  </si>
+  <si>
+    <t>scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.ru-ru.xlf</t>
+  </si>
+  <si>
+    <t>secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.ru-ru.xlf</t>
+  </si>
+  <si>
+    <t>secureServer.ce207607010d18109152742ba23c923cd3cddba2.ru-ru.xlf</t>
+  </si>
+  <si>
+    <t>serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.ru-ru.xlf</t>
+  </si>
+  <si>
+    <t>TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.ru-ru.xlf</t>
+  </si>
+  <si>
+    <t>troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.ru-ru.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-04 21:12:41</t>
+  </si>
+  <si>
+    <t>userResource.5de4fbe03e9e06934442ba451eb0564931863f45.ru-ru.xlf</t>
+  </si>
+  <si>
+    <t>windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.ru-ru.xlf</t>
+  </si>
+  <si>
+    <t>windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.ru-ru.xlf</t>
+  </si>
+  <si>
+    <t>audit_cms.3e422ca243ac938b46bfcf1497a703e55bde970e.ru-ru.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-08 01:15:35</t>
+  </si>
+  <si>
+    <t>audit_overview.fc5b51e2734a2af986c9edf42b4395b1aad2435d.ru-ru.xlf</t>
+  </si>
+  <si>
+    <t>audit_script.e89f3a9316d1125e1efd23b41b756a3a6161016b.ru-ru.xlf</t>
+  </si>
+  <si>
+    <t>audit_transcript.c21a6554932939cbf4c744bf7c9f07cc4e1e7160.ru-ru.xlf</t>
+  </si>
+  <si>
+    <t>class_base.29a9fbe4987503d5575c151f4271f58398cb7e55.ru-ru.xlf</t>
+  </si>
+  <si>
+    <t>class_baseconstructor.82f951e800b06ccc68090b1be9923c8210a233ac.ru-ru.xlf</t>
+  </si>
+  <si>
+    <t>class_basemethod.6b60292188d0081f30fbaf4b111db8a439348f5b.ru-ru.xlf</t>
+  </si>
+  <si>
+    <t>class_interface.84a08fd30808364a820bdd4440de18ec4504a6c7.ru-ru.xlf</t>
+  </si>
+  <si>
+    <t>class_newtype.a9f52b670970046f8b1147d4ba646b73abb430dc.ru-ru.xlf</t>
+  </si>
+  <si>
+    <t>class_overview.91227b885afcb8df385ab601ab970b924eca2533.ru-ru.xlf</t>
+  </si>
+  <si>
+    <t>debug_overview.70b71c20b8b625704c25da28a58e804a048bafb0.ru-ru.xlf</t>
+  </si>
+  <si>
+    <t>dsc_authoring.364878cde8f156d8999773842812e0c08f70191c.ru-ru.xlf</t>
+  </si>
+  <si>
+    <t>dsc_classbasedresource.a3d6b22652db939b51db1218584247396454ae0f.ru-ru.xlf</t>
+  </si>
+  <si>
+    <t>dsc_confighelp.bcfa7e85acae98499089edc9fba25b68953d7bbf.ru-ru.xlf</t>
+  </si>
+  <si>
+    <t>dsc_directaccess.014c91015162b26b678e0a5fdfd453a3bf6e41b0.ru-ru.xlf</t>
+  </si>
+  <si>
+    <t>dsc_encryptedmof.a35c44de669ea81f25dd29f152f03493e52e327b.ru-ru.xlf</t>
+  </si>
+  <si>
+    <t>dsc_freqnomultiple.2848e52c73280aca59e73136bac0c2c7ae02aad6.ru-ru.xlf</t>
+  </si>
+  <si>
+    <t>dsc_getconfigurationstatus.1705e4bcaa9dfd9d69f00aecdc7ef0d04bf44899.ru-ru.xlf</t>
+  </si>
+  <si>
+    <t>dsc_identicalduplicate.eb7167ccd4a72d68aa1683327e9b3877927158ab.ru-ru.xlf</t>
+  </si>
+  <si>
+    <t>dsc_importdscresource.a0169ad862dfcaa5c958c07ecd52c856d5dc8436.ru-ru.xlf</t>
+  </si>
+  <si>
+    <t>dsc_improvements.d9ed6ffedf9d9650bb6b26b5ed611e420a0aacbb.ru-ru.xlf</t>
+  </si>
+  <si>
+    <t>dsc_lcmstate.21ea1c36f37c94e8e0363199fbd07bcced3aea40.ru-ru.xlf</t>
+  </si>
+  <si>
+    <t>dsc_metaconfiguration.e8bbca05aa1692ad54cadd83b93a1902f179f365.ru-ru.xlf</t>
+  </si>
+  <si>
+    <t>dsc_newresources.b9c40f591f875ea205c834f7675f3edbe1050592.ru-ru.xlf</t>
+  </si>
+  <si>
+    <t>dsc_nodeid.e3c9049aa6c1d151f8b286f28502537b2f8d22a4.ru-ru.xlf</t>
+  </si>
+  <si>
+    <t>dsc_partialconfig.a493787c3f8663ac3e2994162ffd1bee429544d3.ru-ru.xlf</t>
+  </si>
+  <si>
+    <t>dsc_partialconfig_mixedmode.ff4b9a8a421441da62574192650493bf2407028d.ru-ru.xlf</t>
+  </si>
+  <si>
+    <t>dsc_publishconfig.bfe86d4253abdd777c205caec637c50ec79103ee.ru-ru.xlf</t>
+  </si>
+  <si>
+    <t>dsc_refreshmode.b0529a06a4d3e07b3fce300f74760d63b27523f6.ru-ru.xlf</t>
+  </si>
+  <si>
+    <t>dsc_removeconfigdoc.d16cdab7eaedf468bcc38dae34e93be26a204318.ru-ru.xlf</t>
+  </si>
+  <si>
+    <t>dsc_reporting.b042cd21b9bcfc8e50bc361ddee59333602fad42.ru-ru.xlf</t>
+  </si>
+  <si>
+    <t>dsc_repository.ec5040a823a6b64e969393e00f3d859fd0b4551c.ru-ru.xlf</t>
+  </si>
+  <si>
+    <t>dsc_resourcedebugging.95c69e55eb065b349f52e18126d699b1906ba03f.ru-ru.xlf</t>
+  </si>
+  <si>
+    <t>dsc_runas.9e19a42a6d5e1ea1772358a6fd8ff24b98a5b6ba.ru-ru.xlf</t>
+  </si>
+  <si>
+    <t>dsc_setdsclcm.1f0e3cab81cf5fc1feda678f202451fe150632e3.ru-ru.xlf</t>
+  </si>
+  <si>
+    <t>dsc_statestatus.b6f3670f776a8f63a705ba16bed2f20be34fc48f.ru-ru.xlf</t>
+  </si>
+  <si>
+    <t>dsc_sxsresource.c9d4ce6109370ac1cbc1fb07f191e02f9a61d5d3.ru-ru.xlf</t>
+  </si>
+  <si>
+    <t>dsc_testconfiguration.b0e5afe2c8f173ebe49c97c9ea9a2f11d81ea5fa.ru-ru.xlf</t>
+  </si>
+  <si>
+    <t>dsc_updateconfig.a07eb85e3458d42d7ab1ed5c57dcfc70df709d07.ru-ru.xlf</t>
+  </si>
+  <si>
+    <t>dsc_waitfor.2b09933f08f1020166ce0f0cd7548a5a3845c48f.ru-ru.xlf</t>
+  </si>
+  <si>
+    <t>dsc_wow64.ea039aaa1bd77415311fc30d80fed43cda07a6e3.ru-ru.xlf</t>
+  </si>
+  <si>
+    <t>feedback.3662230166299ef7c1fb7a7a7f5cdbd64b1d812a.ru-ru.xlf</t>
+  </si>
+  <si>
+    <t>feedback_archive.20de26911a704368058401c7e2bd6ebaac692ff5.ru-ru.xlf</t>
+  </si>
+  <si>
+    <t>feedback_clipboard.872e5c147ef02cb86067651f41e3c00b55386664.ru-ru.xlf</t>
+  </si>
+  <si>
+    <t>feedback_cmdlets.a4c0dfb806ca0da232eeb75ad3706177b8a5ec48.ru-ru.xlf</t>
+  </si>
+  <si>
+    <t>feedback_convertfromString.acdeaa33e8fa59b93649b6abf3a7d5ef64fb7664.ru-ru.xlf</t>
+  </si>
+  <si>
+    <t>feedback_convertstring.42e964e30093962871c3a4d586ed6c54f25f840d.ru-ru.xlf</t>
+  </si>
+  <si>
+    <t>feedback_fileinfo.0192edad2d6504d26a9632f95fc9e5b66ffd8003.ru-ru.xlf</t>
+  </si>
+  <si>
+    <t>feedback_formathex.f97931c887efb620e5f4314facc1f0e20e3dffbe.ru-ru.xlf</t>
+  </si>
+  <si>
+    <t>feedback_getchilditem.ce02ca20cc4417a80fe65eb509a8e92f2cecc79c.ru-ru.xlf</t>
+  </si>
+  <si>
+    <t>feedback_moduleversionranges.611b3a3219d64dbfa1d01541b60a727b880a0c4b.ru-ru.xlf</t>
+  </si>
+  <si>
+    <t>feedback_newguid.f8756fbdb96e6fe06a7e0cbb6ac4af32b1c64983.ru-ru.xlf</t>
+  </si>
+  <si>
+    <t>feedback_nonewline.7a9b7e24c50399879089bba2b8eee7dc325572e2.ru-ru.xlf</t>
+  </si>
+  <si>
+    <t>feedback_symbolic.1c3ac8128fb9df60512ec024044d48be7d0cb59f.ru-ru.xlf</t>
+  </si>
+  <si>
+    <t>feedback_tempfile.fc029065af6bbba3a8c4abbf36023bede7d1416d.ru-ru.xlf</t>
   </si>
   <si>
     <t>ba1897f38317f5fe38f2d8caf0efcc57bc8bb19d.jpg</t>
@@ -945,76 +951,76 @@
     <t>wmf\dsc_encryptedmof.md</t>
   </si>
   <si>
-    <t>informationstream_overview.d2f238b2b4021ccdb7271cf89f53d58970d56cf5.zh-tw.xlf</t>
-  </si>
-  <si>
-    <t>install.317fc924c0f766547c4725878af59c3c9d8facba.zh-tw.xlf</t>
-  </si>
-  <si>
-    <t>jea_endpoint.1dc052fe583a907a6c090cf8bfd42293d94d2975.zh-tw.xlf</t>
-  </si>
-  <si>
-    <t>jea_overview.3fa3008e719be8235adffe51808ac66714940871.zh-tw.xlf</t>
-  </si>
-  <si>
-    <t>jea_report.7860cec6e93b7405844ccbbe5bc879921447ac0b.zh-tw.xlf</t>
-  </si>
-  <si>
-    <t>limitation_dsc.3684c81bb088cba98089dffdb1a1e56e1c098335.zh-tw.xlf</t>
-  </si>
-  <si>
-    <t>limitation_overview.6cc9c8c028f5912636637d836aed7db0614de522.zh-tw.xlf</t>
-  </si>
-  <si>
-    <t>networkswitch_overview.7a87eb0741cd43b8b9284ea6cb605920c4961b79.zh-tw.xlf</t>
-  </si>
-  <si>
-    <t>odata_overview.c3f7efdde29fe7ac5685a61cd61d75b65524a4c3.zh-tw.xlf</t>
-  </si>
-  <si>
-    <t>oneget_cmdlets.469b2350a72495ac2cf62e4130b4df8036f5d135.zh-tw.xlf</t>
-  </si>
-  <si>
-    <t>oneget_overview.e71a25f36f957ab7471d259c6e716651f6f23c94.zh-tw.xlf</t>
-  </si>
-  <si>
-    <t>productincompat.62bb00299c0283b5297001553476a745e28a49cb.zh-tw.xlf</t>
-  </si>
-  <si>
-    <t>psget_module_overview.4149c468ffd0f17a2fabd03f90059c12effc3170.zh-tw.xlf</t>
-  </si>
-  <si>
-    <t>psget_modulecmdlets.1f808cfdf9a9aa920f88e15f7f5fa4701fe805e3.zh-tw.xlf</t>
-  </si>
-  <si>
-    <t>psget_moduledependency.89ba9310335ae64db5481a3c02034ac4fe01b6a2.zh-tw.xlf</t>
-  </si>
-  <si>
-    <t>psget_modulesxsinstall.110ba80d8f917899ef488b46bd15f5654f6ba06c.zh-tw.xlf</t>
-  </si>
-  <si>
-    <t>psget_psrepository.c4381b2ff7bb6496ab74ed8bb2b07325cfbfc056.zh-tw.xlf</t>
-  </si>
-  <si>
-    <t>psget_script_overview.f035cc99497d17dc73e3a61f214e40a5860fc70a.zh-tw.xlf</t>
-  </si>
-  <si>
-    <t>psget_scriptcmdlets.1762d5f29292d59c1afb37cb29eb11a34cf63990.zh-tw.xlf</t>
-  </si>
-  <si>
-    <t>releasenotes.311750b4da54b1d4ef7997b328edd6ff177fb71f.zh-tw.xlf</t>
-  </si>
-  <si>
-    <t>requirements.ef8332f358d65b1759bfd4c7336b11d1dc8c2d46.zh-tw.xlf</t>
-  </si>
-  <si>
-    <t>sil_overview.a2b1f7c716aad317993a5eaffba21fa28ce0c0d8.zh-tw.xlf</t>
-  </si>
-  <si>
-    <t>TOC.60497266061c38453b3db893ec675eb65584af89.zh-tw.xlf</t>
-  </si>
-  <si>
-    <t>uninstall.b07adaaaf7f41869dfa201b88e29342aced76c96.zh-tw.xlf</t>
+    <t>informationstream_overview.d2f238b2b4021ccdb7271cf89f53d58970d56cf5.ru-ru.xlf</t>
+  </si>
+  <si>
+    <t>install.317fc924c0f766547c4725878af59c3c9d8facba.ru-ru.xlf</t>
+  </si>
+  <si>
+    <t>jea_endpoint.1dc052fe583a907a6c090cf8bfd42293d94d2975.ru-ru.xlf</t>
+  </si>
+  <si>
+    <t>jea_overview.3fa3008e719be8235adffe51808ac66714940871.ru-ru.xlf</t>
+  </si>
+  <si>
+    <t>jea_report.7860cec6e93b7405844ccbbe5bc879921447ac0b.ru-ru.xlf</t>
+  </si>
+  <si>
+    <t>limitation_dsc.3684c81bb088cba98089dffdb1a1e56e1c098335.ru-ru.xlf</t>
+  </si>
+  <si>
+    <t>limitation_overview.6cc9c8c028f5912636637d836aed7db0614de522.ru-ru.xlf</t>
+  </si>
+  <si>
+    <t>networkswitch_overview.7a87eb0741cd43b8b9284ea6cb605920c4961b79.ru-ru.xlf</t>
+  </si>
+  <si>
+    <t>odata_overview.c3f7efdde29fe7ac5685a61cd61d75b65524a4c3.ru-ru.xlf</t>
+  </si>
+  <si>
+    <t>oneget_cmdlets.469b2350a72495ac2cf62e4130b4df8036f5d135.ru-ru.xlf</t>
+  </si>
+  <si>
+    <t>oneget_overview.e71a25f36f957ab7471d259c6e716651f6f23c94.ru-ru.xlf</t>
+  </si>
+  <si>
+    <t>productincompat.62bb00299c0283b5297001553476a745e28a49cb.ru-ru.xlf</t>
+  </si>
+  <si>
+    <t>psget_module_overview.4149c468ffd0f17a2fabd03f90059c12effc3170.ru-ru.xlf</t>
+  </si>
+  <si>
+    <t>psget_modulecmdlets.1f808cfdf9a9aa920f88e15f7f5fa4701fe805e3.ru-ru.xlf</t>
+  </si>
+  <si>
+    <t>psget_moduledependency.89ba9310335ae64db5481a3c02034ac4fe01b6a2.ru-ru.xlf</t>
+  </si>
+  <si>
+    <t>psget_modulesxsinstall.110ba80d8f917899ef488b46bd15f5654f6ba06c.ru-ru.xlf</t>
+  </si>
+  <si>
+    <t>psget_psrepository.c4381b2ff7bb6496ab74ed8bb2b07325cfbfc056.ru-ru.xlf</t>
+  </si>
+  <si>
+    <t>psget_script_overview.f035cc99497d17dc73e3a61f214e40a5860fc70a.ru-ru.xlf</t>
+  </si>
+  <si>
+    <t>psget_scriptcmdlets.1762d5f29292d59c1afb37cb29eb11a34cf63990.ru-ru.xlf</t>
+  </si>
+  <si>
+    <t>releasenotes.311750b4da54b1d4ef7997b328edd6ff177fb71f.ru-ru.xlf</t>
+  </si>
+  <si>
+    <t>requirements.ef8332f358d65b1759bfd4c7336b11d1dc8c2d46.ru-ru.xlf</t>
+  </si>
+  <si>
+    <t>sil_overview.a2b1f7c716aad317993a5eaffba21fa28ce0c0d8.ru-ru.xlf</t>
+  </si>
+  <si>
+    <t>TOC.60497266061c38453b3db893ec675eb65584af89.ru-ru.xlf</t>
+  </si>
+  <si>
+    <t>uninstall.b07adaaaf7f41869dfa201b88e29342aced76c96.ru-ru.xlf</t>
   </si>
 </sst>
 </file>
@@ -1071,7 +1077,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-tw" displayName="zh_tw" ref="A1:L1" headerRowCount="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="ru-ru" displayName="ru_ru" ref="A1:L1" headerRowCount="0">
   <tableColumns count="12">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -1094,7 +1100,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Overview" displayName="Overview" ref="A1:D1" headerRowCount="0">
   <tableColumns count="4">
     <tableColumn id="1" name="File Name"/>
-    <tableColumn id="2" name="zh-tw"/>
+    <tableColumn id="2" name="ru-ru"/>
     <tableColumn id="3" name="Latest Handoff Date"/>
     <tableColumn id="4" name="Column4"/>
   </tableColumns>
@@ -2934,7 +2940,7 @@
         <v>170</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>5</v>
+        <v>171</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>3</v>
@@ -2943,13 +2949,13 @@
         <v>170</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3">
@@ -2963,25 +2969,25 @@
         <v>4</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>5</v>
+        <v>171</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="J3" s="0" t="s">
         <v>174</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>171</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>172</v>
-      </c>
-      <c r="J3" s="0" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="4">
@@ -2989,31 +2995,31 @@
         <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>5</v>
+        <v>171</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5">
@@ -3021,31 +3027,31 @@
         <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>4</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>5</v>
+        <v>171</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6">
@@ -3053,22 +3059,22 @@
         <v>9</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>11</v>
+        <v>183</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="7">
@@ -3076,22 +3082,22 @@
         <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="H7" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8">
@@ -3099,22 +3105,22 @@
         <v>13</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="9">
@@ -3122,22 +3128,22 @@
         <v>15</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>11</v>
+        <v>183</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="10">
@@ -3145,22 +3151,22 @@
         <v>16</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C10" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>11</v>
+        <v>183</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="11">
@@ -3168,22 +3174,22 @@
         <v>17</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C11" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>11</v>
+        <v>183</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="12">
@@ -3191,22 +3197,22 @@
         <v>18</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C12" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>11</v>
+        <v>183</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="13">
@@ -3214,22 +3220,22 @@
         <v>19</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C13" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>11</v>
+        <v>183</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="14">
@@ -3237,22 +3243,22 @@
         <v>20</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C14" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>11</v>
+        <v>183</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="15">
@@ -3260,22 +3266,22 @@
         <v>21</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C15" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>11</v>
+        <v>183</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="16">
@@ -3283,22 +3289,22 @@
         <v>22</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C16" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>11</v>
+        <v>183</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="17">
@@ -3306,22 +3312,22 @@
         <v>23</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C17" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="18">
@@ -3329,22 +3335,22 @@
         <v>25</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C18" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="19">
@@ -3352,22 +3358,22 @@
         <v>27</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C19" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>11</v>
+        <v>183</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="20">
@@ -3375,22 +3381,22 @@
         <v>28</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C20" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>11</v>
+        <v>183</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="21">
@@ -3398,22 +3404,22 @@
         <v>29</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C21" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>11</v>
+        <v>183</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I21" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="22">
@@ -3421,22 +3427,22 @@
         <v>30</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C22" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I22" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="23">
@@ -3444,22 +3450,22 @@
         <v>31</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C23" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>11</v>
+        <v>183</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="24">
@@ -3467,25 +3473,25 @@
         <v>32</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C24" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>5</v>
+        <v>171</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I24" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="25">
@@ -3493,22 +3499,22 @@
         <v>33</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C25" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>11</v>
+        <v>183</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I25" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="26">
@@ -3516,22 +3522,22 @@
         <v>34</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C26" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>11</v>
+        <v>183</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I26" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="27">
@@ -3539,22 +3545,22 @@
         <v>35</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C27" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>11</v>
+        <v>183</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I27" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="28">
@@ -3562,22 +3568,22 @@
         <v>36</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C28" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>11</v>
+        <v>183</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I28" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="29">
@@ -3585,22 +3591,22 @@
         <v>37</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C29" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>11</v>
+        <v>183</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I29" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="30">
@@ -3608,22 +3614,22 @@
         <v>38</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C30" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I30" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="31">
@@ -3631,22 +3637,22 @@
         <v>40</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C31" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>11</v>
+        <v>183</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I31" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="32">
@@ -3654,22 +3660,22 @@
         <v>41</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C32" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>11</v>
+        <v>183</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I32" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="33">
@@ -3677,22 +3683,22 @@
         <v>42</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C33" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>11</v>
+        <v>183</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I33" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="34">
@@ -3700,22 +3706,22 @@
         <v>43</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C34" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I34" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="35">
@@ -3723,22 +3729,22 @@
         <v>44</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C35" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>11</v>
+        <v>183</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I35" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="36">
@@ -3746,22 +3752,22 @@
         <v>45</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C36" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>11</v>
+        <v>183</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I36" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="37">
@@ -3769,22 +3775,22 @@
         <v>46</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C37" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>11</v>
+        <v>183</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I37" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="38">
@@ -3792,22 +3798,22 @@
         <v>47</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C38" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>11</v>
+        <v>183</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I38" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="39">
@@ -3815,22 +3821,22 @@
         <v>48</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C39" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>11</v>
+        <v>183</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I39" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="40">
@@ -3838,22 +3844,22 @@
         <v>49</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C40" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>11</v>
+        <v>183</v>
       </c>
       <c r="H40" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I40" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="41">
@@ -3861,22 +3867,22 @@
         <v>50</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C41" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>11</v>
+        <v>183</v>
       </c>
       <c r="H41" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I41" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="42">
@@ -3884,22 +3890,22 @@
         <v>51</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C42" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>11</v>
+        <v>183</v>
       </c>
       <c r="H42" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I42" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="43">
@@ -3907,22 +3913,22 @@
         <v>52</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C43" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>11</v>
+        <v>183</v>
       </c>
       <c r="H43" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I43" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="44">
@@ -3930,22 +3936,22 @@
         <v>53</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C44" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>11</v>
+        <v>183</v>
       </c>
       <c r="H44" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I44" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="45">
@@ -3953,22 +3959,22 @@
         <v>54</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C45" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>227</v>
+        <v>55</v>
       </c>
       <c r="H45" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I45" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="46">
@@ -3976,22 +3982,22 @@
         <v>56</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C46" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>11</v>
+        <v>183</v>
       </c>
       <c r="H46" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I46" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="47">
@@ -3999,22 +4005,22 @@
         <v>57</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C47" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="H47" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I47" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="48">
@@ -4022,22 +4028,22 @@
         <v>59</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C48" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>227</v>
+        <v>55</v>
       </c>
       <c r="H48" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I48" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="49">
@@ -4045,22 +4051,22 @@
         <v>60</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C49" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>11</v>
+        <v>183</v>
       </c>
       <c r="H49" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I49" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="50">
@@ -4068,22 +4074,22 @@
         <v>61</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C50" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>11</v>
+        <v>183</v>
       </c>
       <c r="H50" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I50" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="51">
@@ -4091,22 +4097,22 @@
         <v>62</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C51" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>11</v>
+        <v>183</v>
       </c>
       <c r="H51" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I51" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="52">
@@ -4114,22 +4120,22 @@
         <v>63</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C52" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>227</v>
+        <v>55</v>
       </c>
       <c r="H52" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I52" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="53">
@@ -4137,22 +4143,22 @@
         <v>64</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C53" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>11</v>
+        <v>183</v>
       </c>
       <c r="H53" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I53" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="54">
@@ -4160,22 +4166,22 @@
         <v>65</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C54" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="H54" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I54" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="55">
@@ -4183,22 +4189,22 @@
         <v>66</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C55" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>11</v>
+        <v>183</v>
       </c>
       <c r="H55" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I55" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="56">
@@ -4206,22 +4212,22 @@
         <v>67</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C56" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>5</v>
+        <v>171</v>
       </c>
       <c r="H56" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I56" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="57">
@@ -4229,22 +4235,22 @@
         <v>68</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C57" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>11</v>
+        <v>183</v>
       </c>
       <c r="H57" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I57" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="58">
@@ -4252,22 +4258,22 @@
         <v>69</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C58" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>11</v>
+        <v>183</v>
       </c>
       <c r="H58" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I58" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="59">
@@ -4275,22 +4281,22 @@
         <v>70</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C59" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="H59" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I59" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="60">
@@ -4298,22 +4304,22 @@
         <v>71</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C60" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H60" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I60" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="61">
@@ -4321,22 +4327,22 @@
         <v>73</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C61" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>11</v>
+        <v>183</v>
       </c>
       <c r="H61" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I61" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="62">
@@ -4344,22 +4350,22 @@
         <v>74</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C62" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>11</v>
+        <v>183</v>
       </c>
       <c r="H62" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I62" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="63">
@@ -4367,22 +4373,22 @@
         <v>75</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C63" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>11</v>
+        <v>183</v>
       </c>
       <c r="H63" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I63" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="64">
@@ -4390,22 +4396,22 @@
         <v>76</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C64" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="H64" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I64" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="65">
@@ -4413,22 +4419,22 @@
         <v>78</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C65" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="H65" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I65" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="66">
@@ -4436,22 +4442,22 @@
         <v>79</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C66" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="H66" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I66" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="67">
@@ -4459,22 +4465,22 @@
         <v>80</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C67" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="H67" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I67" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="68">
@@ -4482,22 +4488,22 @@
         <v>81</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C68" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="H68" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I68" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="69">
@@ -4505,22 +4511,22 @@
         <v>82</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C69" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="H69" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I69" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="70">
@@ -4528,22 +4534,22 @@
         <v>83</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C70" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="H70" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I70" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="71">
@@ -4551,22 +4557,22 @@
         <v>84</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C71" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="H71" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I71" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="72">
@@ -4574,22 +4580,22 @@
         <v>85</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C72" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="H72" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I72" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="73">
@@ -4597,22 +4603,22 @@
         <v>86</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C73" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="H73" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I73" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="74">
@@ -4620,22 +4626,22 @@
         <v>87</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C74" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="H74" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I74" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="75">
@@ -4643,22 +4649,22 @@
         <v>88</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C75" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="H75" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I75" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="76">
@@ -4666,22 +4672,22 @@
         <v>89</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C76" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="H76" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I76" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="77">
@@ -4689,22 +4695,22 @@
         <v>90</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C77" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="H77" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I77" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="78">
@@ -4712,22 +4718,22 @@
         <v>91</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C78" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="H78" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I78" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="79">
@@ -4735,22 +4741,22 @@
         <v>92</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C79" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="H79" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I79" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="80">
@@ -4758,22 +4764,22 @@
         <v>93</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C80" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="H80" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I80" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="81">
@@ -4781,22 +4787,22 @@
         <v>94</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C81" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="H81" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I81" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="82">
@@ -4804,22 +4810,22 @@
         <v>95</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C82" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="H82" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I82" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="83">
@@ -4827,22 +4833,22 @@
         <v>96</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C83" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="H83" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I83" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="84">
@@ -4850,22 +4856,22 @@
         <v>97</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C84" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="H84" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I84" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="85">
@@ -4873,22 +4879,22 @@
         <v>98</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C85" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="H85" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I85" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="86">
@@ -4896,22 +4902,22 @@
         <v>99</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C86" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="H86" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I86" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="87">
@@ -4919,22 +4925,22 @@
         <v>100</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C87" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="H87" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I87" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="88">
@@ -4942,22 +4948,22 @@
         <v>101</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C88" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="H88" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I88" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="89">
@@ -4965,22 +4971,22 @@
         <v>102</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C89" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="H89" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I89" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="90">
@@ -4988,22 +4994,22 @@
         <v>103</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C90" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="H90" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I90" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="91">
@@ -5011,22 +5017,22 @@
         <v>104</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C91" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="H91" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I91" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="92">
@@ -5034,22 +5040,22 @@
         <v>105</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C92" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="H92" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I92" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="93">
@@ -5057,22 +5063,22 @@
         <v>106</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C93" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="H93" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I93" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="94">
@@ -5080,22 +5086,22 @@
         <v>107</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C94" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="H94" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I94" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="95">
@@ -5103,22 +5109,22 @@
         <v>108</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C95" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="H95" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I95" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="96">
@@ -5126,22 +5132,22 @@
         <v>109</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C96" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="H96" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I96" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="97">
@@ -5149,22 +5155,22 @@
         <v>110</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C97" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="H97" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I97" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="98">
@@ -5172,22 +5178,22 @@
         <v>111</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C98" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="H98" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I98" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="99">
@@ -5195,22 +5201,22 @@
         <v>112</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C99" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="H99" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I99" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="100">
@@ -5218,22 +5224,22 @@
         <v>113</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C100" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="H100" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I100" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="101">
@@ -5241,22 +5247,22 @@
         <v>114</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C101" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="H101" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I101" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="102">
@@ -5264,22 +5270,22 @@
         <v>115</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C102" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="H102" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I102" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="103">
@@ -5287,22 +5293,22 @@
         <v>116</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C103" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="H103" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I103" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="104">
@@ -5310,22 +5316,22 @@
         <v>117</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C104" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="H104" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I104" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="105">
@@ -5333,22 +5339,22 @@
         <v>118</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C105" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="H105" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I105" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="106">
@@ -5356,22 +5362,22 @@
         <v>119</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C106" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="H106" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I106" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="107">
@@ -5379,22 +5385,22 @@
         <v>120</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C107" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="H107" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I107" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="108">
@@ -5402,22 +5408,22 @@
         <v>121</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C108" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="H108" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I108" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="109">
@@ -5425,22 +5431,22 @@
         <v>122</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C109" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="H109" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I109" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="110">
@@ -5448,22 +5454,22 @@
         <v>123</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C110" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="H110" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I110" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="111">
@@ -5471,22 +5477,22 @@
         <v>124</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C111" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="H111" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I111" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="112">
@@ -5494,22 +5500,22 @@
         <v>125</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C112" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="H112" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I112" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="113">
@@ -5517,22 +5523,22 @@
         <v>126</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C113" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="H113" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I113" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="114">
@@ -5540,22 +5546,22 @@
         <v>127</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C114" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="H114" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I114" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="115">
@@ -5563,22 +5569,22 @@
         <v>128</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C115" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="H115" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I115" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="116">
@@ -5586,22 +5592,22 @@
         <v>129</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C116" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="H116" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I116" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="117">
@@ -5609,22 +5615,22 @@
         <v>130</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C117" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="H117" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I117" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="118">
@@ -5632,22 +5638,22 @@
         <v>131</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C118" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="H118" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I118" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="119">
@@ -5661,19 +5667,19 @@
         <v>10</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>5</v>
+        <v>171</v>
       </c>
       <c r="H119" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I119" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="J119" s="0" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="120">
@@ -5687,19 +5693,19 @@
         <v>10</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>5</v>
+        <v>171</v>
       </c>
       <c r="H120" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I120" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="J120" s="0" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="121">
@@ -5713,19 +5719,19 @@
         <v>10</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>5</v>
+        <v>171</v>
       </c>
       <c r="H121" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I121" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="J121" s="0" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="122">
@@ -5733,22 +5739,22 @@
         <v>135</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C122" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="H122" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I122" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="123">
@@ -5756,22 +5762,22 @@
         <v>136</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C123" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="H123" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I123" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="124">
@@ -5779,22 +5785,22 @@
         <v>137</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C124" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="H124" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I124" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="125">
@@ -5802,22 +5808,22 @@
         <v>138</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C125" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="H125" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I125" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="126">
@@ -5825,22 +5831,22 @@
         <v>139</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C126" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="H126" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I126" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="127">
@@ -5848,22 +5854,22 @@
         <v>140</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C127" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="H127" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I127" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="128">
@@ -5871,22 +5877,22 @@
         <v>141</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C128" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="H128" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I128" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="129">
@@ -5894,22 +5900,22 @@
         <v>142</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C129" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="H129" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I129" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="130">
@@ -5917,22 +5923,22 @@
         <v>143</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C130" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="H130" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I130" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="131">
@@ -5940,22 +5946,22 @@
         <v>144</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C131" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="H131" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I131" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="132">
@@ -5963,22 +5969,22 @@
         <v>145</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C132" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="H132" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I132" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="133">
@@ -5986,22 +5992,22 @@
         <v>146</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C133" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="H133" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I133" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="134">
@@ -6009,22 +6015,22 @@
         <v>147</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C134" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="H134" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I134" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="135">
@@ -6032,22 +6038,22 @@
         <v>148</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C135" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="H135" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I135" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="136">
@@ -6055,22 +6061,22 @@
         <v>149</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C136" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="H136" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I136" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="137">
@@ -6078,22 +6084,22 @@
         <v>150</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C137" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="H137" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I137" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="138">
@@ -6101,22 +6107,22 @@
         <v>151</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C138" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="H138" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I138" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="139">
@@ -6124,22 +6130,22 @@
         <v>152</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C139" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="H139" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I139" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="140">
@@ -6147,22 +6153,22 @@
         <v>153</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C140" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="H140" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I140" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="141">
@@ -6170,22 +6176,22 @@
         <v>154</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C141" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="H141" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I141" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="142">
@@ -6193,22 +6199,22 @@
         <v>155</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C142" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="H142" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I142" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="143">
@@ -6216,22 +6222,22 @@
         <v>156</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C143" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="H143" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I143" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="144">
@@ -6239,22 +6245,22 @@
         <v>70</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C144" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="H144" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I144" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="145">
@@ -6262,22 +6268,22 @@
         <v>157</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C145" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="H145" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I145" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -6304,343 +6310,343 @@
     <hyperlink ref="G5" display="d3008e3fe7da4c118c693d2b34a0b329780f8d86.png" r:id="rId21"/>
     <hyperlink ref="A6" display="archiveResource.md" r:id="rId22"/>
     <hyperlink ref="B6" display=".md" r:id="rId23"/>
-    <hyperlink ref="D6" display="archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.zh-tw.xlf" r:id="rId24"/>
+    <hyperlink ref="D6" display="archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.ru-ru.xlf" r:id="rId24"/>
     <hyperlink ref="A7" display="authoringResource.md" r:id="rId25"/>
     <hyperlink ref="B7" display=".md" r:id="rId26"/>
-    <hyperlink ref="D7" display="authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.zh-tw.xlf" r:id="rId27"/>
+    <hyperlink ref="D7" display="authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.ru-ru.xlf" r:id="rId27"/>
     <hyperlink ref="A8" display="authoringResourceClass.md" r:id="rId28"/>
     <hyperlink ref="B8" display=".md" r:id="rId29"/>
-    <hyperlink ref="D8" display="authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.zh-tw.xlf" r:id="rId30"/>
+    <hyperlink ref="D8" display="authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.ru-ru.xlf" r:id="rId30"/>
     <hyperlink ref="A9" display="authoringResourceComposite.md" r:id="rId31"/>
     <hyperlink ref="B9" display=".md" r:id="rId32"/>
-    <hyperlink ref="D9" display="authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.zh-tw.xlf" r:id="rId33"/>
+    <hyperlink ref="D9" display="authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.ru-ru.xlf" r:id="rId33"/>
     <hyperlink ref="A10" display="authoringResourceMOF.md" r:id="rId34"/>
     <hyperlink ref="B10" display=".md" r:id="rId35"/>
-    <hyperlink ref="D10" display="authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.zh-tw.xlf" r:id="rId36"/>
+    <hyperlink ref="D10" display="authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.ru-ru.xlf" r:id="rId36"/>
     <hyperlink ref="A11" display="authoringResourceMofCS.md" r:id="rId37"/>
     <hyperlink ref="B11" display=".md" r:id="rId38"/>
-    <hyperlink ref="D11" display="authoringResourceMofCS.0647b27b00ec52b2f524a2856e48bc7c29c0f867.zh-tw.xlf" r:id="rId39"/>
+    <hyperlink ref="D11" display="authoringResourceMofCS.0647b27b00ec52b2f524a2856e48bc7c29c0f867.ru-ru.xlf" r:id="rId39"/>
     <hyperlink ref="A12" display="authoringResourceMofDesigner.md" r:id="rId40"/>
     <hyperlink ref="B12" display=".md" r:id="rId41"/>
-    <hyperlink ref="D12" display="authoringResourceMofDesigner.09b1adffc4afb0d9b1154880e2dab0b25d82d51b.zh-tw.xlf" r:id="rId42"/>
+    <hyperlink ref="D12" display="authoringResourceMofDesigner.09b1adffc4afb0d9b1154880e2dab0b25d82d51b.ru-ru.xlf" r:id="rId42"/>
     <hyperlink ref="A13" display="builtInResource.md" r:id="rId43"/>
     <hyperlink ref="B13" display=".md" r:id="rId44"/>
-    <hyperlink ref="D13" display="builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.zh-tw.xlf" r:id="rId45"/>
+    <hyperlink ref="D13" display="builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.ru-ru.xlf" r:id="rId45"/>
     <hyperlink ref="A14" display="configData.md" r:id="rId46"/>
     <hyperlink ref="B14" display=".md" r:id="rId47"/>
-    <hyperlink ref="D14" display="configData.51d01a46dd9af8b425788cc485523b09f8470b95.zh-tw.xlf" r:id="rId48"/>
+    <hyperlink ref="D14" display="configData.51d01a46dd9af8b425788cc485523b09f8470b95.ru-ru.xlf" r:id="rId48"/>
     <hyperlink ref="A15" display="configDataCredentials.md" r:id="rId49"/>
     <hyperlink ref="B15" display=".md" r:id="rId50"/>
-    <hyperlink ref="D15" display="configDataCredentials.f3e75119e7d93b2f914823c5ea23bfde3935a874.zh-tw.xlf" r:id="rId51"/>
+    <hyperlink ref="D15" display="configDataCredentials.f3e75119e7d93b2f914823c5ea23bfde3935a874.ru-ru.xlf" r:id="rId51"/>
     <hyperlink ref="A16" display="configurations.md" r:id="rId52"/>
     <hyperlink ref="B16" display=".md" r:id="rId53"/>
-    <hyperlink ref="D16" display="configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.zh-tw.xlf" r:id="rId54"/>
+    <hyperlink ref="D16" display="configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.ru-ru.xlf" r:id="rId54"/>
     <hyperlink ref="A17" display="debugResource.md" r:id="rId55"/>
     <hyperlink ref="B17" display=".md" r:id="rId56"/>
-    <hyperlink ref="D17" display="debugResource.ac634156affe5c723cc149a298f5aa4268d17016.zh-tw.xlf" r:id="rId57"/>
+    <hyperlink ref="D17" display="debugResource.ac634156affe5c723cc149a298f5aa4268d17016.ru-ru.xlf" r:id="rId57"/>
     <hyperlink ref="A18" display="decisionMaker.md" r:id="rId58"/>
     <hyperlink ref="B18" display=".md" r:id="rId59"/>
-    <hyperlink ref="D18" display="decisionMaker.01553169f2ba4241995260fad925e2784b5f5567.zh-tw.xlf" r:id="rId60"/>
+    <hyperlink ref="D18" display="decisionMaker.01553169f2ba4241995260fad925e2784b5f5567.ru-ru.xlf" r:id="rId60"/>
     <hyperlink ref="A19" display="enactingConfigurations.md" r:id="rId61"/>
     <hyperlink ref="B19" display=".md" r:id="rId62"/>
-    <hyperlink ref="D19" display="enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.zh-tw.xlf" r:id="rId63"/>
+    <hyperlink ref="D19" display="enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.ru-ru.xlf" r:id="rId63"/>
     <hyperlink ref="A20" display="environmentResource.md" r:id="rId64"/>
     <hyperlink ref="B20" display=".md" r:id="rId65"/>
-    <hyperlink ref="D20" display="environmentResource.eb91ffd4cd8bdb9476e5a83de1a20d3b7b502a56.zh-tw.xlf" r:id="rId66"/>
+    <hyperlink ref="D20" display="environmentResource.eb91ffd4cd8bdb9476e5a83de1a20d3b7b502a56.ru-ru.xlf" r:id="rId66"/>
     <hyperlink ref="A21" display="fileResource.md" r:id="rId67"/>
     <hyperlink ref="B21" display=".md" r:id="rId68"/>
-    <hyperlink ref="D21" display="fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.zh-tw.xlf" r:id="rId69"/>
+    <hyperlink ref="D21" display="fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.ru-ru.xlf" r:id="rId69"/>
     <hyperlink ref="A22" display="gettingStarted.md" r:id="rId70"/>
     <hyperlink ref="B22" display=".md" r:id="rId71"/>
-    <hyperlink ref="D22" display="gettingStarted.92e02d8bd273df5c304475a9b4fa251c22a7ea19.zh-tw.xlf" r:id="rId72"/>
+    <hyperlink ref="D22" display="gettingStarted.92e02d8bd273df5c304475a9b4fa251c22a7ea19.ru-ru.xlf" r:id="rId72"/>
     <hyperlink ref="A23" display="groupResource.md" r:id="rId73"/>
     <hyperlink ref="B23" display=".md" r:id="rId74"/>
-    <hyperlink ref="D23" display="groupResource.d19d416269795c92566b62c36b9782062dcea43e.zh-tw.xlf" r:id="rId75"/>
+    <hyperlink ref="D23" display="groupResource.d19d416269795c92566b62c36b9782062dcea43e.ru-ru.xlf" r:id="rId75"/>
     <hyperlink ref="A24" display="CredentialEncryptionDiagram1.png" r:id="rId76"/>
     <hyperlink ref="B24" display=".png" r:id="rId77"/>
     <hyperlink ref="D24" display="d9f53a805041164f5070845c0fd216b63d17ae58.png" r:id="rId78"/>
     <hyperlink ref="A25" display="lnxArchiveResource.md" r:id="rId79"/>
     <hyperlink ref="B25" display=".md" r:id="rId80"/>
-    <hyperlink ref="D25" display="lnxArchiveResource.095aab7d23720fd394f2573c30223a6bbcc0a4ef.zh-tw.xlf" r:id="rId81"/>
+    <hyperlink ref="D25" display="lnxArchiveResource.095aab7d23720fd394f2573c30223a6bbcc0a4ef.ru-ru.xlf" r:id="rId81"/>
     <hyperlink ref="A26" display="lnxBuiltInResources.md" r:id="rId82"/>
     <hyperlink ref="B26" display=".md" r:id="rId83"/>
-    <hyperlink ref="D26" display="lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.zh-tw.xlf" r:id="rId84"/>
+    <hyperlink ref="D26" display="lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.ru-ru.xlf" r:id="rId84"/>
     <hyperlink ref="A27" display="lnxEnvironmentResource.md" r:id="rId85"/>
     <hyperlink ref="B27" display=".md" r:id="rId86"/>
-    <hyperlink ref="D27" display="lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.zh-tw.xlf" r:id="rId87"/>
+    <hyperlink ref="D27" display="lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.ru-ru.xlf" r:id="rId87"/>
     <hyperlink ref="A28" display="lnxFileLineResource.md" r:id="rId88"/>
     <hyperlink ref="B28" display=".md" r:id="rId89"/>
-    <hyperlink ref="D28" display="lnxFileLineResource.d91fc802a4c6cdbff5a2e35f92b34c36c6dbf5eb.zh-tw.xlf" r:id="rId90"/>
+    <hyperlink ref="D28" display="lnxFileLineResource.d91fc802a4c6cdbff5a2e35f92b34c36c6dbf5eb.ru-ru.xlf" r:id="rId90"/>
     <hyperlink ref="A29" display="lnxFileResource.md" r:id="rId91"/>
     <hyperlink ref="B29" display=".md" r:id="rId92"/>
-    <hyperlink ref="D29" display="lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.zh-tw.xlf" r:id="rId93"/>
+    <hyperlink ref="D29" display="lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.ru-ru.xlf" r:id="rId93"/>
     <hyperlink ref="A30" display="lnxGettingStarted.md" r:id="rId94"/>
     <hyperlink ref="B30" display=".md" r:id="rId95"/>
-    <hyperlink ref="D30" display="lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.zh-tw.xlf" r:id="rId96"/>
+    <hyperlink ref="D30" display="lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.ru-ru.xlf" r:id="rId96"/>
     <hyperlink ref="A31" display="lnxGroupResource.md" r:id="rId97"/>
     <hyperlink ref="B31" display=".md" r:id="rId98"/>
-    <hyperlink ref="D31" display="lnxGroupResource.0cedb684d797032bd47cdb852629c36da0884567.zh-tw.xlf" r:id="rId99"/>
+    <hyperlink ref="D31" display="lnxGroupResource.0cedb684d797032bd47cdb852629c36da0884567.ru-ru.xlf" r:id="rId99"/>
     <hyperlink ref="A32" display="lnxPackageResource.md" r:id="rId100"/>
     <hyperlink ref="B32" display=".md" r:id="rId101"/>
-    <hyperlink ref="D32" display="lnxPackageResource.db35ab938bbfbb38cae53fe9ae98fd22b5f18009.zh-tw.xlf" r:id="rId102"/>
+    <hyperlink ref="D32" display="lnxPackageResource.db35ab938bbfbb38cae53fe9ae98fd22b5f18009.ru-ru.xlf" r:id="rId102"/>
     <hyperlink ref="A33" display="lnxScriptResource.md" r:id="rId103"/>
     <hyperlink ref="B33" display=".md" r:id="rId104"/>
-    <hyperlink ref="D33" display="lnxScriptResource.1344a5d5b807ee53705e93842d9ef5e25a883359.zh-tw.xlf" r:id="rId105"/>
+    <hyperlink ref="D33" display="lnxScriptResource.1344a5d5b807ee53705e93842d9ef5e25a883359.ru-ru.xlf" r:id="rId105"/>
     <hyperlink ref="A34" display="lnxServiceResource.md" r:id="rId106"/>
     <hyperlink ref="B34" display=".md" r:id="rId107"/>
-    <hyperlink ref="D34" display="lnxServiceResource.e637c7f7b18939ec8c16eadf2c42ab00e236fb7b.zh-tw.xlf" r:id="rId108"/>
+    <hyperlink ref="D34" display="lnxServiceResource.e637c7f7b18939ec8c16eadf2c42ab00e236fb7b.ru-ru.xlf" r:id="rId108"/>
     <hyperlink ref="A35" display="lnxSshAuthorizedKeysResource.md" r:id="rId109"/>
     <hyperlink ref="B35" display=".md" r:id="rId110"/>
-    <hyperlink ref="D35" display="lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.zh-tw.xlf" r:id="rId111"/>
+    <hyperlink ref="D35" display="lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.ru-ru.xlf" r:id="rId111"/>
     <hyperlink ref="A36" display="lnxUserResource.md" r:id="rId112"/>
     <hyperlink ref="B36" display=".md" r:id="rId113"/>
-    <hyperlink ref="D36" display="lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.zh-tw.xlf" r:id="rId114"/>
+    <hyperlink ref="D36" display="lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.ru-ru.xlf" r:id="rId114"/>
     <hyperlink ref="A37" display="logResource.md" r:id="rId115"/>
     <hyperlink ref="B37" display=".md" r:id="rId116"/>
-    <hyperlink ref="D37" display="logResource.07af9dfcf6076ef19059178c3b404762677920f0.zh-tw.xlf" r:id="rId117"/>
+    <hyperlink ref="D37" display="logResource.07af9dfcf6076ef19059178c3b404762677920f0.ru-ru.xlf" r:id="rId117"/>
     <hyperlink ref="A38" display="metaConfig.md" r:id="rId118"/>
     <hyperlink ref="B38" display=".md" r:id="rId119"/>
-    <hyperlink ref="D38" display="metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.zh-tw.xlf" r:id="rId120"/>
+    <hyperlink ref="D38" display="metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.ru-ru.xlf" r:id="rId120"/>
     <hyperlink ref="A39" display="metaConfig4.md" r:id="rId121"/>
     <hyperlink ref="B39" display=".md" r:id="rId122"/>
-    <hyperlink ref="D39" display="metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.zh-tw.xlf" r:id="rId123"/>
+    <hyperlink ref="D39" display="metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.ru-ru.xlf" r:id="rId123"/>
     <hyperlink ref="A40" display="overview.md" r:id="rId124"/>
     <hyperlink ref="B40" display=".md" r:id="rId125"/>
-    <hyperlink ref="D40" display="overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.zh-tw.xlf" r:id="rId126"/>
+    <hyperlink ref="D40" display="overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.ru-ru.xlf" r:id="rId126"/>
     <hyperlink ref="A41" display="packageResource.md" r:id="rId127"/>
     <hyperlink ref="B41" display=".md" r:id="rId128"/>
-    <hyperlink ref="D41" display="packageResource.132c4949cee174dc0dc324456d220436cb9884e6.zh-tw.xlf" r:id="rId129"/>
+    <hyperlink ref="D41" display="packageResource.132c4949cee174dc0dc324456d220436cb9884e6.ru-ru.xlf" r:id="rId129"/>
     <hyperlink ref="A42" display="partialConfigs.md" r:id="rId130"/>
     <hyperlink ref="B42" display=".md" r:id="rId131"/>
-    <hyperlink ref="D42" display="partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.zh-tw.xlf" r:id="rId132"/>
+    <hyperlink ref="D42" display="partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.ru-ru.xlf" r:id="rId132"/>
     <hyperlink ref="A43" display="pullClient.md" r:id="rId133"/>
     <hyperlink ref="B43" display=".md" r:id="rId134"/>
-    <hyperlink ref="D43" display="pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.zh-tw.xlf" r:id="rId135"/>
+    <hyperlink ref="D43" display="pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.ru-ru.xlf" r:id="rId135"/>
     <hyperlink ref="A44" display="pullClientConfigID.md" r:id="rId136"/>
     <hyperlink ref="B44" display=".md" r:id="rId137"/>
-    <hyperlink ref="D44" display="pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.zh-tw.xlf" r:id="rId138"/>
+    <hyperlink ref="D44" display="pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.ru-ru.xlf" r:id="rId138"/>
     <hyperlink ref="A45" display="pullClientConfigID4.md" r:id="rId139"/>
     <hyperlink ref="B45" display=".md" r:id="rId140"/>
-    <hyperlink ref="D45" display="pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.zh-tw.xlf" r:id="rId141"/>
+    <hyperlink ref="D45" display="pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.ru-ru.xlf" r:id="rId141"/>
     <hyperlink ref="A46" display="pullClientConfigNames.md" r:id="rId142"/>
     <hyperlink ref="B46" display=".md" r:id="rId143"/>
-    <hyperlink ref="D46" display="pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.zh-tw.xlf" r:id="rId144"/>
+    <hyperlink ref="D46" display="pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.ru-ru.xlf" r:id="rId144"/>
     <hyperlink ref="A47" display="pullServer.md" r:id="rId145"/>
     <hyperlink ref="B47" display=".md" r:id="rId146"/>
-    <hyperlink ref="D47" display="pullServer.4b925b277da29998394af746bdbdd508fda48909.zh-tw.xlf" r:id="rId147"/>
+    <hyperlink ref="D47" display="pullServer.4b925b277da29998394af746bdbdd508fda48909.ru-ru.xlf" r:id="rId147"/>
     <hyperlink ref="A48" display="pullServerSMB.md" r:id="rId148"/>
     <hyperlink ref="B48" display=".md" r:id="rId149"/>
-    <hyperlink ref="D48" display="pullServerSMB.772aec5ae27ccb19ced78e3eb665a4e16db1c4df.zh-tw.xlf" r:id="rId150"/>
+    <hyperlink ref="D48" display="pullServerSMB.772aec5ae27ccb19ced78e3eb665a4e16db1c4df.ru-ru.xlf" r:id="rId150"/>
     <hyperlink ref="A49" display="queryServerNodes.md" r:id="rId151"/>
     <hyperlink ref="B49" display=".md" r:id="rId152"/>
-    <hyperlink ref="D49" display="queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.zh-tw.xlf" r:id="rId153"/>
+    <hyperlink ref="D49" display="queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.ru-ru.xlf" r:id="rId153"/>
     <hyperlink ref="A50" display="registryResource.md" r:id="rId154"/>
     <hyperlink ref="B50" display=".md" r:id="rId155"/>
-    <hyperlink ref="D50" display="registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.zh-tw.xlf" r:id="rId156"/>
+    <hyperlink ref="D50" display="registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.ru-ru.xlf" r:id="rId156"/>
     <hyperlink ref="A51" display="reportServer.md" r:id="rId157"/>
     <hyperlink ref="B51" display=".md" r:id="rId158"/>
-    <hyperlink ref="D51" display="reportServer.53df4bc8b7b80c0a19c11434bdf5f4304e8248f7.zh-tw.xlf" r:id="rId159"/>
+    <hyperlink ref="D51" display="reportServer.53df4bc8b7b80c0a19c11434bdf5f4304e8248f7.ru-ru.xlf" r:id="rId159"/>
     <hyperlink ref="A52" display="resourceAuthoringChecklist.md" r:id="rId160"/>
     <hyperlink ref="B52" display=".md" r:id="rId161"/>
-    <hyperlink ref="D52" display="resourceAuthoringChecklist.3b9ae254d826cc45519d37d06044f28a69bdfa69.zh-tw.xlf" r:id="rId162"/>
+    <hyperlink ref="D52" display="resourceAuthoringChecklist.3b9ae254d826cc45519d37d06044f28a69bdfa69.ru-ru.xlf" r:id="rId162"/>
     <hyperlink ref="A53" display="resources.md" r:id="rId163"/>
     <hyperlink ref="B53" display=".md" r:id="rId164"/>
-    <hyperlink ref="D53" display="resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.zh-tw.xlf" r:id="rId165"/>
+    <hyperlink ref="D53" display="resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.ru-ru.xlf" r:id="rId165"/>
     <hyperlink ref="A54" display="runAsUser.md" r:id="rId166"/>
     <hyperlink ref="B54" display=".md" r:id="rId167"/>
-    <hyperlink ref="D54" display="runAsUser.d2b90b6bc42ef965e454f9c9f5fd19bc7b488b34.zh-tw.xlf" r:id="rId168"/>
+    <hyperlink ref="D54" display="runAsUser.d2b90b6bc42ef965e454f9c9f5fd19bc7b488b34.ru-ru.xlf" r:id="rId168"/>
     <hyperlink ref="A55" display="scriptResource.md" r:id="rId169"/>
     <hyperlink ref="B55" display=".md" r:id="rId170"/>
-    <hyperlink ref="D55" display="scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.zh-tw.xlf" r:id="rId171"/>
+    <hyperlink ref="D55" display="scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.ru-ru.xlf" r:id="rId171"/>
     <hyperlink ref="A56" display="secureMOF.md" r:id="rId172"/>
     <hyperlink ref="B56" display=".md" r:id="rId173"/>
-    <hyperlink ref="D56" display="secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.zh-tw.xlf" r:id="rId174"/>
+    <hyperlink ref="D56" display="secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.ru-ru.xlf" r:id="rId174"/>
     <hyperlink ref="A57" display="secureServer.md" r:id="rId175"/>
     <hyperlink ref="B57" display=".md" r:id="rId176"/>
-    <hyperlink ref="D57" display="secureServer.ce207607010d18109152742ba23c923cd3cddba2.zh-tw.xlf" r:id="rId177"/>
+    <hyperlink ref="D57" display="secureServer.ce207607010d18109152742ba23c923cd3cddba2.ru-ru.xlf" r:id="rId177"/>
     <hyperlink ref="A58" display="serviceResource.md" r:id="rId178"/>
     <hyperlink ref="B58" display=".md" r:id="rId179"/>
-    <hyperlink ref="D58" display="serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.zh-tw.xlf" r:id="rId180"/>
+    <hyperlink ref="D58" display="serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.ru-ru.xlf" r:id="rId180"/>
     <hyperlink ref="A59" display="TOC.md" r:id="rId181"/>
     <hyperlink ref="B59" display=".md" r:id="rId182"/>
-    <hyperlink ref="D59" display="TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.zh-tw.xlf" r:id="rId183"/>
+    <hyperlink ref="D59" display="TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.ru-ru.xlf" r:id="rId183"/>
     <hyperlink ref="A60" display="troubleshooting.md" r:id="rId184"/>
     <hyperlink ref="B60" display=".md" r:id="rId185"/>
-    <hyperlink ref="D60" display="troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.zh-tw.xlf" r:id="rId186"/>
+    <hyperlink ref="D60" display="troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.ru-ru.xlf" r:id="rId186"/>
     <hyperlink ref="A61" display="userResource.md" r:id="rId187"/>
     <hyperlink ref="B61" display=".md" r:id="rId188"/>
-    <hyperlink ref="D61" display="userResource.5de4fbe03e9e06934442ba451eb0564931863f45.zh-tw.xlf" r:id="rId189"/>
+    <hyperlink ref="D61" display="userResource.5de4fbe03e9e06934442ba451eb0564931863f45.ru-ru.xlf" r:id="rId189"/>
     <hyperlink ref="A62" display="windowsfeatureResource.md" r:id="rId190"/>
     <hyperlink ref="B62" display=".md" r:id="rId191"/>
-    <hyperlink ref="D62" display="windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.zh-tw.xlf" r:id="rId192"/>
+    <hyperlink ref="D62" display="windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.ru-ru.xlf" r:id="rId192"/>
     <hyperlink ref="A63" display="windowsProcessResource.md" r:id="rId193"/>
     <hyperlink ref="B63" display=".md" r:id="rId194"/>
-    <hyperlink ref="D63" display="windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.zh-tw.xlf" r:id="rId195"/>
+    <hyperlink ref="D63" display="windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.ru-ru.xlf" r:id="rId195"/>
     <hyperlink ref="A64" display="audit_cms.md" r:id="rId196"/>
     <hyperlink ref="B64" display=".md" r:id="rId197"/>
-    <hyperlink ref="D64" display="audit_cms.3e422ca243ac938b46bfcf1497a703e55bde970e.zh-tw.xlf" r:id="rId198"/>
+    <hyperlink ref="D64" display="audit_cms.3e422ca243ac938b46bfcf1497a703e55bde970e.ru-ru.xlf" r:id="rId198"/>
     <hyperlink ref="A65" display="audit_overview.md" r:id="rId199"/>
     <hyperlink ref="B65" display=".md" r:id="rId200"/>
-    <hyperlink ref="D65" display="audit_overview.fc5b51e2734a2af986c9edf42b4395b1aad2435d.zh-tw.xlf" r:id="rId201"/>
+    <hyperlink ref="D65" display="audit_overview.fc5b51e2734a2af986c9edf42b4395b1aad2435d.ru-ru.xlf" r:id="rId201"/>
     <hyperlink ref="A66" display="audit_script.md" r:id="rId202"/>
     <hyperlink ref="B66" display=".md" r:id="rId203"/>
-    <hyperlink ref="D66" display="audit_script.e89f3a9316d1125e1efd23b41b756a3a6161016b.zh-tw.xlf" r:id="rId204"/>
+    <hyperlink ref="D66" display="audit_script.e89f3a9316d1125e1efd23b41b756a3a6161016b.ru-ru.xlf" r:id="rId204"/>
     <hyperlink ref="A67" display="audit_transcript.md" r:id="rId205"/>
     <hyperlink ref="B67" display=".md" r:id="rId206"/>
-    <hyperlink ref="D67" display="audit_transcript.c21a6554932939cbf4c744bf7c9f07cc4e1e7160.zh-tw.xlf" r:id="rId207"/>
+    <hyperlink ref="D67" display="audit_transcript.c21a6554932939cbf4c744bf7c9f07cc4e1e7160.ru-ru.xlf" r:id="rId207"/>
     <hyperlink ref="A68" display="class_base.md" r:id="rId208"/>
     <hyperlink ref="B68" display=".md" r:id="rId209"/>
-    <hyperlink ref="D68" display="class_base.29a9fbe4987503d5575c151f4271f58398cb7e55.zh-tw.xlf" r:id="rId210"/>
+    <hyperlink ref="D68" display="class_base.29a9fbe4987503d5575c151f4271f58398cb7e55.ru-ru.xlf" r:id="rId210"/>
     <hyperlink ref="A69" display="class_baseconstructor.md" r:id="rId211"/>
     <hyperlink ref="B69" display=".md" r:id="rId212"/>
-    <hyperlink ref="D69" display="class_baseconstructor.82f951e800b06ccc68090b1be9923c8210a233ac.zh-tw.xlf" r:id="rId213"/>
+    <hyperlink ref="D69" display="class_baseconstructor.82f951e800b06ccc68090b1be9923c8210a233ac.ru-ru.xlf" r:id="rId213"/>
     <hyperlink ref="A70" display="class_basemethod.md" r:id="rId214"/>
     <hyperlink ref="B70" display=".md" r:id="rId215"/>
-    <hyperlink ref="D70" display="class_basemethod.6b60292188d0081f30fbaf4b111db8a439348f5b.zh-tw.xlf" r:id="rId216"/>
+    <hyperlink ref="D70" display="class_basemethod.6b60292188d0081f30fbaf4b111db8a439348f5b.ru-ru.xlf" r:id="rId216"/>
     <hyperlink ref="A71" display="class_interface.md" r:id="rId217"/>
     <hyperlink ref="B71" display=".md" r:id="rId218"/>
-    <hyperlink ref="D71" display="class_interface.84a08fd30808364a820bdd4440de18ec4504a6c7.zh-tw.xlf" r:id="rId219"/>
+    <hyperlink ref="D71" display="class_interface.84a08fd30808364a820bdd4440de18ec4504a6c7.ru-ru.xlf" r:id="rId219"/>
     <hyperlink ref="A72" display="class_newtype.md" r:id="rId220"/>
     <hyperlink ref="B72" display=".md" r:id="rId221"/>
-    <hyperlink ref="D72" display="class_newtype.a9f52b670970046f8b1147d4ba646b73abb430dc.zh-tw.xlf" r:id="rId222"/>
+    <hyperlink ref="D72" display="class_newtype.a9f52b670970046f8b1147d4ba646b73abb430dc.ru-ru.xlf" r:id="rId222"/>
     <hyperlink ref="A73" display="class_overview.md" r:id="rId223"/>
     <hyperlink ref="B73" display=".md" r:id="rId224"/>
-    <hyperlink ref="D73" display="class_overview.91227b885afcb8df385ab601ab970b924eca2533.zh-tw.xlf" r:id="rId225"/>
+    <hyperlink ref="D73" display="class_overview.91227b885afcb8df385ab601ab970b924eca2533.ru-ru.xlf" r:id="rId225"/>
     <hyperlink ref="A74" display="debug_overview.md" r:id="rId226"/>
     <hyperlink ref="B74" display=".md" r:id="rId227"/>
-    <hyperlink ref="D74" display="debug_overview.70b71c20b8b625704c25da28a58e804a048bafb0.zh-tw.xlf" r:id="rId228"/>
+    <hyperlink ref="D74" display="debug_overview.70b71c20b8b625704c25da28a58e804a048bafb0.ru-ru.xlf" r:id="rId228"/>
     <hyperlink ref="A75" display="dsc_authoring.md" r:id="rId229"/>
     <hyperlink ref="B75" display=".md" r:id="rId230"/>
-    <hyperlink ref="D75" display="dsc_authoring.364878cde8f156d8999773842812e0c08f70191c.zh-tw.xlf" r:id="rId231"/>
+    <hyperlink ref="D75" display="dsc_authoring.364878cde8f156d8999773842812e0c08f70191c.ru-ru.xlf" r:id="rId231"/>
     <hyperlink ref="A76" display="dsc_classbasedresource.md" r:id="rId232"/>
     <hyperlink ref="B76" display=".md" r:id="rId233"/>
-    <hyperlink ref="D76" display="dsc_classbasedresource.a3d6b22652db939b51db1218584247396454ae0f.zh-tw.xlf" r:id="rId234"/>
+    <hyperlink ref="D76" display="dsc_classbasedresource.a3d6b22652db939b51db1218584247396454ae0f.ru-ru.xlf" r:id="rId234"/>
     <hyperlink ref="A77" display="dsc_confighelp.md" r:id="rId235"/>
     <hyperlink ref="B77" display=".md" r:id="rId236"/>
-    <hyperlink ref="D77" display="dsc_confighelp.bcfa7e85acae98499089edc9fba25b68953d7bbf.zh-tw.xlf" r:id="rId237"/>
+    <hyperlink ref="D77" display="dsc_confighelp.bcfa7e85acae98499089edc9fba25b68953d7bbf.ru-ru.xlf" r:id="rId237"/>
     <hyperlink ref="A78" display="dsc_directaccess.md" r:id="rId238"/>
     <hyperlink ref="B78" display=".md" r:id="rId239"/>
-    <hyperlink ref="D78" display="dsc_directaccess.014c91015162b26b678e0a5fdfd453a3bf6e41b0.zh-tw.xlf" r:id="rId240"/>
+    <hyperlink ref="D78" display="dsc_directaccess.014c91015162b26b678e0a5fdfd453a3bf6e41b0.ru-ru.xlf" r:id="rId240"/>
     <hyperlink ref="A79" display="dsc_encryptedmof.md" r:id="rId241"/>
     <hyperlink ref="B79" display=".md" r:id="rId242"/>
-    <hyperlink ref="D79" display="dsc_encryptedmof.a35c44de669ea81f25dd29f152f03493e52e327b.zh-tw.xlf" r:id="rId243"/>
+    <hyperlink ref="D79" display="dsc_encryptedmof.a35c44de669ea81f25dd29f152f03493e52e327b.ru-ru.xlf" r:id="rId243"/>
     <hyperlink ref="A80" display="dsc_freqnomultiple.md" r:id="rId244"/>
     <hyperlink ref="B80" display=".md" r:id="rId245"/>
-    <hyperlink ref="D80" display="dsc_freqnomultiple.2848e52c73280aca59e73136bac0c2c7ae02aad6.zh-tw.xlf" r:id="rId246"/>
+    <hyperlink ref="D80" display="dsc_freqnomultiple.2848e52c73280aca59e73136bac0c2c7ae02aad6.ru-ru.xlf" r:id="rId246"/>
     <hyperlink ref="A81" display="dsc_getconfigurationstatus.md" r:id="rId247"/>
     <hyperlink ref="B81" display=".md" r:id="rId248"/>
-    <hyperlink ref="D81" display="dsc_getconfigurationstatus.1705e4bcaa9dfd9d69f00aecdc7ef0d04bf44899.zh-tw.xlf" r:id="rId249"/>
+    <hyperlink ref="D81" display="dsc_getconfigurationstatus.1705e4bcaa9dfd9d69f00aecdc7ef0d04bf44899.ru-ru.xlf" r:id="rId249"/>
     <hyperlink ref="A82" display="dsc_identicalduplicate.md" r:id="rId250"/>
     <hyperlink ref="B82" display=".md" r:id="rId251"/>
-    <hyperlink ref="D82" display="dsc_identicalduplicate.eb7167ccd4a72d68aa1683327e9b3877927158ab.zh-tw.xlf" r:id="rId252"/>
+    <hyperlink ref="D82" display="dsc_identicalduplicate.eb7167ccd4a72d68aa1683327e9b3877927158ab.ru-ru.xlf" r:id="rId252"/>
     <hyperlink ref="A83" display="dsc_importdscresource.md" r:id="rId253"/>
     <hyperlink ref="B83" display=".md" r:id="rId254"/>
-    <hyperlink ref="D83" display="dsc_importdscresource.a0169ad862dfcaa5c958c07ecd52c856d5dc8436.zh-tw.xlf" r:id="rId255"/>
+    <hyperlink ref="D83" display="dsc_importdscresource.a0169ad862dfcaa5c958c07ecd52c856d5dc8436.ru-ru.xlf" r:id="rId255"/>
     <hyperlink ref="A84" display="dsc_improvements.md" r:id="rId256"/>
     <hyperlink ref="B84" display=".md" r:id="rId257"/>
-    <hyperlink ref="D84" display="dsc_improvements.d9ed6ffedf9d9650bb6b26b5ed611e420a0aacbb.zh-tw.xlf" r:id="rId258"/>
+    <hyperlink ref="D84" display="dsc_improvements.d9ed6ffedf9d9650bb6b26b5ed611e420a0aacbb.ru-ru.xlf" r:id="rId258"/>
     <hyperlink ref="A85" display="dsc_lcmstate.md" r:id="rId259"/>
     <hyperlink ref="B85" display=".md" r:id="rId260"/>
-    <hyperlink ref="D85" display="dsc_lcmstate.21ea1c36f37c94e8e0363199fbd07bcced3aea40.zh-tw.xlf" r:id="rId261"/>
+    <hyperlink ref="D85" display="dsc_lcmstate.21ea1c36f37c94e8e0363199fbd07bcced3aea40.ru-ru.xlf" r:id="rId261"/>
     <hyperlink ref="A86" display="dsc_metaconfiguration.md" r:id="rId262"/>
     <hyperlink ref="B86" display=".md" r:id="rId263"/>
-    <hyperlink ref="D86" display="dsc_metaconfiguration.e8bbca05aa1692ad54cadd83b93a1902f179f365.zh-tw.xlf" r:id="rId264"/>
+    <hyperlink ref="D86" display="dsc_metaconfiguration.e8bbca05aa1692ad54cadd83b93a1902f179f365.ru-ru.xlf" r:id="rId264"/>
     <hyperlink ref="A87" display="dsc_newresources.md" r:id="rId265"/>
     <hyperlink ref="B87" display=".md" r:id="rId266"/>
-    <hyperlink ref="D87" display="dsc_newresources.b9c40f591f875ea205c834f7675f3edbe1050592.zh-tw.xlf" r:id="rId267"/>
+    <hyperlink ref="D87" display="dsc_newresources.b9c40f591f875ea205c834f7675f3edbe1050592.ru-ru.xlf" r:id="rId267"/>
     <hyperlink ref="A88" display="dsc_nodeid.md" r:id="rId268"/>
     <hyperlink ref="B88" display=".md" r:id="rId269"/>
-    <hyperlink ref="D88" display="dsc_nodeid.e3c9049aa6c1d151f8b286f28502537b2f8d22a4.zh-tw.xlf" r:id="rId270"/>
+    <hyperlink ref="D88" display="dsc_nodeid.e3c9049aa6c1d151f8b286f28502537b2f8d22a4.ru-ru.xlf" r:id="rId270"/>
     <hyperlink ref="A89" display="dsc_partialconfig.md" r:id="rId271"/>
     <hyperlink ref="B89" display=".md" r:id="rId272"/>
-    <hyperlink ref="D89" display="dsc_partialconfig.a493787c3f8663ac3e2994162ffd1bee429544d3.zh-tw.xlf" r:id="rId273"/>
+    <hyperlink ref="D89" display="dsc_partialconfig.a493787c3f8663ac3e2994162ffd1bee429544d3.ru-ru.xlf" r:id="rId273"/>
     <hyperlink ref="A90" display="dsc_partialconfig_mixedmode.md" r:id="rId274"/>
     <hyperlink ref="B90" display=".md" r:id="rId275"/>
-    <hyperlink ref="D90" display="dsc_partialconfig_mixedmode.ff4b9a8a421441da62574192650493bf2407028d.zh-tw.xlf" r:id="rId276"/>
+    <hyperlink ref="D90" display="dsc_partialconfig_mixedmode.ff4b9a8a421441da62574192650493bf2407028d.ru-ru.xlf" r:id="rId276"/>
     <hyperlink ref="A91" display="dsc_publishconfig.md" r:id="rId277"/>
     <hyperlink ref="B91" display=".md" r:id="rId278"/>
-    <hyperlink ref="D91" display="dsc_publishconfig.bfe86d4253abdd777c205caec637c50ec79103ee.zh-tw.xlf" r:id="rId279"/>
+    <hyperlink ref="D91" display="dsc_publishconfig.bfe86d4253abdd777c205caec637c50ec79103ee.ru-ru.xlf" r:id="rId279"/>
     <hyperlink ref="A92" display="dsc_refreshmode.md" r:id="rId280"/>
     <hyperlink ref="B92" display=".md" r:id="rId281"/>
-    <hyperlink ref="D92" display="dsc_refreshmode.b0529a06a4d3e07b3fce300f74760d63b27523f6.zh-tw.xlf" r:id="rId282"/>
+    <hyperlink ref="D92" display="dsc_refreshmode.b0529a06a4d3e07b3fce300f74760d63b27523f6.ru-ru.xlf" r:id="rId282"/>
     <hyperlink ref="A93" display="dsc_removeconfigdoc.md" r:id="rId283"/>
     <hyperlink ref="B93" display=".md" r:id="rId284"/>
-    <hyperlink ref="D93" display="dsc_removeconfigdoc.d16cdab7eaedf468bcc38dae34e93be26a204318.zh-tw.xlf" r:id="rId285"/>
+    <hyperlink ref="D93" display="dsc_removeconfigdoc.d16cdab7eaedf468bcc38dae34e93be26a204318.ru-ru.xlf" r:id="rId285"/>
     <hyperlink ref="A94" display="dsc_reporting.md" r:id="rId286"/>
     <hyperlink ref="B94" display=".md" r:id="rId287"/>
-    <hyperlink ref="D94" display="dsc_reporting.b042cd21b9bcfc8e50bc361ddee59333602fad42.zh-tw.xlf" r:id="rId288"/>
+    <hyperlink ref="D94" display="dsc_reporting.b042cd21b9bcfc8e50bc361ddee59333602fad42.ru-ru.xlf" r:id="rId288"/>
     <hyperlink ref="A95" display="dsc_repository.md" r:id="rId289"/>
     <hyperlink ref="B95" display=".md" r:id="rId290"/>
-    <hyperlink ref="D95" display="dsc_repository.ec5040a823a6b64e969393e00f3d859fd0b4551c.zh-tw.xlf" r:id="rId291"/>
+    <hyperlink ref="D95" display="dsc_repository.ec5040a823a6b64e969393e00f3d859fd0b4551c.ru-ru.xlf" r:id="rId291"/>
     <hyperlink ref="A96" display="dsc_resourcedebugging.md" r:id="rId292"/>
     <hyperlink ref="B96" display=".md" r:id="rId293"/>
-    <hyperlink ref="D96" display="dsc_resourcedebugging.95c69e55eb065b349f52e18126d699b1906ba03f.zh-tw.xlf" r:id="rId294"/>
+    <hyperlink ref="D96" display="dsc_resourcedebugging.95c69e55eb065b349f52e18126d699b1906ba03f.ru-ru.xlf" r:id="rId294"/>
     <hyperlink ref="A97" display="dsc_runas.md" r:id="rId295"/>
     <hyperlink ref="B97" display=".md" r:id="rId296"/>
-    <hyperlink ref="D97" display="dsc_runas.9e19a42a6d5e1ea1772358a6fd8ff24b98a5b6ba.zh-tw.xlf" r:id="rId297"/>
+    <hyperlink ref="D97" display="dsc_runas.9e19a42a6d5e1ea1772358a6fd8ff24b98a5b6ba.ru-ru.xlf" r:id="rId297"/>
     <hyperlink ref="A98" display="dsc_setdsclcm.md" r:id="rId298"/>
     <hyperlink ref="B98" display=".md" r:id="rId299"/>
-    <hyperlink ref="D98" display="dsc_setdsclcm.1f0e3cab81cf5fc1feda678f202451fe150632e3.zh-tw.xlf" r:id="rId300"/>
+    <hyperlink ref="D98" display="dsc_setdsclcm.1f0e3cab81cf5fc1feda678f202451fe150632e3.ru-ru.xlf" r:id="rId300"/>
     <hyperlink ref="A99" display="dsc_statestatus.md" r:id="rId301"/>
     <hyperlink ref="B99" display=".md" r:id="rId302"/>
-    <hyperlink ref="D99" display="dsc_statestatus.b6f3670f776a8f63a705ba16bed2f20be34fc48f.zh-tw.xlf" r:id="rId303"/>
+    <hyperlink ref="D99" display="dsc_statestatus.b6f3670f776a8f63a705ba16bed2f20be34fc48f.ru-ru.xlf" r:id="rId303"/>
     <hyperlink ref="A100" display="dsc_sxsresource.md" r:id="rId304"/>
     <hyperlink ref="B100" display=".md" r:id="rId305"/>
-    <hyperlink ref="D100" display="dsc_sxsresource.c9d4ce6109370ac1cbc1fb07f191e02f9a61d5d3.zh-tw.xlf" r:id="rId306"/>
+    <hyperlink ref="D100" display="dsc_sxsresource.c9d4ce6109370ac1cbc1fb07f191e02f9a61d5d3.ru-ru.xlf" r:id="rId306"/>
     <hyperlink ref="A101" display="dsc_testconfiguration.md" r:id="rId307"/>
     <hyperlink ref="B101" display=".md" r:id="rId308"/>
-    <hyperlink ref="D101" display="dsc_testconfiguration.b0e5afe2c8f173ebe49c97c9ea9a2f11d81ea5fa.zh-tw.xlf" r:id="rId309"/>
+    <hyperlink ref="D101" display="dsc_testconfiguration.b0e5afe2c8f173ebe49c97c9ea9a2f11d81ea5fa.ru-ru.xlf" r:id="rId309"/>
     <hyperlink ref="A102" display="dsc_updateconfig.md" r:id="rId310"/>
     <hyperlink ref="B102" display=".md" r:id="rId311"/>
-    <hyperlink ref="D102" display="dsc_updateconfig.a07eb85e3458d42d7ab1ed5c57dcfc70df709d07.zh-tw.xlf" r:id="rId312"/>
+    <hyperlink ref="D102" display="dsc_updateconfig.a07eb85e3458d42d7ab1ed5c57dcfc70df709d07.ru-ru.xlf" r:id="rId312"/>
     <hyperlink ref="A103" display="dsc_waitfor.md" r:id="rId313"/>
     <hyperlink ref="B103" display=".md" r:id="rId314"/>
-    <hyperlink ref="D103" display="dsc_waitfor.2b09933f08f1020166ce0f0cd7548a5a3845c48f.zh-tw.xlf" r:id="rId315"/>
+    <hyperlink ref="D103" display="dsc_waitfor.2b09933f08f1020166ce0f0cd7548a5a3845c48f.ru-ru.xlf" r:id="rId315"/>
     <hyperlink ref="A104" display="dsc_wow64.md" r:id="rId316"/>
     <hyperlink ref="B104" display=".md" r:id="rId317"/>
-    <hyperlink ref="D104" display="dsc_wow64.ea039aaa1bd77415311fc30d80fed43cda07a6e3.zh-tw.xlf" r:id="rId318"/>
+    <hyperlink ref="D104" display="dsc_wow64.ea039aaa1bd77415311fc30d80fed43cda07a6e3.ru-ru.xlf" r:id="rId318"/>
     <hyperlink ref="A105" display="feedback.md" r:id="rId319"/>
     <hyperlink ref="B105" display=".md" r:id="rId320"/>
-    <hyperlink ref="D105" display="feedback.3662230166299ef7c1fb7a7a7f5cdbd64b1d812a.zh-tw.xlf" r:id="rId321"/>
+    <hyperlink ref="D105" display="feedback.3662230166299ef7c1fb7a7a7f5cdbd64b1d812a.ru-ru.xlf" r:id="rId321"/>
     <hyperlink ref="A106" display="feedback_archive.md" r:id="rId322"/>
     <hyperlink ref="B106" display=".md" r:id="rId323"/>
-    <hyperlink ref="D106" display="feedback_archive.20de26911a704368058401c7e2bd6ebaac692ff5.zh-tw.xlf" r:id="rId324"/>
+    <hyperlink ref="D106" display="feedback_archive.20de26911a704368058401c7e2bd6ebaac692ff5.ru-ru.xlf" r:id="rId324"/>
     <hyperlink ref="A107" display="feedback_clipboard.md" r:id="rId325"/>
     <hyperlink ref="B107" display=".md" r:id="rId326"/>
-    <hyperlink ref="D107" display="feedback_clipboard.872e5c147ef02cb86067651f41e3c00b55386664.zh-tw.xlf" r:id="rId327"/>
+    <hyperlink ref="D107" display="feedback_clipboard.872e5c147ef02cb86067651f41e3c00b55386664.ru-ru.xlf" r:id="rId327"/>
     <hyperlink ref="A108" display="feedback_cmdlets.md" r:id="rId328"/>
     <hyperlink ref="B108" display=".md" r:id="rId329"/>
-    <hyperlink ref="D108" display="feedback_cmdlets.a4c0dfb806ca0da232eeb75ad3706177b8a5ec48.zh-tw.xlf" r:id="rId330"/>
+    <hyperlink ref="D108" display="feedback_cmdlets.a4c0dfb806ca0da232eeb75ad3706177b8a5ec48.ru-ru.xlf" r:id="rId330"/>
     <hyperlink ref="A109" display="feedback_convertfromString.md" r:id="rId331"/>
     <hyperlink ref="B109" display=".md" r:id="rId332"/>
-    <hyperlink ref="D109" display="feedback_convertfromString.acdeaa33e8fa59b93649b6abf3a7d5ef64fb7664.zh-tw.xlf" r:id="rId333"/>
+    <hyperlink ref="D109" display="feedback_convertfromString.acdeaa33e8fa59b93649b6abf3a7d5ef64fb7664.ru-ru.xlf" r:id="rId333"/>
     <hyperlink ref="A110" display="feedback_convertstring.md" r:id="rId334"/>
     <hyperlink ref="B110" display=".md" r:id="rId335"/>
-    <hyperlink ref="D110" display="feedback_convertstring.42e964e30093962871c3a4d586ed6c54f25f840d.zh-tw.xlf" r:id="rId336"/>
+    <hyperlink ref="D110" display="feedback_convertstring.42e964e30093962871c3a4d586ed6c54f25f840d.ru-ru.xlf" r:id="rId336"/>
     <hyperlink ref="A111" display="feedback_fileinfo.md" r:id="rId337"/>
     <hyperlink ref="B111" display=".md" r:id="rId338"/>
-    <hyperlink ref="D111" display="feedback_fileinfo.0192edad2d6504d26a9632f95fc9e5b66ffd8003.zh-tw.xlf" r:id="rId339"/>
+    <hyperlink ref="D111" display="feedback_fileinfo.0192edad2d6504d26a9632f95fc9e5b66ffd8003.ru-ru.xlf" r:id="rId339"/>
     <hyperlink ref="A112" display="feedback_formathex.md" r:id="rId340"/>
     <hyperlink ref="B112" display=".md" r:id="rId341"/>
-    <hyperlink ref="D112" display="feedback_formathex.f97931c887efb620e5f4314facc1f0e20e3dffbe.zh-tw.xlf" r:id="rId342"/>
+    <hyperlink ref="D112" display="feedback_formathex.f97931c887efb620e5f4314facc1f0e20e3dffbe.ru-ru.xlf" r:id="rId342"/>
     <hyperlink ref="A113" display="feedback_getchilditem.md" r:id="rId343"/>
     <hyperlink ref="B113" display=".md" r:id="rId344"/>
-    <hyperlink ref="D113" display="feedback_getchilditem.ce02ca20cc4417a80fe65eb509a8e92f2cecc79c.zh-tw.xlf" r:id="rId345"/>
+    <hyperlink ref="D113" display="feedback_getchilditem.ce02ca20cc4417a80fe65eb509a8e92f2cecc79c.ru-ru.xlf" r:id="rId345"/>
     <hyperlink ref="A114" display="feedback_moduleversionranges.md" r:id="rId346"/>
     <hyperlink ref="B114" display=".md" r:id="rId347"/>
-    <hyperlink ref="D114" display="feedback_moduleversionranges.611b3a3219d64dbfa1d01541b60a727b880a0c4b.zh-tw.xlf" r:id="rId348"/>
+    <hyperlink ref="D114" display="feedback_moduleversionranges.611b3a3219d64dbfa1d01541b60a727b880a0c4b.ru-ru.xlf" r:id="rId348"/>
     <hyperlink ref="A115" display="feedback_newguid.md" r:id="rId349"/>
     <hyperlink ref="B115" display=".md" r:id="rId350"/>
-    <hyperlink ref="D115" display="feedback_newguid.f8756fbdb96e6fe06a7e0cbb6ac4af32b1c64983.zh-tw.xlf" r:id="rId351"/>
+    <hyperlink ref="D115" display="feedback_newguid.f8756fbdb96e6fe06a7e0cbb6ac4af32b1c64983.ru-ru.xlf" r:id="rId351"/>
     <hyperlink ref="A116" display="feedback_nonewline.md" r:id="rId352"/>
     <hyperlink ref="B116" display=".md" r:id="rId353"/>
-    <hyperlink ref="D116" display="feedback_nonewline.7a9b7e24c50399879089bba2b8eee7dc325572e2.zh-tw.xlf" r:id="rId354"/>
+    <hyperlink ref="D116" display="feedback_nonewline.7a9b7e24c50399879089bba2b8eee7dc325572e2.ru-ru.xlf" r:id="rId354"/>
     <hyperlink ref="A117" display="feedback_symbolic.md" r:id="rId355"/>
     <hyperlink ref="B117" display=".md" r:id="rId356"/>
-    <hyperlink ref="D117" display="feedback_symbolic.1c3ac8128fb9df60512ec024044d48be7d0cb59f.zh-tw.xlf" r:id="rId357"/>
+    <hyperlink ref="D117" display="feedback_symbolic.1c3ac8128fb9df60512ec024044d48be7d0cb59f.ru-ru.xlf" r:id="rId357"/>
     <hyperlink ref="A118" display="feedback_tempfile.md" r:id="rId358"/>
     <hyperlink ref="B118" display=".md" r:id="rId359"/>
-    <hyperlink ref="D118" display="feedback_tempfile.fc029065af6bbba3a8c4abbf36023bede7d1416d.zh-tw.xlf" r:id="rId360"/>
+    <hyperlink ref="D118" display="feedback_tempfile.fc029065af6bbba3a8c4abbf36023bede7d1416d.ru-ru.xlf" r:id="rId360"/>
     <hyperlink ref="A119" display="DscResourceDebugging.jpg" r:id="rId361"/>
     <hyperlink ref="B119" display=".jpg" r:id="rId362"/>
     <hyperlink ref="D119" display="ba1897f38317f5fe38f2d8caf0efcc57bc8bb19d.jpg" r:id="rId363"/>
@@ -6652,76 +6658,76 @@
     <hyperlink ref="D121" display="9a44a53029d37d4165bbffbdcaa79d9be76e5fac.jpg" r:id="rId369"/>
     <hyperlink ref="A122" display="informationstream_overview.md" r:id="rId370"/>
     <hyperlink ref="B122" display=".md" r:id="rId371"/>
-    <hyperlink ref="D122" display="informationstream_overview.d2f238b2b4021ccdb7271cf89f53d58970d56cf5.zh-tw.xlf" r:id="rId372"/>
+    <hyperlink ref="D122" display="informationstream_overview.d2f238b2b4021ccdb7271cf89f53d58970d56cf5.ru-ru.xlf" r:id="rId372"/>
     <hyperlink ref="A123" display="install.md" r:id="rId373"/>
     <hyperlink ref="B123" display=".md" r:id="rId374"/>
-    <hyperlink ref="D123" display="install.317fc924c0f766547c4725878af59c3c9d8facba.zh-tw.xlf" r:id="rId375"/>
+    <hyperlink ref="D123" display="install.317fc924c0f766547c4725878af59c3c9d8facba.ru-ru.xlf" r:id="rId375"/>
     <hyperlink ref="A124" display="jea_endpoint.md" r:id="rId376"/>
     <hyperlink ref="B124" display=".md" r:id="rId377"/>
-    <hyperlink ref="D124" display="jea_endpoint.1dc052fe583a907a6c090cf8bfd42293d94d2975.zh-tw.xlf" r:id="rId378"/>
+    <hyperlink ref="D124" display="jea_endpoint.1dc052fe583a907a6c090cf8bfd42293d94d2975.ru-ru.xlf" r:id="rId378"/>
     <hyperlink ref="A125" display="jea_overview.md" r:id="rId379"/>
     <hyperlink ref="B125" display=".md" r:id="rId380"/>
-    <hyperlink ref="D125" display="jea_overview.3fa3008e719be8235adffe51808ac66714940871.zh-tw.xlf" r:id="rId381"/>
+    <hyperlink ref="D125" display="jea_overview.3fa3008e719be8235adffe51808ac66714940871.ru-ru.xlf" r:id="rId381"/>
     <hyperlink ref="A126" display="jea_report.md" r:id="rId382"/>
     <hyperlink ref="B126" display=".md" r:id="rId383"/>
-    <hyperlink ref="D126" display="jea_report.7860cec6e93b7405844ccbbe5bc879921447ac0b.zh-tw.xlf" r:id="rId384"/>
+    <hyperlink ref="D126" display="jea_report.7860cec6e93b7405844ccbbe5bc879921447ac0b.ru-ru.xlf" r:id="rId384"/>
     <hyperlink ref="A127" display="limitation_dsc.md" r:id="rId385"/>
     <hyperlink ref="B127" display=".md" r:id="rId386"/>
-    <hyperlink ref="D127" display="limitation_dsc.3684c81bb088cba98089dffdb1a1e56e1c098335.zh-tw.xlf" r:id="rId387"/>
+    <hyperlink ref="D127" display="limitation_dsc.3684c81bb088cba98089dffdb1a1e56e1c098335.ru-ru.xlf" r:id="rId387"/>
     <hyperlink ref="A128" display="limitation_overview.md" r:id="rId388"/>
     <hyperlink ref="B128" display=".md" r:id="rId389"/>
-    <hyperlink ref="D128" display="limitation_overview.6cc9c8c028f5912636637d836aed7db0614de522.zh-tw.xlf" r:id="rId390"/>
+    <hyperlink ref="D128" display="limitation_overview.6cc9c8c028f5912636637d836aed7db0614de522.ru-ru.xlf" r:id="rId390"/>
     <hyperlink ref="A129" display="networkswitch_overview.md" r:id="rId391"/>
     <hyperlink ref="B129" display=".md" r:id="rId392"/>
-    <hyperlink ref="D129" display="networkswitch_overview.7a87eb0741cd43b8b9284ea6cb605920c4961b79.zh-tw.xlf" r:id="rId393"/>
+    <hyperlink ref="D129" display="networkswitch_overview.7a87eb0741cd43b8b9284ea6cb605920c4961b79.ru-ru.xlf" r:id="rId393"/>
     <hyperlink ref="A130" display="odata_overview.md" r:id="rId394"/>
     <hyperlink ref="B130" display=".md" r:id="rId395"/>
-    <hyperlink ref="D130" display="odata_overview.c3f7efdde29fe7ac5685a61cd61d75b65524a4c3.zh-tw.xlf" r:id="rId396"/>
+    <hyperlink ref="D130" display="odata_overview.c3f7efdde29fe7ac5685a61cd61d75b65524a4c3.ru-ru.xlf" r:id="rId396"/>
     <hyperlink ref="A131" display="oneget_cmdlets.md" r:id="rId397"/>
     <hyperlink ref="B131" display=".md" r:id="rId398"/>
-    <hyperlink ref="D131" display="oneget_cmdlets.469b2350a72495ac2cf62e4130b4df8036f5d135.zh-tw.xlf" r:id="rId399"/>
+    <hyperlink ref="D131" display="oneget_cmdlets.469b2350a72495ac2cf62e4130b4df8036f5d135.ru-ru.xlf" r:id="rId399"/>
     <hyperlink ref="A132" display="oneget_overview.md" r:id="rId400"/>
     <hyperlink ref="B132" display=".md" r:id="rId401"/>
-    <hyperlink ref="D132" display="oneget_overview.e71a25f36f957ab7471d259c6e716651f6f23c94.zh-tw.xlf" r:id="rId402"/>
+    <hyperlink ref="D132" display="oneget_overview.e71a25f36f957ab7471d259c6e716651f6f23c94.ru-ru.xlf" r:id="rId402"/>
     <hyperlink ref="A133" display="productincompat.md" r:id="rId403"/>
     <hyperlink ref="B133" display=".md" r:id="rId404"/>
-    <hyperlink ref="D133" display="productincompat.62bb00299c0283b5297001553476a745e28a49cb.zh-tw.xlf" r:id="rId405"/>
+    <hyperlink ref="D133" display="productincompat.62bb00299c0283b5297001553476a745e28a49cb.ru-ru.xlf" r:id="rId405"/>
     <hyperlink ref="A134" display="psget_module_overview.md" r:id="rId406"/>
     <hyperlink ref="B134" display=".md" r:id="rId407"/>
-    <hyperlink ref="D134" display="psget_module_overview.4149c468ffd0f17a2fabd03f90059c12effc3170.zh-tw.xlf" r:id="rId408"/>
+    <hyperlink ref="D134" display="psget_module_overview.4149c468ffd0f17a2fabd03f90059c12effc3170.ru-ru.xlf" r:id="rId408"/>
     <hyperlink ref="A135" display="psget_modulecmdlets.md" r:id="rId409"/>
     <hyperlink ref="B135" display=".md" r:id="rId410"/>
-    <hyperlink ref="D135" display="psget_modulecmdlets.1f808cfdf9a9aa920f88e15f7f5fa4701fe805e3.zh-tw.xlf" r:id="rId411"/>
+    <hyperlink ref="D135" display="psget_modulecmdlets.1f808cfdf9a9aa920f88e15f7f5fa4701fe805e3.ru-ru.xlf" r:id="rId411"/>
     <hyperlink ref="A136" display="psget_moduledependency.md" r:id="rId412"/>
     <hyperlink ref="B136" display=".md" r:id="rId413"/>
-    <hyperlink ref="D136" display="psget_moduledependency.89ba9310335ae64db5481a3c02034ac4fe01b6a2.zh-tw.xlf" r:id="rId414"/>
+    <hyperlink ref="D136" display="psget_moduledependency.89ba9310335ae64db5481a3c02034ac4fe01b6a2.ru-ru.xlf" r:id="rId414"/>
     <hyperlink ref="A137" display="psget_modulesxsinstall.md" r:id="rId415"/>
     <hyperlink ref="B137" display=".md" r:id="rId416"/>
-    <hyperlink ref="D137" display="psget_modulesxsinstall.110ba80d8f917899ef488b46bd15f5654f6ba06c.zh-tw.xlf" r:id="rId417"/>
+    <hyperlink ref="D137" display="psget_modulesxsinstall.110ba80d8f917899ef488b46bd15f5654f6ba06c.ru-ru.xlf" r:id="rId417"/>
     <hyperlink ref="A138" display="psget_psrepository.md" r:id="rId418"/>
     <hyperlink ref="B138" display=".md" r:id="rId419"/>
-    <hyperlink ref="D138" display="psget_psrepository.c4381b2ff7bb6496ab74ed8bb2b07325cfbfc056.zh-tw.xlf" r:id="rId420"/>
+    <hyperlink ref="D138" display="psget_psrepository.c4381b2ff7bb6496ab74ed8bb2b07325cfbfc056.ru-ru.xlf" r:id="rId420"/>
     <hyperlink ref="A139" display="psget_script_overview.md" r:id="rId421"/>
     <hyperlink ref="B139" display=".md" r:id="rId422"/>
-    <hyperlink ref="D139" display="psget_script_overview.f035cc99497d17dc73e3a61f214e40a5860fc70a.zh-tw.xlf" r:id="rId423"/>
+    <hyperlink ref="D139" display="psget_script_overview.f035cc99497d17dc73e3a61f214e40a5860fc70a.ru-ru.xlf" r:id="rId423"/>
     <hyperlink ref="A140" display="psget_scriptcmdlets.md" r:id="rId424"/>
     <hyperlink ref="B140" display=".md" r:id="rId425"/>
-    <hyperlink ref="D140" display="psget_scriptcmdlets.1762d5f29292d59c1afb37cb29eb11a34cf63990.zh-tw.xlf" r:id="rId426"/>
+    <hyperlink ref="D140" display="psget_scriptcmdlets.1762d5f29292d59c1afb37cb29eb11a34cf63990.ru-ru.xlf" r:id="rId426"/>
     <hyperlink ref="A141" display="releasenotes.md" r:id="rId427"/>
     <hyperlink ref="B141" display=".md" r:id="rId428"/>
-    <hyperlink ref="D141" display="releasenotes.311750b4da54b1d4ef7997b328edd6ff177fb71f.zh-tw.xlf" r:id="rId429"/>
+    <hyperlink ref="D141" display="releasenotes.311750b4da54b1d4ef7997b328edd6ff177fb71f.ru-ru.xlf" r:id="rId429"/>
     <hyperlink ref="A142" display="requirements.md" r:id="rId430"/>
     <hyperlink ref="B142" display=".md" r:id="rId431"/>
-    <hyperlink ref="D142" display="requirements.ef8332f358d65b1759bfd4c7336b11d1dc8c2d46.zh-tw.xlf" r:id="rId432"/>
+    <hyperlink ref="D142" display="requirements.ef8332f358d65b1759bfd4c7336b11d1dc8c2d46.ru-ru.xlf" r:id="rId432"/>
     <hyperlink ref="A143" display="sil_overview.md" r:id="rId433"/>
     <hyperlink ref="B143" display=".md" r:id="rId434"/>
-    <hyperlink ref="D143" display="sil_overview.a2b1f7c716aad317993a5eaffba21fa28ce0c0d8.zh-tw.xlf" r:id="rId435"/>
+    <hyperlink ref="D143" display="sil_overview.a2b1f7c716aad317993a5eaffba21fa28ce0c0d8.ru-ru.xlf" r:id="rId435"/>
     <hyperlink ref="A144" display="TOC.md" r:id="rId436"/>
     <hyperlink ref="B144" display=".md" r:id="rId437"/>
-    <hyperlink ref="D144" display="TOC.60497266061c38453b3db893ec675eb65584af89.zh-tw.xlf" r:id="rId438"/>
+    <hyperlink ref="D144" display="TOC.60497266061c38453b3db893ec675eb65584af89.ru-ru.xlf" r:id="rId438"/>
     <hyperlink ref="A145" display="uninstall.md" r:id="rId439"/>
     <hyperlink ref="B145" display=".md" r:id="rId440"/>
-    <hyperlink ref="D145" display="uninstall.b07adaaaf7f41869dfa201b88e29342aced76c96.zh-tw.xlf" r:id="rId441"/>
+    <hyperlink ref="D145" display="uninstall.b07adaaaf7f41869dfa201b88e29342aced76c96.ru-ru.xlf" r:id="rId441"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/PowerShell/powerShell-Docs/live/localization-status.xlsx
+++ b/ol-handback/PowerShell/powerShell-Docs/live/localization-status.xlsx
@@ -6,7 +6,7 @@
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId2"/>
-    <sheet name="ru-ru" sheetId="2" r:id="rId3"/>
+    <sheet name="fr-fr" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -18,7 +18,7 @@
     <t>File Name</t>
   </si>
   <si>
-    <t>ru-ru</t>
+    <t>fr-fr</t>
   </si>
   <si>
     <t>Latest Handoff Date</t>
@@ -30,7 +30,7 @@
     <t>Handed back: in sync with en-US</t>
   </si>
   <si>
-    <t>2016-04-11 01:04:17</t>
+    <t>2016-02-11 01:02:43</t>
   </si>
   <si>
     <t>PartialConfigPullServer.jpg</t>
@@ -48,7 +48,7 @@
     <t>Ready for handoff</t>
   </si>
   <si>
-    <t>2016-03-23 03:03:35</t>
+    <t>2016-01-23 03:01:38</t>
   </si>
   <si>
     <t>authoringResource.md</t>
@@ -57,7 +57,7 @@
     <t>authoringResourceClass.md</t>
   </si>
   <si>
-    <t>2016-44-02 17:44:15</t>
+    <t>2016-52-02 17:52:52</t>
   </si>
   <si>
     <t>authoringResourceComposite.md</t>
@@ -87,13 +87,13 @@
     <t>debugResource.md</t>
   </si>
   <si>
-    <t>2016-44-10 21:44:01</t>
+    <t>2016-42-10 21:42:25</t>
   </si>
   <si>
     <t>decisionMaker.md</t>
   </si>
   <si>
-    <t>2016-32-07 19:32:54</t>
+    <t>2016-31-07 19:31:42</t>
   </si>
   <si>
     <t>enactingConfigurations.md</t>
@@ -132,7 +132,7 @@
     <t>lnxGettingStarted.md</t>
   </si>
   <si>
-    <t>2016-34-10 20:34:03</t>
+    <t>2016-32-10 20:32:33</t>
   </si>
   <si>
     <t>lnxGroupResource.md</t>
@@ -180,7 +180,7 @@
     <t>pullClientConfigID4.md</t>
   </si>
   <si>
-    <t>2016-03-09 20:03:34</t>
+    <t>2016-01-09 20:01:57</t>
   </si>
   <si>
     <t>pullClientConfigNames.md</t>
@@ -189,7 +189,7 @@
     <t>pullServer.md</t>
   </si>
   <si>
-    <t>2016-52-16 22:52:20</t>
+    <t>2016-51-16 22:51:54</t>
   </si>
   <si>
     <t>pullServerSMB.md</t>
@@ -231,7 +231,7 @@
     <t>troubleshooting.md</t>
   </si>
   <si>
-    <t>2016-12-04 21:12:41</t>
+    <t>2016-11-04 21:11:45</t>
   </si>
   <si>
     <t>userResource.md</t>
@@ -246,7 +246,7 @@
     <t>audit_cms.md</t>
   </si>
   <si>
-    <t>2016-15-08 01:15:35</t>
+    <t>2016-12-08 01:12:31</t>
   </si>
   <si>
     <t>audit_overview.md</t>
@@ -528,10 +528,10 @@
     <t>3e61149f7b05f74d662d3038233013ffdcbed1a3.jpg</t>
   </si>
   <si>
-    <t>2016-03-11 01:04:17</t>
-  </si>
-  <si>
-    <t>2016-03-16 23:59:51</t>
+    <t>2016-03-11 01:02:43</t>
+  </si>
+  <si>
+    <t>2016-03-17 17:12:56</t>
   </si>
   <si>
     <t>IsDependency</t>
@@ -549,9 +549,6 @@
     <t>86d829b1fcdd41e648ed0594eaf337b3726c143c.png</t>
   </si>
   <si>
-    <t>2016-03-17 16:45:12</t>
-  </si>
-  <si>
     <t>dsc\enactingConfigurations.md</t>
   </si>
   <si>
@@ -561,10 +558,10 @@
     <t>.md</t>
   </si>
   <si>
-    <t>archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>2016-02-23 03:03:35</t>
+    <t>archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>2016-02-23 03:01:38</t>
   </si>
   <si>
     <t>0001-01-01 00:00:00</t>
@@ -573,64 +570,64 @@
     <t>Include</t>
   </si>
   <si>
-    <t>authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-02 17:44:15</t>
-  </si>
-  <si>
-    <t>authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>authoringResourceMofCS.0647b27b00ec52b2f524a2856e48bc7c29c0f867.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>authoringResourceMofDesigner.09b1adffc4afb0d9b1154880e2dab0b25d82d51b.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>configData.51d01a46dd9af8b425788cc485523b09f8470b95.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>configDataCredentials.f3e75119e7d93b2f914823c5ea23bfde3935a874.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>debugResource.ac634156affe5c723cc149a298f5aa4268d17016.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-10 21:44:01</t>
-  </si>
-  <si>
-    <t>decisionMaker.01553169f2ba4241995260fad925e2784b5f5567.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-07 19:32:54</t>
-  </si>
-  <si>
-    <t>enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>environmentResource.eb91ffd4cd8bdb9476e5a83de1a20d3b7b502a56.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>gettingStarted.92e02d8bd273df5c304475a9b4fa251c22a7ea19.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>groupResource.d19d416269795c92566b62c36b9782062dcea43e.ru-ru.xlf</t>
+    <t>authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-02 17:52:52</t>
+  </si>
+  <si>
+    <t>authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>authoringResourceMofCS.0647b27b00ec52b2f524a2856e48bc7c29c0f867.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>authoringResourceMofDesigner.09b1adffc4afb0d9b1154880e2dab0b25d82d51b.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>configData.51d01a46dd9af8b425788cc485523b09f8470b95.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>configDataCredentials.f3e75119e7d93b2f914823c5ea23bfde3935a874.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>debugResource.ac634156affe5c723cc149a298f5aa4268d17016.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-10 21:42:25</t>
+  </si>
+  <si>
+    <t>decisionMaker.01553169f2ba4241995260fad925e2784b5f5567.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-07 19:31:42</t>
+  </si>
+  <si>
+    <t>enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>environmentResource.eb91ffd4cd8bdb9476e5a83de1a20d3b7b502a56.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>gettingStarted.92e02d8bd273df5c304475a9b4fa251c22a7ea19.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>groupResource.d19d416269795c92566b62c36b9782062dcea43e.fr-fr.xlf</t>
   </si>
   <si>
     <t>d9f53a805041164f5070845c0fd216b63d17ae58.png</t>
@@ -639,298 +636,301 @@
     <t>dsc\secureMOF.md</t>
   </si>
   <si>
-    <t>lnxArchiveResource.095aab7d23720fd394f2573c30223a6bbcc0a4ef.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>lnxFileLineResource.d91fc802a4c6cdbff5a2e35f92b34c36c6dbf5eb.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-10 20:34:03</t>
-  </si>
-  <si>
-    <t>lnxGroupResource.0cedb684d797032bd47cdb852629c36da0884567.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>lnxPackageResource.db35ab938bbfbb38cae53fe9ae98fd22b5f18009.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>lnxScriptResource.1344a5d5b807ee53705e93842d9ef5e25a883359.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>lnxServiceResource.e637c7f7b18939ec8c16eadf2c42ab00e236fb7b.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>logResource.07af9dfcf6076ef19059178c3b404762677920f0.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>packageResource.132c4949cee174dc0dc324456d220436cb9884e6.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>pullServer.4b925b277da29998394af746bdbdd508fda48909.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-16 22:52:20</t>
-  </si>
-  <si>
-    <t>pullServerSMB.772aec5ae27ccb19ced78e3eb665a4e16db1c4df.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>reportServer.53df4bc8b7b80c0a19c11434bdf5f4304e8248f7.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>resourceAuthoringChecklist.3b9ae254d826cc45519d37d06044f28a69bdfa69.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>runAsUser.d2b90b6bc42ef965e454f9c9f5fd19bc7b488b34.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>secureServer.ce207607010d18109152742ba23c923cd3cddba2.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-04 21:12:41</t>
-  </si>
-  <si>
-    <t>userResource.5de4fbe03e9e06934442ba451eb0564931863f45.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>audit_cms.3e422ca243ac938b46bfcf1497a703e55bde970e.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-08 01:15:35</t>
-  </si>
-  <si>
-    <t>audit_overview.fc5b51e2734a2af986c9edf42b4395b1aad2435d.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>audit_script.e89f3a9316d1125e1efd23b41b756a3a6161016b.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>audit_transcript.c21a6554932939cbf4c744bf7c9f07cc4e1e7160.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>class_base.29a9fbe4987503d5575c151f4271f58398cb7e55.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>class_baseconstructor.82f951e800b06ccc68090b1be9923c8210a233ac.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>class_basemethod.6b60292188d0081f30fbaf4b111db8a439348f5b.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>class_interface.84a08fd30808364a820bdd4440de18ec4504a6c7.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>class_newtype.a9f52b670970046f8b1147d4ba646b73abb430dc.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>class_overview.91227b885afcb8df385ab601ab970b924eca2533.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>debug_overview.70b71c20b8b625704c25da28a58e804a048bafb0.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>dsc_authoring.364878cde8f156d8999773842812e0c08f70191c.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>dsc_classbasedresource.a3d6b22652db939b51db1218584247396454ae0f.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>dsc_confighelp.bcfa7e85acae98499089edc9fba25b68953d7bbf.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>dsc_directaccess.014c91015162b26b678e0a5fdfd453a3bf6e41b0.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>dsc_encryptedmof.a35c44de669ea81f25dd29f152f03493e52e327b.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>dsc_freqnomultiple.2848e52c73280aca59e73136bac0c2c7ae02aad6.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>dsc_getconfigurationstatus.1705e4bcaa9dfd9d69f00aecdc7ef0d04bf44899.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>dsc_identicalduplicate.eb7167ccd4a72d68aa1683327e9b3877927158ab.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>dsc_importdscresource.a0169ad862dfcaa5c958c07ecd52c856d5dc8436.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>dsc_improvements.d9ed6ffedf9d9650bb6b26b5ed611e420a0aacbb.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>dsc_lcmstate.21ea1c36f37c94e8e0363199fbd07bcced3aea40.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>dsc_metaconfiguration.e8bbca05aa1692ad54cadd83b93a1902f179f365.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>dsc_newresources.b9c40f591f875ea205c834f7675f3edbe1050592.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>dsc_nodeid.e3c9049aa6c1d151f8b286f28502537b2f8d22a4.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>dsc_partialconfig.a493787c3f8663ac3e2994162ffd1bee429544d3.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>dsc_partialconfig_mixedmode.ff4b9a8a421441da62574192650493bf2407028d.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>dsc_publishconfig.bfe86d4253abdd777c205caec637c50ec79103ee.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>dsc_refreshmode.b0529a06a4d3e07b3fce300f74760d63b27523f6.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>dsc_removeconfigdoc.d16cdab7eaedf468bcc38dae34e93be26a204318.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>dsc_reporting.b042cd21b9bcfc8e50bc361ddee59333602fad42.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>dsc_repository.ec5040a823a6b64e969393e00f3d859fd0b4551c.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>dsc_resourcedebugging.95c69e55eb065b349f52e18126d699b1906ba03f.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>dsc_runas.9e19a42a6d5e1ea1772358a6fd8ff24b98a5b6ba.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>dsc_setdsclcm.1f0e3cab81cf5fc1feda678f202451fe150632e3.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>dsc_statestatus.b6f3670f776a8f63a705ba16bed2f20be34fc48f.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>dsc_sxsresource.c9d4ce6109370ac1cbc1fb07f191e02f9a61d5d3.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>dsc_testconfiguration.b0e5afe2c8f173ebe49c97c9ea9a2f11d81ea5fa.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>dsc_updateconfig.a07eb85e3458d42d7ab1ed5c57dcfc70df709d07.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>dsc_waitfor.2b09933f08f1020166ce0f0cd7548a5a3845c48f.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>dsc_wow64.ea039aaa1bd77415311fc30d80fed43cda07a6e3.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>feedback.3662230166299ef7c1fb7a7a7f5cdbd64b1d812a.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>feedback_archive.20de26911a704368058401c7e2bd6ebaac692ff5.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>feedback_clipboard.872e5c147ef02cb86067651f41e3c00b55386664.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>feedback_cmdlets.a4c0dfb806ca0da232eeb75ad3706177b8a5ec48.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>feedback_convertfromString.acdeaa33e8fa59b93649b6abf3a7d5ef64fb7664.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>feedback_convertstring.42e964e30093962871c3a4d586ed6c54f25f840d.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>feedback_fileinfo.0192edad2d6504d26a9632f95fc9e5b66ffd8003.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>feedback_formathex.f97931c887efb620e5f4314facc1f0e20e3dffbe.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>feedback_getchilditem.ce02ca20cc4417a80fe65eb509a8e92f2cecc79c.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>feedback_moduleversionranges.611b3a3219d64dbfa1d01541b60a727b880a0c4b.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>feedback_newguid.f8756fbdb96e6fe06a7e0cbb6ac4af32b1c64983.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>feedback_nonewline.7a9b7e24c50399879089bba2b8eee7dc325572e2.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>feedback_symbolic.1c3ac8128fb9df60512ec024044d48be7d0cb59f.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>feedback_tempfile.fc029065af6bbba3a8c4abbf36023bede7d1416d.ru-ru.xlf</t>
+    <t>lnxArchiveResource.095aab7d23720fd394f2573c30223a6bbcc0a4ef.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>lnxFileLineResource.d91fc802a4c6cdbff5a2e35f92b34c36c6dbf5eb.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-10 20:32:33</t>
+  </si>
+  <si>
+    <t>lnxGroupResource.0cedb684d797032bd47cdb852629c36da0884567.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>lnxPackageResource.db35ab938bbfbb38cae53fe9ae98fd22b5f18009.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>lnxScriptResource.1344a5d5b807ee53705e93842d9ef5e25a883359.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>lnxServiceResource.e637c7f7b18939ec8c16eadf2c42ab00e236fb7b.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>logResource.07af9dfcf6076ef19059178c3b404762677920f0.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>packageResource.132c4949cee174dc0dc324456d220436cb9884e6.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-09 20:01:57</t>
+  </si>
+  <si>
+    <t>pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>pullServer.4b925b277da29998394af746bdbdd508fda48909.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-16 22:51:54</t>
+  </si>
+  <si>
+    <t>pullServerSMB.772aec5ae27ccb19ced78e3eb665a4e16db1c4df.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>reportServer.53df4bc8b7b80c0a19c11434bdf5f4304e8248f7.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>resourceAuthoringChecklist.3b9ae254d826cc45519d37d06044f28a69bdfa69.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>runAsUser.d2b90b6bc42ef965e454f9c9f5fd19bc7b488b34.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>secureServer.ce207607010d18109152742ba23c923cd3cddba2.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-04 21:11:45</t>
+  </si>
+  <si>
+    <t>userResource.5de4fbe03e9e06934442ba451eb0564931863f45.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>audit_cms.3e422ca243ac938b46bfcf1497a703e55bde970e.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-08 01:12:31</t>
+  </si>
+  <si>
+    <t>audit_overview.fc5b51e2734a2af986c9edf42b4395b1aad2435d.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>audit_script.e89f3a9316d1125e1efd23b41b756a3a6161016b.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>audit_transcript.c21a6554932939cbf4c744bf7c9f07cc4e1e7160.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>class_base.29a9fbe4987503d5575c151f4271f58398cb7e55.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>class_baseconstructor.82f951e800b06ccc68090b1be9923c8210a233ac.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>class_basemethod.6b60292188d0081f30fbaf4b111db8a439348f5b.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>class_interface.84a08fd30808364a820bdd4440de18ec4504a6c7.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>class_newtype.a9f52b670970046f8b1147d4ba646b73abb430dc.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>class_overview.91227b885afcb8df385ab601ab970b924eca2533.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>debug_overview.70b71c20b8b625704c25da28a58e804a048bafb0.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>dsc_authoring.364878cde8f156d8999773842812e0c08f70191c.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>dsc_classbasedresource.a3d6b22652db939b51db1218584247396454ae0f.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>dsc_confighelp.bcfa7e85acae98499089edc9fba25b68953d7bbf.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>dsc_directaccess.014c91015162b26b678e0a5fdfd453a3bf6e41b0.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>dsc_encryptedmof.a35c44de669ea81f25dd29f152f03493e52e327b.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>dsc_freqnomultiple.2848e52c73280aca59e73136bac0c2c7ae02aad6.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>dsc_getconfigurationstatus.1705e4bcaa9dfd9d69f00aecdc7ef0d04bf44899.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>dsc_identicalduplicate.eb7167ccd4a72d68aa1683327e9b3877927158ab.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>dsc_importdscresource.a0169ad862dfcaa5c958c07ecd52c856d5dc8436.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>dsc_improvements.d9ed6ffedf9d9650bb6b26b5ed611e420a0aacbb.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>dsc_lcmstate.21ea1c36f37c94e8e0363199fbd07bcced3aea40.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>dsc_metaconfiguration.e8bbca05aa1692ad54cadd83b93a1902f179f365.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>dsc_newresources.b9c40f591f875ea205c834f7675f3edbe1050592.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>dsc_nodeid.e3c9049aa6c1d151f8b286f28502537b2f8d22a4.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>dsc_partialconfig.a493787c3f8663ac3e2994162ffd1bee429544d3.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>dsc_partialconfig_mixedmode.ff4b9a8a421441da62574192650493bf2407028d.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>dsc_publishconfig.bfe86d4253abdd777c205caec637c50ec79103ee.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>dsc_refreshmode.b0529a06a4d3e07b3fce300f74760d63b27523f6.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>dsc_removeconfigdoc.d16cdab7eaedf468bcc38dae34e93be26a204318.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>dsc_reporting.b042cd21b9bcfc8e50bc361ddee59333602fad42.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>dsc_repository.ec5040a823a6b64e969393e00f3d859fd0b4551c.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>dsc_resourcedebugging.95c69e55eb065b349f52e18126d699b1906ba03f.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>dsc_runas.9e19a42a6d5e1ea1772358a6fd8ff24b98a5b6ba.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>dsc_setdsclcm.1f0e3cab81cf5fc1feda678f202451fe150632e3.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>dsc_statestatus.b6f3670f776a8f63a705ba16bed2f20be34fc48f.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>dsc_sxsresource.c9d4ce6109370ac1cbc1fb07f191e02f9a61d5d3.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>dsc_testconfiguration.b0e5afe2c8f173ebe49c97c9ea9a2f11d81ea5fa.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>dsc_updateconfig.a07eb85e3458d42d7ab1ed5c57dcfc70df709d07.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>dsc_waitfor.2b09933f08f1020166ce0f0cd7548a5a3845c48f.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>dsc_wow64.ea039aaa1bd77415311fc30d80fed43cda07a6e3.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>feedback.3662230166299ef7c1fb7a7a7f5cdbd64b1d812a.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>feedback_archive.20de26911a704368058401c7e2bd6ebaac692ff5.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>feedback_clipboard.872e5c147ef02cb86067651f41e3c00b55386664.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>feedback_cmdlets.a4c0dfb806ca0da232eeb75ad3706177b8a5ec48.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>feedback_convertfromString.acdeaa33e8fa59b93649b6abf3a7d5ef64fb7664.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>feedback_convertstring.42e964e30093962871c3a4d586ed6c54f25f840d.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>feedback_fileinfo.0192edad2d6504d26a9632f95fc9e5b66ffd8003.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>feedback_formathex.f97931c887efb620e5f4314facc1f0e20e3dffbe.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>feedback_getchilditem.ce02ca20cc4417a80fe65eb509a8e92f2cecc79c.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>feedback_moduleversionranges.611b3a3219d64dbfa1d01541b60a727b880a0c4b.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>feedback_newguid.f8756fbdb96e6fe06a7e0cbb6ac4af32b1c64983.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>feedback_nonewline.7a9b7e24c50399879089bba2b8eee7dc325572e2.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>feedback_symbolic.1c3ac8128fb9df60512ec024044d48be7d0cb59f.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>feedback_tempfile.fc029065af6bbba3a8c4abbf36023bede7d1416d.fr-fr.xlf</t>
   </si>
   <si>
     <t>ba1897f38317f5fe38f2d8caf0efcc57bc8bb19d.jpg</t>
@@ -951,76 +951,76 @@
     <t>wmf\dsc_encryptedmof.md</t>
   </si>
   <si>
-    <t>informationstream_overview.d2f238b2b4021ccdb7271cf89f53d58970d56cf5.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>install.317fc924c0f766547c4725878af59c3c9d8facba.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>jea_endpoint.1dc052fe583a907a6c090cf8bfd42293d94d2975.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>jea_overview.3fa3008e719be8235adffe51808ac66714940871.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>jea_report.7860cec6e93b7405844ccbbe5bc879921447ac0b.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>limitation_dsc.3684c81bb088cba98089dffdb1a1e56e1c098335.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>limitation_overview.6cc9c8c028f5912636637d836aed7db0614de522.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>networkswitch_overview.7a87eb0741cd43b8b9284ea6cb605920c4961b79.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>odata_overview.c3f7efdde29fe7ac5685a61cd61d75b65524a4c3.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>oneget_cmdlets.469b2350a72495ac2cf62e4130b4df8036f5d135.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>oneget_overview.e71a25f36f957ab7471d259c6e716651f6f23c94.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>productincompat.62bb00299c0283b5297001553476a745e28a49cb.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>psget_module_overview.4149c468ffd0f17a2fabd03f90059c12effc3170.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>psget_modulecmdlets.1f808cfdf9a9aa920f88e15f7f5fa4701fe805e3.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>psget_moduledependency.89ba9310335ae64db5481a3c02034ac4fe01b6a2.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>psget_modulesxsinstall.110ba80d8f917899ef488b46bd15f5654f6ba06c.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>psget_psrepository.c4381b2ff7bb6496ab74ed8bb2b07325cfbfc056.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>psget_script_overview.f035cc99497d17dc73e3a61f214e40a5860fc70a.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>psget_scriptcmdlets.1762d5f29292d59c1afb37cb29eb11a34cf63990.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>releasenotes.311750b4da54b1d4ef7997b328edd6ff177fb71f.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>requirements.ef8332f358d65b1759bfd4c7336b11d1dc8c2d46.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>sil_overview.a2b1f7c716aad317993a5eaffba21fa28ce0c0d8.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>TOC.60497266061c38453b3db893ec675eb65584af89.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>uninstall.b07adaaaf7f41869dfa201b88e29342aced76c96.ru-ru.xlf</t>
+    <t>informationstream_overview.d2f238b2b4021ccdb7271cf89f53d58970d56cf5.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>install.317fc924c0f766547c4725878af59c3c9d8facba.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>jea_endpoint.1dc052fe583a907a6c090cf8bfd42293d94d2975.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>jea_overview.3fa3008e719be8235adffe51808ac66714940871.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>jea_report.7860cec6e93b7405844ccbbe5bc879921447ac0b.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>limitation_dsc.3684c81bb088cba98089dffdb1a1e56e1c098335.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>limitation_overview.6cc9c8c028f5912636637d836aed7db0614de522.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>networkswitch_overview.7a87eb0741cd43b8b9284ea6cb605920c4961b79.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>odata_overview.c3f7efdde29fe7ac5685a61cd61d75b65524a4c3.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>oneget_cmdlets.469b2350a72495ac2cf62e4130b4df8036f5d135.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>oneget_overview.e71a25f36f957ab7471d259c6e716651f6f23c94.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>productincompat.62bb00299c0283b5297001553476a745e28a49cb.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>psget_module_overview.4149c468ffd0f17a2fabd03f90059c12effc3170.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>psget_modulecmdlets.1f808cfdf9a9aa920f88e15f7f5fa4701fe805e3.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>psget_moduledependency.89ba9310335ae64db5481a3c02034ac4fe01b6a2.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>psget_modulesxsinstall.110ba80d8f917899ef488b46bd15f5654f6ba06c.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>psget_psrepository.c4381b2ff7bb6496ab74ed8bb2b07325cfbfc056.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>psget_script_overview.f035cc99497d17dc73e3a61f214e40a5860fc70a.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>psget_scriptcmdlets.1762d5f29292d59c1afb37cb29eb11a34cf63990.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>releasenotes.311750b4da54b1d4ef7997b328edd6ff177fb71f.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>requirements.ef8332f358d65b1759bfd4c7336b11d1dc8c2d46.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>sil_overview.a2b1f7c716aad317993a5eaffba21fa28ce0c0d8.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>TOC.60497266061c38453b3db893ec675eb65584af89.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>uninstall.b07adaaaf7f41869dfa201b88e29342aced76c96.fr-fr.xlf</t>
   </si>
 </sst>
 </file>
@@ -1077,7 +1077,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="ru-ru" displayName="ru_ru" ref="A1:L1" headerRowCount="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="fr-fr" displayName="fr_fr" ref="A1:L1" headerRowCount="0">
   <tableColumns count="12">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -1100,7 +1100,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Overview" displayName="Overview" ref="A1:D1" headerRowCount="0">
   <tableColumns count="4">
     <tableColumn id="1" name="File Name"/>
-    <tableColumn id="2" name="ru-ru"/>
+    <tableColumn id="2" name="fr-fr"/>
     <tableColumn id="3" name="Latest Handoff Date"/>
     <tableColumn id="4" name="Column4"/>
   </tableColumns>
@@ -3013,13 +3013,13 @@
         <v>177</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="I4" s="0" t="s">
         <v>173</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5">
@@ -3033,7 +3033,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>171</v>
@@ -3042,7 +3042,7 @@
         <v>8</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H5" s="0" t="s">
         <v>172</v>
@@ -3051,7 +3051,7 @@
         <v>173</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6">
@@ -3059,22 +3059,22 @@
         <v>9</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="C6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>183</v>
-      </c>
       <c r="H6" s="0" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7">
@@ -3082,22 +3082,22 @@
         <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8">
@@ -3105,22 +3105,22 @@
         <v>13</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>188</v>
-      </c>
       <c r="H8" s="0" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="9">
@@ -3128,22 +3128,22 @@
         <v>15</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="10">
@@ -3151,22 +3151,22 @@
         <v>16</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C10" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11">
@@ -3174,22 +3174,22 @@
         <v>17</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C11" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="12">
@@ -3197,22 +3197,22 @@
         <v>18</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C12" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="13">
@@ -3220,22 +3220,22 @@
         <v>19</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C13" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="14">
@@ -3243,22 +3243,22 @@
         <v>20</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C14" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="15">
@@ -3266,22 +3266,22 @@
         <v>21</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C15" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="16">
@@ -3289,22 +3289,22 @@
         <v>22</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C16" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="17">
@@ -3312,22 +3312,22 @@
         <v>23</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C17" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D17" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="E17" s="2" t="s">
-        <v>198</v>
-      </c>
       <c r="H17" s="0" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="18">
@@ -3335,22 +3335,22 @@
         <v>25</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C18" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D18" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="E18" s="2" t="s">
-        <v>200</v>
-      </c>
       <c r="H18" s="0" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="19">
@@ -3358,22 +3358,22 @@
         <v>27</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C19" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="20">
@@ -3381,22 +3381,22 @@
         <v>28</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C20" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="21">
@@ -3404,22 +3404,22 @@
         <v>29</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C21" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I21" s="0" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="22">
@@ -3427,22 +3427,22 @@
         <v>30</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C22" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I22" s="0" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="23">
@@ -3450,22 +3450,22 @@
         <v>31</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C23" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="24">
@@ -3479,19 +3479,19 @@
         <v>10</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>171</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I24" s="0" t="s">
         <v>173</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="25">
@@ -3499,22 +3499,22 @@
         <v>33</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C25" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I25" s="0" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="26">
@@ -3522,22 +3522,22 @@
         <v>34</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C26" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I26" s="0" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="27">
@@ -3545,22 +3545,22 @@
         <v>35</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C27" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I27" s="0" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="28">
@@ -3568,22 +3568,22 @@
         <v>36</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C28" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I28" s="0" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="29">
@@ -3591,22 +3591,22 @@
         <v>37</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C29" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I29" s="0" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="30">
@@ -3614,22 +3614,22 @@
         <v>38</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C30" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D30" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="E30" s="2" t="s">
-        <v>214</v>
-      </c>
       <c r="H30" s="0" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I30" s="0" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="31">
@@ -3637,22 +3637,22 @@
         <v>40</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C31" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I31" s="0" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="32">
@@ -3660,22 +3660,22 @@
         <v>41</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C32" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I32" s="0" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="33">
@@ -3683,22 +3683,22 @@
         <v>42</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C33" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I33" s="0" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="34">
@@ -3706,22 +3706,22 @@
         <v>43</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C34" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I34" s="0" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="35">
@@ -3729,22 +3729,22 @@
         <v>44</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C35" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I35" s="0" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="36">
@@ -3752,22 +3752,22 @@
         <v>45</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C36" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I36" s="0" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="37">
@@ -3775,22 +3775,22 @@
         <v>46</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C37" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I37" s="0" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="38">
@@ -3798,22 +3798,22 @@
         <v>47</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C38" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I38" s="0" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="39">
@@ -3821,22 +3821,22 @@
         <v>48</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C39" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I39" s="0" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="40">
@@ -3844,22 +3844,22 @@
         <v>49</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C40" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H40" s="0" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I40" s="0" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="41">
@@ -3867,22 +3867,22 @@
         <v>50</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C41" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H41" s="0" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I41" s="0" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="42">
@@ -3890,22 +3890,22 @@
         <v>51</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C42" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H42" s="0" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I42" s="0" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="43">
@@ -3913,22 +3913,22 @@
         <v>52</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C43" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H43" s="0" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I43" s="0" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="44">
@@ -3936,22 +3936,22 @@
         <v>53</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C44" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H44" s="0" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I44" s="0" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="45">
@@ -3959,22 +3959,22 @@
         <v>54</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C45" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D45" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="E45" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="H45" s="0" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I45" s="0" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="46">
@@ -3982,7 +3982,7 @@
         <v>56</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C46" s="0" t="s">
         <v>10</v>
@@ -3991,13 +3991,13 @@
         <v>230</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H46" s="0" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I46" s="0" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="47">
@@ -4005,7 +4005,7 @@
         <v>57</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C47" s="0" t="s">
         <v>10</v>
@@ -4017,10 +4017,10 @@
         <v>232</v>
       </c>
       <c r="H47" s="0" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I47" s="0" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="48">
@@ -4028,7 +4028,7 @@
         <v>59</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C48" s="0" t="s">
         <v>10</v>
@@ -4037,13 +4037,13 @@
         <v>233</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>55</v>
+        <v>229</v>
       </c>
       <c r="H48" s="0" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I48" s="0" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="49">
@@ -4051,7 +4051,7 @@
         <v>60</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C49" s="0" t="s">
         <v>10</v>
@@ -4060,13 +4060,13 @@
         <v>234</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H49" s="0" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I49" s="0" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="50">
@@ -4074,7 +4074,7 @@
         <v>61</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C50" s="0" t="s">
         <v>10</v>
@@ -4083,13 +4083,13 @@
         <v>235</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H50" s="0" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I50" s="0" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="51">
@@ -4097,7 +4097,7 @@
         <v>62</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C51" s="0" t="s">
         <v>10</v>
@@ -4106,13 +4106,13 @@
         <v>236</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H51" s="0" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I51" s="0" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="52">
@@ -4120,7 +4120,7 @@
         <v>63</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C52" s="0" t="s">
         <v>10</v>
@@ -4129,13 +4129,13 @@
         <v>237</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>55</v>
+        <v>229</v>
       </c>
       <c r="H52" s="0" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I52" s="0" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="53">
@@ -4143,7 +4143,7 @@
         <v>64</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C53" s="0" t="s">
         <v>10</v>
@@ -4152,13 +4152,13 @@
         <v>238</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H53" s="0" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I53" s="0" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="54">
@@ -4166,7 +4166,7 @@
         <v>65</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C54" s="0" t="s">
         <v>10</v>
@@ -4175,13 +4175,13 @@
         <v>239</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H54" s="0" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I54" s="0" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="55">
@@ -4189,7 +4189,7 @@
         <v>66</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C55" s="0" t="s">
         <v>10</v>
@@ -4198,13 +4198,13 @@
         <v>240</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H55" s="0" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I55" s="0" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="56">
@@ -4212,7 +4212,7 @@
         <v>67</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C56" s="0" t="s">
         <v>10</v>
@@ -4224,10 +4224,10 @@
         <v>171</v>
       </c>
       <c r="H56" s="0" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I56" s="0" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="57">
@@ -4235,7 +4235,7 @@
         <v>68</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C57" s="0" t="s">
         <v>10</v>
@@ -4244,13 +4244,13 @@
         <v>242</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H57" s="0" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I57" s="0" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="58">
@@ -4258,7 +4258,7 @@
         <v>69</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C58" s="0" t="s">
         <v>10</v>
@@ -4267,13 +4267,13 @@
         <v>243</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H58" s="0" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I58" s="0" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="59">
@@ -4281,7 +4281,7 @@
         <v>70</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C59" s="0" t="s">
         <v>10</v>
@@ -4290,13 +4290,13 @@
         <v>244</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H59" s="0" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I59" s="0" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="60">
@@ -4304,7 +4304,7 @@
         <v>71</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C60" s="0" t="s">
         <v>10</v>
@@ -4316,10 +4316,10 @@
         <v>246</v>
       </c>
       <c r="H60" s="0" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I60" s="0" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="61">
@@ -4327,7 +4327,7 @@
         <v>73</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C61" s="0" t="s">
         <v>10</v>
@@ -4336,13 +4336,13 @@
         <v>247</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H61" s="0" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I61" s="0" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="62">
@@ -4350,7 +4350,7 @@
         <v>74</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C62" s="0" t="s">
         <v>10</v>
@@ -4359,13 +4359,13 @@
         <v>248</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H62" s="0" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I62" s="0" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="63">
@@ -4373,7 +4373,7 @@
         <v>75</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C63" s="0" t="s">
         <v>10</v>
@@ -4382,13 +4382,13 @@
         <v>249</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H63" s="0" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I63" s="0" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="64">
@@ -4396,7 +4396,7 @@
         <v>76</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C64" s="0" t="s">
         <v>10</v>
@@ -4408,10 +4408,10 @@
         <v>251</v>
       </c>
       <c r="H64" s="0" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I64" s="0" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="65">
@@ -4419,7 +4419,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C65" s="0" t="s">
         <v>10</v>
@@ -4431,10 +4431,10 @@
         <v>251</v>
       </c>
       <c r="H65" s="0" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I65" s="0" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="66">
@@ -4442,7 +4442,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C66" s="0" t="s">
         <v>10</v>
@@ -4454,10 +4454,10 @@
         <v>251</v>
       </c>
       <c r="H66" s="0" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I66" s="0" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="67">
@@ -4465,7 +4465,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C67" s="0" t="s">
         <v>10</v>
@@ -4477,10 +4477,10 @@
         <v>251</v>
       </c>
       <c r="H67" s="0" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I67" s="0" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="68">
@@ -4488,7 +4488,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C68" s="0" t="s">
         <v>10</v>
@@ -4500,10 +4500,10 @@
         <v>251</v>
       </c>
       <c r="H68" s="0" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I68" s="0" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="69">
@@ -4511,7 +4511,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C69" s="0" t="s">
         <v>10</v>
@@ -4523,10 +4523,10 @@
         <v>251</v>
       </c>
       <c r="H69" s="0" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I69" s="0" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="70">
@@ -4534,7 +4534,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C70" s="0" t="s">
         <v>10</v>
@@ -4546,10 +4546,10 @@
         <v>251</v>
       </c>
       <c r="H70" s="0" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I70" s="0" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="71">
@@ -4557,7 +4557,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C71" s="0" t="s">
         <v>10</v>
@@ -4569,10 +4569,10 @@
         <v>251</v>
       </c>
       <c r="H71" s="0" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I71" s="0" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="72">
@@ -4580,7 +4580,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C72" s="0" t="s">
         <v>10</v>
@@ -4592,10 +4592,10 @@
         <v>251</v>
       </c>
       <c r="H72" s="0" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I72" s="0" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="73">
@@ -4603,7 +4603,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C73" s="0" t="s">
         <v>10</v>
@@ -4615,10 +4615,10 @@
         <v>251</v>
       </c>
       <c r="H73" s="0" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I73" s="0" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="74">
@@ -4626,7 +4626,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C74" s="0" t="s">
         <v>10</v>
@@ -4638,10 +4638,10 @@
         <v>251</v>
       </c>
       <c r="H74" s="0" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I74" s="0" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="75">
@@ -4649,7 +4649,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C75" s="0" t="s">
         <v>10</v>
@@ -4661,10 +4661,10 @@
         <v>251</v>
       </c>
       <c r="H75" s="0" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I75" s="0" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="76">
@@ -4672,7 +4672,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C76" s="0" t="s">
         <v>10</v>
@@ -4684,10 +4684,10 @@
         <v>251</v>
       </c>
       <c r="H76" s="0" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I76" s="0" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="77">
@@ -4695,7 +4695,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C77" s="0" t="s">
         <v>10</v>
@@ -4707,10 +4707,10 @@
         <v>251</v>
       </c>
       <c r="H77" s="0" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I77" s="0" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="78">
@@ -4718,7 +4718,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C78" s="0" t="s">
         <v>10</v>
@@ -4730,10 +4730,10 @@
         <v>251</v>
       </c>
       <c r="H78" s="0" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I78" s="0" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="79">
@@ -4741,7 +4741,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C79" s="0" t="s">
         <v>10</v>
@@ -4753,10 +4753,10 @@
         <v>251</v>
       </c>
       <c r="H79" s="0" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I79" s="0" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="80">
@@ -4764,7 +4764,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C80" s="0" t="s">
         <v>10</v>
@@ -4776,10 +4776,10 @@
         <v>251</v>
       </c>
       <c r="H80" s="0" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I80" s="0" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="81">
@@ -4787,7 +4787,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C81" s="0" t="s">
         <v>10</v>
@@ -4799,10 +4799,10 @@
         <v>251</v>
       </c>
       <c r="H81" s="0" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I81" s="0" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="82">
@@ -4810,7 +4810,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C82" s="0" t="s">
         <v>10</v>
@@ -4822,10 +4822,10 @@
         <v>251</v>
       </c>
       <c r="H82" s="0" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I82" s="0" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="83">
@@ -4833,7 +4833,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C83" s="0" t="s">
         <v>10</v>
@@ -4845,10 +4845,10 @@
         <v>251</v>
       </c>
       <c r="H83" s="0" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I83" s="0" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="84">
@@ -4856,7 +4856,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C84" s="0" t="s">
         <v>10</v>
@@ -4868,10 +4868,10 @@
         <v>251</v>
       </c>
       <c r="H84" s="0" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I84" s="0" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="85">
@@ -4879,7 +4879,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C85" s="0" t="s">
         <v>10</v>
@@ -4891,10 +4891,10 @@
         <v>251</v>
       </c>
       <c r="H85" s="0" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I85" s="0" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="86">
@@ -4902,7 +4902,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C86" s="0" t="s">
         <v>10</v>
@@ -4914,10 +4914,10 @@
         <v>251</v>
       </c>
       <c r="H86" s="0" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I86" s="0" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="87">
@@ -4925,7 +4925,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C87" s="0" t="s">
         <v>10</v>
@@ -4937,10 +4937,10 @@
         <v>251</v>
       </c>
       <c r="H87" s="0" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I87" s="0" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="88">
@@ -4948,7 +4948,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C88" s="0" t="s">
         <v>10</v>
@@ -4960,10 +4960,10 @@
         <v>251</v>
       </c>
       <c r="H88" s="0" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I88" s="0" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="89">
@@ -4971,7 +4971,7 @@
         <v>102</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C89" s="0" t="s">
         <v>10</v>
@@ -4983,10 +4983,10 @@
         <v>251</v>
       </c>
       <c r="H89" s="0" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I89" s="0" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="90">
@@ -4994,7 +4994,7 @@
         <v>103</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C90" s="0" t="s">
         <v>10</v>
@@ -5006,10 +5006,10 @@
         <v>251</v>
       </c>
       <c r="H90" s="0" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I90" s="0" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="91">
@@ -5017,7 +5017,7 @@
         <v>104</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C91" s="0" t="s">
         <v>10</v>
@@ -5029,10 +5029,10 @@
         <v>251</v>
       </c>
       <c r="H91" s="0" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I91" s="0" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="92">
@@ -5040,7 +5040,7 @@
         <v>105</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C92" s="0" t="s">
         <v>10</v>
@@ -5052,10 +5052,10 @@
         <v>251</v>
       </c>
       <c r="H92" s="0" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I92" s="0" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="93">
@@ -5063,7 +5063,7 @@
         <v>106</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C93" s="0" t="s">
         <v>10</v>
@@ -5075,10 +5075,10 @@
         <v>251</v>
       </c>
       <c r="H93" s="0" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I93" s="0" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="94">
@@ -5086,7 +5086,7 @@
         <v>107</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C94" s="0" t="s">
         <v>10</v>
@@ -5098,10 +5098,10 @@
         <v>251</v>
       </c>
       <c r="H94" s="0" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I94" s="0" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="95">
@@ -5109,7 +5109,7 @@
         <v>108</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C95" s="0" t="s">
         <v>10</v>
@@ -5121,10 +5121,10 @@
         <v>251</v>
       </c>
       <c r="H95" s="0" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I95" s="0" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="96">
@@ -5132,7 +5132,7 @@
         <v>109</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C96" s="0" t="s">
         <v>10</v>
@@ -5144,10 +5144,10 @@
         <v>251</v>
       </c>
       <c r="H96" s="0" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I96" s="0" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="97">
@@ -5155,7 +5155,7 @@
         <v>110</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C97" s="0" t="s">
         <v>10</v>
@@ -5167,10 +5167,10 @@
         <v>251</v>
       </c>
       <c r="H97" s="0" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I97" s="0" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="98">
@@ -5178,7 +5178,7 @@
         <v>111</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C98" s="0" t="s">
         <v>10</v>
@@ -5190,10 +5190,10 @@
         <v>251</v>
       </c>
       <c r="H98" s="0" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I98" s="0" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="99">
@@ -5201,7 +5201,7 @@
         <v>112</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C99" s="0" t="s">
         <v>10</v>
@@ -5213,10 +5213,10 @@
         <v>251</v>
       </c>
       <c r="H99" s="0" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I99" s="0" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="100">
@@ -5224,7 +5224,7 @@
         <v>113</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C100" s="0" t="s">
         <v>10</v>
@@ -5236,10 +5236,10 @@
         <v>251</v>
       </c>
       <c r="H100" s="0" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I100" s="0" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="101">
@@ -5247,7 +5247,7 @@
         <v>114</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C101" s="0" t="s">
         <v>10</v>
@@ -5259,10 +5259,10 @@
         <v>251</v>
       </c>
       <c r="H101" s="0" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I101" s="0" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="102">
@@ -5270,7 +5270,7 @@
         <v>115</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C102" s="0" t="s">
         <v>10</v>
@@ -5282,10 +5282,10 @@
         <v>251</v>
       </c>
       <c r="H102" s="0" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I102" s="0" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="103">
@@ -5293,7 +5293,7 @@
         <v>116</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C103" s="0" t="s">
         <v>10</v>
@@ -5305,10 +5305,10 @@
         <v>251</v>
       </c>
       <c r="H103" s="0" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I103" s="0" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="104">
@@ -5316,7 +5316,7 @@
         <v>117</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C104" s="0" t="s">
         <v>10</v>
@@ -5328,10 +5328,10 @@
         <v>251</v>
       </c>
       <c r="H104" s="0" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I104" s="0" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="105">
@@ -5339,7 +5339,7 @@
         <v>118</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C105" s="0" t="s">
         <v>10</v>
@@ -5351,10 +5351,10 @@
         <v>251</v>
       </c>
       <c r="H105" s="0" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I105" s="0" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="106">
@@ -5362,7 +5362,7 @@
         <v>119</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C106" s="0" t="s">
         <v>10</v>
@@ -5374,10 +5374,10 @@
         <v>251</v>
       </c>
       <c r="H106" s="0" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I106" s="0" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="107">
@@ -5385,7 +5385,7 @@
         <v>120</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C107" s="0" t="s">
         <v>10</v>
@@ -5397,10 +5397,10 @@
         <v>251</v>
       </c>
       <c r="H107" s="0" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I107" s="0" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="108">
@@ -5408,7 +5408,7 @@
         <v>121</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C108" s="0" t="s">
         <v>10</v>
@@ -5420,10 +5420,10 @@
         <v>251</v>
       </c>
       <c r="H108" s="0" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I108" s="0" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="109">
@@ -5431,7 +5431,7 @@
         <v>122</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C109" s="0" t="s">
         <v>10</v>
@@ -5443,10 +5443,10 @@
         <v>251</v>
       </c>
       <c r="H109" s="0" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I109" s="0" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="110">
@@ -5454,7 +5454,7 @@
         <v>123</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C110" s="0" t="s">
         <v>10</v>
@@ -5466,10 +5466,10 @@
         <v>251</v>
       </c>
       <c r="H110" s="0" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I110" s="0" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="111">
@@ -5477,7 +5477,7 @@
         <v>124</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C111" s="0" t="s">
         <v>10</v>
@@ -5489,10 +5489,10 @@
         <v>251</v>
       </c>
       <c r="H111" s="0" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I111" s="0" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="112">
@@ -5500,7 +5500,7 @@
         <v>125</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C112" s="0" t="s">
         <v>10</v>
@@ -5512,10 +5512,10 @@
         <v>251</v>
       </c>
       <c r="H112" s="0" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I112" s="0" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="113">
@@ -5523,7 +5523,7 @@
         <v>126</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C113" s="0" t="s">
         <v>10</v>
@@ -5535,10 +5535,10 @@
         <v>251</v>
       </c>
       <c r="H113" s="0" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I113" s="0" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="114">
@@ -5546,7 +5546,7 @@
         <v>127</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C114" s="0" t="s">
         <v>10</v>
@@ -5558,10 +5558,10 @@
         <v>251</v>
       </c>
       <c r="H114" s="0" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I114" s="0" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="115">
@@ -5569,7 +5569,7 @@
         <v>128</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C115" s="0" t="s">
         <v>10</v>
@@ -5581,10 +5581,10 @@
         <v>251</v>
       </c>
       <c r="H115" s="0" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I115" s="0" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="116">
@@ -5592,7 +5592,7 @@
         <v>129</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C116" s="0" t="s">
         <v>10</v>
@@ -5604,10 +5604,10 @@
         <v>251</v>
       </c>
       <c r="H116" s="0" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I116" s="0" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="117">
@@ -5615,7 +5615,7 @@
         <v>130</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C117" s="0" t="s">
         <v>10</v>
@@ -5627,10 +5627,10 @@
         <v>251</v>
       </c>
       <c r="H117" s="0" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I117" s="0" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="118">
@@ -5638,7 +5638,7 @@
         <v>131</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C118" s="0" t="s">
         <v>10</v>
@@ -5650,10 +5650,10 @@
         <v>251</v>
       </c>
       <c r="H118" s="0" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I118" s="0" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="119">
@@ -5673,7 +5673,7 @@
         <v>171</v>
       </c>
       <c r="H119" s="0" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I119" s="0" t="s">
         <v>173</v>
@@ -5699,7 +5699,7 @@
         <v>171</v>
       </c>
       <c r="H120" s="0" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I120" s="0" t="s">
         <v>173</v>
@@ -5725,7 +5725,7 @@
         <v>171</v>
       </c>
       <c r="H121" s="0" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I121" s="0" t="s">
         <v>173</v>
@@ -5739,7 +5739,7 @@
         <v>135</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C122" s="0" t="s">
         <v>10</v>
@@ -5751,10 +5751,10 @@
         <v>251</v>
       </c>
       <c r="H122" s="0" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I122" s="0" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="123">
@@ -5762,7 +5762,7 @@
         <v>136</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C123" s="0" t="s">
         <v>10</v>
@@ -5774,10 +5774,10 @@
         <v>251</v>
       </c>
       <c r="H123" s="0" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I123" s="0" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="124">
@@ -5785,7 +5785,7 @@
         <v>137</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C124" s="0" t="s">
         <v>10</v>
@@ -5797,10 +5797,10 @@
         <v>251</v>
       </c>
       <c r="H124" s="0" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I124" s="0" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="125">
@@ -5808,7 +5808,7 @@
         <v>138</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C125" s="0" t="s">
         <v>10</v>
@@ -5820,10 +5820,10 @@
         <v>251</v>
       </c>
       <c r="H125" s="0" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I125" s="0" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="126">
@@ -5831,7 +5831,7 @@
         <v>139</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C126" s="0" t="s">
         <v>10</v>
@@ -5843,10 +5843,10 @@
         <v>251</v>
       </c>
       <c r="H126" s="0" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I126" s="0" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="127">
@@ -5854,7 +5854,7 @@
         <v>140</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C127" s="0" t="s">
         <v>10</v>
@@ -5866,10 +5866,10 @@
         <v>251</v>
       </c>
       <c r="H127" s="0" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I127" s="0" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="128">
@@ -5877,7 +5877,7 @@
         <v>141</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C128" s="0" t="s">
         <v>10</v>
@@ -5889,10 +5889,10 @@
         <v>251</v>
       </c>
       <c r="H128" s="0" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I128" s="0" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="129">
@@ -5900,7 +5900,7 @@
         <v>142</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C129" s="0" t="s">
         <v>10</v>
@@ -5912,10 +5912,10 @@
         <v>251</v>
       </c>
       <c r="H129" s="0" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I129" s="0" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="130">
@@ -5923,7 +5923,7 @@
         <v>143</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C130" s="0" t="s">
         <v>10</v>
@@ -5935,10 +5935,10 @@
         <v>251</v>
       </c>
       <c r="H130" s="0" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I130" s="0" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="131">
@@ -5946,7 +5946,7 @@
         <v>144</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C131" s="0" t="s">
         <v>10</v>
@@ -5958,10 +5958,10 @@
         <v>251</v>
       </c>
       <c r="H131" s="0" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I131" s="0" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="132">
@@ -5969,7 +5969,7 @@
         <v>145</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C132" s="0" t="s">
         <v>10</v>
@@ -5981,10 +5981,10 @@
         <v>251</v>
       </c>
       <c r="H132" s="0" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I132" s="0" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="133">
@@ -5992,7 +5992,7 @@
         <v>146</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C133" s="0" t="s">
         <v>10</v>
@@ -6004,10 +6004,10 @@
         <v>251</v>
       </c>
       <c r="H133" s="0" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I133" s="0" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="134">
@@ -6015,7 +6015,7 @@
         <v>147</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C134" s="0" t="s">
         <v>10</v>
@@ -6027,10 +6027,10 @@
         <v>251</v>
       </c>
       <c r="H134" s="0" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I134" s="0" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="135">
@@ -6038,7 +6038,7 @@
         <v>148</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C135" s="0" t="s">
         <v>10</v>
@@ -6050,10 +6050,10 @@
         <v>251</v>
       </c>
       <c r="H135" s="0" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I135" s="0" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="136">
@@ -6061,7 +6061,7 @@
         <v>149</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C136" s="0" t="s">
         <v>10</v>
@@ -6073,10 +6073,10 @@
         <v>251</v>
       </c>
       <c r="H136" s="0" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I136" s="0" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="137">
@@ -6084,7 +6084,7 @@
         <v>150</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C137" s="0" t="s">
         <v>10</v>
@@ -6096,10 +6096,10 @@
         <v>251</v>
       </c>
       <c r="H137" s="0" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I137" s="0" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="138">
@@ -6107,7 +6107,7 @@
         <v>151</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C138" s="0" t="s">
         <v>10</v>
@@ -6119,10 +6119,10 @@
         <v>251</v>
       </c>
       <c r="H138" s="0" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I138" s="0" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="139">
@@ -6130,7 +6130,7 @@
         <v>152</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C139" s="0" t="s">
         <v>10</v>
@@ -6142,10 +6142,10 @@
         <v>251</v>
       </c>
       <c r="H139" s="0" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I139" s="0" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="140">
@@ -6153,7 +6153,7 @@
         <v>153</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C140" s="0" t="s">
         <v>10</v>
@@ -6165,10 +6165,10 @@
         <v>251</v>
       </c>
       <c r="H140" s="0" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I140" s="0" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="141">
@@ -6176,7 +6176,7 @@
         <v>154</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C141" s="0" t="s">
         <v>10</v>
@@ -6188,10 +6188,10 @@
         <v>251</v>
       </c>
       <c r="H141" s="0" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I141" s="0" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="142">
@@ -6199,7 +6199,7 @@
         <v>155</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C142" s="0" t="s">
         <v>10</v>
@@ -6211,10 +6211,10 @@
         <v>251</v>
       </c>
       <c r="H142" s="0" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I142" s="0" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="143">
@@ -6222,7 +6222,7 @@
         <v>156</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C143" s="0" t="s">
         <v>10</v>
@@ -6234,10 +6234,10 @@
         <v>251</v>
       </c>
       <c r="H143" s="0" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I143" s="0" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="144">
@@ -6245,7 +6245,7 @@
         <v>70</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C144" s="0" t="s">
         <v>10</v>
@@ -6257,10 +6257,10 @@
         <v>232</v>
       </c>
       <c r="H144" s="0" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I144" s="0" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="145">
@@ -6268,7 +6268,7 @@
         <v>157</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C145" s="0" t="s">
         <v>10</v>
@@ -6280,10 +6280,10 @@
         <v>251</v>
       </c>
       <c r="H145" s="0" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I145" s="0" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -6310,343 +6310,343 @@
     <hyperlink ref="G5" display="d3008e3fe7da4c118c693d2b34a0b329780f8d86.png" r:id="rId21"/>
     <hyperlink ref="A6" display="archiveResource.md" r:id="rId22"/>
     <hyperlink ref="B6" display=".md" r:id="rId23"/>
-    <hyperlink ref="D6" display="archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.ru-ru.xlf" r:id="rId24"/>
+    <hyperlink ref="D6" display="archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.fr-fr.xlf" r:id="rId24"/>
     <hyperlink ref="A7" display="authoringResource.md" r:id="rId25"/>
     <hyperlink ref="B7" display=".md" r:id="rId26"/>
-    <hyperlink ref="D7" display="authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.ru-ru.xlf" r:id="rId27"/>
+    <hyperlink ref="D7" display="authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.fr-fr.xlf" r:id="rId27"/>
     <hyperlink ref="A8" display="authoringResourceClass.md" r:id="rId28"/>
     <hyperlink ref="B8" display=".md" r:id="rId29"/>
-    <hyperlink ref="D8" display="authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.ru-ru.xlf" r:id="rId30"/>
+    <hyperlink ref="D8" display="authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.fr-fr.xlf" r:id="rId30"/>
     <hyperlink ref="A9" display="authoringResourceComposite.md" r:id="rId31"/>
     <hyperlink ref="B9" display=".md" r:id="rId32"/>
-    <hyperlink ref="D9" display="authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.ru-ru.xlf" r:id="rId33"/>
+    <hyperlink ref="D9" display="authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.fr-fr.xlf" r:id="rId33"/>
     <hyperlink ref="A10" display="authoringResourceMOF.md" r:id="rId34"/>
     <hyperlink ref="B10" display=".md" r:id="rId35"/>
-    <hyperlink ref="D10" display="authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.ru-ru.xlf" r:id="rId36"/>
+    <hyperlink ref="D10" display="authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.fr-fr.xlf" r:id="rId36"/>
     <hyperlink ref="A11" display="authoringResourceMofCS.md" r:id="rId37"/>
     <hyperlink ref="B11" display=".md" r:id="rId38"/>
-    <hyperlink ref="D11" display="authoringResourceMofCS.0647b27b00ec52b2f524a2856e48bc7c29c0f867.ru-ru.xlf" r:id="rId39"/>
+    <hyperlink ref="D11" display="authoringResourceMofCS.0647b27b00ec52b2f524a2856e48bc7c29c0f867.fr-fr.xlf" r:id="rId39"/>
     <hyperlink ref="A12" display="authoringResourceMofDesigner.md" r:id="rId40"/>
     <hyperlink ref="B12" display=".md" r:id="rId41"/>
-    <hyperlink ref="D12" display="authoringResourceMofDesigner.09b1adffc4afb0d9b1154880e2dab0b25d82d51b.ru-ru.xlf" r:id="rId42"/>
+    <hyperlink ref="D12" display="authoringResourceMofDesigner.09b1adffc4afb0d9b1154880e2dab0b25d82d51b.fr-fr.xlf" r:id="rId42"/>
     <hyperlink ref="A13" display="builtInResource.md" r:id="rId43"/>
     <hyperlink ref="B13" display=".md" r:id="rId44"/>
-    <hyperlink ref="D13" display="builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.ru-ru.xlf" r:id="rId45"/>
+    <hyperlink ref="D13" display="builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.fr-fr.xlf" r:id="rId45"/>
     <hyperlink ref="A14" display="configData.md" r:id="rId46"/>
     <hyperlink ref="B14" display=".md" r:id="rId47"/>
-    <hyperlink ref="D14" display="configData.51d01a46dd9af8b425788cc485523b09f8470b95.ru-ru.xlf" r:id="rId48"/>
+    <hyperlink ref="D14" display="configData.51d01a46dd9af8b425788cc485523b09f8470b95.fr-fr.xlf" r:id="rId48"/>
     <hyperlink ref="A15" display="configDataCredentials.md" r:id="rId49"/>
     <hyperlink ref="B15" display=".md" r:id="rId50"/>
-    <hyperlink ref="D15" display="configDataCredentials.f3e75119e7d93b2f914823c5ea23bfde3935a874.ru-ru.xlf" r:id="rId51"/>
+    <hyperlink ref="D15" display="configDataCredentials.f3e75119e7d93b2f914823c5ea23bfde3935a874.fr-fr.xlf" r:id="rId51"/>
     <hyperlink ref="A16" display="configurations.md" r:id="rId52"/>
     <hyperlink ref="B16" display=".md" r:id="rId53"/>
-    <hyperlink ref="D16" display="configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.ru-ru.xlf" r:id="rId54"/>
+    <hyperlink ref="D16" display="configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.fr-fr.xlf" r:id="rId54"/>
     <hyperlink ref="A17" display="debugResource.md" r:id="rId55"/>
     <hyperlink ref="B17" display=".md" r:id="rId56"/>
-    <hyperlink ref="D17" display="debugResource.ac634156affe5c723cc149a298f5aa4268d17016.ru-ru.xlf" r:id="rId57"/>
+    <hyperlink ref="D17" display="debugResource.ac634156affe5c723cc149a298f5aa4268d17016.fr-fr.xlf" r:id="rId57"/>
     <hyperlink ref="A18" display="decisionMaker.md" r:id="rId58"/>
     <hyperlink ref="B18" display=".md" r:id="rId59"/>
-    <hyperlink ref="D18" display="decisionMaker.01553169f2ba4241995260fad925e2784b5f5567.ru-ru.xlf" r:id="rId60"/>
+    <hyperlink ref="D18" display="decisionMaker.01553169f2ba4241995260fad925e2784b5f5567.fr-fr.xlf" r:id="rId60"/>
     <hyperlink ref="A19" display="enactingConfigurations.md" r:id="rId61"/>
     <hyperlink ref="B19" display=".md" r:id="rId62"/>
-    <hyperlink ref="D19" display="enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.ru-ru.xlf" r:id="rId63"/>
+    <hyperlink ref="D19" display="enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.fr-fr.xlf" r:id="rId63"/>
     <hyperlink ref="A20" display="environmentResource.md" r:id="rId64"/>
     <hyperlink ref="B20" display=".md" r:id="rId65"/>
-    <hyperlink ref="D20" display="environmentResource.eb91ffd4cd8bdb9476e5a83de1a20d3b7b502a56.ru-ru.xlf" r:id="rId66"/>
+    <hyperlink ref="D20" display="environmentResource.eb91ffd4cd8bdb9476e5a83de1a20d3b7b502a56.fr-fr.xlf" r:id="rId66"/>
     <hyperlink ref="A21" display="fileResource.md" r:id="rId67"/>
     <hyperlink ref="B21" display=".md" r:id="rId68"/>
-    <hyperlink ref="D21" display="fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.ru-ru.xlf" r:id="rId69"/>
+    <hyperlink ref="D21" display="fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.fr-fr.xlf" r:id="rId69"/>
     <hyperlink ref="A22" display="gettingStarted.md" r:id="rId70"/>
     <hyperlink ref="B22" display=".md" r:id="rId71"/>
-    <hyperlink ref="D22" display="gettingStarted.92e02d8bd273df5c304475a9b4fa251c22a7ea19.ru-ru.xlf" r:id="rId72"/>
+    <hyperlink ref="D22" display="gettingStarted.92e02d8bd273df5c304475a9b4fa251c22a7ea19.fr-fr.xlf" r:id="rId72"/>
     <hyperlink ref="A23" display="groupResource.md" r:id="rId73"/>
     <hyperlink ref="B23" display=".md" r:id="rId74"/>
-    <hyperlink ref="D23" display="groupResource.d19d416269795c92566b62c36b9782062dcea43e.ru-ru.xlf" r:id="rId75"/>
+    <hyperlink ref="D23" display="groupResource.d19d416269795c92566b62c36b9782062dcea43e.fr-fr.xlf" r:id="rId75"/>
     <hyperlink ref="A24" display="CredentialEncryptionDiagram1.png" r:id="rId76"/>
     <hyperlink ref="B24" display=".png" r:id="rId77"/>
     <hyperlink ref="D24" display="d9f53a805041164f5070845c0fd216b63d17ae58.png" r:id="rId78"/>
     <hyperlink ref="A25" display="lnxArchiveResource.md" r:id="rId79"/>
     <hyperlink ref="B25" display=".md" r:id="rId80"/>
-    <hyperlink ref="D25" display="lnxArchiveResource.095aab7d23720fd394f2573c30223a6bbcc0a4ef.ru-ru.xlf" r:id="rId81"/>
+    <hyperlink ref="D25" display="lnxArchiveResource.095aab7d23720fd394f2573c30223a6bbcc0a4ef.fr-fr.xlf" r:id="rId81"/>
     <hyperlink ref="A26" display="lnxBuiltInResources.md" r:id="rId82"/>
     <hyperlink ref="B26" display=".md" r:id="rId83"/>
-    <hyperlink ref="D26" display="lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.ru-ru.xlf" r:id="rId84"/>
+    <hyperlink ref="D26" display="lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.fr-fr.xlf" r:id="rId84"/>
     <hyperlink ref="A27" display="lnxEnvironmentResource.md" r:id="rId85"/>
     <hyperlink ref="B27" display=".md" r:id="rId86"/>
-    <hyperlink ref="D27" display="lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.ru-ru.xlf" r:id="rId87"/>
+    <hyperlink ref="D27" display="lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.fr-fr.xlf" r:id="rId87"/>
     <hyperlink ref="A28" display="lnxFileLineResource.md" r:id="rId88"/>
     <hyperlink ref="B28" display=".md" r:id="rId89"/>
-    <hyperlink ref="D28" display="lnxFileLineResource.d91fc802a4c6cdbff5a2e35f92b34c36c6dbf5eb.ru-ru.xlf" r:id="rId90"/>
+    <hyperlink ref="D28" display="lnxFileLineResource.d91fc802a4c6cdbff5a2e35f92b34c36c6dbf5eb.fr-fr.xlf" r:id="rId90"/>
     <hyperlink ref="A29" display="lnxFileResource.md" r:id="rId91"/>
     <hyperlink ref="B29" display=".md" r:id="rId92"/>
-    <hyperlink ref="D29" display="lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.ru-ru.xlf" r:id="rId93"/>
+    <hyperlink ref="D29" display="lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.fr-fr.xlf" r:id="rId93"/>
     <hyperlink ref="A30" display="lnxGettingStarted.md" r:id="rId94"/>
     <hyperlink ref="B30" display=".md" r:id="rId95"/>
-    <hyperlink ref="D30" display="lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.ru-ru.xlf" r:id="rId96"/>
+    <hyperlink ref="D30" display="lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.fr-fr.xlf" r:id="rId96"/>
     <hyperlink ref="A31" display="lnxGroupResource.md" r:id="rId97"/>
     <hyperlink ref="B31" display=".md" r:id="rId98"/>
-    <hyperlink ref="D31" display="lnxGroupResource.0cedb684d797032bd47cdb852629c36da0884567.ru-ru.xlf" r:id="rId99"/>
+    <hyperlink ref="D31" display="lnxGroupResource.0cedb684d797032bd47cdb852629c36da0884567.fr-fr.xlf" r:id="rId99"/>
     <hyperlink ref="A32" display="lnxPackageResource.md" r:id="rId100"/>
     <hyperlink ref="B32" display=".md" r:id="rId101"/>
-    <hyperlink ref="D32" display="lnxPackageResource.db35ab938bbfbb38cae53fe9ae98fd22b5f18009.ru-ru.xlf" r:id="rId102"/>
+    <hyperlink ref="D32" display="lnxPackageResource.db35ab938bbfbb38cae53fe9ae98fd22b5f18009.fr-fr.xlf" r:id="rId102"/>
     <hyperlink ref="A33" display="lnxScriptResource.md" r:id="rId103"/>
     <hyperlink ref="B33" display=".md" r:id="rId104"/>
-    <hyperlink ref="D33" display="lnxScriptResource.1344a5d5b807ee53705e93842d9ef5e25a883359.ru-ru.xlf" r:id="rId105"/>
+    <hyperlink ref="D33" display="lnxScriptResource.1344a5d5b807ee53705e93842d9ef5e25a883359.fr-fr.xlf" r:id="rId105"/>
     <hyperlink ref="A34" display="lnxServiceResource.md" r:id="rId106"/>
     <hyperlink ref="B34" display=".md" r:id="rId107"/>
-    <hyperlink ref="D34" display="lnxServiceResource.e637c7f7b18939ec8c16eadf2c42ab00e236fb7b.ru-ru.xlf" r:id="rId108"/>
+    <hyperlink ref="D34" display="lnxServiceResource.e637c7f7b18939ec8c16eadf2c42ab00e236fb7b.fr-fr.xlf" r:id="rId108"/>
     <hyperlink ref="A35" display="lnxSshAuthorizedKeysResource.md" r:id="rId109"/>
     <hyperlink ref="B35" display=".md" r:id="rId110"/>
-    <hyperlink ref="D35" display="lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.ru-ru.xlf" r:id="rId111"/>
+    <hyperlink ref="D35" display="lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.fr-fr.xlf" r:id="rId111"/>
     <hyperlink ref="A36" display="lnxUserResource.md" r:id="rId112"/>
     <hyperlink ref="B36" display=".md" r:id="rId113"/>
-    <hyperlink ref="D36" display="lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.ru-ru.xlf" r:id="rId114"/>
+    <hyperlink ref="D36" display="lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.fr-fr.xlf" r:id="rId114"/>
     <hyperlink ref="A37" display="logResource.md" r:id="rId115"/>
     <hyperlink ref="B37" display=".md" r:id="rId116"/>
-    <hyperlink ref="D37" display="logResource.07af9dfcf6076ef19059178c3b404762677920f0.ru-ru.xlf" r:id="rId117"/>
+    <hyperlink ref="D37" display="logResource.07af9dfcf6076ef19059178c3b404762677920f0.fr-fr.xlf" r:id="rId117"/>
     <hyperlink ref="A38" display="metaConfig.md" r:id="rId118"/>
     <hyperlink ref="B38" display=".md" r:id="rId119"/>
-    <hyperlink ref="D38" display="metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.ru-ru.xlf" r:id="rId120"/>
+    <hyperlink ref="D38" display="metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.fr-fr.xlf" r:id="rId120"/>
     <hyperlink ref="A39" display="metaConfig4.md" r:id="rId121"/>
     <hyperlink ref="B39" display=".md" r:id="rId122"/>
-    <hyperlink ref="D39" display="metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.ru-ru.xlf" r:id="rId123"/>
+    <hyperlink ref="D39" display="metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.fr-fr.xlf" r:id="rId123"/>
     <hyperlink ref="A40" display="overview.md" r:id="rId124"/>
     <hyperlink ref="B40" display=".md" r:id="rId125"/>
-    <hyperlink ref="D40" display="overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.ru-ru.xlf" r:id="rId126"/>
+    <hyperlink ref="D40" display="overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.fr-fr.xlf" r:id="rId126"/>
     <hyperlink ref="A41" display="packageResource.md" r:id="rId127"/>
     <hyperlink ref="B41" display=".md" r:id="rId128"/>
-    <hyperlink ref="D41" display="packageResource.132c4949cee174dc0dc324456d220436cb9884e6.ru-ru.xlf" r:id="rId129"/>
+    <hyperlink ref="D41" display="packageResource.132c4949cee174dc0dc324456d220436cb9884e6.fr-fr.xlf" r:id="rId129"/>
     <hyperlink ref="A42" display="partialConfigs.md" r:id="rId130"/>
     <hyperlink ref="B42" display=".md" r:id="rId131"/>
-    <hyperlink ref="D42" display="partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.ru-ru.xlf" r:id="rId132"/>
+    <hyperlink ref="D42" display="partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.fr-fr.xlf" r:id="rId132"/>
     <hyperlink ref="A43" display="pullClient.md" r:id="rId133"/>
     <hyperlink ref="B43" display=".md" r:id="rId134"/>
-    <hyperlink ref="D43" display="pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.ru-ru.xlf" r:id="rId135"/>
+    <hyperlink ref="D43" display="pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.fr-fr.xlf" r:id="rId135"/>
     <hyperlink ref="A44" display="pullClientConfigID.md" r:id="rId136"/>
     <hyperlink ref="B44" display=".md" r:id="rId137"/>
-    <hyperlink ref="D44" display="pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.ru-ru.xlf" r:id="rId138"/>
+    <hyperlink ref="D44" display="pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.fr-fr.xlf" r:id="rId138"/>
     <hyperlink ref="A45" display="pullClientConfigID4.md" r:id="rId139"/>
     <hyperlink ref="B45" display=".md" r:id="rId140"/>
-    <hyperlink ref="D45" display="pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.ru-ru.xlf" r:id="rId141"/>
+    <hyperlink ref="D45" display="pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.fr-fr.xlf" r:id="rId141"/>
     <hyperlink ref="A46" display="pullClientConfigNames.md" r:id="rId142"/>
     <hyperlink ref="B46" display=".md" r:id="rId143"/>
-    <hyperlink ref="D46" display="pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.ru-ru.xlf" r:id="rId144"/>
+    <hyperlink ref="D46" display="pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.fr-fr.xlf" r:id="rId144"/>
     <hyperlink ref="A47" display="pullServer.md" r:id="rId145"/>
     <hyperlink ref="B47" display=".md" r:id="rId146"/>
-    <hyperlink ref="D47" display="pullServer.4b925b277da29998394af746bdbdd508fda48909.ru-ru.xlf" r:id="rId147"/>
+    <hyperlink ref="D47" display="pullServer.4b925b277da29998394af746bdbdd508fda48909.fr-fr.xlf" r:id="rId147"/>
     <hyperlink ref="A48" display="pullServerSMB.md" r:id="rId148"/>
     <hyperlink ref="B48" display=".md" r:id="rId149"/>
-    <hyperlink ref="D48" display="pullServerSMB.772aec5ae27ccb19ced78e3eb665a4e16db1c4df.ru-ru.xlf" r:id="rId150"/>
+    <hyperlink ref="D48" display="pullServerSMB.772aec5ae27ccb19ced78e3eb665a4e16db1c4df.fr-fr.xlf" r:id="rId150"/>
     <hyperlink ref="A49" display="queryServerNodes.md" r:id="rId151"/>
     <hyperlink ref="B49" display=".md" r:id="rId152"/>
-    <hyperlink ref="D49" display="queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.ru-ru.xlf" r:id="rId153"/>
+    <hyperlink ref="D49" display="queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.fr-fr.xlf" r:id="rId153"/>
     <hyperlink ref="A50" display="registryResource.md" r:id="rId154"/>
     <hyperlink ref="B50" display=".md" r:id="rId155"/>
-    <hyperlink ref="D50" display="registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.ru-ru.xlf" r:id="rId156"/>
+    <hyperlink ref="D50" display="registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.fr-fr.xlf" r:id="rId156"/>
     <hyperlink ref="A51" display="reportServer.md" r:id="rId157"/>
     <hyperlink ref="B51" display=".md" r:id="rId158"/>
-    <hyperlink ref="D51" display="reportServer.53df4bc8b7b80c0a19c11434bdf5f4304e8248f7.ru-ru.xlf" r:id="rId159"/>
+    <hyperlink ref="D51" display="reportServer.53df4bc8b7b80c0a19c11434bdf5f4304e8248f7.fr-fr.xlf" r:id="rId159"/>
     <hyperlink ref="A52" display="resourceAuthoringChecklist.md" r:id="rId160"/>
     <hyperlink ref="B52" display=".md" r:id="rId161"/>
-    <hyperlink ref="D52" display="resourceAuthoringChecklist.3b9ae254d826cc45519d37d06044f28a69bdfa69.ru-ru.xlf" r:id="rId162"/>
+    <hyperlink ref="D52" display="resourceAuthoringChecklist.3b9ae254d826cc45519d37d06044f28a69bdfa69.fr-fr.xlf" r:id="rId162"/>
     <hyperlink ref="A53" display="resources.md" r:id="rId163"/>
     <hyperlink ref="B53" display=".md" r:id="rId164"/>
-    <hyperlink ref="D53" display="resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.ru-ru.xlf" r:id="rId165"/>
+    <hyperlink ref="D53" display="resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.fr-fr.xlf" r:id="rId165"/>
     <hyperlink ref="A54" display="runAsUser.md" r:id="rId166"/>
     <hyperlink ref="B54" display=".md" r:id="rId167"/>
-    <hyperlink ref="D54" display="runAsUser.d2b90b6bc42ef965e454f9c9f5fd19bc7b488b34.ru-ru.xlf" r:id="rId168"/>
+    <hyperlink ref="D54" display="runAsUser.d2b90b6bc42ef965e454f9c9f5fd19bc7b488b34.fr-fr.xlf" r:id="rId168"/>
     <hyperlink ref="A55" display="scriptResource.md" r:id="rId169"/>
     <hyperlink ref="B55" display=".md" r:id="rId170"/>
-    <hyperlink ref="D55" display="scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.ru-ru.xlf" r:id="rId171"/>
+    <hyperlink ref="D55" display="scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.fr-fr.xlf" r:id="rId171"/>
     <hyperlink ref="A56" display="secureMOF.md" r:id="rId172"/>
     <hyperlink ref="B56" display=".md" r:id="rId173"/>
-    <hyperlink ref="D56" display="secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.ru-ru.xlf" r:id="rId174"/>
+    <hyperlink ref="D56" display="secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.fr-fr.xlf" r:id="rId174"/>
     <hyperlink ref="A57" display="secureServer.md" r:id="rId175"/>
     <hyperlink ref="B57" display=".md" r:id="rId176"/>
-    <hyperlink ref="D57" display="secureServer.ce207607010d18109152742ba23c923cd3cddba2.ru-ru.xlf" r:id="rId177"/>
+    <hyperlink ref="D57" display="secureServer.ce207607010d18109152742ba23c923cd3cddba2.fr-fr.xlf" r:id="rId177"/>
     <hyperlink ref="A58" display="serviceResource.md" r:id="rId178"/>
     <hyperlink ref="B58" display=".md" r:id="rId179"/>
-    <hyperlink ref="D58" display="serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.ru-ru.xlf" r:id="rId180"/>
+    <hyperlink ref="D58" display="serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.fr-fr.xlf" r:id="rId180"/>
     <hyperlink ref="A59" display="TOC.md" r:id="rId181"/>
     <hyperlink ref="B59" display=".md" r:id="rId182"/>
-    <hyperlink ref="D59" display="TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.ru-ru.xlf" r:id="rId183"/>
+    <hyperlink ref="D59" display="TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.fr-fr.xlf" r:id="rId183"/>
     <hyperlink ref="A60" display="troubleshooting.md" r:id="rId184"/>
     <hyperlink ref="B60" display=".md" r:id="rId185"/>
-    <hyperlink ref="D60" display="troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.ru-ru.xlf" r:id="rId186"/>
+    <hyperlink ref="D60" display="troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.fr-fr.xlf" r:id="rId186"/>
     <hyperlink ref="A61" display="userResource.md" r:id="rId187"/>
     <hyperlink ref="B61" display=".md" r:id="rId188"/>
-    <hyperlink ref="D61" display="userResource.5de4fbe03e9e06934442ba451eb0564931863f45.ru-ru.xlf" r:id="rId189"/>
+    <hyperlink ref="D61" display="userResource.5de4fbe03e9e06934442ba451eb0564931863f45.fr-fr.xlf" r:id="rId189"/>
     <hyperlink ref="A62" display="windowsfeatureResource.md" r:id="rId190"/>
     <hyperlink ref="B62" display=".md" r:id="rId191"/>
-    <hyperlink ref="D62" display="windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.ru-ru.xlf" r:id="rId192"/>
+    <hyperlink ref="D62" display="windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.fr-fr.xlf" r:id="rId192"/>
     <hyperlink ref="A63" display="windowsProcessResource.md" r:id="rId193"/>
     <hyperlink ref="B63" display=".md" r:id="rId194"/>
-    <hyperlink ref="D63" display="windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.ru-ru.xlf" r:id="rId195"/>
+    <hyperlink ref="D63" display="windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.fr-fr.xlf" r:id="rId195"/>
     <hyperlink ref="A64" display="audit_cms.md" r:id="rId196"/>
     <hyperlink ref="B64" display=".md" r:id="rId197"/>
-    <hyperlink ref="D64" display="audit_cms.3e422ca243ac938b46bfcf1497a703e55bde970e.ru-ru.xlf" r:id="rId198"/>
+    <hyperlink ref="D64" display="audit_cms.3e422ca243ac938b46bfcf1497a703e55bde970e.fr-fr.xlf" r:id="rId198"/>
     <hyperlink ref="A65" display="audit_overview.md" r:id="rId199"/>
     <hyperlink ref="B65" display=".md" r:id="rId200"/>
-    <hyperlink ref="D65" display="audit_overview.fc5b51e2734a2af986c9edf42b4395b1aad2435d.ru-ru.xlf" r:id="rId201"/>
+    <hyperlink ref="D65" display="audit_overview.fc5b51e2734a2af986c9edf42b4395b1aad2435d.fr-fr.xlf" r:id="rId201"/>
     <hyperlink ref="A66" display="audit_script.md" r:id="rId202"/>
     <hyperlink ref="B66" display=".md" r:id="rId203"/>
-    <hyperlink ref="D66" display="audit_script.e89f3a9316d1125e1efd23b41b756a3a6161016b.ru-ru.xlf" r:id="rId204"/>
+    <hyperlink ref="D66" display="audit_script.e89f3a9316d1125e1efd23b41b756a3a6161016b.fr-fr.xlf" r:id="rId204"/>
     <hyperlink ref="A67" display="audit_transcript.md" r:id="rId205"/>
     <hyperlink ref="B67" display=".md" r:id="rId206"/>
-    <hyperlink ref="D67" display="audit_transcript.c21a6554932939cbf4c744bf7c9f07cc4e1e7160.ru-ru.xlf" r:id="rId207"/>
+    <hyperlink ref="D67" display="audit_transcript.c21a6554932939cbf4c744bf7c9f07cc4e1e7160.fr-fr.xlf" r:id="rId207"/>
     <hyperlink ref="A68" display="class_base.md" r:id="rId208"/>
     <hyperlink ref="B68" display=".md" r:id="rId209"/>
-    <hyperlink ref="D68" display="class_base.29a9fbe4987503d5575c151f4271f58398cb7e55.ru-ru.xlf" r:id="rId210"/>
+    <hyperlink ref="D68" display="class_base.29a9fbe4987503d5575c151f4271f58398cb7e55.fr-fr.xlf" r:id="rId210"/>
     <hyperlink ref="A69" display="class_baseconstructor.md" r:id="rId211"/>
     <hyperlink ref="B69" display=".md" r:id="rId212"/>
-    <hyperlink ref="D69" display="class_baseconstructor.82f951e800b06ccc68090b1be9923c8210a233ac.ru-ru.xlf" r:id="rId213"/>
+    <hyperlink ref="D69" display="class_baseconstructor.82f951e800b06ccc68090b1be9923c8210a233ac.fr-fr.xlf" r:id="rId213"/>
     <hyperlink ref="A70" display="class_basemethod.md" r:id="rId214"/>
     <hyperlink ref="B70" display=".md" r:id="rId215"/>
-    <hyperlink ref="D70" display="class_basemethod.6b60292188d0081f30fbaf4b111db8a439348f5b.ru-ru.xlf" r:id="rId216"/>
+    <hyperlink ref="D70" display="class_basemethod.6b60292188d0081f30fbaf4b111db8a439348f5b.fr-fr.xlf" r:id="rId216"/>
     <hyperlink ref="A71" display="class_interface.md" r:id="rId217"/>
     <hyperlink ref="B71" display=".md" r:id="rId218"/>
-    <hyperlink ref="D71" display="class_interface.84a08fd30808364a820bdd4440de18ec4504a6c7.ru-ru.xlf" r:id="rId219"/>
+    <hyperlink ref="D71" display="class_interface.84a08fd30808364a820bdd4440de18ec4504a6c7.fr-fr.xlf" r:id="rId219"/>
     <hyperlink ref="A72" display="class_newtype.md" r:id="rId220"/>
     <hyperlink ref="B72" display=".md" r:id="rId221"/>
-    <hyperlink ref="D72" display="class_newtype.a9f52b670970046f8b1147d4ba646b73abb430dc.ru-ru.xlf" r:id="rId222"/>
+    <hyperlink ref="D72" display="class_newtype.a9f52b670970046f8b1147d4ba646b73abb430dc.fr-fr.xlf" r:id="rId222"/>
     <hyperlink ref="A73" display="class_overview.md" r:id="rId223"/>
     <hyperlink ref="B73" display=".md" r:id="rId224"/>
-    <hyperlink ref="D73" display="class_overview.91227b885afcb8df385ab601ab970b924eca2533.ru-ru.xlf" r:id="rId225"/>
+    <hyperlink ref="D73" display="class_overview.91227b885afcb8df385ab601ab970b924eca2533.fr-fr.xlf" r:id="rId225"/>
     <hyperlink ref="A74" display="debug_overview.md" r:id="rId226"/>
     <hyperlink ref="B74" display=".md" r:id="rId227"/>
-    <hyperlink ref="D74" display="debug_overview.70b71c20b8b625704c25da28a58e804a048bafb0.ru-ru.xlf" r:id="rId228"/>
+    <hyperlink ref="D74" display="debug_overview.70b71c20b8b625704c25da28a58e804a048bafb0.fr-fr.xlf" r:id="rId228"/>
     <hyperlink ref="A75" display="dsc_authoring.md" r:id="rId229"/>
     <hyperlink ref="B75" display=".md" r:id="rId230"/>
-    <hyperlink ref="D75" display="dsc_authoring.364878cde8f156d8999773842812e0c08f70191c.ru-ru.xlf" r:id="rId231"/>
+    <hyperlink ref="D75" display="dsc_authoring.364878cde8f156d8999773842812e0c08f70191c.fr-fr.xlf" r:id="rId231"/>
     <hyperlink ref="A76" display="dsc_classbasedresource.md" r:id="rId232"/>
     <hyperlink ref="B76" display=".md" r:id="rId233"/>
-    <hyperlink ref="D76" display="dsc_classbasedresource.a3d6b22652db939b51db1218584247396454ae0f.ru-ru.xlf" r:id="rId234"/>
+    <hyperlink ref="D76" display="dsc_classbasedresource.a3d6b22652db939b51db1218584247396454ae0f.fr-fr.xlf" r:id="rId234"/>
     <hyperlink ref="A77" display="dsc_confighelp.md" r:id="rId235"/>
     <hyperlink ref="B77" display=".md" r:id="rId236"/>
-    <hyperlink ref="D77" display="dsc_confighelp.bcfa7e85acae98499089edc9fba25b68953d7bbf.ru-ru.xlf" r:id="rId237"/>
+    <hyperlink ref="D77" display="dsc_confighelp.bcfa7e85acae98499089edc9fba25b68953d7bbf.fr-fr.xlf" r:id="rId237"/>
     <hyperlink ref="A78" display="dsc_directaccess.md" r:id="rId238"/>
     <hyperlink ref="B78" display=".md" r:id="rId239"/>
-    <hyperlink ref="D78" display="dsc_directaccess.014c91015162b26b678e0a5fdfd453a3bf6e41b0.ru-ru.xlf" r:id="rId240"/>
+    <hyperlink ref="D78" display="dsc_directaccess.014c91015162b26b678e0a5fdfd453a3bf6e41b0.fr-fr.xlf" r:id="rId240"/>
     <hyperlink ref="A79" display="dsc_encryptedmof.md" r:id="rId241"/>
     <hyperlink ref="B79" display=".md" r:id="rId242"/>
-    <hyperlink ref="D79" display="dsc_encryptedmof.a35c44de669ea81f25dd29f152f03493e52e327b.ru-ru.xlf" r:id="rId243"/>
+    <hyperlink ref="D79" display="dsc_encryptedmof.a35c44de669ea81f25dd29f152f03493e52e327b.fr-fr.xlf" r:id="rId243"/>
     <hyperlink ref="A80" display="dsc_freqnomultiple.md" r:id="rId244"/>
     <hyperlink ref="B80" display=".md" r:id="rId245"/>
-    <hyperlink ref="D80" display="dsc_freqnomultiple.2848e52c73280aca59e73136bac0c2c7ae02aad6.ru-ru.xlf" r:id="rId246"/>
+    <hyperlink ref="D80" display="dsc_freqnomultiple.2848e52c73280aca59e73136bac0c2c7ae02aad6.fr-fr.xlf" r:id="rId246"/>
     <hyperlink ref="A81" display="dsc_getconfigurationstatus.md" r:id="rId247"/>
     <hyperlink ref="B81" display=".md" r:id="rId248"/>
-    <hyperlink ref="D81" display="dsc_getconfigurationstatus.1705e4bcaa9dfd9d69f00aecdc7ef0d04bf44899.ru-ru.xlf" r:id="rId249"/>
+    <hyperlink ref="D81" display="dsc_getconfigurationstatus.1705e4bcaa9dfd9d69f00aecdc7ef0d04bf44899.fr-fr.xlf" r:id="rId249"/>
     <hyperlink ref="A82" display="dsc_identicalduplicate.md" r:id="rId250"/>
     <hyperlink ref="B82" display=".md" r:id="rId251"/>
-    <hyperlink ref="D82" display="dsc_identicalduplicate.eb7167ccd4a72d68aa1683327e9b3877927158ab.ru-ru.xlf" r:id="rId252"/>
+    <hyperlink ref="D82" display="dsc_identicalduplicate.eb7167ccd4a72d68aa1683327e9b3877927158ab.fr-fr.xlf" r:id="rId252"/>
     <hyperlink ref="A83" display="dsc_importdscresource.md" r:id="rId253"/>
     <hyperlink ref="B83" display=".md" r:id="rId254"/>
-    <hyperlink ref="D83" display="dsc_importdscresource.a0169ad862dfcaa5c958c07ecd52c856d5dc8436.ru-ru.xlf" r:id="rId255"/>
+    <hyperlink ref="D83" display="dsc_importdscresource.a0169ad862dfcaa5c958c07ecd52c856d5dc8436.fr-fr.xlf" r:id="rId255"/>
     <hyperlink ref="A84" display="dsc_improvements.md" r:id="rId256"/>
     <hyperlink ref="B84" display=".md" r:id="rId257"/>
-    <hyperlink ref="D84" display="dsc_improvements.d9ed6ffedf9d9650bb6b26b5ed611e420a0aacbb.ru-ru.xlf" r:id="rId258"/>
+    <hyperlink ref="D84" display="dsc_improvements.d9ed6ffedf9d9650bb6b26b5ed611e420a0aacbb.fr-fr.xlf" r:id="rId258"/>
     <hyperlink ref="A85" display="dsc_lcmstate.md" r:id="rId259"/>
     <hyperlink ref="B85" display=".md" r:id="rId260"/>
-    <hyperlink ref="D85" display="dsc_lcmstate.21ea1c36f37c94e8e0363199fbd07bcced3aea40.ru-ru.xlf" r:id="rId261"/>
+    <hyperlink ref="D85" display="dsc_lcmstate.21ea1c36f37c94e8e0363199fbd07bcced3aea40.fr-fr.xlf" r:id="rId261"/>
     <hyperlink ref="A86" display="dsc_metaconfiguration.md" r:id="rId262"/>
     <hyperlink ref="B86" display=".md" r:id="rId263"/>
-    <hyperlink ref="D86" display="dsc_metaconfiguration.e8bbca05aa1692ad54cadd83b93a1902f179f365.ru-ru.xlf" r:id="rId264"/>
+    <hyperlink ref="D86" display="dsc_metaconfiguration.e8bbca05aa1692ad54cadd83b93a1902f179f365.fr-fr.xlf" r:id="rId264"/>
     <hyperlink ref="A87" display="dsc_newresources.md" r:id="rId265"/>
     <hyperlink ref="B87" display=".md" r:id="rId266"/>
-    <hyperlink ref="D87" display="dsc_newresources.b9c40f591f875ea205c834f7675f3edbe1050592.ru-ru.xlf" r:id="rId267"/>
+    <hyperlink ref="D87" display="dsc_newresources.b9c40f591f875ea205c834f7675f3edbe1050592.fr-fr.xlf" r:id="rId267"/>
     <hyperlink ref="A88" display="dsc_nodeid.md" r:id="rId268"/>
     <hyperlink ref="B88" display=".md" r:id="rId269"/>
-    <hyperlink ref="D88" display="dsc_nodeid.e3c9049aa6c1d151f8b286f28502537b2f8d22a4.ru-ru.xlf" r:id="rId270"/>
+    <hyperlink ref="D88" display="dsc_nodeid.e3c9049aa6c1d151f8b286f28502537b2f8d22a4.fr-fr.xlf" r:id="rId270"/>
     <hyperlink ref="A89" display="dsc_partialconfig.md" r:id="rId271"/>
     <hyperlink ref="B89" display=".md" r:id="rId272"/>
-    <hyperlink ref="D89" display="dsc_partialconfig.a493787c3f8663ac3e2994162ffd1bee429544d3.ru-ru.xlf" r:id="rId273"/>
+    <hyperlink ref="D89" display="dsc_partialconfig.a493787c3f8663ac3e2994162ffd1bee429544d3.fr-fr.xlf" r:id="rId273"/>
     <hyperlink ref="A90" display="dsc_partialconfig_mixedmode.md" r:id="rId274"/>
     <hyperlink ref="B90" display=".md" r:id="rId275"/>
-    <hyperlink ref="D90" display="dsc_partialconfig_mixedmode.ff4b9a8a421441da62574192650493bf2407028d.ru-ru.xlf" r:id="rId276"/>
+    <hyperlink ref="D90" display="dsc_partialconfig_mixedmode.ff4b9a8a421441da62574192650493bf2407028d.fr-fr.xlf" r:id="rId276"/>
     <hyperlink ref="A91" display="dsc_publishconfig.md" r:id="rId277"/>
     <hyperlink ref="B91" display=".md" r:id="rId278"/>
-    <hyperlink ref="D91" display="dsc_publishconfig.bfe86d4253abdd777c205caec637c50ec79103ee.ru-ru.xlf" r:id="rId279"/>
+    <hyperlink ref="D91" display="dsc_publishconfig.bfe86d4253abdd777c205caec637c50ec79103ee.fr-fr.xlf" r:id="rId279"/>
     <hyperlink ref="A92" display="dsc_refreshmode.md" r:id="rId280"/>
     <hyperlink ref="B92" display=".md" r:id="rId281"/>
-    <hyperlink ref="D92" display="dsc_refreshmode.b0529a06a4d3e07b3fce300f74760d63b27523f6.ru-ru.xlf" r:id="rId282"/>
+    <hyperlink ref="D92" display="dsc_refreshmode.b0529a06a4d3e07b3fce300f74760d63b27523f6.fr-fr.xlf" r:id="rId282"/>
     <hyperlink ref="A93" display="dsc_removeconfigdoc.md" r:id="rId283"/>
     <hyperlink ref="B93" display=".md" r:id="rId284"/>
-    <hyperlink ref="D93" display="dsc_removeconfigdoc.d16cdab7eaedf468bcc38dae34e93be26a204318.ru-ru.xlf" r:id="rId285"/>
+    <hyperlink ref="D93" display="dsc_removeconfigdoc.d16cdab7eaedf468bcc38dae34e93be26a204318.fr-fr.xlf" r:id="rId285"/>
     <hyperlink ref="A94" display="dsc_reporting.md" r:id="rId286"/>
     <hyperlink ref="B94" display=".md" r:id="rId287"/>
-    <hyperlink ref="D94" display="dsc_reporting.b042cd21b9bcfc8e50bc361ddee59333602fad42.ru-ru.xlf" r:id="rId288"/>
+    <hyperlink ref="D94" display="dsc_reporting.b042cd21b9bcfc8e50bc361ddee59333602fad42.fr-fr.xlf" r:id="rId288"/>
     <hyperlink ref="A95" display="dsc_repository.md" r:id="rId289"/>
     <hyperlink ref="B95" display=".md" r:id="rId290"/>
-    <hyperlink ref="D95" display="dsc_repository.ec5040a823a6b64e969393e00f3d859fd0b4551c.ru-ru.xlf" r:id="rId291"/>
+    <hyperlink ref="D95" display="dsc_repository.ec5040a823a6b64e969393e00f3d859fd0b4551c.fr-fr.xlf" r:id="rId291"/>
     <hyperlink ref="A96" display="dsc_resourcedebugging.md" r:id="rId292"/>
     <hyperlink ref="B96" display=".md" r:id="rId293"/>
-    <hyperlink ref="D96" display="dsc_resourcedebugging.95c69e55eb065b349f52e18126d699b1906ba03f.ru-ru.xlf" r:id="rId294"/>
+    <hyperlink ref="D96" display="dsc_resourcedebugging.95c69e55eb065b349f52e18126d699b1906ba03f.fr-fr.xlf" r:id="rId294"/>
     <hyperlink ref="A97" display="dsc_runas.md" r:id="rId295"/>
     <hyperlink ref="B97" display=".md" r:id="rId296"/>
-    <hyperlink ref="D97" display="dsc_runas.9e19a42a6d5e1ea1772358a6fd8ff24b98a5b6ba.ru-ru.xlf" r:id="rId297"/>
+    <hyperlink ref="D97" display="dsc_runas.9e19a42a6d5e1ea1772358a6fd8ff24b98a5b6ba.fr-fr.xlf" r:id="rId297"/>
     <hyperlink ref="A98" display="dsc_setdsclcm.md" r:id="rId298"/>
     <hyperlink ref="B98" display=".md" r:id="rId299"/>
-    <hyperlink ref="D98" display="dsc_setdsclcm.1f0e3cab81cf5fc1feda678f202451fe150632e3.ru-ru.xlf" r:id="rId300"/>
+    <hyperlink ref="D98" display="dsc_setdsclcm.1f0e3cab81cf5fc1feda678f202451fe150632e3.fr-fr.xlf" r:id="rId300"/>
     <hyperlink ref="A99" display="dsc_statestatus.md" r:id="rId301"/>
     <hyperlink ref="B99" display=".md" r:id="rId302"/>
-    <hyperlink ref="D99" display="dsc_statestatus.b6f3670f776a8f63a705ba16bed2f20be34fc48f.ru-ru.xlf" r:id="rId303"/>
+    <hyperlink ref="D99" display="dsc_statestatus.b6f3670f776a8f63a705ba16bed2f20be34fc48f.fr-fr.xlf" r:id="rId303"/>
     <hyperlink ref="A100" display="dsc_sxsresource.md" r:id="rId304"/>
     <hyperlink ref="B100" display=".md" r:id="rId305"/>
-    <hyperlink ref="D100" display="dsc_sxsresource.c9d4ce6109370ac1cbc1fb07f191e02f9a61d5d3.ru-ru.xlf" r:id="rId306"/>
+    <hyperlink ref="D100" display="dsc_sxsresource.c9d4ce6109370ac1cbc1fb07f191e02f9a61d5d3.fr-fr.xlf" r:id="rId306"/>
     <hyperlink ref="A101" display="dsc_testconfiguration.md" r:id="rId307"/>
     <hyperlink ref="B101" display=".md" r:id="rId308"/>
-    <hyperlink ref="D101" display="dsc_testconfiguration.b0e5afe2c8f173ebe49c97c9ea9a2f11d81ea5fa.ru-ru.xlf" r:id="rId309"/>
+    <hyperlink ref="D101" display="dsc_testconfiguration.b0e5afe2c8f173ebe49c97c9ea9a2f11d81ea5fa.fr-fr.xlf" r:id="rId309"/>
     <hyperlink ref="A102" display="dsc_updateconfig.md" r:id="rId310"/>
     <hyperlink ref="B102" display=".md" r:id="rId311"/>
-    <hyperlink ref="D102" display="dsc_updateconfig.a07eb85e3458d42d7ab1ed5c57dcfc70df709d07.ru-ru.xlf" r:id="rId312"/>
+    <hyperlink ref="D102" display="dsc_updateconfig.a07eb85e3458d42d7ab1ed5c57dcfc70df709d07.fr-fr.xlf" r:id="rId312"/>
     <hyperlink ref="A103" display="dsc_waitfor.md" r:id="rId313"/>
     <hyperlink ref="B103" display=".md" r:id="rId314"/>
-    <hyperlink ref="D103" display="dsc_waitfor.2b09933f08f1020166ce0f0cd7548a5a3845c48f.ru-ru.xlf" r:id="rId315"/>
+    <hyperlink ref="D103" display="dsc_waitfor.2b09933f08f1020166ce0f0cd7548a5a3845c48f.fr-fr.xlf" r:id="rId315"/>
     <hyperlink ref="A104" display="dsc_wow64.md" r:id="rId316"/>
     <hyperlink ref="B104" display=".md" r:id="rId317"/>
-    <hyperlink ref="D104" display="dsc_wow64.ea039aaa1bd77415311fc30d80fed43cda07a6e3.ru-ru.xlf" r:id="rId318"/>
+    <hyperlink ref="D104" display="dsc_wow64.ea039aaa1bd77415311fc30d80fed43cda07a6e3.fr-fr.xlf" r:id="rId318"/>
     <hyperlink ref="A105" display="feedback.md" r:id="rId319"/>
     <hyperlink ref="B105" display=".md" r:id="rId320"/>
-    <hyperlink ref="D105" display="feedback.3662230166299ef7c1fb7a7a7f5cdbd64b1d812a.ru-ru.xlf" r:id="rId321"/>
+    <hyperlink ref="D105" display="feedback.3662230166299ef7c1fb7a7a7f5cdbd64b1d812a.fr-fr.xlf" r:id="rId321"/>
     <hyperlink ref="A106" display="feedback_archive.md" r:id="rId322"/>
     <hyperlink ref="B106" display=".md" r:id="rId323"/>
-    <hyperlink ref="D106" display="feedback_archive.20de26911a704368058401c7e2bd6ebaac692ff5.ru-ru.xlf" r:id="rId324"/>
+    <hyperlink ref="D106" display="feedback_archive.20de26911a704368058401c7e2bd6ebaac692ff5.fr-fr.xlf" r:id="rId324"/>
     <hyperlink ref="A107" display="feedback_clipboard.md" r:id="rId325"/>
     <hyperlink ref="B107" display=".md" r:id="rId326"/>
-    <hyperlink ref="D107" display="feedback_clipboard.872e5c147ef02cb86067651f41e3c00b55386664.ru-ru.xlf" r:id="rId327"/>
+    <hyperlink ref="D107" display="feedback_clipboard.872e5c147ef02cb86067651f41e3c00b55386664.fr-fr.xlf" r:id="rId327"/>
     <hyperlink ref="A108" display="feedback_cmdlets.md" r:id="rId328"/>
     <hyperlink ref="B108" display=".md" r:id="rId329"/>
-    <hyperlink ref="D108" display="feedback_cmdlets.a4c0dfb806ca0da232eeb75ad3706177b8a5ec48.ru-ru.xlf" r:id="rId330"/>
+    <hyperlink ref="D108" display="feedback_cmdlets.a4c0dfb806ca0da232eeb75ad3706177b8a5ec48.fr-fr.xlf" r:id="rId330"/>
     <hyperlink ref="A109" display="feedback_convertfromString.md" r:id="rId331"/>
     <hyperlink ref="B109" display=".md" r:id="rId332"/>
-    <hyperlink ref="D109" display="feedback_convertfromString.acdeaa33e8fa59b93649b6abf3a7d5ef64fb7664.ru-ru.xlf" r:id="rId333"/>
+    <hyperlink ref="D109" display="feedback_convertfromString.acdeaa33e8fa59b93649b6abf3a7d5ef64fb7664.fr-fr.xlf" r:id="rId333"/>
     <hyperlink ref="A110" display="feedback_convertstring.md" r:id="rId334"/>
     <hyperlink ref="B110" display=".md" r:id="rId335"/>
-    <hyperlink ref="D110" display="feedback_convertstring.42e964e30093962871c3a4d586ed6c54f25f840d.ru-ru.xlf" r:id="rId336"/>
+    <hyperlink ref="D110" display="feedback_convertstring.42e964e30093962871c3a4d586ed6c54f25f840d.fr-fr.xlf" r:id="rId336"/>
     <hyperlink ref="A111" display="feedback_fileinfo.md" r:id="rId337"/>
     <hyperlink ref="B111" display=".md" r:id="rId338"/>
-    <hyperlink ref="D111" display="feedback_fileinfo.0192edad2d6504d26a9632f95fc9e5b66ffd8003.ru-ru.xlf" r:id="rId339"/>
+    <hyperlink ref="D111" display="feedback_fileinfo.0192edad2d6504d26a9632f95fc9e5b66ffd8003.fr-fr.xlf" r:id="rId339"/>
     <hyperlink ref="A112" display="feedback_formathex.md" r:id="rId340"/>
     <hyperlink ref="B112" display=".md" r:id="rId341"/>
-    <hyperlink ref="D112" display="feedback_formathex.f97931c887efb620e5f4314facc1f0e20e3dffbe.ru-ru.xlf" r:id="rId342"/>
+    <hyperlink ref="D112" display="feedback_formathex.f97931c887efb620e5f4314facc1f0e20e3dffbe.fr-fr.xlf" r:id="rId342"/>
     <hyperlink ref="A113" display="feedback_getchilditem.md" r:id="rId343"/>
     <hyperlink ref="B113" display=".md" r:id="rId344"/>
-    <hyperlink ref="D113" display="feedback_getchilditem.ce02ca20cc4417a80fe65eb509a8e92f2cecc79c.ru-ru.xlf" r:id="rId345"/>
+    <hyperlink ref="D113" display="feedback_getchilditem.ce02ca20cc4417a80fe65eb509a8e92f2cecc79c.fr-fr.xlf" r:id="rId345"/>
     <hyperlink ref="A114" display="feedback_moduleversionranges.md" r:id="rId346"/>
     <hyperlink ref="B114" display=".md" r:id="rId347"/>
-    <hyperlink ref="D114" display="feedback_moduleversionranges.611b3a3219d64dbfa1d01541b60a727b880a0c4b.ru-ru.xlf" r:id="rId348"/>
+    <hyperlink ref="D114" display="feedback_moduleversionranges.611b3a3219d64dbfa1d01541b60a727b880a0c4b.fr-fr.xlf" r:id="rId348"/>
     <hyperlink ref="A115" display="feedback_newguid.md" r:id="rId349"/>
     <hyperlink ref="B115" display=".md" r:id="rId350"/>
-    <hyperlink ref="D115" display="feedback_newguid.f8756fbdb96e6fe06a7e0cbb6ac4af32b1c64983.ru-ru.xlf" r:id="rId351"/>
+    <hyperlink ref="D115" display="feedback_newguid.f8756fbdb96e6fe06a7e0cbb6ac4af32b1c64983.fr-fr.xlf" r:id="rId351"/>
     <hyperlink ref="A116" display="feedback_nonewline.md" r:id="rId352"/>
     <hyperlink ref="B116" display=".md" r:id="rId353"/>
-    <hyperlink ref="D116" display="feedback_nonewline.7a9b7e24c50399879089bba2b8eee7dc325572e2.ru-ru.xlf" r:id="rId354"/>
+    <hyperlink ref="D116" display="feedback_nonewline.7a9b7e24c50399879089bba2b8eee7dc325572e2.fr-fr.xlf" r:id="rId354"/>
     <hyperlink ref="A117" display="feedback_symbolic.md" r:id="rId355"/>
     <hyperlink ref="B117" display=".md" r:id="rId356"/>
-    <hyperlink ref="D117" display="feedback_symbolic.1c3ac8128fb9df60512ec024044d48be7d0cb59f.ru-ru.xlf" r:id="rId357"/>
+    <hyperlink ref="D117" display="feedback_symbolic.1c3ac8128fb9df60512ec024044d48be7d0cb59f.fr-fr.xlf" r:id="rId357"/>
     <hyperlink ref="A118" display="feedback_tempfile.md" r:id="rId358"/>
     <hyperlink ref="B118" display=".md" r:id="rId359"/>
-    <hyperlink ref="D118" display="feedback_tempfile.fc029065af6bbba3a8c4abbf36023bede7d1416d.ru-ru.xlf" r:id="rId360"/>
+    <hyperlink ref="D118" display="feedback_tempfile.fc029065af6bbba3a8c4abbf36023bede7d1416d.fr-fr.xlf" r:id="rId360"/>
     <hyperlink ref="A119" display="DscResourceDebugging.jpg" r:id="rId361"/>
     <hyperlink ref="B119" display=".jpg" r:id="rId362"/>
     <hyperlink ref="D119" display="ba1897f38317f5fe38f2d8caf0efcc57bc8bb19d.jpg" r:id="rId363"/>
@@ -6658,76 +6658,76 @@
     <hyperlink ref="D121" display="9a44a53029d37d4165bbffbdcaa79d9be76e5fac.jpg" r:id="rId369"/>
     <hyperlink ref="A122" display="informationstream_overview.md" r:id="rId370"/>
     <hyperlink ref="B122" display=".md" r:id="rId371"/>
-    <hyperlink ref="D122" display="informationstream_overview.d2f238b2b4021ccdb7271cf89f53d58970d56cf5.ru-ru.xlf" r:id="rId372"/>
+    <hyperlink ref="D122" display="informationstream_overview.d2f238b2b4021ccdb7271cf89f53d58970d56cf5.fr-fr.xlf" r:id="rId372"/>
     <hyperlink ref="A123" display="install.md" r:id="rId373"/>
     <hyperlink ref="B123" display=".md" r:id="rId374"/>
-    <hyperlink ref="D123" display="install.317fc924c0f766547c4725878af59c3c9d8facba.ru-ru.xlf" r:id="rId375"/>
+    <hyperlink ref="D123" display="install.317fc924c0f766547c4725878af59c3c9d8facba.fr-fr.xlf" r:id="rId375"/>
     <hyperlink ref="A124" display="jea_endpoint.md" r:id="rId376"/>
     <hyperlink ref="B124" display=".md" r:id="rId377"/>
-    <hyperlink ref="D124" display="jea_endpoint.1dc052fe583a907a6c090cf8bfd42293d94d2975.ru-ru.xlf" r:id="rId378"/>
+    <hyperlink ref="D124" display="jea_endpoint.1dc052fe583a907a6c090cf8bfd42293d94d2975.fr-fr.xlf" r:id="rId378"/>
     <hyperlink ref="A125" display="jea_overview.md" r:id="rId379"/>
     <hyperlink ref="B125" display=".md" r:id="rId380"/>
-    <hyperlink ref="D125" display="jea_overview.3fa3008e719be8235adffe51808ac66714940871.ru-ru.xlf" r:id="rId381"/>
+    <hyperlink ref="D125" display="jea_overview.3fa3008e719be8235adffe51808ac66714940871.fr-fr.xlf" r:id="rId381"/>
     <hyperlink ref="A126" display="jea_report.md" r:id="rId382"/>
     <hyperlink ref="B126" display=".md" r:id="rId383"/>
-    <hyperlink ref="D126" display="jea_report.7860cec6e93b7405844ccbbe5bc879921447ac0b.ru-ru.xlf" r:id="rId384"/>
+    <hyperlink ref="D126" display="jea_report.7860cec6e93b7405844ccbbe5bc879921447ac0b.fr-fr.xlf" r:id="rId384"/>
     <hyperlink ref="A127" display="limitation_dsc.md" r:id="rId385"/>
     <hyperlink ref="B127" display=".md" r:id="rId386"/>
-    <hyperlink ref="D127" display="limitation_dsc.3684c81bb088cba98089dffdb1a1e56e1c098335.ru-ru.xlf" r:id="rId387"/>
+    <hyperlink ref="D127" display="limitation_dsc.3684c81bb088cba98089dffdb1a1e56e1c098335.fr-fr.xlf" r:id="rId387"/>
     <hyperlink ref="A128" display="limitation_overview.md" r:id="rId388"/>
     <hyperlink ref="B128" display=".md" r:id="rId389"/>
-    <hyperlink ref="D128" display="limitation_overview.6cc9c8c028f5912636637d836aed7db0614de522.ru-ru.xlf" r:id="rId390"/>
+    <hyperlink ref="D128" display="limitation_overview.6cc9c8c028f5912636637d836aed7db0614de522.fr-fr.xlf" r:id="rId390"/>
     <hyperlink ref="A129" display="networkswitch_overview.md" r:id="rId391"/>
     <hyperlink ref="B129" display=".md" r:id="rId392"/>
-    <hyperlink ref="D129" display="networkswitch_overview.7a87eb0741cd43b8b9284ea6cb605920c4961b79.ru-ru.xlf" r:id="rId393"/>
+    <hyperlink ref="D129" display="networkswitch_overview.7a87eb0741cd43b8b9284ea6cb605920c4961b79.fr-fr.xlf" r:id="rId393"/>
     <hyperlink ref="A130" display="odata_overview.md" r:id="rId394"/>
     <hyperlink ref="B130" display=".md" r:id="rId395"/>
-    <hyperlink ref="D130" display="odata_overview.c3f7efdde29fe7ac5685a61cd61d75b65524a4c3.ru-ru.xlf" r:id="rId396"/>
+    <hyperlink ref="D130" display="odata_overview.c3f7efdde29fe7ac5685a61cd61d75b65524a4c3.fr-fr.xlf" r:id="rId396"/>
     <hyperlink ref="A131" display="oneget_cmdlets.md" r:id="rId397"/>
     <hyperlink ref="B131" display=".md" r:id="rId398"/>
-    <hyperlink ref="D131" display="oneget_cmdlets.469b2350a72495ac2cf62e4130b4df8036f5d135.ru-ru.xlf" r:id="rId399"/>
+    <hyperlink ref="D131" display="oneget_cmdlets.469b2350a72495ac2cf62e4130b4df8036f5d135.fr-fr.xlf" r:id="rId399"/>
     <hyperlink ref="A132" display="oneget_overview.md" r:id="rId400"/>
     <hyperlink ref="B132" display=".md" r:id="rId401"/>
-    <hyperlink ref="D132" display="oneget_overview.e71a25f36f957ab7471d259c6e716651f6f23c94.ru-ru.xlf" r:id="rId402"/>
+    <hyperlink ref="D132" display="oneget_overview.e71a25f36f957ab7471d259c6e716651f6f23c94.fr-fr.xlf" r:id="rId402"/>
     <hyperlink ref="A133" display="productincompat.md" r:id="rId403"/>
     <hyperlink ref="B133" display=".md" r:id="rId404"/>
-    <hyperlink ref="D133" display="productincompat.62bb00299c0283b5297001553476a745e28a49cb.ru-ru.xlf" r:id="rId405"/>
+    <hyperlink ref="D133" display="productincompat.62bb00299c0283b5297001553476a745e28a49cb.fr-fr.xlf" r:id="rId405"/>
     <hyperlink ref="A134" display="psget_module_overview.md" r:id="rId406"/>
     <hyperlink ref="B134" display=".md" r:id="rId407"/>
-    <hyperlink ref="D134" display="psget_module_overview.4149c468ffd0f17a2fabd03f90059c12effc3170.ru-ru.xlf" r:id="rId408"/>
+    <hyperlink ref="D134" display="psget_module_overview.4149c468ffd0f17a2fabd03f90059c12effc3170.fr-fr.xlf" r:id="rId408"/>
     <hyperlink ref="A135" display="psget_modulecmdlets.md" r:id="rId409"/>
     <hyperlink ref="B135" display=".md" r:id="rId410"/>
-    <hyperlink ref="D135" display="psget_modulecmdlets.1f808cfdf9a9aa920f88e15f7f5fa4701fe805e3.ru-ru.xlf" r:id="rId411"/>
+    <hyperlink ref="D135" display="psget_modulecmdlets.1f808cfdf9a9aa920f88e15f7f5fa4701fe805e3.fr-fr.xlf" r:id="rId411"/>
     <hyperlink ref="A136" display="psget_moduledependency.md" r:id="rId412"/>
     <hyperlink ref="B136" display=".md" r:id="rId413"/>
-    <hyperlink ref="D136" display="psget_moduledependency.89ba9310335ae64db5481a3c02034ac4fe01b6a2.ru-ru.xlf" r:id="rId414"/>
+    <hyperlink ref="D136" display="psget_moduledependency.89ba9310335ae64db5481a3c02034ac4fe01b6a2.fr-fr.xlf" r:id="rId414"/>
     <hyperlink ref="A137" display="psget_modulesxsinstall.md" r:id="rId415"/>
     <hyperlink ref="B137" display=".md" r:id="rId416"/>
-    <hyperlink ref="D137" display="psget_modulesxsinstall.110ba80d8f917899ef488b46bd15f5654f6ba06c.ru-ru.xlf" r:id="rId417"/>
+    <hyperlink ref="D137" display="psget_modulesxsinstall.110ba80d8f917899ef488b46bd15f5654f6ba06c.fr-fr.xlf" r:id="rId417"/>
     <hyperlink ref="A138" display="psget_psrepository.md" r:id="rId418"/>
     <hyperlink ref="B138" display=".md" r:id="rId419"/>
-    <hyperlink ref="D138" display="psget_psrepository.c4381b2ff7bb6496ab74ed8bb2b07325cfbfc056.ru-ru.xlf" r:id="rId420"/>
+    <hyperlink ref="D138" display="psget_psrepository.c4381b2ff7bb6496ab74ed8bb2b07325cfbfc056.fr-fr.xlf" r:id="rId420"/>
     <hyperlink ref="A139" display="psget_script_overview.md" r:id="rId421"/>
     <hyperlink ref="B139" display=".md" r:id="rId422"/>
-    <hyperlink ref="D139" display="psget_script_overview.f035cc99497d17dc73e3a61f214e40a5860fc70a.ru-ru.xlf" r:id="rId423"/>
+    <hyperlink ref="D139" display="psget_script_overview.f035cc99497d17dc73e3a61f214e40a5860fc70a.fr-fr.xlf" r:id="rId423"/>
     <hyperlink ref="A140" display="psget_scriptcmdlets.md" r:id="rId424"/>
     <hyperlink ref="B140" display=".md" r:id="rId425"/>
-    <hyperlink ref="D140" display="psget_scriptcmdlets.1762d5f29292d59c1afb37cb29eb11a34cf63990.ru-ru.xlf" r:id="rId426"/>
+    <hyperlink ref="D140" display="psget_scriptcmdlets.1762d5f29292d59c1afb37cb29eb11a34cf63990.fr-fr.xlf" r:id="rId426"/>
     <hyperlink ref="A141" display="releasenotes.md" r:id="rId427"/>
     <hyperlink ref="B141" display=".md" r:id="rId428"/>
-    <hyperlink ref="D141" display="releasenotes.311750b4da54b1d4ef7997b328edd6ff177fb71f.ru-ru.xlf" r:id="rId429"/>
+    <hyperlink ref="D141" display="releasenotes.311750b4da54b1d4ef7997b328edd6ff177fb71f.fr-fr.xlf" r:id="rId429"/>
     <hyperlink ref="A142" display="requirements.md" r:id="rId430"/>
     <hyperlink ref="B142" display=".md" r:id="rId431"/>
-    <hyperlink ref="D142" display="requirements.ef8332f358d65b1759bfd4c7336b11d1dc8c2d46.ru-ru.xlf" r:id="rId432"/>
+    <hyperlink ref="D142" display="requirements.ef8332f358d65b1759bfd4c7336b11d1dc8c2d46.fr-fr.xlf" r:id="rId432"/>
     <hyperlink ref="A143" display="sil_overview.md" r:id="rId433"/>
     <hyperlink ref="B143" display=".md" r:id="rId434"/>
-    <hyperlink ref="D143" display="sil_overview.a2b1f7c716aad317993a5eaffba21fa28ce0c0d8.ru-ru.xlf" r:id="rId435"/>
+    <hyperlink ref="D143" display="sil_overview.a2b1f7c716aad317993a5eaffba21fa28ce0c0d8.fr-fr.xlf" r:id="rId435"/>
     <hyperlink ref="A144" display="TOC.md" r:id="rId436"/>
     <hyperlink ref="B144" display=".md" r:id="rId437"/>
-    <hyperlink ref="D144" display="TOC.60497266061c38453b3db893ec675eb65584af89.ru-ru.xlf" r:id="rId438"/>
+    <hyperlink ref="D144" display="TOC.60497266061c38453b3db893ec675eb65584af89.fr-fr.xlf" r:id="rId438"/>
     <hyperlink ref="A145" display="uninstall.md" r:id="rId439"/>
     <hyperlink ref="B145" display=".md" r:id="rId440"/>
-    <hyperlink ref="D145" display="uninstall.b07adaaaf7f41869dfa201b88e29342aced76c96.ru-ru.xlf" r:id="rId441"/>
+    <hyperlink ref="D145" display="uninstall.b07adaaaf7f41869dfa201b88e29342aced76c96.fr-fr.xlf" r:id="rId441"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/PowerShell/powerShell-Docs/live/localization-status.xlsx
+++ b/ol-handback/PowerShell/powerShell-Docs/live/localization-status.xlsx
@@ -6,7 +6,7 @@
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId2"/>
-    <sheet name="fr-fr" sheetId="2" r:id="rId3"/>
+    <sheet name="zh-cn" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -18,7 +18,7 @@
     <t>File Name</t>
   </si>
   <si>
-    <t>fr-fr</t>
+    <t>zh-cn</t>
   </si>
   <si>
     <t>Latest Handoff Date</t>
@@ -30,7 +30,7 @@
     <t>Handed back: in sync with en-US</t>
   </si>
   <si>
-    <t>2016-02-11 01:02:43</t>
+    <t>2016-02-11 01:02:59</t>
   </si>
   <si>
     <t>PartialConfigPullServer.jpg</t>
@@ -48,7 +48,7 @@
     <t>Ready for handoff</t>
   </si>
   <si>
-    <t>2016-01-23 03:01:38</t>
+    <t>2016-01-23 03:01:57</t>
   </si>
   <si>
     <t>authoringResource.md</t>
@@ -57,7 +57,7 @@
     <t>authoringResourceClass.md</t>
   </si>
   <si>
-    <t>2016-52-02 17:52:52</t>
+    <t>2016-53-02 17:53:00</t>
   </si>
   <si>
     <t>authoringResourceComposite.md</t>
@@ -87,13 +87,13 @@
     <t>debugResource.md</t>
   </si>
   <si>
-    <t>2016-42-10 21:42:25</t>
+    <t>2016-42-10 21:42:40</t>
   </si>
   <si>
     <t>decisionMaker.md</t>
   </si>
   <si>
-    <t>2016-31-07 19:31:42</t>
+    <t>2016-31-07 19:31:56</t>
   </si>
   <si>
     <t>enactingConfigurations.md</t>
@@ -132,7 +132,7 @@
     <t>lnxGettingStarted.md</t>
   </si>
   <si>
-    <t>2016-32-10 20:32:33</t>
+    <t>2016-32-10 20:32:49</t>
   </si>
   <si>
     <t>lnxGroupResource.md</t>
@@ -180,7 +180,7 @@
     <t>pullClientConfigID4.md</t>
   </si>
   <si>
-    <t>2016-01-09 20:01:57</t>
+    <t>2016-02-09 20:02:15</t>
   </si>
   <si>
     <t>pullClientConfigNames.md</t>
@@ -189,7 +189,7 @@
     <t>pullServer.md</t>
   </si>
   <si>
-    <t>2016-51-16 22:51:54</t>
+    <t>2016-51-16 22:51:57</t>
   </si>
   <si>
     <t>pullServerSMB.md</t>
@@ -231,7 +231,7 @@
     <t>troubleshooting.md</t>
   </si>
   <si>
-    <t>2016-11-04 21:11:45</t>
+    <t>2016-11-04 21:11:54</t>
   </si>
   <si>
     <t>userResource.md</t>
@@ -246,7 +246,7 @@
     <t>audit_cms.md</t>
   </si>
   <si>
-    <t>2016-12-08 01:12:31</t>
+    <t>2016-13-08 01:13:01</t>
   </si>
   <si>
     <t>audit_overview.md</t>
@@ -528,10 +528,10 @@
     <t>3e61149f7b05f74d662d3038233013ffdcbed1a3.jpg</t>
   </si>
   <si>
-    <t>2016-03-11 01:02:43</t>
-  </si>
-  <si>
-    <t>2016-03-17 17:12:56</t>
+    <t>2016-03-11 01:02:59</t>
+  </si>
+  <si>
+    <t>2016-03-18 09:21:04</t>
   </si>
   <si>
     <t>IsDependency</t>
@@ -558,10 +558,10 @@
     <t>.md</t>
   </si>
   <si>
-    <t>archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>2016-02-23 03:01:38</t>
+    <t>archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-02-23 03:01:57</t>
   </si>
   <si>
     <t>0001-01-01 00:00:00</t>
@@ -570,64 +570,64 @@
     <t>Include</t>
   </si>
   <si>
-    <t>authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-02 17:52:52</t>
-  </si>
-  <si>
-    <t>authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>authoringResourceMofCS.0647b27b00ec52b2f524a2856e48bc7c29c0f867.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>authoringResourceMofDesigner.09b1adffc4afb0d9b1154880e2dab0b25d82d51b.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>configData.51d01a46dd9af8b425788cc485523b09f8470b95.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>configDataCredentials.f3e75119e7d93b2f914823c5ea23bfde3935a874.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>debugResource.ac634156affe5c723cc149a298f5aa4268d17016.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-10 21:42:25</t>
-  </si>
-  <si>
-    <t>decisionMaker.01553169f2ba4241995260fad925e2784b5f5567.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-07 19:31:42</t>
-  </si>
-  <si>
-    <t>enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>environmentResource.eb91ffd4cd8bdb9476e5a83de1a20d3b7b502a56.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>gettingStarted.92e02d8bd273df5c304475a9b4fa251c22a7ea19.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>groupResource.d19d416269795c92566b62c36b9782062dcea43e.fr-fr.xlf</t>
+    <t>authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-02 17:53:00</t>
+  </si>
+  <si>
+    <t>authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>authoringResourceMofCS.0647b27b00ec52b2f524a2856e48bc7c29c0f867.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>authoringResourceMofDesigner.09b1adffc4afb0d9b1154880e2dab0b25d82d51b.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>configData.51d01a46dd9af8b425788cc485523b09f8470b95.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>configDataCredentials.f3e75119e7d93b2f914823c5ea23bfde3935a874.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>debugResource.ac634156affe5c723cc149a298f5aa4268d17016.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-10 21:42:40</t>
+  </si>
+  <si>
+    <t>decisionMaker.01553169f2ba4241995260fad925e2784b5f5567.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-07 19:31:56</t>
+  </si>
+  <si>
+    <t>enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>environmentResource.eb91ffd4cd8bdb9476e5a83de1a20d3b7b502a56.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>gettingStarted.92e02d8bd273df5c304475a9b4fa251c22a7ea19.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>groupResource.d19d416269795c92566b62c36b9782062dcea43e.zh-cn.xlf</t>
   </si>
   <si>
     <t>d9f53a805041164f5070845c0fd216b63d17ae58.png</t>
@@ -636,301 +636,301 @@
     <t>dsc\secureMOF.md</t>
   </si>
   <si>
-    <t>lnxArchiveResource.095aab7d23720fd394f2573c30223a6bbcc0a4ef.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>lnxFileLineResource.d91fc802a4c6cdbff5a2e35f92b34c36c6dbf5eb.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-10 20:32:33</t>
-  </si>
-  <si>
-    <t>lnxGroupResource.0cedb684d797032bd47cdb852629c36da0884567.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>lnxPackageResource.db35ab938bbfbb38cae53fe9ae98fd22b5f18009.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>lnxScriptResource.1344a5d5b807ee53705e93842d9ef5e25a883359.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>lnxServiceResource.e637c7f7b18939ec8c16eadf2c42ab00e236fb7b.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>logResource.07af9dfcf6076ef19059178c3b404762677920f0.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>packageResource.132c4949cee174dc0dc324456d220436cb9884e6.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-09 20:01:57</t>
-  </si>
-  <si>
-    <t>pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>pullServer.4b925b277da29998394af746bdbdd508fda48909.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-16 22:51:54</t>
-  </si>
-  <si>
-    <t>pullServerSMB.772aec5ae27ccb19ced78e3eb665a4e16db1c4df.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>reportServer.53df4bc8b7b80c0a19c11434bdf5f4304e8248f7.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>resourceAuthoringChecklist.3b9ae254d826cc45519d37d06044f28a69bdfa69.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>runAsUser.d2b90b6bc42ef965e454f9c9f5fd19bc7b488b34.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>secureServer.ce207607010d18109152742ba23c923cd3cddba2.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-04 21:11:45</t>
-  </si>
-  <si>
-    <t>userResource.5de4fbe03e9e06934442ba451eb0564931863f45.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>audit_cms.3e422ca243ac938b46bfcf1497a703e55bde970e.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-08 01:12:31</t>
-  </si>
-  <si>
-    <t>audit_overview.fc5b51e2734a2af986c9edf42b4395b1aad2435d.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>audit_script.e89f3a9316d1125e1efd23b41b756a3a6161016b.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>audit_transcript.c21a6554932939cbf4c744bf7c9f07cc4e1e7160.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>class_base.29a9fbe4987503d5575c151f4271f58398cb7e55.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>class_baseconstructor.82f951e800b06ccc68090b1be9923c8210a233ac.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>class_basemethod.6b60292188d0081f30fbaf4b111db8a439348f5b.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>class_interface.84a08fd30808364a820bdd4440de18ec4504a6c7.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>class_newtype.a9f52b670970046f8b1147d4ba646b73abb430dc.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>class_overview.91227b885afcb8df385ab601ab970b924eca2533.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>debug_overview.70b71c20b8b625704c25da28a58e804a048bafb0.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>dsc_authoring.364878cde8f156d8999773842812e0c08f70191c.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>dsc_classbasedresource.a3d6b22652db939b51db1218584247396454ae0f.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>dsc_confighelp.bcfa7e85acae98499089edc9fba25b68953d7bbf.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>dsc_directaccess.014c91015162b26b678e0a5fdfd453a3bf6e41b0.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>dsc_encryptedmof.a35c44de669ea81f25dd29f152f03493e52e327b.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>dsc_freqnomultiple.2848e52c73280aca59e73136bac0c2c7ae02aad6.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>dsc_getconfigurationstatus.1705e4bcaa9dfd9d69f00aecdc7ef0d04bf44899.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>dsc_identicalduplicate.eb7167ccd4a72d68aa1683327e9b3877927158ab.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>dsc_importdscresource.a0169ad862dfcaa5c958c07ecd52c856d5dc8436.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>dsc_improvements.d9ed6ffedf9d9650bb6b26b5ed611e420a0aacbb.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>dsc_lcmstate.21ea1c36f37c94e8e0363199fbd07bcced3aea40.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>dsc_metaconfiguration.e8bbca05aa1692ad54cadd83b93a1902f179f365.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>dsc_newresources.b9c40f591f875ea205c834f7675f3edbe1050592.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>dsc_nodeid.e3c9049aa6c1d151f8b286f28502537b2f8d22a4.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>dsc_partialconfig.a493787c3f8663ac3e2994162ffd1bee429544d3.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>dsc_partialconfig_mixedmode.ff4b9a8a421441da62574192650493bf2407028d.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>dsc_publishconfig.bfe86d4253abdd777c205caec637c50ec79103ee.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>dsc_refreshmode.b0529a06a4d3e07b3fce300f74760d63b27523f6.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>dsc_removeconfigdoc.d16cdab7eaedf468bcc38dae34e93be26a204318.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>dsc_reporting.b042cd21b9bcfc8e50bc361ddee59333602fad42.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>dsc_repository.ec5040a823a6b64e969393e00f3d859fd0b4551c.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>dsc_resourcedebugging.95c69e55eb065b349f52e18126d699b1906ba03f.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>dsc_runas.9e19a42a6d5e1ea1772358a6fd8ff24b98a5b6ba.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>dsc_setdsclcm.1f0e3cab81cf5fc1feda678f202451fe150632e3.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>dsc_statestatus.b6f3670f776a8f63a705ba16bed2f20be34fc48f.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>dsc_sxsresource.c9d4ce6109370ac1cbc1fb07f191e02f9a61d5d3.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>dsc_testconfiguration.b0e5afe2c8f173ebe49c97c9ea9a2f11d81ea5fa.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>dsc_updateconfig.a07eb85e3458d42d7ab1ed5c57dcfc70df709d07.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>dsc_waitfor.2b09933f08f1020166ce0f0cd7548a5a3845c48f.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>dsc_wow64.ea039aaa1bd77415311fc30d80fed43cda07a6e3.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>feedback.3662230166299ef7c1fb7a7a7f5cdbd64b1d812a.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>feedback_archive.20de26911a704368058401c7e2bd6ebaac692ff5.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>feedback_clipboard.872e5c147ef02cb86067651f41e3c00b55386664.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>feedback_cmdlets.a4c0dfb806ca0da232eeb75ad3706177b8a5ec48.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>feedback_convertfromString.acdeaa33e8fa59b93649b6abf3a7d5ef64fb7664.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>feedback_convertstring.42e964e30093962871c3a4d586ed6c54f25f840d.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>feedback_fileinfo.0192edad2d6504d26a9632f95fc9e5b66ffd8003.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>feedback_formathex.f97931c887efb620e5f4314facc1f0e20e3dffbe.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>feedback_getchilditem.ce02ca20cc4417a80fe65eb509a8e92f2cecc79c.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>feedback_moduleversionranges.611b3a3219d64dbfa1d01541b60a727b880a0c4b.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>feedback_newguid.f8756fbdb96e6fe06a7e0cbb6ac4af32b1c64983.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>feedback_nonewline.7a9b7e24c50399879089bba2b8eee7dc325572e2.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>feedback_symbolic.1c3ac8128fb9df60512ec024044d48be7d0cb59f.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>feedback_tempfile.fc029065af6bbba3a8c4abbf36023bede7d1416d.fr-fr.xlf</t>
+    <t>lnxArchiveResource.095aab7d23720fd394f2573c30223a6bbcc0a4ef.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>lnxFileLineResource.d91fc802a4c6cdbff5a2e35f92b34c36c6dbf5eb.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-10 20:32:49</t>
+  </si>
+  <si>
+    <t>lnxGroupResource.0cedb684d797032bd47cdb852629c36da0884567.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>lnxPackageResource.db35ab938bbfbb38cae53fe9ae98fd22b5f18009.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>lnxScriptResource.1344a5d5b807ee53705e93842d9ef5e25a883359.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>lnxServiceResource.e637c7f7b18939ec8c16eadf2c42ab00e236fb7b.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>logResource.07af9dfcf6076ef19059178c3b404762677920f0.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>packageResource.132c4949cee174dc0dc324456d220436cb9884e6.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-09 20:02:15</t>
+  </si>
+  <si>
+    <t>pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>pullServer.4b925b277da29998394af746bdbdd508fda48909.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-16 22:51:57</t>
+  </si>
+  <si>
+    <t>pullServerSMB.772aec5ae27ccb19ced78e3eb665a4e16db1c4df.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>reportServer.53df4bc8b7b80c0a19c11434bdf5f4304e8248f7.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>resourceAuthoringChecklist.3b9ae254d826cc45519d37d06044f28a69bdfa69.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>runAsUser.d2b90b6bc42ef965e454f9c9f5fd19bc7b488b34.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>secureServer.ce207607010d18109152742ba23c923cd3cddba2.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-04 21:11:54</t>
+  </si>
+  <si>
+    <t>userResource.5de4fbe03e9e06934442ba451eb0564931863f45.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>audit_cms.3e422ca243ac938b46bfcf1497a703e55bde970e.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-08 01:13:01</t>
+  </si>
+  <si>
+    <t>audit_overview.fc5b51e2734a2af986c9edf42b4395b1aad2435d.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>audit_script.e89f3a9316d1125e1efd23b41b756a3a6161016b.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>audit_transcript.c21a6554932939cbf4c744bf7c9f07cc4e1e7160.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>class_base.29a9fbe4987503d5575c151f4271f58398cb7e55.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>class_baseconstructor.82f951e800b06ccc68090b1be9923c8210a233ac.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>class_basemethod.6b60292188d0081f30fbaf4b111db8a439348f5b.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>class_interface.84a08fd30808364a820bdd4440de18ec4504a6c7.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>class_newtype.a9f52b670970046f8b1147d4ba646b73abb430dc.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>class_overview.91227b885afcb8df385ab601ab970b924eca2533.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>debug_overview.70b71c20b8b625704c25da28a58e804a048bafb0.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>dsc_authoring.364878cde8f156d8999773842812e0c08f70191c.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>dsc_classbasedresource.a3d6b22652db939b51db1218584247396454ae0f.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>dsc_confighelp.bcfa7e85acae98499089edc9fba25b68953d7bbf.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>dsc_directaccess.014c91015162b26b678e0a5fdfd453a3bf6e41b0.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>dsc_encryptedmof.a35c44de669ea81f25dd29f152f03493e52e327b.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>dsc_freqnomultiple.2848e52c73280aca59e73136bac0c2c7ae02aad6.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>dsc_getconfigurationstatus.1705e4bcaa9dfd9d69f00aecdc7ef0d04bf44899.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>dsc_identicalduplicate.eb7167ccd4a72d68aa1683327e9b3877927158ab.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>dsc_importdscresource.a0169ad862dfcaa5c958c07ecd52c856d5dc8436.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>dsc_improvements.d9ed6ffedf9d9650bb6b26b5ed611e420a0aacbb.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>dsc_lcmstate.21ea1c36f37c94e8e0363199fbd07bcced3aea40.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>dsc_metaconfiguration.e8bbca05aa1692ad54cadd83b93a1902f179f365.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>dsc_newresources.b9c40f591f875ea205c834f7675f3edbe1050592.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>dsc_nodeid.e3c9049aa6c1d151f8b286f28502537b2f8d22a4.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>dsc_partialconfig.a493787c3f8663ac3e2994162ffd1bee429544d3.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>dsc_partialconfig_mixedmode.ff4b9a8a421441da62574192650493bf2407028d.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>dsc_publishconfig.bfe86d4253abdd777c205caec637c50ec79103ee.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>dsc_refreshmode.b0529a06a4d3e07b3fce300f74760d63b27523f6.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>dsc_removeconfigdoc.d16cdab7eaedf468bcc38dae34e93be26a204318.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>dsc_reporting.b042cd21b9bcfc8e50bc361ddee59333602fad42.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>dsc_repository.ec5040a823a6b64e969393e00f3d859fd0b4551c.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>dsc_resourcedebugging.95c69e55eb065b349f52e18126d699b1906ba03f.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>dsc_runas.9e19a42a6d5e1ea1772358a6fd8ff24b98a5b6ba.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>dsc_setdsclcm.1f0e3cab81cf5fc1feda678f202451fe150632e3.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>dsc_statestatus.b6f3670f776a8f63a705ba16bed2f20be34fc48f.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>dsc_sxsresource.c9d4ce6109370ac1cbc1fb07f191e02f9a61d5d3.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>dsc_testconfiguration.b0e5afe2c8f173ebe49c97c9ea9a2f11d81ea5fa.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>dsc_updateconfig.a07eb85e3458d42d7ab1ed5c57dcfc70df709d07.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>dsc_waitfor.2b09933f08f1020166ce0f0cd7548a5a3845c48f.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>dsc_wow64.ea039aaa1bd77415311fc30d80fed43cda07a6e3.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>feedback.3662230166299ef7c1fb7a7a7f5cdbd64b1d812a.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>feedback_archive.20de26911a704368058401c7e2bd6ebaac692ff5.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>feedback_clipboard.872e5c147ef02cb86067651f41e3c00b55386664.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>feedback_cmdlets.a4c0dfb806ca0da232eeb75ad3706177b8a5ec48.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>feedback_convertfromString.acdeaa33e8fa59b93649b6abf3a7d5ef64fb7664.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>feedback_convertstring.42e964e30093962871c3a4d586ed6c54f25f840d.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>feedback_fileinfo.0192edad2d6504d26a9632f95fc9e5b66ffd8003.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>feedback_formathex.f97931c887efb620e5f4314facc1f0e20e3dffbe.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>feedback_getchilditem.ce02ca20cc4417a80fe65eb509a8e92f2cecc79c.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>feedback_moduleversionranges.611b3a3219d64dbfa1d01541b60a727b880a0c4b.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>feedback_newguid.f8756fbdb96e6fe06a7e0cbb6ac4af32b1c64983.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>feedback_nonewline.7a9b7e24c50399879089bba2b8eee7dc325572e2.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>feedback_symbolic.1c3ac8128fb9df60512ec024044d48be7d0cb59f.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>feedback_tempfile.fc029065af6bbba3a8c4abbf36023bede7d1416d.zh-cn.xlf</t>
   </si>
   <si>
     <t>ba1897f38317f5fe38f2d8caf0efcc57bc8bb19d.jpg</t>
@@ -951,76 +951,76 @@
     <t>wmf\dsc_encryptedmof.md</t>
   </si>
   <si>
-    <t>informationstream_overview.d2f238b2b4021ccdb7271cf89f53d58970d56cf5.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>install.317fc924c0f766547c4725878af59c3c9d8facba.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>jea_endpoint.1dc052fe583a907a6c090cf8bfd42293d94d2975.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>jea_overview.3fa3008e719be8235adffe51808ac66714940871.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>jea_report.7860cec6e93b7405844ccbbe5bc879921447ac0b.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>limitation_dsc.3684c81bb088cba98089dffdb1a1e56e1c098335.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>limitation_overview.6cc9c8c028f5912636637d836aed7db0614de522.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>networkswitch_overview.7a87eb0741cd43b8b9284ea6cb605920c4961b79.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>odata_overview.c3f7efdde29fe7ac5685a61cd61d75b65524a4c3.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>oneget_cmdlets.469b2350a72495ac2cf62e4130b4df8036f5d135.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>oneget_overview.e71a25f36f957ab7471d259c6e716651f6f23c94.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>productincompat.62bb00299c0283b5297001553476a745e28a49cb.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>psget_module_overview.4149c468ffd0f17a2fabd03f90059c12effc3170.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>psget_modulecmdlets.1f808cfdf9a9aa920f88e15f7f5fa4701fe805e3.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>psget_moduledependency.89ba9310335ae64db5481a3c02034ac4fe01b6a2.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>psget_modulesxsinstall.110ba80d8f917899ef488b46bd15f5654f6ba06c.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>psget_psrepository.c4381b2ff7bb6496ab74ed8bb2b07325cfbfc056.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>psget_script_overview.f035cc99497d17dc73e3a61f214e40a5860fc70a.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>psget_scriptcmdlets.1762d5f29292d59c1afb37cb29eb11a34cf63990.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>releasenotes.311750b4da54b1d4ef7997b328edd6ff177fb71f.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>requirements.ef8332f358d65b1759bfd4c7336b11d1dc8c2d46.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>sil_overview.a2b1f7c716aad317993a5eaffba21fa28ce0c0d8.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>TOC.60497266061c38453b3db893ec675eb65584af89.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>uninstall.b07adaaaf7f41869dfa201b88e29342aced76c96.fr-fr.xlf</t>
+    <t>informationstream_overview.d2f238b2b4021ccdb7271cf89f53d58970d56cf5.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>install.317fc924c0f766547c4725878af59c3c9d8facba.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>jea_endpoint.1dc052fe583a907a6c090cf8bfd42293d94d2975.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>jea_overview.3fa3008e719be8235adffe51808ac66714940871.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>jea_report.7860cec6e93b7405844ccbbe5bc879921447ac0b.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>limitation_dsc.3684c81bb088cba98089dffdb1a1e56e1c098335.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>limitation_overview.6cc9c8c028f5912636637d836aed7db0614de522.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>networkswitch_overview.7a87eb0741cd43b8b9284ea6cb605920c4961b79.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>odata_overview.c3f7efdde29fe7ac5685a61cd61d75b65524a4c3.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>oneget_cmdlets.469b2350a72495ac2cf62e4130b4df8036f5d135.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>oneget_overview.e71a25f36f957ab7471d259c6e716651f6f23c94.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>productincompat.62bb00299c0283b5297001553476a745e28a49cb.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>psget_module_overview.4149c468ffd0f17a2fabd03f90059c12effc3170.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>psget_modulecmdlets.1f808cfdf9a9aa920f88e15f7f5fa4701fe805e3.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>psget_moduledependency.89ba9310335ae64db5481a3c02034ac4fe01b6a2.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>psget_modulesxsinstall.110ba80d8f917899ef488b46bd15f5654f6ba06c.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>psget_psrepository.c4381b2ff7bb6496ab74ed8bb2b07325cfbfc056.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>psget_script_overview.f035cc99497d17dc73e3a61f214e40a5860fc70a.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>psget_scriptcmdlets.1762d5f29292d59c1afb37cb29eb11a34cf63990.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>releasenotes.311750b4da54b1d4ef7997b328edd6ff177fb71f.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>requirements.ef8332f358d65b1759bfd4c7336b11d1dc8c2d46.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>sil_overview.a2b1f7c716aad317993a5eaffba21fa28ce0c0d8.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>TOC.60497266061c38453b3db893ec675eb65584af89.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>uninstall.b07adaaaf7f41869dfa201b88e29342aced76c96.zh-cn.xlf</t>
   </si>
 </sst>
 </file>
@@ -1077,7 +1077,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="fr-fr" displayName="fr_fr" ref="A1:L1" headerRowCount="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:L1" headerRowCount="0">
   <tableColumns count="12">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -1100,7 +1100,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Overview" displayName="Overview" ref="A1:D1" headerRowCount="0">
   <tableColumns count="4">
     <tableColumn id="1" name="File Name"/>
-    <tableColumn id="2" name="fr-fr"/>
+    <tableColumn id="2" name="zh-cn"/>
     <tableColumn id="3" name="Latest Handoff Date"/>
     <tableColumn id="4" name="Column4"/>
   </tableColumns>
@@ -6310,343 +6310,343 @@
     <hyperlink ref="G5" display="d3008e3fe7da4c118c693d2b34a0b329780f8d86.png" r:id="rId21"/>
     <hyperlink ref="A6" display="archiveResource.md" r:id="rId22"/>
     <hyperlink ref="B6" display=".md" r:id="rId23"/>
-    <hyperlink ref="D6" display="archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.fr-fr.xlf" r:id="rId24"/>
+    <hyperlink ref="D6" display="archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.zh-cn.xlf" r:id="rId24"/>
     <hyperlink ref="A7" display="authoringResource.md" r:id="rId25"/>
     <hyperlink ref="B7" display=".md" r:id="rId26"/>
-    <hyperlink ref="D7" display="authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.fr-fr.xlf" r:id="rId27"/>
+    <hyperlink ref="D7" display="authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.zh-cn.xlf" r:id="rId27"/>
     <hyperlink ref="A8" display="authoringResourceClass.md" r:id="rId28"/>
     <hyperlink ref="B8" display=".md" r:id="rId29"/>
-    <hyperlink ref="D8" display="authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.fr-fr.xlf" r:id="rId30"/>
+    <hyperlink ref="D8" display="authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.zh-cn.xlf" r:id="rId30"/>
     <hyperlink ref="A9" display="authoringResourceComposite.md" r:id="rId31"/>
     <hyperlink ref="B9" display=".md" r:id="rId32"/>
-    <hyperlink ref="D9" display="authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.fr-fr.xlf" r:id="rId33"/>
+    <hyperlink ref="D9" display="authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.zh-cn.xlf" r:id="rId33"/>
     <hyperlink ref="A10" display="authoringResourceMOF.md" r:id="rId34"/>
     <hyperlink ref="B10" display=".md" r:id="rId35"/>
-    <hyperlink ref="D10" display="authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.fr-fr.xlf" r:id="rId36"/>
+    <hyperlink ref="D10" display="authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.zh-cn.xlf" r:id="rId36"/>
     <hyperlink ref="A11" display="authoringResourceMofCS.md" r:id="rId37"/>
     <hyperlink ref="B11" display=".md" r:id="rId38"/>
-    <hyperlink ref="D11" display="authoringResourceMofCS.0647b27b00ec52b2f524a2856e48bc7c29c0f867.fr-fr.xlf" r:id="rId39"/>
+    <hyperlink ref="D11" display="authoringResourceMofCS.0647b27b00ec52b2f524a2856e48bc7c29c0f867.zh-cn.xlf" r:id="rId39"/>
     <hyperlink ref="A12" display="authoringResourceMofDesigner.md" r:id="rId40"/>
     <hyperlink ref="B12" display=".md" r:id="rId41"/>
-    <hyperlink ref="D12" display="authoringResourceMofDesigner.09b1adffc4afb0d9b1154880e2dab0b25d82d51b.fr-fr.xlf" r:id="rId42"/>
+    <hyperlink ref="D12" display="authoringResourceMofDesigner.09b1adffc4afb0d9b1154880e2dab0b25d82d51b.zh-cn.xlf" r:id="rId42"/>
     <hyperlink ref="A13" display="builtInResource.md" r:id="rId43"/>
     <hyperlink ref="B13" display=".md" r:id="rId44"/>
-    <hyperlink ref="D13" display="builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.fr-fr.xlf" r:id="rId45"/>
+    <hyperlink ref="D13" display="builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.zh-cn.xlf" r:id="rId45"/>
     <hyperlink ref="A14" display="configData.md" r:id="rId46"/>
     <hyperlink ref="B14" display=".md" r:id="rId47"/>
-    <hyperlink ref="D14" display="configData.51d01a46dd9af8b425788cc485523b09f8470b95.fr-fr.xlf" r:id="rId48"/>
+    <hyperlink ref="D14" display="configData.51d01a46dd9af8b425788cc485523b09f8470b95.zh-cn.xlf" r:id="rId48"/>
     <hyperlink ref="A15" display="configDataCredentials.md" r:id="rId49"/>
     <hyperlink ref="B15" display=".md" r:id="rId50"/>
-    <hyperlink ref="D15" display="configDataCredentials.f3e75119e7d93b2f914823c5ea23bfde3935a874.fr-fr.xlf" r:id="rId51"/>
+    <hyperlink ref="D15" display="configDataCredentials.f3e75119e7d93b2f914823c5ea23bfde3935a874.zh-cn.xlf" r:id="rId51"/>
     <hyperlink ref="A16" display="configurations.md" r:id="rId52"/>
     <hyperlink ref="B16" display=".md" r:id="rId53"/>
-    <hyperlink ref="D16" display="configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.fr-fr.xlf" r:id="rId54"/>
+    <hyperlink ref="D16" display="configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.zh-cn.xlf" r:id="rId54"/>
     <hyperlink ref="A17" display="debugResource.md" r:id="rId55"/>
     <hyperlink ref="B17" display=".md" r:id="rId56"/>
-    <hyperlink ref="D17" display="debugResource.ac634156affe5c723cc149a298f5aa4268d17016.fr-fr.xlf" r:id="rId57"/>
+    <hyperlink ref="D17" display="debugResource.ac634156affe5c723cc149a298f5aa4268d17016.zh-cn.xlf" r:id="rId57"/>
     <hyperlink ref="A18" display="decisionMaker.md" r:id="rId58"/>
     <hyperlink ref="B18" display=".md" r:id="rId59"/>
-    <hyperlink ref="D18" display="decisionMaker.01553169f2ba4241995260fad925e2784b5f5567.fr-fr.xlf" r:id="rId60"/>
+    <hyperlink ref="D18" display="decisionMaker.01553169f2ba4241995260fad925e2784b5f5567.zh-cn.xlf" r:id="rId60"/>
     <hyperlink ref="A19" display="enactingConfigurations.md" r:id="rId61"/>
     <hyperlink ref="B19" display=".md" r:id="rId62"/>
-    <hyperlink ref="D19" display="enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.fr-fr.xlf" r:id="rId63"/>
+    <hyperlink ref="D19" display="enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.zh-cn.xlf" r:id="rId63"/>
     <hyperlink ref="A20" display="environmentResource.md" r:id="rId64"/>
     <hyperlink ref="B20" display=".md" r:id="rId65"/>
-    <hyperlink ref="D20" display="environmentResource.eb91ffd4cd8bdb9476e5a83de1a20d3b7b502a56.fr-fr.xlf" r:id="rId66"/>
+    <hyperlink ref="D20" display="environmentResource.eb91ffd4cd8bdb9476e5a83de1a20d3b7b502a56.zh-cn.xlf" r:id="rId66"/>
     <hyperlink ref="A21" display="fileResource.md" r:id="rId67"/>
     <hyperlink ref="B21" display=".md" r:id="rId68"/>
-    <hyperlink ref="D21" display="fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.fr-fr.xlf" r:id="rId69"/>
+    <hyperlink ref="D21" display="fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.zh-cn.xlf" r:id="rId69"/>
     <hyperlink ref="A22" display="gettingStarted.md" r:id="rId70"/>
     <hyperlink ref="B22" display=".md" r:id="rId71"/>
-    <hyperlink ref="D22" display="gettingStarted.92e02d8bd273df5c304475a9b4fa251c22a7ea19.fr-fr.xlf" r:id="rId72"/>
+    <hyperlink ref="D22" display="gettingStarted.92e02d8bd273df5c304475a9b4fa251c22a7ea19.zh-cn.xlf" r:id="rId72"/>
     <hyperlink ref="A23" display="groupResource.md" r:id="rId73"/>
     <hyperlink ref="B23" display=".md" r:id="rId74"/>
-    <hyperlink ref="D23" display="groupResource.d19d416269795c92566b62c36b9782062dcea43e.fr-fr.xlf" r:id="rId75"/>
+    <hyperlink ref="D23" display="groupResource.d19d416269795c92566b62c36b9782062dcea43e.zh-cn.xlf" r:id="rId75"/>
     <hyperlink ref="A24" display="CredentialEncryptionDiagram1.png" r:id="rId76"/>
     <hyperlink ref="B24" display=".png" r:id="rId77"/>
     <hyperlink ref="D24" display="d9f53a805041164f5070845c0fd216b63d17ae58.png" r:id="rId78"/>
     <hyperlink ref="A25" display="lnxArchiveResource.md" r:id="rId79"/>
     <hyperlink ref="B25" display=".md" r:id="rId80"/>
-    <hyperlink ref="D25" display="lnxArchiveResource.095aab7d23720fd394f2573c30223a6bbcc0a4ef.fr-fr.xlf" r:id="rId81"/>
+    <hyperlink ref="D25" display="lnxArchiveResource.095aab7d23720fd394f2573c30223a6bbcc0a4ef.zh-cn.xlf" r:id="rId81"/>
     <hyperlink ref="A26" display="lnxBuiltInResources.md" r:id="rId82"/>
     <hyperlink ref="B26" display=".md" r:id="rId83"/>
-    <hyperlink ref="D26" display="lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.fr-fr.xlf" r:id="rId84"/>
+    <hyperlink ref="D26" display="lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.zh-cn.xlf" r:id="rId84"/>
     <hyperlink ref="A27" display="lnxEnvironmentResource.md" r:id="rId85"/>
     <hyperlink ref="B27" display=".md" r:id="rId86"/>
-    <hyperlink ref="D27" display="lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.fr-fr.xlf" r:id="rId87"/>
+    <hyperlink ref="D27" display="lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.zh-cn.xlf" r:id="rId87"/>
     <hyperlink ref="A28" display="lnxFileLineResource.md" r:id="rId88"/>
     <hyperlink ref="B28" display=".md" r:id="rId89"/>
-    <hyperlink ref="D28" display="lnxFileLineResource.d91fc802a4c6cdbff5a2e35f92b34c36c6dbf5eb.fr-fr.xlf" r:id="rId90"/>
+    <hyperlink ref="D28" display="lnxFileLineResource.d91fc802a4c6cdbff5a2e35f92b34c36c6dbf5eb.zh-cn.xlf" r:id="rId90"/>
     <hyperlink ref="A29" display="lnxFileResource.md" r:id="rId91"/>
     <hyperlink ref="B29" display=".md" r:id="rId92"/>
-    <hyperlink ref="D29" display="lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.fr-fr.xlf" r:id="rId93"/>
+    <hyperlink ref="D29" display="lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.zh-cn.xlf" r:id="rId93"/>
     <hyperlink ref="A30" display="lnxGettingStarted.md" r:id="rId94"/>
     <hyperlink ref="B30" display=".md" r:id="rId95"/>
-    <hyperlink ref="D30" display="lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.fr-fr.xlf" r:id="rId96"/>
+    <hyperlink ref="D30" display="lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.zh-cn.xlf" r:id="rId96"/>
     <hyperlink ref="A31" display="lnxGroupResource.md" r:id="rId97"/>
     <hyperlink ref="B31" display=".md" r:id="rId98"/>
-    <hyperlink ref="D31" display="lnxGroupResource.0cedb684d797032bd47cdb852629c36da0884567.fr-fr.xlf" r:id="rId99"/>
+    <hyperlink ref="D31" display="lnxGroupResource.0cedb684d797032bd47cdb852629c36da0884567.zh-cn.xlf" r:id="rId99"/>
     <hyperlink ref="A32" display="lnxPackageResource.md" r:id="rId100"/>
     <hyperlink ref="B32" display=".md" r:id="rId101"/>
-    <hyperlink ref="D32" display="lnxPackageResource.db35ab938bbfbb38cae53fe9ae98fd22b5f18009.fr-fr.xlf" r:id="rId102"/>
+    <hyperlink ref="D32" display="lnxPackageResource.db35ab938bbfbb38cae53fe9ae98fd22b5f18009.zh-cn.xlf" r:id="rId102"/>
     <hyperlink ref="A33" display="lnxScriptResource.md" r:id="rId103"/>
     <hyperlink ref="B33" display=".md" r:id="rId104"/>
-    <hyperlink ref="D33" display="lnxScriptResource.1344a5d5b807ee53705e93842d9ef5e25a883359.fr-fr.xlf" r:id="rId105"/>
+    <hyperlink ref="D33" display="lnxScriptResource.1344a5d5b807ee53705e93842d9ef5e25a883359.zh-cn.xlf" r:id="rId105"/>
     <hyperlink ref="A34" display="lnxServiceResource.md" r:id="rId106"/>
     <hyperlink ref="B34" display=".md" r:id="rId107"/>
-    <hyperlink ref="D34" display="lnxServiceResource.e637c7f7b18939ec8c16eadf2c42ab00e236fb7b.fr-fr.xlf" r:id="rId108"/>
+    <hyperlink ref="D34" display="lnxServiceResource.e637c7f7b18939ec8c16eadf2c42ab00e236fb7b.zh-cn.xlf" r:id="rId108"/>
     <hyperlink ref="A35" display="lnxSshAuthorizedKeysResource.md" r:id="rId109"/>
     <hyperlink ref="B35" display=".md" r:id="rId110"/>
-    <hyperlink ref="D35" display="lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.fr-fr.xlf" r:id="rId111"/>
+    <hyperlink ref="D35" display="lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.zh-cn.xlf" r:id="rId111"/>
     <hyperlink ref="A36" display="lnxUserResource.md" r:id="rId112"/>
     <hyperlink ref="B36" display=".md" r:id="rId113"/>
-    <hyperlink ref="D36" display="lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.fr-fr.xlf" r:id="rId114"/>
+    <hyperlink ref="D36" display="lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.zh-cn.xlf" r:id="rId114"/>
     <hyperlink ref="A37" display="logResource.md" r:id="rId115"/>
     <hyperlink ref="B37" display=".md" r:id="rId116"/>
-    <hyperlink ref="D37" display="logResource.07af9dfcf6076ef19059178c3b404762677920f0.fr-fr.xlf" r:id="rId117"/>
+    <hyperlink ref="D37" display="logResource.07af9dfcf6076ef19059178c3b404762677920f0.zh-cn.xlf" r:id="rId117"/>
     <hyperlink ref="A38" display="metaConfig.md" r:id="rId118"/>
     <hyperlink ref="B38" display=".md" r:id="rId119"/>
-    <hyperlink ref="D38" display="metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.fr-fr.xlf" r:id="rId120"/>
+    <hyperlink ref="D38" display="metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.zh-cn.xlf" r:id="rId120"/>
     <hyperlink ref="A39" display="metaConfig4.md" r:id="rId121"/>
     <hyperlink ref="B39" display=".md" r:id="rId122"/>
-    <hyperlink ref="D39" display="metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.fr-fr.xlf" r:id="rId123"/>
+    <hyperlink ref="D39" display="metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.zh-cn.xlf" r:id="rId123"/>
     <hyperlink ref="A40" display="overview.md" r:id="rId124"/>
     <hyperlink ref="B40" display=".md" r:id="rId125"/>
-    <hyperlink ref="D40" display="overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.fr-fr.xlf" r:id="rId126"/>
+    <hyperlink ref="D40" display="overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.zh-cn.xlf" r:id="rId126"/>
     <hyperlink ref="A41" display="packageResource.md" r:id="rId127"/>
     <hyperlink ref="B41" display=".md" r:id="rId128"/>
-    <hyperlink ref="D41" display="packageResource.132c4949cee174dc0dc324456d220436cb9884e6.fr-fr.xlf" r:id="rId129"/>
+    <hyperlink ref="D41" display="packageResource.132c4949cee174dc0dc324456d220436cb9884e6.zh-cn.xlf" r:id="rId129"/>
     <hyperlink ref="A42" display="partialConfigs.md" r:id="rId130"/>
     <hyperlink ref="B42" display=".md" r:id="rId131"/>
-    <hyperlink ref="D42" display="partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.fr-fr.xlf" r:id="rId132"/>
+    <hyperlink ref="D42" display="partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.zh-cn.xlf" r:id="rId132"/>
     <hyperlink ref="A43" display="pullClient.md" r:id="rId133"/>
     <hyperlink ref="B43" display=".md" r:id="rId134"/>
-    <hyperlink ref="D43" display="pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.fr-fr.xlf" r:id="rId135"/>
+    <hyperlink ref="D43" display="pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.zh-cn.xlf" r:id="rId135"/>
     <hyperlink ref="A44" display="pullClientConfigID.md" r:id="rId136"/>
     <hyperlink ref="B44" display=".md" r:id="rId137"/>
-    <hyperlink ref="D44" display="pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.fr-fr.xlf" r:id="rId138"/>
+    <hyperlink ref="D44" display="pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.zh-cn.xlf" r:id="rId138"/>
     <hyperlink ref="A45" display="pullClientConfigID4.md" r:id="rId139"/>
     <hyperlink ref="B45" display=".md" r:id="rId140"/>
-    <hyperlink ref="D45" display="pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.fr-fr.xlf" r:id="rId141"/>
+    <hyperlink ref="D45" display="pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.zh-cn.xlf" r:id="rId141"/>
     <hyperlink ref="A46" display="pullClientConfigNames.md" r:id="rId142"/>
     <hyperlink ref="B46" display=".md" r:id="rId143"/>
-    <hyperlink ref="D46" display="pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.fr-fr.xlf" r:id="rId144"/>
+    <hyperlink ref="D46" display="pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.zh-cn.xlf" r:id="rId144"/>
     <hyperlink ref="A47" display="pullServer.md" r:id="rId145"/>
     <hyperlink ref="B47" display=".md" r:id="rId146"/>
-    <hyperlink ref="D47" display="pullServer.4b925b277da29998394af746bdbdd508fda48909.fr-fr.xlf" r:id="rId147"/>
+    <hyperlink ref="D47" display="pullServer.4b925b277da29998394af746bdbdd508fda48909.zh-cn.xlf" r:id="rId147"/>
     <hyperlink ref="A48" display="pullServerSMB.md" r:id="rId148"/>
     <hyperlink ref="B48" display=".md" r:id="rId149"/>
-    <hyperlink ref="D48" display="pullServerSMB.772aec5ae27ccb19ced78e3eb665a4e16db1c4df.fr-fr.xlf" r:id="rId150"/>
+    <hyperlink ref="D48" display="pullServerSMB.772aec5ae27ccb19ced78e3eb665a4e16db1c4df.zh-cn.xlf" r:id="rId150"/>
     <hyperlink ref="A49" display="queryServerNodes.md" r:id="rId151"/>
     <hyperlink ref="B49" display=".md" r:id="rId152"/>
-    <hyperlink ref="D49" display="queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.fr-fr.xlf" r:id="rId153"/>
+    <hyperlink ref="D49" display="queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.zh-cn.xlf" r:id="rId153"/>
     <hyperlink ref="A50" display="registryResource.md" r:id="rId154"/>
     <hyperlink ref="B50" display=".md" r:id="rId155"/>
-    <hyperlink ref="D50" display="registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.fr-fr.xlf" r:id="rId156"/>
+    <hyperlink ref="D50" display="registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.zh-cn.xlf" r:id="rId156"/>
     <hyperlink ref="A51" display="reportServer.md" r:id="rId157"/>
     <hyperlink ref="B51" display=".md" r:id="rId158"/>
-    <hyperlink ref="D51" display="reportServer.53df4bc8b7b80c0a19c11434bdf5f4304e8248f7.fr-fr.xlf" r:id="rId159"/>
+    <hyperlink ref="D51" display="reportServer.53df4bc8b7b80c0a19c11434bdf5f4304e8248f7.zh-cn.xlf" r:id="rId159"/>
     <hyperlink ref="A52" display="resourceAuthoringChecklist.md" r:id="rId160"/>
     <hyperlink ref="B52" display=".md" r:id="rId161"/>
-    <hyperlink ref="D52" display="resourceAuthoringChecklist.3b9ae254d826cc45519d37d06044f28a69bdfa69.fr-fr.xlf" r:id="rId162"/>
+    <hyperlink ref="D52" display="resourceAuthoringChecklist.3b9ae254d826cc45519d37d06044f28a69bdfa69.zh-cn.xlf" r:id="rId162"/>
     <hyperlink ref="A53" display="resources.md" r:id="rId163"/>
     <hyperlink ref="B53" display=".md" r:id="rId164"/>
-    <hyperlink ref="D53" display="resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.fr-fr.xlf" r:id="rId165"/>
+    <hyperlink ref="D53" display="resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.zh-cn.xlf" r:id="rId165"/>
     <hyperlink ref="A54" display="runAsUser.md" r:id="rId166"/>
     <hyperlink ref="B54" display=".md" r:id="rId167"/>
-    <hyperlink ref="D54" display="runAsUser.d2b90b6bc42ef965e454f9c9f5fd19bc7b488b34.fr-fr.xlf" r:id="rId168"/>
+    <hyperlink ref="D54" display="runAsUser.d2b90b6bc42ef965e454f9c9f5fd19bc7b488b34.zh-cn.xlf" r:id="rId168"/>
     <hyperlink ref="A55" display="scriptResource.md" r:id="rId169"/>
     <hyperlink ref="B55" display=".md" r:id="rId170"/>
-    <hyperlink ref="D55" display="scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.fr-fr.xlf" r:id="rId171"/>
+    <hyperlink ref="D55" display="scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.zh-cn.xlf" r:id="rId171"/>
     <hyperlink ref="A56" display="secureMOF.md" r:id="rId172"/>
     <hyperlink ref="B56" display=".md" r:id="rId173"/>
-    <hyperlink ref="D56" display="secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.fr-fr.xlf" r:id="rId174"/>
+    <hyperlink ref="D56" display="secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.zh-cn.xlf" r:id="rId174"/>
     <hyperlink ref="A57" display="secureServer.md" r:id="rId175"/>
     <hyperlink ref="B57" display=".md" r:id="rId176"/>
-    <hyperlink ref="D57" display="secureServer.ce207607010d18109152742ba23c923cd3cddba2.fr-fr.xlf" r:id="rId177"/>
+    <hyperlink ref="D57" display="secureServer.ce207607010d18109152742ba23c923cd3cddba2.zh-cn.xlf" r:id="rId177"/>
     <hyperlink ref="A58" display="serviceResource.md" r:id="rId178"/>
     <hyperlink ref="B58" display=".md" r:id="rId179"/>
-    <hyperlink ref="D58" display="serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.fr-fr.xlf" r:id="rId180"/>
+    <hyperlink ref="D58" display="serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.zh-cn.xlf" r:id="rId180"/>
     <hyperlink ref="A59" display="TOC.md" r:id="rId181"/>
     <hyperlink ref="B59" display=".md" r:id="rId182"/>
-    <hyperlink ref="D59" display="TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.fr-fr.xlf" r:id="rId183"/>
+    <hyperlink ref="D59" display="TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.zh-cn.xlf" r:id="rId183"/>
     <hyperlink ref="A60" display="troubleshooting.md" r:id="rId184"/>
     <hyperlink ref="B60" display=".md" r:id="rId185"/>
-    <hyperlink ref="D60" display="troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.fr-fr.xlf" r:id="rId186"/>
+    <hyperlink ref="D60" display="troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.zh-cn.xlf" r:id="rId186"/>
     <hyperlink ref="A61" display="userResource.md" r:id="rId187"/>
     <hyperlink ref="B61" display=".md" r:id="rId188"/>
-    <hyperlink ref="D61" display="userResource.5de4fbe03e9e06934442ba451eb0564931863f45.fr-fr.xlf" r:id="rId189"/>
+    <hyperlink ref="D61" display="userResource.5de4fbe03e9e06934442ba451eb0564931863f45.zh-cn.xlf" r:id="rId189"/>
     <hyperlink ref="A62" display="windowsfeatureResource.md" r:id="rId190"/>
     <hyperlink ref="B62" display=".md" r:id="rId191"/>
-    <hyperlink ref="D62" display="windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.fr-fr.xlf" r:id="rId192"/>
+    <hyperlink ref="D62" display="windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.zh-cn.xlf" r:id="rId192"/>
     <hyperlink ref="A63" display="windowsProcessResource.md" r:id="rId193"/>
     <hyperlink ref="B63" display=".md" r:id="rId194"/>
-    <hyperlink ref="D63" display="windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.fr-fr.xlf" r:id="rId195"/>
+    <hyperlink ref="D63" display="windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.zh-cn.xlf" r:id="rId195"/>
     <hyperlink ref="A64" display="audit_cms.md" r:id="rId196"/>
     <hyperlink ref="B64" display=".md" r:id="rId197"/>
-    <hyperlink ref="D64" display="audit_cms.3e422ca243ac938b46bfcf1497a703e55bde970e.fr-fr.xlf" r:id="rId198"/>
+    <hyperlink ref="D64" display="audit_cms.3e422ca243ac938b46bfcf1497a703e55bde970e.zh-cn.xlf" r:id="rId198"/>
     <hyperlink ref="A65" display="audit_overview.md" r:id="rId199"/>
     <hyperlink ref="B65" display=".md" r:id="rId200"/>
-    <hyperlink ref="D65" display="audit_overview.fc5b51e2734a2af986c9edf42b4395b1aad2435d.fr-fr.xlf" r:id="rId201"/>
+    <hyperlink ref="D65" display="audit_overview.fc5b51e2734a2af986c9edf42b4395b1aad2435d.zh-cn.xlf" r:id="rId201"/>
     <hyperlink ref="A66" display="audit_script.md" r:id="rId202"/>
     <hyperlink ref="B66" display=".md" r:id="rId203"/>
-    <hyperlink ref="D66" display="audit_script.e89f3a9316d1125e1efd23b41b756a3a6161016b.fr-fr.xlf" r:id="rId204"/>
+    <hyperlink ref="D66" display="audit_script.e89f3a9316d1125e1efd23b41b756a3a6161016b.zh-cn.xlf" r:id="rId204"/>
     <hyperlink ref="A67" display="audit_transcript.md" r:id="rId205"/>
     <hyperlink ref="B67" display=".md" r:id="rId206"/>
-    <hyperlink ref="D67" display="audit_transcript.c21a6554932939cbf4c744bf7c9f07cc4e1e7160.fr-fr.xlf" r:id="rId207"/>
+    <hyperlink ref="D67" display="audit_transcript.c21a6554932939cbf4c744bf7c9f07cc4e1e7160.zh-cn.xlf" r:id="rId207"/>
     <hyperlink ref="A68" display="class_base.md" r:id="rId208"/>
     <hyperlink ref="B68" display=".md" r:id="rId209"/>
-    <hyperlink ref="D68" display="class_base.29a9fbe4987503d5575c151f4271f58398cb7e55.fr-fr.xlf" r:id="rId210"/>
+    <hyperlink ref="D68" display="class_base.29a9fbe4987503d5575c151f4271f58398cb7e55.zh-cn.xlf" r:id="rId210"/>
     <hyperlink ref="A69" display="class_baseconstructor.md" r:id="rId211"/>
     <hyperlink ref="B69" display=".md" r:id="rId212"/>
-    <hyperlink ref="D69" display="class_baseconstructor.82f951e800b06ccc68090b1be9923c8210a233ac.fr-fr.xlf" r:id="rId213"/>
+    <hyperlink ref="D69" display="class_baseconstructor.82f951e800b06ccc68090b1be9923c8210a233ac.zh-cn.xlf" r:id="rId213"/>
     <hyperlink ref="A70" display="class_basemethod.md" r:id="rId214"/>
     <hyperlink ref="B70" display=".md" r:id="rId215"/>
-    <hyperlink ref="D70" display="class_basemethod.6b60292188d0081f30fbaf4b111db8a439348f5b.fr-fr.xlf" r:id="rId216"/>
+    <hyperlink ref="D70" display="class_basemethod.6b60292188d0081f30fbaf4b111db8a439348f5b.zh-cn.xlf" r:id="rId216"/>
     <hyperlink ref="A71" display="class_interface.md" r:id="rId217"/>
     <hyperlink ref="B71" display=".md" r:id="rId218"/>
-    <hyperlink ref="D71" display="class_interface.84a08fd30808364a820bdd4440de18ec4504a6c7.fr-fr.xlf" r:id="rId219"/>
+    <hyperlink ref="D71" display="class_interface.84a08fd30808364a820bdd4440de18ec4504a6c7.zh-cn.xlf" r:id="rId219"/>
     <hyperlink ref="A72" display="class_newtype.md" r:id="rId220"/>
     <hyperlink ref="B72" display=".md" r:id="rId221"/>
-    <hyperlink ref="D72" display="class_newtype.a9f52b670970046f8b1147d4ba646b73abb430dc.fr-fr.xlf" r:id="rId222"/>
+    <hyperlink ref="D72" display="class_newtype.a9f52b670970046f8b1147d4ba646b73abb430dc.zh-cn.xlf" r:id="rId222"/>
     <hyperlink ref="A73" display="class_overview.md" r:id="rId223"/>
     <hyperlink ref="B73" display=".md" r:id="rId224"/>
-    <hyperlink ref="D73" display="class_overview.91227b885afcb8df385ab601ab970b924eca2533.fr-fr.xlf" r:id="rId225"/>
+    <hyperlink ref="D73" display="class_overview.91227b885afcb8df385ab601ab970b924eca2533.zh-cn.xlf" r:id="rId225"/>
     <hyperlink ref="A74" display="debug_overview.md" r:id="rId226"/>
     <hyperlink ref="B74" display=".md" r:id="rId227"/>
-    <hyperlink ref="D74" display="debug_overview.70b71c20b8b625704c25da28a58e804a048bafb0.fr-fr.xlf" r:id="rId228"/>
+    <hyperlink ref="D74" display="debug_overview.70b71c20b8b625704c25da28a58e804a048bafb0.zh-cn.xlf" r:id="rId228"/>
     <hyperlink ref="A75" display="dsc_authoring.md" r:id="rId229"/>
     <hyperlink ref="B75" display=".md" r:id="rId230"/>
-    <hyperlink ref="D75" display="dsc_authoring.364878cde8f156d8999773842812e0c08f70191c.fr-fr.xlf" r:id="rId231"/>
+    <hyperlink ref="D75" display="dsc_authoring.364878cde8f156d8999773842812e0c08f70191c.zh-cn.xlf" r:id="rId231"/>
     <hyperlink ref="A76" display="dsc_classbasedresource.md" r:id="rId232"/>
     <hyperlink ref="B76" display=".md" r:id="rId233"/>
-    <hyperlink ref="D76" display="dsc_classbasedresource.a3d6b22652db939b51db1218584247396454ae0f.fr-fr.xlf" r:id="rId234"/>
+    <hyperlink ref="D76" display="dsc_classbasedresource.a3d6b22652db939b51db1218584247396454ae0f.zh-cn.xlf" r:id="rId234"/>
     <hyperlink ref="A77" display="dsc_confighelp.md" r:id="rId235"/>
     <hyperlink ref="B77" display=".md" r:id="rId236"/>
-    <hyperlink ref="D77" display="dsc_confighelp.bcfa7e85acae98499089edc9fba25b68953d7bbf.fr-fr.xlf" r:id="rId237"/>
+    <hyperlink ref="D77" display="dsc_confighelp.bcfa7e85acae98499089edc9fba25b68953d7bbf.zh-cn.xlf" r:id="rId237"/>
     <hyperlink ref="A78" display="dsc_directaccess.md" r:id="rId238"/>
     <hyperlink ref="B78" display=".md" r:id="rId239"/>
-    <hyperlink ref="D78" display="dsc_directaccess.014c91015162b26b678e0a5fdfd453a3bf6e41b0.fr-fr.xlf" r:id="rId240"/>
+    <hyperlink ref="D78" display="dsc_directaccess.014c91015162b26b678e0a5fdfd453a3bf6e41b0.zh-cn.xlf" r:id="rId240"/>
     <hyperlink ref="A79" display="dsc_encryptedmof.md" r:id="rId241"/>
     <hyperlink ref="B79" display=".md" r:id="rId242"/>
-    <hyperlink ref="D79" display="dsc_encryptedmof.a35c44de669ea81f25dd29f152f03493e52e327b.fr-fr.xlf" r:id="rId243"/>
+    <hyperlink ref="D79" display="dsc_encryptedmof.a35c44de669ea81f25dd29f152f03493e52e327b.zh-cn.xlf" r:id="rId243"/>
     <hyperlink ref="A80" display="dsc_freqnomultiple.md" r:id="rId244"/>
     <hyperlink ref="B80" display=".md" r:id="rId245"/>
-    <hyperlink ref="D80" display="dsc_freqnomultiple.2848e52c73280aca59e73136bac0c2c7ae02aad6.fr-fr.xlf" r:id="rId246"/>
+    <hyperlink ref="D80" display="dsc_freqnomultiple.2848e52c73280aca59e73136bac0c2c7ae02aad6.zh-cn.xlf" r:id="rId246"/>
     <hyperlink ref="A81" display="dsc_getconfigurationstatus.md" r:id="rId247"/>
     <hyperlink ref="B81" display=".md" r:id="rId248"/>
-    <hyperlink ref="D81" display="dsc_getconfigurationstatus.1705e4bcaa9dfd9d69f00aecdc7ef0d04bf44899.fr-fr.xlf" r:id="rId249"/>
+    <hyperlink ref="D81" display="dsc_getconfigurationstatus.1705e4bcaa9dfd9d69f00aecdc7ef0d04bf44899.zh-cn.xlf" r:id="rId249"/>
     <hyperlink ref="A82" display="dsc_identicalduplicate.md" r:id="rId250"/>
     <hyperlink ref="B82" display=".md" r:id="rId251"/>
-    <hyperlink ref="D82" display="dsc_identicalduplicate.eb7167ccd4a72d68aa1683327e9b3877927158ab.fr-fr.xlf" r:id="rId252"/>
+    <hyperlink ref="D82" display="dsc_identicalduplicate.eb7167ccd4a72d68aa1683327e9b3877927158ab.zh-cn.xlf" r:id="rId252"/>
     <hyperlink ref="A83" display="dsc_importdscresource.md" r:id="rId253"/>
     <hyperlink ref="B83" display=".md" r:id="rId254"/>
-    <hyperlink ref="D83" display="dsc_importdscresource.a0169ad862dfcaa5c958c07ecd52c856d5dc8436.fr-fr.xlf" r:id="rId255"/>
+    <hyperlink ref="D83" display="dsc_importdscresource.a0169ad862dfcaa5c958c07ecd52c856d5dc8436.zh-cn.xlf" r:id="rId255"/>
     <hyperlink ref="A84" display="dsc_improvements.md" r:id="rId256"/>
     <hyperlink ref="B84" display=".md" r:id="rId257"/>
-    <hyperlink ref="D84" display="dsc_improvements.d9ed6ffedf9d9650bb6b26b5ed611e420a0aacbb.fr-fr.xlf" r:id="rId258"/>
+    <hyperlink ref="D84" display="dsc_improvements.d9ed6ffedf9d9650bb6b26b5ed611e420a0aacbb.zh-cn.xlf" r:id="rId258"/>
     <hyperlink ref="A85" display="dsc_lcmstate.md" r:id="rId259"/>
     <hyperlink ref="B85" display=".md" r:id="rId260"/>
-    <hyperlink ref="D85" display="dsc_lcmstate.21ea1c36f37c94e8e0363199fbd07bcced3aea40.fr-fr.xlf" r:id="rId261"/>
+    <hyperlink ref="D85" display="dsc_lcmstate.21ea1c36f37c94e8e0363199fbd07bcced3aea40.zh-cn.xlf" r:id="rId261"/>
     <hyperlink ref="A86" display="dsc_metaconfiguration.md" r:id="rId262"/>
     <hyperlink ref="B86" display=".md" r:id="rId263"/>
-    <hyperlink ref="D86" display="dsc_metaconfiguration.e8bbca05aa1692ad54cadd83b93a1902f179f365.fr-fr.xlf" r:id="rId264"/>
+    <hyperlink ref="D86" display="dsc_metaconfiguration.e8bbca05aa1692ad54cadd83b93a1902f179f365.zh-cn.xlf" r:id="rId264"/>
     <hyperlink ref="A87" display="dsc_newresources.md" r:id="rId265"/>
     <hyperlink ref="B87" display=".md" r:id="rId266"/>
-    <hyperlink ref="D87" display="dsc_newresources.b9c40f591f875ea205c834f7675f3edbe1050592.fr-fr.xlf" r:id="rId267"/>
+    <hyperlink ref="D87" display="dsc_newresources.b9c40f591f875ea205c834f7675f3edbe1050592.zh-cn.xlf" r:id="rId267"/>
     <hyperlink ref="A88" display="dsc_nodeid.md" r:id="rId268"/>
     <hyperlink ref="B88" display=".md" r:id="rId269"/>
-    <hyperlink ref="D88" display="dsc_nodeid.e3c9049aa6c1d151f8b286f28502537b2f8d22a4.fr-fr.xlf" r:id="rId270"/>
+    <hyperlink ref="D88" display="dsc_nodeid.e3c9049aa6c1d151f8b286f28502537b2f8d22a4.zh-cn.xlf" r:id="rId270"/>
     <hyperlink ref="A89" display="dsc_partialconfig.md" r:id="rId271"/>
     <hyperlink ref="B89" display=".md" r:id="rId272"/>
-    <hyperlink ref="D89" display="dsc_partialconfig.a493787c3f8663ac3e2994162ffd1bee429544d3.fr-fr.xlf" r:id="rId273"/>
+    <hyperlink ref="D89" display="dsc_partialconfig.a493787c3f8663ac3e2994162ffd1bee429544d3.zh-cn.xlf" r:id="rId273"/>
     <hyperlink ref="A90" display="dsc_partialconfig_mixedmode.md" r:id="rId274"/>
     <hyperlink ref="B90" display=".md" r:id="rId275"/>
-    <hyperlink ref="D90" display="dsc_partialconfig_mixedmode.ff4b9a8a421441da62574192650493bf2407028d.fr-fr.xlf" r:id="rId276"/>
+    <hyperlink ref="D90" display="dsc_partialconfig_mixedmode.ff4b9a8a421441da62574192650493bf2407028d.zh-cn.xlf" r:id="rId276"/>
     <hyperlink ref="A91" display="dsc_publishconfig.md" r:id="rId277"/>
     <hyperlink ref="B91" display=".md" r:id="rId278"/>
-    <hyperlink ref="D91" display="dsc_publishconfig.bfe86d4253abdd777c205caec637c50ec79103ee.fr-fr.xlf" r:id="rId279"/>
+    <hyperlink ref="D91" display="dsc_publishconfig.bfe86d4253abdd777c205caec637c50ec79103ee.zh-cn.xlf" r:id="rId279"/>
     <hyperlink ref="A92" display="dsc_refreshmode.md" r:id="rId280"/>
     <hyperlink ref="B92" display=".md" r:id="rId281"/>
-    <hyperlink ref="D92" display="dsc_refreshmode.b0529a06a4d3e07b3fce300f74760d63b27523f6.fr-fr.xlf" r:id="rId282"/>
+    <hyperlink ref="D92" display="dsc_refreshmode.b0529a06a4d3e07b3fce300f74760d63b27523f6.zh-cn.xlf" r:id="rId282"/>
     <hyperlink ref="A93" display="dsc_removeconfigdoc.md" r:id="rId283"/>
     <hyperlink ref="B93" display=".md" r:id="rId284"/>
-    <hyperlink ref="D93" display="dsc_removeconfigdoc.d16cdab7eaedf468bcc38dae34e93be26a204318.fr-fr.xlf" r:id="rId285"/>
+    <hyperlink ref="D93" display="dsc_removeconfigdoc.d16cdab7eaedf468bcc38dae34e93be26a204318.zh-cn.xlf" r:id="rId285"/>
     <hyperlink ref="A94" display="dsc_reporting.md" r:id="rId286"/>
     <hyperlink ref="B94" display=".md" r:id="rId287"/>
-    <hyperlink ref="D94" display="dsc_reporting.b042cd21b9bcfc8e50bc361ddee59333602fad42.fr-fr.xlf" r:id="rId288"/>
+    <hyperlink ref="D94" display="dsc_reporting.b042cd21b9bcfc8e50bc361ddee59333602fad42.zh-cn.xlf" r:id="rId288"/>
     <hyperlink ref="A95" display="dsc_repository.md" r:id="rId289"/>
     <hyperlink ref="B95" display=".md" r:id="rId290"/>
-    <hyperlink ref="D95" display="dsc_repository.ec5040a823a6b64e969393e00f3d859fd0b4551c.fr-fr.xlf" r:id="rId291"/>
+    <hyperlink ref="D95" display="dsc_repository.ec5040a823a6b64e969393e00f3d859fd0b4551c.zh-cn.xlf" r:id="rId291"/>
     <hyperlink ref="A96" display="dsc_resourcedebugging.md" r:id="rId292"/>
     <hyperlink ref="B96" display=".md" r:id="rId293"/>
-    <hyperlink ref="D96" display="dsc_resourcedebugging.95c69e55eb065b349f52e18126d699b1906ba03f.fr-fr.xlf" r:id="rId294"/>
+    <hyperlink ref="D96" display="dsc_resourcedebugging.95c69e55eb065b349f52e18126d699b1906ba03f.zh-cn.xlf" r:id="rId294"/>
     <hyperlink ref="A97" display="dsc_runas.md" r:id="rId295"/>
     <hyperlink ref="B97" display=".md" r:id="rId296"/>
-    <hyperlink ref="D97" display="dsc_runas.9e19a42a6d5e1ea1772358a6fd8ff24b98a5b6ba.fr-fr.xlf" r:id="rId297"/>
+    <hyperlink ref="D97" display="dsc_runas.9e19a42a6d5e1ea1772358a6fd8ff24b98a5b6ba.zh-cn.xlf" r:id="rId297"/>
     <hyperlink ref="A98" display="dsc_setdsclcm.md" r:id="rId298"/>
     <hyperlink ref="B98" display=".md" r:id="rId299"/>
-    <hyperlink ref="D98" display="dsc_setdsclcm.1f0e3cab81cf5fc1feda678f202451fe150632e3.fr-fr.xlf" r:id="rId300"/>
+    <hyperlink ref="D98" display="dsc_setdsclcm.1f0e3cab81cf5fc1feda678f202451fe150632e3.zh-cn.xlf" r:id="rId300"/>
     <hyperlink ref="A99" display="dsc_statestatus.md" r:id="rId301"/>
     <hyperlink ref="B99" display=".md" r:id="rId302"/>
-    <hyperlink ref="D99" display="dsc_statestatus.b6f3670f776a8f63a705ba16bed2f20be34fc48f.fr-fr.xlf" r:id="rId303"/>
+    <hyperlink ref="D99" display="dsc_statestatus.b6f3670f776a8f63a705ba16bed2f20be34fc48f.zh-cn.xlf" r:id="rId303"/>
     <hyperlink ref="A100" display="dsc_sxsresource.md" r:id="rId304"/>
     <hyperlink ref="B100" display=".md" r:id="rId305"/>
-    <hyperlink ref="D100" display="dsc_sxsresource.c9d4ce6109370ac1cbc1fb07f191e02f9a61d5d3.fr-fr.xlf" r:id="rId306"/>
+    <hyperlink ref="D100" display="dsc_sxsresource.c9d4ce6109370ac1cbc1fb07f191e02f9a61d5d3.zh-cn.xlf" r:id="rId306"/>
     <hyperlink ref="A101" display="dsc_testconfiguration.md" r:id="rId307"/>
     <hyperlink ref="B101" display=".md" r:id="rId308"/>
-    <hyperlink ref="D101" display="dsc_testconfiguration.b0e5afe2c8f173ebe49c97c9ea9a2f11d81ea5fa.fr-fr.xlf" r:id="rId309"/>
+    <hyperlink ref="D101" display="dsc_testconfiguration.b0e5afe2c8f173ebe49c97c9ea9a2f11d81ea5fa.zh-cn.xlf" r:id="rId309"/>
     <hyperlink ref="A102" display="dsc_updateconfig.md" r:id="rId310"/>
     <hyperlink ref="B102" display=".md" r:id="rId311"/>
-    <hyperlink ref="D102" display="dsc_updateconfig.a07eb85e3458d42d7ab1ed5c57dcfc70df709d07.fr-fr.xlf" r:id="rId312"/>
+    <hyperlink ref="D102" display="dsc_updateconfig.a07eb85e3458d42d7ab1ed5c57dcfc70df709d07.zh-cn.xlf" r:id="rId312"/>
     <hyperlink ref="A103" display="dsc_waitfor.md" r:id="rId313"/>
     <hyperlink ref="B103" display=".md" r:id="rId314"/>
-    <hyperlink ref="D103" display="dsc_waitfor.2b09933f08f1020166ce0f0cd7548a5a3845c48f.fr-fr.xlf" r:id="rId315"/>
+    <hyperlink ref="D103" display="dsc_waitfor.2b09933f08f1020166ce0f0cd7548a5a3845c48f.zh-cn.xlf" r:id="rId315"/>
     <hyperlink ref="A104" display="dsc_wow64.md" r:id="rId316"/>
     <hyperlink ref="B104" display=".md" r:id="rId317"/>
-    <hyperlink ref="D104" display="dsc_wow64.ea039aaa1bd77415311fc30d80fed43cda07a6e3.fr-fr.xlf" r:id="rId318"/>
+    <hyperlink ref="D104" display="dsc_wow64.ea039aaa1bd77415311fc30d80fed43cda07a6e3.zh-cn.xlf" r:id="rId318"/>
     <hyperlink ref="A105" display="feedback.md" r:id="rId319"/>
     <hyperlink ref="B105" display=".md" r:id="rId320"/>
-    <hyperlink ref="D105" display="feedback.3662230166299ef7c1fb7a7a7f5cdbd64b1d812a.fr-fr.xlf" r:id="rId321"/>
+    <hyperlink ref="D105" display="feedback.3662230166299ef7c1fb7a7a7f5cdbd64b1d812a.zh-cn.xlf" r:id="rId321"/>
     <hyperlink ref="A106" display="feedback_archive.md" r:id="rId322"/>
     <hyperlink ref="B106" display=".md" r:id="rId323"/>
-    <hyperlink ref="D106" display="feedback_archive.20de26911a704368058401c7e2bd6ebaac692ff5.fr-fr.xlf" r:id="rId324"/>
+    <hyperlink ref="D106" display="feedback_archive.20de26911a704368058401c7e2bd6ebaac692ff5.zh-cn.xlf" r:id="rId324"/>
     <hyperlink ref="A107" display="feedback_clipboard.md" r:id="rId325"/>
     <hyperlink ref="B107" display=".md" r:id="rId326"/>
-    <hyperlink ref="D107" display="feedback_clipboard.872e5c147ef02cb86067651f41e3c00b55386664.fr-fr.xlf" r:id="rId327"/>
+    <hyperlink ref="D107" display="feedback_clipboard.872e5c147ef02cb86067651f41e3c00b55386664.zh-cn.xlf" r:id="rId327"/>
     <hyperlink ref="A108" display="feedback_cmdlets.md" r:id="rId328"/>
     <hyperlink ref="B108" display=".md" r:id="rId329"/>
-    <hyperlink ref="D108" display="feedback_cmdlets.a4c0dfb806ca0da232eeb75ad3706177b8a5ec48.fr-fr.xlf" r:id="rId330"/>
+    <hyperlink ref="D108" display="feedback_cmdlets.a4c0dfb806ca0da232eeb75ad3706177b8a5ec48.zh-cn.xlf" r:id="rId330"/>
     <hyperlink ref="A109" display="feedback_convertfromString.md" r:id="rId331"/>
     <hyperlink ref="B109" display=".md" r:id="rId332"/>
-    <hyperlink ref="D109" display="feedback_convertfromString.acdeaa33e8fa59b93649b6abf3a7d5ef64fb7664.fr-fr.xlf" r:id="rId333"/>
+    <hyperlink ref="D109" display="feedback_convertfromString.acdeaa33e8fa59b93649b6abf3a7d5ef64fb7664.zh-cn.xlf" r:id="rId333"/>
     <hyperlink ref="A110" display="feedback_convertstring.md" r:id="rId334"/>
     <hyperlink ref="B110" display=".md" r:id="rId335"/>
-    <hyperlink ref="D110" display="feedback_convertstring.42e964e30093962871c3a4d586ed6c54f25f840d.fr-fr.xlf" r:id="rId336"/>
+    <hyperlink ref="D110" display="feedback_convertstring.42e964e30093962871c3a4d586ed6c54f25f840d.zh-cn.xlf" r:id="rId336"/>
     <hyperlink ref="A111" display="feedback_fileinfo.md" r:id="rId337"/>
     <hyperlink ref="B111" display=".md" r:id="rId338"/>
-    <hyperlink ref="D111" display="feedback_fileinfo.0192edad2d6504d26a9632f95fc9e5b66ffd8003.fr-fr.xlf" r:id="rId339"/>
+    <hyperlink ref="D111" display="feedback_fileinfo.0192edad2d6504d26a9632f95fc9e5b66ffd8003.zh-cn.xlf" r:id="rId339"/>
     <hyperlink ref="A112" display="feedback_formathex.md" r:id="rId340"/>
     <hyperlink ref="B112" display=".md" r:id="rId341"/>
-    <hyperlink ref="D112" display="feedback_formathex.f97931c887efb620e5f4314facc1f0e20e3dffbe.fr-fr.xlf" r:id="rId342"/>
+    <hyperlink ref="D112" display="feedback_formathex.f97931c887efb620e5f4314facc1f0e20e3dffbe.zh-cn.xlf" r:id="rId342"/>
     <hyperlink ref="A113" display="feedback_getchilditem.md" r:id="rId343"/>
     <hyperlink ref="B113" display=".md" r:id="rId344"/>
-    <hyperlink ref="D113" display="feedback_getchilditem.ce02ca20cc4417a80fe65eb509a8e92f2cecc79c.fr-fr.xlf" r:id="rId345"/>
+    <hyperlink ref="D113" display="feedback_getchilditem.ce02ca20cc4417a80fe65eb509a8e92f2cecc79c.zh-cn.xlf" r:id="rId345"/>
     <hyperlink ref="A114" display="feedback_moduleversionranges.md" r:id="rId346"/>
     <hyperlink ref="B114" display=".md" r:id="rId347"/>
-    <hyperlink ref="D114" display="feedback_moduleversionranges.611b3a3219d64dbfa1d01541b60a727b880a0c4b.fr-fr.xlf" r:id="rId348"/>
+    <hyperlink ref="D114" display="feedback_moduleversionranges.611b3a3219d64dbfa1d01541b60a727b880a0c4b.zh-cn.xlf" r:id="rId348"/>
     <hyperlink ref="A115" display="feedback_newguid.md" r:id="rId349"/>
     <hyperlink ref="B115" display=".md" r:id="rId350"/>
-    <hyperlink ref="D115" display="feedback_newguid.f8756fbdb96e6fe06a7e0cbb6ac4af32b1c64983.fr-fr.xlf" r:id="rId351"/>
+    <hyperlink ref="D115" display="feedback_newguid.f8756fbdb96e6fe06a7e0cbb6ac4af32b1c64983.zh-cn.xlf" r:id="rId351"/>
     <hyperlink ref="A116" display="feedback_nonewline.md" r:id="rId352"/>
     <hyperlink ref="B116" display=".md" r:id="rId353"/>
-    <hyperlink ref="D116" display="feedback_nonewline.7a9b7e24c50399879089bba2b8eee7dc325572e2.fr-fr.xlf" r:id="rId354"/>
+    <hyperlink ref="D116" display="feedback_nonewline.7a9b7e24c50399879089bba2b8eee7dc325572e2.zh-cn.xlf" r:id="rId354"/>
     <hyperlink ref="A117" display="feedback_symbolic.md" r:id="rId355"/>
     <hyperlink ref="B117" display=".md" r:id="rId356"/>
-    <hyperlink ref="D117" display="feedback_symbolic.1c3ac8128fb9df60512ec024044d48be7d0cb59f.fr-fr.xlf" r:id="rId357"/>
+    <hyperlink ref="D117" display="feedback_symbolic.1c3ac8128fb9df60512ec024044d48be7d0cb59f.zh-cn.xlf" r:id="rId357"/>
     <hyperlink ref="A118" display="feedback_tempfile.md" r:id="rId358"/>
     <hyperlink ref="B118" display=".md" r:id="rId359"/>
-    <hyperlink ref="D118" display="feedback_tempfile.fc029065af6bbba3a8c4abbf36023bede7d1416d.fr-fr.xlf" r:id="rId360"/>
+    <hyperlink ref="D118" display="feedback_tempfile.fc029065af6bbba3a8c4abbf36023bede7d1416d.zh-cn.xlf" r:id="rId360"/>
     <hyperlink ref="A119" display="DscResourceDebugging.jpg" r:id="rId361"/>
     <hyperlink ref="B119" display=".jpg" r:id="rId362"/>
     <hyperlink ref="D119" display="ba1897f38317f5fe38f2d8caf0efcc57bc8bb19d.jpg" r:id="rId363"/>
@@ -6658,76 +6658,76 @@
     <hyperlink ref="D121" display="9a44a53029d37d4165bbffbdcaa79d9be76e5fac.jpg" r:id="rId369"/>
     <hyperlink ref="A122" display="informationstream_overview.md" r:id="rId370"/>
     <hyperlink ref="B122" display=".md" r:id="rId371"/>
-    <hyperlink ref="D122" display="informationstream_overview.d2f238b2b4021ccdb7271cf89f53d58970d56cf5.fr-fr.xlf" r:id="rId372"/>
+    <hyperlink ref="D122" display="informationstream_overview.d2f238b2b4021ccdb7271cf89f53d58970d56cf5.zh-cn.xlf" r:id="rId372"/>
     <hyperlink ref="A123" display="install.md" r:id="rId373"/>
     <hyperlink ref="B123" display=".md" r:id="rId374"/>
-    <hyperlink ref="D123" display="install.317fc924c0f766547c4725878af59c3c9d8facba.fr-fr.xlf" r:id="rId375"/>
+    <hyperlink ref="D123" display="install.317fc924c0f766547c4725878af59c3c9d8facba.zh-cn.xlf" r:id="rId375"/>
     <hyperlink ref="A124" display="jea_endpoint.md" r:id="rId376"/>
     <hyperlink ref="B124" display=".md" r:id="rId377"/>
-    <hyperlink ref="D124" display="jea_endpoint.1dc052fe583a907a6c090cf8bfd42293d94d2975.fr-fr.xlf" r:id="rId378"/>
+    <hyperlink ref="D124" display="jea_endpoint.1dc052fe583a907a6c090cf8bfd42293d94d2975.zh-cn.xlf" r:id="rId378"/>
     <hyperlink ref="A125" display="jea_overview.md" r:id="rId379"/>
     <hyperlink ref="B125" display=".md" r:id="rId380"/>
-    <hyperlink ref="D125" display="jea_overview.3fa3008e719be8235adffe51808ac66714940871.fr-fr.xlf" r:id="rId381"/>
+    <hyperlink ref="D125" display="jea_overview.3fa3008e719be8235adffe51808ac66714940871.zh-cn.xlf" r:id="rId381"/>
     <hyperlink ref="A126" display="jea_report.md" r:id="rId382"/>
     <hyperlink ref="B126" display=".md" r:id="rId383"/>
-    <hyperlink ref="D126" display="jea_report.7860cec6e93b7405844ccbbe5bc879921447ac0b.fr-fr.xlf" r:id="rId384"/>
+    <hyperlink ref="D126" display="jea_report.7860cec6e93b7405844ccbbe5bc879921447ac0b.zh-cn.xlf" r:id="rId384"/>
     <hyperlink ref="A127" display="limitation_dsc.md" r:id="rId385"/>
     <hyperlink ref="B127" display=".md" r:id="rId386"/>
-    <hyperlink ref="D127" display="limitation_dsc.3684c81bb088cba98089dffdb1a1e56e1c098335.fr-fr.xlf" r:id="rId387"/>
+    <hyperlink ref="D127" display="limitation_dsc.3684c81bb088cba98089dffdb1a1e56e1c098335.zh-cn.xlf" r:id="rId387"/>
     <hyperlink ref="A128" display="limitation_overview.md" r:id="rId388"/>
     <hyperlink ref="B128" display=".md" r:id="rId389"/>
-    <hyperlink ref="D128" display="limitation_overview.6cc9c8c028f5912636637d836aed7db0614de522.fr-fr.xlf" r:id="rId390"/>
+    <hyperlink ref="D128" display="limitation_overview.6cc9c8c028f5912636637d836aed7db0614de522.zh-cn.xlf" r:id="rId390"/>
     <hyperlink ref="A129" display="networkswitch_overview.md" r:id="rId391"/>
     <hyperlink ref="B129" display=".md" r:id="rId392"/>
-    <hyperlink ref="D129" display="networkswitch_overview.7a87eb0741cd43b8b9284ea6cb605920c4961b79.fr-fr.xlf" r:id="rId393"/>
+    <hyperlink ref="D129" display="networkswitch_overview.7a87eb0741cd43b8b9284ea6cb605920c4961b79.zh-cn.xlf" r:id="rId393"/>
     <hyperlink ref="A130" display="odata_overview.md" r:id="rId394"/>
     <hyperlink ref="B130" display=".md" r:id="rId395"/>
-    <hyperlink ref="D130" display="odata_overview.c3f7efdde29fe7ac5685a61cd61d75b65524a4c3.fr-fr.xlf" r:id="rId396"/>
+    <hyperlink ref="D130" display="odata_overview.c3f7efdde29fe7ac5685a61cd61d75b65524a4c3.zh-cn.xlf" r:id="rId396"/>
     <hyperlink ref="A131" display="oneget_cmdlets.md" r:id="rId397"/>
     <hyperlink ref="B131" display=".md" r:id="rId398"/>
-    <hyperlink ref="D131" display="oneget_cmdlets.469b2350a72495ac2cf62e4130b4df8036f5d135.fr-fr.xlf" r:id="rId399"/>
+    <hyperlink ref="D131" display="oneget_cmdlets.469b2350a72495ac2cf62e4130b4df8036f5d135.zh-cn.xlf" r:id="rId399"/>
     <hyperlink ref="A132" display="oneget_overview.md" r:id="rId400"/>
     <hyperlink ref="B132" display=".md" r:id="rId401"/>
-    <hyperlink ref="D132" display="oneget_overview.e71a25f36f957ab7471d259c6e716651f6f23c94.fr-fr.xlf" r:id="rId402"/>
+    <hyperlink ref="D132" display="oneget_overview.e71a25f36f957ab7471d259c6e716651f6f23c94.zh-cn.xlf" r:id="rId402"/>
     <hyperlink ref="A133" display="productincompat.md" r:id="rId403"/>
     <hyperlink ref="B133" display=".md" r:id="rId404"/>
-    <hyperlink ref="D133" display="productincompat.62bb00299c0283b5297001553476a745e28a49cb.fr-fr.xlf" r:id="rId405"/>
+    <hyperlink ref="D133" display="productincompat.62bb00299c0283b5297001553476a745e28a49cb.zh-cn.xlf" r:id="rId405"/>
     <hyperlink ref="A134" display="psget_module_overview.md" r:id="rId406"/>
     <hyperlink ref="B134" display=".md" r:id="rId407"/>
-    <hyperlink ref="D134" display="psget_module_overview.4149c468ffd0f17a2fabd03f90059c12effc3170.fr-fr.xlf" r:id="rId408"/>
+    <hyperlink ref="D134" display="psget_module_overview.4149c468ffd0f17a2fabd03f90059c12effc3170.zh-cn.xlf" r:id="rId408"/>
     <hyperlink ref="A135" display="psget_modulecmdlets.md" r:id="rId409"/>
     <hyperlink ref="B135" display=".md" r:id="rId410"/>
-    <hyperlink ref="D135" display="psget_modulecmdlets.1f808cfdf9a9aa920f88e15f7f5fa4701fe805e3.fr-fr.xlf" r:id="rId411"/>
+    <hyperlink ref="D135" display="psget_modulecmdlets.1f808cfdf9a9aa920f88e15f7f5fa4701fe805e3.zh-cn.xlf" r:id="rId411"/>
     <hyperlink ref="A136" display="psget_moduledependency.md" r:id="rId412"/>
     <hyperlink ref="B136" display=".md" r:id="rId413"/>
-    <hyperlink ref="D136" display="psget_moduledependency.89ba9310335ae64db5481a3c02034ac4fe01b6a2.fr-fr.xlf" r:id="rId414"/>
+    <hyperlink ref="D136" display="psget_moduledependency.89ba9310335ae64db5481a3c02034ac4fe01b6a2.zh-cn.xlf" r:id="rId414"/>
     <hyperlink ref="A137" display="psget_modulesxsinstall.md" r:id="rId415"/>
     <hyperlink ref="B137" display=".md" r:id="rId416"/>
-    <hyperlink ref="D137" display="psget_modulesxsinstall.110ba80d8f917899ef488b46bd15f5654f6ba06c.fr-fr.xlf" r:id="rId417"/>
+    <hyperlink ref="D137" display="psget_modulesxsinstall.110ba80d8f917899ef488b46bd15f5654f6ba06c.zh-cn.xlf" r:id="rId417"/>
     <hyperlink ref="A138" display="psget_psrepository.md" r:id="rId418"/>
     <hyperlink ref="B138" display=".md" r:id="rId419"/>
-    <hyperlink ref="D138" display="psget_psrepository.c4381b2ff7bb6496ab74ed8bb2b07325cfbfc056.fr-fr.xlf" r:id="rId420"/>
+    <hyperlink ref="D138" display="psget_psrepository.c4381b2ff7bb6496ab74ed8bb2b07325cfbfc056.zh-cn.xlf" r:id="rId420"/>
     <hyperlink ref="A139" display="psget_script_overview.md" r:id="rId421"/>
     <hyperlink ref="B139" display=".md" r:id="rId422"/>
-    <hyperlink ref="D139" display="psget_script_overview.f035cc99497d17dc73e3a61f214e40a5860fc70a.fr-fr.xlf" r:id="rId423"/>
+    <hyperlink ref="D139" display="psget_script_overview.f035cc99497d17dc73e3a61f214e40a5860fc70a.zh-cn.xlf" r:id="rId423"/>
     <hyperlink ref="A140" display="psget_scriptcmdlets.md" r:id="rId424"/>
     <hyperlink ref="B140" display=".md" r:id="rId425"/>
-    <hyperlink ref="D140" display="psget_scriptcmdlets.1762d5f29292d59c1afb37cb29eb11a34cf63990.fr-fr.xlf" r:id="rId426"/>
+    <hyperlink ref="D140" display="psget_scriptcmdlets.1762d5f29292d59c1afb37cb29eb11a34cf63990.zh-cn.xlf" r:id="rId426"/>
     <hyperlink ref="A141" display="releasenotes.md" r:id="rId427"/>
     <hyperlink ref="B141" display=".md" r:id="rId428"/>
-    <hyperlink ref="D141" display="releasenotes.311750b4da54b1d4ef7997b328edd6ff177fb71f.fr-fr.xlf" r:id="rId429"/>
+    <hyperlink ref="D141" display="releasenotes.311750b4da54b1d4ef7997b328edd6ff177fb71f.zh-cn.xlf" r:id="rId429"/>
     <hyperlink ref="A142" display="requirements.md" r:id="rId430"/>
     <hyperlink ref="B142" display=".md" r:id="rId431"/>
-    <hyperlink ref="D142" display="requirements.ef8332f358d65b1759bfd4c7336b11d1dc8c2d46.fr-fr.xlf" r:id="rId432"/>
+    <hyperlink ref="D142" display="requirements.ef8332f358d65b1759bfd4c7336b11d1dc8c2d46.zh-cn.xlf" r:id="rId432"/>
     <hyperlink ref="A143" display="sil_overview.md" r:id="rId433"/>
     <hyperlink ref="B143" display=".md" r:id="rId434"/>
-    <hyperlink ref="D143" display="sil_overview.a2b1f7c716aad317993a5eaffba21fa28ce0c0d8.fr-fr.xlf" r:id="rId435"/>
+    <hyperlink ref="D143" display="sil_overview.a2b1f7c716aad317993a5eaffba21fa28ce0c0d8.zh-cn.xlf" r:id="rId435"/>
     <hyperlink ref="A144" display="TOC.md" r:id="rId436"/>
     <hyperlink ref="B144" display=".md" r:id="rId437"/>
-    <hyperlink ref="D144" display="TOC.60497266061c38453b3db893ec675eb65584af89.fr-fr.xlf" r:id="rId438"/>
+    <hyperlink ref="D144" display="TOC.60497266061c38453b3db893ec675eb65584af89.zh-cn.xlf" r:id="rId438"/>
     <hyperlink ref="A145" display="uninstall.md" r:id="rId439"/>
     <hyperlink ref="B145" display=".md" r:id="rId440"/>
-    <hyperlink ref="D145" display="uninstall.b07adaaaf7f41869dfa201b88e29342aced76c96.fr-fr.xlf" r:id="rId441"/>
+    <hyperlink ref="D145" display="uninstall.b07adaaaf7f41869dfa201b88e29342aced76c96.zh-cn.xlf" r:id="rId441"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/PowerShell/powerShell-Docs/live/localization-status.xlsx
+++ b/ol-handback/PowerShell/powerShell-Docs/live/localization-status.xlsx
@@ -6,31 +6,64 @@
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId2"/>
-    <sheet name="de-de" sheetId="2" r:id="rId3"/>
+    <sheet name="es-es" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="335">
   <si>
     <t>File Name</t>
   </si>
   <si>
-    <t>de-de</t>
+    <t>es-es</t>
   </si>
   <si>
     <t>Latest Handoff Date</t>
   </si>
   <si>
+    <t>archiveResource.md</t>
+  </si>
+  <si>
+    <t>Handed back: in sync with en-US</t>
+  </si>
+  <si>
+    <t>2016-02-23 03:02:55</t>
+  </si>
+  <si>
+    <t>authoringResourceClass.md</t>
+  </si>
+  <si>
+    <t>2016-43-02 17:43:56</t>
+  </si>
+  <si>
+    <t>authoringResourceComposite.md</t>
+  </si>
+  <si>
+    <t>authoringResourceMOF.md</t>
+  </si>
+  <si>
+    <t>authoringResourceMofDesigner.md</t>
+  </si>
+  <si>
+    <t>configurations.md</t>
+  </si>
+  <si>
+    <t>enactingConfigurations.md</t>
+  </si>
+  <si>
+    <t>environmentResource.md</t>
+  </si>
+  <si>
+    <t>fileResource.md</t>
+  </si>
+  <si>
     <t>PartialConfig1.jpg</t>
   </si>
   <si>
-    <t>Handed back: in sync with en-US</t>
-  </si>
-  <si>
-    <t>2016-02-11 01:02:28</t>
+    <t>2016-03-11 01:03:45</t>
   </si>
   <si>
     <t>PartialConfigPullServer.jpg</t>
@@ -42,10 +75,73 @@
     <t>Push.png</t>
   </si>
   <si>
+    <t>lnxArchiveResource.md</t>
+  </si>
+  <si>
+    <t>lnxBuiltInResources.md</t>
+  </si>
+  <si>
+    <t>lnxEnvironmentResource.md</t>
+  </si>
+  <si>
+    <t>lnxFileLineResource.md</t>
+  </si>
+  <si>
+    <t>lnxFileResource.md</t>
+  </si>
+  <si>
+    <t>lnxGroupResource.md</t>
+  </si>
+  <si>
+    <t>lnxScriptResource.md</t>
+  </si>
+  <si>
+    <t>lnxServiceResource.md</t>
+  </si>
+  <si>
+    <t>lnxSshAuthorizedKeysResource.md</t>
+  </si>
+  <si>
+    <t>lnxUserResource.md</t>
+  </si>
+  <si>
+    <t>logResource.md</t>
+  </si>
+  <si>
     <t>metaConfig.md</t>
   </si>
   <si>
-    <t>2016-01-23 03:01:20</t>
+    <t>overview.md</t>
+  </si>
+  <si>
+    <t>packageResource.md</t>
+  </si>
+  <si>
+    <t>partialConfigs.md</t>
+  </si>
+  <si>
+    <t>pullClient.md</t>
+  </si>
+  <si>
+    <t>queryServerNodes.md</t>
+  </si>
+  <si>
+    <t>registryResource.md</t>
+  </si>
+  <si>
+    <t>reportServer.md</t>
+  </si>
+  <si>
+    <t>resources.md</t>
+  </si>
+  <si>
+    <t>scriptResource.md</t>
+  </si>
+  <si>
+    <t>secureServer.md</t>
+  </si>
+  <si>
+    <t>serviceResource.md</t>
   </si>
   <si>
     <t>windowsfeatureResource.md</t>
@@ -54,37 +150,16 @@
     <t>authoringResource.md</t>
   </si>
   <si>
-    <t>In Translation</t>
-  </si>
-  <si>
-    <t>archiveResource.md</t>
-  </si>
-  <si>
     <t>Ready for handoff</t>
   </si>
   <si>
-    <t>authoringResourceClass.md</t>
-  </si>
-  <si>
-    <t>2016-52-02 17:52:44</t>
-  </si>
-  <si>
-    <t>authoringResourceComposite.md</t>
-  </si>
-  <si>
-    <t>authoringResourceMOF.md</t>
-  </si>
-  <si>
     <t>authoringResourceMofCS.md</t>
   </si>
   <si>
-    <t>authoringResourceMofDesigner.md</t>
-  </si>
-  <si>
     <t>builtInResource.md</t>
   </si>
   <si>
-    <t>2016-23-21 17:23:01</t>
+    <t>2016-23-21 17:23:27</t>
   </si>
   <si>
     <t>configData.md</t>
@@ -93,28 +168,16 @@
     <t>configDataCredentials.md</t>
   </si>
   <si>
-    <t>configurations.md</t>
-  </si>
-  <si>
     <t>debugResource.md</t>
   </si>
   <si>
-    <t>2016-42-10 21:42:08</t>
+    <t>2016-43-10 21:43:29</t>
   </si>
   <si>
     <t>decisionMaker.md</t>
   </si>
   <si>
-    <t>2016-31-07 19:31:26</t>
-  </si>
-  <si>
-    <t>enactingConfigurations.md</t>
-  </si>
-  <si>
-    <t>environmentResource.md</t>
-  </si>
-  <si>
-    <t>fileResource.md</t>
+    <t>2016-32-07 19:32:30</t>
   </si>
   <si>
     <t>gettingStarted.md</t>
@@ -126,70 +189,25 @@
     <t>CredentialEncryptionDiagram1.png</t>
   </si>
   <si>
-    <t>lnxArchiveResource.md</t>
-  </si>
-  <si>
-    <t>lnxBuiltInResources.md</t>
-  </si>
-  <si>
-    <t>lnxEnvironmentResource.md</t>
-  </si>
-  <si>
-    <t>lnxFileLineResource.md</t>
-  </si>
-  <si>
-    <t>lnxFileResource.md</t>
-  </si>
-  <si>
     <t>lnxGettingStarted.md</t>
   </si>
   <si>
-    <t>2016-32-10 20:32:18</t>
-  </si>
-  <si>
-    <t>lnxGroupResource.md</t>
+    <t>2016-33-10 20:33:33</t>
   </si>
   <si>
     <t>lnxPackageResource.md</t>
   </si>
   <si>
-    <t>lnxScriptResource.md</t>
-  </si>
-  <si>
-    <t>lnxServiceResource.md</t>
-  </si>
-  <si>
-    <t>lnxSshAuthorizedKeysResource.md</t>
-  </si>
-  <si>
-    <t>lnxUserResource.md</t>
-  </si>
-  <si>
-    <t>logResource.md</t>
-  </si>
-  <si>
     <t>metaConfig4.md</t>
   </si>
   <si>
-    <t>overview.md</t>
-  </si>
-  <si>
-    <t>packageResource.md</t>
-  </si>
-  <si>
-    <t>partialConfigs.md</t>
-  </si>
-  <si>
-    <t>pullClient.md</t>
-  </si>
-  <si>
     <t>pullClientConfigID.md</t>
   </si>
   <si>
     <t>pullClientConfigID4.md</t>
   </si>
   <si>
-    <t>2016-01-09 20:01:41</t>
+    <t>2016-03-09 20:03:03</t>
   </si>
   <si>
     <t>pullClientConfigNames.md</t>
@@ -201,43 +219,22 @@
     <t>pullServerSMB.md</t>
   </si>
   <si>
-    <t>queryServerNodes.md</t>
-  </si>
-  <si>
-    <t>registryResource.md</t>
-  </si>
-  <si>
-    <t>reportServer.md</t>
-  </si>
-  <si>
     <t>resourceAuthoringChecklist.md</t>
   </si>
   <si>
-    <t>resources.md</t>
-  </si>
-  <si>
     <t>runAsUser.md</t>
   </si>
   <si>
-    <t>scriptResource.md</t>
-  </si>
-  <si>
     <t>secureMOF.md</t>
   </si>
   <si>
-    <t>secureServer.md</t>
-  </si>
-  <si>
-    <t>serviceResource.md</t>
-  </si>
-  <si>
     <t>TOC.md</t>
   </si>
   <si>
     <t>troubleshooting.md</t>
   </si>
   <si>
-    <t>2016-11-04 21:11:35</t>
+    <t>2016-12-04 21:12:23</t>
   </si>
   <si>
     <t>userResource.md</t>
@@ -249,7 +246,7 @@
     <t>audit_cms.md</t>
   </si>
   <si>
-    <t>2016-12-08 01:12:00</t>
+    <t>2016-14-08 01:14:29</t>
   </si>
   <si>
     <t>audit_overview.md</t>
@@ -489,7 +486,7 @@
     <t>sil_overview.md</t>
   </si>
   <si>
-    <t>2016-51-16 22:51:51</t>
+    <t>2016-52-16 22:52:09</t>
   </si>
   <si>
     <t>uninstall.md</t>
@@ -528,18 +525,51 @@
     <t>Error Detail</t>
   </si>
   <si>
+    <t>.md</t>
+  </si>
+  <si>
+    <t>archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.es-es.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-21 21:55:10</t>
+  </si>
+  <si>
+    <t>Include</t>
+  </si>
+  <si>
+    <t>authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.es-es.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-02 17:43:56</t>
+  </si>
+  <si>
+    <t>authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.es-es.xlf</t>
+  </si>
+  <si>
+    <t>authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.es-es.xlf</t>
+  </si>
+  <si>
+    <t>authoringResourceMofDesigner.09b1adffc4afb0d9b1154880e2dab0b25d82d51b.es-es.xlf</t>
+  </si>
+  <si>
+    <t>configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.es-es.xlf</t>
+  </si>
+  <si>
+    <t>enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.es-es.xlf</t>
+  </si>
+  <si>
+    <t>environmentResource.eb91ffd4cd8bdb9476e5a83de1a20d3b7b502a56.es-es.xlf</t>
+  </si>
+  <si>
+    <t>fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.es-es.xlf</t>
+  </si>
+  <si>
     <t>.jpg</t>
   </si>
   <si>
     <t>3e61149f7b05f74d662d3038233013ffdcbed1a3.jpg</t>
   </si>
   <si>
-    <t>2016-03-11 01:02:28</t>
-  </si>
-  <si>
-    <t>2016-03-17 02:07:40</t>
-  </si>
-  <si>
     <t>IsDependency</t>
   </si>
   <si>
@@ -561,91 +591,115 @@
     <t>d3008e3fe7da4c118c693d2b34a0b329780f8d86.png</t>
   </si>
   <si>
-    <t>.md</t>
-  </si>
-  <si>
-    <t>metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-02-23 03:01:20</t>
-  </si>
-  <si>
-    <t>2016-03-21 21:14:51</t>
-  </si>
-  <si>
-    <t>Include</t>
-  </si>
-  <si>
-    <t>windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.de-de.xlf</t>
-  </si>
-  <si>
-    <t>authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.de-de.xlf</t>
+    <t>lnxArchiveResource.095aab7d23720fd394f2573c30223a6bbcc0a4ef.es-es.xlf</t>
+  </si>
+  <si>
+    <t>lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.es-es.xlf</t>
+  </si>
+  <si>
+    <t>lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.es-es.xlf</t>
+  </si>
+  <si>
+    <t>lnxFileLineResource.d91fc802a4c6cdbff5a2e35f92b34c36c6dbf5eb.es-es.xlf</t>
+  </si>
+  <si>
+    <t>lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.es-es.xlf</t>
+  </si>
+  <si>
+    <t>lnxGroupResource.0cedb684d797032bd47cdb852629c36da0884567.es-es.xlf</t>
+  </si>
+  <si>
+    <t>lnxScriptResource.1344a5d5b807ee53705e93842d9ef5e25a883359.es-es.xlf</t>
+  </si>
+  <si>
+    <t>lnxServiceResource.e637c7f7b18939ec8c16eadf2c42ab00e236fb7b.es-es.xlf</t>
+  </si>
+  <si>
+    <t>lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.es-es.xlf</t>
+  </si>
+  <si>
+    <t>lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.es-es.xlf</t>
+  </si>
+  <si>
+    <t>logResource.07af9dfcf6076ef19059178c3b404762677920f0.es-es.xlf</t>
+  </si>
+  <si>
+    <t>metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.es-es.xlf</t>
+  </si>
+  <si>
+    <t>overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.es-es.xlf</t>
+  </si>
+  <si>
+    <t>packageResource.132c4949cee174dc0dc324456d220436cb9884e6.es-es.xlf</t>
+  </si>
+  <si>
+    <t>partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.es-es.xlf</t>
+  </si>
+  <si>
+    <t>pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.es-es.xlf</t>
+  </si>
+  <si>
+    <t>queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.es-es.xlf</t>
+  </si>
+  <si>
+    <t>registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.es-es.xlf</t>
+  </si>
+  <si>
+    <t>reportServer.53df4bc8b7b80c0a19c11434bdf5f4304e8248f7.es-es.xlf</t>
+  </si>
+  <si>
+    <t>resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.es-es.xlf</t>
+  </si>
+  <si>
+    <t>scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.es-es.xlf</t>
+  </si>
+  <si>
+    <t>secureServer.ce207607010d18109152742ba23c923cd3cddba2.es-es.xlf</t>
+  </si>
+  <si>
+    <t>serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.es-es.xlf</t>
+  </si>
+  <si>
+    <t>windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.es-es.xlf</t>
+  </si>
+  <si>
+    <t>authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.es-es.xlf</t>
   </si>
   <si>
     <t>0001-01-01 00:00:00</t>
   </si>
   <si>
-    <t>archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.de-de.xlf</t>
-  </si>
-  <si>
-    <t>authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-02 17:52:44</t>
-  </si>
-  <si>
-    <t>authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.de-de.xlf</t>
-  </si>
-  <si>
-    <t>authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.de-de.xlf</t>
-  </si>
-  <si>
-    <t>authoringResourceMofCS.0647b27b00ec52b2f524a2856e48bc7c29c0f867.de-de.xlf</t>
-  </si>
-  <si>
-    <t>authoringResourceMofDesigner.09b1adffc4afb0d9b1154880e2dab0b25d82d51b.de-de.xlf</t>
-  </si>
-  <si>
-    <t>builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-21 17:23:01</t>
-  </si>
-  <si>
-    <t>configData.51d01a46dd9af8b425788cc485523b09f8470b95.de-de.xlf</t>
-  </si>
-  <si>
-    <t>configDataCredentials.f3e75119e7d93b2f914823c5ea23bfde3935a874.de-de.xlf</t>
-  </si>
-  <si>
-    <t>configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.de-de.xlf</t>
-  </si>
-  <si>
-    <t>debugResource.ac634156affe5c723cc149a298f5aa4268d17016.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-10 21:42:08</t>
-  </si>
-  <si>
-    <t>decisionMaker.01553169f2ba4241995260fad925e2784b5f5567.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-07 19:31:26</t>
-  </si>
-  <si>
-    <t>enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.de-de.xlf</t>
-  </si>
-  <si>
-    <t>environmentResource.eb91ffd4cd8bdb9476e5a83de1a20d3b7b502a56.de-de.xlf</t>
-  </si>
-  <si>
-    <t>fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.de-de.xlf</t>
-  </si>
-  <si>
-    <t>gettingStarted.92e02d8bd273df5c304475a9b4fa251c22a7ea19.de-de.xlf</t>
-  </si>
-  <si>
-    <t>groupResource.d19d416269795c92566b62c36b9782062dcea43e.de-de.xlf</t>
+    <t>authoringResourceMofCS.0647b27b00ec52b2f524a2856e48bc7c29c0f867.es-es.xlf</t>
+  </si>
+  <si>
+    <t>builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.es-es.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-21 17:23:27</t>
+  </si>
+  <si>
+    <t>configData.51d01a46dd9af8b425788cc485523b09f8470b95.es-es.xlf</t>
+  </si>
+  <si>
+    <t>configDataCredentials.f3e75119e7d93b2f914823c5ea23bfde3935a874.es-es.xlf</t>
+  </si>
+  <si>
+    <t>debugResource.ac634156affe5c723cc149a298f5aa4268d17016.es-es.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-10 21:43:29</t>
+  </si>
+  <si>
+    <t>decisionMaker.01553169f2ba4241995260fad925e2784b5f5567.es-es.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-07 19:32:30</t>
+  </si>
+  <si>
+    <t>gettingStarted.92e02d8bd273df5c304475a9b4fa251c22a7ea19.es-es.xlf</t>
+  </si>
+  <si>
+    <t>groupResource.d19d416269795c92566b62c36b9782062dcea43e.es-es.xlf</t>
   </si>
   <si>
     <t>d9f53a805041164f5070845c0fd216b63d17ae58.png</t>
@@ -654,295 +708,223 @@
     <t>dsc\secureMOF.md</t>
   </si>
   <si>
-    <t>lnxArchiveResource.095aab7d23720fd394f2573c30223a6bbcc0a4ef.de-de.xlf</t>
-  </si>
-  <si>
-    <t>lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.de-de.xlf</t>
-  </si>
-  <si>
-    <t>lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.de-de.xlf</t>
-  </si>
-  <si>
-    <t>lnxFileLineResource.d91fc802a4c6cdbff5a2e35f92b34c36c6dbf5eb.de-de.xlf</t>
-  </si>
-  <si>
-    <t>lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.de-de.xlf</t>
-  </si>
-  <si>
-    <t>lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-10 20:32:18</t>
-  </si>
-  <si>
-    <t>lnxGroupResource.0cedb684d797032bd47cdb852629c36da0884567.de-de.xlf</t>
-  </si>
-  <si>
-    <t>lnxPackageResource.db35ab938bbfbb38cae53fe9ae98fd22b5f18009.de-de.xlf</t>
-  </si>
-  <si>
-    <t>lnxScriptResource.1344a5d5b807ee53705e93842d9ef5e25a883359.de-de.xlf</t>
-  </si>
-  <si>
-    <t>lnxServiceResource.e637c7f7b18939ec8c16eadf2c42ab00e236fb7b.de-de.xlf</t>
-  </si>
-  <si>
-    <t>lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.de-de.xlf</t>
-  </si>
-  <si>
-    <t>lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.de-de.xlf</t>
-  </si>
-  <si>
-    <t>logResource.07af9dfcf6076ef19059178c3b404762677920f0.de-de.xlf</t>
-  </si>
-  <si>
-    <t>metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.de-de.xlf</t>
-  </si>
-  <si>
-    <t>overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.de-de.xlf</t>
-  </si>
-  <si>
-    <t>packageResource.132c4949cee174dc0dc324456d220436cb9884e6.de-de.xlf</t>
-  </si>
-  <si>
-    <t>partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.de-de.xlf</t>
-  </si>
-  <si>
-    <t>pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.de-de.xlf</t>
-  </si>
-  <si>
-    <t>pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.de-de.xlf</t>
-  </si>
-  <si>
-    <t>pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-09 20:01:41</t>
-  </si>
-  <si>
-    <t>pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.de-de.xlf</t>
-  </si>
-  <si>
-    <t>pullServer.4b925b277da29998394af746bdbdd508fda48909.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-21 21:11:44</t>
-  </si>
-  <si>
-    <t>pullServerSMB.772aec5ae27ccb19ced78e3eb665a4e16db1c4df.de-de.xlf</t>
-  </si>
-  <si>
-    <t>queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.de-de.xlf</t>
-  </si>
-  <si>
-    <t>registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.de-de.xlf</t>
-  </si>
-  <si>
-    <t>reportServer.53df4bc8b7b80c0a19c11434bdf5f4304e8248f7.de-de.xlf</t>
-  </si>
-  <si>
-    <t>resourceAuthoringChecklist.3b9ae254d826cc45519d37d06044f28a69bdfa69.de-de.xlf</t>
-  </si>
-  <si>
-    <t>resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.de-de.xlf</t>
-  </si>
-  <si>
-    <t>runAsUser.d2b90b6bc42ef965e454f9c9f5fd19bc7b488b34.de-de.xlf</t>
-  </si>
-  <si>
-    <t>scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.de-de.xlf</t>
-  </si>
-  <si>
-    <t>secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.de-de.xlf</t>
-  </si>
-  <si>
-    <t>secureServer.ce207607010d18109152742ba23c923cd3cddba2.de-de.xlf</t>
-  </si>
-  <si>
-    <t>serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.de-de.xlf</t>
-  </si>
-  <si>
-    <t>TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.de-de.xlf</t>
-  </si>
-  <si>
-    <t>troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-04 21:11:35</t>
-  </si>
-  <si>
-    <t>userResource.5de4fbe03e9e06934442ba451eb0564931863f45.de-de.xlf</t>
-  </si>
-  <si>
-    <t>windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.de-de.xlf</t>
-  </si>
-  <si>
-    <t>audit_cms.3e422ca243ac938b46bfcf1497a703e55bde970e.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-08 01:12:00</t>
-  </si>
-  <si>
-    <t>audit_overview.fc5b51e2734a2af986c9edf42b4395b1aad2435d.de-de.xlf</t>
-  </si>
-  <si>
-    <t>audit_script.e89f3a9316d1125e1efd23b41b756a3a6161016b.de-de.xlf</t>
-  </si>
-  <si>
-    <t>audit_transcript.c21a6554932939cbf4c744bf7c9f07cc4e1e7160.de-de.xlf</t>
-  </si>
-  <si>
-    <t>class_base.29a9fbe4987503d5575c151f4271f58398cb7e55.de-de.xlf</t>
-  </si>
-  <si>
-    <t>class_baseconstructor.82f951e800b06ccc68090b1be9923c8210a233ac.de-de.xlf</t>
-  </si>
-  <si>
-    <t>class_basemethod.6b60292188d0081f30fbaf4b111db8a439348f5b.de-de.xlf</t>
-  </si>
-  <si>
-    <t>class_interface.84a08fd30808364a820bdd4440de18ec4504a6c7.de-de.xlf</t>
-  </si>
-  <si>
-    <t>class_newtype.a9f52b670970046f8b1147d4ba646b73abb430dc.de-de.xlf</t>
-  </si>
-  <si>
-    <t>class_overview.91227b885afcb8df385ab601ab970b924eca2533.de-de.xlf</t>
-  </si>
-  <si>
-    <t>debug_overview.70b71c20b8b625704c25da28a58e804a048bafb0.de-de.xlf</t>
-  </si>
-  <si>
-    <t>dsc_authoring.364878cde8f156d8999773842812e0c08f70191c.de-de.xlf</t>
-  </si>
-  <si>
-    <t>dsc_classbasedresource.a3d6b22652db939b51db1218584247396454ae0f.de-de.xlf</t>
-  </si>
-  <si>
-    <t>dsc_confighelp.bcfa7e85acae98499089edc9fba25b68953d7bbf.de-de.xlf</t>
-  </si>
-  <si>
-    <t>dsc_directaccess.014c91015162b26b678e0a5fdfd453a3bf6e41b0.de-de.xlf</t>
-  </si>
-  <si>
-    <t>dsc_encryptedmof.a35c44de669ea81f25dd29f152f03493e52e327b.de-de.xlf</t>
-  </si>
-  <si>
-    <t>dsc_freqnomultiple.2848e52c73280aca59e73136bac0c2c7ae02aad6.de-de.xlf</t>
-  </si>
-  <si>
-    <t>dsc_getconfigurationstatus.1705e4bcaa9dfd9d69f00aecdc7ef0d04bf44899.de-de.xlf</t>
-  </si>
-  <si>
-    <t>dsc_identicalduplicate.eb7167ccd4a72d68aa1683327e9b3877927158ab.de-de.xlf</t>
-  </si>
-  <si>
-    <t>dsc_importdscresource.a0169ad862dfcaa5c958c07ecd52c856d5dc8436.de-de.xlf</t>
-  </si>
-  <si>
-    <t>dsc_improvements.d9ed6ffedf9d9650bb6b26b5ed611e420a0aacbb.de-de.xlf</t>
-  </si>
-  <si>
-    <t>dsc_lcmstate.21ea1c36f37c94e8e0363199fbd07bcced3aea40.de-de.xlf</t>
-  </si>
-  <si>
-    <t>dsc_metaconfiguration.e8bbca05aa1692ad54cadd83b93a1902f179f365.de-de.xlf</t>
-  </si>
-  <si>
-    <t>dsc_newresources.b9c40f591f875ea205c834f7675f3edbe1050592.de-de.xlf</t>
-  </si>
-  <si>
-    <t>dsc_nodeid.e3c9049aa6c1d151f8b286f28502537b2f8d22a4.de-de.xlf</t>
-  </si>
-  <si>
-    <t>dsc_partialconfig.a493787c3f8663ac3e2994162ffd1bee429544d3.de-de.xlf</t>
-  </si>
-  <si>
-    <t>dsc_partialconfig_mixedmode.ff4b9a8a421441da62574192650493bf2407028d.de-de.xlf</t>
-  </si>
-  <si>
-    <t>dsc_publishconfig.bfe86d4253abdd777c205caec637c50ec79103ee.de-de.xlf</t>
-  </si>
-  <si>
-    <t>dsc_refreshmode.b0529a06a4d3e07b3fce300f74760d63b27523f6.de-de.xlf</t>
-  </si>
-  <si>
-    <t>dsc_removeconfigdoc.d16cdab7eaedf468bcc38dae34e93be26a204318.de-de.xlf</t>
-  </si>
-  <si>
-    <t>dsc_reporting.b042cd21b9bcfc8e50bc361ddee59333602fad42.de-de.xlf</t>
-  </si>
-  <si>
-    <t>dsc_repository.ec5040a823a6b64e969393e00f3d859fd0b4551c.de-de.xlf</t>
-  </si>
-  <si>
-    <t>dsc_resourcedebugging.95c69e55eb065b349f52e18126d699b1906ba03f.de-de.xlf</t>
-  </si>
-  <si>
-    <t>dsc_runas.9e19a42a6d5e1ea1772358a6fd8ff24b98a5b6ba.de-de.xlf</t>
-  </si>
-  <si>
-    <t>dsc_setdsclcm.1f0e3cab81cf5fc1feda678f202451fe150632e3.de-de.xlf</t>
-  </si>
-  <si>
-    <t>dsc_statestatus.b6f3670f776a8f63a705ba16bed2f20be34fc48f.de-de.xlf</t>
-  </si>
-  <si>
-    <t>dsc_sxsresource.c9d4ce6109370ac1cbc1fb07f191e02f9a61d5d3.de-de.xlf</t>
-  </si>
-  <si>
-    <t>dsc_testconfiguration.b0e5afe2c8f173ebe49c97c9ea9a2f11d81ea5fa.de-de.xlf</t>
-  </si>
-  <si>
-    <t>dsc_updateconfig.a07eb85e3458d42d7ab1ed5c57dcfc70df709d07.de-de.xlf</t>
-  </si>
-  <si>
-    <t>dsc_waitfor.2b09933f08f1020166ce0f0cd7548a5a3845c48f.de-de.xlf</t>
-  </si>
-  <si>
-    <t>dsc_wow64.ea039aaa1bd77415311fc30d80fed43cda07a6e3.de-de.xlf</t>
-  </si>
-  <si>
-    <t>feedback.3662230166299ef7c1fb7a7a7f5cdbd64b1d812a.de-de.xlf</t>
-  </si>
-  <si>
-    <t>feedback_archive.20de26911a704368058401c7e2bd6ebaac692ff5.de-de.xlf</t>
-  </si>
-  <si>
-    <t>feedback_clipboard.872e5c147ef02cb86067651f41e3c00b55386664.de-de.xlf</t>
-  </si>
-  <si>
-    <t>feedback_cmdlets.a4c0dfb806ca0da232eeb75ad3706177b8a5ec48.de-de.xlf</t>
-  </si>
-  <si>
-    <t>feedback_convertfromString.acdeaa33e8fa59b93649b6abf3a7d5ef64fb7664.de-de.xlf</t>
-  </si>
-  <si>
-    <t>feedback_convertstring.42e964e30093962871c3a4d586ed6c54f25f840d.de-de.xlf</t>
-  </si>
-  <si>
-    <t>feedback_fileinfo.0192edad2d6504d26a9632f95fc9e5b66ffd8003.de-de.xlf</t>
-  </si>
-  <si>
-    <t>feedback_formathex.f97931c887efb620e5f4314facc1f0e20e3dffbe.de-de.xlf</t>
-  </si>
-  <si>
-    <t>feedback_getchilditem.ce02ca20cc4417a80fe65eb509a8e92f2cecc79c.de-de.xlf</t>
-  </si>
-  <si>
-    <t>feedback_moduleversionranges.611b3a3219d64dbfa1d01541b60a727b880a0c4b.de-de.xlf</t>
-  </si>
-  <si>
-    <t>feedback_newguid.f8756fbdb96e6fe06a7e0cbb6ac4af32b1c64983.de-de.xlf</t>
-  </si>
-  <si>
-    <t>feedback_nonewline.7a9b7e24c50399879089bba2b8eee7dc325572e2.de-de.xlf</t>
-  </si>
-  <si>
-    <t>feedback_symbolic.1c3ac8128fb9df60512ec024044d48be7d0cb59f.de-de.xlf</t>
-  </si>
-  <si>
-    <t>feedback_tempfile.fc029065af6bbba3a8c4abbf36023bede7d1416d.de-de.xlf</t>
+    <t>lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.es-es.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-10 20:33:33</t>
+  </si>
+  <si>
+    <t>lnxPackageResource.db35ab938bbfbb38cae53fe9ae98fd22b5f18009.es-es.xlf</t>
+  </si>
+  <si>
+    <t>metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.es-es.xlf</t>
+  </si>
+  <si>
+    <t>pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.es-es.xlf</t>
+  </si>
+  <si>
+    <t>pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.es-es.xlf</t>
+  </si>
+  <si>
+    <t>pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.es-es.xlf</t>
+  </si>
+  <si>
+    <t>pullServer.4b925b277da29998394af746bdbdd508fda48909.es-es.xlf</t>
+  </si>
+  <si>
+    <t>pullServerSMB.772aec5ae27ccb19ced78e3eb665a4e16db1c4df.es-es.xlf</t>
+  </si>
+  <si>
+    <t>resourceAuthoringChecklist.3b9ae254d826cc45519d37d06044f28a69bdfa69.es-es.xlf</t>
+  </si>
+  <si>
+    <t>runAsUser.d2b90b6bc42ef965e454f9c9f5fd19bc7b488b34.es-es.xlf</t>
+  </si>
+  <si>
+    <t>secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.es-es.xlf</t>
+  </si>
+  <si>
+    <t>TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.es-es.xlf</t>
+  </si>
+  <si>
+    <t>troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.es-es.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-04 21:12:23</t>
+  </si>
+  <si>
+    <t>userResource.5de4fbe03e9e06934442ba451eb0564931863f45.es-es.xlf</t>
+  </si>
+  <si>
+    <t>windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.es-es.xlf</t>
+  </si>
+  <si>
+    <t>audit_cms.3e422ca243ac938b46bfcf1497a703e55bde970e.es-es.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-08 01:14:29</t>
+  </si>
+  <si>
+    <t>audit_overview.fc5b51e2734a2af986c9edf42b4395b1aad2435d.es-es.xlf</t>
+  </si>
+  <si>
+    <t>audit_script.e89f3a9316d1125e1efd23b41b756a3a6161016b.es-es.xlf</t>
+  </si>
+  <si>
+    <t>audit_transcript.c21a6554932939cbf4c744bf7c9f07cc4e1e7160.es-es.xlf</t>
+  </si>
+  <si>
+    <t>class_base.29a9fbe4987503d5575c151f4271f58398cb7e55.es-es.xlf</t>
+  </si>
+  <si>
+    <t>class_baseconstructor.82f951e800b06ccc68090b1be9923c8210a233ac.es-es.xlf</t>
+  </si>
+  <si>
+    <t>class_basemethod.6b60292188d0081f30fbaf4b111db8a439348f5b.es-es.xlf</t>
+  </si>
+  <si>
+    <t>class_interface.84a08fd30808364a820bdd4440de18ec4504a6c7.es-es.xlf</t>
+  </si>
+  <si>
+    <t>class_newtype.a9f52b670970046f8b1147d4ba646b73abb430dc.es-es.xlf</t>
+  </si>
+  <si>
+    <t>class_overview.91227b885afcb8df385ab601ab970b924eca2533.es-es.xlf</t>
+  </si>
+  <si>
+    <t>debug_overview.70b71c20b8b625704c25da28a58e804a048bafb0.es-es.xlf</t>
+  </si>
+  <si>
+    <t>dsc_authoring.364878cde8f156d8999773842812e0c08f70191c.es-es.xlf</t>
+  </si>
+  <si>
+    <t>dsc_classbasedresource.a3d6b22652db939b51db1218584247396454ae0f.es-es.xlf</t>
+  </si>
+  <si>
+    <t>dsc_confighelp.bcfa7e85acae98499089edc9fba25b68953d7bbf.es-es.xlf</t>
+  </si>
+  <si>
+    <t>dsc_directaccess.014c91015162b26b678e0a5fdfd453a3bf6e41b0.es-es.xlf</t>
+  </si>
+  <si>
+    <t>dsc_encryptedmof.a35c44de669ea81f25dd29f152f03493e52e327b.es-es.xlf</t>
+  </si>
+  <si>
+    <t>dsc_freqnomultiple.2848e52c73280aca59e73136bac0c2c7ae02aad6.es-es.xlf</t>
+  </si>
+  <si>
+    <t>dsc_getconfigurationstatus.1705e4bcaa9dfd9d69f00aecdc7ef0d04bf44899.es-es.xlf</t>
+  </si>
+  <si>
+    <t>dsc_identicalduplicate.eb7167ccd4a72d68aa1683327e9b3877927158ab.es-es.xlf</t>
+  </si>
+  <si>
+    <t>dsc_importdscresource.a0169ad862dfcaa5c958c07ecd52c856d5dc8436.es-es.xlf</t>
+  </si>
+  <si>
+    <t>dsc_improvements.d9ed6ffedf9d9650bb6b26b5ed611e420a0aacbb.es-es.xlf</t>
+  </si>
+  <si>
+    <t>dsc_lcmstate.21ea1c36f37c94e8e0363199fbd07bcced3aea40.es-es.xlf</t>
+  </si>
+  <si>
+    <t>dsc_metaconfiguration.e8bbca05aa1692ad54cadd83b93a1902f179f365.es-es.xlf</t>
+  </si>
+  <si>
+    <t>dsc_newresources.b9c40f591f875ea205c834f7675f3edbe1050592.es-es.xlf</t>
+  </si>
+  <si>
+    <t>dsc_nodeid.e3c9049aa6c1d151f8b286f28502537b2f8d22a4.es-es.xlf</t>
+  </si>
+  <si>
+    <t>dsc_partialconfig.a493787c3f8663ac3e2994162ffd1bee429544d3.es-es.xlf</t>
+  </si>
+  <si>
+    <t>dsc_partialconfig_mixedmode.ff4b9a8a421441da62574192650493bf2407028d.es-es.xlf</t>
+  </si>
+  <si>
+    <t>dsc_publishconfig.bfe86d4253abdd777c205caec637c50ec79103ee.es-es.xlf</t>
+  </si>
+  <si>
+    <t>dsc_refreshmode.b0529a06a4d3e07b3fce300f74760d63b27523f6.es-es.xlf</t>
+  </si>
+  <si>
+    <t>dsc_removeconfigdoc.d16cdab7eaedf468bcc38dae34e93be26a204318.es-es.xlf</t>
+  </si>
+  <si>
+    <t>dsc_reporting.b042cd21b9bcfc8e50bc361ddee59333602fad42.es-es.xlf</t>
+  </si>
+  <si>
+    <t>dsc_repository.ec5040a823a6b64e969393e00f3d859fd0b4551c.es-es.xlf</t>
+  </si>
+  <si>
+    <t>dsc_resourcedebugging.95c69e55eb065b349f52e18126d699b1906ba03f.es-es.xlf</t>
+  </si>
+  <si>
+    <t>dsc_runas.9e19a42a6d5e1ea1772358a6fd8ff24b98a5b6ba.es-es.xlf</t>
+  </si>
+  <si>
+    <t>dsc_setdsclcm.1f0e3cab81cf5fc1feda678f202451fe150632e3.es-es.xlf</t>
+  </si>
+  <si>
+    <t>dsc_statestatus.b6f3670f776a8f63a705ba16bed2f20be34fc48f.es-es.xlf</t>
+  </si>
+  <si>
+    <t>dsc_sxsresource.c9d4ce6109370ac1cbc1fb07f191e02f9a61d5d3.es-es.xlf</t>
+  </si>
+  <si>
+    <t>dsc_testconfiguration.b0e5afe2c8f173ebe49c97c9ea9a2f11d81ea5fa.es-es.xlf</t>
+  </si>
+  <si>
+    <t>dsc_updateconfig.a07eb85e3458d42d7ab1ed5c57dcfc70df709d07.es-es.xlf</t>
+  </si>
+  <si>
+    <t>dsc_waitfor.2b09933f08f1020166ce0f0cd7548a5a3845c48f.es-es.xlf</t>
+  </si>
+  <si>
+    <t>dsc_wow64.ea039aaa1bd77415311fc30d80fed43cda07a6e3.es-es.xlf</t>
+  </si>
+  <si>
+    <t>feedback.3662230166299ef7c1fb7a7a7f5cdbd64b1d812a.es-es.xlf</t>
+  </si>
+  <si>
+    <t>feedback_archive.20de26911a704368058401c7e2bd6ebaac692ff5.es-es.xlf</t>
+  </si>
+  <si>
+    <t>feedback_clipboard.872e5c147ef02cb86067651f41e3c00b55386664.es-es.xlf</t>
+  </si>
+  <si>
+    <t>feedback_cmdlets.a4c0dfb806ca0da232eeb75ad3706177b8a5ec48.es-es.xlf</t>
+  </si>
+  <si>
+    <t>feedback_convertfromString.acdeaa33e8fa59b93649b6abf3a7d5ef64fb7664.es-es.xlf</t>
+  </si>
+  <si>
+    <t>feedback_convertstring.42e964e30093962871c3a4d586ed6c54f25f840d.es-es.xlf</t>
+  </si>
+  <si>
+    <t>feedback_fileinfo.0192edad2d6504d26a9632f95fc9e5b66ffd8003.es-es.xlf</t>
+  </si>
+  <si>
+    <t>feedback_formathex.f97931c887efb620e5f4314facc1f0e20e3dffbe.es-es.xlf</t>
+  </si>
+  <si>
+    <t>feedback_getchilditem.ce02ca20cc4417a80fe65eb509a8e92f2cecc79c.es-es.xlf</t>
+  </si>
+  <si>
+    <t>feedback_moduleversionranges.611b3a3219d64dbfa1d01541b60a727b880a0c4b.es-es.xlf</t>
+  </si>
+  <si>
+    <t>feedback_newguid.f8756fbdb96e6fe06a7e0cbb6ac4af32b1c64983.es-es.xlf</t>
+  </si>
+  <si>
+    <t>feedback_nonewline.7a9b7e24c50399879089bba2b8eee7dc325572e2.es-es.xlf</t>
+  </si>
+  <si>
+    <t>feedback_symbolic.1c3ac8128fb9df60512ec024044d48be7d0cb59f.es-es.xlf</t>
+  </si>
+  <si>
+    <t>feedback_tempfile.fc029065af6bbba3a8c4abbf36023bede7d1416d.es-es.xlf</t>
   </si>
   <si>
     <t>ba1897f38317f5fe38f2d8caf0efcc57bc8bb19d.jpg</t>
@@ -963,79 +945,79 @@
     <t>wmf\dsc_encryptedmof.md</t>
   </si>
   <si>
-    <t>informationstream_overview.d2f238b2b4021ccdb7271cf89f53d58970d56cf5.de-de.xlf</t>
-  </si>
-  <si>
-    <t>install.317fc924c0f766547c4725878af59c3c9d8facba.de-de.xlf</t>
-  </si>
-  <si>
-    <t>jea_endpoint.1dc052fe583a907a6c090cf8bfd42293d94d2975.de-de.xlf</t>
-  </si>
-  <si>
-    <t>jea_overview.3fa3008e719be8235adffe51808ac66714940871.de-de.xlf</t>
-  </si>
-  <si>
-    <t>jea_report.7860cec6e93b7405844ccbbe5bc879921447ac0b.de-de.xlf</t>
-  </si>
-  <si>
-    <t>limitation_dsc.3684c81bb088cba98089dffdb1a1e56e1c098335.de-de.xlf</t>
-  </si>
-  <si>
-    <t>limitation_overview.6cc9c8c028f5912636637d836aed7db0614de522.de-de.xlf</t>
-  </si>
-  <si>
-    <t>networkswitch_overview.7a87eb0741cd43b8b9284ea6cb605920c4961b79.de-de.xlf</t>
-  </si>
-  <si>
-    <t>odata_overview.c3f7efdde29fe7ac5685a61cd61d75b65524a4c3.de-de.xlf</t>
-  </si>
-  <si>
-    <t>oneget_cmdlets.469b2350a72495ac2cf62e4130b4df8036f5d135.de-de.xlf</t>
-  </si>
-  <si>
-    <t>oneget_overview.e71a25f36f957ab7471d259c6e716651f6f23c94.de-de.xlf</t>
-  </si>
-  <si>
-    <t>productincompat.62bb00299c0283b5297001553476a745e28a49cb.de-de.xlf</t>
-  </si>
-  <si>
-    <t>psget_module_overview.4149c468ffd0f17a2fabd03f90059c12effc3170.de-de.xlf</t>
-  </si>
-  <si>
-    <t>psget_modulecmdlets.1f808cfdf9a9aa920f88e15f7f5fa4701fe805e3.de-de.xlf</t>
-  </si>
-  <si>
-    <t>psget_moduledependency.89ba9310335ae64db5481a3c02034ac4fe01b6a2.de-de.xlf</t>
-  </si>
-  <si>
-    <t>psget_modulesxsinstall.110ba80d8f917899ef488b46bd15f5654f6ba06c.de-de.xlf</t>
-  </si>
-  <si>
-    <t>psget_psrepository.c4381b2ff7bb6496ab74ed8bb2b07325cfbfc056.de-de.xlf</t>
-  </si>
-  <si>
-    <t>psget_script_overview.f035cc99497d17dc73e3a61f214e40a5860fc70a.de-de.xlf</t>
-  </si>
-  <si>
-    <t>psget_scriptcmdlets.1762d5f29292d59c1afb37cb29eb11a34cf63990.de-de.xlf</t>
-  </si>
-  <si>
-    <t>releasenotes.311750b4da54b1d4ef7997b328edd6ff177fb71f.de-de.xlf</t>
-  </si>
-  <si>
-    <t>requirements.ef8332f358d65b1759bfd4c7336b11d1dc8c2d46.de-de.xlf</t>
-  </si>
-  <si>
-    <t>sil_overview.a2b1f7c716aad317993a5eaffba21fa28ce0c0d8.de-de.xlf</t>
-  </si>
-  <si>
-    <t>TOC.60497266061c38453b3db893ec675eb65584af89.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-16 22:51:51</t>
-  </si>
-  <si>
-    <t>uninstall.b07adaaaf7f41869dfa201b88e29342aced76c96.de-de.xlf</t>
+    <t>informationstream_overview.d2f238b2b4021ccdb7271cf89f53d58970d56cf5.es-es.xlf</t>
+  </si>
+  <si>
+    <t>install.317fc924c0f766547c4725878af59c3c9d8facba.es-es.xlf</t>
+  </si>
+  <si>
+    <t>jea_endpoint.1dc052fe583a907a6c090cf8bfd42293d94d2975.es-es.xlf</t>
+  </si>
+  <si>
+    <t>jea_overview.3fa3008e719be8235adffe51808ac66714940871.es-es.xlf</t>
+  </si>
+  <si>
+    <t>jea_report.7860cec6e93b7405844ccbbe5bc879921447ac0b.es-es.xlf</t>
+  </si>
+  <si>
+    <t>limitation_dsc.3684c81bb088cba98089dffdb1a1e56e1c098335.es-es.xlf</t>
+  </si>
+  <si>
+    <t>limitation_overview.6cc9c8c028f5912636637d836aed7db0614de522.es-es.xlf</t>
+  </si>
+  <si>
+    <t>networkswitch_overview.7a87eb0741cd43b8b9284ea6cb605920c4961b79.es-es.xlf</t>
+  </si>
+  <si>
+    <t>odata_overview.c3f7efdde29fe7ac5685a61cd61d75b65524a4c3.es-es.xlf</t>
+  </si>
+  <si>
+    <t>oneget_cmdlets.469b2350a72495ac2cf62e4130b4df8036f5d135.es-es.xlf</t>
+  </si>
+  <si>
+    <t>oneget_overview.e71a25f36f957ab7471d259c6e716651f6f23c94.es-es.xlf</t>
+  </si>
+  <si>
+    <t>productincompat.62bb00299c0283b5297001553476a745e28a49cb.es-es.xlf</t>
+  </si>
+  <si>
+    <t>psget_module_overview.4149c468ffd0f17a2fabd03f90059c12effc3170.es-es.xlf</t>
+  </si>
+  <si>
+    <t>psget_modulecmdlets.1f808cfdf9a9aa920f88e15f7f5fa4701fe805e3.es-es.xlf</t>
+  </si>
+  <si>
+    <t>psget_moduledependency.89ba9310335ae64db5481a3c02034ac4fe01b6a2.es-es.xlf</t>
+  </si>
+  <si>
+    <t>psget_modulesxsinstall.110ba80d8f917899ef488b46bd15f5654f6ba06c.es-es.xlf</t>
+  </si>
+  <si>
+    <t>psget_psrepository.c4381b2ff7bb6496ab74ed8bb2b07325cfbfc056.es-es.xlf</t>
+  </si>
+  <si>
+    <t>psget_script_overview.f035cc99497d17dc73e3a61f214e40a5860fc70a.es-es.xlf</t>
+  </si>
+  <si>
+    <t>psget_scriptcmdlets.1762d5f29292d59c1afb37cb29eb11a34cf63990.es-es.xlf</t>
+  </si>
+  <si>
+    <t>releasenotes.311750b4da54b1d4ef7997b328edd6ff177fb71f.es-es.xlf</t>
+  </si>
+  <si>
+    <t>requirements.ef8332f358d65b1759bfd4c7336b11d1dc8c2d46.es-es.xlf</t>
+  </si>
+  <si>
+    <t>sil_overview.a2b1f7c716aad317993a5eaffba21fa28ce0c0d8.es-es.xlf</t>
+  </si>
+  <si>
+    <t>TOC.60497266061c38453b3db893ec675eb65584af89.es-es.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-16 22:52:09</t>
+  </si>
+  <si>
+    <t>uninstall.b07adaaaf7f41869dfa201b88e29342aced76c96.es-es.xlf</t>
   </si>
 </sst>
 </file>
@@ -1092,7 +1074,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="de-de" displayName="de_de" ref="A1:L1" headerRowCount="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="es-es" displayName="es_es" ref="A1:L1" headerRowCount="0">
   <tableColumns count="12">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -1115,7 +1097,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Overview" displayName="Overview" ref="A1:D1" headerRowCount="0">
   <tableColumns count="4">
     <tableColumn id="1" name="File Name"/>
-    <tableColumn id="2" name="de-de"/>
+    <tableColumn id="2" name="es-es"/>
     <tableColumn id="3" name="Latest Handoff Date"/>
     <tableColumn id="4" name="Column4"/>
   </tableColumns>
@@ -1166,12 +1148,12 @@
         <v>4</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>4</v>
@@ -1182,7 +1164,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>4</v>
@@ -1193,13 +1175,13 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -1210,7 +1192,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -1218,205 +1200,205 @@
         <v>12</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C26" s="0" t="s">
         <v>5</v>
@@ -1424,1373 +1406,1373 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>43</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>10</v>
+        <v>64</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B61" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="C61" s="0" t="s">
         <v>73</v>
-      </c>
-      <c r="B61" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C61" s="0" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="C125" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B126" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="C126" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B127" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="C127" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B128" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="C128" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B129" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="C129" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B130" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="C130" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B131" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="C131" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B132" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="C132" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B133" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="C133" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B134" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="C134" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B135" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="C135" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B136" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="C136" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B137" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="C137" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B138" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="C138" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B139" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="C139" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B140" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="C140" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B141" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="C141" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B142" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="C142" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B143" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="C143" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B144" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="C144" s="0" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B145" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="C145" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="PartialConfig1.jpg" r:id="rId2"/>
-    <hyperlink ref="A3" display="PartialConfigPullServer.jpg" r:id="rId3"/>
-    <hyperlink ref="A4" display="Pull.png" r:id="rId4"/>
-    <hyperlink ref="A5" display="Push.png" r:id="rId5"/>
-    <hyperlink ref="A6" display="metaConfig.md" r:id="rId6"/>
-    <hyperlink ref="A7" display="windowsfeatureResource.md" r:id="rId7"/>
-    <hyperlink ref="A8" display="authoringResource.md" r:id="rId8"/>
-    <hyperlink ref="A9" display="archiveResource.md" r:id="rId9"/>
-    <hyperlink ref="A10" display="authoringResourceClass.md" r:id="rId10"/>
-    <hyperlink ref="A11" display="authoringResourceComposite.md" r:id="rId11"/>
-    <hyperlink ref="A12" display="authoringResourceMOF.md" r:id="rId12"/>
-    <hyperlink ref="A13" display="authoringResourceMofCS.md" r:id="rId13"/>
-    <hyperlink ref="A14" display="authoringResourceMofDesigner.md" r:id="rId14"/>
-    <hyperlink ref="A15" display="builtInResource.md" r:id="rId15"/>
-    <hyperlink ref="A16" display="configData.md" r:id="rId16"/>
-    <hyperlink ref="A17" display="configDataCredentials.md" r:id="rId17"/>
-    <hyperlink ref="A18" display="configurations.md" r:id="rId18"/>
-    <hyperlink ref="A19" display="debugResource.md" r:id="rId19"/>
-    <hyperlink ref="A20" display="decisionMaker.md" r:id="rId20"/>
-    <hyperlink ref="A21" display="enactingConfigurations.md" r:id="rId21"/>
-    <hyperlink ref="A22" display="environmentResource.md" r:id="rId22"/>
-    <hyperlink ref="A23" display="fileResource.md" r:id="rId23"/>
-    <hyperlink ref="A24" display="gettingStarted.md" r:id="rId24"/>
-    <hyperlink ref="A25" display="groupResource.md" r:id="rId25"/>
-    <hyperlink ref="A26" display="CredentialEncryptionDiagram1.png" r:id="rId26"/>
-    <hyperlink ref="A27" display="lnxArchiveResource.md" r:id="rId27"/>
-    <hyperlink ref="A28" display="lnxBuiltInResources.md" r:id="rId28"/>
-    <hyperlink ref="A29" display="lnxEnvironmentResource.md" r:id="rId29"/>
-    <hyperlink ref="A30" display="lnxFileLineResource.md" r:id="rId30"/>
-    <hyperlink ref="A31" display="lnxFileResource.md" r:id="rId31"/>
-    <hyperlink ref="A32" display="lnxGettingStarted.md" r:id="rId32"/>
-    <hyperlink ref="A33" display="lnxGroupResource.md" r:id="rId33"/>
-    <hyperlink ref="A34" display="lnxPackageResource.md" r:id="rId34"/>
-    <hyperlink ref="A35" display="lnxScriptResource.md" r:id="rId35"/>
-    <hyperlink ref="A36" display="lnxServiceResource.md" r:id="rId36"/>
-    <hyperlink ref="A37" display="lnxSshAuthorizedKeysResource.md" r:id="rId37"/>
-    <hyperlink ref="A38" display="lnxUserResource.md" r:id="rId38"/>
-    <hyperlink ref="A39" display="logResource.md" r:id="rId39"/>
-    <hyperlink ref="A40" display="metaConfig4.md" r:id="rId40"/>
-    <hyperlink ref="A41" display="overview.md" r:id="rId41"/>
-    <hyperlink ref="A42" display="packageResource.md" r:id="rId42"/>
-    <hyperlink ref="A43" display="partialConfigs.md" r:id="rId43"/>
-    <hyperlink ref="A44" display="pullClient.md" r:id="rId44"/>
-    <hyperlink ref="A45" display="pullClientConfigID.md" r:id="rId45"/>
-    <hyperlink ref="A46" display="pullClientConfigID4.md" r:id="rId46"/>
-    <hyperlink ref="A47" display="pullClientConfigNames.md" r:id="rId47"/>
-    <hyperlink ref="A48" display="pullServer.md" r:id="rId48"/>
-    <hyperlink ref="A49" display="pullServerSMB.md" r:id="rId49"/>
-    <hyperlink ref="A50" display="queryServerNodes.md" r:id="rId50"/>
-    <hyperlink ref="A51" display="registryResource.md" r:id="rId51"/>
-    <hyperlink ref="A52" display="reportServer.md" r:id="rId52"/>
-    <hyperlink ref="A53" display="resourceAuthoringChecklist.md" r:id="rId53"/>
-    <hyperlink ref="A54" display="resources.md" r:id="rId54"/>
-    <hyperlink ref="A55" display="runAsUser.md" r:id="rId55"/>
-    <hyperlink ref="A56" display="scriptResource.md" r:id="rId56"/>
-    <hyperlink ref="A57" display="secureMOF.md" r:id="rId57"/>
-    <hyperlink ref="A58" display="secureServer.md" r:id="rId58"/>
-    <hyperlink ref="A59" display="serviceResource.md" r:id="rId59"/>
+    <hyperlink ref="A2" display="archiveResource.md" r:id="rId2"/>
+    <hyperlink ref="A3" display="authoringResourceClass.md" r:id="rId3"/>
+    <hyperlink ref="A4" display="authoringResourceComposite.md" r:id="rId4"/>
+    <hyperlink ref="A5" display="authoringResourceMOF.md" r:id="rId5"/>
+    <hyperlink ref="A6" display="authoringResourceMofDesigner.md" r:id="rId6"/>
+    <hyperlink ref="A7" display="configurations.md" r:id="rId7"/>
+    <hyperlink ref="A8" display="enactingConfigurations.md" r:id="rId8"/>
+    <hyperlink ref="A9" display="environmentResource.md" r:id="rId9"/>
+    <hyperlink ref="A10" display="fileResource.md" r:id="rId10"/>
+    <hyperlink ref="A11" display="PartialConfig1.jpg" r:id="rId11"/>
+    <hyperlink ref="A12" display="PartialConfigPullServer.jpg" r:id="rId12"/>
+    <hyperlink ref="A13" display="Pull.png" r:id="rId13"/>
+    <hyperlink ref="A14" display="Push.png" r:id="rId14"/>
+    <hyperlink ref="A15" display="lnxArchiveResource.md" r:id="rId15"/>
+    <hyperlink ref="A16" display="lnxBuiltInResources.md" r:id="rId16"/>
+    <hyperlink ref="A17" display="lnxEnvironmentResource.md" r:id="rId17"/>
+    <hyperlink ref="A18" display="lnxFileLineResource.md" r:id="rId18"/>
+    <hyperlink ref="A19" display="lnxFileResource.md" r:id="rId19"/>
+    <hyperlink ref="A20" display="lnxGroupResource.md" r:id="rId20"/>
+    <hyperlink ref="A21" display="lnxScriptResource.md" r:id="rId21"/>
+    <hyperlink ref="A22" display="lnxServiceResource.md" r:id="rId22"/>
+    <hyperlink ref="A23" display="lnxSshAuthorizedKeysResource.md" r:id="rId23"/>
+    <hyperlink ref="A24" display="lnxUserResource.md" r:id="rId24"/>
+    <hyperlink ref="A25" display="logResource.md" r:id="rId25"/>
+    <hyperlink ref="A26" display="metaConfig.md" r:id="rId26"/>
+    <hyperlink ref="A27" display="overview.md" r:id="rId27"/>
+    <hyperlink ref="A28" display="packageResource.md" r:id="rId28"/>
+    <hyperlink ref="A29" display="partialConfigs.md" r:id="rId29"/>
+    <hyperlink ref="A30" display="pullClient.md" r:id="rId30"/>
+    <hyperlink ref="A31" display="queryServerNodes.md" r:id="rId31"/>
+    <hyperlink ref="A32" display="registryResource.md" r:id="rId32"/>
+    <hyperlink ref="A33" display="reportServer.md" r:id="rId33"/>
+    <hyperlink ref="A34" display="resources.md" r:id="rId34"/>
+    <hyperlink ref="A35" display="scriptResource.md" r:id="rId35"/>
+    <hyperlink ref="A36" display="secureServer.md" r:id="rId36"/>
+    <hyperlink ref="A37" display="serviceResource.md" r:id="rId37"/>
+    <hyperlink ref="A38" display="windowsfeatureResource.md" r:id="rId38"/>
+    <hyperlink ref="A39" display="authoringResource.md" r:id="rId39"/>
+    <hyperlink ref="A40" display="authoringResourceMofCS.md" r:id="rId40"/>
+    <hyperlink ref="A41" display="builtInResource.md" r:id="rId41"/>
+    <hyperlink ref="A42" display="configData.md" r:id="rId42"/>
+    <hyperlink ref="A43" display="configDataCredentials.md" r:id="rId43"/>
+    <hyperlink ref="A44" display="debugResource.md" r:id="rId44"/>
+    <hyperlink ref="A45" display="decisionMaker.md" r:id="rId45"/>
+    <hyperlink ref="A46" display="gettingStarted.md" r:id="rId46"/>
+    <hyperlink ref="A47" display="groupResource.md" r:id="rId47"/>
+    <hyperlink ref="A48" display="CredentialEncryptionDiagram1.png" r:id="rId48"/>
+    <hyperlink ref="A49" display="lnxGettingStarted.md" r:id="rId49"/>
+    <hyperlink ref="A50" display="lnxPackageResource.md" r:id="rId50"/>
+    <hyperlink ref="A51" display="metaConfig4.md" r:id="rId51"/>
+    <hyperlink ref="A52" display="pullClientConfigID.md" r:id="rId52"/>
+    <hyperlink ref="A53" display="pullClientConfigID4.md" r:id="rId53"/>
+    <hyperlink ref="A54" display="pullClientConfigNames.md" r:id="rId54"/>
+    <hyperlink ref="A55" display="pullServer.md" r:id="rId55"/>
+    <hyperlink ref="A56" display="pullServerSMB.md" r:id="rId56"/>
+    <hyperlink ref="A57" display="resourceAuthoringChecklist.md" r:id="rId57"/>
+    <hyperlink ref="A58" display="runAsUser.md" r:id="rId58"/>
+    <hyperlink ref="A59" display="secureMOF.md" r:id="rId59"/>
     <hyperlink ref="A60" display="TOC.md" r:id="rId60"/>
     <hyperlink ref="A61" display="troubleshooting.md" r:id="rId61"/>
     <hyperlink ref="A62" display="userResource.md" r:id="rId62"/>
@@ -2908,37 +2890,37 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>160</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>161</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>162</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>163</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>164</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>165</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>166</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>167</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>168</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>169</v>
-      </c>
-      <c r="K1" s="0" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="2">
@@ -2946,31 +2928,28 @@
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="C2" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>172</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>173</v>
+        <v>5</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="H2" s="0" t="s">
         <v>172</v>
       </c>
-      <c r="H2" s="0" t="s">
-        <v>174</v>
-      </c>
       <c r="I2" s="0" t="s">
-        <v>175</v>
-      </c>
-      <c r="J2" s="0" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3">
@@ -2978,124 +2957,115 @@
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>175</v>
-      </c>
-      <c r="J3" s="0" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>173</v>
+        <v>5</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>175</v>
-      </c>
-      <c r="J4" s="0" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>4</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>173</v>
+        <v>5</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>175</v>
-      </c>
-      <c r="J5" s="0" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>4</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>184</v>
+        <v>5</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="7">
@@ -3103,28 +3073,28 @@
         <v>11</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>4</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>184</v>
+        <v>5</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="8">
@@ -3132,3657 +3102,3965 @@
         <v>12</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>184</v>
+        <v>5</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>180</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>184</v>
+        <v>5</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>181</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="C10" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>191</v>
-      </c>
       <c r="E10" s="2" t="s">
-        <v>192</v>
+        <v>5</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>182</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C11" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="E11" s="2" t="s">
+      <c r="G11" s="1" t="s">
         <v>184</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="I11" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="J11" s="0" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>184</v>
+        <v>16</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>187</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="I12" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="J12" s="0" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>184</v>
+        <v>16</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>189</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>186</v>
+        <v>185</v>
+      </c>
+      <c r="J13" s="0" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>184</v>
+        <v>16</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>191</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>186</v>
+        <v>185</v>
+      </c>
+      <c r="J14" s="0" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>198</v>
+        <v>5</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>192</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>184</v>
+        <v>5</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>193</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>184</v>
+        <v>5</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>194</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>184</v>
+        <v>5</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>195</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>203</v>
+        <v>5</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>196</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>205</v>
+        <v>5</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>197</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>184</v>
+        <v>5</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>198</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="I21" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>184</v>
+        <v>175</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>199</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="I22" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>184</v>
+        <v>5</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>200</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>205</v>
+        <v>5</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>201</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="I24" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>184</v>
+        <v>5</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>202</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="I25" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>173</v>
+        <v>5</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>203</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="I26" s="0" t="s">
-        <v>175</v>
-      </c>
-      <c r="J26" s="0" t="s">
-        <v>212</v>
+        <v>173</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>184</v>
+        <v>5</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>204</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="I27" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>184</v>
+        <v>5</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>205</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="I28" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>184</v>
+        <v>5</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>206</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="I29" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>184</v>
+        <v>5</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>207</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="I30" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>184</v>
+        <v>5</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>208</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="I31" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>219</v>
+        <v>5</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>209</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="I32" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>184</v>
+        <v>5</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>210</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="I33" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>184</v>
+        <v>5</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>211</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="I34" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>184</v>
+        <v>5</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>212</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="I35" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>192</v>
+        <v>5</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>213</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="I36" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>184</v>
+        <v>5</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>214</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="I37" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>184</v>
+        <v>5</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>215</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="I38" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>184</v>
+        <v>5</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="I39" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>184</v>
+        <v>5</v>
       </c>
       <c r="H40" s="0" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="I40" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>184</v>
+        <v>220</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>219</v>
       </c>
       <c r="H41" s="0" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="I41" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>184</v>
+        <v>5</v>
       </c>
       <c r="H42" s="0" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="I42" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>184</v>
+        <v>5</v>
       </c>
       <c r="H43" s="0" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="I43" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>184</v>
+        <v>224</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>223</v>
       </c>
       <c r="H44" s="0" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="I44" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>184</v>
+        <v>226</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>225</v>
       </c>
       <c r="H45" s="0" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="I45" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>234</v>
+        <v>226</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>227</v>
       </c>
       <c r="H46" s="0" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="I46" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>235</v>
+        <v>5</v>
       </c>
       <c r="H47" s="0" t="s">
-        <v>185</v>
+        <v>217</v>
       </c>
       <c r="I47" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>236</v>
+        <v>16</v>
       </c>
       <c r="H48" s="0" t="s">
-        <v>237</v>
+        <v>217</v>
       </c>
       <c r="I48" s="0" t="s">
-        <v>186</v>
+        <v>185</v>
+      </c>
+      <c r="J48" s="0" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="H49" s="0" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="I49" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>184</v>
+        <v>5</v>
       </c>
       <c r="H50" s="0" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="I50" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>184</v>
+        <v>5</v>
       </c>
       <c r="H51" s="0" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="I51" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>184</v>
+        <v>5</v>
       </c>
       <c r="H52" s="0" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="I52" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>234</v>
+        <v>64</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>236</v>
       </c>
       <c r="H53" s="0" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="I53" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>184</v>
+        <v>220</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>237</v>
       </c>
       <c r="H54" s="0" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="I54" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
       <c r="H55" s="0" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="I55" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>184</v>
+        <v>64</v>
       </c>
       <c r="H56" s="0" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="I56" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>173</v>
+        <v>64</v>
       </c>
       <c r="H57" s="0" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="I57" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>184</v>
+        <v>224</v>
       </c>
       <c r="H58" s="0" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="I58" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>184</v>
+        <v>16</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>242</v>
       </c>
       <c r="H59" s="0" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="I59" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>198</v>
+        <v>220</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>243</v>
       </c>
       <c r="H60" s="0" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="I60" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="H61" s="0" t="s">
-        <v>237</v>
+        <v>172</v>
       </c>
       <c r="I61" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>184</v>
+        <v>5</v>
       </c>
       <c r="H62" s="0" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="I62" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>184</v>
+        <v>5</v>
       </c>
       <c r="H63" s="0" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="I63" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="H64" s="0" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="I64" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="H65" s="0" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="I65" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="H66" s="0" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="I66" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="H67" s="0" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="I67" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="H68" s="0" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="I68" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="H69" s="0" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="I69" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="H70" s="0" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="I70" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="H71" s="0" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="I71" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="H72" s="0" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="I72" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="H73" s="0" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="I73" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="H74" s="0" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="I74" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="H75" s="0" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="I75" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="H76" s="0" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="I76" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="H77" s="0" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="I77" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="H78" s="0" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="I78" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="H79" s="0" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="I79" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="H80" s="0" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="I80" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="H81" s="0" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="I81" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="H82" s="0" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="I82" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="H83" s="0" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="I83" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="H84" s="0" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="I84" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="H85" s="0" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="I85" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="H86" s="0" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="I86" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="H87" s="0" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="I87" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="H88" s="0" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="I88" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="H89" s="0" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="I89" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="H90" s="0" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="I90" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="H91" s="0" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="I91" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="H92" s="0" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="I92" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="H93" s="0" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="I93" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="H94" s="0" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="I94" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="H95" s="0" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="I95" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="H96" s="0" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="I96" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="H97" s="0" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="I97" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="H98" s="0" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="I98" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="H99" s="0" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="I99" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="H100" s="0" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="I100" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="H101" s="0" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="I101" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="H102" s="0" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="I102" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>198</v>
+        <v>220</v>
       </c>
       <c r="H103" s="0" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="I103" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="H104" s="0" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="I104" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="H105" s="0" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="I105" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="H106" s="0" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="I106" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="H107" s="0" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="I107" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="H108" s="0" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="I108" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="H109" s="0" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="I109" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="H110" s="0" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="I110" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="H111" s="0" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="I111" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="H112" s="0" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="I112" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="H113" s="0" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="I113" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="H114" s="0" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="I114" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="H115" s="0" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="I115" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="H116" s="0" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="I116" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="H117" s="0" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="I117" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="H118" s="0" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="I118" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>173</v>
+        <v>16</v>
       </c>
       <c r="H119" s="0" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="I119" s="0" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="J119" s="0" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>173</v>
+        <v>16</v>
       </c>
       <c r="H120" s="0" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="I120" s="0" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="J120" s="0" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>173</v>
+        <v>16</v>
       </c>
       <c r="H121" s="0" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="I121" s="0" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="J121" s="0" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="H122" s="0" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="I122" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="H123" s="0" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="I123" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="H124" s="0" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="I124" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C125" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="H125" s="0" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="I125" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C126" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="H126" s="0" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="I126" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C127" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="H127" s="0" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="I127" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C128" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="H128" s="0" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="I128" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C129" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="H129" s="0" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="I129" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C130" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="H130" s="0" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="I130" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C131" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="H131" s="0" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="I131" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C132" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="H132" s="0" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="I132" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C133" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="H133" s="0" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="I133" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C134" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="H134" s="0" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="I134" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C135" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="H135" s="0" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="I135" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C136" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="H136" s="0" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="I136" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C137" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="H137" s="0" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="I137" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C138" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="H138" s="0" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="I138" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C139" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="H139" s="0" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="I139" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C140" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="H140" s="0" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="I140" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C141" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="H141" s="0" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="I141" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C142" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="H142" s="0" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="I142" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C143" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="H143" s="0" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="I143" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C144" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="H144" s="0" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="I144" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C145" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="H145" s="0" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="I145" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="PartialConfig1.jpg" r:id="rId2"/>
-    <hyperlink ref="B2" display=".jpg" r:id="rId3"/>
-    <hyperlink ref="D2" display="3e61149f7b05f74d662d3038233013ffdcbed1a3.jpg" r:id="rId4"/>
-    <hyperlink ref="F2" display="PartialConfig1.jpg" r:id="rId5"/>
-    <hyperlink ref="G2" display="3e61149f7b05f74d662d3038233013ffdcbed1a3.jpg" r:id="rId6"/>
-    <hyperlink ref="A3" display="PartialConfigPullServer.jpg" r:id="rId7"/>
-    <hyperlink ref="B3" display=".jpg" r:id="rId8"/>
-    <hyperlink ref="D3" display="1ba842005c2b1ce80a3670429b3e010c7b1c1f59.jpg" r:id="rId9"/>
-    <hyperlink ref="F3" display="PartialConfigPullServer.jpg" r:id="rId10"/>
-    <hyperlink ref="G3" display="1ba842005c2b1ce80a3670429b3e010c7b1c1f59.jpg" r:id="rId11"/>
-    <hyperlink ref="A4" display="Pull.png" r:id="rId12"/>
-    <hyperlink ref="B4" display=".png" r:id="rId13"/>
-    <hyperlink ref="D4" display="86d829b1fcdd41e648ed0594eaf337b3726c143c.png" r:id="rId14"/>
-    <hyperlink ref="F4" display="Pull.png" r:id="rId15"/>
-    <hyperlink ref="G4" display="86d829b1fcdd41e648ed0594eaf337b3726c143c.png" r:id="rId16"/>
-    <hyperlink ref="A5" display="Push.png" r:id="rId17"/>
-    <hyperlink ref="B5" display=".png" r:id="rId18"/>
-    <hyperlink ref="D5" display="d3008e3fe7da4c118c693d2b34a0b329780f8d86.png" r:id="rId19"/>
-    <hyperlink ref="F5" display="Push.png" r:id="rId20"/>
-    <hyperlink ref="G5" display="d3008e3fe7da4c118c693d2b34a0b329780f8d86.png" r:id="rId21"/>
-    <hyperlink ref="A6" display="metaConfig.md" r:id="rId22"/>
+    <hyperlink ref="A2" display="archiveResource.md" r:id="rId2"/>
+    <hyperlink ref="B2" display=".md" r:id="rId3"/>
+    <hyperlink ref="D2" display="archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.es-es.xlf" r:id="rId4"/>
+    <hyperlink ref="F2" display="archiveResource.md" r:id="rId5"/>
+    <hyperlink ref="G2" display="archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.es-es.xlf" r:id="rId6"/>
+    <hyperlink ref="A3" display="authoringResourceClass.md" r:id="rId7"/>
+    <hyperlink ref="B3" display=".md" r:id="rId8"/>
+    <hyperlink ref="D3" display="authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.es-es.xlf" r:id="rId9"/>
+    <hyperlink ref="F3" display="authoringResourceClass.md" r:id="rId10"/>
+    <hyperlink ref="G3" display="authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.es-es.xlf" r:id="rId11"/>
+    <hyperlink ref="A4" display="authoringResourceComposite.md" r:id="rId12"/>
+    <hyperlink ref="B4" display=".md" r:id="rId13"/>
+    <hyperlink ref="D4" display="authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.es-es.xlf" r:id="rId14"/>
+    <hyperlink ref="F4" display="authoringResourceComposite.md" r:id="rId15"/>
+    <hyperlink ref="G4" display="authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.es-es.xlf" r:id="rId16"/>
+    <hyperlink ref="A5" display="authoringResourceMOF.md" r:id="rId17"/>
+    <hyperlink ref="B5" display=".md" r:id="rId18"/>
+    <hyperlink ref="D5" display="authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.es-es.xlf" r:id="rId19"/>
+    <hyperlink ref="F5" display="authoringResourceMOF.md" r:id="rId20"/>
+    <hyperlink ref="G5" display="authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.es-es.xlf" r:id="rId21"/>
+    <hyperlink ref="A6" display="authoringResourceMofDesigner.md" r:id="rId22"/>
     <hyperlink ref="B6" display=".md" r:id="rId23"/>
-    <hyperlink ref="D6" display="metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.de-de.xlf" r:id="rId24"/>
-    <hyperlink ref="F6" display="metaConfig.md" r:id="rId25"/>
-    <hyperlink ref="G6" display="metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.de-de.xlf" r:id="rId26"/>
-    <hyperlink ref="A7" display="windowsfeatureResource.md" r:id="rId27"/>
+    <hyperlink ref="D6" display="authoringResourceMofDesigner.09b1adffc4afb0d9b1154880e2dab0b25d82d51b.es-es.xlf" r:id="rId24"/>
+    <hyperlink ref="F6" display="authoringResourceMofDesigner.md" r:id="rId25"/>
+    <hyperlink ref="G6" display="authoringResourceMofDesigner.09b1adffc4afb0d9b1154880e2dab0b25d82d51b.es-es.xlf" r:id="rId26"/>
+    <hyperlink ref="A7" display="configurations.md" r:id="rId27"/>
     <hyperlink ref="B7" display=".md" r:id="rId28"/>
-    <hyperlink ref="D7" display="windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.de-de.xlf" r:id="rId29"/>
-    <hyperlink ref="F7" display="windowsfeatureResource.md" r:id="rId30"/>
-    <hyperlink ref="G7" display="windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.de-de.xlf" r:id="rId31"/>
-    <hyperlink ref="A8" display="authoringResource.md" r:id="rId32"/>
+    <hyperlink ref="D7" display="configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.es-es.xlf" r:id="rId29"/>
+    <hyperlink ref="F7" display="configurations.md" r:id="rId30"/>
+    <hyperlink ref="G7" display="configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.es-es.xlf" r:id="rId31"/>
+    <hyperlink ref="A8" display="enactingConfigurations.md" r:id="rId32"/>
     <hyperlink ref="B8" display=".md" r:id="rId33"/>
-    <hyperlink ref="D8" display="authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.de-de.xlf" r:id="rId34"/>
-    <hyperlink ref="A9" display="archiveResource.md" r:id="rId35"/>
-    <hyperlink ref="B9" display=".md" r:id="rId36"/>
-    <hyperlink ref="D9" display="archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.de-de.xlf" r:id="rId37"/>
-    <hyperlink ref="A10" display="authoringResourceClass.md" r:id="rId38"/>
-    <hyperlink ref="B10" display=".md" r:id="rId39"/>
-    <hyperlink ref="D10" display="authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.de-de.xlf" r:id="rId40"/>
-    <hyperlink ref="A11" display="authoringResourceComposite.md" r:id="rId41"/>
-    <hyperlink ref="B11" display=".md" r:id="rId42"/>
-    <hyperlink ref="D11" display="authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.de-de.xlf" r:id="rId43"/>
-    <hyperlink ref="A12" display="authoringResourceMOF.md" r:id="rId44"/>
-    <hyperlink ref="B12" display=".md" r:id="rId45"/>
-    <hyperlink ref="D12" display="authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.de-de.xlf" r:id="rId46"/>
-    <hyperlink ref="A13" display="authoringResourceMofCS.md" r:id="rId47"/>
-    <hyperlink ref="B13" display=".md" r:id="rId48"/>
-    <hyperlink ref="D13" display="authoringResourceMofCS.0647b27b00ec52b2f524a2856e48bc7c29c0f867.de-de.xlf" r:id="rId49"/>
-    <hyperlink ref="A14" display="authoringResourceMofDesigner.md" r:id="rId50"/>
-    <hyperlink ref="B14" display=".md" r:id="rId51"/>
-    <hyperlink ref="D14" display="authoringResourceMofDesigner.09b1adffc4afb0d9b1154880e2dab0b25d82d51b.de-de.xlf" r:id="rId52"/>
-    <hyperlink ref="A15" display="builtInResource.md" r:id="rId53"/>
-    <hyperlink ref="B15" display=".md" r:id="rId54"/>
-    <hyperlink ref="D15" display="builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.de-de.xlf" r:id="rId55"/>
-    <hyperlink ref="A16" display="configData.md" r:id="rId56"/>
-    <hyperlink ref="B16" display=".md" r:id="rId57"/>
-    <hyperlink ref="D16" display="configData.51d01a46dd9af8b425788cc485523b09f8470b95.de-de.xlf" r:id="rId58"/>
-    <hyperlink ref="A17" display="configDataCredentials.md" r:id="rId59"/>
-    <hyperlink ref="B17" display=".md" r:id="rId60"/>
-    <hyperlink ref="D17" display="configDataCredentials.f3e75119e7d93b2f914823c5ea23bfde3935a874.de-de.xlf" r:id="rId61"/>
-    <hyperlink ref="A18" display="configurations.md" r:id="rId62"/>
-    <hyperlink ref="B18" display=".md" r:id="rId63"/>
-    <hyperlink ref="D18" display="configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.de-de.xlf" r:id="rId64"/>
-    <hyperlink ref="A19" display="debugResource.md" r:id="rId65"/>
-    <hyperlink ref="B19" display=".md" r:id="rId66"/>
-    <hyperlink ref="D19" display="debugResource.ac634156affe5c723cc149a298f5aa4268d17016.de-de.xlf" r:id="rId67"/>
-    <hyperlink ref="A20" display="decisionMaker.md" r:id="rId68"/>
-    <hyperlink ref="B20" display=".md" r:id="rId69"/>
-    <hyperlink ref="D20" display="decisionMaker.01553169f2ba4241995260fad925e2784b5f5567.de-de.xlf" r:id="rId70"/>
-    <hyperlink ref="A21" display="enactingConfigurations.md" r:id="rId71"/>
-    <hyperlink ref="B21" display=".md" r:id="rId72"/>
-    <hyperlink ref="D21" display="enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.de-de.xlf" r:id="rId73"/>
-    <hyperlink ref="A22" display="environmentResource.md" r:id="rId74"/>
-    <hyperlink ref="B22" display=".md" r:id="rId75"/>
-    <hyperlink ref="D22" display="environmentResource.eb91ffd4cd8bdb9476e5a83de1a20d3b7b502a56.de-de.xlf" r:id="rId76"/>
-    <hyperlink ref="A23" display="fileResource.md" r:id="rId77"/>
-    <hyperlink ref="B23" display=".md" r:id="rId78"/>
-    <hyperlink ref="D23" display="fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.de-de.xlf" r:id="rId79"/>
-    <hyperlink ref="A24" display="gettingStarted.md" r:id="rId80"/>
-    <hyperlink ref="B24" display=".md" r:id="rId81"/>
-    <hyperlink ref="D24" display="gettingStarted.92e02d8bd273df5c304475a9b4fa251c22a7ea19.de-de.xlf" r:id="rId82"/>
-    <hyperlink ref="A25" display="groupResource.md" r:id="rId83"/>
-    <hyperlink ref="B25" display=".md" r:id="rId84"/>
-    <hyperlink ref="D25" display="groupResource.d19d416269795c92566b62c36b9782062dcea43e.de-de.xlf" r:id="rId85"/>
-    <hyperlink ref="A26" display="CredentialEncryptionDiagram1.png" r:id="rId86"/>
-    <hyperlink ref="B26" display=".png" r:id="rId87"/>
-    <hyperlink ref="D26" display="d9f53a805041164f5070845c0fd216b63d17ae58.png" r:id="rId88"/>
-    <hyperlink ref="A27" display="lnxArchiveResource.md" r:id="rId89"/>
-    <hyperlink ref="B27" display=".md" r:id="rId90"/>
-    <hyperlink ref="D27" display="lnxArchiveResource.095aab7d23720fd394f2573c30223a6bbcc0a4ef.de-de.xlf" r:id="rId91"/>
-    <hyperlink ref="A28" display="lnxBuiltInResources.md" r:id="rId92"/>
-    <hyperlink ref="B28" display=".md" r:id="rId93"/>
-    <hyperlink ref="D28" display="lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.de-de.xlf" r:id="rId94"/>
-    <hyperlink ref="A29" display="lnxEnvironmentResource.md" r:id="rId95"/>
-    <hyperlink ref="B29" display=".md" r:id="rId96"/>
-    <hyperlink ref="D29" display="lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.de-de.xlf" r:id="rId97"/>
-    <hyperlink ref="A30" display="lnxFileLineResource.md" r:id="rId98"/>
-    <hyperlink ref="B30" display=".md" r:id="rId99"/>
-    <hyperlink ref="D30" display="lnxFileLineResource.d91fc802a4c6cdbff5a2e35f92b34c36c6dbf5eb.de-de.xlf" r:id="rId100"/>
-    <hyperlink ref="A31" display="lnxFileResource.md" r:id="rId101"/>
-    <hyperlink ref="B31" display=".md" r:id="rId102"/>
-    <hyperlink ref="D31" display="lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.de-de.xlf" r:id="rId103"/>
-    <hyperlink ref="A32" display="lnxGettingStarted.md" r:id="rId104"/>
-    <hyperlink ref="B32" display=".md" r:id="rId105"/>
-    <hyperlink ref="D32" display="lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.de-de.xlf" r:id="rId106"/>
-    <hyperlink ref="A33" display="lnxGroupResource.md" r:id="rId107"/>
-    <hyperlink ref="B33" display=".md" r:id="rId108"/>
-    <hyperlink ref="D33" display="lnxGroupResource.0cedb684d797032bd47cdb852629c36da0884567.de-de.xlf" r:id="rId109"/>
-    <hyperlink ref="A34" display="lnxPackageResource.md" r:id="rId110"/>
-    <hyperlink ref="B34" display=".md" r:id="rId111"/>
-    <hyperlink ref="D34" display="lnxPackageResource.db35ab938bbfbb38cae53fe9ae98fd22b5f18009.de-de.xlf" r:id="rId112"/>
-    <hyperlink ref="A35" display="lnxScriptResource.md" r:id="rId113"/>
-    <hyperlink ref="B35" display=".md" r:id="rId114"/>
-    <hyperlink ref="D35" display="lnxScriptResource.1344a5d5b807ee53705e93842d9ef5e25a883359.de-de.xlf" r:id="rId115"/>
-    <hyperlink ref="A36" display="lnxServiceResource.md" r:id="rId116"/>
-    <hyperlink ref="B36" display=".md" r:id="rId117"/>
-    <hyperlink ref="D36" display="lnxServiceResource.e637c7f7b18939ec8c16eadf2c42ab00e236fb7b.de-de.xlf" r:id="rId118"/>
-    <hyperlink ref="A37" display="lnxSshAuthorizedKeysResource.md" r:id="rId119"/>
-    <hyperlink ref="B37" display=".md" r:id="rId120"/>
-    <hyperlink ref="D37" display="lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.de-de.xlf" r:id="rId121"/>
-    <hyperlink ref="A38" display="lnxUserResource.md" r:id="rId122"/>
-    <hyperlink ref="B38" display=".md" r:id="rId123"/>
-    <hyperlink ref="D38" display="lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.de-de.xlf" r:id="rId124"/>
-    <hyperlink ref="A39" display="logResource.md" r:id="rId125"/>
-    <hyperlink ref="B39" display=".md" r:id="rId126"/>
-    <hyperlink ref="D39" display="logResource.07af9dfcf6076ef19059178c3b404762677920f0.de-de.xlf" r:id="rId127"/>
-    <hyperlink ref="A40" display="metaConfig4.md" r:id="rId128"/>
-    <hyperlink ref="B40" display=".md" r:id="rId129"/>
-    <hyperlink ref="D40" display="metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.de-de.xlf" r:id="rId130"/>
-    <hyperlink ref="A41" display="overview.md" r:id="rId131"/>
-    <hyperlink ref="B41" display=".md" r:id="rId132"/>
-    <hyperlink ref="D41" display="overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.de-de.xlf" r:id="rId133"/>
-    <hyperlink ref="A42" display="packageResource.md" r:id="rId134"/>
-    <hyperlink ref="B42" display=".md" r:id="rId135"/>
-    <hyperlink ref="D42" display="packageResource.132c4949cee174dc0dc324456d220436cb9884e6.de-de.xlf" r:id="rId136"/>
-    <hyperlink ref="A43" display="partialConfigs.md" r:id="rId137"/>
-    <hyperlink ref="B43" display=".md" r:id="rId138"/>
-    <hyperlink ref="D43" display="partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.de-de.xlf" r:id="rId139"/>
-    <hyperlink ref="A44" display="pullClient.md" r:id="rId140"/>
-    <hyperlink ref="B44" display=".md" r:id="rId141"/>
-    <hyperlink ref="D44" display="pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.de-de.xlf" r:id="rId142"/>
-    <hyperlink ref="A45" display="pullClientConfigID.md" r:id="rId143"/>
-    <hyperlink ref="B45" display=".md" r:id="rId144"/>
-    <hyperlink ref="D45" display="pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.de-de.xlf" r:id="rId145"/>
-    <hyperlink ref="A46" display="pullClientConfigID4.md" r:id="rId146"/>
-    <hyperlink ref="B46" display=".md" r:id="rId147"/>
-    <hyperlink ref="D46" display="pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.de-de.xlf" r:id="rId148"/>
-    <hyperlink ref="A47" display="pullClientConfigNames.md" r:id="rId149"/>
-    <hyperlink ref="B47" display=".md" r:id="rId150"/>
-    <hyperlink ref="D47" display="pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.de-de.xlf" r:id="rId151"/>
-    <hyperlink ref="F47" display="pullClientConfigNames.md" r:id="rId152"/>
-    <hyperlink ref="G47" display="pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.de-de.xlf" r:id="rId153"/>
-    <hyperlink ref="A48" display="pullServer.md" r:id="rId154"/>
-    <hyperlink ref="B48" display=".md" r:id="rId155"/>
-    <hyperlink ref="D48" display="pullServer.4b925b277da29998394af746bdbdd508fda48909.de-de.xlf" r:id="rId156"/>
-    <hyperlink ref="F48" display="pullServer.md" r:id="rId157"/>
-    <hyperlink ref="G48" display="pullServer.4b925b277da29998394af746bdbdd508fda48909.de-de.xlf" r:id="rId158"/>
-    <hyperlink ref="A49" display="pullServerSMB.md" r:id="rId159"/>
-    <hyperlink ref="B49" display=".md" r:id="rId160"/>
-    <hyperlink ref="D49" display="pullServerSMB.772aec5ae27ccb19ced78e3eb665a4e16db1c4df.de-de.xlf" r:id="rId161"/>
-    <hyperlink ref="A50" display="queryServerNodes.md" r:id="rId162"/>
-    <hyperlink ref="B50" display=".md" r:id="rId163"/>
-    <hyperlink ref="D50" display="queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.de-de.xlf" r:id="rId164"/>
-    <hyperlink ref="A51" display="registryResource.md" r:id="rId165"/>
-    <hyperlink ref="B51" display=".md" r:id="rId166"/>
-    <hyperlink ref="D51" display="registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.de-de.xlf" r:id="rId167"/>
-    <hyperlink ref="A52" display="reportServer.md" r:id="rId168"/>
-    <hyperlink ref="B52" display=".md" r:id="rId169"/>
-    <hyperlink ref="D52" display="reportServer.53df4bc8b7b80c0a19c11434bdf5f4304e8248f7.de-de.xlf" r:id="rId170"/>
-    <hyperlink ref="A53" display="resourceAuthoringChecklist.md" r:id="rId171"/>
-    <hyperlink ref="B53" display=".md" r:id="rId172"/>
-    <hyperlink ref="D53" display="resourceAuthoringChecklist.3b9ae254d826cc45519d37d06044f28a69bdfa69.de-de.xlf" r:id="rId173"/>
-    <hyperlink ref="A54" display="resources.md" r:id="rId174"/>
-    <hyperlink ref="B54" display=".md" r:id="rId175"/>
-    <hyperlink ref="D54" display="resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.de-de.xlf" r:id="rId176"/>
-    <hyperlink ref="A55" display="runAsUser.md" r:id="rId177"/>
-    <hyperlink ref="B55" display=".md" r:id="rId178"/>
-    <hyperlink ref="D55" display="runAsUser.d2b90b6bc42ef965e454f9c9f5fd19bc7b488b34.de-de.xlf" r:id="rId179"/>
-    <hyperlink ref="A56" display="scriptResource.md" r:id="rId180"/>
-    <hyperlink ref="B56" display=".md" r:id="rId181"/>
-    <hyperlink ref="D56" display="scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.de-de.xlf" r:id="rId182"/>
-    <hyperlink ref="A57" display="secureMOF.md" r:id="rId183"/>
-    <hyperlink ref="B57" display=".md" r:id="rId184"/>
-    <hyperlink ref="D57" display="secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.de-de.xlf" r:id="rId185"/>
-    <hyperlink ref="A58" display="secureServer.md" r:id="rId186"/>
-    <hyperlink ref="B58" display=".md" r:id="rId187"/>
-    <hyperlink ref="D58" display="secureServer.ce207607010d18109152742ba23c923cd3cddba2.de-de.xlf" r:id="rId188"/>
-    <hyperlink ref="A59" display="serviceResource.md" r:id="rId189"/>
-    <hyperlink ref="B59" display=".md" r:id="rId190"/>
-    <hyperlink ref="D59" display="serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.de-de.xlf" r:id="rId191"/>
-    <hyperlink ref="A60" display="TOC.md" r:id="rId192"/>
-    <hyperlink ref="B60" display=".md" r:id="rId193"/>
-    <hyperlink ref="D60" display="TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.de-de.xlf" r:id="rId194"/>
-    <hyperlink ref="A61" display="troubleshooting.md" r:id="rId195"/>
-    <hyperlink ref="B61" display=".md" r:id="rId196"/>
-    <hyperlink ref="D61" display="troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.de-de.xlf" r:id="rId197"/>
-    <hyperlink ref="F61" display="troubleshooting.md" r:id="rId198"/>
-    <hyperlink ref="G61" display="troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.de-de.xlf" r:id="rId199"/>
-    <hyperlink ref="A62" display="userResource.md" r:id="rId200"/>
-    <hyperlink ref="B62" display=".md" r:id="rId201"/>
-    <hyperlink ref="D62" display="userResource.5de4fbe03e9e06934442ba451eb0564931863f45.de-de.xlf" r:id="rId202"/>
-    <hyperlink ref="A63" display="windowsProcessResource.md" r:id="rId203"/>
-    <hyperlink ref="B63" display=".md" r:id="rId204"/>
-    <hyperlink ref="D63" display="windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.de-de.xlf" r:id="rId205"/>
-    <hyperlink ref="A64" display="audit_cms.md" r:id="rId206"/>
-    <hyperlink ref="B64" display=".md" r:id="rId207"/>
-    <hyperlink ref="D64" display="audit_cms.3e422ca243ac938b46bfcf1497a703e55bde970e.de-de.xlf" r:id="rId208"/>
-    <hyperlink ref="A65" display="audit_overview.md" r:id="rId209"/>
-    <hyperlink ref="B65" display=".md" r:id="rId210"/>
-    <hyperlink ref="D65" display="audit_overview.fc5b51e2734a2af986c9edf42b4395b1aad2435d.de-de.xlf" r:id="rId211"/>
-    <hyperlink ref="A66" display="audit_script.md" r:id="rId212"/>
-    <hyperlink ref="B66" display=".md" r:id="rId213"/>
-    <hyperlink ref="D66" display="audit_script.e89f3a9316d1125e1efd23b41b756a3a6161016b.de-de.xlf" r:id="rId214"/>
-    <hyperlink ref="A67" display="audit_transcript.md" r:id="rId215"/>
-    <hyperlink ref="B67" display=".md" r:id="rId216"/>
-    <hyperlink ref="D67" display="audit_transcript.c21a6554932939cbf4c744bf7c9f07cc4e1e7160.de-de.xlf" r:id="rId217"/>
-    <hyperlink ref="A68" display="class_base.md" r:id="rId218"/>
-    <hyperlink ref="B68" display=".md" r:id="rId219"/>
-    <hyperlink ref="D68" display="class_base.29a9fbe4987503d5575c151f4271f58398cb7e55.de-de.xlf" r:id="rId220"/>
-    <hyperlink ref="A69" display="class_baseconstructor.md" r:id="rId221"/>
-    <hyperlink ref="B69" display=".md" r:id="rId222"/>
-    <hyperlink ref="D69" display="class_baseconstructor.82f951e800b06ccc68090b1be9923c8210a233ac.de-de.xlf" r:id="rId223"/>
-    <hyperlink ref="A70" display="class_basemethod.md" r:id="rId224"/>
-    <hyperlink ref="B70" display=".md" r:id="rId225"/>
-    <hyperlink ref="D70" display="class_basemethod.6b60292188d0081f30fbaf4b111db8a439348f5b.de-de.xlf" r:id="rId226"/>
-    <hyperlink ref="A71" display="class_interface.md" r:id="rId227"/>
-    <hyperlink ref="B71" display=".md" r:id="rId228"/>
-    <hyperlink ref="D71" display="class_interface.84a08fd30808364a820bdd4440de18ec4504a6c7.de-de.xlf" r:id="rId229"/>
-    <hyperlink ref="A72" display="class_newtype.md" r:id="rId230"/>
-    <hyperlink ref="B72" display=".md" r:id="rId231"/>
-    <hyperlink ref="D72" display="class_newtype.a9f52b670970046f8b1147d4ba646b73abb430dc.de-de.xlf" r:id="rId232"/>
-    <hyperlink ref="A73" display="class_overview.md" r:id="rId233"/>
-    <hyperlink ref="B73" display=".md" r:id="rId234"/>
-    <hyperlink ref="D73" display="class_overview.91227b885afcb8df385ab601ab970b924eca2533.de-de.xlf" r:id="rId235"/>
-    <hyperlink ref="A74" display="debug_overview.md" r:id="rId236"/>
-    <hyperlink ref="B74" display=".md" r:id="rId237"/>
-    <hyperlink ref="D74" display="debug_overview.70b71c20b8b625704c25da28a58e804a048bafb0.de-de.xlf" r:id="rId238"/>
-    <hyperlink ref="A75" display="dsc_authoring.md" r:id="rId239"/>
-    <hyperlink ref="B75" display=".md" r:id="rId240"/>
-    <hyperlink ref="D75" display="dsc_authoring.364878cde8f156d8999773842812e0c08f70191c.de-de.xlf" r:id="rId241"/>
-    <hyperlink ref="A76" display="dsc_classbasedresource.md" r:id="rId242"/>
-    <hyperlink ref="B76" display=".md" r:id="rId243"/>
-    <hyperlink ref="D76" display="dsc_classbasedresource.a3d6b22652db939b51db1218584247396454ae0f.de-de.xlf" r:id="rId244"/>
-    <hyperlink ref="A77" display="dsc_confighelp.md" r:id="rId245"/>
-    <hyperlink ref="B77" display=".md" r:id="rId246"/>
-    <hyperlink ref="D77" display="dsc_confighelp.bcfa7e85acae98499089edc9fba25b68953d7bbf.de-de.xlf" r:id="rId247"/>
-    <hyperlink ref="A78" display="dsc_directaccess.md" r:id="rId248"/>
-    <hyperlink ref="B78" display=".md" r:id="rId249"/>
-    <hyperlink ref="D78" display="dsc_directaccess.014c91015162b26b678e0a5fdfd453a3bf6e41b0.de-de.xlf" r:id="rId250"/>
-    <hyperlink ref="A79" display="dsc_encryptedmof.md" r:id="rId251"/>
-    <hyperlink ref="B79" display=".md" r:id="rId252"/>
-    <hyperlink ref="D79" display="dsc_encryptedmof.a35c44de669ea81f25dd29f152f03493e52e327b.de-de.xlf" r:id="rId253"/>
-    <hyperlink ref="A80" display="dsc_freqnomultiple.md" r:id="rId254"/>
-    <hyperlink ref="B80" display=".md" r:id="rId255"/>
-    <hyperlink ref="D80" display="dsc_freqnomultiple.2848e52c73280aca59e73136bac0c2c7ae02aad6.de-de.xlf" r:id="rId256"/>
-    <hyperlink ref="A81" display="dsc_getconfigurationstatus.md" r:id="rId257"/>
-    <hyperlink ref="B81" display=".md" r:id="rId258"/>
-    <hyperlink ref="D81" display="dsc_getconfigurationstatus.1705e4bcaa9dfd9d69f00aecdc7ef0d04bf44899.de-de.xlf" r:id="rId259"/>
-    <hyperlink ref="A82" display="dsc_identicalduplicate.md" r:id="rId260"/>
-    <hyperlink ref="B82" display=".md" r:id="rId261"/>
-    <hyperlink ref="D82" display="dsc_identicalduplicate.eb7167ccd4a72d68aa1683327e9b3877927158ab.de-de.xlf" r:id="rId262"/>
-    <hyperlink ref="A83" display="dsc_importdscresource.md" r:id="rId263"/>
-    <hyperlink ref="B83" display=".md" r:id="rId264"/>
-    <hyperlink ref="D83" display="dsc_importdscresource.a0169ad862dfcaa5c958c07ecd52c856d5dc8436.de-de.xlf" r:id="rId265"/>
-    <hyperlink ref="A84" display="dsc_improvements.md" r:id="rId266"/>
-    <hyperlink ref="B84" display=".md" r:id="rId267"/>
-    <hyperlink ref="D84" display="dsc_improvements.d9ed6ffedf9d9650bb6b26b5ed611e420a0aacbb.de-de.xlf" r:id="rId268"/>
-    <hyperlink ref="A85" display="dsc_lcmstate.md" r:id="rId269"/>
-    <hyperlink ref="B85" display=".md" r:id="rId270"/>
-    <hyperlink ref="D85" display="dsc_lcmstate.21ea1c36f37c94e8e0363199fbd07bcced3aea40.de-de.xlf" r:id="rId271"/>
-    <hyperlink ref="A86" display="dsc_metaconfiguration.md" r:id="rId272"/>
-    <hyperlink ref="B86" display=".md" r:id="rId273"/>
-    <hyperlink ref="D86" display="dsc_metaconfiguration.e8bbca05aa1692ad54cadd83b93a1902f179f365.de-de.xlf" r:id="rId274"/>
-    <hyperlink ref="A87" display="dsc_newresources.md" r:id="rId275"/>
-    <hyperlink ref="B87" display=".md" r:id="rId276"/>
-    <hyperlink ref="D87" display="dsc_newresources.b9c40f591f875ea205c834f7675f3edbe1050592.de-de.xlf" r:id="rId277"/>
-    <hyperlink ref="A88" display="dsc_nodeid.md" r:id="rId278"/>
-    <hyperlink ref="B88" display=".md" r:id="rId279"/>
-    <hyperlink ref="D88" display="dsc_nodeid.e3c9049aa6c1d151f8b286f28502537b2f8d22a4.de-de.xlf" r:id="rId280"/>
-    <hyperlink ref="A89" display="dsc_partialconfig.md" r:id="rId281"/>
-    <hyperlink ref="B89" display=".md" r:id="rId282"/>
-    <hyperlink ref="D89" display="dsc_partialconfig.a493787c3f8663ac3e2994162ffd1bee429544d3.de-de.xlf" r:id="rId283"/>
-    <hyperlink ref="A90" display="dsc_partialconfig_mixedmode.md" r:id="rId284"/>
-    <hyperlink ref="B90" display=".md" r:id="rId285"/>
-    <hyperlink ref="D90" display="dsc_partialconfig_mixedmode.ff4b9a8a421441da62574192650493bf2407028d.de-de.xlf" r:id="rId286"/>
-    <hyperlink ref="A91" display="dsc_publishconfig.md" r:id="rId287"/>
-    <hyperlink ref="B91" display=".md" r:id="rId288"/>
-    <hyperlink ref="D91" display="dsc_publishconfig.bfe86d4253abdd777c205caec637c50ec79103ee.de-de.xlf" r:id="rId289"/>
-    <hyperlink ref="A92" display="dsc_refreshmode.md" r:id="rId290"/>
-    <hyperlink ref="B92" display=".md" r:id="rId291"/>
-    <hyperlink ref="D92" display="dsc_refreshmode.b0529a06a4d3e07b3fce300f74760d63b27523f6.de-de.xlf" r:id="rId292"/>
-    <hyperlink ref="A93" display="dsc_removeconfigdoc.md" r:id="rId293"/>
-    <hyperlink ref="B93" display=".md" r:id="rId294"/>
-    <hyperlink ref="D93" display="dsc_removeconfigdoc.d16cdab7eaedf468bcc38dae34e93be26a204318.de-de.xlf" r:id="rId295"/>
-    <hyperlink ref="A94" display="dsc_reporting.md" r:id="rId296"/>
-    <hyperlink ref="B94" display=".md" r:id="rId297"/>
-    <hyperlink ref="D94" display="dsc_reporting.b042cd21b9bcfc8e50bc361ddee59333602fad42.de-de.xlf" r:id="rId298"/>
-    <hyperlink ref="A95" display="dsc_repository.md" r:id="rId299"/>
-    <hyperlink ref="B95" display=".md" r:id="rId300"/>
-    <hyperlink ref="D95" display="dsc_repository.ec5040a823a6b64e969393e00f3d859fd0b4551c.de-de.xlf" r:id="rId301"/>
-    <hyperlink ref="A96" display="dsc_resourcedebugging.md" r:id="rId302"/>
-    <hyperlink ref="B96" display=".md" r:id="rId303"/>
-    <hyperlink ref="D96" display="dsc_resourcedebugging.95c69e55eb065b349f52e18126d699b1906ba03f.de-de.xlf" r:id="rId304"/>
-    <hyperlink ref="A97" display="dsc_runas.md" r:id="rId305"/>
-    <hyperlink ref="B97" display=".md" r:id="rId306"/>
-    <hyperlink ref="D97" display="dsc_runas.9e19a42a6d5e1ea1772358a6fd8ff24b98a5b6ba.de-de.xlf" r:id="rId307"/>
-    <hyperlink ref="A98" display="dsc_setdsclcm.md" r:id="rId308"/>
-    <hyperlink ref="B98" display=".md" r:id="rId309"/>
-    <hyperlink ref="D98" display="dsc_setdsclcm.1f0e3cab81cf5fc1feda678f202451fe150632e3.de-de.xlf" r:id="rId310"/>
-    <hyperlink ref="A99" display="dsc_statestatus.md" r:id="rId311"/>
-    <hyperlink ref="B99" display=".md" r:id="rId312"/>
-    <hyperlink ref="D99" display="dsc_statestatus.b6f3670f776a8f63a705ba16bed2f20be34fc48f.de-de.xlf" r:id="rId313"/>
-    <hyperlink ref="A100" display="dsc_sxsresource.md" r:id="rId314"/>
-    <hyperlink ref="B100" display=".md" r:id="rId315"/>
-    <hyperlink ref="D100" display="dsc_sxsresource.c9d4ce6109370ac1cbc1fb07f191e02f9a61d5d3.de-de.xlf" r:id="rId316"/>
-    <hyperlink ref="A101" display="dsc_testconfiguration.md" r:id="rId317"/>
-    <hyperlink ref="B101" display=".md" r:id="rId318"/>
-    <hyperlink ref="D101" display="dsc_testconfiguration.b0e5afe2c8f173ebe49c97c9ea9a2f11d81ea5fa.de-de.xlf" r:id="rId319"/>
-    <hyperlink ref="A102" display="dsc_updateconfig.md" r:id="rId320"/>
-    <hyperlink ref="B102" display=".md" r:id="rId321"/>
-    <hyperlink ref="D102" display="dsc_updateconfig.a07eb85e3458d42d7ab1ed5c57dcfc70df709d07.de-de.xlf" r:id="rId322"/>
-    <hyperlink ref="A103" display="dsc_waitfor.md" r:id="rId323"/>
-    <hyperlink ref="B103" display=".md" r:id="rId324"/>
-    <hyperlink ref="D103" display="dsc_waitfor.2b09933f08f1020166ce0f0cd7548a5a3845c48f.de-de.xlf" r:id="rId325"/>
-    <hyperlink ref="A104" display="dsc_wow64.md" r:id="rId326"/>
-    <hyperlink ref="B104" display=".md" r:id="rId327"/>
-    <hyperlink ref="D104" display="dsc_wow64.ea039aaa1bd77415311fc30d80fed43cda07a6e3.de-de.xlf" r:id="rId328"/>
-    <hyperlink ref="A105" display="feedback.md" r:id="rId329"/>
-    <hyperlink ref="B105" display=".md" r:id="rId330"/>
-    <hyperlink ref="D105" display="feedback.3662230166299ef7c1fb7a7a7f5cdbd64b1d812a.de-de.xlf" r:id="rId331"/>
-    <hyperlink ref="A106" display="feedback_archive.md" r:id="rId332"/>
-    <hyperlink ref="B106" display=".md" r:id="rId333"/>
-    <hyperlink ref="D106" display="feedback_archive.20de26911a704368058401c7e2bd6ebaac692ff5.de-de.xlf" r:id="rId334"/>
-    <hyperlink ref="A107" display="feedback_clipboard.md" r:id="rId335"/>
-    <hyperlink ref="B107" display=".md" r:id="rId336"/>
-    <hyperlink ref="D107" display="feedback_clipboard.872e5c147ef02cb86067651f41e3c00b55386664.de-de.xlf" r:id="rId337"/>
-    <hyperlink ref="A108" display="feedback_cmdlets.md" r:id="rId338"/>
-    <hyperlink ref="B108" display=".md" r:id="rId339"/>
-    <hyperlink ref="D108" display="feedback_cmdlets.a4c0dfb806ca0da232eeb75ad3706177b8a5ec48.de-de.xlf" r:id="rId340"/>
-    <hyperlink ref="A109" display="feedback_convertfromString.md" r:id="rId341"/>
-    <hyperlink ref="B109" display=".md" r:id="rId342"/>
-    <hyperlink ref="D109" display="feedback_convertfromString.acdeaa33e8fa59b93649b6abf3a7d5ef64fb7664.de-de.xlf" r:id="rId343"/>
-    <hyperlink ref="A110" display="feedback_convertstring.md" r:id="rId344"/>
-    <hyperlink ref="B110" display=".md" r:id="rId345"/>
-    <hyperlink ref="D110" display="feedback_convertstring.42e964e30093962871c3a4d586ed6c54f25f840d.de-de.xlf" r:id="rId346"/>
-    <hyperlink ref="A111" display="feedback_fileinfo.md" r:id="rId347"/>
-    <hyperlink ref="B111" display=".md" r:id="rId348"/>
-    <hyperlink ref="D111" display="feedback_fileinfo.0192edad2d6504d26a9632f95fc9e5b66ffd8003.de-de.xlf" r:id="rId349"/>
-    <hyperlink ref="A112" display="feedback_formathex.md" r:id="rId350"/>
-    <hyperlink ref="B112" display=".md" r:id="rId351"/>
-    <hyperlink ref="D112" display="feedback_formathex.f97931c887efb620e5f4314facc1f0e20e3dffbe.de-de.xlf" r:id="rId352"/>
-    <hyperlink ref="A113" display="feedback_getchilditem.md" r:id="rId353"/>
-    <hyperlink ref="B113" display=".md" r:id="rId354"/>
-    <hyperlink ref="D113" display="feedback_getchilditem.ce02ca20cc4417a80fe65eb509a8e92f2cecc79c.de-de.xlf" r:id="rId355"/>
-    <hyperlink ref="A114" display="feedback_moduleversionranges.md" r:id="rId356"/>
-    <hyperlink ref="B114" display=".md" r:id="rId357"/>
-    <hyperlink ref="D114" display="feedback_moduleversionranges.611b3a3219d64dbfa1d01541b60a727b880a0c4b.de-de.xlf" r:id="rId358"/>
-    <hyperlink ref="A115" display="feedback_newguid.md" r:id="rId359"/>
-    <hyperlink ref="B115" display=".md" r:id="rId360"/>
-    <hyperlink ref="D115" display="feedback_newguid.f8756fbdb96e6fe06a7e0cbb6ac4af32b1c64983.de-de.xlf" r:id="rId361"/>
-    <hyperlink ref="A116" display="feedback_nonewline.md" r:id="rId362"/>
-    <hyperlink ref="B116" display=".md" r:id="rId363"/>
-    <hyperlink ref="D116" display="feedback_nonewline.7a9b7e24c50399879089bba2b8eee7dc325572e2.de-de.xlf" r:id="rId364"/>
-    <hyperlink ref="A117" display="feedback_symbolic.md" r:id="rId365"/>
-    <hyperlink ref="B117" display=".md" r:id="rId366"/>
-    <hyperlink ref="D117" display="feedback_symbolic.1c3ac8128fb9df60512ec024044d48be7d0cb59f.de-de.xlf" r:id="rId367"/>
-    <hyperlink ref="A118" display="feedback_tempfile.md" r:id="rId368"/>
-    <hyperlink ref="B118" display=".md" r:id="rId369"/>
-    <hyperlink ref="D118" display="feedback_tempfile.fc029065af6bbba3a8c4abbf36023bede7d1416d.de-de.xlf" r:id="rId370"/>
-    <hyperlink ref="A119" display="DscResourceDebugging.jpg" r:id="rId371"/>
-    <hyperlink ref="B119" display=".jpg" r:id="rId372"/>
-    <hyperlink ref="D119" display="ba1897f38317f5fe38f2d8caf0efcc57bc8bb19d.jpg" r:id="rId373"/>
-    <hyperlink ref="A120" display="Import-DscResource-Modversion.jpg" r:id="rId374"/>
-    <hyperlink ref="B120" display=".jpg" r:id="rId375"/>
-    <hyperlink ref="D120" display="e6ed57c70f1b1380eb67c6998a1c9c67f3f246fc.jpg" r:id="rId376"/>
-    <hyperlink ref="A121" display="MOF_Encryption.jpg" r:id="rId377"/>
-    <hyperlink ref="B121" display=".jpg" r:id="rId378"/>
-    <hyperlink ref="D121" display="9a44a53029d37d4165bbffbdcaa79d9be76e5fac.jpg" r:id="rId379"/>
-    <hyperlink ref="A122" display="informationstream_overview.md" r:id="rId380"/>
-    <hyperlink ref="B122" display=".md" r:id="rId381"/>
-    <hyperlink ref="D122" display="informationstream_overview.d2f238b2b4021ccdb7271cf89f53d58970d56cf5.de-de.xlf" r:id="rId382"/>
-    <hyperlink ref="A123" display="install.md" r:id="rId383"/>
-    <hyperlink ref="B123" display=".md" r:id="rId384"/>
-    <hyperlink ref="D123" display="install.317fc924c0f766547c4725878af59c3c9d8facba.de-de.xlf" r:id="rId385"/>
-    <hyperlink ref="A124" display="jea_endpoint.md" r:id="rId386"/>
-    <hyperlink ref="B124" display=".md" r:id="rId387"/>
-    <hyperlink ref="D124" display="jea_endpoint.1dc052fe583a907a6c090cf8bfd42293d94d2975.de-de.xlf" r:id="rId388"/>
-    <hyperlink ref="A125" display="jea_overview.md" r:id="rId389"/>
-    <hyperlink ref="B125" display=".md" r:id="rId390"/>
-    <hyperlink ref="D125" display="jea_overview.3fa3008e719be8235adffe51808ac66714940871.de-de.xlf" r:id="rId391"/>
-    <hyperlink ref="A126" display="jea_report.md" r:id="rId392"/>
-    <hyperlink ref="B126" display=".md" r:id="rId393"/>
-    <hyperlink ref="D126" display="jea_report.7860cec6e93b7405844ccbbe5bc879921447ac0b.de-de.xlf" r:id="rId394"/>
-    <hyperlink ref="A127" display="limitation_dsc.md" r:id="rId395"/>
-    <hyperlink ref="B127" display=".md" r:id="rId396"/>
-    <hyperlink ref="D127" display="limitation_dsc.3684c81bb088cba98089dffdb1a1e56e1c098335.de-de.xlf" r:id="rId397"/>
-    <hyperlink ref="A128" display="limitation_overview.md" r:id="rId398"/>
-    <hyperlink ref="B128" display=".md" r:id="rId399"/>
-    <hyperlink ref="D128" display="limitation_overview.6cc9c8c028f5912636637d836aed7db0614de522.de-de.xlf" r:id="rId400"/>
-    <hyperlink ref="A129" display="networkswitch_overview.md" r:id="rId401"/>
-    <hyperlink ref="B129" display=".md" r:id="rId402"/>
-    <hyperlink ref="D129" display="networkswitch_overview.7a87eb0741cd43b8b9284ea6cb605920c4961b79.de-de.xlf" r:id="rId403"/>
-    <hyperlink ref="A130" display="odata_overview.md" r:id="rId404"/>
-    <hyperlink ref="B130" display=".md" r:id="rId405"/>
-    <hyperlink ref="D130" display="odata_overview.c3f7efdde29fe7ac5685a61cd61d75b65524a4c3.de-de.xlf" r:id="rId406"/>
-    <hyperlink ref="A131" display="oneget_cmdlets.md" r:id="rId407"/>
-    <hyperlink ref="B131" display=".md" r:id="rId408"/>
-    <hyperlink ref="D131" display="oneget_cmdlets.469b2350a72495ac2cf62e4130b4df8036f5d135.de-de.xlf" r:id="rId409"/>
-    <hyperlink ref="A132" display="oneget_overview.md" r:id="rId410"/>
-    <hyperlink ref="B132" display=".md" r:id="rId411"/>
-    <hyperlink ref="D132" display="oneget_overview.e71a25f36f957ab7471d259c6e716651f6f23c94.de-de.xlf" r:id="rId412"/>
-    <hyperlink ref="A133" display="productincompat.md" r:id="rId413"/>
-    <hyperlink ref="B133" display=".md" r:id="rId414"/>
-    <hyperlink ref="D133" display="productincompat.62bb00299c0283b5297001553476a745e28a49cb.de-de.xlf" r:id="rId415"/>
-    <hyperlink ref="A134" display="psget_module_overview.md" r:id="rId416"/>
-    <hyperlink ref="B134" display=".md" r:id="rId417"/>
-    <hyperlink ref="D134" display="psget_module_overview.4149c468ffd0f17a2fabd03f90059c12effc3170.de-de.xlf" r:id="rId418"/>
-    <hyperlink ref="A135" display="psget_modulecmdlets.md" r:id="rId419"/>
-    <hyperlink ref="B135" display=".md" r:id="rId420"/>
-    <hyperlink ref="D135" display="psget_modulecmdlets.1f808cfdf9a9aa920f88e15f7f5fa4701fe805e3.de-de.xlf" r:id="rId421"/>
-    <hyperlink ref="A136" display="psget_moduledependency.md" r:id="rId422"/>
-    <hyperlink ref="B136" display=".md" r:id="rId423"/>
-    <hyperlink ref="D136" display="psget_moduledependency.89ba9310335ae64db5481a3c02034ac4fe01b6a2.de-de.xlf" r:id="rId424"/>
-    <hyperlink ref="A137" display="psget_modulesxsinstall.md" r:id="rId425"/>
-    <hyperlink ref="B137" display=".md" r:id="rId426"/>
-    <hyperlink ref="D137" display="psget_modulesxsinstall.110ba80d8f917899ef488b46bd15f5654f6ba06c.de-de.xlf" r:id="rId427"/>
-    <hyperlink ref="A138" display="psget_psrepository.md" r:id="rId428"/>
-    <hyperlink ref="B138" display=".md" r:id="rId429"/>
-    <hyperlink ref="D138" display="psget_psrepository.c4381b2ff7bb6496ab74ed8bb2b07325cfbfc056.de-de.xlf" r:id="rId430"/>
-    <hyperlink ref="A139" display="psget_script_overview.md" r:id="rId431"/>
-    <hyperlink ref="B139" display=".md" r:id="rId432"/>
-    <hyperlink ref="D139" display="psget_script_overview.f035cc99497d17dc73e3a61f214e40a5860fc70a.de-de.xlf" r:id="rId433"/>
-    <hyperlink ref="A140" display="psget_scriptcmdlets.md" r:id="rId434"/>
-    <hyperlink ref="B140" display=".md" r:id="rId435"/>
-    <hyperlink ref="D140" display="psget_scriptcmdlets.1762d5f29292d59c1afb37cb29eb11a34cf63990.de-de.xlf" r:id="rId436"/>
-    <hyperlink ref="A141" display="releasenotes.md" r:id="rId437"/>
-    <hyperlink ref="B141" display=".md" r:id="rId438"/>
-    <hyperlink ref="D141" display="releasenotes.311750b4da54b1d4ef7997b328edd6ff177fb71f.de-de.xlf" r:id="rId439"/>
-    <hyperlink ref="A142" display="requirements.md" r:id="rId440"/>
-    <hyperlink ref="B142" display=".md" r:id="rId441"/>
-    <hyperlink ref="D142" display="requirements.ef8332f358d65b1759bfd4c7336b11d1dc8c2d46.de-de.xlf" r:id="rId442"/>
-    <hyperlink ref="A143" display="sil_overview.md" r:id="rId443"/>
-    <hyperlink ref="B143" display=".md" r:id="rId444"/>
-    <hyperlink ref="D143" display="sil_overview.a2b1f7c716aad317993a5eaffba21fa28ce0c0d8.de-de.xlf" r:id="rId445"/>
-    <hyperlink ref="A144" display="TOC.md" r:id="rId446"/>
-    <hyperlink ref="B144" display=".md" r:id="rId447"/>
-    <hyperlink ref="D144" display="TOC.60497266061c38453b3db893ec675eb65584af89.de-de.xlf" r:id="rId448"/>
-    <hyperlink ref="A145" display="uninstall.md" r:id="rId449"/>
-    <hyperlink ref="B145" display=".md" r:id="rId450"/>
-    <hyperlink ref="D145" display="uninstall.b07adaaaf7f41869dfa201b88e29342aced76c96.de-de.xlf" r:id="rId451"/>
+    <hyperlink ref="D8" display="enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.es-es.xlf" r:id="rId34"/>
+    <hyperlink ref="F8" display="enactingConfigurations.md" r:id="rId35"/>
+    <hyperlink ref="G8" display="enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.es-es.xlf" r:id="rId36"/>
+    <hyperlink ref="A9" display="environmentResource.md" r:id="rId37"/>
+    <hyperlink ref="B9" display=".md" r:id="rId38"/>
+    <hyperlink ref="D9" display="environmentResource.eb91ffd4cd8bdb9476e5a83de1a20d3b7b502a56.es-es.xlf" r:id="rId39"/>
+    <hyperlink ref="F9" display="environmentResource.md" r:id="rId40"/>
+    <hyperlink ref="G9" display="environmentResource.eb91ffd4cd8bdb9476e5a83de1a20d3b7b502a56.es-es.xlf" r:id="rId41"/>
+    <hyperlink ref="A10" display="fileResource.md" r:id="rId42"/>
+    <hyperlink ref="B10" display=".md" r:id="rId43"/>
+    <hyperlink ref="D10" display="fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.es-es.xlf" r:id="rId44"/>
+    <hyperlink ref="F10" display="fileResource.md" r:id="rId45"/>
+    <hyperlink ref="G10" display="fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.es-es.xlf" r:id="rId46"/>
+    <hyperlink ref="A11" display="PartialConfig1.jpg" r:id="rId47"/>
+    <hyperlink ref="B11" display=".jpg" r:id="rId48"/>
+    <hyperlink ref="D11" display="3e61149f7b05f74d662d3038233013ffdcbed1a3.jpg" r:id="rId49"/>
+    <hyperlink ref="F11" display="PartialConfig1.jpg" r:id="rId50"/>
+    <hyperlink ref="G11" display="3e61149f7b05f74d662d3038233013ffdcbed1a3.jpg" r:id="rId51"/>
+    <hyperlink ref="A12" display="PartialConfigPullServer.jpg" r:id="rId52"/>
+    <hyperlink ref="B12" display=".jpg" r:id="rId53"/>
+    <hyperlink ref="D12" display="1ba842005c2b1ce80a3670429b3e010c7b1c1f59.jpg" r:id="rId54"/>
+    <hyperlink ref="F12" display="PartialConfigPullServer.jpg" r:id="rId55"/>
+    <hyperlink ref="G12" display="1ba842005c2b1ce80a3670429b3e010c7b1c1f59.jpg" r:id="rId56"/>
+    <hyperlink ref="A13" display="Pull.png" r:id="rId57"/>
+    <hyperlink ref="B13" display=".png" r:id="rId58"/>
+    <hyperlink ref="D13" display="86d829b1fcdd41e648ed0594eaf337b3726c143c.png" r:id="rId59"/>
+    <hyperlink ref="F13" display="Pull.png" r:id="rId60"/>
+    <hyperlink ref="G13" display="86d829b1fcdd41e648ed0594eaf337b3726c143c.png" r:id="rId61"/>
+    <hyperlink ref="A14" display="Push.png" r:id="rId62"/>
+    <hyperlink ref="B14" display=".png" r:id="rId63"/>
+    <hyperlink ref="D14" display="d3008e3fe7da4c118c693d2b34a0b329780f8d86.png" r:id="rId64"/>
+    <hyperlink ref="F14" display="Push.png" r:id="rId65"/>
+    <hyperlink ref="G14" display="d3008e3fe7da4c118c693d2b34a0b329780f8d86.png" r:id="rId66"/>
+    <hyperlink ref="A15" display="lnxArchiveResource.md" r:id="rId67"/>
+    <hyperlink ref="B15" display=".md" r:id="rId68"/>
+    <hyperlink ref="D15" display="lnxArchiveResource.095aab7d23720fd394f2573c30223a6bbcc0a4ef.es-es.xlf" r:id="rId69"/>
+    <hyperlink ref="F15" display="lnxArchiveResource.md" r:id="rId70"/>
+    <hyperlink ref="G15" display="lnxArchiveResource.095aab7d23720fd394f2573c30223a6bbcc0a4ef.es-es.xlf" r:id="rId71"/>
+    <hyperlink ref="A16" display="lnxBuiltInResources.md" r:id="rId72"/>
+    <hyperlink ref="B16" display=".md" r:id="rId73"/>
+    <hyperlink ref="D16" display="lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.es-es.xlf" r:id="rId74"/>
+    <hyperlink ref="F16" display="lnxBuiltInResources.md" r:id="rId75"/>
+    <hyperlink ref="G16" display="lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.es-es.xlf" r:id="rId76"/>
+    <hyperlink ref="A17" display="lnxEnvironmentResource.md" r:id="rId77"/>
+    <hyperlink ref="B17" display=".md" r:id="rId78"/>
+    <hyperlink ref="D17" display="lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.es-es.xlf" r:id="rId79"/>
+    <hyperlink ref="F17" display="lnxEnvironmentResource.md" r:id="rId80"/>
+    <hyperlink ref="G17" display="lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.es-es.xlf" r:id="rId81"/>
+    <hyperlink ref="A18" display="lnxFileLineResource.md" r:id="rId82"/>
+    <hyperlink ref="B18" display=".md" r:id="rId83"/>
+    <hyperlink ref="D18" display="lnxFileLineResource.d91fc802a4c6cdbff5a2e35f92b34c36c6dbf5eb.es-es.xlf" r:id="rId84"/>
+    <hyperlink ref="F18" display="lnxFileLineResource.md" r:id="rId85"/>
+    <hyperlink ref="G18" display="lnxFileLineResource.d91fc802a4c6cdbff5a2e35f92b34c36c6dbf5eb.es-es.xlf" r:id="rId86"/>
+    <hyperlink ref="A19" display="lnxFileResource.md" r:id="rId87"/>
+    <hyperlink ref="B19" display=".md" r:id="rId88"/>
+    <hyperlink ref="D19" display="lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.es-es.xlf" r:id="rId89"/>
+    <hyperlink ref="F19" display="lnxFileResource.md" r:id="rId90"/>
+    <hyperlink ref="G19" display="lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.es-es.xlf" r:id="rId91"/>
+    <hyperlink ref="A20" display="lnxGroupResource.md" r:id="rId92"/>
+    <hyperlink ref="B20" display=".md" r:id="rId93"/>
+    <hyperlink ref="D20" display="lnxGroupResource.0cedb684d797032bd47cdb852629c36da0884567.es-es.xlf" r:id="rId94"/>
+    <hyperlink ref="F20" display="lnxGroupResource.md" r:id="rId95"/>
+    <hyperlink ref="G20" display="lnxGroupResource.0cedb684d797032bd47cdb852629c36da0884567.es-es.xlf" r:id="rId96"/>
+    <hyperlink ref="A21" display="lnxScriptResource.md" r:id="rId97"/>
+    <hyperlink ref="B21" display=".md" r:id="rId98"/>
+    <hyperlink ref="D21" display="lnxScriptResource.1344a5d5b807ee53705e93842d9ef5e25a883359.es-es.xlf" r:id="rId99"/>
+    <hyperlink ref="F21" display="lnxScriptResource.md" r:id="rId100"/>
+    <hyperlink ref="G21" display="lnxScriptResource.1344a5d5b807ee53705e93842d9ef5e25a883359.es-es.xlf" r:id="rId101"/>
+    <hyperlink ref="A22" display="lnxServiceResource.md" r:id="rId102"/>
+    <hyperlink ref="B22" display=".md" r:id="rId103"/>
+    <hyperlink ref="D22" display="lnxServiceResource.e637c7f7b18939ec8c16eadf2c42ab00e236fb7b.es-es.xlf" r:id="rId104"/>
+    <hyperlink ref="F22" display="lnxServiceResource.md" r:id="rId105"/>
+    <hyperlink ref="G22" display="lnxServiceResource.e637c7f7b18939ec8c16eadf2c42ab00e236fb7b.es-es.xlf" r:id="rId106"/>
+    <hyperlink ref="A23" display="lnxSshAuthorizedKeysResource.md" r:id="rId107"/>
+    <hyperlink ref="B23" display=".md" r:id="rId108"/>
+    <hyperlink ref="D23" display="lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.es-es.xlf" r:id="rId109"/>
+    <hyperlink ref="F23" display="lnxSshAuthorizedKeysResource.md" r:id="rId110"/>
+    <hyperlink ref="G23" display="lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.es-es.xlf" r:id="rId111"/>
+    <hyperlink ref="A24" display="lnxUserResource.md" r:id="rId112"/>
+    <hyperlink ref="B24" display=".md" r:id="rId113"/>
+    <hyperlink ref="D24" display="lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.es-es.xlf" r:id="rId114"/>
+    <hyperlink ref="F24" display="lnxUserResource.md" r:id="rId115"/>
+    <hyperlink ref="G24" display="lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.es-es.xlf" r:id="rId116"/>
+    <hyperlink ref="A25" display="logResource.md" r:id="rId117"/>
+    <hyperlink ref="B25" display=".md" r:id="rId118"/>
+    <hyperlink ref="D25" display="logResource.07af9dfcf6076ef19059178c3b404762677920f0.es-es.xlf" r:id="rId119"/>
+    <hyperlink ref="F25" display="logResource.md" r:id="rId120"/>
+    <hyperlink ref="G25" display="logResource.07af9dfcf6076ef19059178c3b404762677920f0.es-es.xlf" r:id="rId121"/>
+    <hyperlink ref="A26" display="metaConfig.md" r:id="rId122"/>
+    <hyperlink ref="B26" display=".md" r:id="rId123"/>
+    <hyperlink ref="D26" display="metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.es-es.xlf" r:id="rId124"/>
+    <hyperlink ref="F26" display="metaConfig.md" r:id="rId125"/>
+    <hyperlink ref="G26" display="metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.es-es.xlf" r:id="rId126"/>
+    <hyperlink ref="A27" display="overview.md" r:id="rId127"/>
+    <hyperlink ref="B27" display=".md" r:id="rId128"/>
+    <hyperlink ref="D27" display="overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.es-es.xlf" r:id="rId129"/>
+    <hyperlink ref="F27" display="overview.md" r:id="rId130"/>
+    <hyperlink ref="G27" display="overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.es-es.xlf" r:id="rId131"/>
+    <hyperlink ref="A28" display="packageResource.md" r:id="rId132"/>
+    <hyperlink ref="B28" display=".md" r:id="rId133"/>
+    <hyperlink ref="D28" display="packageResource.132c4949cee174dc0dc324456d220436cb9884e6.es-es.xlf" r:id="rId134"/>
+    <hyperlink ref="F28" display="packageResource.md" r:id="rId135"/>
+    <hyperlink ref="G28" display="packageResource.132c4949cee174dc0dc324456d220436cb9884e6.es-es.xlf" r:id="rId136"/>
+    <hyperlink ref="A29" display="partialConfigs.md" r:id="rId137"/>
+    <hyperlink ref="B29" display=".md" r:id="rId138"/>
+    <hyperlink ref="D29" display="partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.es-es.xlf" r:id="rId139"/>
+    <hyperlink ref="F29" display="partialConfigs.md" r:id="rId140"/>
+    <hyperlink ref="G29" display="partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.es-es.xlf" r:id="rId141"/>
+    <hyperlink ref="A30" display="pullClient.md" r:id="rId142"/>
+    <hyperlink ref="B30" display=".md" r:id="rId143"/>
+    <hyperlink ref="D30" display="pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.es-es.xlf" r:id="rId144"/>
+    <hyperlink ref="F30" display="pullClient.md" r:id="rId145"/>
+    <hyperlink ref="G30" display="pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.es-es.xlf" r:id="rId146"/>
+    <hyperlink ref="A31" display="queryServerNodes.md" r:id="rId147"/>
+    <hyperlink ref="B31" display=".md" r:id="rId148"/>
+    <hyperlink ref="D31" display="queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.es-es.xlf" r:id="rId149"/>
+    <hyperlink ref="F31" display="queryServerNodes.md" r:id="rId150"/>
+    <hyperlink ref="G31" display="queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.es-es.xlf" r:id="rId151"/>
+    <hyperlink ref="A32" display="registryResource.md" r:id="rId152"/>
+    <hyperlink ref="B32" display=".md" r:id="rId153"/>
+    <hyperlink ref="D32" display="registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.es-es.xlf" r:id="rId154"/>
+    <hyperlink ref="F32" display="registryResource.md" r:id="rId155"/>
+    <hyperlink ref="G32" display="registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.es-es.xlf" r:id="rId156"/>
+    <hyperlink ref="A33" display="reportServer.md" r:id="rId157"/>
+    <hyperlink ref="B33" display=".md" r:id="rId158"/>
+    <hyperlink ref="D33" display="reportServer.53df4bc8b7b80c0a19c11434bdf5f4304e8248f7.es-es.xlf" r:id="rId159"/>
+    <hyperlink ref="F33" display="reportServer.md" r:id="rId160"/>
+    <hyperlink ref="G33" display="reportServer.53df4bc8b7b80c0a19c11434bdf5f4304e8248f7.es-es.xlf" r:id="rId161"/>
+    <hyperlink ref="A34" display="resources.md" r:id="rId162"/>
+    <hyperlink ref="B34" display=".md" r:id="rId163"/>
+    <hyperlink ref="D34" display="resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.es-es.xlf" r:id="rId164"/>
+    <hyperlink ref="F34" display="resources.md" r:id="rId165"/>
+    <hyperlink ref="G34" display="resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.es-es.xlf" r:id="rId166"/>
+    <hyperlink ref="A35" display="scriptResource.md" r:id="rId167"/>
+    <hyperlink ref="B35" display=".md" r:id="rId168"/>
+    <hyperlink ref="D35" display="scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.es-es.xlf" r:id="rId169"/>
+    <hyperlink ref="F35" display="scriptResource.md" r:id="rId170"/>
+    <hyperlink ref="G35" display="scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.es-es.xlf" r:id="rId171"/>
+    <hyperlink ref="A36" display="secureServer.md" r:id="rId172"/>
+    <hyperlink ref="B36" display=".md" r:id="rId173"/>
+    <hyperlink ref="D36" display="secureServer.ce207607010d18109152742ba23c923cd3cddba2.es-es.xlf" r:id="rId174"/>
+    <hyperlink ref="F36" display="secureServer.md" r:id="rId175"/>
+    <hyperlink ref="G36" display="secureServer.ce207607010d18109152742ba23c923cd3cddba2.es-es.xlf" r:id="rId176"/>
+    <hyperlink ref="A37" display="serviceResource.md" r:id="rId177"/>
+    <hyperlink ref="B37" display=".md" r:id="rId178"/>
+    <hyperlink ref="D37" display="serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.es-es.xlf" r:id="rId179"/>
+    <hyperlink ref="F37" display="serviceResource.md" r:id="rId180"/>
+    <hyperlink ref="G37" display="serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.es-es.xlf" r:id="rId181"/>
+    <hyperlink ref="A38" display="windowsfeatureResource.md" r:id="rId182"/>
+    <hyperlink ref="B38" display=".md" r:id="rId183"/>
+    <hyperlink ref="D38" display="windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.es-es.xlf" r:id="rId184"/>
+    <hyperlink ref="F38" display="windowsfeatureResource.md" r:id="rId185"/>
+    <hyperlink ref="G38" display="windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.es-es.xlf" r:id="rId186"/>
+    <hyperlink ref="A39" display="authoringResource.md" r:id="rId187"/>
+    <hyperlink ref="B39" display=".md" r:id="rId188"/>
+    <hyperlink ref="D39" display="authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.es-es.xlf" r:id="rId189"/>
+    <hyperlink ref="A40" display="authoringResourceMofCS.md" r:id="rId190"/>
+    <hyperlink ref="B40" display=".md" r:id="rId191"/>
+    <hyperlink ref="D40" display="authoringResourceMofCS.0647b27b00ec52b2f524a2856e48bc7c29c0f867.es-es.xlf" r:id="rId192"/>
+    <hyperlink ref="A41" display="builtInResource.md" r:id="rId193"/>
+    <hyperlink ref="B41" display=".md" r:id="rId194"/>
+    <hyperlink ref="D41" display="builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.es-es.xlf" r:id="rId195"/>
+    <hyperlink ref="F41" display="builtInResource.md" r:id="rId196"/>
+    <hyperlink ref="G41" display="builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.es-es.xlf" r:id="rId197"/>
+    <hyperlink ref="A42" display="configData.md" r:id="rId198"/>
+    <hyperlink ref="B42" display=".md" r:id="rId199"/>
+    <hyperlink ref="D42" display="configData.51d01a46dd9af8b425788cc485523b09f8470b95.es-es.xlf" r:id="rId200"/>
+    <hyperlink ref="A43" display="configDataCredentials.md" r:id="rId201"/>
+    <hyperlink ref="B43" display=".md" r:id="rId202"/>
+    <hyperlink ref="D43" display="configDataCredentials.f3e75119e7d93b2f914823c5ea23bfde3935a874.es-es.xlf" r:id="rId203"/>
+    <hyperlink ref="A44" display="debugResource.md" r:id="rId204"/>
+    <hyperlink ref="B44" display=".md" r:id="rId205"/>
+    <hyperlink ref="D44" display="debugResource.ac634156affe5c723cc149a298f5aa4268d17016.es-es.xlf" r:id="rId206"/>
+    <hyperlink ref="F44" display="debugResource.md" r:id="rId207"/>
+    <hyperlink ref="G44" display="debugResource.ac634156affe5c723cc149a298f5aa4268d17016.es-es.xlf" r:id="rId208"/>
+    <hyperlink ref="A45" display="decisionMaker.md" r:id="rId209"/>
+    <hyperlink ref="B45" display=".md" r:id="rId210"/>
+    <hyperlink ref="D45" display="decisionMaker.01553169f2ba4241995260fad925e2784b5f5567.es-es.xlf" r:id="rId211"/>
+    <hyperlink ref="F45" display="decisionMaker.md" r:id="rId212"/>
+    <hyperlink ref="G45" display="decisionMaker.01553169f2ba4241995260fad925e2784b5f5567.es-es.xlf" r:id="rId213"/>
+    <hyperlink ref="A46" display="gettingStarted.md" r:id="rId214"/>
+    <hyperlink ref="B46" display=".md" r:id="rId215"/>
+    <hyperlink ref="D46" display="gettingStarted.92e02d8bd273df5c304475a9b4fa251c22a7ea19.es-es.xlf" r:id="rId216"/>
+    <hyperlink ref="F46" display="gettingStarted.md" r:id="rId217"/>
+    <hyperlink ref="G46" display="gettingStarted.92e02d8bd273df5c304475a9b4fa251c22a7ea19.es-es.xlf" r:id="rId218"/>
+    <hyperlink ref="A47" display="groupResource.md" r:id="rId219"/>
+    <hyperlink ref="B47" display=".md" r:id="rId220"/>
+    <hyperlink ref="D47" display="groupResource.d19d416269795c92566b62c36b9782062dcea43e.es-es.xlf" r:id="rId221"/>
+    <hyperlink ref="A48" display="CredentialEncryptionDiagram1.png" r:id="rId222"/>
+    <hyperlink ref="B48" display=".png" r:id="rId223"/>
+    <hyperlink ref="D48" display="d9f53a805041164f5070845c0fd216b63d17ae58.png" r:id="rId224"/>
+    <hyperlink ref="A49" display="lnxGettingStarted.md" r:id="rId225"/>
+    <hyperlink ref="B49" display=".md" r:id="rId226"/>
+    <hyperlink ref="D49" display="lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.es-es.xlf" r:id="rId227"/>
+    <hyperlink ref="A50" display="lnxPackageResource.md" r:id="rId228"/>
+    <hyperlink ref="B50" display=".md" r:id="rId229"/>
+    <hyperlink ref="D50" display="lnxPackageResource.db35ab938bbfbb38cae53fe9ae98fd22b5f18009.es-es.xlf" r:id="rId230"/>
+    <hyperlink ref="A51" display="metaConfig4.md" r:id="rId231"/>
+    <hyperlink ref="B51" display=".md" r:id="rId232"/>
+    <hyperlink ref="D51" display="metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.es-es.xlf" r:id="rId233"/>
+    <hyperlink ref="A52" display="pullClientConfigID.md" r:id="rId234"/>
+    <hyperlink ref="B52" display=".md" r:id="rId235"/>
+    <hyperlink ref="D52" display="pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.es-es.xlf" r:id="rId236"/>
+    <hyperlink ref="A53" display="pullClientConfigID4.md" r:id="rId237"/>
+    <hyperlink ref="B53" display=".md" r:id="rId238"/>
+    <hyperlink ref="D53" display="pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.es-es.xlf" r:id="rId239"/>
+    <hyperlink ref="F53" display="pullClientConfigID4.md" r:id="rId240"/>
+    <hyperlink ref="G53" display="pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.es-es.xlf" r:id="rId241"/>
+    <hyperlink ref="A54" display="pullClientConfigNames.md" r:id="rId242"/>
+    <hyperlink ref="B54" display=".md" r:id="rId243"/>
+    <hyperlink ref="D54" display="pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.es-es.xlf" r:id="rId244"/>
+    <hyperlink ref="F54" display="pullClientConfigNames.md" r:id="rId245"/>
+    <hyperlink ref="G54" display="pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.es-es.xlf" r:id="rId246"/>
+    <hyperlink ref="A55" display="pullServer.md" r:id="rId247"/>
+    <hyperlink ref="B55" display=".md" r:id="rId248"/>
+    <hyperlink ref="D55" display="pullServer.4b925b277da29998394af746bdbdd508fda48909.es-es.xlf" r:id="rId249"/>
+    <hyperlink ref="A56" display="pullServerSMB.md" r:id="rId250"/>
+    <hyperlink ref="B56" display=".md" r:id="rId251"/>
+    <hyperlink ref="D56" display="pullServerSMB.772aec5ae27ccb19ced78e3eb665a4e16db1c4df.es-es.xlf" r:id="rId252"/>
+    <hyperlink ref="A57" display="resourceAuthoringChecklist.md" r:id="rId253"/>
+    <hyperlink ref="B57" display=".md" r:id="rId254"/>
+    <hyperlink ref="D57" display="resourceAuthoringChecklist.3b9ae254d826cc45519d37d06044f28a69bdfa69.es-es.xlf" r:id="rId255"/>
+    <hyperlink ref="A58" display="runAsUser.md" r:id="rId256"/>
+    <hyperlink ref="B58" display=".md" r:id="rId257"/>
+    <hyperlink ref="D58" display="runAsUser.d2b90b6bc42ef965e454f9c9f5fd19bc7b488b34.es-es.xlf" r:id="rId258"/>
+    <hyperlink ref="A59" display="secureMOF.md" r:id="rId259"/>
+    <hyperlink ref="B59" display=".md" r:id="rId260"/>
+    <hyperlink ref="D59" display="secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.es-es.xlf" r:id="rId261"/>
+    <hyperlink ref="F59" display="secureMOF.md" r:id="rId262"/>
+    <hyperlink ref="G59" display="secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.es-es.xlf" r:id="rId263"/>
+    <hyperlink ref="A60" display="TOC.md" r:id="rId264"/>
+    <hyperlink ref="B60" display=".md" r:id="rId265"/>
+    <hyperlink ref="D60" display="TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.es-es.xlf" r:id="rId266"/>
+    <hyperlink ref="F60" display="TOC.md" r:id="rId267"/>
+    <hyperlink ref="G60" display="TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.es-es.xlf" r:id="rId268"/>
+    <hyperlink ref="A61" display="troubleshooting.md" r:id="rId269"/>
+    <hyperlink ref="B61" display=".md" r:id="rId270"/>
+    <hyperlink ref="D61" display="troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.es-es.xlf" r:id="rId271"/>
+    <hyperlink ref="F61" display="troubleshooting.md" r:id="rId272"/>
+    <hyperlink ref="G61" display="troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.es-es.xlf" r:id="rId273"/>
+    <hyperlink ref="A62" display="userResource.md" r:id="rId274"/>
+    <hyperlink ref="B62" display=".md" r:id="rId275"/>
+    <hyperlink ref="D62" display="userResource.5de4fbe03e9e06934442ba451eb0564931863f45.es-es.xlf" r:id="rId276"/>
+    <hyperlink ref="A63" display="windowsProcessResource.md" r:id="rId277"/>
+    <hyperlink ref="B63" display=".md" r:id="rId278"/>
+    <hyperlink ref="D63" display="windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.es-es.xlf" r:id="rId279"/>
+    <hyperlink ref="A64" display="audit_cms.md" r:id="rId280"/>
+    <hyperlink ref="B64" display=".md" r:id="rId281"/>
+    <hyperlink ref="D64" display="audit_cms.3e422ca243ac938b46bfcf1497a703e55bde970e.es-es.xlf" r:id="rId282"/>
+    <hyperlink ref="A65" display="audit_overview.md" r:id="rId283"/>
+    <hyperlink ref="B65" display=".md" r:id="rId284"/>
+    <hyperlink ref="D65" display="audit_overview.fc5b51e2734a2af986c9edf42b4395b1aad2435d.es-es.xlf" r:id="rId285"/>
+    <hyperlink ref="A66" display="audit_script.md" r:id="rId286"/>
+    <hyperlink ref="B66" display=".md" r:id="rId287"/>
+    <hyperlink ref="D66" display="audit_script.e89f3a9316d1125e1efd23b41b756a3a6161016b.es-es.xlf" r:id="rId288"/>
+    <hyperlink ref="A67" display="audit_transcript.md" r:id="rId289"/>
+    <hyperlink ref="B67" display=".md" r:id="rId290"/>
+    <hyperlink ref="D67" display="audit_transcript.c21a6554932939cbf4c744bf7c9f07cc4e1e7160.es-es.xlf" r:id="rId291"/>
+    <hyperlink ref="A68" display="class_base.md" r:id="rId292"/>
+    <hyperlink ref="B68" display=".md" r:id="rId293"/>
+    <hyperlink ref="D68" display="class_base.29a9fbe4987503d5575c151f4271f58398cb7e55.es-es.xlf" r:id="rId294"/>
+    <hyperlink ref="A69" display="class_baseconstructor.md" r:id="rId295"/>
+    <hyperlink ref="B69" display=".md" r:id="rId296"/>
+    <hyperlink ref="D69" display="class_baseconstructor.82f951e800b06ccc68090b1be9923c8210a233ac.es-es.xlf" r:id="rId297"/>
+    <hyperlink ref="A70" display="class_basemethod.md" r:id="rId298"/>
+    <hyperlink ref="B70" display=".md" r:id="rId299"/>
+    <hyperlink ref="D70" display="class_basemethod.6b60292188d0081f30fbaf4b111db8a439348f5b.es-es.xlf" r:id="rId300"/>
+    <hyperlink ref="A71" display="class_interface.md" r:id="rId301"/>
+    <hyperlink ref="B71" display=".md" r:id="rId302"/>
+    <hyperlink ref="D71" display="class_interface.84a08fd30808364a820bdd4440de18ec4504a6c7.es-es.xlf" r:id="rId303"/>
+    <hyperlink ref="A72" display="class_newtype.md" r:id="rId304"/>
+    <hyperlink ref="B72" display=".md" r:id="rId305"/>
+    <hyperlink ref="D72" display="class_newtype.a9f52b670970046f8b1147d4ba646b73abb430dc.es-es.xlf" r:id="rId306"/>
+    <hyperlink ref="A73" display="class_overview.md" r:id="rId307"/>
+    <hyperlink ref="B73" display=".md" r:id="rId308"/>
+    <hyperlink ref="D73" display="class_overview.91227b885afcb8df385ab601ab970b924eca2533.es-es.xlf" r:id="rId309"/>
+    <hyperlink ref="A74" display="debug_overview.md" r:id="rId310"/>
+    <hyperlink ref="B74" display=".md" r:id="rId311"/>
+    <hyperlink ref="D74" display="debug_overview.70b71c20b8b625704c25da28a58e804a048bafb0.es-es.xlf" r:id="rId312"/>
+    <hyperlink ref="A75" display="dsc_authoring.md" r:id="rId313"/>
+    <hyperlink ref="B75" display=".md" r:id="rId314"/>
+    <hyperlink ref="D75" display="dsc_authoring.364878cde8f156d8999773842812e0c08f70191c.es-es.xlf" r:id="rId315"/>
+    <hyperlink ref="A76" display="dsc_classbasedresource.md" r:id="rId316"/>
+    <hyperlink ref="B76" display=".md" r:id="rId317"/>
+    <hyperlink ref="D76" display="dsc_classbasedresource.a3d6b22652db939b51db1218584247396454ae0f.es-es.xlf" r:id="rId318"/>
+    <hyperlink ref="A77" display="dsc_confighelp.md" r:id="rId319"/>
+    <hyperlink ref="B77" display=".md" r:id="rId320"/>
+    <hyperlink ref="D77" display="dsc_confighelp.bcfa7e85acae98499089edc9fba25b68953d7bbf.es-es.xlf" r:id="rId321"/>
+    <hyperlink ref="A78" display="dsc_directaccess.md" r:id="rId322"/>
+    <hyperlink ref="B78" display=".md" r:id="rId323"/>
+    <hyperlink ref="D78" display="dsc_directaccess.014c91015162b26b678e0a5fdfd453a3bf6e41b0.es-es.xlf" r:id="rId324"/>
+    <hyperlink ref="A79" display="dsc_encryptedmof.md" r:id="rId325"/>
+    <hyperlink ref="B79" display=".md" r:id="rId326"/>
+    <hyperlink ref="D79" display="dsc_encryptedmof.a35c44de669ea81f25dd29f152f03493e52e327b.es-es.xlf" r:id="rId327"/>
+    <hyperlink ref="A80" display="dsc_freqnomultiple.md" r:id="rId328"/>
+    <hyperlink ref="B80" display=".md" r:id="rId329"/>
+    <hyperlink ref="D80" display="dsc_freqnomultiple.2848e52c73280aca59e73136bac0c2c7ae02aad6.es-es.xlf" r:id="rId330"/>
+    <hyperlink ref="A81" display="dsc_getconfigurationstatus.md" r:id="rId331"/>
+    <hyperlink ref="B81" display=".md" r:id="rId332"/>
+    <hyperlink ref="D81" display="dsc_getconfigurationstatus.1705e4bcaa9dfd9d69f00aecdc7ef0d04bf44899.es-es.xlf" r:id="rId333"/>
+    <hyperlink ref="A82" display="dsc_identicalduplicate.md" r:id="rId334"/>
+    <hyperlink ref="B82" display=".md" r:id="rId335"/>
+    <hyperlink ref="D82" display="dsc_identicalduplicate.eb7167ccd4a72d68aa1683327e9b3877927158ab.es-es.xlf" r:id="rId336"/>
+    <hyperlink ref="A83" display="dsc_importdscresource.md" r:id="rId337"/>
+    <hyperlink ref="B83" display=".md" r:id="rId338"/>
+    <hyperlink ref="D83" display="dsc_importdscresource.a0169ad862dfcaa5c958c07ecd52c856d5dc8436.es-es.xlf" r:id="rId339"/>
+    <hyperlink ref="A84" display="dsc_improvements.md" r:id="rId340"/>
+    <hyperlink ref="B84" display=".md" r:id="rId341"/>
+    <hyperlink ref="D84" display="dsc_improvements.d9ed6ffedf9d9650bb6b26b5ed611e420a0aacbb.es-es.xlf" r:id="rId342"/>
+    <hyperlink ref="A85" display="dsc_lcmstate.md" r:id="rId343"/>
+    <hyperlink ref="B85" display=".md" r:id="rId344"/>
+    <hyperlink ref="D85" display="dsc_lcmstate.21ea1c36f37c94e8e0363199fbd07bcced3aea40.es-es.xlf" r:id="rId345"/>
+    <hyperlink ref="A86" display="dsc_metaconfiguration.md" r:id="rId346"/>
+    <hyperlink ref="B86" display=".md" r:id="rId347"/>
+    <hyperlink ref="D86" display="dsc_metaconfiguration.e8bbca05aa1692ad54cadd83b93a1902f179f365.es-es.xlf" r:id="rId348"/>
+    <hyperlink ref="A87" display="dsc_newresources.md" r:id="rId349"/>
+    <hyperlink ref="B87" display=".md" r:id="rId350"/>
+    <hyperlink ref="D87" display="dsc_newresources.b9c40f591f875ea205c834f7675f3edbe1050592.es-es.xlf" r:id="rId351"/>
+    <hyperlink ref="A88" display="dsc_nodeid.md" r:id="rId352"/>
+    <hyperlink ref="B88" display=".md" r:id="rId353"/>
+    <hyperlink ref="D88" display="dsc_nodeid.e3c9049aa6c1d151f8b286f28502537b2f8d22a4.es-es.xlf" r:id="rId354"/>
+    <hyperlink ref="A89" display="dsc_partialconfig.md" r:id="rId355"/>
+    <hyperlink ref="B89" display=".md" r:id="rId356"/>
+    <hyperlink ref="D89" display="dsc_partialconfig.a493787c3f8663ac3e2994162ffd1bee429544d3.es-es.xlf" r:id="rId357"/>
+    <hyperlink ref="A90" display="dsc_partialconfig_mixedmode.md" r:id="rId358"/>
+    <hyperlink ref="B90" display=".md" r:id="rId359"/>
+    <hyperlink ref="D90" display="dsc_partialconfig_mixedmode.ff4b9a8a421441da62574192650493bf2407028d.es-es.xlf" r:id="rId360"/>
+    <hyperlink ref="A91" display="dsc_publishconfig.md" r:id="rId361"/>
+    <hyperlink ref="B91" display=".md" r:id="rId362"/>
+    <hyperlink ref="D91" display="dsc_publishconfig.bfe86d4253abdd777c205caec637c50ec79103ee.es-es.xlf" r:id="rId363"/>
+    <hyperlink ref="A92" display="dsc_refreshmode.md" r:id="rId364"/>
+    <hyperlink ref="B92" display=".md" r:id="rId365"/>
+    <hyperlink ref="D92" display="dsc_refreshmode.b0529a06a4d3e07b3fce300f74760d63b27523f6.es-es.xlf" r:id="rId366"/>
+    <hyperlink ref="A93" display="dsc_removeconfigdoc.md" r:id="rId367"/>
+    <hyperlink ref="B93" display=".md" r:id="rId368"/>
+    <hyperlink ref="D93" display="dsc_removeconfigdoc.d16cdab7eaedf468bcc38dae34e93be26a204318.es-es.xlf" r:id="rId369"/>
+    <hyperlink ref="A94" display="dsc_reporting.md" r:id="rId370"/>
+    <hyperlink ref="B94" display=".md" r:id="rId371"/>
+    <hyperlink ref="D94" display="dsc_reporting.b042cd21b9bcfc8e50bc361ddee59333602fad42.es-es.xlf" r:id="rId372"/>
+    <hyperlink ref="A95" display="dsc_repository.md" r:id="rId373"/>
+    <hyperlink ref="B95" display=".md" r:id="rId374"/>
+    <hyperlink ref="D95" display="dsc_repository.ec5040a823a6b64e969393e00f3d859fd0b4551c.es-es.xlf" r:id="rId375"/>
+    <hyperlink ref="A96" display="dsc_resourcedebugging.md" r:id="rId376"/>
+    <hyperlink ref="B96" display=".md" r:id="rId377"/>
+    <hyperlink ref="D96" display="dsc_resourcedebugging.95c69e55eb065b349f52e18126d699b1906ba03f.es-es.xlf" r:id="rId378"/>
+    <hyperlink ref="A97" display="dsc_runas.md" r:id="rId379"/>
+    <hyperlink ref="B97" display=".md" r:id="rId380"/>
+    <hyperlink ref="D97" display="dsc_runas.9e19a42a6d5e1ea1772358a6fd8ff24b98a5b6ba.es-es.xlf" r:id="rId381"/>
+    <hyperlink ref="A98" display="dsc_setdsclcm.md" r:id="rId382"/>
+    <hyperlink ref="B98" display=".md" r:id="rId383"/>
+    <hyperlink ref="D98" display="dsc_setdsclcm.1f0e3cab81cf5fc1feda678f202451fe150632e3.es-es.xlf" r:id="rId384"/>
+    <hyperlink ref="A99" display="dsc_statestatus.md" r:id="rId385"/>
+    <hyperlink ref="B99" display=".md" r:id="rId386"/>
+    <hyperlink ref="D99" display="dsc_statestatus.b6f3670f776a8f63a705ba16bed2f20be34fc48f.es-es.xlf" r:id="rId387"/>
+    <hyperlink ref="A100" display="dsc_sxsresource.md" r:id="rId388"/>
+    <hyperlink ref="B100" display=".md" r:id="rId389"/>
+    <hyperlink ref="D100" display="dsc_sxsresource.c9d4ce6109370ac1cbc1fb07f191e02f9a61d5d3.es-es.xlf" r:id="rId390"/>
+    <hyperlink ref="A101" display="dsc_testconfiguration.md" r:id="rId391"/>
+    <hyperlink ref="B101" display=".md" r:id="rId392"/>
+    <hyperlink ref="D101" display="dsc_testconfiguration.b0e5afe2c8f173ebe49c97c9ea9a2f11d81ea5fa.es-es.xlf" r:id="rId393"/>
+    <hyperlink ref="A102" display="dsc_updateconfig.md" r:id="rId394"/>
+    <hyperlink ref="B102" display=".md" r:id="rId395"/>
+    <hyperlink ref="D102" display="dsc_updateconfig.a07eb85e3458d42d7ab1ed5c57dcfc70df709d07.es-es.xlf" r:id="rId396"/>
+    <hyperlink ref="A103" display="dsc_waitfor.md" r:id="rId397"/>
+    <hyperlink ref="B103" display=".md" r:id="rId398"/>
+    <hyperlink ref="D103" display="dsc_waitfor.2b09933f08f1020166ce0f0cd7548a5a3845c48f.es-es.xlf" r:id="rId399"/>
+    <hyperlink ref="A104" display="dsc_wow64.md" r:id="rId400"/>
+    <hyperlink ref="B104" display=".md" r:id="rId401"/>
+    <hyperlink ref="D104" display="dsc_wow64.ea039aaa1bd77415311fc30d80fed43cda07a6e3.es-es.xlf" r:id="rId402"/>
+    <hyperlink ref="A105" display="feedback.md" r:id="rId403"/>
+    <hyperlink ref="B105" display=".md" r:id="rId404"/>
+    <hyperlink ref="D105" display="feedback.3662230166299ef7c1fb7a7a7f5cdbd64b1d812a.es-es.xlf" r:id="rId405"/>
+    <hyperlink ref="A106" display="feedback_archive.md" r:id="rId406"/>
+    <hyperlink ref="B106" display=".md" r:id="rId407"/>
+    <hyperlink ref="D106" display="feedback_archive.20de26911a704368058401c7e2bd6ebaac692ff5.es-es.xlf" r:id="rId408"/>
+    <hyperlink ref="A107" display="feedback_clipboard.md" r:id="rId409"/>
+    <hyperlink ref="B107" display=".md" r:id="rId410"/>
+    <hyperlink ref="D107" display="feedback_clipboard.872e5c147ef02cb86067651f41e3c00b55386664.es-es.xlf" r:id="rId411"/>
+    <hyperlink ref="A108" display="feedback_cmdlets.md" r:id="rId412"/>
+    <hyperlink ref="B108" display=".md" r:id="rId413"/>
+    <hyperlink ref="D108" display="feedback_cmdlets.a4c0dfb806ca0da232eeb75ad3706177b8a5ec48.es-es.xlf" r:id="rId414"/>
+    <hyperlink ref="A109" display="feedback_convertfromString.md" r:id="rId415"/>
+    <hyperlink ref="B109" display=".md" r:id="rId416"/>
+    <hyperlink ref="D109" display="feedback_convertfromString.acdeaa33e8fa59b93649b6abf3a7d5ef64fb7664.es-es.xlf" r:id="rId417"/>
+    <hyperlink ref="A110" display="feedback_convertstring.md" r:id="rId418"/>
+    <hyperlink ref="B110" display=".md" r:id="rId419"/>
+    <hyperlink ref="D110" display="feedback_convertstring.42e964e30093962871c3a4d586ed6c54f25f840d.es-es.xlf" r:id="rId420"/>
+    <hyperlink ref="A111" display="feedback_fileinfo.md" r:id="rId421"/>
+    <hyperlink ref="B111" display=".md" r:id="rId422"/>
+    <hyperlink ref="D111" display="feedback_fileinfo.0192edad2d6504d26a9632f95fc9e5b66ffd8003.es-es.xlf" r:id="rId423"/>
+    <hyperlink ref="A112" display="feedback_formathex.md" r:id="rId424"/>
+    <hyperlink ref="B112" display=".md" r:id="rId425"/>
+    <hyperlink ref="D112" display="feedback_formathex.f97931c887efb620e5f4314facc1f0e20e3dffbe.es-es.xlf" r:id="rId426"/>
+    <hyperlink ref="A113" display="feedback_getchilditem.md" r:id="rId427"/>
+    <hyperlink ref="B113" display=".md" r:id="rId428"/>
+    <hyperlink ref="D113" display="feedback_getchilditem.ce02ca20cc4417a80fe65eb509a8e92f2cecc79c.es-es.xlf" r:id="rId429"/>
+    <hyperlink ref="A114" display="feedback_moduleversionranges.md" r:id="rId430"/>
+    <hyperlink ref="B114" display=".md" r:id="rId431"/>
+    <hyperlink ref="D114" display="feedback_moduleversionranges.611b3a3219d64dbfa1d01541b60a727b880a0c4b.es-es.xlf" r:id="rId432"/>
+    <hyperlink ref="A115" display="feedback_newguid.md" r:id="rId433"/>
+    <hyperlink ref="B115" display=".md" r:id="rId434"/>
+    <hyperlink ref="D115" display="feedback_newguid.f8756fbdb96e6fe06a7e0cbb6ac4af32b1c64983.es-es.xlf" r:id="rId435"/>
+    <hyperlink ref="A116" display="feedback_nonewline.md" r:id="rId436"/>
+    <hyperlink ref="B116" display=".md" r:id="rId437"/>
+    <hyperlink ref="D116" display="feedback_nonewline.7a9b7e24c50399879089bba2b8eee7dc325572e2.es-es.xlf" r:id="rId438"/>
+    <hyperlink ref="A117" display="feedback_symbolic.md" r:id="rId439"/>
+    <hyperlink ref="B117" display=".md" r:id="rId440"/>
+    <hyperlink ref="D117" display="feedback_symbolic.1c3ac8128fb9df60512ec024044d48be7d0cb59f.es-es.xlf" r:id="rId441"/>
+    <hyperlink ref="A118" display="feedback_tempfile.md" r:id="rId442"/>
+    <hyperlink ref="B118" display=".md" r:id="rId443"/>
+    <hyperlink ref="D118" display="feedback_tempfile.fc029065af6bbba3a8c4abbf36023bede7d1416d.es-es.xlf" r:id="rId444"/>
+    <hyperlink ref="A119" display="DscResourceDebugging.jpg" r:id="rId445"/>
+    <hyperlink ref="B119" display=".jpg" r:id="rId446"/>
+    <hyperlink ref="D119" display="ba1897f38317f5fe38f2d8caf0efcc57bc8bb19d.jpg" r:id="rId447"/>
+    <hyperlink ref="A120" display="Import-DscResource-Modversion.jpg" r:id="rId448"/>
+    <hyperlink ref="B120" display=".jpg" r:id="rId449"/>
+    <hyperlink ref="D120" display="e6ed57c70f1b1380eb67c6998a1c9c67f3f246fc.jpg" r:id="rId450"/>
+    <hyperlink ref="A121" display="MOF_Encryption.jpg" r:id="rId451"/>
+    <hyperlink ref="B121" display=".jpg" r:id="rId452"/>
+    <hyperlink ref="D121" display="9a44a53029d37d4165bbffbdcaa79d9be76e5fac.jpg" r:id="rId453"/>
+    <hyperlink ref="A122" display="informationstream_overview.md" r:id="rId454"/>
+    <hyperlink ref="B122" display=".md" r:id="rId455"/>
+    <hyperlink ref="D122" display="informationstream_overview.d2f238b2b4021ccdb7271cf89f53d58970d56cf5.es-es.xlf" r:id="rId456"/>
+    <hyperlink ref="A123" display="install.md" r:id="rId457"/>
+    <hyperlink ref="B123" display=".md" r:id="rId458"/>
+    <hyperlink ref="D123" display="install.317fc924c0f766547c4725878af59c3c9d8facba.es-es.xlf" r:id="rId459"/>
+    <hyperlink ref="A124" display="jea_endpoint.md" r:id="rId460"/>
+    <hyperlink ref="B124" display=".md" r:id="rId461"/>
+    <hyperlink ref="D124" display="jea_endpoint.1dc052fe583a907a6c090cf8bfd42293d94d2975.es-es.xlf" r:id="rId462"/>
+    <hyperlink ref="A125" display="jea_overview.md" r:id="rId463"/>
+    <hyperlink ref="B125" display=".md" r:id="rId464"/>
+    <hyperlink ref="D125" display="jea_overview.3fa3008e719be8235adffe51808ac66714940871.es-es.xlf" r:id="rId465"/>
+    <hyperlink ref="A126" display="jea_report.md" r:id="rId466"/>
+    <hyperlink ref="B126" display=".md" r:id="rId467"/>
+    <hyperlink ref="D126" display="jea_report.7860cec6e93b7405844ccbbe5bc879921447ac0b.es-es.xlf" r:id="rId468"/>
+    <hyperlink ref="A127" display="limitation_dsc.md" r:id="rId469"/>
+    <hyperlink ref="B127" display=".md" r:id="rId470"/>
+    <hyperlink ref="D127" display="limitation_dsc.3684c81bb088cba98089dffdb1a1e56e1c098335.es-es.xlf" r:id="rId471"/>
+    <hyperlink ref="A128" display="limitation_overview.md" r:id="rId472"/>
+    <hyperlink ref="B128" display=".md" r:id="rId473"/>
+    <hyperlink ref="D128" display="limitation_overview.6cc9c8c028f5912636637d836aed7db0614de522.es-es.xlf" r:id="rId474"/>
+    <hyperlink ref="A129" display="networkswitch_overview.md" r:id="rId475"/>
+    <hyperlink ref="B129" display=".md" r:id="rId476"/>
+    <hyperlink ref="D129" display="networkswitch_overview.7a87eb0741cd43b8b9284ea6cb605920c4961b79.es-es.xlf" r:id="rId477"/>
+    <hyperlink ref="A130" display="odata_overview.md" r:id="rId478"/>
+    <hyperlink ref="B130" display=".md" r:id="rId479"/>
+    <hyperlink ref="D130" display="odata_overview.c3f7efdde29fe7ac5685a61cd61d75b65524a4c3.es-es.xlf" r:id="rId480"/>
+    <hyperlink ref="A131" display="oneget_cmdlets.md" r:id="rId481"/>
+    <hyperlink ref="B131" display=".md" r:id="rId482"/>
+    <hyperlink ref="D131" display="oneget_cmdlets.469b2350a72495ac2cf62e4130b4df8036f5d135.es-es.xlf" r:id="rId483"/>
+    <hyperlink ref="A132" display="oneget_overview.md" r:id="rId484"/>
+    <hyperlink ref="B132" display=".md" r:id="rId485"/>
+    <hyperlink ref="D132" display="oneget_overview.e71a25f36f957ab7471d259c6e716651f6f23c94.es-es.xlf" r:id="rId486"/>
+    <hyperlink ref="A133" display="productincompat.md" r:id="rId487"/>
+    <hyperlink ref="B133" display=".md" r:id="rId488"/>
+    <hyperlink ref="D133" display="productincompat.62bb00299c0283b5297001553476a745e28a49cb.es-es.xlf" r:id="rId489"/>
+    <hyperlink ref="A134" display="psget_module_overview.md" r:id="rId490"/>
+    <hyperlink ref="B134" display=".md" r:id="rId491"/>
+    <hyperlink ref="D134" display="psget_module_overview.4149c468ffd0f17a2fabd03f90059c12effc3170.es-es.xlf" r:id="rId492"/>
+    <hyperlink ref="A135" display="psget_modulecmdlets.md" r:id="rId493"/>
+    <hyperlink ref="B135" display=".md" r:id="rId494"/>
+    <hyperlink ref="D135" display="psget_modulecmdlets.1f808cfdf9a9aa920f88e15f7f5fa4701fe805e3.es-es.xlf" r:id="rId495"/>
+    <hyperlink ref="A136" display="psget_moduledependency.md" r:id="rId496"/>
+    <hyperlink ref="B136" display=".md" r:id="rId497"/>
+    <hyperlink ref="D136" display="psget_moduledependency.89ba9310335ae64db5481a3c02034ac4fe01b6a2.es-es.xlf" r:id="rId498"/>
+    <hyperlink ref="A137" display="psget_modulesxsinstall.md" r:id="rId499"/>
+    <hyperlink ref="B137" display=".md" r:id="rId500"/>
+    <hyperlink ref="D137" display="psget_modulesxsinstall.110ba80d8f917899ef488b46bd15f5654f6ba06c.es-es.xlf" r:id="rId501"/>
+    <hyperlink ref="A138" display="psget_psrepository.md" r:id="rId502"/>
+    <hyperlink ref="B138" display=".md" r:id="rId503"/>
+    <hyperlink ref="D138" display="psget_psrepository.c4381b2ff7bb6496ab74ed8bb2b07325cfbfc056.es-es.xlf" r:id="rId504"/>
+    <hyperlink ref="A139" display="psget_script_overview.md" r:id="rId505"/>
+    <hyperlink ref="B139" display=".md" r:id="rId506"/>
+    <hyperlink ref="D139" display="psget_script_overview.f035cc99497d17dc73e3a61f214e40a5860fc70a.es-es.xlf" r:id="rId507"/>
+    <hyperlink ref="A140" display="psget_scriptcmdlets.md" r:id="rId508"/>
+    <hyperlink ref="B140" display=".md" r:id="rId509"/>
+    <hyperlink ref="D140" display="psget_scriptcmdlets.1762d5f29292d59c1afb37cb29eb11a34cf63990.es-es.xlf" r:id="rId510"/>
+    <hyperlink ref="A141" display="releasenotes.md" r:id="rId511"/>
+    <hyperlink ref="B141" display=".md" r:id="rId512"/>
+    <hyperlink ref="D141" display="releasenotes.311750b4da54b1d4ef7997b328edd6ff177fb71f.es-es.xlf" r:id="rId513"/>
+    <hyperlink ref="A142" display="requirements.md" r:id="rId514"/>
+    <hyperlink ref="B142" display=".md" r:id="rId515"/>
+    <hyperlink ref="D142" display="requirements.ef8332f358d65b1759bfd4c7336b11d1dc8c2d46.es-es.xlf" r:id="rId516"/>
+    <hyperlink ref="A143" display="sil_overview.md" r:id="rId517"/>
+    <hyperlink ref="B143" display=".md" r:id="rId518"/>
+    <hyperlink ref="D143" display="sil_overview.a2b1f7c716aad317993a5eaffba21fa28ce0c0d8.es-es.xlf" r:id="rId519"/>
+    <hyperlink ref="A144" display="TOC.md" r:id="rId520"/>
+    <hyperlink ref="B144" display=".md" r:id="rId521"/>
+    <hyperlink ref="D144" display="TOC.60497266061c38453b3db893ec675eb65584af89.es-es.xlf" r:id="rId522"/>
+    <hyperlink ref="A145" display="uninstall.md" r:id="rId523"/>
+    <hyperlink ref="B145" display=".md" r:id="rId524"/>
+    <hyperlink ref="D145" display="uninstall.b07adaaaf7f41869dfa201b88e29342aced76c96.es-es.xlf" r:id="rId525"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/PowerShell/powerShell-Docs/live/localization-status.xlsx
+++ b/ol-handback/PowerShell/powerShell-Docs/live/localization-status.xlsx
@@ -6,37 +6,70 @@
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId2"/>
-    <sheet name="es-es" sheetId="2" r:id="rId3"/>
+    <sheet name="de-de" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="342">
   <si>
     <t>File Name</t>
   </si>
   <si>
-    <t>es-es</t>
+    <t>de-de</t>
   </si>
   <si>
     <t>Latest Handoff Date</t>
   </si>
   <si>
+    <t>PartialConfig1.jpg</t>
+  </si>
+  <si>
+    <t>Handed back: in sync with en-US</t>
+  </si>
+  <si>
+    <t>2016-02-11 01:02:28</t>
+  </si>
+  <si>
+    <t>PartialConfigPullServer.jpg</t>
+  </si>
+  <si>
+    <t>Pull.png</t>
+  </si>
+  <si>
+    <t>Push.png</t>
+  </si>
+  <si>
+    <t>lnxBuiltInResources.md</t>
+  </si>
+  <si>
+    <t>2016-01-23 03:01:20</t>
+  </si>
+  <si>
+    <t>metaConfig.md</t>
+  </si>
+  <si>
+    <t>windowsfeatureResource.md</t>
+  </si>
+  <si>
+    <t>authoringResource.md</t>
+  </si>
+  <si>
+    <t>In Translation</t>
+  </si>
+  <si>
     <t>archiveResource.md</t>
   </si>
   <si>
-    <t>Handed back: in sync with en-US</t>
-  </si>
-  <si>
-    <t>2016-02-23 03:02:55</t>
+    <t>Ready for handoff</t>
   </si>
   <si>
     <t>authoringResourceClass.md</t>
   </si>
   <si>
-    <t>2016-43-02 17:43:56</t>
+    <t>2016-52-02 17:52:44</t>
   </si>
   <si>
     <t>authoringResourceComposite.md</t>
@@ -45,12 +78,39 @@
     <t>authoringResourceMOF.md</t>
   </si>
   <si>
+    <t>authoringResourceMofCS.md</t>
+  </si>
+  <si>
     <t>authoringResourceMofDesigner.md</t>
   </si>
   <si>
+    <t>builtInResource.md</t>
+  </si>
+  <si>
+    <t>2016-23-21 17:23:01</t>
+  </si>
+  <si>
+    <t>configData.md</t>
+  </si>
+  <si>
+    <t>configDataCredentials.md</t>
+  </si>
+  <si>
     <t>configurations.md</t>
   </si>
   <si>
+    <t>debugResource.md</t>
+  </si>
+  <si>
+    <t>2016-42-10 21:42:08</t>
+  </si>
+  <si>
+    <t>decisionMaker.md</t>
+  </si>
+  <si>
+    <t>2016-31-07 19:31:26</t>
+  </si>
+  <si>
     <t>enactingConfigurations.md</t>
   </si>
   <si>
@@ -60,27 +120,18 @@
     <t>fileResource.md</t>
   </si>
   <si>
-    <t>PartialConfig1.jpg</t>
-  </si>
-  <si>
-    <t>2016-03-11 01:03:45</t>
-  </si>
-  <si>
-    <t>PartialConfigPullServer.jpg</t>
-  </si>
-  <si>
-    <t>Pull.png</t>
-  </si>
-  <si>
-    <t>Push.png</t>
+    <t>gettingStarted.md</t>
+  </si>
+  <si>
+    <t>groupResource.md</t>
+  </si>
+  <si>
+    <t>CredentialEncryptionDiagram1.png</t>
   </si>
   <si>
     <t>lnxArchiveResource.md</t>
   </si>
   <si>
-    <t>lnxBuiltInResources.md</t>
-  </si>
-  <si>
     <t>lnxEnvironmentResource.md</t>
   </si>
   <si>
@@ -90,9 +141,18 @@
     <t>lnxFileResource.md</t>
   </si>
   <si>
+    <t>lnxGettingStarted.md</t>
+  </si>
+  <si>
+    <t>2016-32-10 20:32:18</t>
+  </si>
+  <si>
     <t>lnxGroupResource.md</t>
   </si>
   <si>
+    <t>lnxPackageResource.md</t>
+  </si>
+  <si>
     <t>lnxScriptResource.md</t>
   </si>
   <si>
@@ -108,7 +168,7 @@
     <t>logResource.md</t>
   </si>
   <si>
-    <t>metaConfig.md</t>
+    <t>metaConfig4.md</t>
   </si>
   <si>
     <t>overview.md</t>
@@ -123,6 +183,24 @@
     <t>pullClient.md</t>
   </si>
   <si>
+    <t>pullClientConfigID.md</t>
+  </si>
+  <si>
+    <t>pullClientConfigID4.md</t>
+  </si>
+  <si>
+    <t>2016-01-09 20:01:41</t>
+  </si>
+  <si>
+    <t>pullClientConfigNames.md</t>
+  </si>
+  <si>
+    <t>pullServer.md</t>
+  </si>
+  <si>
+    <t>pullServerSMB.md</t>
+  </si>
+  <si>
     <t>queryServerNodes.md</t>
   </si>
   <si>
@@ -132,109 +210,34 @@
     <t>reportServer.md</t>
   </si>
   <si>
+    <t>resourceAuthoringChecklist.md</t>
+  </si>
+  <si>
     <t>resources.md</t>
   </si>
   <si>
+    <t>runAsUser.md</t>
+  </si>
+  <si>
     <t>scriptResource.md</t>
   </si>
   <si>
+    <t>secureMOF.md</t>
+  </si>
+  <si>
     <t>secureServer.md</t>
   </si>
   <si>
     <t>serviceResource.md</t>
   </si>
   <si>
-    <t>windowsfeatureResource.md</t>
-  </si>
-  <si>
-    <t>authoringResource.md</t>
-  </si>
-  <si>
-    <t>Ready for handoff</t>
-  </si>
-  <si>
-    <t>authoringResourceMofCS.md</t>
-  </si>
-  <si>
-    <t>builtInResource.md</t>
-  </si>
-  <si>
-    <t>2016-23-21 17:23:27</t>
-  </si>
-  <si>
-    <t>configData.md</t>
-  </si>
-  <si>
-    <t>configDataCredentials.md</t>
-  </si>
-  <si>
-    <t>debugResource.md</t>
-  </si>
-  <si>
-    <t>2016-43-10 21:43:29</t>
-  </si>
-  <si>
-    <t>decisionMaker.md</t>
-  </si>
-  <si>
-    <t>2016-32-07 19:32:30</t>
-  </si>
-  <si>
-    <t>gettingStarted.md</t>
-  </si>
-  <si>
-    <t>groupResource.md</t>
-  </si>
-  <si>
-    <t>CredentialEncryptionDiagram1.png</t>
-  </si>
-  <si>
-    <t>lnxGettingStarted.md</t>
-  </si>
-  <si>
-    <t>2016-33-10 20:33:33</t>
-  </si>
-  <si>
-    <t>lnxPackageResource.md</t>
-  </si>
-  <si>
-    <t>metaConfig4.md</t>
-  </si>
-  <si>
-    <t>pullClientConfigID.md</t>
-  </si>
-  <si>
-    <t>pullClientConfigID4.md</t>
-  </si>
-  <si>
-    <t>2016-03-09 20:03:03</t>
-  </si>
-  <si>
-    <t>pullClientConfigNames.md</t>
-  </si>
-  <si>
-    <t>pullServer.md</t>
-  </si>
-  <si>
-    <t>pullServerSMB.md</t>
-  </si>
-  <si>
-    <t>resourceAuthoringChecklist.md</t>
-  </si>
-  <si>
-    <t>runAsUser.md</t>
-  </si>
-  <si>
-    <t>secureMOF.md</t>
-  </si>
-  <si>
     <t>TOC.md</t>
   </si>
   <si>
     <t>troubleshooting.md</t>
   </si>
   <si>
-    <t>2016-12-04 21:12:23</t>
+    <t>2016-11-04 21:11:35</t>
   </si>
   <si>
     <t>userResource.md</t>
@@ -246,7 +249,7 @@
     <t>audit_cms.md</t>
   </si>
   <si>
-    <t>2016-14-08 01:14:29</t>
+    <t>2016-12-08 01:12:00</t>
   </si>
   <si>
     <t>audit_overview.md</t>
@@ -486,7 +489,7 @@
     <t>sil_overview.md</t>
   </si>
   <si>
-    <t>2016-52-16 22:52:09</t>
+    <t>2016-51-16 22:51:51</t>
   </si>
   <si>
     <t>uninstall.md</t>
@@ -525,181 +528,130 @@
     <t>Error Detail</t>
   </si>
   <si>
+    <t>.jpg</t>
+  </si>
+  <si>
+    <t>3e61149f7b05f74d662d3038233013ffdcbed1a3.jpg</t>
+  </si>
+  <si>
+    <t>2016-03-11 01:02:28</t>
+  </si>
+  <si>
+    <t>2016-03-17 02:07:40</t>
+  </si>
+  <si>
+    <t>IsDependency</t>
+  </si>
+  <si>
+    <t>dsc\partialConfigs.md</t>
+  </si>
+  <si>
+    <t>1ba842005c2b1ce80a3670429b3e010c7b1c1f59.jpg</t>
+  </si>
+  <si>
+    <t>.png</t>
+  </si>
+  <si>
+    <t>86d829b1fcdd41e648ed0594eaf337b3726c143c.png</t>
+  </si>
+  <si>
+    <t>dsc\enactingConfigurations.md</t>
+  </si>
+  <si>
+    <t>d3008e3fe7da4c118c693d2b34a0b329780f8d86.png</t>
+  </si>
+  <si>
     <t>.md</t>
   </si>
   <si>
-    <t>archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.es-es.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-21 21:55:10</t>
+    <t>lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-02-23 03:01:20</t>
+  </si>
+  <si>
+    <t>2016-03-21 22:37:42</t>
   </si>
   <si>
     <t>Include</t>
   </si>
   <si>
-    <t>authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.es-es.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-02 17:43:56</t>
-  </si>
-  <si>
-    <t>authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.es-es.xlf</t>
-  </si>
-  <si>
-    <t>authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.es-es.xlf</t>
-  </si>
-  <si>
-    <t>authoringResourceMofDesigner.09b1adffc4afb0d9b1154880e2dab0b25d82d51b.es-es.xlf</t>
-  </si>
-  <si>
-    <t>configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.es-es.xlf</t>
-  </si>
-  <si>
-    <t>enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.es-es.xlf</t>
-  </si>
-  <si>
-    <t>environmentResource.eb91ffd4cd8bdb9476e5a83de1a20d3b7b502a56.es-es.xlf</t>
-  </si>
-  <si>
-    <t>fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.es-es.xlf</t>
-  </si>
-  <si>
-    <t>.jpg</t>
-  </si>
-  <si>
-    <t>3e61149f7b05f74d662d3038233013ffdcbed1a3.jpg</t>
-  </si>
-  <si>
-    <t>IsDependency</t>
-  </si>
-  <si>
-    <t>dsc\partialConfigs.md</t>
-  </si>
-  <si>
-    <t>1ba842005c2b1ce80a3670429b3e010c7b1c1f59.jpg</t>
-  </si>
-  <si>
-    <t>.png</t>
-  </si>
-  <si>
-    <t>86d829b1fcdd41e648ed0594eaf337b3726c143c.png</t>
-  </si>
-  <si>
-    <t>dsc\enactingConfigurations.md</t>
-  </si>
-  <si>
-    <t>d3008e3fe7da4c118c693d2b34a0b329780f8d86.png</t>
-  </si>
-  <si>
-    <t>lnxArchiveResource.095aab7d23720fd394f2573c30223a6bbcc0a4ef.es-es.xlf</t>
-  </si>
-  <si>
-    <t>lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.es-es.xlf</t>
-  </si>
-  <si>
-    <t>lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.es-es.xlf</t>
-  </si>
-  <si>
-    <t>lnxFileLineResource.d91fc802a4c6cdbff5a2e35f92b34c36c6dbf5eb.es-es.xlf</t>
-  </si>
-  <si>
-    <t>lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.es-es.xlf</t>
-  </si>
-  <si>
-    <t>lnxGroupResource.0cedb684d797032bd47cdb852629c36da0884567.es-es.xlf</t>
-  </si>
-  <si>
-    <t>lnxScriptResource.1344a5d5b807ee53705e93842d9ef5e25a883359.es-es.xlf</t>
-  </si>
-  <si>
-    <t>lnxServiceResource.e637c7f7b18939ec8c16eadf2c42ab00e236fb7b.es-es.xlf</t>
-  </si>
-  <si>
-    <t>lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.es-es.xlf</t>
-  </si>
-  <si>
-    <t>lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.es-es.xlf</t>
-  </si>
-  <si>
-    <t>logResource.07af9dfcf6076ef19059178c3b404762677920f0.es-es.xlf</t>
-  </si>
-  <si>
-    <t>metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.es-es.xlf</t>
-  </si>
-  <si>
-    <t>overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.es-es.xlf</t>
-  </si>
-  <si>
-    <t>packageResource.132c4949cee174dc0dc324456d220436cb9884e6.es-es.xlf</t>
-  </si>
-  <si>
-    <t>partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.es-es.xlf</t>
-  </si>
-  <si>
-    <t>pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.es-es.xlf</t>
-  </si>
-  <si>
-    <t>queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.es-es.xlf</t>
-  </si>
-  <si>
-    <t>registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.es-es.xlf</t>
-  </si>
-  <si>
-    <t>reportServer.53df4bc8b7b80c0a19c11434bdf5f4304e8248f7.es-es.xlf</t>
-  </si>
-  <si>
-    <t>resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.es-es.xlf</t>
-  </si>
-  <si>
-    <t>scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.es-es.xlf</t>
-  </si>
-  <si>
-    <t>secureServer.ce207607010d18109152742ba23c923cd3cddba2.es-es.xlf</t>
-  </si>
-  <si>
-    <t>serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.es-es.xlf</t>
-  </si>
-  <si>
-    <t>windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.es-es.xlf</t>
-  </si>
-  <si>
-    <t>authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.es-es.xlf</t>
+    <t>metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-21 21:14:51</t>
+  </si>
+  <si>
+    <t>windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.de-de.xlf</t>
+  </si>
+  <si>
+    <t>authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.de-de.xlf</t>
   </si>
   <si>
     <t>0001-01-01 00:00:00</t>
   </si>
   <si>
-    <t>authoringResourceMofCS.0647b27b00ec52b2f524a2856e48bc7c29c0f867.es-es.xlf</t>
-  </si>
-  <si>
-    <t>builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.es-es.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-21 17:23:27</t>
-  </si>
-  <si>
-    <t>configData.51d01a46dd9af8b425788cc485523b09f8470b95.es-es.xlf</t>
-  </si>
-  <si>
-    <t>configDataCredentials.f3e75119e7d93b2f914823c5ea23bfde3935a874.es-es.xlf</t>
-  </si>
-  <si>
-    <t>debugResource.ac634156affe5c723cc149a298f5aa4268d17016.es-es.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-10 21:43:29</t>
-  </si>
-  <si>
-    <t>decisionMaker.01553169f2ba4241995260fad925e2784b5f5567.es-es.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-07 19:32:30</t>
-  </si>
-  <si>
-    <t>gettingStarted.92e02d8bd273df5c304475a9b4fa251c22a7ea19.es-es.xlf</t>
-  </si>
-  <si>
-    <t>groupResource.d19d416269795c92566b62c36b9782062dcea43e.es-es.xlf</t>
+    <t>archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.de-de.xlf</t>
+  </si>
+  <si>
+    <t>authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-02 17:52:44</t>
+  </si>
+  <si>
+    <t>authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.de-de.xlf</t>
+  </si>
+  <si>
+    <t>authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.de-de.xlf</t>
+  </si>
+  <si>
+    <t>authoringResourceMofCS.0647b27b00ec52b2f524a2856e48bc7c29c0f867.de-de.xlf</t>
+  </si>
+  <si>
+    <t>authoringResourceMofDesigner.09b1adffc4afb0d9b1154880e2dab0b25d82d51b.de-de.xlf</t>
+  </si>
+  <si>
+    <t>builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-21 17:23:01</t>
+  </si>
+  <si>
+    <t>configData.51d01a46dd9af8b425788cc485523b09f8470b95.de-de.xlf</t>
+  </si>
+  <si>
+    <t>configDataCredentials.f3e75119e7d93b2f914823c5ea23bfde3935a874.de-de.xlf</t>
+  </si>
+  <si>
+    <t>configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.de-de.xlf</t>
+  </si>
+  <si>
+    <t>debugResource.ac634156affe5c723cc149a298f5aa4268d17016.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-10 21:42:08</t>
+  </si>
+  <si>
+    <t>decisionMaker.01553169f2ba4241995260fad925e2784b5f5567.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-07 19:31:26</t>
+  </si>
+  <si>
+    <t>enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.de-de.xlf</t>
+  </si>
+  <si>
+    <t>environmentResource.eb91ffd4cd8bdb9476e5a83de1a20d3b7b502a56.de-de.xlf</t>
+  </si>
+  <si>
+    <t>fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.de-de.xlf</t>
+  </si>
+  <si>
+    <t>gettingStarted.92e02d8bd273df5c304475a9b4fa251c22a7ea19.de-de.xlf</t>
+  </si>
+  <si>
+    <t>groupResource.d19d416269795c92566b62c36b9782062dcea43e.de-de.xlf</t>
   </si>
   <si>
     <t>d9f53a805041164f5070845c0fd216b63d17ae58.png</t>
@@ -708,223 +660,292 @@
     <t>dsc\secureMOF.md</t>
   </si>
   <si>
-    <t>lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.es-es.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-10 20:33:33</t>
-  </si>
-  <si>
-    <t>lnxPackageResource.db35ab938bbfbb38cae53fe9ae98fd22b5f18009.es-es.xlf</t>
-  </si>
-  <si>
-    <t>metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.es-es.xlf</t>
-  </si>
-  <si>
-    <t>pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.es-es.xlf</t>
-  </si>
-  <si>
-    <t>pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.es-es.xlf</t>
-  </si>
-  <si>
-    <t>pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.es-es.xlf</t>
-  </si>
-  <si>
-    <t>pullServer.4b925b277da29998394af746bdbdd508fda48909.es-es.xlf</t>
-  </si>
-  <si>
-    <t>pullServerSMB.772aec5ae27ccb19ced78e3eb665a4e16db1c4df.es-es.xlf</t>
-  </si>
-  <si>
-    <t>resourceAuthoringChecklist.3b9ae254d826cc45519d37d06044f28a69bdfa69.es-es.xlf</t>
-  </si>
-  <si>
-    <t>runAsUser.d2b90b6bc42ef965e454f9c9f5fd19bc7b488b34.es-es.xlf</t>
-  </si>
-  <si>
-    <t>secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.es-es.xlf</t>
-  </si>
-  <si>
-    <t>TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.es-es.xlf</t>
-  </si>
-  <si>
-    <t>troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.es-es.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-04 21:12:23</t>
-  </si>
-  <si>
-    <t>userResource.5de4fbe03e9e06934442ba451eb0564931863f45.es-es.xlf</t>
-  </si>
-  <si>
-    <t>windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.es-es.xlf</t>
-  </si>
-  <si>
-    <t>audit_cms.3e422ca243ac938b46bfcf1497a703e55bde970e.es-es.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-08 01:14:29</t>
-  </si>
-  <si>
-    <t>audit_overview.fc5b51e2734a2af986c9edf42b4395b1aad2435d.es-es.xlf</t>
-  </si>
-  <si>
-    <t>audit_script.e89f3a9316d1125e1efd23b41b756a3a6161016b.es-es.xlf</t>
-  </si>
-  <si>
-    <t>audit_transcript.c21a6554932939cbf4c744bf7c9f07cc4e1e7160.es-es.xlf</t>
-  </si>
-  <si>
-    <t>class_base.29a9fbe4987503d5575c151f4271f58398cb7e55.es-es.xlf</t>
-  </si>
-  <si>
-    <t>class_baseconstructor.82f951e800b06ccc68090b1be9923c8210a233ac.es-es.xlf</t>
-  </si>
-  <si>
-    <t>class_basemethod.6b60292188d0081f30fbaf4b111db8a439348f5b.es-es.xlf</t>
-  </si>
-  <si>
-    <t>class_interface.84a08fd30808364a820bdd4440de18ec4504a6c7.es-es.xlf</t>
-  </si>
-  <si>
-    <t>class_newtype.a9f52b670970046f8b1147d4ba646b73abb430dc.es-es.xlf</t>
-  </si>
-  <si>
-    <t>class_overview.91227b885afcb8df385ab601ab970b924eca2533.es-es.xlf</t>
-  </si>
-  <si>
-    <t>debug_overview.70b71c20b8b625704c25da28a58e804a048bafb0.es-es.xlf</t>
-  </si>
-  <si>
-    <t>dsc_authoring.364878cde8f156d8999773842812e0c08f70191c.es-es.xlf</t>
-  </si>
-  <si>
-    <t>dsc_classbasedresource.a3d6b22652db939b51db1218584247396454ae0f.es-es.xlf</t>
-  </si>
-  <si>
-    <t>dsc_confighelp.bcfa7e85acae98499089edc9fba25b68953d7bbf.es-es.xlf</t>
-  </si>
-  <si>
-    <t>dsc_directaccess.014c91015162b26b678e0a5fdfd453a3bf6e41b0.es-es.xlf</t>
-  </si>
-  <si>
-    <t>dsc_encryptedmof.a35c44de669ea81f25dd29f152f03493e52e327b.es-es.xlf</t>
-  </si>
-  <si>
-    <t>dsc_freqnomultiple.2848e52c73280aca59e73136bac0c2c7ae02aad6.es-es.xlf</t>
-  </si>
-  <si>
-    <t>dsc_getconfigurationstatus.1705e4bcaa9dfd9d69f00aecdc7ef0d04bf44899.es-es.xlf</t>
-  </si>
-  <si>
-    <t>dsc_identicalduplicate.eb7167ccd4a72d68aa1683327e9b3877927158ab.es-es.xlf</t>
-  </si>
-  <si>
-    <t>dsc_importdscresource.a0169ad862dfcaa5c958c07ecd52c856d5dc8436.es-es.xlf</t>
-  </si>
-  <si>
-    <t>dsc_improvements.d9ed6ffedf9d9650bb6b26b5ed611e420a0aacbb.es-es.xlf</t>
-  </si>
-  <si>
-    <t>dsc_lcmstate.21ea1c36f37c94e8e0363199fbd07bcced3aea40.es-es.xlf</t>
-  </si>
-  <si>
-    <t>dsc_metaconfiguration.e8bbca05aa1692ad54cadd83b93a1902f179f365.es-es.xlf</t>
-  </si>
-  <si>
-    <t>dsc_newresources.b9c40f591f875ea205c834f7675f3edbe1050592.es-es.xlf</t>
-  </si>
-  <si>
-    <t>dsc_nodeid.e3c9049aa6c1d151f8b286f28502537b2f8d22a4.es-es.xlf</t>
-  </si>
-  <si>
-    <t>dsc_partialconfig.a493787c3f8663ac3e2994162ffd1bee429544d3.es-es.xlf</t>
-  </si>
-  <si>
-    <t>dsc_partialconfig_mixedmode.ff4b9a8a421441da62574192650493bf2407028d.es-es.xlf</t>
-  </si>
-  <si>
-    <t>dsc_publishconfig.bfe86d4253abdd777c205caec637c50ec79103ee.es-es.xlf</t>
-  </si>
-  <si>
-    <t>dsc_refreshmode.b0529a06a4d3e07b3fce300f74760d63b27523f6.es-es.xlf</t>
-  </si>
-  <si>
-    <t>dsc_removeconfigdoc.d16cdab7eaedf468bcc38dae34e93be26a204318.es-es.xlf</t>
-  </si>
-  <si>
-    <t>dsc_reporting.b042cd21b9bcfc8e50bc361ddee59333602fad42.es-es.xlf</t>
-  </si>
-  <si>
-    <t>dsc_repository.ec5040a823a6b64e969393e00f3d859fd0b4551c.es-es.xlf</t>
-  </si>
-  <si>
-    <t>dsc_resourcedebugging.95c69e55eb065b349f52e18126d699b1906ba03f.es-es.xlf</t>
-  </si>
-  <si>
-    <t>dsc_runas.9e19a42a6d5e1ea1772358a6fd8ff24b98a5b6ba.es-es.xlf</t>
-  </si>
-  <si>
-    <t>dsc_setdsclcm.1f0e3cab81cf5fc1feda678f202451fe150632e3.es-es.xlf</t>
-  </si>
-  <si>
-    <t>dsc_statestatus.b6f3670f776a8f63a705ba16bed2f20be34fc48f.es-es.xlf</t>
-  </si>
-  <si>
-    <t>dsc_sxsresource.c9d4ce6109370ac1cbc1fb07f191e02f9a61d5d3.es-es.xlf</t>
-  </si>
-  <si>
-    <t>dsc_testconfiguration.b0e5afe2c8f173ebe49c97c9ea9a2f11d81ea5fa.es-es.xlf</t>
-  </si>
-  <si>
-    <t>dsc_updateconfig.a07eb85e3458d42d7ab1ed5c57dcfc70df709d07.es-es.xlf</t>
-  </si>
-  <si>
-    <t>dsc_waitfor.2b09933f08f1020166ce0f0cd7548a5a3845c48f.es-es.xlf</t>
-  </si>
-  <si>
-    <t>dsc_wow64.ea039aaa1bd77415311fc30d80fed43cda07a6e3.es-es.xlf</t>
-  </si>
-  <si>
-    <t>feedback.3662230166299ef7c1fb7a7a7f5cdbd64b1d812a.es-es.xlf</t>
-  </si>
-  <si>
-    <t>feedback_archive.20de26911a704368058401c7e2bd6ebaac692ff5.es-es.xlf</t>
-  </si>
-  <si>
-    <t>feedback_clipboard.872e5c147ef02cb86067651f41e3c00b55386664.es-es.xlf</t>
-  </si>
-  <si>
-    <t>feedback_cmdlets.a4c0dfb806ca0da232eeb75ad3706177b8a5ec48.es-es.xlf</t>
-  </si>
-  <si>
-    <t>feedback_convertfromString.acdeaa33e8fa59b93649b6abf3a7d5ef64fb7664.es-es.xlf</t>
-  </si>
-  <si>
-    <t>feedback_convertstring.42e964e30093962871c3a4d586ed6c54f25f840d.es-es.xlf</t>
-  </si>
-  <si>
-    <t>feedback_fileinfo.0192edad2d6504d26a9632f95fc9e5b66ffd8003.es-es.xlf</t>
-  </si>
-  <si>
-    <t>feedback_formathex.f97931c887efb620e5f4314facc1f0e20e3dffbe.es-es.xlf</t>
-  </si>
-  <si>
-    <t>feedback_getchilditem.ce02ca20cc4417a80fe65eb509a8e92f2cecc79c.es-es.xlf</t>
-  </si>
-  <si>
-    <t>feedback_moduleversionranges.611b3a3219d64dbfa1d01541b60a727b880a0c4b.es-es.xlf</t>
-  </si>
-  <si>
-    <t>feedback_newguid.f8756fbdb96e6fe06a7e0cbb6ac4af32b1c64983.es-es.xlf</t>
-  </si>
-  <si>
-    <t>feedback_nonewline.7a9b7e24c50399879089bba2b8eee7dc325572e2.es-es.xlf</t>
-  </si>
-  <si>
-    <t>feedback_symbolic.1c3ac8128fb9df60512ec024044d48be7d0cb59f.es-es.xlf</t>
-  </si>
-  <si>
-    <t>feedback_tempfile.fc029065af6bbba3a8c4abbf36023bede7d1416d.es-es.xlf</t>
+    <t>lnxArchiveResource.095aab7d23720fd394f2573c30223a6bbcc0a4ef.de-de.xlf</t>
+  </si>
+  <si>
+    <t>lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.de-de.xlf</t>
+  </si>
+  <si>
+    <t>lnxFileLineResource.d91fc802a4c6cdbff5a2e35f92b34c36c6dbf5eb.de-de.xlf</t>
+  </si>
+  <si>
+    <t>lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.de-de.xlf</t>
+  </si>
+  <si>
+    <t>lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-10 20:32:18</t>
+  </si>
+  <si>
+    <t>lnxGroupResource.0cedb684d797032bd47cdb852629c36da0884567.de-de.xlf</t>
+  </si>
+  <si>
+    <t>lnxPackageResource.db35ab938bbfbb38cae53fe9ae98fd22b5f18009.de-de.xlf</t>
+  </si>
+  <si>
+    <t>lnxScriptResource.1344a5d5b807ee53705e93842d9ef5e25a883359.de-de.xlf</t>
+  </si>
+  <si>
+    <t>lnxServiceResource.e637c7f7b18939ec8c16eadf2c42ab00e236fb7b.de-de.xlf</t>
+  </si>
+  <si>
+    <t>lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.de-de.xlf</t>
+  </si>
+  <si>
+    <t>lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.de-de.xlf</t>
+  </si>
+  <si>
+    <t>logResource.07af9dfcf6076ef19059178c3b404762677920f0.de-de.xlf</t>
+  </si>
+  <si>
+    <t>metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.de-de.xlf</t>
+  </si>
+  <si>
+    <t>overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.de-de.xlf</t>
+  </si>
+  <si>
+    <t>packageResource.132c4949cee174dc0dc324456d220436cb9884e6.de-de.xlf</t>
+  </si>
+  <si>
+    <t>partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.de-de.xlf</t>
+  </si>
+  <si>
+    <t>pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.de-de.xlf</t>
+  </si>
+  <si>
+    <t>pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.de-de.xlf</t>
+  </si>
+  <si>
+    <t>pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-09 20:01:41</t>
+  </si>
+  <si>
+    <t>pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.de-de.xlf</t>
+  </si>
+  <si>
+    <t>pullServer.4b925b277da29998394af746bdbdd508fda48909.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-21 21:11:44</t>
+  </si>
+  <si>
+    <t>pullServerSMB.772aec5ae27ccb19ced78e3eb665a4e16db1c4df.de-de.xlf</t>
+  </si>
+  <si>
+    <t>queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.de-de.xlf</t>
+  </si>
+  <si>
+    <t>registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.de-de.xlf</t>
+  </si>
+  <si>
+    <t>reportServer.53df4bc8b7b80c0a19c11434bdf5f4304e8248f7.de-de.xlf</t>
+  </si>
+  <si>
+    <t>resourceAuthoringChecklist.3b9ae254d826cc45519d37d06044f28a69bdfa69.de-de.xlf</t>
+  </si>
+  <si>
+    <t>resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.de-de.xlf</t>
+  </si>
+  <si>
+    <t>runAsUser.d2b90b6bc42ef965e454f9c9f5fd19bc7b488b34.de-de.xlf</t>
+  </si>
+  <si>
+    <t>scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.de-de.xlf</t>
+  </si>
+  <si>
+    <t>secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.de-de.xlf</t>
+  </si>
+  <si>
+    <t>secureServer.ce207607010d18109152742ba23c923cd3cddba2.de-de.xlf</t>
+  </si>
+  <si>
+    <t>serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.de-de.xlf</t>
+  </si>
+  <si>
+    <t>TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.de-de.xlf</t>
+  </si>
+  <si>
+    <t>troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-04 21:11:35</t>
+  </si>
+  <si>
+    <t>userResource.5de4fbe03e9e06934442ba451eb0564931863f45.de-de.xlf</t>
+  </si>
+  <si>
+    <t>windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.de-de.xlf</t>
+  </si>
+  <si>
+    <t>audit_cms.3e422ca243ac938b46bfcf1497a703e55bde970e.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-08 01:12:00</t>
+  </si>
+  <si>
+    <t>audit_overview.fc5b51e2734a2af986c9edf42b4395b1aad2435d.de-de.xlf</t>
+  </si>
+  <si>
+    <t>audit_script.e89f3a9316d1125e1efd23b41b756a3a6161016b.de-de.xlf</t>
+  </si>
+  <si>
+    <t>audit_transcript.c21a6554932939cbf4c744bf7c9f07cc4e1e7160.de-de.xlf</t>
+  </si>
+  <si>
+    <t>class_base.29a9fbe4987503d5575c151f4271f58398cb7e55.de-de.xlf</t>
+  </si>
+  <si>
+    <t>class_baseconstructor.82f951e800b06ccc68090b1be9923c8210a233ac.de-de.xlf</t>
+  </si>
+  <si>
+    <t>class_basemethod.6b60292188d0081f30fbaf4b111db8a439348f5b.de-de.xlf</t>
+  </si>
+  <si>
+    <t>class_interface.84a08fd30808364a820bdd4440de18ec4504a6c7.de-de.xlf</t>
+  </si>
+  <si>
+    <t>class_newtype.a9f52b670970046f8b1147d4ba646b73abb430dc.de-de.xlf</t>
+  </si>
+  <si>
+    <t>class_overview.91227b885afcb8df385ab601ab970b924eca2533.de-de.xlf</t>
+  </si>
+  <si>
+    <t>debug_overview.70b71c20b8b625704c25da28a58e804a048bafb0.de-de.xlf</t>
+  </si>
+  <si>
+    <t>dsc_authoring.364878cde8f156d8999773842812e0c08f70191c.de-de.xlf</t>
+  </si>
+  <si>
+    <t>dsc_classbasedresource.a3d6b22652db939b51db1218584247396454ae0f.de-de.xlf</t>
+  </si>
+  <si>
+    <t>dsc_confighelp.bcfa7e85acae98499089edc9fba25b68953d7bbf.de-de.xlf</t>
+  </si>
+  <si>
+    <t>dsc_directaccess.014c91015162b26b678e0a5fdfd453a3bf6e41b0.de-de.xlf</t>
+  </si>
+  <si>
+    <t>dsc_encryptedmof.a35c44de669ea81f25dd29f152f03493e52e327b.de-de.xlf</t>
+  </si>
+  <si>
+    <t>dsc_freqnomultiple.2848e52c73280aca59e73136bac0c2c7ae02aad6.de-de.xlf</t>
+  </si>
+  <si>
+    <t>dsc_getconfigurationstatus.1705e4bcaa9dfd9d69f00aecdc7ef0d04bf44899.de-de.xlf</t>
+  </si>
+  <si>
+    <t>dsc_identicalduplicate.eb7167ccd4a72d68aa1683327e9b3877927158ab.de-de.xlf</t>
+  </si>
+  <si>
+    <t>dsc_importdscresource.a0169ad862dfcaa5c958c07ecd52c856d5dc8436.de-de.xlf</t>
+  </si>
+  <si>
+    <t>dsc_improvements.d9ed6ffedf9d9650bb6b26b5ed611e420a0aacbb.de-de.xlf</t>
+  </si>
+  <si>
+    <t>dsc_lcmstate.21ea1c36f37c94e8e0363199fbd07bcced3aea40.de-de.xlf</t>
+  </si>
+  <si>
+    <t>dsc_metaconfiguration.e8bbca05aa1692ad54cadd83b93a1902f179f365.de-de.xlf</t>
+  </si>
+  <si>
+    <t>dsc_newresources.b9c40f591f875ea205c834f7675f3edbe1050592.de-de.xlf</t>
+  </si>
+  <si>
+    <t>dsc_nodeid.e3c9049aa6c1d151f8b286f28502537b2f8d22a4.de-de.xlf</t>
+  </si>
+  <si>
+    <t>dsc_partialconfig.a493787c3f8663ac3e2994162ffd1bee429544d3.de-de.xlf</t>
+  </si>
+  <si>
+    <t>dsc_partialconfig_mixedmode.ff4b9a8a421441da62574192650493bf2407028d.de-de.xlf</t>
+  </si>
+  <si>
+    <t>dsc_publishconfig.bfe86d4253abdd777c205caec637c50ec79103ee.de-de.xlf</t>
+  </si>
+  <si>
+    <t>dsc_refreshmode.b0529a06a4d3e07b3fce300f74760d63b27523f6.de-de.xlf</t>
+  </si>
+  <si>
+    <t>dsc_removeconfigdoc.d16cdab7eaedf468bcc38dae34e93be26a204318.de-de.xlf</t>
+  </si>
+  <si>
+    <t>dsc_reporting.b042cd21b9bcfc8e50bc361ddee59333602fad42.de-de.xlf</t>
+  </si>
+  <si>
+    <t>dsc_repository.ec5040a823a6b64e969393e00f3d859fd0b4551c.de-de.xlf</t>
+  </si>
+  <si>
+    <t>dsc_resourcedebugging.95c69e55eb065b349f52e18126d699b1906ba03f.de-de.xlf</t>
+  </si>
+  <si>
+    <t>dsc_runas.9e19a42a6d5e1ea1772358a6fd8ff24b98a5b6ba.de-de.xlf</t>
+  </si>
+  <si>
+    <t>dsc_setdsclcm.1f0e3cab81cf5fc1feda678f202451fe150632e3.de-de.xlf</t>
+  </si>
+  <si>
+    <t>dsc_statestatus.b6f3670f776a8f63a705ba16bed2f20be34fc48f.de-de.xlf</t>
+  </si>
+  <si>
+    <t>dsc_sxsresource.c9d4ce6109370ac1cbc1fb07f191e02f9a61d5d3.de-de.xlf</t>
+  </si>
+  <si>
+    <t>dsc_testconfiguration.b0e5afe2c8f173ebe49c97c9ea9a2f11d81ea5fa.de-de.xlf</t>
+  </si>
+  <si>
+    <t>dsc_updateconfig.a07eb85e3458d42d7ab1ed5c57dcfc70df709d07.de-de.xlf</t>
+  </si>
+  <si>
+    <t>dsc_waitfor.2b09933f08f1020166ce0f0cd7548a5a3845c48f.de-de.xlf</t>
+  </si>
+  <si>
+    <t>dsc_wow64.ea039aaa1bd77415311fc30d80fed43cda07a6e3.de-de.xlf</t>
+  </si>
+  <si>
+    <t>feedback.3662230166299ef7c1fb7a7a7f5cdbd64b1d812a.de-de.xlf</t>
+  </si>
+  <si>
+    <t>feedback_archive.20de26911a704368058401c7e2bd6ebaac692ff5.de-de.xlf</t>
+  </si>
+  <si>
+    <t>feedback_clipboard.872e5c147ef02cb86067651f41e3c00b55386664.de-de.xlf</t>
+  </si>
+  <si>
+    <t>feedback_cmdlets.a4c0dfb806ca0da232eeb75ad3706177b8a5ec48.de-de.xlf</t>
+  </si>
+  <si>
+    <t>feedback_convertfromString.acdeaa33e8fa59b93649b6abf3a7d5ef64fb7664.de-de.xlf</t>
+  </si>
+  <si>
+    <t>feedback_convertstring.42e964e30093962871c3a4d586ed6c54f25f840d.de-de.xlf</t>
+  </si>
+  <si>
+    <t>feedback_fileinfo.0192edad2d6504d26a9632f95fc9e5b66ffd8003.de-de.xlf</t>
+  </si>
+  <si>
+    <t>feedback_formathex.f97931c887efb620e5f4314facc1f0e20e3dffbe.de-de.xlf</t>
+  </si>
+  <si>
+    <t>feedback_getchilditem.ce02ca20cc4417a80fe65eb509a8e92f2cecc79c.de-de.xlf</t>
+  </si>
+  <si>
+    <t>feedback_moduleversionranges.611b3a3219d64dbfa1d01541b60a727b880a0c4b.de-de.xlf</t>
+  </si>
+  <si>
+    <t>feedback_newguid.f8756fbdb96e6fe06a7e0cbb6ac4af32b1c64983.de-de.xlf</t>
+  </si>
+  <si>
+    <t>feedback_nonewline.7a9b7e24c50399879089bba2b8eee7dc325572e2.de-de.xlf</t>
+  </si>
+  <si>
+    <t>feedback_symbolic.1c3ac8128fb9df60512ec024044d48be7d0cb59f.de-de.xlf</t>
+  </si>
+  <si>
+    <t>feedback_tempfile.fc029065af6bbba3a8c4abbf36023bede7d1416d.de-de.xlf</t>
   </si>
   <si>
     <t>ba1897f38317f5fe38f2d8caf0efcc57bc8bb19d.jpg</t>
@@ -945,79 +966,79 @@
     <t>wmf\dsc_encryptedmof.md</t>
   </si>
   <si>
-    <t>informationstream_overview.d2f238b2b4021ccdb7271cf89f53d58970d56cf5.es-es.xlf</t>
-  </si>
-  <si>
-    <t>install.317fc924c0f766547c4725878af59c3c9d8facba.es-es.xlf</t>
-  </si>
-  <si>
-    <t>jea_endpoint.1dc052fe583a907a6c090cf8bfd42293d94d2975.es-es.xlf</t>
-  </si>
-  <si>
-    <t>jea_overview.3fa3008e719be8235adffe51808ac66714940871.es-es.xlf</t>
-  </si>
-  <si>
-    <t>jea_report.7860cec6e93b7405844ccbbe5bc879921447ac0b.es-es.xlf</t>
-  </si>
-  <si>
-    <t>limitation_dsc.3684c81bb088cba98089dffdb1a1e56e1c098335.es-es.xlf</t>
-  </si>
-  <si>
-    <t>limitation_overview.6cc9c8c028f5912636637d836aed7db0614de522.es-es.xlf</t>
-  </si>
-  <si>
-    <t>networkswitch_overview.7a87eb0741cd43b8b9284ea6cb605920c4961b79.es-es.xlf</t>
-  </si>
-  <si>
-    <t>odata_overview.c3f7efdde29fe7ac5685a61cd61d75b65524a4c3.es-es.xlf</t>
-  </si>
-  <si>
-    <t>oneget_cmdlets.469b2350a72495ac2cf62e4130b4df8036f5d135.es-es.xlf</t>
-  </si>
-  <si>
-    <t>oneget_overview.e71a25f36f957ab7471d259c6e716651f6f23c94.es-es.xlf</t>
-  </si>
-  <si>
-    <t>productincompat.62bb00299c0283b5297001553476a745e28a49cb.es-es.xlf</t>
-  </si>
-  <si>
-    <t>psget_module_overview.4149c468ffd0f17a2fabd03f90059c12effc3170.es-es.xlf</t>
-  </si>
-  <si>
-    <t>psget_modulecmdlets.1f808cfdf9a9aa920f88e15f7f5fa4701fe805e3.es-es.xlf</t>
-  </si>
-  <si>
-    <t>psget_moduledependency.89ba9310335ae64db5481a3c02034ac4fe01b6a2.es-es.xlf</t>
-  </si>
-  <si>
-    <t>psget_modulesxsinstall.110ba80d8f917899ef488b46bd15f5654f6ba06c.es-es.xlf</t>
-  </si>
-  <si>
-    <t>psget_psrepository.c4381b2ff7bb6496ab74ed8bb2b07325cfbfc056.es-es.xlf</t>
-  </si>
-  <si>
-    <t>psget_script_overview.f035cc99497d17dc73e3a61f214e40a5860fc70a.es-es.xlf</t>
-  </si>
-  <si>
-    <t>psget_scriptcmdlets.1762d5f29292d59c1afb37cb29eb11a34cf63990.es-es.xlf</t>
-  </si>
-  <si>
-    <t>releasenotes.311750b4da54b1d4ef7997b328edd6ff177fb71f.es-es.xlf</t>
-  </si>
-  <si>
-    <t>requirements.ef8332f358d65b1759bfd4c7336b11d1dc8c2d46.es-es.xlf</t>
-  </si>
-  <si>
-    <t>sil_overview.a2b1f7c716aad317993a5eaffba21fa28ce0c0d8.es-es.xlf</t>
-  </si>
-  <si>
-    <t>TOC.60497266061c38453b3db893ec675eb65584af89.es-es.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-16 22:52:09</t>
-  </si>
-  <si>
-    <t>uninstall.b07adaaaf7f41869dfa201b88e29342aced76c96.es-es.xlf</t>
+    <t>informationstream_overview.d2f238b2b4021ccdb7271cf89f53d58970d56cf5.de-de.xlf</t>
+  </si>
+  <si>
+    <t>install.317fc924c0f766547c4725878af59c3c9d8facba.de-de.xlf</t>
+  </si>
+  <si>
+    <t>jea_endpoint.1dc052fe583a907a6c090cf8bfd42293d94d2975.de-de.xlf</t>
+  </si>
+  <si>
+    <t>jea_overview.3fa3008e719be8235adffe51808ac66714940871.de-de.xlf</t>
+  </si>
+  <si>
+    <t>jea_report.7860cec6e93b7405844ccbbe5bc879921447ac0b.de-de.xlf</t>
+  </si>
+  <si>
+    <t>limitation_dsc.3684c81bb088cba98089dffdb1a1e56e1c098335.de-de.xlf</t>
+  </si>
+  <si>
+    <t>limitation_overview.6cc9c8c028f5912636637d836aed7db0614de522.de-de.xlf</t>
+  </si>
+  <si>
+    <t>networkswitch_overview.7a87eb0741cd43b8b9284ea6cb605920c4961b79.de-de.xlf</t>
+  </si>
+  <si>
+    <t>odata_overview.c3f7efdde29fe7ac5685a61cd61d75b65524a4c3.de-de.xlf</t>
+  </si>
+  <si>
+    <t>oneget_cmdlets.469b2350a72495ac2cf62e4130b4df8036f5d135.de-de.xlf</t>
+  </si>
+  <si>
+    <t>oneget_overview.e71a25f36f957ab7471d259c6e716651f6f23c94.de-de.xlf</t>
+  </si>
+  <si>
+    <t>productincompat.62bb00299c0283b5297001553476a745e28a49cb.de-de.xlf</t>
+  </si>
+  <si>
+    <t>psget_module_overview.4149c468ffd0f17a2fabd03f90059c12effc3170.de-de.xlf</t>
+  </si>
+  <si>
+    <t>psget_modulecmdlets.1f808cfdf9a9aa920f88e15f7f5fa4701fe805e3.de-de.xlf</t>
+  </si>
+  <si>
+    <t>psget_moduledependency.89ba9310335ae64db5481a3c02034ac4fe01b6a2.de-de.xlf</t>
+  </si>
+  <si>
+    <t>psget_modulesxsinstall.110ba80d8f917899ef488b46bd15f5654f6ba06c.de-de.xlf</t>
+  </si>
+  <si>
+    <t>psget_psrepository.c4381b2ff7bb6496ab74ed8bb2b07325cfbfc056.de-de.xlf</t>
+  </si>
+  <si>
+    <t>psget_script_overview.f035cc99497d17dc73e3a61f214e40a5860fc70a.de-de.xlf</t>
+  </si>
+  <si>
+    <t>psget_scriptcmdlets.1762d5f29292d59c1afb37cb29eb11a34cf63990.de-de.xlf</t>
+  </si>
+  <si>
+    <t>releasenotes.311750b4da54b1d4ef7997b328edd6ff177fb71f.de-de.xlf</t>
+  </si>
+  <si>
+    <t>requirements.ef8332f358d65b1759bfd4c7336b11d1dc8c2d46.de-de.xlf</t>
+  </si>
+  <si>
+    <t>sil_overview.a2b1f7c716aad317993a5eaffba21fa28ce0c0d8.de-de.xlf</t>
+  </si>
+  <si>
+    <t>TOC.60497266061c38453b3db893ec675eb65584af89.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-16 22:51:51</t>
+  </si>
+  <si>
+    <t>uninstall.b07adaaaf7f41869dfa201b88e29342aced76c96.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -1074,7 +1095,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="es-es" displayName="es_es" ref="A1:L1" headerRowCount="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="de-de" displayName="de_de" ref="A1:L1" headerRowCount="0">
   <tableColumns count="12">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -1097,7 +1118,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Overview" displayName="Overview" ref="A1:D1" headerRowCount="0">
   <tableColumns count="4">
     <tableColumn id="1" name="File Name"/>
-    <tableColumn id="2" name="es-es"/>
+    <tableColumn id="2" name="de-de"/>
     <tableColumn id="3" name="Latest Handoff Date"/>
     <tableColumn id="4" name="Column4"/>
   </tableColumns>
@@ -1148,12 +1169,12 @@
         <v>4</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>4</v>
@@ -1164,7 +1185,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>4</v>
@@ -1175,13 +1196,13 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -1192,7 +1213,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -1203,7 +1224,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -1211,205 +1232,205 @@
         <v>13</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C27" s="0" t="s">
         <v>5</v>
@@ -1417,1362 +1438,1362 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>52</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C49" s="0" t="s">
         <v>58</v>
-      </c>
-      <c r="B49" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="C49" s="0" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>64</v>
+        <v>10</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>64</v>
+        <v>5</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>52</v>
+        <v>10</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="C125" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B126" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="C126" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B127" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="C127" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B128" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="C128" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B129" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="C129" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B130" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="C130" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B131" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="C131" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B132" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="C132" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B133" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="C133" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B134" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="C134" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B135" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="C135" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B136" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="C136" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B137" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="C137" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B138" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="C138" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B139" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="C139" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B140" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="C140" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B141" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="C141" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B142" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="C142" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B143" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="C143" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B144" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="C144" s="0" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B145" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="C145" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="archiveResource.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="authoringResourceClass.md" r:id="rId3"/>
-    <hyperlink ref="A4" display="authoringResourceComposite.md" r:id="rId4"/>
-    <hyperlink ref="A5" display="authoringResourceMOF.md" r:id="rId5"/>
-    <hyperlink ref="A6" display="authoringResourceMofDesigner.md" r:id="rId6"/>
-    <hyperlink ref="A7" display="configurations.md" r:id="rId7"/>
-    <hyperlink ref="A8" display="enactingConfigurations.md" r:id="rId8"/>
-    <hyperlink ref="A9" display="environmentResource.md" r:id="rId9"/>
-    <hyperlink ref="A10" display="fileResource.md" r:id="rId10"/>
-    <hyperlink ref="A11" display="PartialConfig1.jpg" r:id="rId11"/>
-    <hyperlink ref="A12" display="PartialConfigPullServer.jpg" r:id="rId12"/>
-    <hyperlink ref="A13" display="Pull.png" r:id="rId13"/>
-    <hyperlink ref="A14" display="Push.png" r:id="rId14"/>
-    <hyperlink ref="A15" display="lnxArchiveResource.md" r:id="rId15"/>
-    <hyperlink ref="A16" display="lnxBuiltInResources.md" r:id="rId16"/>
-    <hyperlink ref="A17" display="lnxEnvironmentResource.md" r:id="rId17"/>
-    <hyperlink ref="A18" display="lnxFileLineResource.md" r:id="rId18"/>
-    <hyperlink ref="A19" display="lnxFileResource.md" r:id="rId19"/>
-    <hyperlink ref="A20" display="lnxGroupResource.md" r:id="rId20"/>
-    <hyperlink ref="A21" display="lnxScriptResource.md" r:id="rId21"/>
-    <hyperlink ref="A22" display="lnxServiceResource.md" r:id="rId22"/>
-    <hyperlink ref="A23" display="lnxSshAuthorizedKeysResource.md" r:id="rId23"/>
-    <hyperlink ref="A24" display="lnxUserResource.md" r:id="rId24"/>
-    <hyperlink ref="A25" display="logResource.md" r:id="rId25"/>
-    <hyperlink ref="A26" display="metaConfig.md" r:id="rId26"/>
-    <hyperlink ref="A27" display="overview.md" r:id="rId27"/>
-    <hyperlink ref="A28" display="packageResource.md" r:id="rId28"/>
-    <hyperlink ref="A29" display="partialConfigs.md" r:id="rId29"/>
-    <hyperlink ref="A30" display="pullClient.md" r:id="rId30"/>
-    <hyperlink ref="A31" display="queryServerNodes.md" r:id="rId31"/>
-    <hyperlink ref="A32" display="registryResource.md" r:id="rId32"/>
-    <hyperlink ref="A33" display="reportServer.md" r:id="rId33"/>
-    <hyperlink ref="A34" display="resources.md" r:id="rId34"/>
-    <hyperlink ref="A35" display="scriptResource.md" r:id="rId35"/>
-    <hyperlink ref="A36" display="secureServer.md" r:id="rId36"/>
-    <hyperlink ref="A37" display="serviceResource.md" r:id="rId37"/>
-    <hyperlink ref="A38" display="windowsfeatureResource.md" r:id="rId38"/>
-    <hyperlink ref="A39" display="authoringResource.md" r:id="rId39"/>
-    <hyperlink ref="A40" display="authoringResourceMofCS.md" r:id="rId40"/>
-    <hyperlink ref="A41" display="builtInResource.md" r:id="rId41"/>
-    <hyperlink ref="A42" display="configData.md" r:id="rId42"/>
-    <hyperlink ref="A43" display="configDataCredentials.md" r:id="rId43"/>
-    <hyperlink ref="A44" display="debugResource.md" r:id="rId44"/>
-    <hyperlink ref="A45" display="decisionMaker.md" r:id="rId45"/>
-    <hyperlink ref="A46" display="gettingStarted.md" r:id="rId46"/>
-    <hyperlink ref="A47" display="groupResource.md" r:id="rId47"/>
-    <hyperlink ref="A48" display="CredentialEncryptionDiagram1.png" r:id="rId48"/>
-    <hyperlink ref="A49" display="lnxGettingStarted.md" r:id="rId49"/>
-    <hyperlink ref="A50" display="lnxPackageResource.md" r:id="rId50"/>
-    <hyperlink ref="A51" display="metaConfig4.md" r:id="rId51"/>
-    <hyperlink ref="A52" display="pullClientConfigID.md" r:id="rId52"/>
-    <hyperlink ref="A53" display="pullClientConfigID4.md" r:id="rId53"/>
-    <hyperlink ref="A54" display="pullClientConfigNames.md" r:id="rId54"/>
-    <hyperlink ref="A55" display="pullServer.md" r:id="rId55"/>
-    <hyperlink ref="A56" display="pullServerSMB.md" r:id="rId56"/>
-    <hyperlink ref="A57" display="resourceAuthoringChecklist.md" r:id="rId57"/>
-    <hyperlink ref="A58" display="runAsUser.md" r:id="rId58"/>
-    <hyperlink ref="A59" display="secureMOF.md" r:id="rId59"/>
+    <hyperlink ref="A2" display="PartialConfig1.jpg" r:id="rId2"/>
+    <hyperlink ref="A3" display="PartialConfigPullServer.jpg" r:id="rId3"/>
+    <hyperlink ref="A4" display="Pull.png" r:id="rId4"/>
+    <hyperlink ref="A5" display="Push.png" r:id="rId5"/>
+    <hyperlink ref="A6" display="lnxBuiltInResources.md" r:id="rId6"/>
+    <hyperlink ref="A7" display="metaConfig.md" r:id="rId7"/>
+    <hyperlink ref="A8" display="windowsfeatureResource.md" r:id="rId8"/>
+    <hyperlink ref="A9" display="authoringResource.md" r:id="rId9"/>
+    <hyperlink ref="A10" display="archiveResource.md" r:id="rId10"/>
+    <hyperlink ref="A11" display="authoringResourceClass.md" r:id="rId11"/>
+    <hyperlink ref="A12" display="authoringResourceComposite.md" r:id="rId12"/>
+    <hyperlink ref="A13" display="authoringResourceMOF.md" r:id="rId13"/>
+    <hyperlink ref="A14" display="authoringResourceMofCS.md" r:id="rId14"/>
+    <hyperlink ref="A15" display="authoringResourceMofDesigner.md" r:id="rId15"/>
+    <hyperlink ref="A16" display="builtInResource.md" r:id="rId16"/>
+    <hyperlink ref="A17" display="configData.md" r:id="rId17"/>
+    <hyperlink ref="A18" display="configDataCredentials.md" r:id="rId18"/>
+    <hyperlink ref="A19" display="configurations.md" r:id="rId19"/>
+    <hyperlink ref="A20" display="debugResource.md" r:id="rId20"/>
+    <hyperlink ref="A21" display="decisionMaker.md" r:id="rId21"/>
+    <hyperlink ref="A22" display="enactingConfigurations.md" r:id="rId22"/>
+    <hyperlink ref="A23" display="environmentResource.md" r:id="rId23"/>
+    <hyperlink ref="A24" display="fileResource.md" r:id="rId24"/>
+    <hyperlink ref="A25" display="gettingStarted.md" r:id="rId25"/>
+    <hyperlink ref="A26" display="groupResource.md" r:id="rId26"/>
+    <hyperlink ref="A27" display="CredentialEncryptionDiagram1.png" r:id="rId27"/>
+    <hyperlink ref="A28" display="lnxArchiveResource.md" r:id="rId28"/>
+    <hyperlink ref="A29" display="lnxEnvironmentResource.md" r:id="rId29"/>
+    <hyperlink ref="A30" display="lnxFileLineResource.md" r:id="rId30"/>
+    <hyperlink ref="A31" display="lnxFileResource.md" r:id="rId31"/>
+    <hyperlink ref="A32" display="lnxGettingStarted.md" r:id="rId32"/>
+    <hyperlink ref="A33" display="lnxGroupResource.md" r:id="rId33"/>
+    <hyperlink ref="A34" display="lnxPackageResource.md" r:id="rId34"/>
+    <hyperlink ref="A35" display="lnxScriptResource.md" r:id="rId35"/>
+    <hyperlink ref="A36" display="lnxServiceResource.md" r:id="rId36"/>
+    <hyperlink ref="A37" display="lnxSshAuthorizedKeysResource.md" r:id="rId37"/>
+    <hyperlink ref="A38" display="lnxUserResource.md" r:id="rId38"/>
+    <hyperlink ref="A39" display="logResource.md" r:id="rId39"/>
+    <hyperlink ref="A40" display="metaConfig4.md" r:id="rId40"/>
+    <hyperlink ref="A41" display="overview.md" r:id="rId41"/>
+    <hyperlink ref="A42" display="packageResource.md" r:id="rId42"/>
+    <hyperlink ref="A43" display="partialConfigs.md" r:id="rId43"/>
+    <hyperlink ref="A44" display="pullClient.md" r:id="rId44"/>
+    <hyperlink ref="A45" display="pullClientConfigID.md" r:id="rId45"/>
+    <hyperlink ref="A46" display="pullClientConfigID4.md" r:id="rId46"/>
+    <hyperlink ref="A47" display="pullClientConfigNames.md" r:id="rId47"/>
+    <hyperlink ref="A48" display="pullServer.md" r:id="rId48"/>
+    <hyperlink ref="A49" display="pullServerSMB.md" r:id="rId49"/>
+    <hyperlink ref="A50" display="queryServerNodes.md" r:id="rId50"/>
+    <hyperlink ref="A51" display="registryResource.md" r:id="rId51"/>
+    <hyperlink ref="A52" display="reportServer.md" r:id="rId52"/>
+    <hyperlink ref="A53" display="resourceAuthoringChecklist.md" r:id="rId53"/>
+    <hyperlink ref="A54" display="resources.md" r:id="rId54"/>
+    <hyperlink ref="A55" display="runAsUser.md" r:id="rId55"/>
+    <hyperlink ref="A56" display="scriptResource.md" r:id="rId56"/>
+    <hyperlink ref="A57" display="secureMOF.md" r:id="rId57"/>
+    <hyperlink ref="A58" display="secureServer.md" r:id="rId58"/>
+    <hyperlink ref="A59" display="serviceResource.md" r:id="rId59"/>
     <hyperlink ref="A60" display="TOC.md" r:id="rId60"/>
     <hyperlink ref="A61" display="troubleshooting.md" r:id="rId61"/>
     <hyperlink ref="A62" display="userResource.md" r:id="rId62"/>
@@ -2890,37 +2911,37 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="2">
@@ -2928,28 +2949,31 @@
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>5</v>
+        <v>173</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>173</v>
+        <v>175</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="3">
@@ -2957,115 +2981,124 @@
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="H3" s="0" t="s">
         <v>174</v>
       </c>
-      <c r="H3" s="0" t="s">
-        <v>172</v>
-      </c>
       <c r="I3" s="0" t="s">
-        <v>173</v>
+        <v>175</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>5</v>
+        <v>173</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>173</v>
+        <v>175</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>4</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>5</v>
+        <v>173</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>173</v>
+        <v>175</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>4</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>5</v>
+        <v>184</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
     </row>
     <row r="7">
@@ -3073,28 +3106,28 @@
         <v>11</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>4</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>5</v>
+        <v>184</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
     </row>
     <row r="8">
@@ -3102,28 +3135,28 @@
         <v>12</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>5</v>
+        <v>184</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9">
@@ -3131,3936 +3164,3636 @@
         <v>13</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>185</v>
-      </c>
-      <c r="J11" s="0" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>185</v>
-      </c>
-      <c r="J12" s="0" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>185</v>
-      </c>
-      <c r="J13" s="0" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>185</v>
-      </c>
-      <c r="J14" s="0" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="I21" s="0" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="I22" s="0" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="I24" s="0" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="I25" s="0" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>203</v>
+        <v>184</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="I26" s="0" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>204</v>
+        <v>173</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="I27" s="0" t="s">
-        <v>173</v>
+        <v>175</v>
+      </c>
+      <c r="J27" s="0" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>205</v>
+        <v>184</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="I28" s="0" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>206</v>
+        <v>184</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="I29" s="0" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>207</v>
+        <v>184</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="I30" s="0" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>208</v>
+        <v>184</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="I31" s="0" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="I32" s="0" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>210</v>
+        <v>184</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="I33" s="0" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>211</v>
+        <v>184</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="I34" s="0" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>212</v>
+        <v>184</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="I35" s="0" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>213</v>
+        <v>194</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="I36" s="0" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="I37" s="0" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>215</v>
+        <v>184</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="I38" s="0" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>5</v>
+        <v>184</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="I39" s="0" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>5</v>
+        <v>184</v>
       </c>
       <c r="H40" s="0" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="I40" s="0" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>219</v>
+        <v>184</v>
       </c>
       <c r="H41" s="0" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="I41" s="0" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>5</v>
+        <v>184</v>
       </c>
       <c r="H42" s="0" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="I42" s="0" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>5</v>
+        <v>184</v>
       </c>
       <c r="H43" s="0" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="I43" s="0" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>223</v>
+        <v>184</v>
       </c>
       <c r="H44" s="0" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="I44" s="0" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>225</v>
+        <v>184</v>
       </c>
       <c r="H45" s="0" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="I45" s="0" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="H46" s="0" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="I46" s="0" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>5</v>
+        <v>200</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>236</v>
       </c>
       <c r="H47" s="0" t="s">
-        <v>217</v>
+        <v>188</v>
       </c>
       <c r="I47" s="0" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>16</v>
+        <v>200</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>237</v>
       </c>
       <c r="H48" s="0" t="s">
-        <v>217</v>
+        <v>238</v>
       </c>
       <c r="I48" s="0" t="s">
-        <v>185</v>
-      </c>
-      <c r="J48" s="0" t="s">
-        <v>230</v>
+        <v>186</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="H49" s="0" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="I49" s="0" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>5</v>
+        <v>184</v>
       </c>
       <c r="H50" s="0" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="I50" s="0" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>5</v>
+        <v>184</v>
       </c>
       <c r="H51" s="0" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="I51" s="0" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>5</v>
+        <v>184</v>
       </c>
       <c r="H52" s="0" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="I52" s="0" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H53" s="0" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="I53" s="0" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>237</v>
+        <v>184</v>
       </c>
       <c r="H54" s="0" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="I54" s="0" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="H55" s="0" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="I55" s="0" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>64</v>
+        <v>184</v>
       </c>
       <c r="H56" s="0" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="I56" s="0" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>64</v>
+        <v>173</v>
       </c>
       <c r="H57" s="0" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="I57" s="0" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>224</v>
+        <v>184</v>
       </c>
       <c r="H58" s="0" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="I58" s="0" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>242</v>
+        <v>184</v>
       </c>
       <c r="H59" s="0" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="I59" s="0" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>243</v>
+        <v>200</v>
       </c>
       <c r="H60" s="0" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="I60" s="0" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="H61" s="0" t="s">
-        <v>172</v>
+        <v>238</v>
       </c>
       <c r="I61" s="0" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>5</v>
+        <v>184</v>
       </c>
       <c r="H62" s="0" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="I62" s="0" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>5</v>
+        <v>184</v>
       </c>
       <c r="H63" s="0" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="I63" s="0" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="H64" s="0" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="I64" s="0" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="H65" s="0" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="I65" s="0" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="H66" s="0" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="I66" s="0" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="H67" s="0" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="I67" s="0" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="H68" s="0" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="I68" s="0" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="H69" s="0" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="I69" s="0" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="H70" s="0" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="I70" s="0" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="H71" s="0" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="I71" s="0" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="H72" s="0" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="I72" s="0" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="H73" s="0" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="I73" s="0" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="H74" s="0" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="I74" s="0" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="H75" s="0" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="I75" s="0" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="H76" s="0" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="I76" s="0" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="H77" s="0" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="I77" s="0" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="H78" s="0" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="I78" s="0" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="H79" s="0" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="I79" s="0" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="H80" s="0" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="I80" s="0" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="H81" s="0" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="I81" s="0" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="H82" s="0" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="I82" s="0" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="H83" s="0" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="I83" s="0" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="H84" s="0" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="I84" s="0" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="H85" s="0" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="I85" s="0" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="H86" s="0" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="I86" s="0" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="H87" s="0" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="I87" s="0" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="H88" s="0" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="I88" s="0" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="H89" s="0" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="I89" s="0" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="H90" s="0" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="I90" s="0" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="H91" s="0" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="I91" s="0" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="H92" s="0" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="I92" s="0" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="H93" s="0" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="I93" s="0" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="H94" s="0" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="I94" s="0" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="H95" s="0" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="I95" s="0" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="H96" s="0" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="I96" s="0" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="H97" s="0" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="I97" s="0" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="H98" s="0" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="I98" s="0" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="H99" s="0" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="I99" s="0" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="H100" s="0" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="I100" s="0" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="H101" s="0" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="I101" s="0" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="H102" s="0" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="I102" s="0" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="H103" s="0" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="I103" s="0" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="H104" s="0" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="I104" s="0" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="H105" s="0" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="I105" s="0" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="H106" s="0" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="I106" s="0" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="H107" s="0" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="I107" s="0" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="H108" s="0" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="I108" s="0" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="H109" s="0" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="I109" s="0" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="H110" s="0" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="I110" s="0" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="H111" s="0" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="I111" s="0" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="H112" s="0" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="I112" s="0" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="H113" s="0" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="I113" s="0" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="H114" s="0" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="I114" s="0" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="H115" s="0" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="I115" s="0" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="H116" s="0" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="I116" s="0" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="H117" s="0" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="I117" s="0" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="H118" s="0" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="I118" s="0" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>16</v>
+        <v>173</v>
       </c>
       <c r="H119" s="0" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="I119" s="0" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="J119" s="0" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>16</v>
+        <v>173</v>
       </c>
       <c r="H120" s="0" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="I120" s="0" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="J120" s="0" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>16</v>
+        <v>173</v>
       </c>
       <c r="H121" s="0" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="I121" s="0" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="J121" s="0" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="H122" s="0" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="I122" s="0" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="H123" s="0" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="I123" s="0" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="H124" s="0" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="I124" s="0" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="C125" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="H125" s="0" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="I125" s="0" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="C126" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="H126" s="0" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="I126" s="0" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="C127" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="H127" s="0" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="I127" s="0" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="C128" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="H128" s="0" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="I128" s="0" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="C129" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="H129" s="0" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="I129" s="0" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="C130" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="H130" s="0" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="I130" s="0" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="C131" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="H131" s="0" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="I131" s="0" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="C132" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="H132" s="0" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="I132" s="0" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="C133" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="H133" s="0" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="I133" s="0" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="C134" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="H134" s="0" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="I134" s="0" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="C135" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="H135" s="0" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="I135" s="0" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="C136" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="H136" s="0" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="I136" s="0" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="C137" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="H137" s="0" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="I137" s="0" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="C138" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="H138" s="0" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="I138" s="0" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="C139" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="H139" s="0" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="I139" s="0" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="C140" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="H140" s="0" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="I140" s="0" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="C141" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="H141" s="0" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="I141" s="0" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="C142" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="H142" s="0" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="I142" s="0" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="C143" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="H143" s="0" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="I143" s="0" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="C144" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="H144" s="0" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="I144" s="0" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="C145" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="H145" s="0" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="I145" s="0" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="archiveResource.md" r:id="rId2"/>
-    <hyperlink ref="B2" display=".md" r:id="rId3"/>
-    <hyperlink ref="D2" display="archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.es-es.xlf" r:id="rId4"/>
-    <hyperlink ref="F2" display="archiveResource.md" r:id="rId5"/>
-    <hyperlink ref="G2" display="archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.es-es.xlf" r:id="rId6"/>
-    <hyperlink ref="A3" display="authoringResourceClass.md" r:id="rId7"/>
-    <hyperlink ref="B3" display=".md" r:id="rId8"/>
-    <hyperlink ref="D3" display="authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.es-es.xlf" r:id="rId9"/>
-    <hyperlink ref="F3" display="authoringResourceClass.md" r:id="rId10"/>
-    <hyperlink ref="G3" display="authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.es-es.xlf" r:id="rId11"/>
-    <hyperlink ref="A4" display="authoringResourceComposite.md" r:id="rId12"/>
-    <hyperlink ref="B4" display=".md" r:id="rId13"/>
-    <hyperlink ref="D4" display="authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.es-es.xlf" r:id="rId14"/>
-    <hyperlink ref="F4" display="authoringResourceComposite.md" r:id="rId15"/>
-    <hyperlink ref="G4" display="authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.es-es.xlf" r:id="rId16"/>
-    <hyperlink ref="A5" display="authoringResourceMOF.md" r:id="rId17"/>
-    <hyperlink ref="B5" display=".md" r:id="rId18"/>
-    <hyperlink ref="D5" display="authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.es-es.xlf" r:id="rId19"/>
-    <hyperlink ref="F5" display="authoringResourceMOF.md" r:id="rId20"/>
-    <hyperlink ref="G5" display="authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.es-es.xlf" r:id="rId21"/>
-    <hyperlink ref="A6" display="authoringResourceMofDesigner.md" r:id="rId22"/>
+    <hyperlink ref="A2" display="PartialConfig1.jpg" r:id="rId2"/>
+    <hyperlink ref="B2" display=".jpg" r:id="rId3"/>
+    <hyperlink ref="D2" display="3e61149f7b05f74d662d3038233013ffdcbed1a3.jpg" r:id="rId4"/>
+    <hyperlink ref="F2" display="PartialConfig1.jpg" r:id="rId5"/>
+    <hyperlink ref="G2" display="3e61149f7b05f74d662d3038233013ffdcbed1a3.jpg" r:id="rId6"/>
+    <hyperlink ref="A3" display="PartialConfigPullServer.jpg" r:id="rId7"/>
+    <hyperlink ref="B3" display=".jpg" r:id="rId8"/>
+    <hyperlink ref="D3" display="1ba842005c2b1ce80a3670429b3e010c7b1c1f59.jpg" r:id="rId9"/>
+    <hyperlink ref="F3" display="PartialConfigPullServer.jpg" r:id="rId10"/>
+    <hyperlink ref="G3" display="1ba842005c2b1ce80a3670429b3e010c7b1c1f59.jpg" r:id="rId11"/>
+    <hyperlink ref="A4" display="Pull.png" r:id="rId12"/>
+    <hyperlink ref="B4" display=".png" r:id="rId13"/>
+    <hyperlink ref="D4" display="86d829b1fcdd41e648ed0594eaf337b3726c143c.png" r:id="rId14"/>
+    <hyperlink ref="F4" display="Pull.png" r:id="rId15"/>
+    <hyperlink ref="G4" display="86d829b1fcdd41e648ed0594eaf337b3726c143c.png" r:id="rId16"/>
+    <hyperlink ref="A5" display="Push.png" r:id="rId17"/>
+    <hyperlink ref="B5" display=".png" r:id="rId18"/>
+    <hyperlink ref="D5" display="d3008e3fe7da4c118c693d2b34a0b329780f8d86.png" r:id="rId19"/>
+    <hyperlink ref="F5" display="Push.png" r:id="rId20"/>
+    <hyperlink ref="G5" display="d3008e3fe7da4c118c693d2b34a0b329780f8d86.png" r:id="rId21"/>
+    <hyperlink ref="A6" display="lnxBuiltInResources.md" r:id="rId22"/>
     <hyperlink ref="B6" display=".md" r:id="rId23"/>
-    <hyperlink ref="D6" display="authoringResourceMofDesigner.09b1adffc4afb0d9b1154880e2dab0b25d82d51b.es-es.xlf" r:id="rId24"/>
-    <hyperlink ref="F6" display="authoringResourceMofDesigner.md" r:id="rId25"/>
-    <hyperlink ref="G6" display="authoringResourceMofDesigner.09b1adffc4afb0d9b1154880e2dab0b25d82d51b.es-es.xlf" r:id="rId26"/>
-    <hyperlink ref="A7" display="configurations.md" r:id="rId27"/>
+    <hyperlink ref="D6" display="lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.de-de.xlf" r:id="rId24"/>
+    <hyperlink ref="F6" display="lnxBuiltInResources.md" r:id="rId25"/>
+    <hyperlink ref="G6" display="lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.de-de.xlf" r:id="rId26"/>
+    <hyperlink ref="A7" display="metaConfig.md" r:id="rId27"/>
     <hyperlink ref="B7" display=".md" r:id="rId28"/>
-    <hyperlink ref="D7" display="configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.es-es.xlf" r:id="rId29"/>
-    <hyperlink ref="F7" display="configurations.md" r:id="rId30"/>
-    <hyperlink ref="G7" display="configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.es-es.xlf" r:id="rId31"/>
-    <hyperlink ref="A8" display="enactingConfigurations.md" r:id="rId32"/>
+    <hyperlink ref="D7" display="metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.de-de.xlf" r:id="rId29"/>
+    <hyperlink ref="F7" display="metaConfig.md" r:id="rId30"/>
+    <hyperlink ref="G7" display="metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.de-de.xlf" r:id="rId31"/>
+    <hyperlink ref="A8" display="windowsfeatureResource.md" r:id="rId32"/>
     <hyperlink ref="B8" display=".md" r:id="rId33"/>
-    <hyperlink ref="D8" display="enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.es-es.xlf" r:id="rId34"/>
-    <hyperlink ref="F8" display="enactingConfigurations.md" r:id="rId35"/>
-    <hyperlink ref="G8" display="enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.es-es.xlf" r:id="rId36"/>
-    <hyperlink ref="A9" display="environmentResource.md" r:id="rId37"/>
+    <hyperlink ref="D8" display="windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.de-de.xlf" r:id="rId34"/>
+    <hyperlink ref="F8" display="windowsfeatureResource.md" r:id="rId35"/>
+    <hyperlink ref="G8" display="windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.de-de.xlf" r:id="rId36"/>
+    <hyperlink ref="A9" display="authoringResource.md" r:id="rId37"/>
     <hyperlink ref="B9" display=".md" r:id="rId38"/>
-    <hyperlink ref="D9" display="environmentResource.eb91ffd4cd8bdb9476e5a83de1a20d3b7b502a56.es-es.xlf" r:id="rId39"/>
-    <hyperlink ref="F9" display="environmentResource.md" r:id="rId40"/>
-    <hyperlink ref="G9" display="environmentResource.eb91ffd4cd8bdb9476e5a83de1a20d3b7b502a56.es-es.xlf" r:id="rId41"/>
-    <hyperlink ref="A10" display="fileResource.md" r:id="rId42"/>
-    <hyperlink ref="B10" display=".md" r:id="rId43"/>
-    <hyperlink ref="D10" display="fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.es-es.xlf" r:id="rId44"/>
-    <hyperlink ref="F10" display="fileResource.md" r:id="rId45"/>
-    <hyperlink ref="G10" display="fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.es-es.xlf" r:id="rId46"/>
-    <hyperlink ref="A11" display="PartialConfig1.jpg" r:id="rId47"/>
-    <hyperlink ref="B11" display=".jpg" r:id="rId48"/>
-    <hyperlink ref="D11" display="3e61149f7b05f74d662d3038233013ffdcbed1a3.jpg" r:id="rId49"/>
-    <hyperlink ref="F11" display="PartialConfig1.jpg" r:id="rId50"/>
-    <hyperlink ref="G11" display="3e61149f7b05f74d662d3038233013ffdcbed1a3.jpg" r:id="rId51"/>
-    <hyperlink ref="A12" display="PartialConfigPullServer.jpg" r:id="rId52"/>
-    <hyperlink ref="B12" display=".jpg" r:id="rId53"/>
-    <hyperlink ref="D12" display="1ba842005c2b1ce80a3670429b3e010c7b1c1f59.jpg" r:id="rId54"/>
-    <hyperlink ref="F12" display="PartialConfigPullServer.jpg" r:id="rId55"/>
-    <hyperlink ref="G12" display="1ba842005c2b1ce80a3670429b3e010c7b1c1f59.jpg" r:id="rId56"/>
-    <hyperlink ref="A13" display="Pull.png" r:id="rId57"/>
-    <hyperlink ref="B13" display=".png" r:id="rId58"/>
-    <hyperlink ref="D13" display="86d829b1fcdd41e648ed0594eaf337b3726c143c.png" r:id="rId59"/>
-    <hyperlink ref="F13" display="Pull.png" r:id="rId60"/>
-    <hyperlink ref="G13" display="86d829b1fcdd41e648ed0594eaf337b3726c143c.png" r:id="rId61"/>
-    <hyperlink ref="A14" display="Push.png" r:id="rId62"/>
-    <hyperlink ref="B14" display=".png" r:id="rId63"/>
-    <hyperlink ref="D14" display="d3008e3fe7da4c118c693d2b34a0b329780f8d86.png" r:id="rId64"/>
-    <hyperlink ref="F14" display="Push.png" r:id="rId65"/>
-    <hyperlink ref="G14" display="d3008e3fe7da4c118c693d2b34a0b329780f8d86.png" r:id="rId66"/>
-    <hyperlink ref="A15" display="lnxArchiveResource.md" r:id="rId67"/>
-    <hyperlink ref="B15" display=".md" r:id="rId68"/>
-    <hyperlink ref="D15" display="lnxArchiveResource.095aab7d23720fd394f2573c30223a6bbcc0a4ef.es-es.xlf" r:id="rId69"/>
-    <hyperlink ref="F15" display="lnxArchiveResource.md" r:id="rId70"/>
-    <hyperlink ref="G15" display="lnxArchiveResource.095aab7d23720fd394f2573c30223a6bbcc0a4ef.es-es.xlf" r:id="rId71"/>
-    <hyperlink ref="A16" display="lnxBuiltInResources.md" r:id="rId72"/>
-    <hyperlink ref="B16" display=".md" r:id="rId73"/>
-    <hyperlink ref="D16" display="lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.es-es.xlf" r:id="rId74"/>
-    <hyperlink ref="F16" display="lnxBuiltInResources.md" r:id="rId75"/>
-    <hyperlink ref="G16" display="lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.es-es.xlf" r:id="rId76"/>
-    <hyperlink ref="A17" display="lnxEnvironmentResource.md" r:id="rId77"/>
-    <hyperlink ref="B17" display=".md" r:id="rId78"/>
-    <hyperlink ref="D17" display="lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.es-es.xlf" r:id="rId79"/>
-    <hyperlink ref="F17" display="lnxEnvironmentResource.md" r:id="rId80"/>
-    <hyperlink ref="G17" display="lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.es-es.xlf" r:id="rId81"/>
-    <hyperlink ref="A18" display="lnxFileLineResource.md" r:id="rId82"/>
-    <hyperlink ref="B18" display=".md" r:id="rId83"/>
-    <hyperlink ref="D18" display="lnxFileLineResource.d91fc802a4c6cdbff5a2e35f92b34c36c6dbf5eb.es-es.xlf" r:id="rId84"/>
-    <hyperlink ref="F18" display="lnxFileLineResource.md" r:id="rId85"/>
-    <hyperlink ref="G18" display="lnxFileLineResource.d91fc802a4c6cdbff5a2e35f92b34c36c6dbf5eb.es-es.xlf" r:id="rId86"/>
-    <hyperlink ref="A19" display="lnxFileResource.md" r:id="rId87"/>
-    <hyperlink ref="B19" display=".md" r:id="rId88"/>
-    <hyperlink ref="D19" display="lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.es-es.xlf" r:id="rId89"/>
-    <hyperlink ref="F19" display="lnxFileResource.md" r:id="rId90"/>
-    <hyperlink ref="G19" display="lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.es-es.xlf" r:id="rId91"/>
-    <hyperlink ref="A20" display="lnxGroupResource.md" r:id="rId92"/>
-    <hyperlink ref="B20" display=".md" r:id="rId93"/>
-    <hyperlink ref="D20" display="lnxGroupResource.0cedb684d797032bd47cdb852629c36da0884567.es-es.xlf" r:id="rId94"/>
-    <hyperlink ref="F20" display="lnxGroupResource.md" r:id="rId95"/>
-    <hyperlink ref="G20" display="lnxGroupResource.0cedb684d797032bd47cdb852629c36da0884567.es-es.xlf" r:id="rId96"/>
-    <hyperlink ref="A21" display="lnxScriptResource.md" r:id="rId97"/>
-    <hyperlink ref="B21" display=".md" r:id="rId98"/>
-    <hyperlink ref="D21" display="lnxScriptResource.1344a5d5b807ee53705e93842d9ef5e25a883359.es-es.xlf" r:id="rId99"/>
-    <hyperlink ref="F21" display="lnxScriptResource.md" r:id="rId100"/>
-    <hyperlink ref="G21" display="lnxScriptResource.1344a5d5b807ee53705e93842d9ef5e25a883359.es-es.xlf" r:id="rId101"/>
-    <hyperlink ref="A22" display="lnxServiceResource.md" r:id="rId102"/>
-    <hyperlink ref="B22" display=".md" r:id="rId103"/>
-    <hyperlink ref="D22" display="lnxServiceResource.e637c7f7b18939ec8c16eadf2c42ab00e236fb7b.es-es.xlf" r:id="rId104"/>
-    <hyperlink ref="F22" display="lnxServiceResource.md" r:id="rId105"/>
-    <hyperlink ref="G22" display="lnxServiceResource.e637c7f7b18939ec8c16eadf2c42ab00e236fb7b.es-es.xlf" r:id="rId106"/>
-    <hyperlink ref="A23" display="lnxSshAuthorizedKeysResource.md" r:id="rId107"/>
-    <hyperlink ref="B23" display=".md" r:id="rId108"/>
-    <hyperlink ref="D23" display="lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.es-es.xlf" r:id="rId109"/>
-    <hyperlink ref="F23" display="lnxSshAuthorizedKeysResource.md" r:id="rId110"/>
-    <hyperlink ref="G23" display="lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.es-es.xlf" r:id="rId111"/>
-    <hyperlink ref="A24" display="lnxUserResource.md" r:id="rId112"/>
-    <hyperlink ref="B24" display=".md" r:id="rId113"/>
-    <hyperlink ref="D24" display="lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.es-es.xlf" r:id="rId114"/>
-    <hyperlink ref="F24" display="lnxUserResource.md" r:id="rId115"/>
-    <hyperlink ref="G24" display="lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.es-es.xlf" r:id="rId116"/>
-    <hyperlink ref="A25" display="logResource.md" r:id="rId117"/>
-    <hyperlink ref="B25" display=".md" r:id="rId118"/>
-    <hyperlink ref="D25" display="logResource.07af9dfcf6076ef19059178c3b404762677920f0.es-es.xlf" r:id="rId119"/>
-    <hyperlink ref="F25" display="logResource.md" r:id="rId120"/>
-    <hyperlink ref="G25" display="logResource.07af9dfcf6076ef19059178c3b404762677920f0.es-es.xlf" r:id="rId121"/>
-    <hyperlink ref="A26" display="metaConfig.md" r:id="rId122"/>
-    <hyperlink ref="B26" display=".md" r:id="rId123"/>
-    <hyperlink ref="D26" display="metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.es-es.xlf" r:id="rId124"/>
-    <hyperlink ref="F26" display="metaConfig.md" r:id="rId125"/>
-    <hyperlink ref="G26" display="metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.es-es.xlf" r:id="rId126"/>
-    <hyperlink ref="A27" display="overview.md" r:id="rId127"/>
-    <hyperlink ref="B27" display=".md" r:id="rId128"/>
-    <hyperlink ref="D27" display="overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.es-es.xlf" r:id="rId129"/>
-    <hyperlink ref="F27" display="overview.md" r:id="rId130"/>
-    <hyperlink ref="G27" display="overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.es-es.xlf" r:id="rId131"/>
-    <hyperlink ref="A28" display="packageResource.md" r:id="rId132"/>
-    <hyperlink ref="B28" display=".md" r:id="rId133"/>
-    <hyperlink ref="D28" display="packageResource.132c4949cee174dc0dc324456d220436cb9884e6.es-es.xlf" r:id="rId134"/>
-    <hyperlink ref="F28" display="packageResource.md" r:id="rId135"/>
-    <hyperlink ref="G28" display="packageResource.132c4949cee174dc0dc324456d220436cb9884e6.es-es.xlf" r:id="rId136"/>
-    <hyperlink ref="A29" display="partialConfigs.md" r:id="rId137"/>
-    <hyperlink ref="B29" display=".md" r:id="rId138"/>
-    <hyperlink ref="D29" display="partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.es-es.xlf" r:id="rId139"/>
-    <hyperlink ref="F29" display="partialConfigs.md" r:id="rId140"/>
-    <hyperlink ref="G29" display="partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.es-es.xlf" r:id="rId141"/>
-    <hyperlink ref="A30" display="pullClient.md" r:id="rId142"/>
-    <hyperlink ref="B30" display=".md" r:id="rId143"/>
-    <hyperlink ref="D30" display="pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.es-es.xlf" r:id="rId144"/>
-    <hyperlink ref="F30" display="pullClient.md" r:id="rId145"/>
-    <hyperlink ref="G30" display="pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.es-es.xlf" r:id="rId146"/>
-    <hyperlink ref="A31" display="queryServerNodes.md" r:id="rId147"/>
-    <hyperlink ref="B31" display=".md" r:id="rId148"/>
-    <hyperlink ref="D31" display="queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.es-es.xlf" r:id="rId149"/>
-    <hyperlink ref="F31" display="queryServerNodes.md" r:id="rId150"/>
-    <hyperlink ref="G31" display="queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.es-es.xlf" r:id="rId151"/>
-    <hyperlink ref="A32" display="registryResource.md" r:id="rId152"/>
-    <hyperlink ref="B32" display=".md" r:id="rId153"/>
-    <hyperlink ref="D32" display="registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.es-es.xlf" r:id="rId154"/>
-    <hyperlink ref="F32" display="registryResource.md" r:id="rId155"/>
-    <hyperlink ref="G32" display="registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.es-es.xlf" r:id="rId156"/>
-    <hyperlink ref="A33" display="reportServer.md" r:id="rId157"/>
-    <hyperlink ref="B33" display=".md" r:id="rId158"/>
-    <hyperlink ref="D33" display="reportServer.53df4bc8b7b80c0a19c11434bdf5f4304e8248f7.es-es.xlf" r:id="rId159"/>
-    <hyperlink ref="F33" display="reportServer.md" r:id="rId160"/>
-    <hyperlink ref="G33" display="reportServer.53df4bc8b7b80c0a19c11434bdf5f4304e8248f7.es-es.xlf" r:id="rId161"/>
-    <hyperlink ref="A34" display="resources.md" r:id="rId162"/>
-    <hyperlink ref="B34" display=".md" r:id="rId163"/>
-    <hyperlink ref="D34" display="resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.es-es.xlf" r:id="rId164"/>
-    <hyperlink ref="F34" display="resources.md" r:id="rId165"/>
-    <hyperlink ref="G34" display="resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.es-es.xlf" r:id="rId166"/>
-    <hyperlink ref="A35" display="scriptResource.md" r:id="rId167"/>
-    <hyperlink ref="B35" display=".md" r:id="rId168"/>
-    <hyperlink ref="D35" display="scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.es-es.xlf" r:id="rId169"/>
-    <hyperlink ref="F35" display="scriptResource.md" r:id="rId170"/>
-    <hyperlink ref="G35" display="scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.es-es.xlf" r:id="rId171"/>
-    <hyperlink ref="A36" display="secureServer.md" r:id="rId172"/>
-    <hyperlink ref="B36" display=".md" r:id="rId173"/>
-    <hyperlink ref="D36" display="secureServer.ce207607010d18109152742ba23c923cd3cddba2.es-es.xlf" r:id="rId174"/>
-    <hyperlink ref="F36" display="secureServer.md" r:id="rId175"/>
-    <hyperlink ref="G36" display="secureServer.ce207607010d18109152742ba23c923cd3cddba2.es-es.xlf" r:id="rId176"/>
-    <hyperlink ref="A37" display="serviceResource.md" r:id="rId177"/>
-    <hyperlink ref="B37" display=".md" r:id="rId178"/>
-    <hyperlink ref="D37" display="serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.es-es.xlf" r:id="rId179"/>
-    <hyperlink ref="F37" display="serviceResource.md" r:id="rId180"/>
-    <hyperlink ref="G37" display="serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.es-es.xlf" r:id="rId181"/>
-    <hyperlink ref="A38" display="windowsfeatureResource.md" r:id="rId182"/>
-    <hyperlink ref="B38" display=".md" r:id="rId183"/>
-    <hyperlink ref="D38" display="windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.es-es.xlf" r:id="rId184"/>
-    <hyperlink ref="F38" display="windowsfeatureResource.md" r:id="rId185"/>
-    <hyperlink ref="G38" display="windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.es-es.xlf" r:id="rId186"/>
-    <hyperlink ref="A39" display="authoringResource.md" r:id="rId187"/>
-    <hyperlink ref="B39" display=".md" r:id="rId188"/>
-    <hyperlink ref="D39" display="authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.es-es.xlf" r:id="rId189"/>
-    <hyperlink ref="A40" display="authoringResourceMofCS.md" r:id="rId190"/>
-    <hyperlink ref="B40" display=".md" r:id="rId191"/>
-    <hyperlink ref="D40" display="authoringResourceMofCS.0647b27b00ec52b2f524a2856e48bc7c29c0f867.es-es.xlf" r:id="rId192"/>
-    <hyperlink ref="A41" display="builtInResource.md" r:id="rId193"/>
-    <hyperlink ref="B41" display=".md" r:id="rId194"/>
-    <hyperlink ref="D41" display="builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.es-es.xlf" r:id="rId195"/>
-    <hyperlink ref="F41" display="builtInResource.md" r:id="rId196"/>
-    <hyperlink ref="G41" display="builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.es-es.xlf" r:id="rId197"/>
-    <hyperlink ref="A42" display="configData.md" r:id="rId198"/>
-    <hyperlink ref="B42" display=".md" r:id="rId199"/>
-    <hyperlink ref="D42" display="configData.51d01a46dd9af8b425788cc485523b09f8470b95.es-es.xlf" r:id="rId200"/>
-    <hyperlink ref="A43" display="configDataCredentials.md" r:id="rId201"/>
-    <hyperlink ref="B43" display=".md" r:id="rId202"/>
-    <hyperlink ref="D43" display="configDataCredentials.f3e75119e7d93b2f914823c5ea23bfde3935a874.es-es.xlf" r:id="rId203"/>
-    <hyperlink ref="A44" display="debugResource.md" r:id="rId204"/>
-    <hyperlink ref="B44" display=".md" r:id="rId205"/>
-    <hyperlink ref="D44" display="debugResource.ac634156affe5c723cc149a298f5aa4268d17016.es-es.xlf" r:id="rId206"/>
-    <hyperlink ref="F44" display="debugResource.md" r:id="rId207"/>
-    <hyperlink ref="G44" display="debugResource.ac634156affe5c723cc149a298f5aa4268d17016.es-es.xlf" r:id="rId208"/>
-    <hyperlink ref="A45" display="decisionMaker.md" r:id="rId209"/>
-    <hyperlink ref="B45" display=".md" r:id="rId210"/>
-    <hyperlink ref="D45" display="decisionMaker.01553169f2ba4241995260fad925e2784b5f5567.es-es.xlf" r:id="rId211"/>
-    <hyperlink ref="F45" display="decisionMaker.md" r:id="rId212"/>
-    <hyperlink ref="G45" display="decisionMaker.01553169f2ba4241995260fad925e2784b5f5567.es-es.xlf" r:id="rId213"/>
-    <hyperlink ref="A46" display="gettingStarted.md" r:id="rId214"/>
-    <hyperlink ref="B46" display=".md" r:id="rId215"/>
-    <hyperlink ref="D46" display="gettingStarted.92e02d8bd273df5c304475a9b4fa251c22a7ea19.es-es.xlf" r:id="rId216"/>
-    <hyperlink ref="F46" display="gettingStarted.md" r:id="rId217"/>
-    <hyperlink ref="G46" display="gettingStarted.92e02d8bd273df5c304475a9b4fa251c22a7ea19.es-es.xlf" r:id="rId218"/>
-    <hyperlink ref="A47" display="groupResource.md" r:id="rId219"/>
-    <hyperlink ref="B47" display=".md" r:id="rId220"/>
-    <hyperlink ref="D47" display="groupResource.d19d416269795c92566b62c36b9782062dcea43e.es-es.xlf" r:id="rId221"/>
-    <hyperlink ref="A48" display="CredentialEncryptionDiagram1.png" r:id="rId222"/>
-    <hyperlink ref="B48" display=".png" r:id="rId223"/>
-    <hyperlink ref="D48" display="d9f53a805041164f5070845c0fd216b63d17ae58.png" r:id="rId224"/>
-    <hyperlink ref="A49" display="lnxGettingStarted.md" r:id="rId225"/>
-    <hyperlink ref="B49" display=".md" r:id="rId226"/>
-    <hyperlink ref="D49" display="lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.es-es.xlf" r:id="rId227"/>
-    <hyperlink ref="A50" display="lnxPackageResource.md" r:id="rId228"/>
-    <hyperlink ref="B50" display=".md" r:id="rId229"/>
-    <hyperlink ref="D50" display="lnxPackageResource.db35ab938bbfbb38cae53fe9ae98fd22b5f18009.es-es.xlf" r:id="rId230"/>
-    <hyperlink ref="A51" display="metaConfig4.md" r:id="rId231"/>
-    <hyperlink ref="B51" display=".md" r:id="rId232"/>
-    <hyperlink ref="D51" display="metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.es-es.xlf" r:id="rId233"/>
-    <hyperlink ref="A52" display="pullClientConfigID.md" r:id="rId234"/>
-    <hyperlink ref="B52" display=".md" r:id="rId235"/>
-    <hyperlink ref="D52" display="pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.es-es.xlf" r:id="rId236"/>
-    <hyperlink ref="A53" display="pullClientConfigID4.md" r:id="rId237"/>
-    <hyperlink ref="B53" display=".md" r:id="rId238"/>
-    <hyperlink ref="D53" display="pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.es-es.xlf" r:id="rId239"/>
-    <hyperlink ref="F53" display="pullClientConfigID4.md" r:id="rId240"/>
-    <hyperlink ref="G53" display="pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.es-es.xlf" r:id="rId241"/>
-    <hyperlink ref="A54" display="pullClientConfigNames.md" r:id="rId242"/>
-    <hyperlink ref="B54" display=".md" r:id="rId243"/>
-    <hyperlink ref="D54" display="pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.es-es.xlf" r:id="rId244"/>
-    <hyperlink ref="F54" display="pullClientConfigNames.md" r:id="rId245"/>
-    <hyperlink ref="G54" display="pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.es-es.xlf" r:id="rId246"/>
-    <hyperlink ref="A55" display="pullServer.md" r:id="rId247"/>
-    <hyperlink ref="B55" display=".md" r:id="rId248"/>
-    <hyperlink ref="D55" display="pullServer.4b925b277da29998394af746bdbdd508fda48909.es-es.xlf" r:id="rId249"/>
-    <hyperlink ref="A56" display="pullServerSMB.md" r:id="rId250"/>
-    <hyperlink ref="B56" display=".md" r:id="rId251"/>
-    <hyperlink ref="D56" display="pullServerSMB.772aec5ae27ccb19ced78e3eb665a4e16db1c4df.es-es.xlf" r:id="rId252"/>
-    <hyperlink ref="A57" display="resourceAuthoringChecklist.md" r:id="rId253"/>
-    <hyperlink ref="B57" display=".md" r:id="rId254"/>
-    <hyperlink ref="D57" display="resourceAuthoringChecklist.3b9ae254d826cc45519d37d06044f28a69bdfa69.es-es.xlf" r:id="rId255"/>
-    <hyperlink ref="A58" display="runAsUser.md" r:id="rId256"/>
-    <hyperlink ref="B58" display=".md" r:id="rId257"/>
-    <hyperlink ref="D58" display="runAsUser.d2b90b6bc42ef965e454f9c9f5fd19bc7b488b34.es-es.xlf" r:id="rId258"/>
-    <hyperlink ref="A59" display="secureMOF.md" r:id="rId259"/>
-    <hyperlink ref="B59" display=".md" r:id="rId260"/>
-    <hyperlink ref="D59" display="secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.es-es.xlf" r:id="rId261"/>
-    <hyperlink ref="F59" display="secureMOF.md" r:id="rId262"/>
-    <hyperlink ref="G59" display="secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.es-es.xlf" r:id="rId263"/>
-    <hyperlink ref="A60" display="TOC.md" r:id="rId264"/>
-    <hyperlink ref="B60" display=".md" r:id="rId265"/>
-    <hyperlink ref="D60" display="TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.es-es.xlf" r:id="rId266"/>
-    <hyperlink ref="F60" display="TOC.md" r:id="rId267"/>
-    <hyperlink ref="G60" display="TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.es-es.xlf" r:id="rId268"/>
-    <hyperlink ref="A61" display="troubleshooting.md" r:id="rId269"/>
-    <hyperlink ref="B61" display=".md" r:id="rId270"/>
-    <hyperlink ref="D61" display="troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.es-es.xlf" r:id="rId271"/>
-    <hyperlink ref="F61" display="troubleshooting.md" r:id="rId272"/>
-    <hyperlink ref="G61" display="troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.es-es.xlf" r:id="rId273"/>
-    <hyperlink ref="A62" display="userResource.md" r:id="rId274"/>
-    <hyperlink ref="B62" display=".md" r:id="rId275"/>
-    <hyperlink ref="D62" display="userResource.5de4fbe03e9e06934442ba451eb0564931863f45.es-es.xlf" r:id="rId276"/>
-    <hyperlink ref="A63" display="windowsProcessResource.md" r:id="rId277"/>
-    <hyperlink ref="B63" display=".md" r:id="rId278"/>
-    <hyperlink ref="D63" display="windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.es-es.xlf" r:id="rId279"/>
-    <hyperlink ref="A64" display="audit_cms.md" r:id="rId280"/>
-    <hyperlink ref="B64" display=".md" r:id="rId281"/>
-    <hyperlink ref="D64" display="audit_cms.3e422ca243ac938b46bfcf1497a703e55bde970e.es-es.xlf" r:id="rId282"/>
-    <hyperlink ref="A65" display="audit_overview.md" r:id="rId283"/>
-    <hyperlink ref="B65" display=".md" r:id="rId284"/>
-    <hyperlink ref="D65" display="audit_overview.fc5b51e2734a2af986c9edf42b4395b1aad2435d.es-es.xlf" r:id="rId285"/>
-    <hyperlink ref="A66" display="audit_script.md" r:id="rId286"/>
-    <hyperlink ref="B66" display=".md" r:id="rId287"/>
-    <hyperlink ref="D66" display="audit_script.e89f3a9316d1125e1efd23b41b756a3a6161016b.es-es.xlf" r:id="rId288"/>
-    <hyperlink ref="A67" display="audit_transcript.md" r:id="rId289"/>
-    <hyperlink ref="B67" display=".md" r:id="rId290"/>
-    <hyperlink ref="D67" display="audit_transcript.c21a6554932939cbf4c744bf7c9f07cc4e1e7160.es-es.xlf" r:id="rId291"/>
-    <hyperlink ref="A68" display="class_base.md" r:id="rId292"/>
-    <hyperlink ref="B68" display=".md" r:id="rId293"/>
-    <hyperlink ref="D68" display="class_base.29a9fbe4987503d5575c151f4271f58398cb7e55.es-es.xlf" r:id="rId294"/>
-    <hyperlink ref="A69" display="class_baseconstructor.md" r:id="rId295"/>
-    <hyperlink ref="B69" display=".md" r:id="rId296"/>
-    <hyperlink ref="D69" display="class_baseconstructor.82f951e800b06ccc68090b1be9923c8210a233ac.es-es.xlf" r:id="rId297"/>
-    <hyperlink ref="A70" display="class_basemethod.md" r:id="rId298"/>
-    <hyperlink ref="B70" display=".md" r:id="rId299"/>
-    <hyperlink ref="D70" display="class_basemethod.6b60292188d0081f30fbaf4b111db8a439348f5b.es-es.xlf" r:id="rId300"/>
-    <hyperlink ref="A71" display="class_interface.md" r:id="rId301"/>
-    <hyperlink ref="B71" display=".md" r:id="rId302"/>
-    <hyperlink ref="D71" display="class_interface.84a08fd30808364a820bdd4440de18ec4504a6c7.es-es.xlf" r:id="rId303"/>
-    <hyperlink ref="A72" display="class_newtype.md" r:id="rId304"/>
-    <hyperlink ref="B72" display=".md" r:id="rId305"/>
-    <hyperlink ref="D72" display="class_newtype.a9f52b670970046f8b1147d4ba646b73abb430dc.es-es.xlf" r:id="rId306"/>
-    <hyperlink ref="A73" display="class_overview.md" r:id="rId307"/>
-    <hyperlink ref="B73" display=".md" r:id="rId308"/>
-    <hyperlink ref="D73" display="class_overview.91227b885afcb8df385ab601ab970b924eca2533.es-es.xlf" r:id="rId309"/>
-    <hyperlink ref="A74" display="debug_overview.md" r:id="rId310"/>
-    <hyperlink ref="B74" display=".md" r:id="rId311"/>
-    <hyperlink ref="D74" display="debug_overview.70b71c20b8b625704c25da28a58e804a048bafb0.es-es.xlf" r:id="rId312"/>
-    <hyperlink ref="A75" display="dsc_authoring.md" r:id="rId313"/>
-    <hyperlink ref="B75" display=".md" r:id="rId314"/>
-    <hyperlink ref="D75" display="dsc_authoring.364878cde8f156d8999773842812e0c08f70191c.es-es.xlf" r:id="rId315"/>
-    <hyperlink ref="A76" display="dsc_classbasedresource.md" r:id="rId316"/>
-    <hyperlink ref="B76" display=".md" r:id="rId317"/>
-    <hyperlink ref="D76" display="dsc_classbasedresource.a3d6b22652db939b51db1218584247396454ae0f.es-es.xlf" r:id="rId318"/>
-    <hyperlink ref="A77" display="dsc_confighelp.md" r:id="rId319"/>
-    <hyperlink ref="B77" display=".md" r:id="rId320"/>
-    <hyperlink ref="D77" display="dsc_confighelp.bcfa7e85acae98499089edc9fba25b68953d7bbf.es-es.xlf" r:id="rId321"/>
-    <hyperlink ref="A78" display="dsc_directaccess.md" r:id="rId322"/>
-    <hyperlink ref="B78" display=".md" r:id="rId323"/>
-    <hyperlink ref="D78" display="dsc_directaccess.014c91015162b26b678e0a5fdfd453a3bf6e41b0.es-es.xlf" r:id="rId324"/>
-    <hyperlink ref="A79" display="dsc_encryptedmof.md" r:id="rId325"/>
-    <hyperlink ref="B79" display=".md" r:id="rId326"/>
-    <hyperlink ref="D79" display="dsc_encryptedmof.a35c44de669ea81f25dd29f152f03493e52e327b.es-es.xlf" r:id="rId327"/>
-    <hyperlink ref="A80" display="dsc_freqnomultiple.md" r:id="rId328"/>
-    <hyperlink ref="B80" display=".md" r:id="rId329"/>
-    <hyperlink ref="D80" display="dsc_freqnomultiple.2848e52c73280aca59e73136bac0c2c7ae02aad6.es-es.xlf" r:id="rId330"/>
-    <hyperlink ref="A81" display="dsc_getconfigurationstatus.md" r:id="rId331"/>
-    <hyperlink ref="B81" display=".md" r:id="rId332"/>
-    <hyperlink ref="D81" display="dsc_getconfigurationstatus.1705e4bcaa9dfd9d69f00aecdc7ef0d04bf44899.es-es.xlf" r:id="rId333"/>
-    <hyperlink ref="A82" display="dsc_identicalduplicate.md" r:id="rId334"/>
-    <hyperlink ref="B82" display=".md" r:id="rId335"/>
-    <hyperlink ref="D82" display="dsc_identicalduplicate.eb7167ccd4a72d68aa1683327e9b3877927158ab.es-es.xlf" r:id="rId336"/>
-    <hyperlink ref="A83" display="dsc_importdscresource.md" r:id="rId337"/>
-    <hyperlink ref="B83" display=".md" r:id="rId338"/>
-    <hyperlink ref="D83" display="dsc_importdscresource.a0169ad862dfcaa5c958c07ecd52c856d5dc8436.es-es.xlf" r:id="rId339"/>
-    <hyperlink ref="A84" display="dsc_improvements.md" r:id="rId340"/>
-    <hyperlink ref="B84" display=".md" r:id="rId341"/>
-    <hyperlink ref="D84" display="dsc_improvements.d9ed6ffedf9d9650bb6b26b5ed611e420a0aacbb.es-es.xlf" r:id="rId342"/>
-    <hyperlink ref="A85" display="dsc_lcmstate.md" r:id="rId343"/>
-    <hyperlink ref="B85" display=".md" r:id="rId344"/>
-    <hyperlink ref="D85" display="dsc_lcmstate.21ea1c36f37c94e8e0363199fbd07bcced3aea40.es-es.xlf" r:id="rId345"/>
-    <hyperlink ref="A86" display="dsc_metaconfiguration.md" r:id="rId346"/>
-    <hyperlink ref="B86" display=".md" r:id="rId347"/>
-    <hyperlink ref="D86" display="dsc_metaconfiguration.e8bbca05aa1692ad54cadd83b93a1902f179f365.es-es.xlf" r:id="rId348"/>
-    <hyperlink ref="A87" display="dsc_newresources.md" r:id="rId349"/>
-    <hyperlink ref="B87" display=".md" r:id="rId350"/>
-    <hyperlink ref="D87" display="dsc_newresources.b9c40f591f875ea205c834f7675f3edbe1050592.es-es.xlf" r:id="rId351"/>
-    <hyperlink ref="A88" display="dsc_nodeid.md" r:id="rId352"/>
-    <hyperlink ref="B88" display=".md" r:id="rId353"/>
-    <hyperlink ref="D88" display="dsc_nodeid.e3c9049aa6c1d151f8b286f28502537b2f8d22a4.es-es.xlf" r:id="rId354"/>
-    <hyperlink ref="A89" display="dsc_partialconfig.md" r:id="rId355"/>
-    <hyperlink ref="B89" display=".md" r:id="rId356"/>
-    <hyperlink ref="D89" display="dsc_partialconfig.a493787c3f8663ac3e2994162ffd1bee429544d3.es-es.xlf" r:id="rId357"/>
-    <hyperlink ref="A90" display="dsc_partialconfig_mixedmode.md" r:id="rId358"/>
-    <hyperlink ref="B90" display=".md" r:id="rId359"/>
-    <hyperlink ref="D90" display="dsc_partialconfig_mixedmode.ff4b9a8a421441da62574192650493bf2407028d.es-es.xlf" r:id="rId360"/>
-    <hyperlink ref="A91" display="dsc_publishconfig.md" r:id="rId361"/>
-    <hyperlink ref="B91" display=".md" r:id="rId362"/>
-    <hyperlink ref="D91" display="dsc_publishconfig.bfe86d4253abdd777c205caec637c50ec79103ee.es-es.xlf" r:id="rId363"/>
-    <hyperlink ref="A92" display="dsc_refreshmode.md" r:id="rId364"/>
-    <hyperlink ref="B92" display=".md" r:id="rId365"/>
-    <hyperlink ref="D92" display="dsc_refreshmode.b0529a06a4d3e07b3fce300f74760d63b27523f6.es-es.xlf" r:id="rId366"/>
-    <hyperlink ref="A93" display="dsc_removeconfigdoc.md" r:id="rId367"/>
-    <hyperlink ref="B93" display=".md" r:id="rId368"/>
-    <hyperlink ref="D93" display="dsc_removeconfigdoc.d16cdab7eaedf468bcc38dae34e93be26a204318.es-es.xlf" r:id="rId369"/>
-    <hyperlink ref="A94" display="dsc_reporting.md" r:id="rId370"/>
-    <hyperlink ref="B94" display=".md" r:id="rId371"/>
-    <hyperlink ref="D94" display="dsc_reporting.b042cd21b9bcfc8e50bc361ddee59333602fad42.es-es.xlf" r:id="rId372"/>
-    <hyperlink ref="A95" display="dsc_repository.md" r:id="rId373"/>
-    <hyperlink ref="B95" display=".md" r:id="rId374"/>
-    <hyperlink ref="D95" display="dsc_repository.ec5040a823a6b64e969393e00f3d859fd0b4551c.es-es.xlf" r:id="rId375"/>
-    <hyperlink ref="A96" display="dsc_resourcedebugging.md" r:id="rId376"/>
-    <hyperlink ref="B96" display=".md" r:id="rId377"/>
-    <hyperlink ref="D96" display="dsc_resourcedebugging.95c69e55eb065b349f52e18126d699b1906ba03f.es-es.xlf" r:id="rId378"/>
-    <hyperlink ref="A97" display="dsc_runas.md" r:id="rId379"/>
-    <hyperlink ref="B97" display=".md" r:id="rId380"/>
-    <hyperlink ref="D97" display="dsc_runas.9e19a42a6d5e1ea1772358a6fd8ff24b98a5b6ba.es-es.xlf" r:id="rId381"/>
-    <hyperlink ref="A98" display="dsc_setdsclcm.md" r:id="rId382"/>
-    <hyperlink ref="B98" display=".md" r:id="rId383"/>
-    <hyperlink ref="D98" display="dsc_setdsclcm.1f0e3cab81cf5fc1feda678f202451fe150632e3.es-es.xlf" r:id="rId384"/>
-    <hyperlink ref="A99" display="dsc_statestatus.md" r:id="rId385"/>
-    <hyperlink ref="B99" display=".md" r:id="rId386"/>
-    <hyperlink ref="D99" display="dsc_statestatus.b6f3670f776a8f63a705ba16bed2f20be34fc48f.es-es.xlf" r:id="rId387"/>
-    <hyperlink ref="A100" display="dsc_sxsresource.md" r:id="rId388"/>
-    <hyperlink ref="B100" display=".md" r:id="rId389"/>
-    <hyperlink ref="D100" display="dsc_sxsresource.c9d4ce6109370ac1cbc1fb07f191e02f9a61d5d3.es-es.xlf" r:id="rId390"/>
-    <hyperlink ref="A101" display="dsc_testconfiguration.md" r:id="rId391"/>
-    <hyperlink ref="B101" display=".md" r:id="rId392"/>
-    <hyperlink ref="D101" display="dsc_testconfiguration.b0e5afe2c8f173ebe49c97c9ea9a2f11d81ea5fa.es-es.xlf" r:id="rId393"/>
-    <hyperlink ref="A102" display="dsc_updateconfig.md" r:id="rId394"/>
-    <hyperlink ref="B102" display=".md" r:id="rId395"/>
-    <hyperlink ref="D102" display="dsc_updateconfig.a07eb85e3458d42d7ab1ed5c57dcfc70df709d07.es-es.xlf" r:id="rId396"/>
-    <hyperlink ref="A103" display="dsc_waitfor.md" r:id="rId397"/>
-    <hyperlink ref="B103" display=".md" r:id="rId398"/>
-    <hyperlink ref="D103" display="dsc_waitfor.2b09933f08f1020166ce0f0cd7548a5a3845c48f.es-es.xlf" r:id="rId399"/>
-    <hyperlink ref="A104" display="dsc_wow64.md" r:id="rId400"/>
-    <hyperlink ref="B104" display=".md" r:id="rId401"/>
-    <hyperlink ref="D104" display="dsc_wow64.ea039aaa1bd77415311fc30d80fed43cda07a6e3.es-es.xlf" r:id="rId402"/>
-    <hyperlink ref="A105" display="feedback.md" r:id="rId403"/>
-    <hyperlink ref="B105" display=".md" r:id="rId404"/>
-    <hyperlink ref="D105" display="feedback.3662230166299ef7c1fb7a7a7f5cdbd64b1d812a.es-es.xlf" r:id="rId405"/>
-    <hyperlink ref="A106" display="feedback_archive.md" r:id="rId406"/>
-    <hyperlink ref="B106" display=".md" r:id="rId407"/>
-    <hyperlink ref="D106" display="feedback_archive.20de26911a704368058401c7e2bd6ebaac692ff5.es-es.xlf" r:id="rId408"/>
-    <hyperlink ref="A107" display="feedback_clipboard.md" r:id="rId409"/>
-    <hyperlink ref="B107" display=".md" r:id="rId410"/>
-    <hyperlink ref="D107" display="feedback_clipboard.872e5c147ef02cb86067651f41e3c00b55386664.es-es.xlf" r:id="rId411"/>
-    <hyperlink ref="A108" display="feedback_cmdlets.md" r:id="rId412"/>
-    <hyperlink ref="B108" display=".md" r:id="rId413"/>
-    <hyperlink ref="D108" display="feedback_cmdlets.a4c0dfb806ca0da232eeb75ad3706177b8a5ec48.es-es.xlf" r:id="rId414"/>
-    <hyperlink ref="A109" display="feedback_convertfromString.md" r:id="rId415"/>
-    <hyperlink ref="B109" display=".md" r:id="rId416"/>
-    <hyperlink ref="D109" display="feedback_convertfromString.acdeaa33e8fa59b93649b6abf3a7d5ef64fb7664.es-es.xlf" r:id="rId417"/>
-    <hyperlink ref="A110" display="feedback_convertstring.md" r:id="rId418"/>
-    <hyperlink ref="B110" display=".md" r:id="rId419"/>
-    <hyperlink ref="D110" display="feedback_convertstring.42e964e30093962871c3a4d586ed6c54f25f840d.es-es.xlf" r:id="rId420"/>
-    <hyperlink ref="A111" display="feedback_fileinfo.md" r:id="rId421"/>
-    <hyperlink ref="B111" display=".md" r:id="rId422"/>
-    <hyperlink ref="D111" display="feedback_fileinfo.0192edad2d6504d26a9632f95fc9e5b66ffd8003.es-es.xlf" r:id="rId423"/>
-    <hyperlink ref="A112" display="feedback_formathex.md" r:id="rId424"/>
-    <hyperlink ref="B112" display=".md" r:id="rId425"/>
-    <hyperlink ref="D112" display="feedback_formathex.f97931c887efb620e5f4314facc1f0e20e3dffbe.es-es.xlf" r:id="rId426"/>
-    <hyperlink ref="A113" display="feedback_getchilditem.md" r:id="rId427"/>
-    <hyperlink ref="B113" display=".md" r:id="rId428"/>
-    <hyperlink ref="D113" display="feedback_getchilditem.ce02ca20cc4417a80fe65eb509a8e92f2cecc79c.es-es.xlf" r:id="rId429"/>
-    <hyperlink ref="A114" display="feedback_moduleversionranges.md" r:id="rId430"/>
-    <hyperlink ref="B114" display=".md" r:id="rId431"/>
-    <hyperlink ref="D114" display="feedback_moduleversionranges.611b3a3219d64dbfa1d01541b60a727b880a0c4b.es-es.xlf" r:id="rId432"/>
-    <hyperlink ref="A115" display="feedback_newguid.md" r:id="rId433"/>
-    <hyperlink ref="B115" display=".md" r:id="rId434"/>
-    <hyperlink ref="D115" display="feedback_newguid.f8756fbdb96e6fe06a7e0cbb6ac4af32b1c64983.es-es.xlf" r:id="rId435"/>
-    <hyperlink ref="A116" display="feedback_nonewline.md" r:id="rId436"/>
-    <hyperlink ref="B116" display=".md" r:id="rId437"/>
-    <hyperlink ref="D116" display="feedback_nonewline.7a9b7e24c50399879089bba2b8eee7dc325572e2.es-es.xlf" r:id="rId438"/>
-    <hyperlink ref="A117" display="feedback_symbolic.md" r:id="rId439"/>
-    <hyperlink ref="B117" display=".md" r:id="rId440"/>
-    <hyperlink ref="D117" display="feedback_symbolic.1c3ac8128fb9df60512ec024044d48be7d0cb59f.es-es.xlf" r:id="rId441"/>
-    <hyperlink ref="A118" display="feedback_tempfile.md" r:id="rId442"/>
-    <hyperlink ref="B118" display=".md" r:id="rId443"/>
-    <hyperlink ref="D118" display="feedback_tempfile.fc029065af6bbba3a8c4abbf36023bede7d1416d.es-es.xlf" r:id="rId444"/>
-    <hyperlink ref="A119" display="DscResourceDebugging.jpg" r:id="rId445"/>
-    <hyperlink ref="B119" display=".jpg" r:id="rId446"/>
-    <hyperlink ref="D119" display="ba1897f38317f5fe38f2d8caf0efcc57bc8bb19d.jpg" r:id="rId447"/>
-    <hyperlink ref="A120" display="Import-DscResource-Modversion.jpg" r:id="rId448"/>
-    <hyperlink ref="B120" display=".jpg" r:id="rId449"/>
-    <hyperlink ref="D120" display="e6ed57c70f1b1380eb67c6998a1c9c67f3f246fc.jpg" r:id="rId450"/>
-    <hyperlink ref="A121" display="MOF_Encryption.jpg" r:id="rId451"/>
-    <hyperlink ref="B121" display=".jpg" r:id="rId452"/>
-    <hyperlink ref="D121" display="9a44a53029d37d4165bbffbdcaa79d9be76e5fac.jpg" r:id="rId453"/>
-    <hyperlink ref="A122" display="informationstream_overview.md" r:id="rId454"/>
-    <hyperlink ref="B122" display=".md" r:id="rId455"/>
-    <hyperlink ref="D122" display="informationstream_overview.d2f238b2b4021ccdb7271cf89f53d58970d56cf5.es-es.xlf" r:id="rId456"/>
-    <hyperlink ref="A123" display="install.md" r:id="rId457"/>
-    <hyperlink ref="B123" display=".md" r:id="rId458"/>
-    <hyperlink ref="D123" display="install.317fc924c0f766547c4725878af59c3c9d8facba.es-es.xlf" r:id="rId459"/>
-    <hyperlink ref="A124" display="jea_endpoint.md" r:id="rId460"/>
-    <hyperlink ref="B124" display=".md" r:id="rId461"/>
-    <hyperlink ref="D124" display="jea_endpoint.1dc052fe583a907a6c090cf8bfd42293d94d2975.es-es.xlf" r:id="rId462"/>
-    <hyperlink ref="A125" display="jea_overview.md" r:id="rId463"/>
-    <hyperlink ref="B125" display=".md" r:id="rId464"/>
-    <hyperlink ref="D125" display="jea_overview.3fa3008e719be8235adffe51808ac66714940871.es-es.xlf" r:id="rId465"/>
-    <hyperlink ref="A126" display="jea_report.md" r:id="rId466"/>
-    <hyperlink ref="B126" display=".md" r:id="rId467"/>
-    <hyperlink ref="D126" display="jea_report.7860cec6e93b7405844ccbbe5bc879921447ac0b.es-es.xlf" r:id="rId468"/>
-    <hyperlink ref="A127" display="limitation_dsc.md" r:id="rId469"/>
-    <hyperlink ref="B127" display=".md" r:id="rId470"/>
-    <hyperlink ref="D127" display="limitation_dsc.3684c81bb088cba98089dffdb1a1e56e1c098335.es-es.xlf" r:id="rId471"/>
-    <hyperlink ref="A128" display="limitation_overview.md" r:id="rId472"/>
-    <hyperlink ref="B128" display=".md" r:id="rId473"/>
-    <hyperlink ref="D128" display="limitation_overview.6cc9c8c028f5912636637d836aed7db0614de522.es-es.xlf" r:id="rId474"/>
-    <hyperlink ref="A129" display="networkswitch_overview.md" r:id="rId475"/>
-    <hyperlink ref="B129" display=".md" r:id="rId476"/>
-    <hyperlink ref="D129" display="networkswitch_overview.7a87eb0741cd43b8b9284ea6cb605920c4961b79.es-es.xlf" r:id="rId477"/>
-    <hyperlink ref="A130" display="odata_overview.md" r:id="rId478"/>
-    <hyperlink ref="B130" display=".md" r:id="rId479"/>
-    <hyperlink ref="D130" display="odata_overview.c3f7efdde29fe7ac5685a61cd61d75b65524a4c3.es-es.xlf" r:id="rId480"/>
-    <hyperlink ref="A131" display="oneget_cmdlets.md" r:id="rId481"/>
-    <hyperlink ref="B131" display=".md" r:id="rId482"/>
-    <hyperlink ref="D131" display="oneget_cmdlets.469b2350a72495ac2cf62e4130b4df8036f5d135.es-es.xlf" r:id="rId483"/>
-    <hyperlink ref="A132" display="oneget_overview.md" r:id="rId484"/>
-    <hyperlink ref="B132" display=".md" r:id="rId485"/>
-    <hyperlink ref="D132" display="oneget_overview.e71a25f36f957ab7471d259c6e716651f6f23c94.es-es.xlf" r:id="rId486"/>
-    <hyperlink ref="A133" display="productincompat.md" r:id="rId487"/>
-    <hyperlink ref="B133" display=".md" r:id="rId488"/>
-    <hyperlink ref="D133" display="productincompat.62bb00299c0283b5297001553476a745e28a49cb.es-es.xlf" r:id="rId489"/>
-    <hyperlink ref="A134" display="psget_module_overview.md" r:id="rId490"/>
-    <hyperlink ref="B134" display=".md" r:id="rId491"/>
-    <hyperlink ref="D134" display="psget_module_overview.4149c468ffd0f17a2fabd03f90059c12effc3170.es-es.xlf" r:id="rId492"/>
-    <hyperlink ref="A135" display="psget_modulecmdlets.md" r:id="rId493"/>
-    <hyperlink ref="B135" display=".md" r:id="rId494"/>
-    <hyperlink ref="D135" display="psget_modulecmdlets.1f808cfdf9a9aa920f88e15f7f5fa4701fe805e3.es-es.xlf" r:id="rId495"/>
-    <hyperlink ref="A136" display="psget_moduledependency.md" r:id="rId496"/>
-    <hyperlink ref="B136" display=".md" r:id="rId497"/>
-    <hyperlink ref="D136" display="psget_moduledependency.89ba9310335ae64db5481a3c02034ac4fe01b6a2.es-es.xlf" r:id="rId498"/>
-    <hyperlink ref="A137" display="psget_modulesxsinstall.md" r:id="rId499"/>
-    <hyperlink ref="B137" display=".md" r:id="rId500"/>
-    <hyperlink ref="D137" display="psget_modulesxsinstall.110ba80d8f917899ef488b46bd15f5654f6ba06c.es-es.xlf" r:id="rId501"/>
-    <hyperlink ref="A138" display="psget_psrepository.md" r:id="rId502"/>
-    <hyperlink ref="B138" display=".md" r:id="rId503"/>
-    <hyperlink ref="D138" display="psget_psrepository.c4381b2ff7bb6496ab74ed8bb2b07325cfbfc056.es-es.xlf" r:id="rId504"/>
-    <hyperlink ref="A139" display="psget_script_overview.md" r:id="rId505"/>
-    <hyperlink ref="B139" display=".md" r:id="rId506"/>
-    <hyperlink ref="D139" display="psget_script_overview.f035cc99497d17dc73e3a61f214e40a5860fc70a.es-es.xlf" r:id="rId507"/>
-    <hyperlink ref="A140" display="psget_scriptcmdlets.md" r:id="rId508"/>
-    <hyperlink ref="B140" display=".md" r:id="rId509"/>
-    <hyperlink ref="D140" display="psget_scriptcmdlets.1762d5f29292d59c1afb37cb29eb11a34cf63990.es-es.xlf" r:id="rId510"/>
-    <hyperlink ref="A141" display="releasenotes.md" r:id="rId511"/>
-    <hyperlink ref="B141" display=".md" r:id="rId512"/>
-    <hyperlink ref="D141" display="releasenotes.311750b4da54b1d4ef7997b328edd6ff177fb71f.es-es.xlf" r:id="rId513"/>
-    <hyperlink ref="A142" display="requirements.md" r:id="rId514"/>
-    <hyperlink ref="B142" display=".md" r:id="rId515"/>
-    <hyperlink ref="D142" display="requirements.ef8332f358d65b1759bfd4c7336b11d1dc8c2d46.es-es.xlf" r:id="rId516"/>
-    <hyperlink ref="A143" display="sil_overview.md" r:id="rId517"/>
-    <hyperlink ref="B143" display=".md" r:id="rId518"/>
-    <hyperlink ref="D143" display="sil_overview.a2b1f7c716aad317993a5eaffba21fa28ce0c0d8.es-es.xlf" r:id="rId519"/>
-    <hyperlink ref="A144" display="TOC.md" r:id="rId520"/>
-    <hyperlink ref="B144" display=".md" r:id="rId521"/>
-    <hyperlink ref="D144" display="TOC.60497266061c38453b3db893ec675eb65584af89.es-es.xlf" r:id="rId522"/>
-    <hyperlink ref="A145" display="uninstall.md" r:id="rId523"/>
-    <hyperlink ref="B145" display=".md" r:id="rId524"/>
-    <hyperlink ref="D145" display="uninstall.b07adaaaf7f41869dfa201b88e29342aced76c96.es-es.xlf" r:id="rId525"/>
+    <hyperlink ref="D9" display="authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.de-de.xlf" r:id="rId39"/>
+    <hyperlink ref="A10" display="archiveResource.md" r:id="rId40"/>
+    <hyperlink ref="B10" display=".md" r:id="rId41"/>
+    <hyperlink ref="D10" display="archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.de-de.xlf" r:id="rId42"/>
+    <hyperlink ref="A11" display="authoringResourceClass.md" r:id="rId43"/>
+    <hyperlink ref="B11" display=".md" r:id="rId44"/>
+    <hyperlink ref="D11" display="authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.de-de.xlf" r:id="rId45"/>
+    <hyperlink ref="A12" display="authoringResourceComposite.md" r:id="rId46"/>
+    <hyperlink ref="B12" display=".md" r:id="rId47"/>
+    <hyperlink ref="D12" display="authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.de-de.xlf" r:id="rId48"/>
+    <hyperlink ref="A13" display="authoringResourceMOF.md" r:id="rId49"/>
+    <hyperlink ref="B13" display=".md" r:id="rId50"/>
+    <hyperlink ref="D13" display="authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.de-de.xlf" r:id="rId51"/>
+    <hyperlink ref="A14" display="authoringResourceMofCS.md" r:id="rId52"/>
+    <hyperlink ref="B14" display=".md" r:id="rId53"/>
+    <hyperlink ref="D14" display="authoringResourceMofCS.0647b27b00ec52b2f524a2856e48bc7c29c0f867.de-de.xlf" r:id="rId54"/>
+    <hyperlink ref="A15" display="authoringResourceMofDesigner.md" r:id="rId55"/>
+    <hyperlink ref="B15" display=".md" r:id="rId56"/>
+    <hyperlink ref="D15" display="authoringResourceMofDesigner.09b1adffc4afb0d9b1154880e2dab0b25d82d51b.de-de.xlf" r:id="rId57"/>
+    <hyperlink ref="A16" display="builtInResource.md" r:id="rId58"/>
+    <hyperlink ref="B16" display=".md" r:id="rId59"/>
+    <hyperlink ref="D16" display="builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.de-de.xlf" r:id="rId60"/>
+    <hyperlink ref="A17" display="configData.md" r:id="rId61"/>
+    <hyperlink ref="B17" display=".md" r:id="rId62"/>
+    <hyperlink ref="D17" display="configData.51d01a46dd9af8b425788cc485523b09f8470b95.de-de.xlf" r:id="rId63"/>
+    <hyperlink ref="A18" display="configDataCredentials.md" r:id="rId64"/>
+    <hyperlink ref="B18" display=".md" r:id="rId65"/>
+    <hyperlink ref="D18" display="configDataCredentials.f3e75119e7d93b2f914823c5ea23bfde3935a874.de-de.xlf" r:id="rId66"/>
+    <hyperlink ref="A19" display="configurations.md" r:id="rId67"/>
+    <hyperlink ref="B19" display=".md" r:id="rId68"/>
+    <hyperlink ref="D19" display="configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.de-de.xlf" r:id="rId69"/>
+    <hyperlink ref="A20" display="debugResource.md" r:id="rId70"/>
+    <hyperlink ref="B20" display=".md" r:id="rId71"/>
+    <hyperlink ref="D20" display="debugResource.ac634156affe5c723cc149a298f5aa4268d17016.de-de.xlf" r:id="rId72"/>
+    <hyperlink ref="A21" display="decisionMaker.md" r:id="rId73"/>
+    <hyperlink ref="B21" display=".md" r:id="rId74"/>
+    <hyperlink ref="D21" display="decisionMaker.01553169f2ba4241995260fad925e2784b5f5567.de-de.xlf" r:id="rId75"/>
+    <hyperlink ref="A22" display="enactingConfigurations.md" r:id="rId76"/>
+    <hyperlink ref="B22" display=".md" r:id="rId77"/>
+    <hyperlink ref="D22" display="enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.de-de.xlf" r:id="rId78"/>
+    <hyperlink ref="A23" display="environmentResource.md" r:id="rId79"/>
+    <hyperlink ref="B23" display=".md" r:id="rId80"/>
+    <hyperlink ref="D23" display="environmentResource.eb91ffd4cd8bdb9476e5a83de1a20d3b7b502a56.de-de.xlf" r:id="rId81"/>
+    <hyperlink ref="A24" display="fileResource.md" r:id="rId82"/>
+    <hyperlink ref="B24" display=".md" r:id="rId83"/>
+    <hyperlink ref="D24" display="fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.de-de.xlf" r:id="rId84"/>
+    <hyperlink ref="A25" display="gettingStarted.md" r:id="rId85"/>
+    <hyperlink ref="B25" display=".md" r:id="rId86"/>
+    <hyperlink ref="D25" display="gettingStarted.92e02d8bd273df5c304475a9b4fa251c22a7ea19.de-de.xlf" r:id="rId87"/>
+    <hyperlink ref="A26" display="groupResource.md" r:id="rId88"/>
+    <hyperlink ref="B26" display=".md" r:id="rId89"/>
+    <hyperlink ref="D26" display="groupResource.d19d416269795c92566b62c36b9782062dcea43e.de-de.xlf" r:id="rId90"/>
+    <hyperlink ref="A27" display="CredentialEncryptionDiagram1.png" r:id="rId91"/>
+    <hyperlink ref="B27" display=".png" r:id="rId92"/>
+    <hyperlink ref="D27" display="d9f53a805041164f5070845c0fd216b63d17ae58.png" r:id="rId93"/>
+    <hyperlink ref="A28" display="lnxArchiveResource.md" r:id="rId94"/>
+    <hyperlink ref="B28" display=".md" r:id="rId95"/>
+    <hyperlink ref="D28" display="lnxArchiveResource.095aab7d23720fd394f2573c30223a6bbcc0a4ef.de-de.xlf" r:id="rId96"/>
+    <hyperlink ref="A29" display="lnxEnvironmentResource.md" r:id="rId97"/>
+    <hyperlink ref="B29" display=".md" r:id="rId98"/>
+    <hyperlink ref="D29" display="lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.de-de.xlf" r:id="rId99"/>
+    <hyperlink ref="A30" display="lnxFileLineResource.md" r:id="rId100"/>
+    <hyperlink ref="B30" display=".md" r:id="rId101"/>
+    <hyperlink ref="D30" display="lnxFileLineResource.d91fc802a4c6cdbff5a2e35f92b34c36c6dbf5eb.de-de.xlf" r:id="rId102"/>
+    <hyperlink ref="A31" display="lnxFileResource.md" r:id="rId103"/>
+    <hyperlink ref="B31" display=".md" r:id="rId104"/>
+    <hyperlink ref="D31" display="lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.de-de.xlf" r:id="rId105"/>
+    <hyperlink ref="A32" display="lnxGettingStarted.md" r:id="rId106"/>
+    <hyperlink ref="B32" display=".md" r:id="rId107"/>
+    <hyperlink ref="D32" display="lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.de-de.xlf" r:id="rId108"/>
+    <hyperlink ref="A33" display="lnxGroupResource.md" r:id="rId109"/>
+    <hyperlink ref="B33" display=".md" r:id="rId110"/>
+    <hyperlink ref="D33" display="lnxGroupResource.0cedb684d797032bd47cdb852629c36da0884567.de-de.xlf" r:id="rId111"/>
+    <hyperlink ref="A34" display="lnxPackageResource.md" r:id="rId112"/>
+    <hyperlink ref="B34" display=".md" r:id="rId113"/>
+    <hyperlink ref="D34" display="lnxPackageResource.db35ab938bbfbb38cae53fe9ae98fd22b5f18009.de-de.xlf" r:id="rId114"/>
+    <hyperlink ref="A35" display="lnxScriptResource.md" r:id="rId115"/>
+    <hyperlink ref="B35" display=".md" r:id="rId116"/>
+    <hyperlink ref="D35" display="lnxScriptResource.1344a5d5b807ee53705e93842d9ef5e25a883359.de-de.xlf" r:id="rId117"/>
+    <hyperlink ref="A36" display="lnxServiceResource.md" r:id="rId118"/>
+    <hyperlink ref="B36" display=".md" r:id="rId119"/>
+    <hyperlink ref="D36" display="lnxServiceResource.e637c7f7b18939ec8c16eadf2c42ab00e236fb7b.de-de.xlf" r:id="rId120"/>
+    <hyperlink ref="A37" display="lnxSshAuthorizedKeysResource.md" r:id="rId121"/>
+    <hyperlink ref="B37" display=".md" r:id="rId122"/>
+    <hyperlink ref="D37" display="lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.de-de.xlf" r:id="rId123"/>
+    <hyperlink ref="A38" display="lnxUserResource.md" r:id="rId124"/>
+    <hyperlink ref="B38" display=".md" r:id="rId125"/>
+    <hyperlink ref="D38" display="lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.de-de.xlf" r:id="rId126"/>
+    <hyperlink ref="A39" display="logResource.md" r:id="rId127"/>
+    <hyperlink ref="B39" display=".md" r:id="rId128"/>
+    <hyperlink ref="D39" display="logResource.07af9dfcf6076ef19059178c3b404762677920f0.de-de.xlf" r:id="rId129"/>
+    <hyperlink ref="A40" display="metaConfig4.md" r:id="rId130"/>
+    <hyperlink ref="B40" display=".md" r:id="rId131"/>
+    <hyperlink ref="D40" display="metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.de-de.xlf" r:id="rId132"/>
+    <hyperlink ref="A41" display="overview.md" r:id="rId133"/>
+    <hyperlink ref="B41" display=".md" r:id="rId134"/>
+    <hyperlink ref="D41" display="overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.de-de.xlf" r:id="rId135"/>
+    <hyperlink ref="A42" display="packageResource.md" r:id="rId136"/>
+    <hyperlink ref="B42" display=".md" r:id="rId137"/>
+    <hyperlink ref="D42" display="packageResource.132c4949cee174dc0dc324456d220436cb9884e6.de-de.xlf" r:id="rId138"/>
+    <hyperlink ref="A43" display="partialConfigs.md" r:id="rId139"/>
+    <hyperlink ref="B43" display=".md" r:id="rId140"/>
+    <hyperlink ref="D43" display="partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.de-de.xlf" r:id="rId141"/>
+    <hyperlink ref="A44" display="pullClient.md" r:id="rId142"/>
+    <hyperlink ref="B44" display=".md" r:id="rId143"/>
+    <hyperlink ref="D44" display="pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.de-de.xlf" r:id="rId144"/>
+    <hyperlink ref="A45" display="pullClientConfigID.md" r:id="rId145"/>
+    <hyperlink ref="B45" display=".md" r:id="rId146"/>
+    <hyperlink ref="D45" display="pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.de-de.xlf" r:id="rId147"/>
+    <hyperlink ref="A46" display="pullClientConfigID4.md" r:id="rId148"/>
+    <hyperlink ref="B46" display=".md" r:id="rId149"/>
+    <hyperlink ref="D46" display="pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.de-de.xlf" r:id="rId150"/>
+    <hyperlink ref="A47" display="pullClientConfigNames.md" r:id="rId151"/>
+    <hyperlink ref="B47" display=".md" r:id="rId152"/>
+    <hyperlink ref="D47" display="pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.de-de.xlf" r:id="rId153"/>
+    <hyperlink ref="F47" display="pullClientConfigNames.md" r:id="rId154"/>
+    <hyperlink ref="G47" display="pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.de-de.xlf" r:id="rId155"/>
+    <hyperlink ref="A48" display="pullServer.md" r:id="rId156"/>
+    <hyperlink ref="B48" display=".md" r:id="rId157"/>
+    <hyperlink ref="D48" display="pullServer.4b925b277da29998394af746bdbdd508fda48909.de-de.xlf" r:id="rId158"/>
+    <hyperlink ref="F48" display="pullServer.md" r:id="rId159"/>
+    <hyperlink ref="G48" display="pullServer.4b925b277da29998394af746bdbdd508fda48909.de-de.xlf" r:id="rId160"/>
+    <hyperlink ref="A49" display="pullServerSMB.md" r:id="rId161"/>
+    <hyperlink ref="B49" display=".md" r:id="rId162"/>
+    <hyperlink ref="D49" display="pullServerSMB.772aec5ae27ccb19ced78e3eb665a4e16db1c4df.de-de.xlf" r:id="rId163"/>
+    <hyperlink ref="A50" display="queryServerNodes.md" r:id="rId164"/>
+    <hyperlink ref="B50" display=".md" r:id="rId165"/>
+    <hyperlink ref="D50" display="queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.de-de.xlf" r:id="rId166"/>
+    <hyperlink ref="A51" display="registryResource.md" r:id="rId167"/>
+    <hyperlink ref="B51" display=".md" r:id="rId168"/>
+    <hyperlink ref="D51" display="registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.de-de.xlf" r:id="rId169"/>
+    <hyperlink ref="A52" display="reportServer.md" r:id="rId170"/>
+    <hyperlink ref="B52" display=".md" r:id="rId171"/>
+    <hyperlink ref="D52" display="reportServer.53df4bc8b7b80c0a19c11434bdf5f4304e8248f7.de-de.xlf" r:id="rId172"/>
+    <hyperlink ref="A53" display="resourceAuthoringChecklist.md" r:id="rId173"/>
+    <hyperlink ref="B53" display=".md" r:id="rId174"/>
+    <hyperlink ref="D53" display="resourceAuthoringChecklist.3b9ae254d826cc45519d37d06044f28a69bdfa69.de-de.xlf" r:id="rId175"/>
+    <hyperlink ref="A54" display="resources.md" r:id="rId176"/>
+    <hyperlink ref="B54" display=".md" r:id="rId177"/>
+    <hyperlink ref="D54" display="resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.de-de.xlf" r:id="rId178"/>
+    <hyperlink ref="A55" display="runAsUser.md" r:id="rId179"/>
+    <hyperlink ref="B55" display=".md" r:id="rId180"/>
+    <hyperlink ref="D55" display="runAsUser.d2b90b6bc42ef965e454f9c9f5fd19bc7b488b34.de-de.xlf" r:id="rId181"/>
+    <hyperlink ref="A56" display="scriptResource.md" r:id="rId182"/>
+    <hyperlink ref="B56" display=".md" r:id="rId183"/>
+    <hyperlink ref="D56" display="scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.de-de.xlf" r:id="rId184"/>
+    <hyperlink ref="A57" display="secureMOF.md" r:id="rId185"/>
+    <hyperlink ref="B57" display=".md" r:id="rId186"/>
+    <hyperlink ref="D57" display="secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.de-de.xlf" r:id="rId187"/>
+    <hyperlink ref="A58" display="secureServer.md" r:id="rId188"/>
+    <hyperlink ref="B58" display=".md" r:id="rId189"/>
+    <hyperlink ref="D58" display="secureServer.ce207607010d18109152742ba23c923cd3cddba2.de-de.xlf" r:id="rId190"/>
+    <hyperlink ref="A59" display="serviceResource.md" r:id="rId191"/>
+    <hyperlink ref="B59" display=".md" r:id="rId192"/>
+    <hyperlink ref="D59" display="serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.de-de.xlf" r:id="rId193"/>
+    <hyperlink ref="A60" display="TOC.md" r:id="rId194"/>
+    <hyperlink ref="B60" display=".md" r:id="rId195"/>
+    <hyperlink ref="D60" display="TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.de-de.xlf" r:id="rId196"/>
+    <hyperlink ref="A61" display="troubleshooting.md" r:id="rId197"/>
+    <hyperlink ref="B61" display=".md" r:id="rId198"/>
+    <hyperlink ref="D61" display="troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.de-de.xlf" r:id="rId199"/>
+    <hyperlink ref="F61" display="troubleshooting.md" r:id="rId200"/>
+    <hyperlink ref="G61" display="troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.de-de.xlf" r:id="rId201"/>
+    <hyperlink ref="A62" display="userResource.md" r:id="rId202"/>
+    <hyperlink ref="B62" display=".md" r:id="rId203"/>
+    <hyperlink ref="D62" display="userResource.5de4fbe03e9e06934442ba451eb0564931863f45.de-de.xlf" r:id="rId204"/>
+    <hyperlink ref="A63" display="windowsProcessResource.md" r:id="rId205"/>
+    <hyperlink ref="B63" display=".md" r:id="rId206"/>
+    <hyperlink ref="D63" display="windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.de-de.xlf" r:id="rId207"/>
+    <hyperlink ref="A64" display="audit_cms.md" r:id="rId208"/>
+    <hyperlink ref="B64" display=".md" r:id="rId209"/>
+    <hyperlink ref="D64" display="audit_cms.3e422ca243ac938b46bfcf1497a703e55bde970e.de-de.xlf" r:id="rId210"/>
+    <hyperlink ref="A65" display="audit_overview.md" r:id="rId211"/>
+    <hyperlink ref="B65" display=".md" r:id="rId212"/>
+    <hyperlink ref="D65" display="audit_overview.fc5b51e2734a2af986c9edf42b4395b1aad2435d.de-de.xlf" r:id="rId213"/>
+    <hyperlink ref="A66" display="audit_script.md" r:id="rId214"/>
+    <hyperlink ref="B66" display=".md" r:id="rId215"/>
+    <hyperlink ref="D66" display="audit_script.e89f3a9316d1125e1efd23b41b756a3a6161016b.de-de.xlf" r:id="rId216"/>
+    <hyperlink ref="A67" display="audit_transcript.md" r:id="rId217"/>
+    <hyperlink ref="B67" display=".md" r:id="rId218"/>
+    <hyperlink ref="D67" display="audit_transcript.c21a6554932939cbf4c744bf7c9f07cc4e1e7160.de-de.xlf" r:id="rId219"/>
+    <hyperlink ref="A68" display="class_base.md" r:id="rId220"/>
+    <hyperlink ref="B68" display=".md" r:id="rId221"/>
+    <hyperlink ref="D68" display="class_base.29a9fbe4987503d5575c151f4271f58398cb7e55.de-de.xlf" r:id="rId222"/>
+    <hyperlink ref="A69" display="class_baseconstructor.md" r:id="rId223"/>
+    <hyperlink ref="B69" display=".md" r:id="rId224"/>
+    <hyperlink ref="D69" display="class_baseconstructor.82f951e800b06ccc68090b1be9923c8210a233ac.de-de.xlf" r:id="rId225"/>
+    <hyperlink ref="A70" display="class_basemethod.md" r:id="rId226"/>
+    <hyperlink ref="B70" display=".md" r:id="rId227"/>
+    <hyperlink ref="D70" display="class_basemethod.6b60292188d0081f30fbaf4b111db8a439348f5b.de-de.xlf" r:id="rId228"/>
+    <hyperlink ref="A71" display="class_interface.md" r:id="rId229"/>
+    <hyperlink ref="B71" display=".md" r:id="rId230"/>
+    <hyperlink ref="D71" display="class_interface.84a08fd30808364a820bdd4440de18ec4504a6c7.de-de.xlf" r:id="rId231"/>
+    <hyperlink ref="A72" display="class_newtype.md" r:id="rId232"/>
+    <hyperlink ref="B72" display=".md" r:id="rId233"/>
+    <hyperlink ref="D72" display="class_newtype.a9f52b670970046f8b1147d4ba646b73abb430dc.de-de.xlf" r:id="rId234"/>
+    <hyperlink ref="A73" display="class_overview.md" r:id="rId235"/>
+    <hyperlink ref="B73" display=".md" r:id="rId236"/>
+    <hyperlink ref="D73" display="class_overview.91227b885afcb8df385ab601ab970b924eca2533.de-de.xlf" r:id="rId237"/>
+    <hyperlink ref="A74" display="debug_overview.md" r:id="rId238"/>
+    <hyperlink ref="B74" display=".md" r:id="rId239"/>
+    <hyperlink ref="D74" display="debug_overview.70b71c20b8b625704c25da28a58e804a048bafb0.de-de.xlf" r:id="rId240"/>
+    <hyperlink ref="A75" display="dsc_authoring.md" r:id="rId241"/>
+    <hyperlink ref="B75" display=".md" r:id="rId242"/>
+    <hyperlink ref="D75" display="dsc_authoring.364878cde8f156d8999773842812e0c08f70191c.de-de.xlf" r:id="rId243"/>
+    <hyperlink ref="A76" display="dsc_classbasedresource.md" r:id="rId244"/>
+    <hyperlink ref="B76" display=".md" r:id="rId245"/>
+    <hyperlink ref="D76" display="dsc_classbasedresource.a3d6b22652db939b51db1218584247396454ae0f.de-de.xlf" r:id="rId246"/>
+    <hyperlink ref="A77" display="dsc_confighelp.md" r:id="rId247"/>
+    <hyperlink ref="B77" display=".md" r:id="rId248"/>
+    <hyperlink ref="D77" display="dsc_confighelp.bcfa7e85acae98499089edc9fba25b68953d7bbf.de-de.xlf" r:id="rId249"/>
+    <hyperlink ref="A78" display="dsc_directaccess.md" r:id="rId250"/>
+    <hyperlink ref="B78" display=".md" r:id="rId251"/>
+    <hyperlink ref="D78" display="dsc_directaccess.014c91015162b26b678e0a5fdfd453a3bf6e41b0.de-de.xlf" r:id="rId252"/>
+    <hyperlink ref="A79" display="dsc_encryptedmof.md" r:id="rId253"/>
+    <hyperlink ref="B79" display=".md" r:id="rId254"/>
+    <hyperlink ref="D79" display="dsc_encryptedmof.a35c44de669ea81f25dd29f152f03493e52e327b.de-de.xlf" r:id="rId255"/>
+    <hyperlink ref="A80" display="dsc_freqnomultiple.md" r:id="rId256"/>
+    <hyperlink ref="B80" display=".md" r:id="rId257"/>
+    <hyperlink ref="D80" display="dsc_freqnomultiple.2848e52c73280aca59e73136bac0c2c7ae02aad6.de-de.xlf" r:id="rId258"/>
+    <hyperlink ref="A81" display="dsc_getconfigurationstatus.md" r:id="rId259"/>
+    <hyperlink ref="B81" display=".md" r:id="rId260"/>
+    <hyperlink ref="D81" display="dsc_getconfigurationstatus.1705e4bcaa9dfd9d69f00aecdc7ef0d04bf44899.de-de.xlf" r:id="rId261"/>
+    <hyperlink ref="A82" display="dsc_identicalduplicate.md" r:id="rId262"/>
+    <hyperlink ref="B82" display=".md" r:id="rId263"/>
+    <hyperlink ref="D82" display="dsc_identicalduplicate.eb7167ccd4a72d68aa1683327e9b3877927158ab.de-de.xlf" r:id="rId264"/>
+    <hyperlink ref="A83" display="dsc_importdscresource.md" r:id="rId265"/>
+    <hyperlink ref="B83" display=".md" r:id="rId266"/>
+    <hyperlink ref="D83" display="dsc_importdscresource.a0169ad862dfcaa5c958c07ecd52c856d5dc8436.de-de.xlf" r:id="rId267"/>
+    <hyperlink ref="A84" display="dsc_improvements.md" r:id="rId268"/>
+    <hyperlink ref="B84" display=".md" r:id="rId269"/>
+    <hyperlink ref="D84" display="dsc_improvements.d9ed6ffedf9d9650bb6b26b5ed611e420a0aacbb.de-de.xlf" r:id="rId270"/>
+    <hyperlink ref="A85" display="dsc_lcmstate.md" r:id="rId271"/>
+    <hyperlink ref="B85" display=".md" r:id="rId272"/>
+    <hyperlink ref="D85" display="dsc_lcmstate.21ea1c36f37c94e8e0363199fbd07bcced3aea40.de-de.xlf" r:id="rId273"/>
+    <hyperlink ref="A86" display="dsc_metaconfiguration.md" r:id="rId274"/>
+    <hyperlink ref="B86" display=".md" r:id="rId275"/>
+    <hyperlink ref="D86" display="dsc_metaconfiguration.e8bbca05aa1692ad54cadd83b93a1902f179f365.de-de.xlf" r:id="rId276"/>
+    <hyperlink ref="A87" display="dsc_newresources.md" r:id="rId277"/>
+    <hyperlink ref="B87" display=".md" r:id="rId278"/>
+    <hyperlink ref="D87" display="dsc_newresources.b9c40f591f875ea205c834f7675f3edbe1050592.de-de.xlf" r:id="rId279"/>
+    <hyperlink ref="A88" display="dsc_nodeid.md" r:id="rId280"/>
+    <hyperlink ref="B88" display=".md" r:id="rId281"/>
+    <hyperlink ref="D88" display="dsc_nodeid.e3c9049aa6c1d151f8b286f28502537b2f8d22a4.de-de.xlf" r:id="rId282"/>
+    <hyperlink ref="A89" display="dsc_partialconfig.md" r:id="rId283"/>
+    <hyperlink ref="B89" display=".md" r:id="rId284"/>
+    <hyperlink ref="D89" display="dsc_partialconfig.a493787c3f8663ac3e2994162ffd1bee429544d3.de-de.xlf" r:id="rId285"/>
+    <hyperlink ref="A90" display="dsc_partialconfig_mixedmode.md" r:id="rId286"/>
+    <hyperlink ref="B90" display=".md" r:id="rId287"/>
+    <hyperlink ref="D90" display="dsc_partialconfig_mixedmode.ff4b9a8a421441da62574192650493bf2407028d.de-de.xlf" r:id="rId288"/>
+    <hyperlink ref="A91" display="dsc_publishconfig.md" r:id="rId289"/>
+    <hyperlink ref="B91" display=".md" r:id="rId290"/>
+    <hyperlink ref="D91" display="dsc_publishconfig.bfe86d4253abdd777c205caec637c50ec79103ee.de-de.xlf" r:id="rId291"/>
+    <hyperlink ref="A92" display="dsc_refreshmode.md" r:id="rId292"/>
+    <hyperlink ref="B92" display=".md" r:id="rId293"/>
+    <hyperlink ref="D92" display="dsc_refreshmode.b0529a06a4d3e07b3fce300f74760d63b27523f6.de-de.xlf" r:id="rId294"/>
+    <hyperlink ref="A93" display="dsc_removeconfigdoc.md" r:id="rId295"/>
+    <hyperlink ref="B93" display=".md" r:id="rId296"/>
+    <hyperlink ref="D93" display="dsc_removeconfigdoc.d16cdab7eaedf468bcc38dae34e93be26a204318.de-de.xlf" r:id="rId297"/>
+    <hyperlink ref="A94" display="dsc_reporting.md" r:id="rId298"/>
+    <hyperlink ref="B94" display=".md" r:id="rId299"/>
+    <hyperlink ref="D94" display="dsc_reporting.b042cd21b9bcfc8e50bc361ddee59333602fad42.de-de.xlf" r:id="rId300"/>
+    <hyperlink ref="A95" display="dsc_repository.md" r:id="rId301"/>
+    <hyperlink ref="B95" display=".md" r:id="rId302"/>
+    <hyperlink ref="D95" display="dsc_repository.ec5040a823a6b64e969393e00f3d859fd0b4551c.de-de.xlf" r:id="rId303"/>
+    <hyperlink ref="A96" display="dsc_resourcedebugging.md" r:id="rId304"/>
+    <hyperlink ref="B96" display=".md" r:id="rId305"/>
+    <hyperlink ref="D96" display="dsc_resourcedebugging.95c69e55eb065b349f52e18126d699b1906ba03f.de-de.xlf" r:id="rId306"/>
+    <hyperlink ref="A97" display="dsc_runas.md" r:id="rId307"/>
+    <hyperlink ref="B97" display=".md" r:id="rId308"/>
+    <hyperlink ref="D97" display="dsc_runas.9e19a42a6d5e1ea1772358a6fd8ff24b98a5b6ba.de-de.xlf" r:id="rId309"/>
+    <hyperlink ref="A98" display="dsc_setdsclcm.md" r:id="rId310"/>
+    <hyperlink ref="B98" display=".md" r:id="rId311"/>
+    <hyperlink ref="D98" display="dsc_setdsclcm.1f0e3cab81cf5fc1feda678f202451fe150632e3.de-de.xlf" r:id="rId312"/>
+    <hyperlink ref="A99" display="dsc_statestatus.md" r:id="rId313"/>
+    <hyperlink ref="B99" display=".md" r:id="rId314"/>
+    <hyperlink ref="D99" display="dsc_statestatus.b6f3670f776a8f63a705ba16bed2f20be34fc48f.de-de.xlf" r:id="rId315"/>
+    <hyperlink ref="A100" display="dsc_sxsresource.md" r:id="rId316"/>
+    <hyperlink ref="B100" display=".md" r:id="rId317"/>
+    <hyperlink ref="D100" display="dsc_sxsresource.c9d4ce6109370ac1cbc1fb07f191e02f9a61d5d3.de-de.xlf" r:id="rId318"/>
+    <hyperlink ref="A101" display="dsc_testconfiguration.md" r:id="rId319"/>
+    <hyperlink ref="B101" display=".md" r:id="rId320"/>
+    <hyperlink ref="D101" display="dsc_testconfiguration.b0e5afe2c8f173ebe49c97c9ea9a2f11d81ea5fa.de-de.xlf" r:id="rId321"/>
+    <hyperlink ref="A102" display="dsc_updateconfig.md" r:id="rId322"/>
+    <hyperlink ref="B102" display=".md" r:id="rId323"/>
+    <hyperlink ref="D102" display="dsc_updateconfig.a07eb85e3458d42d7ab1ed5c57dcfc70df709d07.de-de.xlf" r:id="rId324"/>
+    <hyperlink ref="A103" display="dsc_waitfor.md" r:id="rId325"/>
+    <hyperlink ref="B103" display=".md" r:id="rId326"/>
+    <hyperlink ref="D103" display="dsc_waitfor.2b09933f08f1020166ce0f0cd7548a5a3845c48f.de-de.xlf" r:id="rId327"/>
+    <hyperlink ref="A104" display="dsc_wow64.md" r:id="rId328"/>
+    <hyperlink ref="B104" display=".md" r:id="rId329"/>
+    <hyperlink ref="D104" display="dsc_wow64.ea039aaa1bd77415311fc30d80fed43cda07a6e3.de-de.xlf" r:id="rId330"/>
+    <hyperlink ref="A105" display="feedback.md" r:id="rId331"/>
+    <hyperlink ref="B105" display=".md" r:id="rId332"/>
+    <hyperlink ref="D105" display="feedback.3662230166299ef7c1fb7a7a7f5cdbd64b1d812a.de-de.xlf" r:id="rId333"/>
+    <hyperlink ref="A106" display="feedback_archive.md" r:id="rId334"/>
+    <hyperlink ref="B106" display=".md" r:id="rId335"/>
+    <hyperlink ref="D106" display="feedback_archive.20de26911a704368058401c7e2bd6ebaac692ff5.de-de.xlf" r:id="rId336"/>
+    <hyperlink ref="A107" display="feedback_clipboard.md" r:id="rId337"/>
+    <hyperlink ref="B107" display=".md" r:id="rId338"/>
+    <hyperlink ref="D107" display="feedback_clipboard.872e5c147ef02cb86067651f41e3c00b55386664.de-de.xlf" r:id="rId339"/>
+    <hyperlink ref="A108" display="feedback_cmdlets.md" r:id="rId340"/>
+    <hyperlink ref="B108" display=".md" r:id="rId341"/>
+    <hyperlink ref="D108" display="feedback_cmdlets.a4c0dfb806ca0da232eeb75ad3706177b8a5ec48.de-de.xlf" r:id="rId342"/>
+    <hyperlink ref="A109" display="feedback_convertfromString.md" r:id="rId343"/>
+    <hyperlink ref="B109" display=".md" r:id="rId344"/>
+    <hyperlink ref="D109" display="feedback_convertfromString.acdeaa33e8fa59b93649b6abf3a7d5ef64fb7664.de-de.xlf" r:id="rId345"/>
+    <hyperlink ref="A110" display="feedback_convertstring.md" r:id="rId346"/>
+    <hyperlink ref="B110" display=".md" r:id="rId347"/>
+    <hyperlink ref="D110" display="feedback_convertstring.42e964e30093962871c3a4d586ed6c54f25f840d.de-de.xlf" r:id="rId348"/>
+    <hyperlink ref="A111" display="feedback_fileinfo.md" r:id="rId349"/>
+    <hyperlink ref="B111" display=".md" r:id="rId350"/>
+    <hyperlink ref="D111" display="feedback_fileinfo.0192edad2d6504d26a9632f95fc9e5b66ffd8003.de-de.xlf" r:id="rId351"/>
+    <hyperlink ref="A112" display="feedback_formathex.md" r:id="rId352"/>
+    <hyperlink ref="B112" display=".md" r:id="rId353"/>
+    <hyperlink ref="D112" display="feedback_formathex.f97931c887efb620e5f4314facc1f0e20e3dffbe.de-de.xlf" r:id="rId354"/>
+    <hyperlink ref="A113" display="feedback_getchilditem.md" r:id="rId355"/>
+    <hyperlink ref="B113" display=".md" r:id="rId356"/>
+    <hyperlink ref="D113" display="feedback_getchilditem.ce02ca20cc4417a80fe65eb509a8e92f2cecc79c.de-de.xlf" r:id="rId357"/>
+    <hyperlink ref="A114" display="feedback_moduleversionranges.md" r:id="rId358"/>
+    <hyperlink ref="B114" display=".md" r:id="rId359"/>
+    <hyperlink ref="D114" display="feedback_moduleversionranges.611b3a3219d64dbfa1d01541b60a727b880a0c4b.de-de.xlf" r:id="rId360"/>
+    <hyperlink ref="A115" display="feedback_newguid.md" r:id="rId361"/>
+    <hyperlink ref="B115" display=".md" r:id="rId362"/>
+    <hyperlink ref="D115" display="feedback_newguid.f8756fbdb96e6fe06a7e0cbb6ac4af32b1c64983.de-de.xlf" r:id="rId363"/>
+    <hyperlink ref="A116" display="feedback_nonewline.md" r:id="rId364"/>
+    <hyperlink ref="B116" display=".md" r:id="rId365"/>
+    <hyperlink ref="D116" display="feedback_nonewline.7a9b7e24c50399879089bba2b8eee7dc325572e2.de-de.xlf" r:id="rId366"/>
+    <hyperlink ref="A117" display="feedback_symbolic.md" r:id="rId367"/>
+    <hyperlink ref="B117" display=".md" r:id="rId368"/>
+    <hyperlink ref="D117" display="feedback_symbolic.1c3ac8128fb9df60512ec024044d48be7d0cb59f.de-de.xlf" r:id="rId369"/>
+    <hyperlink ref="A118" display="feedback_tempfile.md" r:id="rId370"/>
+    <hyperlink ref="B118" display=".md" r:id="rId371"/>
+    <hyperlink ref="D118" display="feedback_tempfile.fc029065af6bbba3a8c4abbf36023bede7d1416d.de-de.xlf" r:id="rId372"/>
+    <hyperlink ref="A119" display="DscResourceDebugging.jpg" r:id="rId373"/>
+    <hyperlink ref="B119" display=".jpg" r:id="rId374"/>
+    <hyperlink ref="D119" display="ba1897f38317f5fe38f2d8caf0efcc57bc8bb19d.jpg" r:id="rId375"/>
+    <hyperlink ref="A120" display="Import-DscResource-Modversion.jpg" r:id="rId376"/>
+    <hyperlink ref="B120" display=".jpg" r:id="rId377"/>
+    <hyperlink ref="D120" display="e6ed57c70f1b1380eb67c6998a1c9c67f3f246fc.jpg" r:id="rId378"/>
+    <hyperlink ref="A121" display="MOF_Encryption.jpg" r:id="rId379"/>
+    <hyperlink ref="B121" display=".jpg" r:id="rId380"/>
+    <hyperlink ref="D121" display="9a44a53029d37d4165bbffbdcaa79d9be76e5fac.jpg" r:id="rId381"/>
+    <hyperlink ref="A122" display="informationstream_overview.md" r:id="rId382"/>
+    <hyperlink ref="B122" display=".md" r:id="rId383"/>
+    <hyperlink ref="D122" display="informationstream_overview.d2f238b2b4021ccdb7271cf89f53d58970d56cf5.de-de.xlf" r:id="rId384"/>
+    <hyperlink ref="A123" display="install.md" r:id="rId385"/>
+    <hyperlink ref="B123" display=".md" r:id="rId386"/>
+    <hyperlink ref="D123" display="install.317fc924c0f766547c4725878af59c3c9d8facba.de-de.xlf" r:id="rId387"/>
+    <hyperlink ref="A124" display="jea_endpoint.md" r:id="rId388"/>
+    <hyperlink ref="B124" display=".md" r:id="rId389"/>
+    <hyperlink ref="D124" display="jea_endpoint.1dc052fe583a907a6c090cf8bfd42293d94d2975.de-de.xlf" r:id="rId390"/>
+    <hyperlink ref="A125" display="jea_overview.md" r:id="rId391"/>
+    <hyperlink ref="B125" display=".md" r:id="rId392"/>
+    <hyperlink ref="D125" display="jea_overview.3fa3008e719be8235adffe51808ac66714940871.de-de.xlf" r:id="rId393"/>
+    <hyperlink ref="A126" display="jea_report.md" r:id="rId394"/>
+    <hyperlink ref="B126" display=".md" r:id="rId395"/>
+    <hyperlink ref="D126" display="jea_report.7860cec6e93b7405844ccbbe5bc879921447ac0b.de-de.xlf" r:id="rId396"/>
+    <hyperlink ref="A127" display="limitation_dsc.md" r:id="rId397"/>
+    <hyperlink ref="B127" display=".md" r:id="rId398"/>
+    <hyperlink ref="D127" display="limitation_dsc.3684c81bb088cba98089dffdb1a1e56e1c098335.de-de.xlf" r:id="rId399"/>
+    <hyperlink ref="A128" display="limitation_overview.md" r:id="rId400"/>
+    <hyperlink ref="B128" display=".md" r:id="rId401"/>
+    <hyperlink ref="D128" display="limitation_overview.6cc9c8c028f5912636637d836aed7db0614de522.de-de.xlf" r:id="rId402"/>
+    <hyperlink ref="A129" display="networkswitch_overview.md" r:id="rId403"/>
+    <hyperlink ref="B129" display=".md" r:id="rId404"/>
+    <hyperlink ref="D129" display="networkswitch_overview.7a87eb0741cd43b8b9284ea6cb605920c4961b79.de-de.xlf" r:id="rId405"/>
+    <hyperlink ref="A130" display="odata_overview.md" r:id="rId406"/>
+    <hyperlink ref="B130" display=".md" r:id="rId407"/>
+    <hyperlink ref="D130" display="odata_overview.c3f7efdde29fe7ac5685a61cd61d75b65524a4c3.de-de.xlf" r:id="rId408"/>
+    <hyperlink ref="A131" display="oneget_cmdlets.md" r:id="rId409"/>
+    <hyperlink ref="B131" display=".md" r:id="rId410"/>
+    <hyperlink ref="D131" display="oneget_cmdlets.469b2350a72495ac2cf62e4130b4df8036f5d135.de-de.xlf" r:id="rId411"/>
+    <hyperlink ref="A132" display="oneget_overview.md" r:id="rId412"/>
+    <hyperlink ref="B132" display=".md" r:id="rId413"/>
+    <hyperlink ref="D132" display="oneget_overview.e71a25f36f957ab7471d259c6e716651f6f23c94.de-de.xlf" r:id="rId414"/>
+    <hyperlink ref="A133" display="productincompat.md" r:id="rId415"/>
+    <hyperlink ref="B133" display=".md" r:id="rId416"/>
+    <hyperlink ref="D133" display="productincompat.62bb00299c0283b5297001553476a745e28a49cb.de-de.xlf" r:id="rId417"/>
+    <hyperlink ref="A134" display="psget_module_overview.md" r:id="rId418"/>
+    <hyperlink ref="B134" display=".md" r:id="rId419"/>
+    <hyperlink ref="D134" display="psget_module_overview.4149c468ffd0f17a2fabd03f90059c12effc3170.de-de.xlf" r:id="rId420"/>
+    <hyperlink ref="A135" display="psget_modulecmdlets.md" r:id="rId421"/>
+    <hyperlink ref="B135" display=".md" r:id="rId422"/>
+    <hyperlink ref="D135" display="psget_modulecmdlets.1f808cfdf9a9aa920f88e15f7f5fa4701fe805e3.de-de.xlf" r:id="rId423"/>
+    <hyperlink ref="A136" display="psget_moduledependency.md" r:id="rId424"/>
+    <hyperlink ref="B136" display=".md" r:id="rId425"/>
+    <hyperlink ref="D136" display="psget_moduledependency.89ba9310335ae64db5481a3c02034ac4fe01b6a2.de-de.xlf" r:id="rId426"/>
+    <hyperlink ref="A137" display="psget_modulesxsinstall.md" r:id="rId427"/>
+    <hyperlink ref="B137" display=".md" r:id="rId428"/>
+    <hyperlink ref="D137" display="psget_modulesxsinstall.110ba80d8f917899ef488b46bd15f5654f6ba06c.de-de.xlf" r:id="rId429"/>
+    <hyperlink ref="A138" display="psget_psrepository.md" r:id="rId430"/>
+    <hyperlink ref="B138" display=".md" r:id="rId431"/>
+    <hyperlink ref="D138" display="psget_psrepository.c4381b2ff7bb6496ab74ed8bb2b07325cfbfc056.de-de.xlf" r:id="rId432"/>
+    <hyperlink ref="A139" display="psget_script_overview.md" r:id="rId433"/>
+    <hyperlink ref="B139" display=".md" r:id="rId434"/>
+    <hyperlink ref="D139" display="psget_script_overview.f035cc99497d17dc73e3a61f214e40a5860fc70a.de-de.xlf" r:id="rId435"/>
+    <hyperlink ref="A140" display="psget_scriptcmdlets.md" r:id="rId436"/>
+    <hyperlink ref="B140" display=".md" r:id="rId437"/>
+    <hyperlink ref="D140" display="psget_scriptcmdlets.1762d5f29292d59c1afb37cb29eb11a34cf63990.de-de.xlf" r:id="rId438"/>
+    <hyperlink ref="A141" display="releasenotes.md" r:id="rId439"/>
+    <hyperlink ref="B141" display=".md" r:id="rId440"/>
+    <hyperlink ref="D141" display="releasenotes.311750b4da54b1d4ef7997b328edd6ff177fb71f.de-de.xlf" r:id="rId441"/>
+    <hyperlink ref="A142" display="requirements.md" r:id="rId442"/>
+    <hyperlink ref="B142" display=".md" r:id="rId443"/>
+    <hyperlink ref="D142" display="requirements.ef8332f358d65b1759bfd4c7336b11d1dc8c2d46.de-de.xlf" r:id="rId444"/>
+    <hyperlink ref="A143" display="sil_overview.md" r:id="rId445"/>
+    <hyperlink ref="B143" display=".md" r:id="rId446"/>
+    <hyperlink ref="D143" display="sil_overview.a2b1f7c716aad317993a5eaffba21fa28ce0c0d8.de-de.xlf" r:id="rId447"/>
+    <hyperlink ref="A144" display="TOC.md" r:id="rId448"/>
+    <hyperlink ref="B144" display=".md" r:id="rId449"/>
+    <hyperlink ref="D144" display="TOC.60497266061c38453b3db893ec675eb65584af89.de-de.xlf" r:id="rId450"/>
+    <hyperlink ref="A145" display="uninstall.md" r:id="rId451"/>
+    <hyperlink ref="B145" display=".md" r:id="rId452"/>
+    <hyperlink ref="D145" display="uninstall.b07adaaaf7f41869dfa201b88e29342aced76c96.de-de.xlf" r:id="rId453"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/PowerShell/powerShell-Docs/live/localization-status.xlsx
+++ b/ol-handback/PowerShell/powerShell-Docs/live/localization-status.xlsx
@@ -6,31 +6,79 @@
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId2"/>
-    <sheet name="de-de" sheetId="2" r:id="rId3"/>
+    <sheet name="es-es" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="336">
   <si>
     <t>File Name</t>
   </si>
   <si>
-    <t>de-de</t>
+    <t>es-es</t>
   </si>
   <si>
     <t>Latest Handoff Date</t>
   </si>
   <si>
+    <t>archiveResource.md</t>
+  </si>
+  <si>
+    <t>Handed back: in sync with en-US</t>
+  </si>
+  <si>
+    <t>2016-02-23 03:02:55</t>
+  </si>
+  <si>
+    <t>authoringResource.md</t>
+  </si>
+  <si>
+    <t>authoringResourceClass.md</t>
+  </si>
+  <si>
+    <t>2016-43-02 17:43:56</t>
+  </si>
+  <si>
+    <t>authoringResourceComposite.md</t>
+  </si>
+  <si>
+    <t>authoringResourceMOF.md</t>
+  </si>
+  <si>
+    <t>authoringResourceMofCS.md</t>
+  </si>
+  <si>
+    <t>authoringResourceMofDesigner.md</t>
+  </si>
+  <si>
+    <t>configData.md</t>
+  </si>
+  <si>
+    <t>configDataCredentials.md</t>
+  </si>
+  <si>
+    <t>configurations.md</t>
+  </si>
+  <si>
+    <t>enactingConfigurations.md</t>
+  </si>
+  <si>
+    <t>environmentResource.md</t>
+  </si>
+  <si>
+    <t>fileResource.md</t>
+  </si>
+  <si>
+    <t>groupResource.md</t>
+  </si>
+  <si>
     <t>PartialConfig1.jpg</t>
   </si>
   <si>
-    <t>Handed back: in sync with en-US</t>
-  </si>
-  <si>
-    <t>2016-02-11 01:02:28</t>
+    <t>2016-03-11 01:03:45</t>
   </si>
   <si>
     <t>PartialConfigPullServer.jpg</t>
@@ -42,154 +90,130 @@
     <t>Push.png</t>
   </si>
   <si>
+    <t>lnxArchiveResource.md</t>
+  </si>
+  <si>
     <t>lnxBuiltInResources.md</t>
   </si>
   <si>
-    <t>2016-01-23 03:01:20</t>
+    <t>lnxEnvironmentResource.md</t>
+  </si>
+  <si>
+    <t>lnxFileLineResource.md</t>
+  </si>
+  <si>
+    <t>lnxFileResource.md</t>
+  </si>
+  <si>
+    <t>lnxGroupResource.md</t>
+  </si>
+  <si>
+    <t>lnxPackageResource.md</t>
+  </si>
+  <si>
+    <t>lnxScriptResource.md</t>
+  </si>
+  <si>
+    <t>lnxServiceResource.md</t>
+  </si>
+  <si>
+    <t>lnxSshAuthorizedKeysResource.md</t>
+  </si>
+  <si>
+    <t>lnxUserResource.md</t>
+  </si>
+  <si>
+    <t>logResource.md</t>
   </si>
   <si>
     <t>metaConfig.md</t>
   </si>
   <si>
+    <t>metaConfig4.md</t>
+  </si>
+  <si>
+    <t>overview.md</t>
+  </si>
+  <si>
+    <t>packageResource.md</t>
+  </si>
+  <si>
+    <t>partialConfigs.md</t>
+  </si>
+  <si>
+    <t>pullClient.md</t>
+  </si>
+  <si>
+    <t>pullClientConfigID.md</t>
+  </si>
+  <si>
+    <t>queryServerNodes.md</t>
+  </si>
+  <si>
+    <t>registryResource.md</t>
+  </si>
+  <si>
+    <t>reportServer.md</t>
+  </si>
+  <si>
+    <t>resources.md</t>
+  </si>
+  <si>
+    <t>scriptResource.md</t>
+  </si>
+  <si>
+    <t>secureServer.md</t>
+  </si>
+  <si>
+    <t>serviceResource.md</t>
+  </si>
+  <si>
+    <t>userResource.md</t>
+  </si>
+  <si>
     <t>windowsfeatureResource.md</t>
   </si>
   <si>
-    <t>authoringResource.md</t>
-  </si>
-  <si>
-    <t>In Translation</t>
-  </si>
-  <si>
-    <t>archiveResource.md</t>
+    <t>windowsProcessResource.md</t>
+  </si>
+  <si>
+    <t>builtInResource.md</t>
   </si>
   <si>
     <t>Ready for handoff</t>
   </si>
   <si>
-    <t>authoringResourceClass.md</t>
-  </si>
-  <si>
-    <t>2016-52-02 17:52:44</t>
-  </si>
-  <si>
-    <t>authoringResourceComposite.md</t>
-  </si>
-  <si>
-    <t>authoringResourceMOF.md</t>
-  </si>
-  <si>
-    <t>authoringResourceMofCS.md</t>
-  </si>
-  <si>
-    <t>authoringResourceMofDesigner.md</t>
-  </si>
-  <si>
-    <t>builtInResource.md</t>
-  </si>
-  <si>
-    <t>2016-23-21 17:23:01</t>
-  </si>
-  <si>
-    <t>configData.md</t>
-  </si>
-  <si>
-    <t>configDataCredentials.md</t>
-  </si>
-  <si>
-    <t>configurations.md</t>
+    <t>2016-23-21 17:23:27</t>
   </si>
   <si>
     <t>debugResource.md</t>
   </si>
   <si>
-    <t>2016-42-10 21:42:08</t>
+    <t>2016-43-10 21:43:29</t>
   </si>
   <si>
     <t>decisionMaker.md</t>
   </si>
   <si>
-    <t>2016-31-07 19:31:26</t>
-  </si>
-  <si>
-    <t>enactingConfigurations.md</t>
-  </si>
-  <si>
-    <t>environmentResource.md</t>
-  </si>
-  <si>
-    <t>fileResource.md</t>
+    <t>2016-32-07 19:32:30</t>
   </si>
   <si>
     <t>gettingStarted.md</t>
   </si>
   <si>
-    <t>groupResource.md</t>
-  </si>
-  <si>
     <t>CredentialEncryptionDiagram1.png</t>
   </si>
   <si>
-    <t>lnxArchiveResource.md</t>
-  </si>
-  <si>
-    <t>lnxEnvironmentResource.md</t>
-  </si>
-  <si>
-    <t>lnxFileLineResource.md</t>
-  </si>
-  <si>
-    <t>lnxFileResource.md</t>
-  </si>
-  <si>
     <t>lnxGettingStarted.md</t>
   </si>
   <si>
-    <t>2016-32-10 20:32:18</t>
-  </si>
-  <si>
-    <t>lnxGroupResource.md</t>
-  </si>
-  <si>
-    <t>lnxPackageResource.md</t>
-  </si>
-  <si>
-    <t>lnxScriptResource.md</t>
-  </si>
-  <si>
-    <t>lnxServiceResource.md</t>
-  </si>
-  <si>
-    <t>lnxSshAuthorizedKeysResource.md</t>
-  </si>
-  <si>
-    <t>lnxUserResource.md</t>
-  </si>
-  <si>
-    <t>logResource.md</t>
-  </si>
-  <si>
-    <t>metaConfig4.md</t>
-  </si>
-  <si>
-    <t>overview.md</t>
-  </si>
-  <si>
-    <t>packageResource.md</t>
-  </si>
-  <si>
-    <t>partialConfigs.md</t>
-  </si>
-  <si>
-    <t>pullClient.md</t>
-  </si>
-  <si>
-    <t>pullClientConfigID.md</t>
+    <t>2016-33-10 20:33:33</t>
   </si>
   <si>
     <t>pullClientConfigID4.md</t>
   </si>
   <si>
-    <t>2016-01-09 20:01:41</t>
+    <t>2016-03-09 20:03:03</t>
   </si>
   <si>
     <t>pullClientConfigNames.md</t>
@@ -201,55 +225,28 @@
     <t>pullServerSMB.md</t>
   </si>
   <si>
-    <t>queryServerNodes.md</t>
-  </si>
-  <si>
-    <t>registryResource.md</t>
-  </si>
-  <si>
-    <t>reportServer.md</t>
-  </si>
-  <si>
     <t>resourceAuthoringChecklist.md</t>
   </si>
   <si>
-    <t>resources.md</t>
-  </si>
-  <si>
     <t>runAsUser.md</t>
   </si>
   <si>
-    <t>scriptResource.md</t>
-  </si>
-  <si>
     <t>secureMOF.md</t>
   </si>
   <si>
-    <t>secureServer.md</t>
-  </si>
-  <si>
-    <t>serviceResource.md</t>
-  </si>
-  <si>
     <t>TOC.md</t>
   </si>
   <si>
     <t>troubleshooting.md</t>
   </si>
   <si>
-    <t>2016-11-04 21:11:35</t>
-  </si>
-  <si>
-    <t>userResource.md</t>
-  </si>
-  <si>
-    <t>windowsProcessResource.md</t>
+    <t>2016-12-04 21:12:23</t>
   </si>
   <si>
     <t>audit_cms.md</t>
   </si>
   <si>
-    <t>2016-12-08 01:12:00</t>
+    <t>2016-14-08 01:14:29</t>
   </si>
   <si>
     <t>audit_overview.md</t>
@@ -489,7 +486,7 @@
     <t>sil_overview.md</t>
   </si>
   <si>
-    <t>2016-51-16 22:51:51</t>
+    <t>2016-52-16 22:52:09</t>
   </si>
   <si>
     <t>uninstall.md</t>
@@ -528,18 +525,69 @@
     <t>Error Detail</t>
   </si>
   <si>
+    <t>.md</t>
+  </si>
+  <si>
+    <t>archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.es-es.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-21 21:55:10</t>
+  </si>
+  <si>
+    <t>Include</t>
+  </si>
+  <si>
+    <t>authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.es-es.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-21 22:43:53</t>
+  </si>
+  <si>
+    <t>authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.es-es.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-02 17:43:56</t>
+  </si>
+  <si>
+    <t>authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.es-es.xlf</t>
+  </si>
+  <si>
+    <t>authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.es-es.xlf</t>
+  </si>
+  <si>
+    <t>authoringResourceMofCS.0647b27b00ec52b2f524a2856e48bc7c29c0f867.es-es.xlf</t>
+  </si>
+  <si>
+    <t>authoringResourceMofDesigner.09b1adffc4afb0d9b1154880e2dab0b25d82d51b.es-es.xlf</t>
+  </si>
+  <si>
+    <t>configData.51d01a46dd9af8b425788cc485523b09f8470b95.es-es.xlf</t>
+  </si>
+  <si>
+    <t>configDataCredentials.f3e75119e7d93b2f914823c5ea23bfde3935a874.es-es.xlf</t>
+  </si>
+  <si>
+    <t>configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.es-es.xlf</t>
+  </si>
+  <si>
+    <t>enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.es-es.xlf</t>
+  </si>
+  <si>
+    <t>environmentResource.eb91ffd4cd8bdb9476e5a83de1a20d3b7b502a56.es-es.xlf</t>
+  </si>
+  <si>
+    <t>fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.es-es.xlf</t>
+  </si>
+  <si>
+    <t>groupResource.d19d416269795c92566b62c36b9782062dcea43e.es-es.xlf</t>
+  </si>
+  <si>
     <t>.jpg</t>
   </si>
   <si>
     <t>3e61149f7b05f74d662d3038233013ffdcbed1a3.jpg</t>
   </si>
   <si>
-    <t>2016-03-11 01:02:28</t>
-  </si>
-  <si>
-    <t>2016-03-17 02:07:40</t>
-  </si>
-  <si>
     <t>IsDependency</t>
   </si>
   <si>
@@ -561,391 +609,325 @@
     <t>d3008e3fe7da4c118c693d2b34a0b329780f8d86.png</t>
   </si>
   <si>
-    <t>.md</t>
-  </si>
-  <si>
-    <t>lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-02-23 03:01:20</t>
-  </si>
-  <si>
-    <t>2016-03-21 22:37:42</t>
-  </si>
-  <si>
-    <t>Include</t>
-  </si>
-  <si>
-    <t>metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-21 21:14:51</t>
-  </si>
-  <si>
-    <t>windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.de-de.xlf</t>
-  </si>
-  <si>
-    <t>authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.de-de.xlf</t>
+    <t>lnxArchiveResource.095aab7d23720fd394f2573c30223a6bbcc0a4ef.es-es.xlf</t>
+  </si>
+  <si>
+    <t>lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.es-es.xlf</t>
+  </si>
+  <si>
+    <t>lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.es-es.xlf</t>
+  </si>
+  <si>
+    <t>lnxFileLineResource.d91fc802a4c6cdbff5a2e35f92b34c36c6dbf5eb.es-es.xlf</t>
+  </si>
+  <si>
+    <t>lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.es-es.xlf</t>
+  </si>
+  <si>
+    <t>lnxGroupResource.0cedb684d797032bd47cdb852629c36da0884567.es-es.xlf</t>
+  </si>
+  <si>
+    <t>lnxPackageResource.db35ab938bbfbb38cae53fe9ae98fd22b5f18009.es-es.xlf</t>
+  </si>
+  <si>
+    <t>lnxScriptResource.1344a5d5b807ee53705e93842d9ef5e25a883359.es-es.xlf</t>
+  </si>
+  <si>
+    <t>lnxServiceResource.e637c7f7b18939ec8c16eadf2c42ab00e236fb7b.es-es.xlf</t>
+  </si>
+  <si>
+    <t>lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.es-es.xlf</t>
+  </si>
+  <si>
+    <t>lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.es-es.xlf</t>
+  </si>
+  <si>
+    <t>logResource.07af9dfcf6076ef19059178c3b404762677920f0.es-es.xlf</t>
+  </si>
+  <si>
+    <t>metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.es-es.xlf</t>
+  </si>
+  <si>
+    <t>metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.es-es.xlf</t>
+  </si>
+  <si>
+    <t>overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.es-es.xlf</t>
+  </si>
+  <si>
+    <t>packageResource.132c4949cee174dc0dc324456d220436cb9884e6.es-es.xlf</t>
+  </si>
+  <si>
+    <t>partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.es-es.xlf</t>
+  </si>
+  <si>
+    <t>pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.es-es.xlf</t>
+  </si>
+  <si>
+    <t>pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.es-es.xlf</t>
+  </si>
+  <si>
+    <t>queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.es-es.xlf</t>
+  </si>
+  <si>
+    <t>registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.es-es.xlf</t>
+  </si>
+  <si>
+    <t>reportServer.53df4bc8b7b80c0a19c11434bdf5f4304e8248f7.es-es.xlf</t>
+  </si>
+  <si>
+    <t>resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.es-es.xlf</t>
+  </si>
+  <si>
+    <t>scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.es-es.xlf</t>
+  </si>
+  <si>
+    <t>secureServer.ce207607010d18109152742ba23c923cd3cddba2.es-es.xlf</t>
+  </si>
+  <si>
+    <t>serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.es-es.xlf</t>
+  </si>
+  <si>
+    <t>userResource.5de4fbe03e9e06934442ba451eb0564931863f45.es-es.xlf</t>
+  </si>
+  <si>
+    <t>windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.es-es.xlf</t>
+  </si>
+  <si>
+    <t>windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.es-es.xlf</t>
+  </si>
+  <si>
+    <t>builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.es-es.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-21 17:23:27</t>
+  </si>
+  <si>
+    <t>debugResource.ac634156affe5c723cc149a298f5aa4268d17016.es-es.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-10 21:43:29</t>
+  </si>
+  <si>
+    <t>decisionMaker.01553169f2ba4241995260fad925e2784b5f5567.es-es.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-07 19:32:30</t>
+  </si>
+  <si>
+    <t>gettingStarted.92e02d8bd273df5c304475a9b4fa251c22a7ea19.es-es.xlf</t>
+  </si>
+  <si>
+    <t>d9f53a805041164f5070845c0fd216b63d17ae58.png</t>
   </si>
   <si>
     <t>0001-01-01 00:00:00</t>
   </si>
   <si>
-    <t>archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.de-de.xlf</t>
-  </si>
-  <si>
-    <t>authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-02 17:52:44</t>
-  </si>
-  <si>
-    <t>authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.de-de.xlf</t>
-  </si>
-  <si>
-    <t>authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.de-de.xlf</t>
-  </si>
-  <si>
-    <t>authoringResourceMofCS.0647b27b00ec52b2f524a2856e48bc7c29c0f867.de-de.xlf</t>
-  </si>
-  <si>
-    <t>authoringResourceMofDesigner.09b1adffc4afb0d9b1154880e2dab0b25d82d51b.de-de.xlf</t>
-  </si>
-  <si>
-    <t>builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-21 17:23:01</t>
-  </si>
-  <si>
-    <t>configData.51d01a46dd9af8b425788cc485523b09f8470b95.de-de.xlf</t>
-  </si>
-  <si>
-    <t>configDataCredentials.f3e75119e7d93b2f914823c5ea23bfde3935a874.de-de.xlf</t>
-  </si>
-  <si>
-    <t>configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.de-de.xlf</t>
-  </si>
-  <si>
-    <t>debugResource.ac634156affe5c723cc149a298f5aa4268d17016.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-10 21:42:08</t>
-  </si>
-  <si>
-    <t>decisionMaker.01553169f2ba4241995260fad925e2784b5f5567.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-07 19:31:26</t>
-  </si>
-  <si>
-    <t>enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.de-de.xlf</t>
-  </si>
-  <si>
-    <t>environmentResource.eb91ffd4cd8bdb9476e5a83de1a20d3b7b502a56.de-de.xlf</t>
-  </si>
-  <si>
-    <t>fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.de-de.xlf</t>
-  </si>
-  <si>
-    <t>gettingStarted.92e02d8bd273df5c304475a9b4fa251c22a7ea19.de-de.xlf</t>
-  </si>
-  <si>
-    <t>groupResource.d19d416269795c92566b62c36b9782062dcea43e.de-de.xlf</t>
-  </si>
-  <si>
-    <t>d9f53a805041164f5070845c0fd216b63d17ae58.png</t>
-  </si>
-  <si>
     <t>dsc\secureMOF.md</t>
   </si>
   <si>
-    <t>lnxArchiveResource.095aab7d23720fd394f2573c30223a6bbcc0a4ef.de-de.xlf</t>
-  </si>
-  <si>
-    <t>lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.de-de.xlf</t>
-  </si>
-  <si>
-    <t>lnxFileLineResource.d91fc802a4c6cdbff5a2e35f92b34c36c6dbf5eb.de-de.xlf</t>
-  </si>
-  <si>
-    <t>lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.de-de.xlf</t>
-  </si>
-  <si>
-    <t>lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-10 20:32:18</t>
-  </si>
-  <si>
-    <t>lnxGroupResource.0cedb684d797032bd47cdb852629c36da0884567.de-de.xlf</t>
-  </si>
-  <si>
-    <t>lnxPackageResource.db35ab938bbfbb38cae53fe9ae98fd22b5f18009.de-de.xlf</t>
-  </si>
-  <si>
-    <t>lnxScriptResource.1344a5d5b807ee53705e93842d9ef5e25a883359.de-de.xlf</t>
-  </si>
-  <si>
-    <t>lnxServiceResource.e637c7f7b18939ec8c16eadf2c42ab00e236fb7b.de-de.xlf</t>
-  </si>
-  <si>
-    <t>lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.de-de.xlf</t>
-  </si>
-  <si>
-    <t>lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.de-de.xlf</t>
-  </si>
-  <si>
-    <t>logResource.07af9dfcf6076ef19059178c3b404762677920f0.de-de.xlf</t>
-  </si>
-  <si>
-    <t>metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.de-de.xlf</t>
-  </si>
-  <si>
-    <t>overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.de-de.xlf</t>
-  </si>
-  <si>
-    <t>packageResource.132c4949cee174dc0dc324456d220436cb9884e6.de-de.xlf</t>
-  </si>
-  <si>
-    <t>partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.de-de.xlf</t>
-  </si>
-  <si>
-    <t>pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.de-de.xlf</t>
-  </si>
-  <si>
-    <t>pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.de-de.xlf</t>
-  </si>
-  <si>
-    <t>pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-09 20:01:41</t>
-  </si>
-  <si>
-    <t>pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.de-de.xlf</t>
-  </si>
-  <si>
-    <t>pullServer.4b925b277da29998394af746bdbdd508fda48909.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-21 21:11:44</t>
-  </si>
-  <si>
-    <t>pullServerSMB.772aec5ae27ccb19ced78e3eb665a4e16db1c4df.de-de.xlf</t>
-  </si>
-  <si>
-    <t>queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.de-de.xlf</t>
-  </si>
-  <si>
-    <t>registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.de-de.xlf</t>
-  </si>
-  <si>
-    <t>reportServer.53df4bc8b7b80c0a19c11434bdf5f4304e8248f7.de-de.xlf</t>
-  </si>
-  <si>
-    <t>resourceAuthoringChecklist.3b9ae254d826cc45519d37d06044f28a69bdfa69.de-de.xlf</t>
-  </si>
-  <si>
-    <t>resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.de-de.xlf</t>
-  </si>
-  <si>
-    <t>runAsUser.d2b90b6bc42ef965e454f9c9f5fd19bc7b488b34.de-de.xlf</t>
-  </si>
-  <si>
-    <t>scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.de-de.xlf</t>
-  </si>
-  <si>
-    <t>secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.de-de.xlf</t>
-  </si>
-  <si>
-    <t>secureServer.ce207607010d18109152742ba23c923cd3cddba2.de-de.xlf</t>
-  </si>
-  <si>
-    <t>serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.de-de.xlf</t>
-  </si>
-  <si>
-    <t>TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.de-de.xlf</t>
-  </si>
-  <si>
-    <t>troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-04 21:11:35</t>
-  </si>
-  <si>
-    <t>userResource.5de4fbe03e9e06934442ba451eb0564931863f45.de-de.xlf</t>
-  </si>
-  <si>
-    <t>windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.de-de.xlf</t>
-  </si>
-  <si>
-    <t>audit_cms.3e422ca243ac938b46bfcf1497a703e55bde970e.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-08 01:12:00</t>
-  </si>
-  <si>
-    <t>audit_overview.fc5b51e2734a2af986c9edf42b4395b1aad2435d.de-de.xlf</t>
-  </si>
-  <si>
-    <t>audit_script.e89f3a9316d1125e1efd23b41b756a3a6161016b.de-de.xlf</t>
-  </si>
-  <si>
-    <t>audit_transcript.c21a6554932939cbf4c744bf7c9f07cc4e1e7160.de-de.xlf</t>
-  </si>
-  <si>
-    <t>class_base.29a9fbe4987503d5575c151f4271f58398cb7e55.de-de.xlf</t>
-  </si>
-  <si>
-    <t>class_baseconstructor.82f951e800b06ccc68090b1be9923c8210a233ac.de-de.xlf</t>
-  </si>
-  <si>
-    <t>class_basemethod.6b60292188d0081f30fbaf4b111db8a439348f5b.de-de.xlf</t>
-  </si>
-  <si>
-    <t>class_interface.84a08fd30808364a820bdd4440de18ec4504a6c7.de-de.xlf</t>
-  </si>
-  <si>
-    <t>class_newtype.a9f52b670970046f8b1147d4ba646b73abb430dc.de-de.xlf</t>
-  </si>
-  <si>
-    <t>class_overview.91227b885afcb8df385ab601ab970b924eca2533.de-de.xlf</t>
-  </si>
-  <si>
-    <t>debug_overview.70b71c20b8b625704c25da28a58e804a048bafb0.de-de.xlf</t>
-  </si>
-  <si>
-    <t>dsc_authoring.364878cde8f156d8999773842812e0c08f70191c.de-de.xlf</t>
-  </si>
-  <si>
-    <t>dsc_classbasedresource.a3d6b22652db939b51db1218584247396454ae0f.de-de.xlf</t>
-  </si>
-  <si>
-    <t>dsc_confighelp.bcfa7e85acae98499089edc9fba25b68953d7bbf.de-de.xlf</t>
-  </si>
-  <si>
-    <t>dsc_directaccess.014c91015162b26b678e0a5fdfd453a3bf6e41b0.de-de.xlf</t>
-  </si>
-  <si>
-    <t>dsc_encryptedmof.a35c44de669ea81f25dd29f152f03493e52e327b.de-de.xlf</t>
-  </si>
-  <si>
-    <t>dsc_freqnomultiple.2848e52c73280aca59e73136bac0c2c7ae02aad6.de-de.xlf</t>
-  </si>
-  <si>
-    <t>dsc_getconfigurationstatus.1705e4bcaa9dfd9d69f00aecdc7ef0d04bf44899.de-de.xlf</t>
-  </si>
-  <si>
-    <t>dsc_identicalduplicate.eb7167ccd4a72d68aa1683327e9b3877927158ab.de-de.xlf</t>
-  </si>
-  <si>
-    <t>dsc_importdscresource.a0169ad862dfcaa5c958c07ecd52c856d5dc8436.de-de.xlf</t>
-  </si>
-  <si>
-    <t>dsc_improvements.d9ed6ffedf9d9650bb6b26b5ed611e420a0aacbb.de-de.xlf</t>
-  </si>
-  <si>
-    <t>dsc_lcmstate.21ea1c36f37c94e8e0363199fbd07bcced3aea40.de-de.xlf</t>
-  </si>
-  <si>
-    <t>dsc_metaconfiguration.e8bbca05aa1692ad54cadd83b93a1902f179f365.de-de.xlf</t>
-  </si>
-  <si>
-    <t>dsc_newresources.b9c40f591f875ea205c834f7675f3edbe1050592.de-de.xlf</t>
-  </si>
-  <si>
-    <t>dsc_nodeid.e3c9049aa6c1d151f8b286f28502537b2f8d22a4.de-de.xlf</t>
-  </si>
-  <si>
-    <t>dsc_partialconfig.a493787c3f8663ac3e2994162ffd1bee429544d3.de-de.xlf</t>
-  </si>
-  <si>
-    <t>dsc_partialconfig_mixedmode.ff4b9a8a421441da62574192650493bf2407028d.de-de.xlf</t>
-  </si>
-  <si>
-    <t>dsc_publishconfig.bfe86d4253abdd777c205caec637c50ec79103ee.de-de.xlf</t>
-  </si>
-  <si>
-    <t>dsc_refreshmode.b0529a06a4d3e07b3fce300f74760d63b27523f6.de-de.xlf</t>
-  </si>
-  <si>
-    <t>dsc_removeconfigdoc.d16cdab7eaedf468bcc38dae34e93be26a204318.de-de.xlf</t>
-  </si>
-  <si>
-    <t>dsc_reporting.b042cd21b9bcfc8e50bc361ddee59333602fad42.de-de.xlf</t>
-  </si>
-  <si>
-    <t>dsc_repository.ec5040a823a6b64e969393e00f3d859fd0b4551c.de-de.xlf</t>
-  </si>
-  <si>
-    <t>dsc_resourcedebugging.95c69e55eb065b349f52e18126d699b1906ba03f.de-de.xlf</t>
-  </si>
-  <si>
-    <t>dsc_runas.9e19a42a6d5e1ea1772358a6fd8ff24b98a5b6ba.de-de.xlf</t>
-  </si>
-  <si>
-    <t>dsc_setdsclcm.1f0e3cab81cf5fc1feda678f202451fe150632e3.de-de.xlf</t>
-  </si>
-  <si>
-    <t>dsc_statestatus.b6f3670f776a8f63a705ba16bed2f20be34fc48f.de-de.xlf</t>
-  </si>
-  <si>
-    <t>dsc_sxsresource.c9d4ce6109370ac1cbc1fb07f191e02f9a61d5d3.de-de.xlf</t>
-  </si>
-  <si>
-    <t>dsc_testconfiguration.b0e5afe2c8f173ebe49c97c9ea9a2f11d81ea5fa.de-de.xlf</t>
-  </si>
-  <si>
-    <t>dsc_updateconfig.a07eb85e3458d42d7ab1ed5c57dcfc70df709d07.de-de.xlf</t>
-  </si>
-  <si>
-    <t>dsc_waitfor.2b09933f08f1020166ce0f0cd7548a5a3845c48f.de-de.xlf</t>
-  </si>
-  <si>
-    <t>dsc_wow64.ea039aaa1bd77415311fc30d80fed43cda07a6e3.de-de.xlf</t>
-  </si>
-  <si>
-    <t>feedback.3662230166299ef7c1fb7a7a7f5cdbd64b1d812a.de-de.xlf</t>
-  </si>
-  <si>
-    <t>feedback_archive.20de26911a704368058401c7e2bd6ebaac692ff5.de-de.xlf</t>
-  </si>
-  <si>
-    <t>feedback_clipboard.872e5c147ef02cb86067651f41e3c00b55386664.de-de.xlf</t>
-  </si>
-  <si>
-    <t>feedback_cmdlets.a4c0dfb806ca0da232eeb75ad3706177b8a5ec48.de-de.xlf</t>
-  </si>
-  <si>
-    <t>feedback_convertfromString.acdeaa33e8fa59b93649b6abf3a7d5ef64fb7664.de-de.xlf</t>
-  </si>
-  <si>
-    <t>feedback_convertstring.42e964e30093962871c3a4d586ed6c54f25f840d.de-de.xlf</t>
-  </si>
-  <si>
-    <t>feedback_fileinfo.0192edad2d6504d26a9632f95fc9e5b66ffd8003.de-de.xlf</t>
-  </si>
-  <si>
-    <t>feedback_formathex.f97931c887efb620e5f4314facc1f0e20e3dffbe.de-de.xlf</t>
-  </si>
-  <si>
-    <t>feedback_getchilditem.ce02ca20cc4417a80fe65eb509a8e92f2cecc79c.de-de.xlf</t>
-  </si>
-  <si>
-    <t>feedback_moduleversionranges.611b3a3219d64dbfa1d01541b60a727b880a0c4b.de-de.xlf</t>
-  </si>
-  <si>
-    <t>feedback_newguid.f8756fbdb96e6fe06a7e0cbb6ac4af32b1c64983.de-de.xlf</t>
-  </si>
-  <si>
-    <t>feedback_nonewline.7a9b7e24c50399879089bba2b8eee7dc325572e2.de-de.xlf</t>
-  </si>
-  <si>
-    <t>feedback_symbolic.1c3ac8128fb9df60512ec024044d48be7d0cb59f.de-de.xlf</t>
-  </si>
-  <si>
-    <t>feedback_tempfile.fc029065af6bbba3a8c4abbf36023bede7d1416d.de-de.xlf</t>
+    <t>lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.es-es.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-10 20:33:33</t>
+  </si>
+  <si>
+    <t>pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.es-es.xlf</t>
+  </si>
+  <si>
+    <t>pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.es-es.xlf</t>
+  </si>
+  <si>
+    <t>pullServer.4b925b277da29998394af746bdbdd508fda48909.es-es.xlf</t>
+  </si>
+  <si>
+    <t>pullServerSMB.772aec5ae27ccb19ced78e3eb665a4e16db1c4df.es-es.xlf</t>
+  </si>
+  <si>
+    <t>resourceAuthoringChecklist.3b9ae254d826cc45519d37d06044f28a69bdfa69.es-es.xlf</t>
+  </si>
+  <si>
+    <t>runAsUser.d2b90b6bc42ef965e454f9c9f5fd19bc7b488b34.es-es.xlf</t>
+  </si>
+  <si>
+    <t>secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.es-es.xlf</t>
+  </si>
+  <si>
+    <t>TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.es-es.xlf</t>
+  </si>
+  <si>
+    <t>troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.es-es.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-04 21:12:23</t>
+  </si>
+  <si>
+    <t>audit_cms.3e422ca243ac938b46bfcf1497a703e55bde970e.es-es.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-08 01:14:29</t>
+  </si>
+  <si>
+    <t>audit_overview.fc5b51e2734a2af986c9edf42b4395b1aad2435d.es-es.xlf</t>
+  </si>
+  <si>
+    <t>audit_script.e89f3a9316d1125e1efd23b41b756a3a6161016b.es-es.xlf</t>
+  </si>
+  <si>
+    <t>audit_transcript.c21a6554932939cbf4c744bf7c9f07cc4e1e7160.es-es.xlf</t>
+  </si>
+  <si>
+    <t>class_base.29a9fbe4987503d5575c151f4271f58398cb7e55.es-es.xlf</t>
+  </si>
+  <si>
+    <t>class_baseconstructor.82f951e800b06ccc68090b1be9923c8210a233ac.es-es.xlf</t>
+  </si>
+  <si>
+    <t>class_basemethod.6b60292188d0081f30fbaf4b111db8a439348f5b.es-es.xlf</t>
+  </si>
+  <si>
+    <t>class_interface.84a08fd30808364a820bdd4440de18ec4504a6c7.es-es.xlf</t>
+  </si>
+  <si>
+    <t>class_newtype.a9f52b670970046f8b1147d4ba646b73abb430dc.es-es.xlf</t>
+  </si>
+  <si>
+    <t>class_overview.91227b885afcb8df385ab601ab970b924eca2533.es-es.xlf</t>
+  </si>
+  <si>
+    <t>debug_overview.70b71c20b8b625704c25da28a58e804a048bafb0.es-es.xlf</t>
+  </si>
+  <si>
+    <t>dsc_authoring.364878cde8f156d8999773842812e0c08f70191c.es-es.xlf</t>
+  </si>
+  <si>
+    <t>dsc_classbasedresource.a3d6b22652db939b51db1218584247396454ae0f.es-es.xlf</t>
+  </si>
+  <si>
+    <t>dsc_confighelp.bcfa7e85acae98499089edc9fba25b68953d7bbf.es-es.xlf</t>
+  </si>
+  <si>
+    <t>dsc_directaccess.014c91015162b26b678e0a5fdfd453a3bf6e41b0.es-es.xlf</t>
+  </si>
+  <si>
+    <t>dsc_encryptedmof.a35c44de669ea81f25dd29f152f03493e52e327b.es-es.xlf</t>
+  </si>
+  <si>
+    <t>dsc_freqnomultiple.2848e52c73280aca59e73136bac0c2c7ae02aad6.es-es.xlf</t>
+  </si>
+  <si>
+    <t>dsc_getconfigurationstatus.1705e4bcaa9dfd9d69f00aecdc7ef0d04bf44899.es-es.xlf</t>
+  </si>
+  <si>
+    <t>dsc_identicalduplicate.eb7167ccd4a72d68aa1683327e9b3877927158ab.es-es.xlf</t>
+  </si>
+  <si>
+    <t>dsc_importdscresource.a0169ad862dfcaa5c958c07ecd52c856d5dc8436.es-es.xlf</t>
+  </si>
+  <si>
+    <t>dsc_improvements.d9ed6ffedf9d9650bb6b26b5ed611e420a0aacbb.es-es.xlf</t>
+  </si>
+  <si>
+    <t>dsc_lcmstate.21ea1c36f37c94e8e0363199fbd07bcced3aea40.es-es.xlf</t>
+  </si>
+  <si>
+    <t>dsc_metaconfiguration.e8bbca05aa1692ad54cadd83b93a1902f179f365.es-es.xlf</t>
+  </si>
+  <si>
+    <t>dsc_newresources.b9c40f591f875ea205c834f7675f3edbe1050592.es-es.xlf</t>
+  </si>
+  <si>
+    <t>dsc_nodeid.e3c9049aa6c1d151f8b286f28502537b2f8d22a4.es-es.xlf</t>
+  </si>
+  <si>
+    <t>dsc_partialconfig.a493787c3f8663ac3e2994162ffd1bee429544d3.es-es.xlf</t>
+  </si>
+  <si>
+    <t>dsc_partialconfig_mixedmode.ff4b9a8a421441da62574192650493bf2407028d.es-es.xlf</t>
+  </si>
+  <si>
+    <t>dsc_publishconfig.bfe86d4253abdd777c205caec637c50ec79103ee.es-es.xlf</t>
+  </si>
+  <si>
+    <t>dsc_refreshmode.b0529a06a4d3e07b3fce300f74760d63b27523f6.es-es.xlf</t>
+  </si>
+  <si>
+    <t>dsc_removeconfigdoc.d16cdab7eaedf468bcc38dae34e93be26a204318.es-es.xlf</t>
+  </si>
+  <si>
+    <t>dsc_reporting.b042cd21b9bcfc8e50bc361ddee59333602fad42.es-es.xlf</t>
+  </si>
+  <si>
+    <t>dsc_repository.ec5040a823a6b64e969393e00f3d859fd0b4551c.es-es.xlf</t>
+  </si>
+  <si>
+    <t>dsc_resourcedebugging.95c69e55eb065b349f52e18126d699b1906ba03f.es-es.xlf</t>
+  </si>
+  <si>
+    <t>dsc_runas.9e19a42a6d5e1ea1772358a6fd8ff24b98a5b6ba.es-es.xlf</t>
+  </si>
+  <si>
+    <t>dsc_setdsclcm.1f0e3cab81cf5fc1feda678f202451fe150632e3.es-es.xlf</t>
+  </si>
+  <si>
+    <t>dsc_statestatus.b6f3670f776a8f63a705ba16bed2f20be34fc48f.es-es.xlf</t>
+  </si>
+  <si>
+    <t>dsc_sxsresource.c9d4ce6109370ac1cbc1fb07f191e02f9a61d5d3.es-es.xlf</t>
+  </si>
+  <si>
+    <t>dsc_testconfiguration.b0e5afe2c8f173ebe49c97c9ea9a2f11d81ea5fa.es-es.xlf</t>
+  </si>
+  <si>
+    <t>dsc_updateconfig.a07eb85e3458d42d7ab1ed5c57dcfc70df709d07.es-es.xlf</t>
+  </si>
+  <si>
+    <t>dsc_waitfor.2b09933f08f1020166ce0f0cd7548a5a3845c48f.es-es.xlf</t>
+  </si>
+  <si>
+    <t>dsc_wow64.ea039aaa1bd77415311fc30d80fed43cda07a6e3.es-es.xlf</t>
+  </si>
+  <si>
+    <t>feedback.3662230166299ef7c1fb7a7a7f5cdbd64b1d812a.es-es.xlf</t>
+  </si>
+  <si>
+    <t>feedback_archive.20de26911a704368058401c7e2bd6ebaac692ff5.es-es.xlf</t>
+  </si>
+  <si>
+    <t>feedback_clipboard.872e5c147ef02cb86067651f41e3c00b55386664.es-es.xlf</t>
+  </si>
+  <si>
+    <t>feedback_cmdlets.a4c0dfb806ca0da232eeb75ad3706177b8a5ec48.es-es.xlf</t>
+  </si>
+  <si>
+    <t>feedback_convertfromString.acdeaa33e8fa59b93649b6abf3a7d5ef64fb7664.es-es.xlf</t>
+  </si>
+  <si>
+    <t>feedback_convertstring.42e964e30093962871c3a4d586ed6c54f25f840d.es-es.xlf</t>
+  </si>
+  <si>
+    <t>feedback_fileinfo.0192edad2d6504d26a9632f95fc9e5b66ffd8003.es-es.xlf</t>
+  </si>
+  <si>
+    <t>feedback_formathex.f97931c887efb620e5f4314facc1f0e20e3dffbe.es-es.xlf</t>
+  </si>
+  <si>
+    <t>feedback_getchilditem.ce02ca20cc4417a80fe65eb509a8e92f2cecc79c.es-es.xlf</t>
+  </si>
+  <si>
+    <t>feedback_moduleversionranges.611b3a3219d64dbfa1d01541b60a727b880a0c4b.es-es.xlf</t>
+  </si>
+  <si>
+    <t>feedback_newguid.f8756fbdb96e6fe06a7e0cbb6ac4af32b1c64983.es-es.xlf</t>
+  </si>
+  <si>
+    <t>feedback_nonewline.7a9b7e24c50399879089bba2b8eee7dc325572e2.es-es.xlf</t>
+  </si>
+  <si>
+    <t>feedback_symbolic.1c3ac8128fb9df60512ec024044d48be7d0cb59f.es-es.xlf</t>
+  </si>
+  <si>
+    <t>feedback_tempfile.fc029065af6bbba3a8c4abbf36023bede7d1416d.es-es.xlf</t>
   </si>
   <si>
     <t>ba1897f38317f5fe38f2d8caf0efcc57bc8bb19d.jpg</t>
@@ -966,79 +948,79 @@
     <t>wmf\dsc_encryptedmof.md</t>
   </si>
   <si>
-    <t>informationstream_overview.d2f238b2b4021ccdb7271cf89f53d58970d56cf5.de-de.xlf</t>
-  </si>
-  <si>
-    <t>install.317fc924c0f766547c4725878af59c3c9d8facba.de-de.xlf</t>
-  </si>
-  <si>
-    <t>jea_endpoint.1dc052fe583a907a6c090cf8bfd42293d94d2975.de-de.xlf</t>
-  </si>
-  <si>
-    <t>jea_overview.3fa3008e719be8235adffe51808ac66714940871.de-de.xlf</t>
-  </si>
-  <si>
-    <t>jea_report.7860cec6e93b7405844ccbbe5bc879921447ac0b.de-de.xlf</t>
-  </si>
-  <si>
-    <t>limitation_dsc.3684c81bb088cba98089dffdb1a1e56e1c098335.de-de.xlf</t>
-  </si>
-  <si>
-    <t>limitation_overview.6cc9c8c028f5912636637d836aed7db0614de522.de-de.xlf</t>
-  </si>
-  <si>
-    <t>networkswitch_overview.7a87eb0741cd43b8b9284ea6cb605920c4961b79.de-de.xlf</t>
-  </si>
-  <si>
-    <t>odata_overview.c3f7efdde29fe7ac5685a61cd61d75b65524a4c3.de-de.xlf</t>
-  </si>
-  <si>
-    <t>oneget_cmdlets.469b2350a72495ac2cf62e4130b4df8036f5d135.de-de.xlf</t>
-  </si>
-  <si>
-    <t>oneget_overview.e71a25f36f957ab7471d259c6e716651f6f23c94.de-de.xlf</t>
-  </si>
-  <si>
-    <t>productincompat.62bb00299c0283b5297001553476a745e28a49cb.de-de.xlf</t>
-  </si>
-  <si>
-    <t>psget_module_overview.4149c468ffd0f17a2fabd03f90059c12effc3170.de-de.xlf</t>
-  </si>
-  <si>
-    <t>psget_modulecmdlets.1f808cfdf9a9aa920f88e15f7f5fa4701fe805e3.de-de.xlf</t>
-  </si>
-  <si>
-    <t>psget_moduledependency.89ba9310335ae64db5481a3c02034ac4fe01b6a2.de-de.xlf</t>
-  </si>
-  <si>
-    <t>psget_modulesxsinstall.110ba80d8f917899ef488b46bd15f5654f6ba06c.de-de.xlf</t>
-  </si>
-  <si>
-    <t>psget_psrepository.c4381b2ff7bb6496ab74ed8bb2b07325cfbfc056.de-de.xlf</t>
-  </si>
-  <si>
-    <t>psget_script_overview.f035cc99497d17dc73e3a61f214e40a5860fc70a.de-de.xlf</t>
-  </si>
-  <si>
-    <t>psget_scriptcmdlets.1762d5f29292d59c1afb37cb29eb11a34cf63990.de-de.xlf</t>
-  </si>
-  <si>
-    <t>releasenotes.311750b4da54b1d4ef7997b328edd6ff177fb71f.de-de.xlf</t>
-  </si>
-  <si>
-    <t>requirements.ef8332f358d65b1759bfd4c7336b11d1dc8c2d46.de-de.xlf</t>
-  </si>
-  <si>
-    <t>sil_overview.a2b1f7c716aad317993a5eaffba21fa28ce0c0d8.de-de.xlf</t>
-  </si>
-  <si>
-    <t>TOC.60497266061c38453b3db893ec675eb65584af89.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-16 22:51:51</t>
-  </si>
-  <si>
-    <t>uninstall.b07adaaaf7f41869dfa201b88e29342aced76c96.de-de.xlf</t>
+    <t>informationstream_overview.d2f238b2b4021ccdb7271cf89f53d58970d56cf5.es-es.xlf</t>
+  </si>
+  <si>
+    <t>install.317fc924c0f766547c4725878af59c3c9d8facba.es-es.xlf</t>
+  </si>
+  <si>
+    <t>jea_endpoint.1dc052fe583a907a6c090cf8bfd42293d94d2975.es-es.xlf</t>
+  </si>
+  <si>
+    <t>jea_overview.3fa3008e719be8235adffe51808ac66714940871.es-es.xlf</t>
+  </si>
+  <si>
+    <t>jea_report.7860cec6e93b7405844ccbbe5bc879921447ac0b.es-es.xlf</t>
+  </si>
+  <si>
+    <t>limitation_dsc.3684c81bb088cba98089dffdb1a1e56e1c098335.es-es.xlf</t>
+  </si>
+  <si>
+    <t>limitation_overview.6cc9c8c028f5912636637d836aed7db0614de522.es-es.xlf</t>
+  </si>
+  <si>
+    <t>networkswitch_overview.7a87eb0741cd43b8b9284ea6cb605920c4961b79.es-es.xlf</t>
+  </si>
+  <si>
+    <t>odata_overview.c3f7efdde29fe7ac5685a61cd61d75b65524a4c3.es-es.xlf</t>
+  </si>
+  <si>
+    <t>oneget_cmdlets.469b2350a72495ac2cf62e4130b4df8036f5d135.es-es.xlf</t>
+  </si>
+  <si>
+    <t>oneget_overview.e71a25f36f957ab7471d259c6e716651f6f23c94.es-es.xlf</t>
+  </si>
+  <si>
+    <t>productincompat.62bb00299c0283b5297001553476a745e28a49cb.es-es.xlf</t>
+  </si>
+  <si>
+    <t>psget_module_overview.4149c468ffd0f17a2fabd03f90059c12effc3170.es-es.xlf</t>
+  </si>
+  <si>
+    <t>psget_modulecmdlets.1f808cfdf9a9aa920f88e15f7f5fa4701fe805e3.es-es.xlf</t>
+  </si>
+  <si>
+    <t>psget_moduledependency.89ba9310335ae64db5481a3c02034ac4fe01b6a2.es-es.xlf</t>
+  </si>
+  <si>
+    <t>psget_modulesxsinstall.110ba80d8f917899ef488b46bd15f5654f6ba06c.es-es.xlf</t>
+  </si>
+  <si>
+    <t>psget_psrepository.c4381b2ff7bb6496ab74ed8bb2b07325cfbfc056.es-es.xlf</t>
+  </si>
+  <si>
+    <t>psget_script_overview.f035cc99497d17dc73e3a61f214e40a5860fc70a.es-es.xlf</t>
+  </si>
+  <si>
+    <t>psget_scriptcmdlets.1762d5f29292d59c1afb37cb29eb11a34cf63990.es-es.xlf</t>
+  </si>
+  <si>
+    <t>releasenotes.311750b4da54b1d4ef7997b328edd6ff177fb71f.es-es.xlf</t>
+  </si>
+  <si>
+    <t>requirements.ef8332f358d65b1759bfd4c7336b11d1dc8c2d46.es-es.xlf</t>
+  </si>
+  <si>
+    <t>sil_overview.a2b1f7c716aad317993a5eaffba21fa28ce0c0d8.es-es.xlf</t>
+  </si>
+  <si>
+    <t>TOC.60497266061c38453b3db893ec675eb65584af89.es-es.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-16 22:52:09</t>
+  </si>
+  <si>
+    <t>uninstall.b07adaaaf7f41869dfa201b88e29342aced76c96.es-es.xlf</t>
   </si>
 </sst>
 </file>
@@ -1095,7 +1077,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="de-de" displayName="de_de" ref="A1:L1" headerRowCount="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="es-es" displayName="es_es" ref="A1:L1" headerRowCount="0">
   <tableColumns count="12">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -1118,7 +1100,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Overview" displayName="Overview" ref="A1:D1" headerRowCount="0">
   <tableColumns count="4">
     <tableColumn id="1" name="File Name"/>
-    <tableColumn id="2" name="de-de"/>
+    <tableColumn id="2" name="es-es"/>
     <tableColumn id="3" name="Latest Handoff Date"/>
     <tableColumn id="4" name="Column4"/>
   </tableColumns>
@@ -1180,12 +1162,12 @@
         <v>4</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>4</v>
@@ -1196,13 +1178,13 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -1213,7 +1195,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -1224,7 +1206,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -1232,205 +1214,205 @@
         <v>13</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C27" s="0" t="s">
         <v>5</v>
@@ -1438,1366 +1420,1366 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>43</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>58</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>10</v>
+        <v>64</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>29</v>
+        <v>66</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>5</v>
+        <v>56</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>10</v>
+        <v>66</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>10</v>
+        <v>66</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>74</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>10</v>
+        <v>75</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>24</v>
+        <v>56</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="C125" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B126" s="0" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="C126" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B127" s="0" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="C127" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B128" s="0" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="C128" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B129" s="0" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="C129" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B130" s="0" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="C130" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B131" s="0" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="C131" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B132" s="0" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="C132" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B133" s="0" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="C133" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B134" s="0" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="C134" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B135" s="0" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="C135" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B136" s="0" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="C136" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B137" s="0" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="C137" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B138" s="0" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="C138" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B139" s="0" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="C139" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B140" s="0" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="C140" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B141" s="0" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="C141" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B142" s="0" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="C142" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B143" s="0" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="C143" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B144" s="0" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="C144" s="0" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B145" s="0" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="C145" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="PartialConfig1.jpg" r:id="rId2"/>
-    <hyperlink ref="A3" display="PartialConfigPullServer.jpg" r:id="rId3"/>
-    <hyperlink ref="A4" display="Pull.png" r:id="rId4"/>
-    <hyperlink ref="A5" display="Push.png" r:id="rId5"/>
-    <hyperlink ref="A6" display="lnxBuiltInResources.md" r:id="rId6"/>
-    <hyperlink ref="A7" display="metaConfig.md" r:id="rId7"/>
-    <hyperlink ref="A8" display="windowsfeatureResource.md" r:id="rId8"/>
-    <hyperlink ref="A9" display="authoringResource.md" r:id="rId9"/>
-    <hyperlink ref="A10" display="archiveResource.md" r:id="rId10"/>
-    <hyperlink ref="A11" display="authoringResourceClass.md" r:id="rId11"/>
-    <hyperlink ref="A12" display="authoringResourceComposite.md" r:id="rId12"/>
-    <hyperlink ref="A13" display="authoringResourceMOF.md" r:id="rId13"/>
-    <hyperlink ref="A14" display="authoringResourceMofCS.md" r:id="rId14"/>
-    <hyperlink ref="A15" display="authoringResourceMofDesigner.md" r:id="rId15"/>
-    <hyperlink ref="A16" display="builtInResource.md" r:id="rId16"/>
-    <hyperlink ref="A17" display="configData.md" r:id="rId17"/>
-    <hyperlink ref="A18" display="configDataCredentials.md" r:id="rId18"/>
-    <hyperlink ref="A19" display="configurations.md" r:id="rId19"/>
-    <hyperlink ref="A20" display="debugResource.md" r:id="rId20"/>
-    <hyperlink ref="A21" display="decisionMaker.md" r:id="rId21"/>
-    <hyperlink ref="A22" display="enactingConfigurations.md" r:id="rId22"/>
-    <hyperlink ref="A23" display="environmentResource.md" r:id="rId23"/>
-    <hyperlink ref="A24" display="fileResource.md" r:id="rId24"/>
-    <hyperlink ref="A25" display="gettingStarted.md" r:id="rId25"/>
-    <hyperlink ref="A26" display="groupResource.md" r:id="rId26"/>
-    <hyperlink ref="A27" display="CredentialEncryptionDiagram1.png" r:id="rId27"/>
-    <hyperlink ref="A28" display="lnxArchiveResource.md" r:id="rId28"/>
-    <hyperlink ref="A29" display="lnxEnvironmentResource.md" r:id="rId29"/>
-    <hyperlink ref="A30" display="lnxFileLineResource.md" r:id="rId30"/>
-    <hyperlink ref="A31" display="lnxFileResource.md" r:id="rId31"/>
-    <hyperlink ref="A32" display="lnxGettingStarted.md" r:id="rId32"/>
-    <hyperlink ref="A33" display="lnxGroupResource.md" r:id="rId33"/>
-    <hyperlink ref="A34" display="lnxPackageResource.md" r:id="rId34"/>
-    <hyperlink ref="A35" display="lnxScriptResource.md" r:id="rId35"/>
-    <hyperlink ref="A36" display="lnxServiceResource.md" r:id="rId36"/>
-    <hyperlink ref="A37" display="lnxSshAuthorizedKeysResource.md" r:id="rId37"/>
-    <hyperlink ref="A38" display="lnxUserResource.md" r:id="rId38"/>
-    <hyperlink ref="A39" display="logResource.md" r:id="rId39"/>
-    <hyperlink ref="A40" display="metaConfig4.md" r:id="rId40"/>
-    <hyperlink ref="A41" display="overview.md" r:id="rId41"/>
-    <hyperlink ref="A42" display="packageResource.md" r:id="rId42"/>
-    <hyperlink ref="A43" display="partialConfigs.md" r:id="rId43"/>
-    <hyperlink ref="A44" display="pullClient.md" r:id="rId44"/>
-    <hyperlink ref="A45" display="pullClientConfigID.md" r:id="rId45"/>
-    <hyperlink ref="A46" display="pullClientConfigID4.md" r:id="rId46"/>
-    <hyperlink ref="A47" display="pullClientConfigNames.md" r:id="rId47"/>
-    <hyperlink ref="A48" display="pullServer.md" r:id="rId48"/>
-    <hyperlink ref="A49" display="pullServerSMB.md" r:id="rId49"/>
-    <hyperlink ref="A50" display="queryServerNodes.md" r:id="rId50"/>
-    <hyperlink ref="A51" display="registryResource.md" r:id="rId51"/>
-    <hyperlink ref="A52" display="reportServer.md" r:id="rId52"/>
-    <hyperlink ref="A53" display="resourceAuthoringChecklist.md" r:id="rId53"/>
-    <hyperlink ref="A54" display="resources.md" r:id="rId54"/>
-    <hyperlink ref="A55" display="runAsUser.md" r:id="rId55"/>
-    <hyperlink ref="A56" display="scriptResource.md" r:id="rId56"/>
-    <hyperlink ref="A57" display="secureMOF.md" r:id="rId57"/>
-    <hyperlink ref="A58" display="secureServer.md" r:id="rId58"/>
-    <hyperlink ref="A59" display="serviceResource.md" r:id="rId59"/>
-    <hyperlink ref="A60" display="TOC.md" r:id="rId60"/>
-    <hyperlink ref="A61" display="troubleshooting.md" r:id="rId61"/>
-    <hyperlink ref="A62" display="userResource.md" r:id="rId62"/>
-    <hyperlink ref="A63" display="windowsProcessResource.md" r:id="rId63"/>
+    <hyperlink ref="A2" display="archiveResource.md" r:id="rId2"/>
+    <hyperlink ref="A3" display="authoringResource.md" r:id="rId3"/>
+    <hyperlink ref="A4" display="authoringResourceClass.md" r:id="rId4"/>
+    <hyperlink ref="A5" display="authoringResourceComposite.md" r:id="rId5"/>
+    <hyperlink ref="A6" display="authoringResourceMOF.md" r:id="rId6"/>
+    <hyperlink ref="A7" display="authoringResourceMofCS.md" r:id="rId7"/>
+    <hyperlink ref="A8" display="authoringResourceMofDesigner.md" r:id="rId8"/>
+    <hyperlink ref="A9" display="configData.md" r:id="rId9"/>
+    <hyperlink ref="A10" display="configDataCredentials.md" r:id="rId10"/>
+    <hyperlink ref="A11" display="configurations.md" r:id="rId11"/>
+    <hyperlink ref="A12" display="enactingConfigurations.md" r:id="rId12"/>
+    <hyperlink ref="A13" display="environmentResource.md" r:id="rId13"/>
+    <hyperlink ref="A14" display="fileResource.md" r:id="rId14"/>
+    <hyperlink ref="A15" display="groupResource.md" r:id="rId15"/>
+    <hyperlink ref="A16" display="PartialConfig1.jpg" r:id="rId16"/>
+    <hyperlink ref="A17" display="PartialConfigPullServer.jpg" r:id="rId17"/>
+    <hyperlink ref="A18" display="Pull.png" r:id="rId18"/>
+    <hyperlink ref="A19" display="Push.png" r:id="rId19"/>
+    <hyperlink ref="A20" display="lnxArchiveResource.md" r:id="rId20"/>
+    <hyperlink ref="A21" display="lnxBuiltInResources.md" r:id="rId21"/>
+    <hyperlink ref="A22" display="lnxEnvironmentResource.md" r:id="rId22"/>
+    <hyperlink ref="A23" display="lnxFileLineResource.md" r:id="rId23"/>
+    <hyperlink ref="A24" display="lnxFileResource.md" r:id="rId24"/>
+    <hyperlink ref="A25" display="lnxGroupResource.md" r:id="rId25"/>
+    <hyperlink ref="A26" display="lnxPackageResource.md" r:id="rId26"/>
+    <hyperlink ref="A27" display="lnxScriptResource.md" r:id="rId27"/>
+    <hyperlink ref="A28" display="lnxServiceResource.md" r:id="rId28"/>
+    <hyperlink ref="A29" display="lnxSshAuthorizedKeysResource.md" r:id="rId29"/>
+    <hyperlink ref="A30" display="lnxUserResource.md" r:id="rId30"/>
+    <hyperlink ref="A31" display="logResource.md" r:id="rId31"/>
+    <hyperlink ref="A32" display="metaConfig.md" r:id="rId32"/>
+    <hyperlink ref="A33" display="metaConfig4.md" r:id="rId33"/>
+    <hyperlink ref="A34" display="overview.md" r:id="rId34"/>
+    <hyperlink ref="A35" display="packageResource.md" r:id="rId35"/>
+    <hyperlink ref="A36" display="partialConfigs.md" r:id="rId36"/>
+    <hyperlink ref="A37" display="pullClient.md" r:id="rId37"/>
+    <hyperlink ref="A38" display="pullClientConfigID.md" r:id="rId38"/>
+    <hyperlink ref="A39" display="queryServerNodes.md" r:id="rId39"/>
+    <hyperlink ref="A40" display="registryResource.md" r:id="rId40"/>
+    <hyperlink ref="A41" display="reportServer.md" r:id="rId41"/>
+    <hyperlink ref="A42" display="resources.md" r:id="rId42"/>
+    <hyperlink ref="A43" display="scriptResource.md" r:id="rId43"/>
+    <hyperlink ref="A44" display="secureServer.md" r:id="rId44"/>
+    <hyperlink ref="A45" display="serviceResource.md" r:id="rId45"/>
+    <hyperlink ref="A46" display="userResource.md" r:id="rId46"/>
+    <hyperlink ref="A47" display="windowsfeatureResource.md" r:id="rId47"/>
+    <hyperlink ref="A48" display="windowsProcessResource.md" r:id="rId48"/>
+    <hyperlink ref="A49" display="builtInResource.md" r:id="rId49"/>
+    <hyperlink ref="A50" display="debugResource.md" r:id="rId50"/>
+    <hyperlink ref="A51" display="decisionMaker.md" r:id="rId51"/>
+    <hyperlink ref="A52" display="gettingStarted.md" r:id="rId52"/>
+    <hyperlink ref="A53" display="CredentialEncryptionDiagram1.png" r:id="rId53"/>
+    <hyperlink ref="A54" display="lnxGettingStarted.md" r:id="rId54"/>
+    <hyperlink ref="A55" display="pullClientConfigID4.md" r:id="rId55"/>
+    <hyperlink ref="A56" display="pullClientConfigNames.md" r:id="rId56"/>
+    <hyperlink ref="A57" display="pullServer.md" r:id="rId57"/>
+    <hyperlink ref="A58" display="pullServerSMB.md" r:id="rId58"/>
+    <hyperlink ref="A59" display="resourceAuthoringChecklist.md" r:id="rId59"/>
+    <hyperlink ref="A60" display="runAsUser.md" r:id="rId60"/>
+    <hyperlink ref="A61" display="secureMOF.md" r:id="rId61"/>
+    <hyperlink ref="A62" display="TOC.md" r:id="rId62"/>
+    <hyperlink ref="A63" display="troubleshooting.md" r:id="rId63"/>
     <hyperlink ref="A64" display="audit_cms.md" r:id="rId64"/>
     <hyperlink ref="A65" display="audit_overview.md" r:id="rId65"/>
     <hyperlink ref="A66" display="audit_script.md" r:id="rId66"/>
@@ -2911,37 +2893,37 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>160</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>161</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>162</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>163</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>164</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>165</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>166</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>167</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>168</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>169</v>
-      </c>
-      <c r="K1" s="0" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="2">
@@ -2949,31 +2931,28 @@
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="C2" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>172</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>173</v>
+        <v>5</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="H2" s="0" t="s">
         <v>172</v>
       </c>
-      <c r="H2" s="0" t="s">
-        <v>174</v>
-      </c>
       <c r="I2" s="0" t="s">
-        <v>175</v>
-      </c>
-      <c r="J2" s="0" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3">
@@ -2981,31 +2960,28 @@
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>173</v>
+        <v>5</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>175</v>
-      </c>
-      <c r="J3" s="0" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="4">
@@ -3013,92 +2989,86 @@
         <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>175</v>
-      </c>
-      <c r="J4" s="0" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="C5" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>181</v>
-      </c>
       <c r="E5" s="2" t="s">
-        <v>173</v>
+        <v>5</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>175</v>
-      </c>
-      <c r="J5" s="0" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>4</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>184</v>
+        <v>5</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="7">
@@ -3106,28 +3076,28 @@
         <v>11</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>4</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>184</v>
+        <v>5</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="8">
@@ -3135,28 +3105,28 @@
         <v>12</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>184</v>
+        <v>5</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9">
@@ -3164,3636 +3134,4032 @@
         <v>13</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="C9" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>190</v>
-      </c>
       <c r="E9" s="2" t="s">
-        <v>184</v>
+        <v>5</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>182</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>184</v>
+        <v>5</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>183</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>194</v>
+        <v>5</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>184</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C12" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>184</v>
+      <c r="G12" s="1" t="s">
+        <v>185</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>184</v>
+        <v>5</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>186</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>184</v>
+        <v>5</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>187</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>184</v>
+        <v>5</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>188</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>200</v>
+        <v>21</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>190</v>
       </c>
       <c r="H16" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="I16" s="0" t="s">
         <v>191</v>
       </c>
-      <c r="I16" s="0" t="s">
-        <v>186</v>
+      <c r="J16" s="0" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>184</v>
+        <v>21</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>193</v>
       </c>
       <c r="H17" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="I17" s="0" t="s">
         <v>191</v>
       </c>
-      <c r="I17" s="0" t="s">
-        <v>186</v>
+      <c r="J17" s="0" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>184</v>
+        <v>21</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>195</v>
       </c>
       <c r="H18" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="I18" s="0" t="s">
         <v>191</v>
       </c>
-      <c r="I18" s="0" t="s">
-        <v>186</v>
+      <c r="J18" s="0" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>184</v>
+        <v>21</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>197</v>
       </c>
       <c r="H19" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="I19" s="0" t="s">
         <v>191</v>
       </c>
-      <c r="I19" s="0" t="s">
-        <v>186</v>
+      <c r="J19" s="0" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>205</v>
+        <v>5</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>198</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>207</v>
+        <v>5</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>199</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="I21" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>184</v>
+        <v>5</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>200</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="I22" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>184</v>
+        <v>5</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>201</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>184</v>
+        <v>5</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>202</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="I24" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>207</v>
+        <v>5</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>203</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="I25" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>184</v>
+        <v>5</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>204</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="I26" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>173</v>
+        <v>5</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>205</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="I27" s="0" t="s">
-        <v>175</v>
-      </c>
-      <c r="J27" s="0" t="s">
-        <v>214</v>
+        <v>173</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>184</v>
+        <v>177</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>206</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="I28" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>184</v>
+        <v>5</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>207</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="I29" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>184</v>
+        <v>5</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>208</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="I30" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>184</v>
+        <v>5</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>209</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="I31" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>220</v>
+        <v>5</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>210</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="I32" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>184</v>
+        <v>5</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>211</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="I33" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>184</v>
+        <v>5</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>212</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="I34" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>184</v>
+        <v>5</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>213</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="I35" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>194</v>
+        <v>5</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>214</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="I36" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>184</v>
+        <v>5</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>215</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="I37" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>184</v>
+        <v>5</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>216</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="I38" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>184</v>
+        <v>5</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>217</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="I39" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>184</v>
+        <v>5</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>218</v>
       </c>
       <c r="H40" s="0" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="I40" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>184</v>
+        <v>5</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>219</v>
       </c>
       <c r="H41" s="0" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="I41" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>184</v>
+        <v>5</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>220</v>
       </c>
       <c r="H42" s="0" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="I42" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>184</v>
+        <v>5</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>221</v>
       </c>
       <c r="H43" s="0" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="I43" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>184</v>
+        <v>5</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>222</v>
       </c>
       <c r="H44" s="0" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="I44" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>184</v>
+        <v>5</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>223</v>
       </c>
       <c r="H45" s="0" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="I45" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>235</v>
+        <v>5</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>224</v>
       </c>
       <c r="H46" s="0" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="I46" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>200</v>
+        <v>5</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="H47" s="0" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="I47" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>200</v>
+        <v>5</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="H48" s="0" t="s">
-        <v>238</v>
+        <v>175</v>
       </c>
       <c r="I48" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>235</v>
+        <v>228</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>227</v>
       </c>
       <c r="H49" s="0" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="I49" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>184</v>
+        <v>230</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>229</v>
       </c>
       <c r="H50" s="0" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="I50" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>184</v>
+        <v>232</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>231</v>
       </c>
       <c r="H51" s="0" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="I51" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>184</v>
+        <v>232</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>233</v>
       </c>
       <c r="H52" s="0" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="I52" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>235</v>
+        <v>21</v>
       </c>
       <c r="H53" s="0" t="s">
+        <v>235</v>
+      </c>
+      <c r="I53" s="0" t="s">
         <v>191</v>
       </c>
-      <c r="I53" s="0" t="s">
-        <v>186</v>
+      <c r="J53" s="0" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>184</v>
+        <v>238</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>237</v>
       </c>
       <c r="H54" s="0" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="I54" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>205</v>
+        <v>66</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>239</v>
       </c>
       <c r="H55" s="0" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="I55" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>184</v>
+        <v>228</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>240</v>
       </c>
       <c r="H56" s="0" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="I56" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>173</v>
+        <v>228</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>241</v>
       </c>
       <c r="H57" s="0" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="I57" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>184</v>
+        <v>66</v>
       </c>
       <c r="H58" s="0" t="s">
-        <v>191</v>
+        <v>235</v>
       </c>
       <c r="I58" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>184</v>
+        <v>66</v>
       </c>
       <c r="H59" s="0" t="s">
-        <v>191</v>
+        <v>235</v>
       </c>
       <c r="I59" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="H60" s="0" t="s">
-        <v>191</v>
+        <v>235</v>
       </c>
       <c r="I60" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>252</v>
+        <v>21</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H61" s="0" t="s">
-        <v>238</v>
+        <v>172</v>
       </c>
       <c r="I61" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>184</v>
+        <v>228</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>246</v>
       </c>
       <c r="H62" s="0" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="I62" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>184</v>
+        <v>248</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="H63" s="0" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="I63" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="H64" s="0" t="s">
-        <v>191</v>
+        <v>235</v>
       </c>
       <c r="I64" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="H65" s="0" t="s">
-        <v>191</v>
+        <v>235</v>
       </c>
       <c r="I65" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="H66" s="0" t="s">
-        <v>191</v>
+        <v>235</v>
       </c>
       <c r="I66" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="H67" s="0" t="s">
-        <v>191</v>
+        <v>235</v>
       </c>
       <c r="I67" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="H68" s="0" t="s">
-        <v>191</v>
+        <v>235</v>
       </c>
       <c r="I68" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="H69" s="0" t="s">
-        <v>191</v>
+        <v>235</v>
       </c>
       <c r="I69" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="H70" s="0" t="s">
-        <v>191</v>
+        <v>235</v>
       </c>
       <c r="I70" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="H71" s="0" t="s">
-        <v>191</v>
+        <v>235</v>
       </c>
       <c r="I71" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="H72" s="0" t="s">
-        <v>191</v>
+        <v>235</v>
       </c>
       <c r="I72" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="H73" s="0" t="s">
-        <v>191</v>
+        <v>235</v>
       </c>
       <c r="I73" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="H74" s="0" t="s">
-        <v>191</v>
+        <v>235</v>
       </c>
       <c r="I74" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="H75" s="0" t="s">
-        <v>191</v>
+        <v>235</v>
       </c>
       <c r="I75" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="H76" s="0" t="s">
-        <v>191</v>
+        <v>235</v>
       </c>
       <c r="I76" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="H77" s="0" t="s">
-        <v>191</v>
+        <v>235</v>
       </c>
       <c r="I77" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="H78" s="0" t="s">
-        <v>191</v>
+        <v>235</v>
       </c>
       <c r="I78" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="H79" s="0" t="s">
-        <v>191</v>
+        <v>235</v>
       </c>
       <c r="I79" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="H80" s="0" t="s">
-        <v>191</v>
+        <v>235</v>
       </c>
       <c r="I80" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="H81" s="0" t="s">
-        <v>191</v>
+        <v>235</v>
       </c>
       <c r="I81" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="H82" s="0" t="s">
-        <v>191</v>
+        <v>235</v>
       </c>
       <c r="I82" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="H83" s="0" t="s">
-        <v>191</v>
+        <v>235</v>
       </c>
       <c r="I83" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="H84" s="0" t="s">
-        <v>191</v>
+        <v>235</v>
       </c>
       <c r="I84" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="H85" s="0" t="s">
-        <v>191</v>
+        <v>235</v>
       </c>
       <c r="I85" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="H86" s="0" t="s">
-        <v>191</v>
+        <v>235</v>
       </c>
       <c r="I86" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="H87" s="0" t="s">
-        <v>191</v>
+        <v>235</v>
       </c>
       <c r="I87" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="H88" s="0" t="s">
-        <v>191</v>
+        <v>235</v>
       </c>
       <c r="I88" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="H89" s="0" t="s">
-        <v>191</v>
+        <v>235</v>
       </c>
       <c r="I89" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="H90" s="0" t="s">
-        <v>191</v>
+        <v>235</v>
       </c>
       <c r="I90" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="H91" s="0" t="s">
-        <v>191</v>
+        <v>235</v>
       </c>
       <c r="I91" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="H92" s="0" t="s">
-        <v>191</v>
+        <v>235</v>
       </c>
       <c r="I92" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="H93" s="0" t="s">
-        <v>191</v>
+        <v>235</v>
       </c>
       <c r="I93" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="H94" s="0" t="s">
-        <v>191</v>
+        <v>235</v>
       </c>
       <c r="I94" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="H95" s="0" t="s">
-        <v>191</v>
+        <v>235</v>
       </c>
       <c r="I95" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="H96" s="0" t="s">
-        <v>191</v>
+        <v>235</v>
       </c>
       <c r="I96" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="H97" s="0" t="s">
-        <v>191</v>
+        <v>235</v>
       </c>
       <c r="I97" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="H98" s="0" t="s">
-        <v>191</v>
+        <v>235</v>
       </c>
       <c r="I98" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="H99" s="0" t="s">
-        <v>191</v>
+        <v>235</v>
       </c>
       <c r="I99" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="H100" s="0" t="s">
-        <v>191</v>
+        <v>235</v>
       </c>
       <c r="I100" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="H101" s="0" t="s">
-        <v>191</v>
+        <v>235</v>
       </c>
       <c r="I101" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="H102" s="0" t="s">
-        <v>191</v>
+        <v>235</v>
       </c>
       <c r="I102" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>200</v>
+        <v>228</v>
       </c>
       <c r="H103" s="0" t="s">
-        <v>191</v>
+        <v>235</v>
       </c>
       <c r="I103" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="H104" s="0" t="s">
-        <v>191</v>
+        <v>235</v>
       </c>
       <c r="I104" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="H105" s="0" t="s">
-        <v>191</v>
+        <v>235</v>
       </c>
       <c r="I105" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="H106" s="0" t="s">
-        <v>191</v>
+        <v>235</v>
       </c>
       <c r="I106" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="H107" s="0" t="s">
-        <v>191</v>
+        <v>235</v>
       </c>
       <c r="I107" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="H108" s="0" t="s">
-        <v>191</v>
+        <v>235</v>
       </c>
       <c r="I108" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="H109" s="0" t="s">
-        <v>191</v>
+        <v>235</v>
       </c>
       <c r="I109" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="H110" s="0" t="s">
-        <v>191</v>
+        <v>235</v>
       </c>
       <c r="I110" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="H111" s="0" t="s">
-        <v>191</v>
+        <v>235</v>
       </c>
       <c r="I111" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="H112" s="0" t="s">
-        <v>191</v>
+        <v>235</v>
       </c>
       <c r="I112" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="H113" s="0" t="s">
-        <v>191</v>
+        <v>235</v>
       </c>
       <c r="I113" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="H114" s="0" t="s">
-        <v>191</v>
+        <v>235</v>
       </c>
       <c r="I114" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="H115" s="0" t="s">
-        <v>191</v>
+        <v>235</v>
       </c>
       <c r="I115" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="H116" s="0" t="s">
-        <v>191</v>
+        <v>235</v>
       </c>
       <c r="I116" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="H117" s="0" t="s">
-        <v>191</v>
+        <v>235</v>
       </c>
       <c r="I117" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="H118" s="0" t="s">
-        <v>191</v>
+        <v>235</v>
       </c>
       <c r="I118" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>173</v>
+        <v>21</v>
       </c>
       <c r="H119" s="0" t="s">
+        <v>235</v>
+      </c>
+      <c r="I119" s="0" t="s">
         <v>191</v>
       </c>
-      <c r="I119" s="0" t="s">
-        <v>175</v>
-      </c>
       <c r="J119" s="0" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>173</v>
+        <v>21</v>
       </c>
       <c r="H120" s="0" t="s">
+        <v>235</v>
+      </c>
+      <c r="I120" s="0" t="s">
         <v>191</v>
       </c>
-      <c r="I120" s="0" t="s">
-        <v>175</v>
-      </c>
       <c r="J120" s="0" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>173</v>
+        <v>21</v>
       </c>
       <c r="H121" s="0" t="s">
+        <v>235</v>
+      </c>
+      <c r="I121" s="0" t="s">
         <v>191</v>
       </c>
-      <c r="I121" s="0" t="s">
-        <v>175</v>
-      </c>
       <c r="J121" s="0" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="H122" s="0" t="s">
-        <v>191</v>
+        <v>235</v>
       </c>
       <c r="I122" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="H123" s="0" t="s">
-        <v>191</v>
+        <v>235</v>
       </c>
       <c r="I123" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="H124" s="0" t="s">
-        <v>191</v>
+        <v>235</v>
       </c>
       <c r="I124" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C125" s="0" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="H125" s="0" t="s">
-        <v>191</v>
+        <v>235</v>
       </c>
       <c r="I125" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C126" s="0" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="H126" s="0" t="s">
-        <v>191</v>
+        <v>235</v>
       </c>
       <c r="I126" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C127" s="0" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="H127" s="0" t="s">
-        <v>191</v>
+        <v>235</v>
       </c>
       <c r="I127" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C128" s="0" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="H128" s="0" t="s">
-        <v>191</v>
+        <v>235</v>
       </c>
       <c r="I128" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C129" s="0" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="H129" s="0" t="s">
-        <v>191</v>
+        <v>235</v>
       </c>
       <c r="I129" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C130" s="0" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="H130" s="0" t="s">
-        <v>191</v>
+        <v>235</v>
       </c>
       <c r="I130" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C131" s="0" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="H131" s="0" t="s">
-        <v>191</v>
+        <v>235</v>
       </c>
       <c r="I131" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C132" s="0" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="H132" s="0" t="s">
-        <v>191</v>
+        <v>235</v>
       </c>
       <c r="I132" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C133" s="0" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="H133" s="0" t="s">
-        <v>191</v>
+        <v>235</v>
       </c>
       <c r="I133" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C134" s="0" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="H134" s="0" t="s">
-        <v>191</v>
+        <v>235</v>
       </c>
       <c r="I134" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C135" s="0" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="H135" s="0" t="s">
-        <v>191</v>
+        <v>235</v>
       </c>
       <c r="I135" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C136" s="0" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="H136" s="0" t="s">
-        <v>191</v>
+        <v>235</v>
       </c>
       <c r="I136" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C137" s="0" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="H137" s="0" t="s">
-        <v>191</v>
+        <v>235</v>
       </c>
       <c r="I137" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C138" s="0" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="H138" s="0" t="s">
-        <v>191</v>
+        <v>235</v>
       </c>
       <c r="I138" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C139" s="0" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="H139" s="0" t="s">
-        <v>191</v>
+        <v>235</v>
       </c>
       <c r="I139" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C140" s="0" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="H140" s="0" t="s">
-        <v>191</v>
+        <v>235</v>
       </c>
       <c r="I140" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C141" s="0" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="H141" s="0" t="s">
-        <v>191</v>
+        <v>235</v>
       </c>
       <c r="I141" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C142" s="0" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="H142" s="0" t="s">
-        <v>191</v>
+        <v>235</v>
       </c>
       <c r="I142" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C143" s="0" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="H143" s="0" t="s">
-        <v>191</v>
+        <v>235</v>
       </c>
       <c r="I143" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C144" s="0" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="H144" s="0" t="s">
-        <v>191</v>
+        <v>235</v>
       </c>
       <c r="I144" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C145" s="0" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="H145" s="0" t="s">
-        <v>191</v>
+        <v>235</v>
       </c>
       <c r="I145" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="PartialConfig1.jpg" r:id="rId2"/>
-    <hyperlink ref="B2" display=".jpg" r:id="rId3"/>
-    <hyperlink ref="D2" display="3e61149f7b05f74d662d3038233013ffdcbed1a3.jpg" r:id="rId4"/>
-    <hyperlink ref="F2" display="PartialConfig1.jpg" r:id="rId5"/>
-    <hyperlink ref="G2" display="3e61149f7b05f74d662d3038233013ffdcbed1a3.jpg" r:id="rId6"/>
-    <hyperlink ref="A3" display="PartialConfigPullServer.jpg" r:id="rId7"/>
-    <hyperlink ref="B3" display=".jpg" r:id="rId8"/>
-    <hyperlink ref="D3" display="1ba842005c2b1ce80a3670429b3e010c7b1c1f59.jpg" r:id="rId9"/>
-    <hyperlink ref="F3" display="PartialConfigPullServer.jpg" r:id="rId10"/>
-    <hyperlink ref="G3" display="1ba842005c2b1ce80a3670429b3e010c7b1c1f59.jpg" r:id="rId11"/>
-    <hyperlink ref="A4" display="Pull.png" r:id="rId12"/>
-    <hyperlink ref="B4" display=".png" r:id="rId13"/>
-    <hyperlink ref="D4" display="86d829b1fcdd41e648ed0594eaf337b3726c143c.png" r:id="rId14"/>
-    <hyperlink ref="F4" display="Pull.png" r:id="rId15"/>
-    <hyperlink ref="G4" display="86d829b1fcdd41e648ed0594eaf337b3726c143c.png" r:id="rId16"/>
-    <hyperlink ref="A5" display="Push.png" r:id="rId17"/>
-    <hyperlink ref="B5" display=".png" r:id="rId18"/>
-    <hyperlink ref="D5" display="d3008e3fe7da4c118c693d2b34a0b329780f8d86.png" r:id="rId19"/>
-    <hyperlink ref="F5" display="Push.png" r:id="rId20"/>
-    <hyperlink ref="G5" display="d3008e3fe7da4c118c693d2b34a0b329780f8d86.png" r:id="rId21"/>
-    <hyperlink ref="A6" display="lnxBuiltInResources.md" r:id="rId22"/>
+    <hyperlink ref="A2" display="archiveResource.md" r:id="rId2"/>
+    <hyperlink ref="B2" display=".md" r:id="rId3"/>
+    <hyperlink ref="D2" display="archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.es-es.xlf" r:id="rId4"/>
+    <hyperlink ref="F2" display="archiveResource.md" r:id="rId5"/>
+    <hyperlink ref="G2" display="archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.es-es.xlf" r:id="rId6"/>
+    <hyperlink ref="A3" display="authoringResource.md" r:id="rId7"/>
+    <hyperlink ref="B3" display=".md" r:id="rId8"/>
+    <hyperlink ref="D3" display="authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.es-es.xlf" r:id="rId9"/>
+    <hyperlink ref="F3" display="authoringResource.md" r:id="rId10"/>
+    <hyperlink ref="G3" display="authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.es-es.xlf" r:id="rId11"/>
+    <hyperlink ref="A4" display="authoringResourceClass.md" r:id="rId12"/>
+    <hyperlink ref="B4" display=".md" r:id="rId13"/>
+    <hyperlink ref="D4" display="authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.es-es.xlf" r:id="rId14"/>
+    <hyperlink ref="F4" display="authoringResourceClass.md" r:id="rId15"/>
+    <hyperlink ref="G4" display="authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.es-es.xlf" r:id="rId16"/>
+    <hyperlink ref="A5" display="authoringResourceComposite.md" r:id="rId17"/>
+    <hyperlink ref="B5" display=".md" r:id="rId18"/>
+    <hyperlink ref="D5" display="authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.es-es.xlf" r:id="rId19"/>
+    <hyperlink ref="F5" display="authoringResourceComposite.md" r:id="rId20"/>
+    <hyperlink ref="G5" display="authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.es-es.xlf" r:id="rId21"/>
+    <hyperlink ref="A6" display="authoringResourceMOF.md" r:id="rId22"/>
     <hyperlink ref="B6" display=".md" r:id="rId23"/>
-    <hyperlink ref="D6" display="lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.de-de.xlf" r:id="rId24"/>
-    <hyperlink ref="F6" display="lnxBuiltInResources.md" r:id="rId25"/>
-    <hyperlink ref="G6" display="lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.de-de.xlf" r:id="rId26"/>
-    <hyperlink ref="A7" display="metaConfig.md" r:id="rId27"/>
+    <hyperlink ref="D6" display="authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.es-es.xlf" r:id="rId24"/>
+    <hyperlink ref="F6" display="authoringResourceMOF.md" r:id="rId25"/>
+    <hyperlink ref="G6" display="authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.es-es.xlf" r:id="rId26"/>
+    <hyperlink ref="A7" display="authoringResourceMofCS.md" r:id="rId27"/>
     <hyperlink ref="B7" display=".md" r:id="rId28"/>
-    <hyperlink ref="D7" display="metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.de-de.xlf" r:id="rId29"/>
-    <hyperlink ref="F7" display="metaConfig.md" r:id="rId30"/>
-    <hyperlink ref="G7" display="metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.de-de.xlf" r:id="rId31"/>
-    <hyperlink ref="A8" display="windowsfeatureResource.md" r:id="rId32"/>
+    <hyperlink ref="D7" display="authoringResourceMofCS.0647b27b00ec52b2f524a2856e48bc7c29c0f867.es-es.xlf" r:id="rId29"/>
+    <hyperlink ref="F7" display="authoringResourceMofCS.md" r:id="rId30"/>
+    <hyperlink ref="G7" display="authoringResourceMofCS.0647b27b00ec52b2f524a2856e48bc7c29c0f867.es-es.xlf" r:id="rId31"/>
+    <hyperlink ref="A8" display="authoringResourceMofDesigner.md" r:id="rId32"/>
     <hyperlink ref="B8" display=".md" r:id="rId33"/>
-    <hyperlink ref="D8" display="windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.de-de.xlf" r:id="rId34"/>
-    <hyperlink ref="F8" display="windowsfeatureResource.md" r:id="rId35"/>
-    <hyperlink ref="G8" display="windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.de-de.xlf" r:id="rId36"/>
-    <hyperlink ref="A9" display="authoringResource.md" r:id="rId37"/>
+    <hyperlink ref="D8" display="authoringResourceMofDesigner.09b1adffc4afb0d9b1154880e2dab0b25d82d51b.es-es.xlf" r:id="rId34"/>
+    <hyperlink ref="F8" display="authoringResourceMofDesigner.md" r:id="rId35"/>
+    <hyperlink ref="G8" display="authoringResourceMofDesigner.09b1adffc4afb0d9b1154880e2dab0b25d82d51b.es-es.xlf" r:id="rId36"/>
+    <hyperlink ref="A9" display="configData.md" r:id="rId37"/>
     <hyperlink ref="B9" display=".md" r:id="rId38"/>
-    <hyperlink ref="D9" display="authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.de-de.xlf" r:id="rId39"/>
-    <hyperlink ref="A10" display="archiveResource.md" r:id="rId40"/>
-    <hyperlink ref="B10" display=".md" r:id="rId41"/>
-    <hyperlink ref="D10" display="archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.de-de.xlf" r:id="rId42"/>
-    <hyperlink ref="A11" display="authoringResourceClass.md" r:id="rId43"/>
-    <hyperlink ref="B11" display=".md" r:id="rId44"/>
-    <hyperlink ref="D11" display="authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.de-de.xlf" r:id="rId45"/>
-    <hyperlink ref="A12" display="authoringResourceComposite.md" r:id="rId46"/>
-    <hyperlink ref="B12" display=".md" r:id="rId47"/>
-    <hyperlink ref="D12" display="authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.de-de.xlf" r:id="rId48"/>
-    <hyperlink ref="A13" display="authoringResourceMOF.md" r:id="rId49"/>
-    <hyperlink ref="B13" display=".md" r:id="rId50"/>
-    <hyperlink ref="D13" display="authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.de-de.xlf" r:id="rId51"/>
-    <hyperlink ref="A14" display="authoringResourceMofCS.md" r:id="rId52"/>
-    <hyperlink ref="B14" display=".md" r:id="rId53"/>
-    <hyperlink ref="D14" display="authoringResourceMofCS.0647b27b00ec52b2f524a2856e48bc7c29c0f867.de-de.xlf" r:id="rId54"/>
-    <hyperlink ref="A15" display="authoringResourceMofDesigner.md" r:id="rId55"/>
-    <hyperlink ref="B15" display=".md" r:id="rId56"/>
-    <hyperlink ref="D15" display="authoringResourceMofDesigner.09b1adffc4afb0d9b1154880e2dab0b25d82d51b.de-de.xlf" r:id="rId57"/>
-    <hyperlink ref="A16" display="builtInResource.md" r:id="rId58"/>
-    <hyperlink ref="B16" display=".md" r:id="rId59"/>
-    <hyperlink ref="D16" display="builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.de-de.xlf" r:id="rId60"/>
-    <hyperlink ref="A17" display="configData.md" r:id="rId61"/>
-    <hyperlink ref="B17" display=".md" r:id="rId62"/>
-    <hyperlink ref="D17" display="configData.51d01a46dd9af8b425788cc485523b09f8470b95.de-de.xlf" r:id="rId63"/>
-    <hyperlink ref="A18" display="configDataCredentials.md" r:id="rId64"/>
-    <hyperlink ref="B18" display=".md" r:id="rId65"/>
-    <hyperlink ref="D18" display="configDataCredentials.f3e75119e7d93b2f914823c5ea23bfde3935a874.de-de.xlf" r:id="rId66"/>
-    <hyperlink ref="A19" display="configurations.md" r:id="rId67"/>
-    <hyperlink ref="B19" display=".md" r:id="rId68"/>
-    <hyperlink ref="D19" display="configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.de-de.xlf" r:id="rId69"/>
-    <hyperlink ref="A20" display="debugResource.md" r:id="rId70"/>
-    <hyperlink ref="B20" display=".md" r:id="rId71"/>
-    <hyperlink ref="D20" display="debugResource.ac634156affe5c723cc149a298f5aa4268d17016.de-de.xlf" r:id="rId72"/>
-    <hyperlink ref="A21" display="decisionMaker.md" r:id="rId73"/>
-    <hyperlink ref="B21" display=".md" r:id="rId74"/>
-    <hyperlink ref="D21" display="decisionMaker.01553169f2ba4241995260fad925e2784b5f5567.de-de.xlf" r:id="rId75"/>
-    <hyperlink ref="A22" display="enactingConfigurations.md" r:id="rId76"/>
-    <hyperlink ref="B22" display=".md" r:id="rId77"/>
-    <hyperlink ref="D22" display="enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.de-de.xlf" r:id="rId78"/>
-    <hyperlink ref="A23" display="environmentResource.md" r:id="rId79"/>
-    <hyperlink ref="B23" display=".md" r:id="rId80"/>
-    <hyperlink ref="D23" display="environmentResource.eb91ffd4cd8bdb9476e5a83de1a20d3b7b502a56.de-de.xlf" r:id="rId81"/>
-    <hyperlink ref="A24" display="fileResource.md" r:id="rId82"/>
-    <hyperlink ref="B24" display=".md" r:id="rId83"/>
-    <hyperlink ref="D24" display="fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.de-de.xlf" r:id="rId84"/>
-    <hyperlink ref="A25" display="gettingStarted.md" r:id="rId85"/>
-    <hyperlink ref="B25" display=".md" r:id="rId86"/>
-    <hyperlink ref="D25" display="gettingStarted.92e02d8bd273df5c304475a9b4fa251c22a7ea19.de-de.xlf" r:id="rId87"/>
-    <hyperlink ref="A26" display="groupResource.md" r:id="rId88"/>
-    <hyperlink ref="B26" display=".md" r:id="rId89"/>
-    <hyperlink ref="D26" display="groupResource.d19d416269795c92566b62c36b9782062dcea43e.de-de.xlf" r:id="rId90"/>
-    <hyperlink ref="A27" display="CredentialEncryptionDiagram1.png" r:id="rId91"/>
-    <hyperlink ref="B27" display=".png" r:id="rId92"/>
-    <hyperlink ref="D27" display="d9f53a805041164f5070845c0fd216b63d17ae58.png" r:id="rId93"/>
-    <hyperlink ref="A28" display="lnxArchiveResource.md" r:id="rId94"/>
-    <hyperlink ref="B28" display=".md" r:id="rId95"/>
-    <hyperlink ref="D28" display="lnxArchiveResource.095aab7d23720fd394f2573c30223a6bbcc0a4ef.de-de.xlf" r:id="rId96"/>
-    <hyperlink ref="A29" display="lnxEnvironmentResource.md" r:id="rId97"/>
-    <hyperlink ref="B29" display=".md" r:id="rId98"/>
-    <hyperlink ref="D29" display="lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.de-de.xlf" r:id="rId99"/>
-    <hyperlink ref="A30" display="lnxFileLineResource.md" r:id="rId100"/>
-    <hyperlink ref="B30" display=".md" r:id="rId101"/>
-    <hyperlink ref="D30" display="lnxFileLineResource.d91fc802a4c6cdbff5a2e35f92b34c36c6dbf5eb.de-de.xlf" r:id="rId102"/>
-    <hyperlink ref="A31" display="lnxFileResource.md" r:id="rId103"/>
-    <hyperlink ref="B31" display=".md" r:id="rId104"/>
-    <hyperlink ref="D31" display="lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.de-de.xlf" r:id="rId105"/>
-    <hyperlink ref="A32" display="lnxGettingStarted.md" r:id="rId106"/>
-    <hyperlink ref="B32" display=".md" r:id="rId107"/>
-    <hyperlink ref="D32" display="lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.de-de.xlf" r:id="rId108"/>
-    <hyperlink ref="A33" display="lnxGroupResource.md" r:id="rId109"/>
-    <hyperlink ref="B33" display=".md" r:id="rId110"/>
-    <hyperlink ref="D33" display="lnxGroupResource.0cedb684d797032bd47cdb852629c36da0884567.de-de.xlf" r:id="rId111"/>
-    <hyperlink ref="A34" display="lnxPackageResource.md" r:id="rId112"/>
-    <hyperlink ref="B34" display=".md" r:id="rId113"/>
-    <hyperlink ref="D34" display="lnxPackageResource.db35ab938bbfbb38cae53fe9ae98fd22b5f18009.de-de.xlf" r:id="rId114"/>
-    <hyperlink ref="A35" display="lnxScriptResource.md" r:id="rId115"/>
-    <hyperlink ref="B35" display=".md" r:id="rId116"/>
-    <hyperlink ref="D35" display="lnxScriptResource.1344a5d5b807ee53705e93842d9ef5e25a883359.de-de.xlf" r:id="rId117"/>
-    <hyperlink ref="A36" display="lnxServiceResource.md" r:id="rId118"/>
-    <hyperlink ref="B36" display=".md" r:id="rId119"/>
-    <hyperlink ref="D36" display="lnxServiceResource.e637c7f7b18939ec8c16eadf2c42ab00e236fb7b.de-de.xlf" r:id="rId120"/>
-    <hyperlink ref="A37" display="lnxSshAuthorizedKeysResource.md" r:id="rId121"/>
-    <hyperlink ref="B37" display=".md" r:id="rId122"/>
-    <hyperlink ref="D37" display="lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.de-de.xlf" r:id="rId123"/>
-    <hyperlink ref="A38" display="lnxUserResource.md" r:id="rId124"/>
-    <hyperlink ref="B38" display=".md" r:id="rId125"/>
-    <hyperlink ref="D38" display="lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.de-de.xlf" r:id="rId126"/>
-    <hyperlink ref="A39" display="logResource.md" r:id="rId127"/>
-    <hyperlink ref="B39" display=".md" r:id="rId128"/>
-    <hyperlink ref="D39" display="logResource.07af9dfcf6076ef19059178c3b404762677920f0.de-de.xlf" r:id="rId129"/>
-    <hyperlink ref="A40" display="metaConfig4.md" r:id="rId130"/>
-    <hyperlink ref="B40" display=".md" r:id="rId131"/>
-    <hyperlink ref="D40" display="metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.de-de.xlf" r:id="rId132"/>
-    <hyperlink ref="A41" display="overview.md" r:id="rId133"/>
-    <hyperlink ref="B41" display=".md" r:id="rId134"/>
-    <hyperlink ref="D41" display="overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.de-de.xlf" r:id="rId135"/>
-    <hyperlink ref="A42" display="packageResource.md" r:id="rId136"/>
-    <hyperlink ref="B42" display=".md" r:id="rId137"/>
-    <hyperlink ref="D42" display="packageResource.132c4949cee174dc0dc324456d220436cb9884e6.de-de.xlf" r:id="rId138"/>
-    <hyperlink ref="A43" display="partialConfigs.md" r:id="rId139"/>
-    <hyperlink ref="B43" display=".md" r:id="rId140"/>
-    <hyperlink ref="D43" display="partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.de-de.xlf" r:id="rId141"/>
-    <hyperlink ref="A44" display="pullClient.md" r:id="rId142"/>
-    <hyperlink ref="B44" display=".md" r:id="rId143"/>
-    <hyperlink ref="D44" display="pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.de-de.xlf" r:id="rId144"/>
-    <hyperlink ref="A45" display="pullClientConfigID.md" r:id="rId145"/>
-    <hyperlink ref="B45" display=".md" r:id="rId146"/>
-    <hyperlink ref="D45" display="pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.de-de.xlf" r:id="rId147"/>
-    <hyperlink ref="A46" display="pullClientConfigID4.md" r:id="rId148"/>
-    <hyperlink ref="B46" display=".md" r:id="rId149"/>
-    <hyperlink ref="D46" display="pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.de-de.xlf" r:id="rId150"/>
-    <hyperlink ref="A47" display="pullClientConfigNames.md" r:id="rId151"/>
-    <hyperlink ref="B47" display=".md" r:id="rId152"/>
-    <hyperlink ref="D47" display="pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.de-de.xlf" r:id="rId153"/>
-    <hyperlink ref="F47" display="pullClientConfigNames.md" r:id="rId154"/>
-    <hyperlink ref="G47" display="pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.de-de.xlf" r:id="rId155"/>
-    <hyperlink ref="A48" display="pullServer.md" r:id="rId156"/>
-    <hyperlink ref="B48" display=".md" r:id="rId157"/>
-    <hyperlink ref="D48" display="pullServer.4b925b277da29998394af746bdbdd508fda48909.de-de.xlf" r:id="rId158"/>
-    <hyperlink ref="F48" display="pullServer.md" r:id="rId159"/>
-    <hyperlink ref="G48" display="pullServer.4b925b277da29998394af746bdbdd508fda48909.de-de.xlf" r:id="rId160"/>
-    <hyperlink ref="A49" display="pullServerSMB.md" r:id="rId161"/>
-    <hyperlink ref="B49" display=".md" r:id="rId162"/>
-    <hyperlink ref="D49" display="pullServerSMB.772aec5ae27ccb19ced78e3eb665a4e16db1c4df.de-de.xlf" r:id="rId163"/>
-    <hyperlink ref="A50" display="queryServerNodes.md" r:id="rId164"/>
-    <hyperlink ref="B50" display=".md" r:id="rId165"/>
-    <hyperlink ref="D50" display="queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.de-de.xlf" r:id="rId166"/>
-    <hyperlink ref="A51" display="registryResource.md" r:id="rId167"/>
-    <hyperlink ref="B51" display=".md" r:id="rId168"/>
-    <hyperlink ref="D51" display="registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.de-de.xlf" r:id="rId169"/>
-    <hyperlink ref="A52" display="reportServer.md" r:id="rId170"/>
-    <hyperlink ref="B52" display=".md" r:id="rId171"/>
-    <hyperlink ref="D52" display="reportServer.53df4bc8b7b80c0a19c11434bdf5f4304e8248f7.de-de.xlf" r:id="rId172"/>
-    <hyperlink ref="A53" display="resourceAuthoringChecklist.md" r:id="rId173"/>
-    <hyperlink ref="B53" display=".md" r:id="rId174"/>
-    <hyperlink ref="D53" display="resourceAuthoringChecklist.3b9ae254d826cc45519d37d06044f28a69bdfa69.de-de.xlf" r:id="rId175"/>
-    <hyperlink ref="A54" display="resources.md" r:id="rId176"/>
-    <hyperlink ref="B54" display=".md" r:id="rId177"/>
-    <hyperlink ref="D54" display="resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.de-de.xlf" r:id="rId178"/>
-    <hyperlink ref="A55" display="runAsUser.md" r:id="rId179"/>
-    <hyperlink ref="B55" display=".md" r:id="rId180"/>
-    <hyperlink ref="D55" display="runAsUser.d2b90b6bc42ef965e454f9c9f5fd19bc7b488b34.de-de.xlf" r:id="rId181"/>
-    <hyperlink ref="A56" display="scriptResource.md" r:id="rId182"/>
-    <hyperlink ref="B56" display=".md" r:id="rId183"/>
-    <hyperlink ref="D56" display="scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.de-de.xlf" r:id="rId184"/>
-    <hyperlink ref="A57" display="secureMOF.md" r:id="rId185"/>
-    <hyperlink ref="B57" display=".md" r:id="rId186"/>
-    <hyperlink ref="D57" display="secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.de-de.xlf" r:id="rId187"/>
-    <hyperlink ref="A58" display="secureServer.md" r:id="rId188"/>
-    <hyperlink ref="B58" display=".md" r:id="rId189"/>
-    <hyperlink ref="D58" display="secureServer.ce207607010d18109152742ba23c923cd3cddba2.de-de.xlf" r:id="rId190"/>
-    <hyperlink ref="A59" display="serviceResource.md" r:id="rId191"/>
-    <hyperlink ref="B59" display=".md" r:id="rId192"/>
-    <hyperlink ref="D59" display="serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.de-de.xlf" r:id="rId193"/>
-    <hyperlink ref="A60" display="TOC.md" r:id="rId194"/>
-    <hyperlink ref="B60" display=".md" r:id="rId195"/>
-    <hyperlink ref="D60" display="TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.de-de.xlf" r:id="rId196"/>
-    <hyperlink ref="A61" display="troubleshooting.md" r:id="rId197"/>
-    <hyperlink ref="B61" display=".md" r:id="rId198"/>
-    <hyperlink ref="D61" display="troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.de-de.xlf" r:id="rId199"/>
-    <hyperlink ref="F61" display="troubleshooting.md" r:id="rId200"/>
-    <hyperlink ref="G61" display="troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.de-de.xlf" r:id="rId201"/>
-    <hyperlink ref="A62" display="userResource.md" r:id="rId202"/>
-    <hyperlink ref="B62" display=".md" r:id="rId203"/>
-    <hyperlink ref="D62" display="userResource.5de4fbe03e9e06934442ba451eb0564931863f45.de-de.xlf" r:id="rId204"/>
-    <hyperlink ref="A63" display="windowsProcessResource.md" r:id="rId205"/>
-    <hyperlink ref="B63" display=".md" r:id="rId206"/>
-    <hyperlink ref="D63" display="windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.de-de.xlf" r:id="rId207"/>
-    <hyperlink ref="A64" display="audit_cms.md" r:id="rId208"/>
-    <hyperlink ref="B64" display=".md" r:id="rId209"/>
-    <hyperlink ref="D64" display="audit_cms.3e422ca243ac938b46bfcf1497a703e55bde970e.de-de.xlf" r:id="rId210"/>
-    <hyperlink ref="A65" display="audit_overview.md" r:id="rId211"/>
-    <hyperlink ref="B65" display=".md" r:id="rId212"/>
-    <hyperlink ref="D65" display="audit_overview.fc5b51e2734a2af986c9edf42b4395b1aad2435d.de-de.xlf" r:id="rId213"/>
-    <hyperlink ref="A66" display="audit_script.md" r:id="rId214"/>
-    <hyperlink ref="B66" display=".md" r:id="rId215"/>
-    <hyperlink ref="D66" display="audit_script.e89f3a9316d1125e1efd23b41b756a3a6161016b.de-de.xlf" r:id="rId216"/>
-    <hyperlink ref="A67" display="audit_transcript.md" r:id="rId217"/>
-    <hyperlink ref="B67" display=".md" r:id="rId218"/>
-    <hyperlink ref="D67" display="audit_transcript.c21a6554932939cbf4c744bf7c9f07cc4e1e7160.de-de.xlf" r:id="rId219"/>
-    <hyperlink ref="A68" display="class_base.md" r:id="rId220"/>
-    <hyperlink ref="B68" display=".md" r:id="rId221"/>
-    <hyperlink ref="D68" display="class_base.29a9fbe4987503d5575c151f4271f58398cb7e55.de-de.xlf" r:id="rId222"/>
-    <hyperlink ref="A69" display="class_baseconstructor.md" r:id="rId223"/>
-    <hyperlink ref="B69" display=".md" r:id="rId224"/>
-    <hyperlink ref="D69" display="class_baseconstructor.82f951e800b06ccc68090b1be9923c8210a233ac.de-de.xlf" r:id="rId225"/>
-    <hyperlink ref="A70" display="class_basemethod.md" r:id="rId226"/>
-    <hyperlink ref="B70" display=".md" r:id="rId227"/>
-    <hyperlink ref="D70" display="class_basemethod.6b60292188d0081f30fbaf4b111db8a439348f5b.de-de.xlf" r:id="rId228"/>
-    <hyperlink ref="A71" display="class_interface.md" r:id="rId229"/>
-    <hyperlink ref="B71" display=".md" r:id="rId230"/>
-    <hyperlink ref="D71" display="class_interface.84a08fd30808364a820bdd4440de18ec4504a6c7.de-de.xlf" r:id="rId231"/>
-    <hyperlink ref="A72" display="class_newtype.md" r:id="rId232"/>
-    <hyperlink ref="B72" display=".md" r:id="rId233"/>
-    <hyperlink ref="D72" display="class_newtype.a9f52b670970046f8b1147d4ba646b73abb430dc.de-de.xlf" r:id="rId234"/>
-    <hyperlink ref="A73" display="class_overview.md" r:id="rId235"/>
-    <hyperlink ref="B73" display=".md" r:id="rId236"/>
-    <hyperlink ref="D73" display="class_overview.91227b885afcb8df385ab601ab970b924eca2533.de-de.xlf" r:id="rId237"/>
-    <hyperlink ref="A74" display="debug_overview.md" r:id="rId238"/>
-    <hyperlink ref="B74" display=".md" r:id="rId239"/>
-    <hyperlink ref="D74" display="debug_overview.70b71c20b8b625704c25da28a58e804a048bafb0.de-de.xlf" r:id="rId240"/>
-    <hyperlink ref="A75" display="dsc_authoring.md" r:id="rId241"/>
-    <hyperlink ref="B75" display=".md" r:id="rId242"/>
-    <hyperlink ref="D75" display="dsc_authoring.364878cde8f156d8999773842812e0c08f70191c.de-de.xlf" r:id="rId243"/>
-    <hyperlink ref="A76" display="dsc_classbasedresource.md" r:id="rId244"/>
-    <hyperlink ref="B76" display=".md" r:id="rId245"/>
-    <hyperlink ref="D76" display="dsc_classbasedresource.a3d6b22652db939b51db1218584247396454ae0f.de-de.xlf" r:id="rId246"/>
-    <hyperlink ref="A77" display="dsc_confighelp.md" r:id="rId247"/>
-    <hyperlink ref="B77" display=".md" r:id="rId248"/>
-    <hyperlink ref="D77" display="dsc_confighelp.bcfa7e85acae98499089edc9fba25b68953d7bbf.de-de.xlf" r:id="rId249"/>
-    <hyperlink ref="A78" display="dsc_directaccess.md" r:id="rId250"/>
-    <hyperlink ref="B78" display=".md" r:id="rId251"/>
-    <hyperlink ref="D78" display="dsc_directaccess.014c91015162b26b678e0a5fdfd453a3bf6e41b0.de-de.xlf" r:id="rId252"/>
-    <hyperlink ref="A79" display="dsc_encryptedmof.md" r:id="rId253"/>
-    <hyperlink ref="B79" display=".md" r:id="rId254"/>
-    <hyperlink ref="D79" display="dsc_encryptedmof.a35c44de669ea81f25dd29f152f03493e52e327b.de-de.xlf" r:id="rId255"/>
-    <hyperlink ref="A80" display="dsc_freqnomultiple.md" r:id="rId256"/>
-    <hyperlink ref="B80" display=".md" r:id="rId257"/>
-    <hyperlink ref="D80" display="dsc_freqnomultiple.2848e52c73280aca59e73136bac0c2c7ae02aad6.de-de.xlf" r:id="rId258"/>
-    <hyperlink ref="A81" display="dsc_getconfigurationstatus.md" r:id="rId259"/>
-    <hyperlink ref="B81" display=".md" r:id="rId260"/>
-    <hyperlink ref="D81" display="dsc_getconfigurationstatus.1705e4bcaa9dfd9d69f00aecdc7ef0d04bf44899.de-de.xlf" r:id="rId261"/>
-    <hyperlink ref="A82" display="dsc_identicalduplicate.md" r:id="rId262"/>
-    <hyperlink ref="B82" display=".md" r:id="rId263"/>
-    <hyperlink ref="D82" display="dsc_identicalduplicate.eb7167ccd4a72d68aa1683327e9b3877927158ab.de-de.xlf" r:id="rId264"/>
-    <hyperlink ref="A83" display="dsc_importdscresource.md" r:id="rId265"/>
-    <hyperlink ref="B83" display=".md" r:id="rId266"/>
-    <hyperlink ref="D83" display="dsc_importdscresource.a0169ad862dfcaa5c958c07ecd52c856d5dc8436.de-de.xlf" r:id="rId267"/>
-    <hyperlink ref="A84" display="dsc_improvements.md" r:id="rId268"/>
-    <hyperlink ref="B84" display=".md" r:id="rId269"/>
-    <hyperlink ref="D84" display="dsc_improvements.d9ed6ffedf9d9650bb6b26b5ed611e420a0aacbb.de-de.xlf" r:id="rId270"/>
-    <hyperlink ref="A85" display="dsc_lcmstate.md" r:id="rId271"/>
-    <hyperlink ref="B85" display=".md" r:id="rId272"/>
-    <hyperlink ref="D85" display="dsc_lcmstate.21ea1c36f37c94e8e0363199fbd07bcced3aea40.de-de.xlf" r:id="rId273"/>
-    <hyperlink ref="A86" display="dsc_metaconfiguration.md" r:id="rId274"/>
-    <hyperlink ref="B86" display=".md" r:id="rId275"/>
-    <hyperlink ref="D86" display="dsc_metaconfiguration.e8bbca05aa1692ad54cadd83b93a1902f179f365.de-de.xlf" r:id="rId276"/>
-    <hyperlink ref="A87" display="dsc_newresources.md" r:id="rId277"/>
-    <hyperlink ref="B87" display=".md" r:id="rId278"/>
-    <hyperlink ref="D87" display="dsc_newresources.b9c40f591f875ea205c834f7675f3edbe1050592.de-de.xlf" r:id="rId279"/>
-    <hyperlink ref="A88" display="dsc_nodeid.md" r:id="rId280"/>
-    <hyperlink ref="B88" display=".md" r:id="rId281"/>
-    <hyperlink ref="D88" display="dsc_nodeid.e3c9049aa6c1d151f8b286f28502537b2f8d22a4.de-de.xlf" r:id="rId282"/>
-    <hyperlink ref="A89" display="dsc_partialconfig.md" r:id="rId283"/>
-    <hyperlink ref="B89" display=".md" r:id="rId284"/>
-    <hyperlink ref="D89" display="dsc_partialconfig.a493787c3f8663ac3e2994162ffd1bee429544d3.de-de.xlf" r:id="rId285"/>
-    <hyperlink ref="A90" display="dsc_partialconfig_mixedmode.md" r:id="rId286"/>
-    <hyperlink ref="B90" display=".md" r:id="rId287"/>
-    <hyperlink ref="D90" display="dsc_partialconfig_mixedmode.ff4b9a8a421441da62574192650493bf2407028d.de-de.xlf" r:id="rId288"/>
-    <hyperlink ref="A91" display="dsc_publishconfig.md" r:id="rId289"/>
-    <hyperlink ref="B91" display=".md" r:id="rId290"/>
-    <hyperlink ref="D91" display="dsc_publishconfig.bfe86d4253abdd777c205caec637c50ec79103ee.de-de.xlf" r:id="rId291"/>
-    <hyperlink ref="A92" display="dsc_refreshmode.md" r:id="rId292"/>
-    <hyperlink ref="B92" display=".md" r:id="rId293"/>
-    <hyperlink ref="D92" display="dsc_refreshmode.b0529a06a4d3e07b3fce300f74760d63b27523f6.de-de.xlf" r:id="rId294"/>
-    <hyperlink ref="A93" display="dsc_removeconfigdoc.md" r:id="rId295"/>
-    <hyperlink ref="B93" display=".md" r:id="rId296"/>
-    <hyperlink ref="D93" display="dsc_removeconfigdoc.d16cdab7eaedf468bcc38dae34e93be26a204318.de-de.xlf" r:id="rId297"/>
-    <hyperlink ref="A94" display="dsc_reporting.md" r:id="rId298"/>
-    <hyperlink ref="B94" display=".md" r:id="rId299"/>
-    <hyperlink ref="D94" display="dsc_reporting.b042cd21b9bcfc8e50bc361ddee59333602fad42.de-de.xlf" r:id="rId300"/>
-    <hyperlink ref="A95" display="dsc_repository.md" r:id="rId301"/>
-    <hyperlink ref="B95" display=".md" r:id="rId302"/>
-    <hyperlink ref="D95" display="dsc_repository.ec5040a823a6b64e969393e00f3d859fd0b4551c.de-de.xlf" r:id="rId303"/>
-    <hyperlink ref="A96" display="dsc_resourcedebugging.md" r:id="rId304"/>
-    <hyperlink ref="B96" display=".md" r:id="rId305"/>
-    <hyperlink ref="D96" display="dsc_resourcedebugging.95c69e55eb065b349f52e18126d699b1906ba03f.de-de.xlf" r:id="rId306"/>
-    <hyperlink ref="A97" display="dsc_runas.md" r:id="rId307"/>
-    <hyperlink ref="B97" display=".md" r:id="rId308"/>
-    <hyperlink ref="D97" display="dsc_runas.9e19a42a6d5e1ea1772358a6fd8ff24b98a5b6ba.de-de.xlf" r:id="rId309"/>
-    <hyperlink ref="A98" display="dsc_setdsclcm.md" r:id="rId310"/>
-    <hyperlink ref="B98" display=".md" r:id="rId311"/>
-    <hyperlink ref="D98" display="dsc_setdsclcm.1f0e3cab81cf5fc1feda678f202451fe150632e3.de-de.xlf" r:id="rId312"/>
-    <hyperlink ref="A99" display="dsc_statestatus.md" r:id="rId313"/>
-    <hyperlink ref="B99" display=".md" r:id="rId314"/>
-    <hyperlink ref="D99" display="dsc_statestatus.b6f3670f776a8f63a705ba16bed2f20be34fc48f.de-de.xlf" r:id="rId315"/>
-    <hyperlink ref="A100" display="dsc_sxsresource.md" r:id="rId316"/>
-    <hyperlink ref="B100" display=".md" r:id="rId317"/>
-    <hyperlink ref="D100" display="dsc_sxsresource.c9d4ce6109370ac1cbc1fb07f191e02f9a61d5d3.de-de.xlf" r:id="rId318"/>
-    <hyperlink ref="A101" display="dsc_testconfiguration.md" r:id="rId319"/>
-    <hyperlink ref="B101" display=".md" r:id="rId320"/>
-    <hyperlink ref="D101" display="dsc_testconfiguration.b0e5afe2c8f173ebe49c97c9ea9a2f11d81ea5fa.de-de.xlf" r:id="rId321"/>
-    <hyperlink ref="A102" display="dsc_updateconfig.md" r:id="rId322"/>
-    <hyperlink ref="B102" display=".md" r:id="rId323"/>
-    <hyperlink ref="D102" display="dsc_updateconfig.a07eb85e3458d42d7ab1ed5c57dcfc70df709d07.de-de.xlf" r:id="rId324"/>
-    <hyperlink ref="A103" display="dsc_waitfor.md" r:id="rId325"/>
-    <hyperlink ref="B103" display=".md" r:id="rId326"/>
-    <hyperlink ref="D103" display="dsc_waitfor.2b09933f08f1020166ce0f0cd7548a5a3845c48f.de-de.xlf" r:id="rId327"/>
-    <hyperlink ref="A104" display="dsc_wow64.md" r:id="rId328"/>
-    <hyperlink ref="B104" display=".md" r:id="rId329"/>
-    <hyperlink ref="D104" display="dsc_wow64.ea039aaa1bd77415311fc30d80fed43cda07a6e3.de-de.xlf" r:id="rId330"/>
-    <hyperlink ref="A105" display="feedback.md" r:id="rId331"/>
-    <hyperlink ref="B105" display=".md" r:id="rId332"/>
-    <hyperlink ref="D105" display="feedback.3662230166299ef7c1fb7a7a7f5cdbd64b1d812a.de-de.xlf" r:id="rId333"/>
-    <hyperlink ref="A106" display="feedback_archive.md" r:id="rId334"/>
-    <hyperlink ref="B106" display=".md" r:id="rId335"/>
-    <hyperlink ref="D106" display="feedback_archive.20de26911a704368058401c7e2bd6ebaac692ff5.de-de.xlf" r:id="rId336"/>
-    <hyperlink ref="A107" display="feedback_clipboard.md" r:id="rId337"/>
-    <hyperlink ref="B107" display=".md" r:id="rId338"/>
-    <hyperlink ref="D107" display="feedback_clipboard.872e5c147ef02cb86067651f41e3c00b55386664.de-de.xlf" r:id="rId339"/>
-    <hyperlink ref="A108" display="feedback_cmdlets.md" r:id="rId340"/>
-    <hyperlink ref="B108" display=".md" r:id="rId341"/>
-    <hyperlink ref="D108" display="feedback_cmdlets.a4c0dfb806ca0da232eeb75ad3706177b8a5ec48.de-de.xlf" r:id="rId342"/>
-    <hyperlink ref="A109" display="feedback_convertfromString.md" r:id="rId343"/>
-    <hyperlink ref="B109" display=".md" r:id="rId344"/>
-    <hyperlink ref="D109" display="feedback_convertfromString.acdeaa33e8fa59b93649b6abf3a7d5ef64fb7664.de-de.xlf" r:id="rId345"/>
-    <hyperlink ref="A110" display="feedback_convertstring.md" r:id="rId346"/>
-    <hyperlink ref="B110" display=".md" r:id="rId347"/>
-    <hyperlink ref="D110" display="feedback_convertstring.42e964e30093962871c3a4d586ed6c54f25f840d.de-de.xlf" r:id="rId348"/>
-    <hyperlink ref="A111" display="feedback_fileinfo.md" r:id="rId349"/>
-    <hyperlink ref="B111" display=".md" r:id="rId350"/>
-    <hyperlink ref="D111" display="feedback_fileinfo.0192edad2d6504d26a9632f95fc9e5b66ffd8003.de-de.xlf" r:id="rId351"/>
-    <hyperlink ref="A112" display="feedback_formathex.md" r:id="rId352"/>
-    <hyperlink ref="B112" display=".md" r:id="rId353"/>
-    <hyperlink ref="D112" display="feedback_formathex.f97931c887efb620e5f4314facc1f0e20e3dffbe.de-de.xlf" r:id="rId354"/>
-    <hyperlink ref="A113" display="feedback_getchilditem.md" r:id="rId355"/>
-    <hyperlink ref="B113" display=".md" r:id="rId356"/>
-    <hyperlink ref="D113" display="feedback_getchilditem.ce02ca20cc4417a80fe65eb509a8e92f2cecc79c.de-de.xlf" r:id="rId357"/>
-    <hyperlink ref="A114" display="feedback_moduleversionranges.md" r:id="rId358"/>
-    <hyperlink ref="B114" display=".md" r:id="rId359"/>
-    <hyperlink ref="D114" display="feedback_moduleversionranges.611b3a3219d64dbfa1d01541b60a727b880a0c4b.de-de.xlf" r:id="rId360"/>
-    <hyperlink ref="A115" display="feedback_newguid.md" r:id="rId361"/>
-    <hyperlink ref="B115" display=".md" r:id="rId362"/>
-    <hyperlink ref="D115" display="feedback_newguid.f8756fbdb96e6fe06a7e0cbb6ac4af32b1c64983.de-de.xlf" r:id="rId363"/>
-    <hyperlink ref="A116" display="feedback_nonewline.md" r:id="rId364"/>
-    <hyperlink ref="B116" display=".md" r:id="rId365"/>
-    <hyperlink ref="D116" display="feedback_nonewline.7a9b7e24c50399879089bba2b8eee7dc325572e2.de-de.xlf" r:id="rId366"/>
-    <hyperlink ref="A117" display="feedback_symbolic.md" r:id="rId367"/>
-    <hyperlink ref="B117" display=".md" r:id="rId368"/>
-    <hyperlink ref="D117" display="feedback_symbolic.1c3ac8128fb9df60512ec024044d48be7d0cb59f.de-de.xlf" r:id="rId369"/>
-    <hyperlink ref="A118" display="feedback_tempfile.md" r:id="rId370"/>
-    <hyperlink ref="B118" display=".md" r:id="rId371"/>
-    <hyperlink ref="D118" display="feedback_tempfile.fc029065af6bbba3a8c4abbf36023bede7d1416d.de-de.xlf" r:id="rId372"/>
-    <hyperlink ref="A119" display="DscResourceDebugging.jpg" r:id="rId373"/>
-    <hyperlink ref="B119" display=".jpg" r:id="rId374"/>
-    <hyperlink ref="D119" display="ba1897f38317f5fe38f2d8caf0efcc57bc8bb19d.jpg" r:id="rId375"/>
-    <hyperlink ref="A120" display="Import-DscResource-Modversion.jpg" r:id="rId376"/>
-    <hyperlink ref="B120" display=".jpg" r:id="rId377"/>
-    <hyperlink ref="D120" display="e6ed57c70f1b1380eb67c6998a1c9c67f3f246fc.jpg" r:id="rId378"/>
-    <hyperlink ref="A121" display="MOF_Encryption.jpg" r:id="rId379"/>
-    <hyperlink ref="B121" display=".jpg" r:id="rId380"/>
-    <hyperlink ref="D121" display="9a44a53029d37d4165bbffbdcaa79d9be76e5fac.jpg" r:id="rId381"/>
-    <hyperlink ref="A122" display="informationstream_overview.md" r:id="rId382"/>
-    <hyperlink ref="B122" display=".md" r:id="rId383"/>
-    <hyperlink ref="D122" display="informationstream_overview.d2f238b2b4021ccdb7271cf89f53d58970d56cf5.de-de.xlf" r:id="rId384"/>
-    <hyperlink ref="A123" display="install.md" r:id="rId385"/>
-    <hyperlink ref="B123" display=".md" r:id="rId386"/>
-    <hyperlink ref="D123" display="install.317fc924c0f766547c4725878af59c3c9d8facba.de-de.xlf" r:id="rId387"/>
-    <hyperlink ref="A124" display="jea_endpoint.md" r:id="rId388"/>
-    <hyperlink ref="B124" display=".md" r:id="rId389"/>
-    <hyperlink ref="D124" display="jea_endpoint.1dc052fe583a907a6c090cf8bfd42293d94d2975.de-de.xlf" r:id="rId390"/>
-    <hyperlink ref="A125" display="jea_overview.md" r:id="rId391"/>
-    <hyperlink ref="B125" display=".md" r:id="rId392"/>
-    <hyperlink ref="D125" display="jea_overview.3fa3008e719be8235adffe51808ac66714940871.de-de.xlf" r:id="rId393"/>
-    <hyperlink ref="A126" display="jea_report.md" r:id="rId394"/>
-    <hyperlink ref="B126" display=".md" r:id="rId395"/>
-    <hyperlink ref="D126" display="jea_report.7860cec6e93b7405844ccbbe5bc879921447ac0b.de-de.xlf" r:id="rId396"/>
-    <hyperlink ref="A127" display="limitation_dsc.md" r:id="rId397"/>
-    <hyperlink ref="B127" display=".md" r:id="rId398"/>
-    <hyperlink ref="D127" display="limitation_dsc.3684c81bb088cba98089dffdb1a1e56e1c098335.de-de.xlf" r:id="rId399"/>
-    <hyperlink ref="A128" display="limitation_overview.md" r:id="rId400"/>
-    <hyperlink ref="B128" display=".md" r:id="rId401"/>
-    <hyperlink ref="D128" display="limitation_overview.6cc9c8c028f5912636637d836aed7db0614de522.de-de.xlf" r:id="rId402"/>
-    <hyperlink ref="A129" display="networkswitch_overview.md" r:id="rId403"/>
-    <hyperlink ref="B129" display=".md" r:id="rId404"/>
-    <hyperlink ref="D129" display="networkswitch_overview.7a87eb0741cd43b8b9284ea6cb605920c4961b79.de-de.xlf" r:id="rId405"/>
-    <hyperlink ref="A130" display="odata_overview.md" r:id="rId406"/>
-    <hyperlink ref="B130" display=".md" r:id="rId407"/>
-    <hyperlink ref="D130" display="odata_overview.c3f7efdde29fe7ac5685a61cd61d75b65524a4c3.de-de.xlf" r:id="rId408"/>
-    <hyperlink ref="A131" display="oneget_cmdlets.md" r:id="rId409"/>
-    <hyperlink ref="B131" display=".md" r:id="rId410"/>
-    <hyperlink ref="D131" display="oneget_cmdlets.469b2350a72495ac2cf62e4130b4df8036f5d135.de-de.xlf" r:id="rId411"/>
-    <hyperlink ref="A132" display="oneget_overview.md" r:id="rId412"/>
-    <hyperlink ref="B132" display=".md" r:id="rId413"/>
-    <hyperlink ref="D132" display="oneget_overview.e71a25f36f957ab7471d259c6e716651f6f23c94.de-de.xlf" r:id="rId414"/>
-    <hyperlink ref="A133" display="productincompat.md" r:id="rId415"/>
-    <hyperlink ref="B133" display=".md" r:id="rId416"/>
-    <hyperlink ref="D133" display="productincompat.62bb00299c0283b5297001553476a745e28a49cb.de-de.xlf" r:id="rId417"/>
-    <hyperlink ref="A134" display="psget_module_overview.md" r:id="rId418"/>
-    <hyperlink ref="B134" display=".md" r:id="rId419"/>
-    <hyperlink ref="D134" display="psget_module_overview.4149c468ffd0f17a2fabd03f90059c12effc3170.de-de.xlf" r:id="rId420"/>
-    <hyperlink ref="A135" display="psget_modulecmdlets.md" r:id="rId421"/>
-    <hyperlink ref="B135" display=".md" r:id="rId422"/>
-    <hyperlink ref="D135" display="psget_modulecmdlets.1f808cfdf9a9aa920f88e15f7f5fa4701fe805e3.de-de.xlf" r:id="rId423"/>
-    <hyperlink ref="A136" display="psget_moduledependency.md" r:id="rId424"/>
-    <hyperlink ref="B136" display=".md" r:id="rId425"/>
-    <hyperlink ref="D136" display="psget_moduledependency.89ba9310335ae64db5481a3c02034ac4fe01b6a2.de-de.xlf" r:id="rId426"/>
-    <hyperlink ref="A137" display="psget_modulesxsinstall.md" r:id="rId427"/>
-    <hyperlink ref="B137" display=".md" r:id="rId428"/>
-    <hyperlink ref="D137" display="psget_modulesxsinstall.110ba80d8f917899ef488b46bd15f5654f6ba06c.de-de.xlf" r:id="rId429"/>
-    <hyperlink ref="A138" display="psget_psrepository.md" r:id="rId430"/>
-    <hyperlink ref="B138" display=".md" r:id="rId431"/>
-    <hyperlink ref="D138" display="psget_psrepository.c4381b2ff7bb6496ab74ed8bb2b07325cfbfc056.de-de.xlf" r:id="rId432"/>
-    <hyperlink ref="A139" display="psget_script_overview.md" r:id="rId433"/>
-    <hyperlink ref="B139" display=".md" r:id="rId434"/>
-    <hyperlink ref="D139" display="psget_script_overview.f035cc99497d17dc73e3a61f214e40a5860fc70a.de-de.xlf" r:id="rId435"/>
-    <hyperlink ref="A140" display="psget_scriptcmdlets.md" r:id="rId436"/>
-    <hyperlink ref="B140" display=".md" r:id="rId437"/>
-    <hyperlink ref="D140" display="psget_scriptcmdlets.1762d5f29292d59c1afb37cb29eb11a34cf63990.de-de.xlf" r:id="rId438"/>
-    <hyperlink ref="A141" display="releasenotes.md" r:id="rId439"/>
-    <hyperlink ref="B141" display=".md" r:id="rId440"/>
-    <hyperlink ref="D141" display="releasenotes.311750b4da54b1d4ef7997b328edd6ff177fb71f.de-de.xlf" r:id="rId441"/>
-    <hyperlink ref="A142" display="requirements.md" r:id="rId442"/>
-    <hyperlink ref="B142" display=".md" r:id="rId443"/>
-    <hyperlink ref="D142" display="requirements.ef8332f358d65b1759bfd4c7336b11d1dc8c2d46.de-de.xlf" r:id="rId444"/>
-    <hyperlink ref="A143" display="sil_overview.md" r:id="rId445"/>
-    <hyperlink ref="B143" display=".md" r:id="rId446"/>
-    <hyperlink ref="D143" display="sil_overview.a2b1f7c716aad317993a5eaffba21fa28ce0c0d8.de-de.xlf" r:id="rId447"/>
-    <hyperlink ref="A144" display="TOC.md" r:id="rId448"/>
-    <hyperlink ref="B144" display=".md" r:id="rId449"/>
-    <hyperlink ref="D144" display="TOC.60497266061c38453b3db893ec675eb65584af89.de-de.xlf" r:id="rId450"/>
-    <hyperlink ref="A145" display="uninstall.md" r:id="rId451"/>
-    <hyperlink ref="B145" display=".md" r:id="rId452"/>
-    <hyperlink ref="D145" display="uninstall.b07adaaaf7f41869dfa201b88e29342aced76c96.de-de.xlf" r:id="rId453"/>
+    <hyperlink ref="D9" display="configData.51d01a46dd9af8b425788cc485523b09f8470b95.es-es.xlf" r:id="rId39"/>
+    <hyperlink ref="F9" display="configData.md" r:id="rId40"/>
+    <hyperlink ref="G9" display="configData.51d01a46dd9af8b425788cc485523b09f8470b95.es-es.xlf" r:id="rId41"/>
+    <hyperlink ref="A10" display="configDataCredentials.md" r:id="rId42"/>
+    <hyperlink ref="B10" display=".md" r:id="rId43"/>
+    <hyperlink ref="D10" display="configDataCredentials.f3e75119e7d93b2f914823c5ea23bfde3935a874.es-es.xlf" r:id="rId44"/>
+    <hyperlink ref="F10" display="configDataCredentials.md" r:id="rId45"/>
+    <hyperlink ref="G10" display="configDataCredentials.f3e75119e7d93b2f914823c5ea23bfde3935a874.es-es.xlf" r:id="rId46"/>
+    <hyperlink ref="A11" display="configurations.md" r:id="rId47"/>
+    <hyperlink ref="B11" display=".md" r:id="rId48"/>
+    <hyperlink ref="D11" display="configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.es-es.xlf" r:id="rId49"/>
+    <hyperlink ref="F11" display="configurations.md" r:id="rId50"/>
+    <hyperlink ref="G11" display="configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.es-es.xlf" r:id="rId51"/>
+    <hyperlink ref="A12" display="enactingConfigurations.md" r:id="rId52"/>
+    <hyperlink ref="B12" display=".md" r:id="rId53"/>
+    <hyperlink ref="D12" display="enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.es-es.xlf" r:id="rId54"/>
+    <hyperlink ref="F12" display="enactingConfigurations.md" r:id="rId55"/>
+    <hyperlink ref="G12" display="enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.es-es.xlf" r:id="rId56"/>
+    <hyperlink ref="A13" display="environmentResource.md" r:id="rId57"/>
+    <hyperlink ref="B13" display=".md" r:id="rId58"/>
+    <hyperlink ref="D13" display="environmentResource.eb91ffd4cd8bdb9476e5a83de1a20d3b7b502a56.es-es.xlf" r:id="rId59"/>
+    <hyperlink ref="F13" display="environmentResource.md" r:id="rId60"/>
+    <hyperlink ref="G13" display="environmentResource.eb91ffd4cd8bdb9476e5a83de1a20d3b7b502a56.es-es.xlf" r:id="rId61"/>
+    <hyperlink ref="A14" display="fileResource.md" r:id="rId62"/>
+    <hyperlink ref="B14" display=".md" r:id="rId63"/>
+    <hyperlink ref="D14" display="fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.es-es.xlf" r:id="rId64"/>
+    <hyperlink ref="F14" display="fileResource.md" r:id="rId65"/>
+    <hyperlink ref="G14" display="fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.es-es.xlf" r:id="rId66"/>
+    <hyperlink ref="A15" display="groupResource.md" r:id="rId67"/>
+    <hyperlink ref="B15" display=".md" r:id="rId68"/>
+    <hyperlink ref="D15" display="groupResource.d19d416269795c92566b62c36b9782062dcea43e.es-es.xlf" r:id="rId69"/>
+    <hyperlink ref="F15" display="groupResource.md" r:id="rId70"/>
+    <hyperlink ref="G15" display="groupResource.d19d416269795c92566b62c36b9782062dcea43e.es-es.xlf" r:id="rId71"/>
+    <hyperlink ref="A16" display="PartialConfig1.jpg" r:id="rId72"/>
+    <hyperlink ref="B16" display=".jpg" r:id="rId73"/>
+    <hyperlink ref="D16" display="3e61149f7b05f74d662d3038233013ffdcbed1a3.jpg" r:id="rId74"/>
+    <hyperlink ref="F16" display="PartialConfig1.jpg" r:id="rId75"/>
+    <hyperlink ref="G16" display="3e61149f7b05f74d662d3038233013ffdcbed1a3.jpg" r:id="rId76"/>
+    <hyperlink ref="A17" display="PartialConfigPullServer.jpg" r:id="rId77"/>
+    <hyperlink ref="B17" display=".jpg" r:id="rId78"/>
+    <hyperlink ref="D17" display="1ba842005c2b1ce80a3670429b3e010c7b1c1f59.jpg" r:id="rId79"/>
+    <hyperlink ref="F17" display="PartialConfigPullServer.jpg" r:id="rId80"/>
+    <hyperlink ref="G17" display="1ba842005c2b1ce80a3670429b3e010c7b1c1f59.jpg" r:id="rId81"/>
+    <hyperlink ref="A18" display="Pull.png" r:id="rId82"/>
+    <hyperlink ref="B18" display=".png" r:id="rId83"/>
+    <hyperlink ref="D18" display="86d829b1fcdd41e648ed0594eaf337b3726c143c.png" r:id="rId84"/>
+    <hyperlink ref="F18" display="Pull.png" r:id="rId85"/>
+    <hyperlink ref="G18" display="86d829b1fcdd41e648ed0594eaf337b3726c143c.png" r:id="rId86"/>
+    <hyperlink ref="A19" display="Push.png" r:id="rId87"/>
+    <hyperlink ref="B19" display=".png" r:id="rId88"/>
+    <hyperlink ref="D19" display="d3008e3fe7da4c118c693d2b34a0b329780f8d86.png" r:id="rId89"/>
+    <hyperlink ref="F19" display="Push.png" r:id="rId90"/>
+    <hyperlink ref="G19" display="d3008e3fe7da4c118c693d2b34a0b329780f8d86.png" r:id="rId91"/>
+    <hyperlink ref="A20" display="lnxArchiveResource.md" r:id="rId92"/>
+    <hyperlink ref="B20" display=".md" r:id="rId93"/>
+    <hyperlink ref="D20" display="lnxArchiveResource.095aab7d23720fd394f2573c30223a6bbcc0a4ef.es-es.xlf" r:id="rId94"/>
+    <hyperlink ref="F20" display="lnxArchiveResource.md" r:id="rId95"/>
+    <hyperlink ref="G20" display="lnxArchiveResource.095aab7d23720fd394f2573c30223a6bbcc0a4ef.es-es.xlf" r:id="rId96"/>
+    <hyperlink ref="A21" display="lnxBuiltInResources.md" r:id="rId97"/>
+    <hyperlink ref="B21" display=".md" r:id="rId98"/>
+    <hyperlink ref="D21" display="lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.es-es.xlf" r:id="rId99"/>
+    <hyperlink ref="F21" display="lnxBuiltInResources.md" r:id="rId100"/>
+    <hyperlink ref="G21" display="lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.es-es.xlf" r:id="rId101"/>
+    <hyperlink ref="A22" display="lnxEnvironmentResource.md" r:id="rId102"/>
+    <hyperlink ref="B22" display=".md" r:id="rId103"/>
+    <hyperlink ref="D22" display="lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.es-es.xlf" r:id="rId104"/>
+    <hyperlink ref="F22" display="lnxEnvironmentResource.md" r:id="rId105"/>
+    <hyperlink ref="G22" display="lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.es-es.xlf" r:id="rId106"/>
+    <hyperlink ref="A23" display="lnxFileLineResource.md" r:id="rId107"/>
+    <hyperlink ref="B23" display=".md" r:id="rId108"/>
+    <hyperlink ref="D23" display="lnxFileLineResource.d91fc802a4c6cdbff5a2e35f92b34c36c6dbf5eb.es-es.xlf" r:id="rId109"/>
+    <hyperlink ref="F23" display="lnxFileLineResource.md" r:id="rId110"/>
+    <hyperlink ref="G23" display="lnxFileLineResource.d91fc802a4c6cdbff5a2e35f92b34c36c6dbf5eb.es-es.xlf" r:id="rId111"/>
+    <hyperlink ref="A24" display="lnxFileResource.md" r:id="rId112"/>
+    <hyperlink ref="B24" display=".md" r:id="rId113"/>
+    <hyperlink ref="D24" display="lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.es-es.xlf" r:id="rId114"/>
+    <hyperlink ref="F24" display="lnxFileResource.md" r:id="rId115"/>
+    <hyperlink ref="G24" display="lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.es-es.xlf" r:id="rId116"/>
+    <hyperlink ref="A25" display="lnxGroupResource.md" r:id="rId117"/>
+    <hyperlink ref="B25" display=".md" r:id="rId118"/>
+    <hyperlink ref="D25" display="lnxGroupResource.0cedb684d797032bd47cdb852629c36da0884567.es-es.xlf" r:id="rId119"/>
+    <hyperlink ref="F25" display="lnxGroupResource.md" r:id="rId120"/>
+    <hyperlink ref="G25" display="lnxGroupResource.0cedb684d797032bd47cdb852629c36da0884567.es-es.xlf" r:id="rId121"/>
+    <hyperlink ref="A26" display="lnxPackageResource.md" r:id="rId122"/>
+    <hyperlink ref="B26" display=".md" r:id="rId123"/>
+    <hyperlink ref="D26" display="lnxPackageResource.db35ab938bbfbb38cae53fe9ae98fd22b5f18009.es-es.xlf" r:id="rId124"/>
+    <hyperlink ref="F26" display="lnxPackageResource.md" r:id="rId125"/>
+    <hyperlink ref="G26" display="lnxPackageResource.db35ab938bbfbb38cae53fe9ae98fd22b5f18009.es-es.xlf" r:id="rId126"/>
+    <hyperlink ref="A27" display="lnxScriptResource.md" r:id="rId127"/>
+    <hyperlink ref="B27" display=".md" r:id="rId128"/>
+    <hyperlink ref="D27" display="lnxScriptResource.1344a5d5b807ee53705e93842d9ef5e25a883359.es-es.xlf" r:id="rId129"/>
+    <hyperlink ref="F27" display="lnxScriptResource.md" r:id="rId130"/>
+    <hyperlink ref="G27" display="lnxScriptResource.1344a5d5b807ee53705e93842d9ef5e25a883359.es-es.xlf" r:id="rId131"/>
+    <hyperlink ref="A28" display="lnxServiceResource.md" r:id="rId132"/>
+    <hyperlink ref="B28" display=".md" r:id="rId133"/>
+    <hyperlink ref="D28" display="lnxServiceResource.e637c7f7b18939ec8c16eadf2c42ab00e236fb7b.es-es.xlf" r:id="rId134"/>
+    <hyperlink ref="F28" display="lnxServiceResource.md" r:id="rId135"/>
+    <hyperlink ref="G28" display="lnxServiceResource.e637c7f7b18939ec8c16eadf2c42ab00e236fb7b.es-es.xlf" r:id="rId136"/>
+    <hyperlink ref="A29" display="lnxSshAuthorizedKeysResource.md" r:id="rId137"/>
+    <hyperlink ref="B29" display=".md" r:id="rId138"/>
+    <hyperlink ref="D29" display="lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.es-es.xlf" r:id="rId139"/>
+    <hyperlink ref="F29" display="lnxSshAuthorizedKeysResource.md" r:id="rId140"/>
+    <hyperlink ref="G29" display="lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.es-es.xlf" r:id="rId141"/>
+    <hyperlink ref="A30" display="lnxUserResource.md" r:id="rId142"/>
+    <hyperlink ref="B30" display=".md" r:id="rId143"/>
+    <hyperlink ref="D30" display="lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.es-es.xlf" r:id="rId144"/>
+    <hyperlink ref="F30" display="lnxUserResource.md" r:id="rId145"/>
+    <hyperlink ref="G30" display="lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.es-es.xlf" r:id="rId146"/>
+    <hyperlink ref="A31" display="logResource.md" r:id="rId147"/>
+    <hyperlink ref="B31" display=".md" r:id="rId148"/>
+    <hyperlink ref="D31" display="logResource.07af9dfcf6076ef19059178c3b404762677920f0.es-es.xlf" r:id="rId149"/>
+    <hyperlink ref="F31" display="logResource.md" r:id="rId150"/>
+    <hyperlink ref="G31" display="logResource.07af9dfcf6076ef19059178c3b404762677920f0.es-es.xlf" r:id="rId151"/>
+    <hyperlink ref="A32" display="metaConfig.md" r:id="rId152"/>
+    <hyperlink ref="B32" display=".md" r:id="rId153"/>
+    <hyperlink ref="D32" display="metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.es-es.xlf" r:id="rId154"/>
+    <hyperlink ref="F32" display="metaConfig.md" r:id="rId155"/>
+    <hyperlink ref="G32" display="metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.es-es.xlf" r:id="rId156"/>
+    <hyperlink ref="A33" display="metaConfig4.md" r:id="rId157"/>
+    <hyperlink ref="B33" display=".md" r:id="rId158"/>
+    <hyperlink ref="D33" display="metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.es-es.xlf" r:id="rId159"/>
+    <hyperlink ref="F33" display="metaConfig4.md" r:id="rId160"/>
+    <hyperlink ref="G33" display="metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.es-es.xlf" r:id="rId161"/>
+    <hyperlink ref="A34" display="overview.md" r:id="rId162"/>
+    <hyperlink ref="B34" display=".md" r:id="rId163"/>
+    <hyperlink ref="D34" display="overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.es-es.xlf" r:id="rId164"/>
+    <hyperlink ref="F34" display="overview.md" r:id="rId165"/>
+    <hyperlink ref="G34" display="overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.es-es.xlf" r:id="rId166"/>
+    <hyperlink ref="A35" display="packageResource.md" r:id="rId167"/>
+    <hyperlink ref="B35" display=".md" r:id="rId168"/>
+    <hyperlink ref="D35" display="packageResource.132c4949cee174dc0dc324456d220436cb9884e6.es-es.xlf" r:id="rId169"/>
+    <hyperlink ref="F35" display="packageResource.md" r:id="rId170"/>
+    <hyperlink ref="G35" display="packageResource.132c4949cee174dc0dc324456d220436cb9884e6.es-es.xlf" r:id="rId171"/>
+    <hyperlink ref="A36" display="partialConfigs.md" r:id="rId172"/>
+    <hyperlink ref="B36" display=".md" r:id="rId173"/>
+    <hyperlink ref="D36" display="partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.es-es.xlf" r:id="rId174"/>
+    <hyperlink ref="F36" display="partialConfigs.md" r:id="rId175"/>
+    <hyperlink ref="G36" display="partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.es-es.xlf" r:id="rId176"/>
+    <hyperlink ref="A37" display="pullClient.md" r:id="rId177"/>
+    <hyperlink ref="B37" display=".md" r:id="rId178"/>
+    <hyperlink ref="D37" display="pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.es-es.xlf" r:id="rId179"/>
+    <hyperlink ref="F37" display="pullClient.md" r:id="rId180"/>
+    <hyperlink ref="G37" display="pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.es-es.xlf" r:id="rId181"/>
+    <hyperlink ref="A38" display="pullClientConfigID.md" r:id="rId182"/>
+    <hyperlink ref="B38" display=".md" r:id="rId183"/>
+    <hyperlink ref="D38" display="pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.es-es.xlf" r:id="rId184"/>
+    <hyperlink ref="F38" display="pullClientConfigID.md" r:id="rId185"/>
+    <hyperlink ref="G38" display="pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.es-es.xlf" r:id="rId186"/>
+    <hyperlink ref="A39" display="queryServerNodes.md" r:id="rId187"/>
+    <hyperlink ref="B39" display=".md" r:id="rId188"/>
+    <hyperlink ref="D39" display="queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.es-es.xlf" r:id="rId189"/>
+    <hyperlink ref="F39" display="queryServerNodes.md" r:id="rId190"/>
+    <hyperlink ref="G39" display="queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.es-es.xlf" r:id="rId191"/>
+    <hyperlink ref="A40" display="registryResource.md" r:id="rId192"/>
+    <hyperlink ref="B40" display=".md" r:id="rId193"/>
+    <hyperlink ref="D40" display="registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.es-es.xlf" r:id="rId194"/>
+    <hyperlink ref="F40" display="registryResource.md" r:id="rId195"/>
+    <hyperlink ref="G40" display="registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.es-es.xlf" r:id="rId196"/>
+    <hyperlink ref="A41" display="reportServer.md" r:id="rId197"/>
+    <hyperlink ref="B41" display=".md" r:id="rId198"/>
+    <hyperlink ref="D41" display="reportServer.53df4bc8b7b80c0a19c11434bdf5f4304e8248f7.es-es.xlf" r:id="rId199"/>
+    <hyperlink ref="F41" display="reportServer.md" r:id="rId200"/>
+    <hyperlink ref="G41" display="reportServer.53df4bc8b7b80c0a19c11434bdf5f4304e8248f7.es-es.xlf" r:id="rId201"/>
+    <hyperlink ref="A42" display="resources.md" r:id="rId202"/>
+    <hyperlink ref="B42" display=".md" r:id="rId203"/>
+    <hyperlink ref="D42" display="resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.es-es.xlf" r:id="rId204"/>
+    <hyperlink ref="F42" display="resources.md" r:id="rId205"/>
+    <hyperlink ref="G42" display="resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.es-es.xlf" r:id="rId206"/>
+    <hyperlink ref="A43" display="scriptResource.md" r:id="rId207"/>
+    <hyperlink ref="B43" display=".md" r:id="rId208"/>
+    <hyperlink ref="D43" display="scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.es-es.xlf" r:id="rId209"/>
+    <hyperlink ref="F43" display="scriptResource.md" r:id="rId210"/>
+    <hyperlink ref="G43" display="scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.es-es.xlf" r:id="rId211"/>
+    <hyperlink ref="A44" display="secureServer.md" r:id="rId212"/>
+    <hyperlink ref="B44" display=".md" r:id="rId213"/>
+    <hyperlink ref="D44" display="secureServer.ce207607010d18109152742ba23c923cd3cddba2.es-es.xlf" r:id="rId214"/>
+    <hyperlink ref="F44" display="secureServer.md" r:id="rId215"/>
+    <hyperlink ref="G44" display="secureServer.ce207607010d18109152742ba23c923cd3cddba2.es-es.xlf" r:id="rId216"/>
+    <hyperlink ref="A45" display="serviceResource.md" r:id="rId217"/>
+    <hyperlink ref="B45" display=".md" r:id="rId218"/>
+    <hyperlink ref="D45" display="serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.es-es.xlf" r:id="rId219"/>
+    <hyperlink ref="F45" display="serviceResource.md" r:id="rId220"/>
+    <hyperlink ref="G45" display="serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.es-es.xlf" r:id="rId221"/>
+    <hyperlink ref="A46" display="userResource.md" r:id="rId222"/>
+    <hyperlink ref="B46" display=".md" r:id="rId223"/>
+    <hyperlink ref="D46" display="userResource.5de4fbe03e9e06934442ba451eb0564931863f45.es-es.xlf" r:id="rId224"/>
+    <hyperlink ref="F46" display="userResource.md" r:id="rId225"/>
+    <hyperlink ref="G46" display="userResource.5de4fbe03e9e06934442ba451eb0564931863f45.es-es.xlf" r:id="rId226"/>
+    <hyperlink ref="A47" display="windowsfeatureResource.md" r:id="rId227"/>
+    <hyperlink ref="B47" display=".md" r:id="rId228"/>
+    <hyperlink ref="D47" display="windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.es-es.xlf" r:id="rId229"/>
+    <hyperlink ref="F47" display="windowsfeatureResource.md" r:id="rId230"/>
+    <hyperlink ref="G47" display="windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.es-es.xlf" r:id="rId231"/>
+    <hyperlink ref="A48" display="windowsProcessResource.md" r:id="rId232"/>
+    <hyperlink ref="B48" display=".md" r:id="rId233"/>
+    <hyperlink ref="D48" display="windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.es-es.xlf" r:id="rId234"/>
+    <hyperlink ref="F48" display="windowsProcessResource.md" r:id="rId235"/>
+    <hyperlink ref="G48" display="windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.es-es.xlf" r:id="rId236"/>
+    <hyperlink ref="A49" display="builtInResource.md" r:id="rId237"/>
+    <hyperlink ref="B49" display=".md" r:id="rId238"/>
+    <hyperlink ref="D49" display="builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.es-es.xlf" r:id="rId239"/>
+    <hyperlink ref="F49" display="builtInResource.md" r:id="rId240"/>
+    <hyperlink ref="G49" display="builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.es-es.xlf" r:id="rId241"/>
+    <hyperlink ref="A50" display="debugResource.md" r:id="rId242"/>
+    <hyperlink ref="B50" display=".md" r:id="rId243"/>
+    <hyperlink ref="D50" display="debugResource.ac634156affe5c723cc149a298f5aa4268d17016.es-es.xlf" r:id="rId244"/>
+    <hyperlink ref="F50" display="debugResource.md" r:id="rId245"/>
+    <hyperlink ref="G50" display="debugResource.ac634156affe5c723cc149a298f5aa4268d17016.es-es.xlf" r:id="rId246"/>
+    <hyperlink ref="A51" display="decisionMaker.md" r:id="rId247"/>
+    <hyperlink ref="B51" display=".md" r:id="rId248"/>
+    <hyperlink ref="D51" display="decisionMaker.01553169f2ba4241995260fad925e2784b5f5567.es-es.xlf" r:id="rId249"/>
+    <hyperlink ref="F51" display="decisionMaker.md" r:id="rId250"/>
+    <hyperlink ref="G51" display="decisionMaker.01553169f2ba4241995260fad925e2784b5f5567.es-es.xlf" r:id="rId251"/>
+    <hyperlink ref="A52" display="gettingStarted.md" r:id="rId252"/>
+    <hyperlink ref="B52" display=".md" r:id="rId253"/>
+    <hyperlink ref="D52" display="gettingStarted.92e02d8bd273df5c304475a9b4fa251c22a7ea19.es-es.xlf" r:id="rId254"/>
+    <hyperlink ref="F52" display="gettingStarted.md" r:id="rId255"/>
+    <hyperlink ref="G52" display="gettingStarted.92e02d8bd273df5c304475a9b4fa251c22a7ea19.es-es.xlf" r:id="rId256"/>
+    <hyperlink ref="A53" display="CredentialEncryptionDiagram1.png" r:id="rId257"/>
+    <hyperlink ref="B53" display=".png" r:id="rId258"/>
+    <hyperlink ref="D53" display="d9f53a805041164f5070845c0fd216b63d17ae58.png" r:id="rId259"/>
+    <hyperlink ref="A54" display="lnxGettingStarted.md" r:id="rId260"/>
+    <hyperlink ref="B54" display=".md" r:id="rId261"/>
+    <hyperlink ref="D54" display="lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.es-es.xlf" r:id="rId262"/>
+    <hyperlink ref="F54" display="lnxGettingStarted.md" r:id="rId263"/>
+    <hyperlink ref="G54" display="lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.es-es.xlf" r:id="rId264"/>
+    <hyperlink ref="A55" display="pullClientConfigID4.md" r:id="rId265"/>
+    <hyperlink ref="B55" display=".md" r:id="rId266"/>
+    <hyperlink ref="D55" display="pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.es-es.xlf" r:id="rId267"/>
+    <hyperlink ref="F55" display="pullClientConfigID4.md" r:id="rId268"/>
+    <hyperlink ref="G55" display="pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.es-es.xlf" r:id="rId269"/>
+    <hyperlink ref="A56" display="pullClientConfigNames.md" r:id="rId270"/>
+    <hyperlink ref="B56" display=".md" r:id="rId271"/>
+    <hyperlink ref="D56" display="pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.es-es.xlf" r:id="rId272"/>
+    <hyperlink ref="F56" display="pullClientConfigNames.md" r:id="rId273"/>
+    <hyperlink ref="G56" display="pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.es-es.xlf" r:id="rId274"/>
+    <hyperlink ref="A57" display="pullServer.md" r:id="rId275"/>
+    <hyperlink ref="B57" display=".md" r:id="rId276"/>
+    <hyperlink ref="D57" display="pullServer.4b925b277da29998394af746bdbdd508fda48909.es-es.xlf" r:id="rId277"/>
+    <hyperlink ref="F57" display="pullServer.md" r:id="rId278"/>
+    <hyperlink ref="G57" display="pullServer.4b925b277da29998394af746bdbdd508fda48909.es-es.xlf" r:id="rId279"/>
+    <hyperlink ref="A58" display="pullServerSMB.md" r:id="rId280"/>
+    <hyperlink ref="B58" display=".md" r:id="rId281"/>
+    <hyperlink ref="D58" display="pullServerSMB.772aec5ae27ccb19ced78e3eb665a4e16db1c4df.es-es.xlf" r:id="rId282"/>
+    <hyperlink ref="A59" display="resourceAuthoringChecklist.md" r:id="rId283"/>
+    <hyperlink ref="B59" display=".md" r:id="rId284"/>
+    <hyperlink ref="D59" display="resourceAuthoringChecklist.3b9ae254d826cc45519d37d06044f28a69bdfa69.es-es.xlf" r:id="rId285"/>
+    <hyperlink ref="A60" display="runAsUser.md" r:id="rId286"/>
+    <hyperlink ref="B60" display=".md" r:id="rId287"/>
+    <hyperlink ref="D60" display="runAsUser.d2b90b6bc42ef965e454f9c9f5fd19bc7b488b34.es-es.xlf" r:id="rId288"/>
+    <hyperlink ref="A61" display="secureMOF.md" r:id="rId289"/>
+    <hyperlink ref="B61" display=".md" r:id="rId290"/>
+    <hyperlink ref="D61" display="secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.es-es.xlf" r:id="rId291"/>
+    <hyperlink ref="F61" display="secureMOF.md" r:id="rId292"/>
+    <hyperlink ref="G61" display="secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.es-es.xlf" r:id="rId293"/>
+    <hyperlink ref="A62" display="TOC.md" r:id="rId294"/>
+    <hyperlink ref="B62" display=".md" r:id="rId295"/>
+    <hyperlink ref="D62" display="TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.es-es.xlf" r:id="rId296"/>
+    <hyperlink ref="F62" display="TOC.md" r:id="rId297"/>
+    <hyperlink ref="G62" display="TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.es-es.xlf" r:id="rId298"/>
+    <hyperlink ref="A63" display="troubleshooting.md" r:id="rId299"/>
+    <hyperlink ref="B63" display=".md" r:id="rId300"/>
+    <hyperlink ref="D63" display="troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.es-es.xlf" r:id="rId301"/>
+    <hyperlink ref="F63" display="troubleshooting.md" r:id="rId302"/>
+    <hyperlink ref="G63" display="troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.es-es.xlf" r:id="rId303"/>
+    <hyperlink ref="A64" display="audit_cms.md" r:id="rId304"/>
+    <hyperlink ref="B64" display=".md" r:id="rId305"/>
+    <hyperlink ref="D64" display="audit_cms.3e422ca243ac938b46bfcf1497a703e55bde970e.es-es.xlf" r:id="rId306"/>
+    <hyperlink ref="A65" display="audit_overview.md" r:id="rId307"/>
+    <hyperlink ref="B65" display=".md" r:id="rId308"/>
+    <hyperlink ref="D65" display="audit_overview.fc5b51e2734a2af986c9edf42b4395b1aad2435d.es-es.xlf" r:id="rId309"/>
+    <hyperlink ref="A66" display="audit_script.md" r:id="rId310"/>
+    <hyperlink ref="B66" display=".md" r:id="rId311"/>
+    <hyperlink ref="D66" display="audit_script.e89f3a9316d1125e1efd23b41b756a3a6161016b.es-es.xlf" r:id="rId312"/>
+    <hyperlink ref="A67" display="audit_transcript.md" r:id="rId313"/>
+    <hyperlink ref="B67" display=".md" r:id="rId314"/>
+    <hyperlink ref="D67" display="audit_transcript.c21a6554932939cbf4c744bf7c9f07cc4e1e7160.es-es.xlf" r:id="rId315"/>
+    <hyperlink ref="A68" display="class_base.md" r:id="rId316"/>
+    <hyperlink ref="B68" display=".md" r:id="rId317"/>
+    <hyperlink ref="D68" display="class_base.29a9fbe4987503d5575c151f4271f58398cb7e55.es-es.xlf" r:id="rId318"/>
+    <hyperlink ref="A69" display="class_baseconstructor.md" r:id="rId319"/>
+    <hyperlink ref="B69" display=".md" r:id="rId320"/>
+    <hyperlink ref="D69" display="class_baseconstructor.82f951e800b06ccc68090b1be9923c8210a233ac.es-es.xlf" r:id="rId321"/>
+    <hyperlink ref="A70" display="class_basemethod.md" r:id="rId322"/>
+    <hyperlink ref="B70" display=".md" r:id="rId323"/>
+    <hyperlink ref="D70" display="class_basemethod.6b60292188d0081f30fbaf4b111db8a439348f5b.es-es.xlf" r:id="rId324"/>
+    <hyperlink ref="A71" display="class_interface.md" r:id="rId325"/>
+    <hyperlink ref="B71" display=".md" r:id="rId326"/>
+    <hyperlink ref="D71" display="class_interface.84a08fd30808364a820bdd4440de18ec4504a6c7.es-es.xlf" r:id="rId327"/>
+    <hyperlink ref="A72" display="class_newtype.md" r:id="rId328"/>
+    <hyperlink ref="B72" display=".md" r:id="rId329"/>
+    <hyperlink ref="D72" display="class_newtype.a9f52b670970046f8b1147d4ba646b73abb430dc.es-es.xlf" r:id="rId330"/>
+    <hyperlink ref="A73" display="class_overview.md" r:id="rId331"/>
+    <hyperlink ref="B73" display=".md" r:id="rId332"/>
+    <hyperlink ref="D73" display="class_overview.91227b885afcb8df385ab601ab970b924eca2533.es-es.xlf" r:id="rId333"/>
+    <hyperlink ref="A74" display="debug_overview.md" r:id="rId334"/>
+    <hyperlink ref="B74" display=".md" r:id="rId335"/>
+    <hyperlink ref="D74" display="debug_overview.70b71c20b8b625704c25da28a58e804a048bafb0.es-es.xlf" r:id="rId336"/>
+    <hyperlink ref="A75" display="dsc_authoring.md" r:id="rId337"/>
+    <hyperlink ref="B75" display=".md" r:id="rId338"/>
+    <hyperlink ref="D75" display="dsc_authoring.364878cde8f156d8999773842812e0c08f70191c.es-es.xlf" r:id="rId339"/>
+    <hyperlink ref="A76" display="dsc_classbasedresource.md" r:id="rId340"/>
+    <hyperlink ref="B76" display=".md" r:id="rId341"/>
+    <hyperlink ref="D76" display="dsc_classbasedresource.a3d6b22652db939b51db1218584247396454ae0f.es-es.xlf" r:id="rId342"/>
+    <hyperlink ref="A77" display="dsc_confighelp.md" r:id="rId343"/>
+    <hyperlink ref="B77" display=".md" r:id="rId344"/>
+    <hyperlink ref="D77" display="dsc_confighelp.bcfa7e85acae98499089edc9fba25b68953d7bbf.es-es.xlf" r:id="rId345"/>
+    <hyperlink ref="A78" display="dsc_directaccess.md" r:id="rId346"/>
+    <hyperlink ref="B78" display=".md" r:id="rId347"/>
+    <hyperlink ref="D78" display="dsc_directaccess.014c91015162b26b678e0a5fdfd453a3bf6e41b0.es-es.xlf" r:id="rId348"/>
+    <hyperlink ref="A79" display="dsc_encryptedmof.md" r:id="rId349"/>
+    <hyperlink ref="B79" display=".md" r:id="rId350"/>
+    <hyperlink ref="D79" display="dsc_encryptedmof.a35c44de669ea81f25dd29f152f03493e52e327b.es-es.xlf" r:id="rId351"/>
+    <hyperlink ref="A80" display="dsc_freqnomultiple.md" r:id="rId352"/>
+    <hyperlink ref="B80" display=".md" r:id="rId353"/>
+    <hyperlink ref="D80" display="dsc_freqnomultiple.2848e52c73280aca59e73136bac0c2c7ae02aad6.es-es.xlf" r:id="rId354"/>
+    <hyperlink ref="A81" display="dsc_getconfigurationstatus.md" r:id="rId355"/>
+    <hyperlink ref="B81" display=".md" r:id="rId356"/>
+    <hyperlink ref="D81" display="dsc_getconfigurationstatus.1705e4bcaa9dfd9d69f00aecdc7ef0d04bf44899.es-es.xlf" r:id="rId357"/>
+    <hyperlink ref="A82" display="dsc_identicalduplicate.md" r:id="rId358"/>
+    <hyperlink ref="B82" display=".md" r:id="rId359"/>
+    <hyperlink ref="D82" display="dsc_identicalduplicate.eb7167ccd4a72d68aa1683327e9b3877927158ab.es-es.xlf" r:id="rId360"/>
+    <hyperlink ref="A83" display="dsc_importdscresource.md" r:id="rId361"/>
+    <hyperlink ref="B83" display=".md" r:id="rId362"/>
+    <hyperlink ref="D83" display="dsc_importdscresource.a0169ad862dfcaa5c958c07ecd52c856d5dc8436.es-es.xlf" r:id="rId363"/>
+    <hyperlink ref="A84" display="dsc_improvements.md" r:id="rId364"/>
+    <hyperlink ref="B84" display=".md" r:id="rId365"/>
+    <hyperlink ref="D84" display="dsc_improvements.d9ed6ffedf9d9650bb6b26b5ed611e420a0aacbb.es-es.xlf" r:id="rId366"/>
+    <hyperlink ref="A85" display="dsc_lcmstate.md" r:id="rId367"/>
+    <hyperlink ref="B85" display=".md" r:id="rId368"/>
+    <hyperlink ref="D85" display="dsc_lcmstate.21ea1c36f37c94e8e0363199fbd07bcced3aea40.es-es.xlf" r:id="rId369"/>
+    <hyperlink ref="A86" display="dsc_metaconfiguration.md" r:id="rId370"/>
+    <hyperlink ref="B86" display=".md" r:id="rId371"/>
+    <hyperlink ref="D86" display="dsc_metaconfiguration.e8bbca05aa1692ad54cadd83b93a1902f179f365.es-es.xlf" r:id="rId372"/>
+    <hyperlink ref="A87" display="dsc_newresources.md" r:id="rId373"/>
+    <hyperlink ref="B87" display=".md" r:id="rId374"/>
+    <hyperlink ref="D87" display="dsc_newresources.b9c40f591f875ea205c834f7675f3edbe1050592.es-es.xlf" r:id="rId375"/>
+    <hyperlink ref="A88" display="dsc_nodeid.md" r:id="rId376"/>
+    <hyperlink ref="B88" display=".md" r:id="rId377"/>
+    <hyperlink ref="D88" display="dsc_nodeid.e3c9049aa6c1d151f8b286f28502537b2f8d22a4.es-es.xlf" r:id="rId378"/>
+    <hyperlink ref="A89" display="dsc_partialconfig.md" r:id="rId379"/>
+    <hyperlink ref="B89" display=".md" r:id="rId380"/>
+    <hyperlink ref="D89" display="dsc_partialconfig.a493787c3f8663ac3e2994162ffd1bee429544d3.es-es.xlf" r:id="rId381"/>
+    <hyperlink ref="A90" display="dsc_partialconfig_mixedmode.md" r:id="rId382"/>
+    <hyperlink ref="B90" display=".md" r:id="rId383"/>
+    <hyperlink ref="D90" display="dsc_partialconfig_mixedmode.ff4b9a8a421441da62574192650493bf2407028d.es-es.xlf" r:id="rId384"/>
+    <hyperlink ref="A91" display="dsc_publishconfig.md" r:id="rId385"/>
+    <hyperlink ref="B91" display=".md" r:id="rId386"/>
+    <hyperlink ref="D91" display="dsc_publishconfig.bfe86d4253abdd777c205caec637c50ec79103ee.es-es.xlf" r:id="rId387"/>
+    <hyperlink ref="A92" display="dsc_refreshmode.md" r:id="rId388"/>
+    <hyperlink ref="B92" display=".md" r:id="rId389"/>
+    <hyperlink ref="D92" display="dsc_refreshmode.b0529a06a4d3e07b3fce300f74760d63b27523f6.es-es.xlf" r:id="rId390"/>
+    <hyperlink ref="A93" display="dsc_removeconfigdoc.md" r:id="rId391"/>
+    <hyperlink ref="B93" display=".md" r:id="rId392"/>
+    <hyperlink ref="D93" display="dsc_removeconfigdoc.d16cdab7eaedf468bcc38dae34e93be26a204318.es-es.xlf" r:id="rId393"/>
+    <hyperlink ref="A94" display="dsc_reporting.md" r:id="rId394"/>
+    <hyperlink ref="B94" display=".md" r:id="rId395"/>
+    <hyperlink ref="D94" display="dsc_reporting.b042cd21b9bcfc8e50bc361ddee59333602fad42.es-es.xlf" r:id="rId396"/>
+    <hyperlink ref="A95" display="dsc_repository.md" r:id="rId397"/>
+    <hyperlink ref="B95" display=".md" r:id="rId398"/>
+    <hyperlink ref="D95" display="dsc_repository.ec5040a823a6b64e969393e00f3d859fd0b4551c.es-es.xlf" r:id="rId399"/>
+    <hyperlink ref="A96" display="dsc_resourcedebugging.md" r:id="rId400"/>
+    <hyperlink ref="B96" display=".md" r:id="rId401"/>
+    <hyperlink ref="D96" display="dsc_resourcedebugging.95c69e55eb065b349f52e18126d699b1906ba03f.es-es.xlf" r:id="rId402"/>
+    <hyperlink ref="A97" display="dsc_runas.md" r:id="rId403"/>
+    <hyperlink ref="B97" display=".md" r:id="rId404"/>
+    <hyperlink ref="D97" display="dsc_runas.9e19a42a6d5e1ea1772358a6fd8ff24b98a5b6ba.es-es.xlf" r:id="rId405"/>
+    <hyperlink ref="A98" display="dsc_setdsclcm.md" r:id="rId406"/>
+    <hyperlink ref="B98" display=".md" r:id="rId407"/>
+    <hyperlink ref="D98" display="dsc_setdsclcm.1f0e3cab81cf5fc1feda678f202451fe150632e3.es-es.xlf" r:id="rId408"/>
+    <hyperlink ref="A99" display="dsc_statestatus.md" r:id="rId409"/>
+    <hyperlink ref="B99" display=".md" r:id="rId410"/>
+    <hyperlink ref="D99" display="dsc_statestatus.b6f3670f776a8f63a705ba16bed2f20be34fc48f.es-es.xlf" r:id="rId411"/>
+    <hyperlink ref="A100" display="dsc_sxsresource.md" r:id="rId412"/>
+    <hyperlink ref="B100" display=".md" r:id="rId413"/>
+    <hyperlink ref="D100" display="dsc_sxsresource.c9d4ce6109370ac1cbc1fb07f191e02f9a61d5d3.es-es.xlf" r:id="rId414"/>
+    <hyperlink ref="A101" display="dsc_testconfiguration.md" r:id="rId415"/>
+    <hyperlink ref="B101" display=".md" r:id="rId416"/>
+    <hyperlink ref="D101" display="dsc_testconfiguration.b0e5afe2c8f173ebe49c97c9ea9a2f11d81ea5fa.es-es.xlf" r:id="rId417"/>
+    <hyperlink ref="A102" display="dsc_updateconfig.md" r:id="rId418"/>
+    <hyperlink ref="B102" display=".md" r:id="rId419"/>
+    <hyperlink ref="D102" display="dsc_updateconfig.a07eb85e3458d42d7ab1ed5c57dcfc70df709d07.es-es.xlf" r:id="rId420"/>
+    <hyperlink ref="A103" display="dsc_waitfor.md" r:id="rId421"/>
+    <hyperlink ref="B103" display=".md" r:id="rId422"/>
+    <hyperlink ref="D103" display="dsc_waitfor.2b09933f08f1020166ce0f0cd7548a5a3845c48f.es-es.xlf" r:id="rId423"/>
+    <hyperlink ref="A104" display="dsc_wow64.md" r:id="rId424"/>
+    <hyperlink ref="B104" display=".md" r:id="rId425"/>
+    <hyperlink ref="D104" display="dsc_wow64.ea039aaa1bd77415311fc30d80fed43cda07a6e3.es-es.xlf" r:id="rId426"/>
+    <hyperlink ref="A105" display="feedback.md" r:id="rId427"/>
+    <hyperlink ref="B105" display=".md" r:id="rId428"/>
+    <hyperlink ref="D105" display="feedback.3662230166299ef7c1fb7a7a7f5cdbd64b1d812a.es-es.xlf" r:id="rId429"/>
+    <hyperlink ref="A106" display="feedback_archive.md" r:id="rId430"/>
+    <hyperlink ref="B106" display=".md" r:id="rId431"/>
+    <hyperlink ref="D106" display="feedback_archive.20de26911a704368058401c7e2bd6ebaac692ff5.es-es.xlf" r:id="rId432"/>
+    <hyperlink ref="A107" display="feedback_clipboard.md" r:id="rId433"/>
+    <hyperlink ref="B107" display=".md" r:id="rId434"/>
+    <hyperlink ref="D107" display="feedback_clipboard.872e5c147ef02cb86067651f41e3c00b55386664.es-es.xlf" r:id="rId435"/>
+    <hyperlink ref="A108" display="feedback_cmdlets.md" r:id="rId436"/>
+    <hyperlink ref="B108" display=".md" r:id="rId437"/>
+    <hyperlink ref="D108" display="feedback_cmdlets.a4c0dfb806ca0da232eeb75ad3706177b8a5ec48.es-es.xlf" r:id="rId438"/>
+    <hyperlink ref="A109" display="feedback_convertfromString.md" r:id="rId439"/>
+    <hyperlink ref="B109" display=".md" r:id="rId440"/>
+    <hyperlink ref="D109" display="feedback_convertfromString.acdeaa33e8fa59b93649b6abf3a7d5ef64fb7664.es-es.xlf" r:id="rId441"/>
+    <hyperlink ref="A110" display="feedback_convertstring.md" r:id="rId442"/>
+    <hyperlink ref="B110" display=".md" r:id="rId443"/>
+    <hyperlink ref="D110" display="feedback_convertstring.42e964e30093962871c3a4d586ed6c54f25f840d.es-es.xlf" r:id="rId444"/>
+    <hyperlink ref="A111" display="feedback_fileinfo.md" r:id="rId445"/>
+    <hyperlink ref="B111" display=".md" r:id="rId446"/>
+    <hyperlink ref="D111" display="feedback_fileinfo.0192edad2d6504d26a9632f95fc9e5b66ffd8003.es-es.xlf" r:id="rId447"/>
+    <hyperlink ref="A112" display="feedback_formathex.md" r:id="rId448"/>
+    <hyperlink ref="B112" display=".md" r:id="rId449"/>
+    <hyperlink ref="D112" display="feedback_formathex.f97931c887efb620e5f4314facc1f0e20e3dffbe.es-es.xlf" r:id="rId450"/>
+    <hyperlink ref="A113" display="feedback_getchilditem.md" r:id="rId451"/>
+    <hyperlink ref="B113" display=".md" r:id="rId452"/>
+    <hyperlink ref="D113" display="feedback_getchilditem.ce02ca20cc4417a80fe65eb509a8e92f2cecc79c.es-es.xlf" r:id="rId453"/>
+    <hyperlink ref="A114" display="feedback_moduleversionranges.md" r:id="rId454"/>
+    <hyperlink ref="B114" display=".md" r:id="rId455"/>
+    <hyperlink ref="D114" display="feedback_moduleversionranges.611b3a3219d64dbfa1d01541b60a727b880a0c4b.es-es.xlf" r:id="rId456"/>
+    <hyperlink ref="A115" display="feedback_newguid.md" r:id="rId457"/>
+    <hyperlink ref="B115" display=".md" r:id="rId458"/>
+    <hyperlink ref="D115" display="feedback_newguid.f8756fbdb96e6fe06a7e0cbb6ac4af32b1c64983.es-es.xlf" r:id="rId459"/>
+    <hyperlink ref="A116" display="feedback_nonewline.md" r:id="rId460"/>
+    <hyperlink ref="B116" display=".md" r:id="rId461"/>
+    <hyperlink ref="D116" display="feedback_nonewline.7a9b7e24c50399879089bba2b8eee7dc325572e2.es-es.xlf" r:id="rId462"/>
+    <hyperlink ref="A117" display="feedback_symbolic.md" r:id="rId463"/>
+    <hyperlink ref="B117" display=".md" r:id="rId464"/>
+    <hyperlink ref="D117" display="feedback_symbolic.1c3ac8128fb9df60512ec024044d48be7d0cb59f.es-es.xlf" r:id="rId465"/>
+    <hyperlink ref="A118" display="feedback_tempfile.md" r:id="rId466"/>
+    <hyperlink ref="B118" display=".md" r:id="rId467"/>
+    <hyperlink ref="D118" display="feedback_tempfile.fc029065af6bbba3a8c4abbf36023bede7d1416d.es-es.xlf" r:id="rId468"/>
+    <hyperlink ref="A119" display="DscResourceDebugging.jpg" r:id="rId469"/>
+    <hyperlink ref="B119" display=".jpg" r:id="rId470"/>
+    <hyperlink ref="D119" display="ba1897f38317f5fe38f2d8caf0efcc57bc8bb19d.jpg" r:id="rId471"/>
+    <hyperlink ref="A120" display="Import-DscResource-Modversion.jpg" r:id="rId472"/>
+    <hyperlink ref="B120" display=".jpg" r:id="rId473"/>
+    <hyperlink ref="D120" display="e6ed57c70f1b1380eb67c6998a1c9c67f3f246fc.jpg" r:id="rId474"/>
+    <hyperlink ref="A121" display="MOF_Encryption.jpg" r:id="rId475"/>
+    <hyperlink ref="B121" display=".jpg" r:id="rId476"/>
+    <hyperlink ref="D121" display="9a44a53029d37d4165bbffbdcaa79d9be76e5fac.jpg" r:id="rId477"/>
+    <hyperlink ref="A122" display="informationstream_overview.md" r:id="rId478"/>
+    <hyperlink ref="B122" display=".md" r:id="rId479"/>
+    <hyperlink ref="D122" display="informationstream_overview.d2f238b2b4021ccdb7271cf89f53d58970d56cf5.es-es.xlf" r:id="rId480"/>
+    <hyperlink ref="A123" display="install.md" r:id="rId481"/>
+    <hyperlink ref="B123" display=".md" r:id="rId482"/>
+    <hyperlink ref="D123" display="install.317fc924c0f766547c4725878af59c3c9d8facba.es-es.xlf" r:id="rId483"/>
+    <hyperlink ref="A124" display="jea_endpoint.md" r:id="rId484"/>
+    <hyperlink ref="B124" display=".md" r:id="rId485"/>
+    <hyperlink ref="D124" display="jea_endpoint.1dc052fe583a907a6c090cf8bfd42293d94d2975.es-es.xlf" r:id="rId486"/>
+    <hyperlink ref="A125" display="jea_overview.md" r:id="rId487"/>
+    <hyperlink ref="B125" display=".md" r:id="rId488"/>
+    <hyperlink ref="D125" display="jea_overview.3fa3008e719be8235adffe51808ac66714940871.es-es.xlf" r:id="rId489"/>
+    <hyperlink ref="A126" display="jea_report.md" r:id="rId490"/>
+    <hyperlink ref="B126" display=".md" r:id="rId491"/>
+    <hyperlink ref="D126" display="jea_report.7860cec6e93b7405844ccbbe5bc879921447ac0b.es-es.xlf" r:id="rId492"/>
+    <hyperlink ref="A127" display="limitation_dsc.md" r:id="rId493"/>
+    <hyperlink ref="B127" display=".md" r:id="rId494"/>
+    <hyperlink ref="D127" display="limitation_dsc.3684c81bb088cba98089dffdb1a1e56e1c098335.es-es.xlf" r:id="rId495"/>
+    <hyperlink ref="A128" display="limitation_overview.md" r:id="rId496"/>
+    <hyperlink ref="B128" display=".md" r:id="rId497"/>
+    <hyperlink ref="D128" display="limitation_overview.6cc9c8c028f5912636637d836aed7db0614de522.es-es.xlf" r:id="rId498"/>
+    <hyperlink ref="A129" display="networkswitch_overview.md" r:id="rId499"/>
+    <hyperlink ref="B129" display=".md" r:id="rId500"/>
+    <hyperlink ref="D129" display="networkswitch_overview.7a87eb0741cd43b8b9284ea6cb605920c4961b79.es-es.xlf" r:id="rId501"/>
+    <hyperlink ref="A130" display="odata_overview.md" r:id="rId502"/>
+    <hyperlink ref="B130" display=".md" r:id="rId503"/>
+    <hyperlink ref="D130" display="odata_overview.c3f7efdde29fe7ac5685a61cd61d75b65524a4c3.es-es.xlf" r:id="rId504"/>
+    <hyperlink ref="A131" display="oneget_cmdlets.md" r:id="rId505"/>
+    <hyperlink ref="B131" display=".md" r:id="rId506"/>
+    <hyperlink ref="D131" display="oneget_cmdlets.469b2350a72495ac2cf62e4130b4df8036f5d135.es-es.xlf" r:id="rId507"/>
+    <hyperlink ref="A132" display="oneget_overview.md" r:id="rId508"/>
+    <hyperlink ref="B132" display=".md" r:id="rId509"/>
+    <hyperlink ref="D132" display="oneget_overview.e71a25f36f957ab7471d259c6e716651f6f23c94.es-es.xlf" r:id="rId510"/>
+    <hyperlink ref="A133" display="productincompat.md" r:id="rId511"/>
+    <hyperlink ref="B133" display=".md" r:id="rId512"/>
+    <hyperlink ref="D133" display="productincompat.62bb00299c0283b5297001553476a745e28a49cb.es-es.xlf" r:id="rId513"/>
+    <hyperlink ref="A134" display="psget_module_overview.md" r:id="rId514"/>
+    <hyperlink ref="B134" display=".md" r:id="rId515"/>
+    <hyperlink ref="D134" display="psget_module_overview.4149c468ffd0f17a2fabd03f90059c12effc3170.es-es.xlf" r:id="rId516"/>
+    <hyperlink ref="A135" display="psget_modulecmdlets.md" r:id="rId517"/>
+    <hyperlink ref="B135" display=".md" r:id="rId518"/>
+    <hyperlink ref="D135" display="psget_modulecmdlets.1f808cfdf9a9aa920f88e15f7f5fa4701fe805e3.es-es.xlf" r:id="rId519"/>
+    <hyperlink ref="A136" display="psget_moduledependency.md" r:id="rId520"/>
+    <hyperlink ref="B136" display=".md" r:id="rId521"/>
+    <hyperlink ref="D136" display="psget_moduledependency.89ba9310335ae64db5481a3c02034ac4fe01b6a2.es-es.xlf" r:id="rId522"/>
+    <hyperlink ref="A137" display="psget_modulesxsinstall.md" r:id="rId523"/>
+    <hyperlink ref="B137" display=".md" r:id="rId524"/>
+    <hyperlink ref="D137" display="psget_modulesxsinstall.110ba80d8f917899ef488b46bd15f5654f6ba06c.es-es.xlf" r:id="rId525"/>
+    <hyperlink ref="A138" display="psget_psrepository.md" r:id="rId526"/>
+    <hyperlink ref="B138" display=".md" r:id="rId527"/>
+    <hyperlink ref="D138" display="psget_psrepository.c4381b2ff7bb6496ab74ed8bb2b07325cfbfc056.es-es.xlf" r:id="rId528"/>
+    <hyperlink ref="A139" display="psget_script_overview.md" r:id="rId529"/>
+    <hyperlink ref="B139" display=".md" r:id="rId530"/>
+    <hyperlink ref="D139" display="psget_script_overview.f035cc99497d17dc73e3a61f214e40a5860fc70a.es-es.xlf" r:id="rId531"/>
+    <hyperlink ref="A140" display="psget_scriptcmdlets.md" r:id="rId532"/>
+    <hyperlink ref="B140" display=".md" r:id="rId533"/>
+    <hyperlink ref="D140" display="psget_scriptcmdlets.1762d5f29292d59c1afb37cb29eb11a34cf63990.es-es.xlf" r:id="rId534"/>
+    <hyperlink ref="A141" display="releasenotes.md" r:id="rId535"/>
+    <hyperlink ref="B141" display=".md" r:id="rId536"/>
+    <hyperlink ref="D141" display="releasenotes.311750b4da54b1d4ef7997b328edd6ff177fb71f.es-es.xlf" r:id="rId537"/>
+    <hyperlink ref="A142" display="requirements.md" r:id="rId538"/>
+    <hyperlink ref="B142" display=".md" r:id="rId539"/>
+    <hyperlink ref="D142" display="requirements.ef8332f358d65b1759bfd4c7336b11d1dc8c2d46.es-es.xlf" r:id="rId540"/>
+    <hyperlink ref="A143" display="sil_overview.md" r:id="rId541"/>
+    <hyperlink ref="B143" display=".md" r:id="rId542"/>
+    <hyperlink ref="D143" display="sil_overview.a2b1f7c716aad317993a5eaffba21fa28ce0c0d8.es-es.xlf" r:id="rId543"/>
+    <hyperlink ref="A144" display="TOC.md" r:id="rId544"/>
+    <hyperlink ref="B144" display=".md" r:id="rId545"/>
+    <hyperlink ref="D144" display="TOC.60497266061c38453b3db893ec675eb65584af89.es-es.xlf" r:id="rId546"/>
+    <hyperlink ref="A145" display="uninstall.md" r:id="rId547"/>
+    <hyperlink ref="B145" display=".md" r:id="rId548"/>
+    <hyperlink ref="D145" display="uninstall.b07adaaaf7f41869dfa201b88e29342aced76c96.es-es.xlf" r:id="rId549"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/PowerShell/powerShell-Docs/live/localization-status.xlsx
+++ b/ol-handback/PowerShell/powerShell-Docs/live/localization-status.xlsx
@@ -6,19 +6,19 @@
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId2"/>
-    <sheet name="es-es" sheetId="2" r:id="rId3"/>
+    <sheet name="ja-jp" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="339">
   <si>
     <t>File Name</t>
   </si>
   <si>
-    <t>es-es</t>
+    <t>ja-jp</t>
   </si>
   <si>
     <t>Latest Handoff Date</t>
@@ -30,7 +30,7 @@
     <t>Handed back: in sync with en-US</t>
   </si>
   <si>
-    <t>2016-02-23 03:02:55</t>
+    <t>2016-01-23 03:01:00</t>
   </si>
   <si>
     <t>authoringResource.md</t>
@@ -39,12 +39,93 @@
     <t>authoringResourceClass.md</t>
   </si>
   <si>
-    <t>2016-43-02 17:43:56</t>
+    <t>2016-52-02 17:52:35</t>
+  </si>
+  <si>
+    <t>fileResource.md</t>
+  </si>
+  <si>
+    <t>PartialConfig1.jpg</t>
+  </si>
+  <si>
+    <t>2016-02-11 01:02:12</t>
+  </si>
+  <si>
+    <t>PartialConfigPullServer.jpg</t>
+  </si>
+  <si>
+    <t>Pull.png</t>
+  </si>
+  <si>
+    <t>Push.png</t>
+  </si>
+  <si>
+    <t>lnxArchiveResource.md</t>
+  </si>
+  <si>
+    <t>lnxBuiltInResources.md</t>
+  </si>
+  <si>
+    <t>lnxEnvironmentResource.md</t>
+  </si>
+  <si>
+    <t>lnxFileLineResource.md</t>
+  </si>
+  <si>
+    <t>lnxFileResource.md</t>
+  </si>
+  <si>
+    <t>lnxGroupResource.md</t>
+  </si>
+  <si>
+    <t>lnxServiceResource.md</t>
+  </si>
+  <si>
+    <t>lnxSshAuthorizedKeysResource.md</t>
+  </si>
+  <si>
+    <t>logResource.md</t>
+  </si>
+  <si>
+    <t>metaConfig.md</t>
+  </si>
+  <si>
+    <t>metaConfig4.md</t>
+  </si>
+  <si>
+    <t>overview.md</t>
+  </si>
+  <si>
+    <t>partialConfigs.md</t>
+  </si>
+  <si>
+    <t>pullClient.md</t>
+  </si>
+  <si>
+    <t>queryServerNodes.md</t>
+  </si>
+  <si>
+    <t>scriptResource.md</t>
+  </si>
+  <si>
+    <t>secureServer.md</t>
+  </si>
+  <si>
+    <t>userResource.md</t>
+  </si>
+  <si>
+    <t>windowsfeatureResource.md</t>
+  </si>
+  <si>
+    <t>windowsProcessResource.md</t>
   </si>
   <si>
     <t>authoringResourceComposite.md</t>
   </si>
   <si>
+    <t>Ready for handoff</t>
+  </si>
+  <si>
     <t>authoringResourceMOF.md</t>
   </si>
   <si>
@@ -54,6 +135,12 @@
     <t>authoringResourceMofDesigner.md</t>
   </si>
   <si>
+    <t>builtInResource.md</t>
+  </si>
+  <si>
+    <t>2016-22-21 17:22:57</t>
+  </si>
+  <si>
     <t>configData.md</t>
   </si>
   <si>
@@ -63,49 +150,37 @@
     <t>configurations.md</t>
   </si>
   <si>
+    <t>debugResource.md</t>
+  </si>
+  <si>
+    <t>2016-41-10 21:41:53</t>
+  </si>
+  <si>
+    <t>decisionMaker.md</t>
+  </si>
+  <si>
+    <t>2016-31-07 19:31:07</t>
+  </si>
+  <si>
     <t>enactingConfigurations.md</t>
   </si>
   <si>
     <t>environmentResource.md</t>
   </si>
   <si>
-    <t>fileResource.md</t>
+    <t>gettingStarted.md</t>
   </si>
   <si>
     <t>groupResource.md</t>
   </si>
   <si>
-    <t>PartialConfig1.jpg</t>
-  </si>
-  <si>
-    <t>2016-03-11 01:03:45</t>
-  </si>
-  <si>
-    <t>PartialConfigPullServer.jpg</t>
-  </si>
-  <si>
-    <t>Pull.png</t>
-  </si>
-  <si>
-    <t>Push.png</t>
-  </si>
-  <si>
-    <t>lnxArchiveResource.md</t>
-  </si>
-  <si>
-    <t>lnxBuiltInResources.md</t>
-  </si>
-  <si>
-    <t>lnxEnvironmentResource.md</t>
-  </si>
-  <si>
-    <t>lnxFileLineResource.md</t>
-  </si>
-  <si>
-    <t>lnxFileResource.md</t>
-  </si>
-  <si>
-    <t>lnxGroupResource.md</t>
+    <t>CredentialEncryptionDiagram1.png</t>
+  </si>
+  <si>
+    <t>lnxGettingStarted.md</t>
+  </si>
+  <si>
+    <t>2016-32-10 20:32:04</t>
   </si>
   <si>
     <t>lnxPackageResource.md</t>
@@ -114,40 +189,28 @@
     <t>lnxScriptResource.md</t>
   </si>
   <si>
-    <t>lnxServiceResource.md</t>
-  </si>
-  <si>
-    <t>lnxSshAuthorizedKeysResource.md</t>
-  </si>
-  <si>
     <t>lnxUserResource.md</t>
   </si>
   <si>
-    <t>logResource.md</t>
-  </si>
-  <si>
-    <t>metaConfig.md</t>
-  </si>
-  <si>
-    <t>metaConfig4.md</t>
-  </si>
-  <si>
-    <t>overview.md</t>
-  </si>
-  <si>
     <t>packageResource.md</t>
   </si>
   <si>
-    <t>partialConfigs.md</t>
-  </si>
-  <si>
-    <t>pullClient.md</t>
-  </si>
-  <si>
     <t>pullClientConfigID.md</t>
   </si>
   <si>
-    <t>queryServerNodes.md</t>
+    <t>pullClientConfigID4.md</t>
+  </si>
+  <si>
+    <t>2016-01-09 20:01:18</t>
+  </si>
+  <si>
+    <t>pullClientConfigNames.md</t>
+  </si>
+  <si>
+    <t>pullServer.md</t>
+  </si>
+  <si>
+    <t>pullServerSMB.md</t>
   </si>
   <si>
     <t>registryResource.md</t>
@@ -156,97 +219,34 @@
     <t>reportServer.md</t>
   </si>
   <si>
+    <t>resourceAuthoringChecklist.md</t>
+  </si>
+  <si>
     <t>resources.md</t>
   </si>
   <si>
-    <t>scriptResource.md</t>
-  </si>
-  <si>
-    <t>secureServer.md</t>
+    <t>runAsUser.md</t>
+  </si>
+  <si>
+    <t>secureMOF.md</t>
   </si>
   <si>
     <t>serviceResource.md</t>
   </si>
   <si>
-    <t>userResource.md</t>
-  </si>
-  <si>
-    <t>windowsfeatureResource.md</t>
-  </si>
-  <si>
-    <t>windowsProcessResource.md</t>
-  </si>
-  <si>
-    <t>builtInResource.md</t>
-  </si>
-  <si>
-    <t>Ready for handoff</t>
-  </si>
-  <si>
-    <t>2016-23-21 17:23:27</t>
-  </si>
-  <si>
-    <t>debugResource.md</t>
-  </si>
-  <si>
-    <t>2016-43-10 21:43:29</t>
-  </si>
-  <si>
-    <t>decisionMaker.md</t>
-  </si>
-  <si>
-    <t>2016-32-07 19:32:30</t>
-  </si>
-  <si>
-    <t>gettingStarted.md</t>
-  </si>
-  <si>
-    <t>CredentialEncryptionDiagram1.png</t>
-  </si>
-  <si>
-    <t>lnxGettingStarted.md</t>
-  </si>
-  <si>
-    <t>2016-33-10 20:33:33</t>
-  </si>
-  <si>
-    <t>pullClientConfigID4.md</t>
-  </si>
-  <si>
-    <t>2016-03-09 20:03:03</t>
-  </si>
-  <si>
-    <t>pullClientConfigNames.md</t>
-  </si>
-  <si>
-    <t>pullServer.md</t>
-  </si>
-  <si>
-    <t>pullServerSMB.md</t>
-  </si>
-  <si>
-    <t>resourceAuthoringChecklist.md</t>
-  </si>
-  <si>
-    <t>runAsUser.md</t>
-  </si>
-  <si>
-    <t>secureMOF.md</t>
-  </si>
-  <si>
     <t>TOC.md</t>
   </si>
   <si>
     <t>troubleshooting.md</t>
   </si>
   <si>
-    <t>2016-12-04 21:12:23</t>
+    <t>2016-11-04 21:11:25</t>
   </si>
   <si>
     <t>audit_cms.md</t>
   </si>
   <si>
-    <t>2016-14-08 01:14:29</t>
+    <t>2016-11-08 01:11:31</t>
   </si>
   <si>
     <t>audit_overview.md</t>
@@ -486,7 +486,7 @@
     <t>sil_overview.md</t>
   </si>
   <si>
-    <t>2016-52-16 22:52:09</t>
+    <t>2016-51-16 22:51:47</t>
   </si>
   <si>
     <t>uninstall.md</t>
@@ -528,58 +528,28 @@
     <t>.md</t>
   </si>
   <si>
-    <t>archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.es-es.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-21 21:55:10</t>
+    <t>archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>2016-02-23 03:01:00</t>
+  </si>
+  <si>
+    <t>2016-03-22 00:30:47</t>
   </si>
   <si>
     <t>Include</t>
   </si>
   <si>
-    <t>authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.es-es.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-21 22:43:53</t>
-  </si>
-  <si>
-    <t>authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.es-es.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-02 17:43:56</t>
-  </si>
-  <si>
-    <t>authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.es-es.xlf</t>
-  </si>
-  <si>
-    <t>authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.es-es.xlf</t>
-  </si>
-  <si>
-    <t>authoringResourceMofCS.0647b27b00ec52b2f524a2856e48bc7c29c0f867.es-es.xlf</t>
-  </si>
-  <si>
-    <t>authoringResourceMofDesigner.09b1adffc4afb0d9b1154880e2dab0b25d82d51b.es-es.xlf</t>
-  </si>
-  <si>
-    <t>configData.51d01a46dd9af8b425788cc485523b09f8470b95.es-es.xlf</t>
-  </si>
-  <si>
-    <t>configDataCredentials.f3e75119e7d93b2f914823c5ea23bfde3935a874.es-es.xlf</t>
-  </si>
-  <si>
-    <t>configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.es-es.xlf</t>
-  </si>
-  <si>
-    <t>enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.es-es.xlf</t>
-  </si>
-  <si>
-    <t>environmentResource.eb91ffd4cd8bdb9476e5a83de1a20d3b7b502a56.es-es.xlf</t>
-  </si>
-  <si>
-    <t>fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.es-es.xlf</t>
-  </si>
-  <si>
-    <t>groupResource.d19d416269795c92566b62c36b9782062dcea43e.es-es.xlf</t>
+    <t>authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-02 17:52:35</t>
+  </si>
+  <si>
+    <t>fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.ja-jp.xlf</t>
   </si>
   <si>
     <t>.jpg</t>
@@ -588,6 +558,12 @@
     <t>3e61149f7b05f74d662d3038233013ffdcbed1a3.jpg</t>
   </si>
   <si>
+    <t>2016-03-11 01:02:12</t>
+  </si>
+  <si>
+    <t>2016-03-17 01:31:01</t>
+  </si>
+  <si>
     <t>IsDependency</t>
   </si>
   <si>
@@ -609,325 +585,358 @@
     <t>d3008e3fe7da4c118c693d2b34a0b329780f8d86.png</t>
   </si>
   <si>
-    <t>lnxArchiveResource.095aab7d23720fd394f2573c30223a6bbcc0a4ef.es-es.xlf</t>
-  </si>
-  <si>
-    <t>lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.es-es.xlf</t>
-  </si>
-  <si>
-    <t>lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.es-es.xlf</t>
-  </si>
-  <si>
-    <t>lnxFileLineResource.d91fc802a4c6cdbff5a2e35f92b34c36c6dbf5eb.es-es.xlf</t>
-  </si>
-  <si>
-    <t>lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.es-es.xlf</t>
-  </si>
-  <si>
-    <t>lnxGroupResource.0cedb684d797032bd47cdb852629c36da0884567.es-es.xlf</t>
-  </si>
-  <si>
-    <t>lnxPackageResource.db35ab938bbfbb38cae53fe9ae98fd22b5f18009.es-es.xlf</t>
-  </si>
-  <si>
-    <t>lnxScriptResource.1344a5d5b807ee53705e93842d9ef5e25a883359.es-es.xlf</t>
-  </si>
-  <si>
-    <t>lnxServiceResource.e637c7f7b18939ec8c16eadf2c42ab00e236fb7b.es-es.xlf</t>
-  </si>
-  <si>
-    <t>lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.es-es.xlf</t>
-  </si>
-  <si>
-    <t>lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.es-es.xlf</t>
-  </si>
-  <si>
-    <t>logResource.07af9dfcf6076ef19059178c3b404762677920f0.es-es.xlf</t>
-  </si>
-  <si>
-    <t>metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.es-es.xlf</t>
-  </si>
-  <si>
-    <t>metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.es-es.xlf</t>
-  </si>
-  <si>
-    <t>overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.es-es.xlf</t>
-  </si>
-  <si>
-    <t>packageResource.132c4949cee174dc0dc324456d220436cb9884e6.es-es.xlf</t>
-  </si>
-  <si>
-    <t>partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.es-es.xlf</t>
-  </si>
-  <si>
-    <t>pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.es-es.xlf</t>
-  </si>
-  <si>
-    <t>pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.es-es.xlf</t>
-  </si>
-  <si>
-    <t>queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.es-es.xlf</t>
-  </si>
-  <si>
-    <t>registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.es-es.xlf</t>
-  </si>
-  <si>
-    <t>reportServer.53df4bc8b7b80c0a19c11434bdf5f4304e8248f7.es-es.xlf</t>
-  </si>
-  <si>
-    <t>resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.es-es.xlf</t>
-  </si>
-  <si>
-    <t>scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.es-es.xlf</t>
-  </si>
-  <si>
-    <t>secureServer.ce207607010d18109152742ba23c923cd3cddba2.es-es.xlf</t>
-  </si>
-  <si>
-    <t>serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.es-es.xlf</t>
-  </si>
-  <si>
-    <t>userResource.5de4fbe03e9e06934442ba451eb0564931863f45.es-es.xlf</t>
-  </si>
-  <si>
-    <t>windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.es-es.xlf</t>
-  </si>
-  <si>
-    <t>windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.es-es.xlf</t>
-  </si>
-  <si>
-    <t>builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.es-es.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-21 17:23:27</t>
-  </si>
-  <si>
-    <t>debugResource.ac634156affe5c723cc149a298f5aa4268d17016.es-es.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-10 21:43:29</t>
-  </si>
-  <si>
-    <t>decisionMaker.01553169f2ba4241995260fad925e2784b5f5567.es-es.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-07 19:32:30</t>
-  </si>
-  <si>
-    <t>gettingStarted.92e02d8bd273df5c304475a9b4fa251c22a7ea19.es-es.xlf</t>
+    <t>lnxArchiveResource.095aab7d23720fd394f2573c30223a6bbcc0a4ef.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>lnxFileLineResource.d91fc802a4c6cdbff5a2e35f92b34c36c6dbf5eb.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>lnxGroupResource.0cedb684d797032bd47cdb852629c36da0884567.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>lnxServiceResource.e637c7f7b18939ec8c16eadf2c42ab00e236fb7b.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>logResource.07af9dfcf6076ef19059178c3b404762677920f0.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>secureServer.ce207607010d18109152742ba23c923cd3cddba2.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>userResource.5de4fbe03e9e06934442ba451eb0564931863f45.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>0001-01-01 00:00:00</t>
+  </si>
+  <si>
+    <t>authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>authoringResourceMofCS.0647b27b00ec52b2f524a2856e48bc7c29c0f867.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>authoringResourceMofDesigner.09b1adffc4afb0d9b1154880e2dab0b25d82d51b.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-21 17:22:57</t>
+  </si>
+  <si>
+    <t>configData.51d01a46dd9af8b425788cc485523b09f8470b95.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>configDataCredentials.f3e75119e7d93b2f914823c5ea23bfde3935a874.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>debugResource.ac634156affe5c723cc149a298f5aa4268d17016.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-10 21:41:53</t>
+  </si>
+  <si>
+    <t>decisionMaker.01553169f2ba4241995260fad925e2784b5f5567.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-07 19:31:07</t>
+  </si>
+  <si>
+    <t>enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>environmentResource.eb91ffd4cd8bdb9476e5a83de1a20d3b7b502a56.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>gettingStarted.92e02d8bd273df5c304475a9b4fa251c22a7ea19.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>groupResource.d19d416269795c92566b62c36b9782062dcea43e.ja-jp.xlf</t>
   </si>
   <si>
     <t>d9f53a805041164f5070845c0fd216b63d17ae58.png</t>
   </si>
   <si>
-    <t>0001-01-01 00:00:00</t>
-  </si>
-  <si>
     <t>dsc\secureMOF.md</t>
   </si>
   <si>
-    <t>lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.es-es.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-10 20:33:33</t>
-  </si>
-  <si>
-    <t>pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.es-es.xlf</t>
-  </si>
-  <si>
-    <t>pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.es-es.xlf</t>
-  </si>
-  <si>
-    <t>pullServer.4b925b277da29998394af746bdbdd508fda48909.es-es.xlf</t>
-  </si>
-  <si>
-    <t>pullServerSMB.772aec5ae27ccb19ced78e3eb665a4e16db1c4df.es-es.xlf</t>
-  </si>
-  <si>
-    <t>resourceAuthoringChecklist.3b9ae254d826cc45519d37d06044f28a69bdfa69.es-es.xlf</t>
-  </si>
-  <si>
-    <t>runAsUser.d2b90b6bc42ef965e454f9c9f5fd19bc7b488b34.es-es.xlf</t>
-  </si>
-  <si>
-    <t>secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.es-es.xlf</t>
-  </si>
-  <si>
-    <t>TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.es-es.xlf</t>
-  </si>
-  <si>
-    <t>troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.es-es.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-04 21:12:23</t>
-  </si>
-  <si>
-    <t>audit_cms.3e422ca243ac938b46bfcf1497a703e55bde970e.es-es.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-08 01:14:29</t>
-  </si>
-  <si>
-    <t>audit_overview.fc5b51e2734a2af986c9edf42b4395b1aad2435d.es-es.xlf</t>
-  </si>
-  <si>
-    <t>audit_script.e89f3a9316d1125e1efd23b41b756a3a6161016b.es-es.xlf</t>
-  </si>
-  <si>
-    <t>audit_transcript.c21a6554932939cbf4c744bf7c9f07cc4e1e7160.es-es.xlf</t>
-  </si>
-  <si>
-    <t>class_base.29a9fbe4987503d5575c151f4271f58398cb7e55.es-es.xlf</t>
-  </si>
-  <si>
-    <t>class_baseconstructor.82f951e800b06ccc68090b1be9923c8210a233ac.es-es.xlf</t>
-  </si>
-  <si>
-    <t>class_basemethod.6b60292188d0081f30fbaf4b111db8a439348f5b.es-es.xlf</t>
-  </si>
-  <si>
-    <t>class_interface.84a08fd30808364a820bdd4440de18ec4504a6c7.es-es.xlf</t>
-  </si>
-  <si>
-    <t>class_newtype.a9f52b670970046f8b1147d4ba646b73abb430dc.es-es.xlf</t>
-  </si>
-  <si>
-    <t>class_overview.91227b885afcb8df385ab601ab970b924eca2533.es-es.xlf</t>
-  </si>
-  <si>
-    <t>debug_overview.70b71c20b8b625704c25da28a58e804a048bafb0.es-es.xlf</t>
-  </si>
-  <si>
-    <t>dsc_authoring.364878cde8f156d8999773842812e0c08f70191c.es-es.xlf</t>
-  </si>
-  <si>
-    <t>dsc_classbasedresource.a3d6b22652db939b51db1218584247396454ae0f.es-es.xlf</t>
-  </si>
-  <si>
-    <t>dsc_confighelp.bcfa7e85acae98499089edc9fba25b68953d7bbf.es-es.xlf</t>
-  </si>
-  <si>
-    <t>dsc_directaccess.014c91015162b26b678e0a5fdfd453a3bf6e41b0.es-es.xlf</t>
-  </si>
-  <si>
-    <t>dsc_encryptedmof.a35c44de669ea81f25dd29f152f03493e52e327b.es-es.xlf</t>
-  </si>
-  <si>
-    <t>dsc_freqnomultiple.2848e52c73280aca59e73136bac0c2c7ae02aad6.es-es.xlf</t>
-  </si>
-  <si>
-    <t>dsc_getconfigurationstatus.1705e4bcaa9dfd9d69f00aecdc7ef0d04bf44899.es-es.xlf</t>
-  </si>
-  <si>
-    <t>dsc_identicalduplicate.eb7167ccd4a72d68aa1683327e9b3877927158ab.es-es.xlf</t>
-  </si>
-  <si>
-    <t>dsc_importdscresource.a0169ad862dfcaa5c958c07ecd52c856d5dc8436.es-es.xlf</t>
-  </si>
-  <si>
-    <t>dsc_improvements.d9ed6ffedf9d9650bb6b26b5ed611e420a0aacbb.es-es.xlf</t>
-  </si>
-  <si>
-    <t>dsc_lcmstate.21ea1c36f37c94e8e0363199fbd07bcced3aea40.es-es.xlf</t>
-  </si>
-  <si>
-    <t>dsc_metaconfiguration.e8bbca05aa1692ad54cadd83b93a1902f179f365.es-es.xlf</t>
-  </si>
-  <si>
-    <t>dsc_newresources.b9c40f591f875ea205c834f7675f3edbe1050592.es-es.xlf</t>
-  </si>
-  <si>
-    <t>dsc_nodeid.e3c9049aa6c1d151f8b286f28502537b2f8d22a4.es-es.xlf</t>
-  </si>
-  <si>
-    <t>dsc_partialconfig.a493787c3f8663ac3e2994162ffd1bee429544d3.es-es.xlf</t>
-  </si>
-  <si>
-    <t>dsc_partialconfig_mixedmode.ff4b9a8a421441da62574192650493bf2407028d.es-es.xlf</t>
-  </si>
-  <si>
-    <t>dsc_publishconfig.bfe86d4253abdd777c205caec637c50ec79103ee.es-es.xlf</t>
-  </si>
-  <si>
-    <t>dsc_refreshmode.b0529a06a4d3e07b3fce300f74760d63b27523f6.es-es.xlf</t>
-  </si>
-  <si>
-    <t>dsc_removeconfigdoc.d16cdab7eaedf468bcc38dae34e93be26a204318.es-es.xlf</t>
-  </si>
-  <si>
-    <t>dsc_reporting.b042cd21b9bcfc8e50bc361ddee59333602fad42.es-es.xlf</t>
-  </si>
-  <si>
-    <t>dsc_repository.ec5040a823a6b64e969393e00f3d859fd0b4551c.es-es.xlf</t>
-  </si>
-  <si>
-    <t>dsc_resourcedebugging.95c69e55eb065b349f52e18126d699b1906ba03f.es-es.xlf</t>
-  </si>
-  <si>
-    <t>dsc_runas.9e19a42a6d5e1ea1772358a6fd8ff24b98a5b6ba.es-es.xlf</t>
-  </si>
-  <si>
-    <t>dsc_setdsclcm.1f0e3cab81cf5fc1feda678f202451fe150632e3.es-es.xlf</t>
-  </si>
-  <si>
-    <t>dsc_statestatus.b6f3670f776a8f63a705ba16bed2f20be34fc48f.es-es.xlf</t>
-  </si>
-  <si>
-    <t>dsc_sxsresource.c9d4ce6109370ac1cbc1fb07f191e02f9a61d5d3.es-es.xlf</t>
-  </si>
-  <si>
-    <t>dsc_testconfiguration.b0e5afe2c8f173ebe49c97c9ea9a2f11d81ea5fa.es-es.xlf</t>
-  </si>
-  <si>
-    <t>dsc_updateconfig.a07eb85e3458d42d7ab1ed5c57dcfc70df709d07.es-es.xlf</t>
-  </si>
-  <si>
-    <t>dsc_waitfor.2b09933f08f1020166ce0f0cd7548a5a3845c48f.es-es.xlf</t>
-  </si>
-  <si>
-    <t>dsc_wow64.ea039aaa1bd77415311fc30d80fed43cda07a6e3.es-es.xlf</t>
-  </si>
-  <si>
-    <t>feedback.3662230166299ef7c1fb7a7a7f5cdbd64b1d812a.es-es.xlf</t>
-  </si>
-  <si>
-    <t>feedback_archive.20de26911a704368058401c7e2bd6ebaac692ff5.es-es.xlf</t>
-  </si>
-  <si>
-    <t>feedback_clipboard.872e5c147ef02cb86067651f41e3c00b55386664.es-es.xlf</t>
-  </si>
-  <si>
-    <t>feedback_cmdlets.a4c0dfb806ca0da232eeb75ad3706177b8a5ec48.es-es.xlf</t>
-  </si>
-  <si>
-    <t>feedback_convertfromString.acdeaa33e8fa59b93649b6abf3a7d5ef64fb7664.es-es.xlf</t>
-  </si>
-  <si>
-    <t>feedback_convertstring.42e964e30093962871c3a4d586ed6c54f25f840d.es-es.xlf</t>
-  </si>
-  <si>
-    <t>feedback_fileinfo.0192edad2d6504d26a9632f95fc9e5b66ffd8003.es-es.xlf</t>
-  </si>
-  <si>
-    <t>feedback_formathex.f97931c887efb620e5f4314facc1f0e20e3dffbe.es-es.xlf</t>
-  </si>
-  <si>
-    <t>feedback_getchilditem.ce02ca20cc4417a80fe65eb509a8e92f2cecc79c.es-es.xlf</t>
-  </si>
-  <si>
-    <t>feedback_moduleversionranges.611b3a3219d64dbfa1d01541b60a727b880a0c4b.es-es.xlf</t>
-  </si>
-  <si>
-    <t>feedback_newguid.f8756fbdb96e6fe06a7e0cbb6ac4af32b1c64983.es-es.xlf</t>
-  </si>
-  <si>
-    <t>feedback_nonewline.7a9b7e24c50399879089bba2b8eee7dc325572e2.es-es.xlf</t>
-  </si>
-  <si>
-    <t>feedback_symbolic.1c3ac8128fb9df60512ec024044d48be7d0cb59f.es-es.xlf</t>
-  </si>
-  <si>
-    <t>feedback_tempfile.fc029065af6bbba3a8c4abbf36023bede7d1416d.es-es.xlf</t>
+    <t>lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-10 20:32:04</t>
+  </si>
+  <si>
+    <t>lnxPackageResource.db35ab938bbfbb38cae53fe9ae98fd22b5f18009.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>lnxScriptResource.1344a5d5b807ee53705e93842d9ef5e25a883359.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>packageResource.132c4949cee174dc0dc324456d220436cb9884e6.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-09 20:01:18</t>
+  </si>
+  <si>
+    <t>pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>pullServer.4b925b277da29998394af746bdbdd508fda48909.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>pullServerSMB.772aec5ae27ccb19ced78e3eb665a4e16db1c4df.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>reportServer.53df4bc8b7b80c0a19c11434bdf5f4304e8248f7.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>resourceAuthoringChecklist.3b9ae254d826cc45519d37d06044f28a69bdfa69.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>runAsUser.d2b90b6bc42ef965e454f9c9f5fd19bc7b488b34.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-04 21:11:25</t>
+  </si>
+  <si>
+    <t>audit_cms.3e422ca243ac938b46bfcf1497a703e55bde970e.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-08 01:11:31</t>
+  </si>
+  <si>
+    <t>audit_overview.fc5b51e2734a2af986c9edf42b4395b1aad2435d.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>audit_script.e89f3a9316d1125e1efd23b41b756a3a6161016b.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>audit_transcript.c21a6554932939cbf4c744bf7c9f07cc4e1e7160.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>class_base.29a9fbe4987503d5575c151f4271f58398cb7e55.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>class_baseconstructor.82f951e800b06ccc68090b1be9923c8210a233ac.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>class_basemethod.6b60292188d0081f30fbaf4b111db8a439348f5b.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>class_interface.84a08fd30808364a820bdd4440de18ec4504a6c7.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>class_newtype.a9f52b670970046f8b1147d4ba646b73abb430dc.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>class_overview.91227b885afcb8df385ab601ab970b924eca2533.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>debug_overview.70b71c20b8b625704c25da28a58e804a048bafb0.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>dsc_authoring.364878cde8f156d8999773842812e0c08f70191c.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>dsc_classbasedresource.a3d6b22652db939b51db1218584247396454ae0f.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>dsc_confighelp.bcfa7e85acae98499089edc9fba25b68953d7bbf.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>dsc_directaccess.014c91015162b26b678e0a5fdfd453a3bf6e41b0.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>dsc_encryptedmof.a35c44de669ea81f25dd29f152f03493e52e327b.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>dsc_freqnomultiple.2848e52c73280aca59e73136bac0c2c7ae02aad6.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>dsc_getconfigurationstatus.1705e4bcaa9dfd9d69f00aecdc7ef0d04bf44899.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>dsc_identicalduplicate.eb7167ccd4a72d68aa1683327e9b3877927158ab.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>dsc_importdscresource.a0169ad862dfcaa5c958c07ecd52c856d5dc8436.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>dsc_improvements.d9ed6ffedf9d9650bb6b26b5ed611e420a0aacbb.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>dsc_lcmstate.21ea1c36f37c94e8e0363199fbd07bcced3aea40.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>dsc_metaconfiguration.e8bbca05aa1692ad54cadd83b93a1902f179f365.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>dsc_newresources.b9c40f591f875ea205c834f7675f3edbe1050592.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>dsc_nodeid.e3c9049aa6c1d151f8b286f28502537b2f8d22a4.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>dsc_partialconfig.a493787c3f8663ac3e2994162ffd1bee429544d3.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>dsc_partialconfig_mixedmode.ff4b9a8a421441da62574192650493bf2407028d.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>dsc_publishconfig.bfe86d4253abdd777c205caec637c50ec79103ee.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>dsc_refreshmode.b0529a06a4d3e07b3fce300f74760d63b27523f6.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>dsc_removeconfigdoc.d16cdab7eaedf468bcc38dae34e93be26a204318.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>dsc_reporting.b042cd21b9bcfc8e50bc361ddee59333602fad42.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>dsc_repository.ec5040a823a6b64e969393e00f3d859fd0b4551c.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>dsc_resourcedebugging.95c69e55eb065b349f52e18126d699b1906ba03f.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>dsc_runas.9e19a42a6d5e1ea1772358a6fd8ff24b98a5b6ba.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>dsc_setdsclcm.1f0e3cab81cf5fc1feda678f202451fe150632e3.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>dsc_statestatus.b6f3670f776a8f63a705ba16bed2f20be34fc48f.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>dsc_sxsresource.c9d4ce6109370ac1cbc1fb07f191e02f9a61d5d3.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>dsc_testconfiguration.b0e5afe2c8f173ebe49c97c9ea9a2f11d81ea5fa.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>dsc_updateconfig.a07eb85e3458d42d7ab1ed5c57dcfc70df709d07.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>dsc_waitfor.2b09933f08f1020166ce0f0cd7548a5a3845c48f.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>dsc_wow64.ea039aaa1bd77415311fc30d80fed43cda07a6e3.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>feedback.3662230166299ef7c1fb7a7a7f5cdbd64b1d812a.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>feedback_archive.20de26911a704368058401c7e2bd6ebaac692ff5.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>feedback_clipboard.872e5c147ef02cb86067651f41e3c00b55386664.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>feedback_cmdlets.a4c0dfb806ca0da232eeb75ad3706177b8a5ec48.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>feedback_convertfromString.acdeaa33e8fa59b93649b6abf3a7d5ef64fb7664.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>feedback_convertstring.42e964e30093962871c3a4d586ed6c54f25f840d.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>feedback_fileinfo.0192edad2d6504d26a9632f95fc9e5b66ffd8003.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>feedback_formathex.f97931c887efb620e5f4314facc1f0e20e3dffbe.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>feedback_getchilditem.ce02ca20cc4417a80fe65eb509a8e92f2cecc79c.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>feedback_moduleversionranges.611b3a3219d64dbfa1d01541b60a727b880a0c4b.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>feedback_newguid.f8756fbdb96e6fe06a7e0cbb6ac4af32b1c64983.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>feedback_nonewline.7a9b7e24c50399879089bba2b8eee7dc325572e2.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>feedback_symbolic.1c3ac8128fb9df60512ec024044d48be7d0cb59f.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>feedback_tempfile.fc029065af6bbba3a8c4abbf36023bede7d1416d.ja-jp.xlf</t>
   </si>
   <si>
     <t>ba1897f38317f5fe38f2d8caf0efcc57bc8bb19d.jpg</t>
@@ -948,79 +957,79 @@
     <t>wmf\dsc_encryptedmof.md</t>
   </si>
   <si>
-    <t>informationstream_overview.d2f238b2b4021ccdb7271cf89f53d58970d56cf5.es-es.xlf</t>
-  </si>
-  <si>
-    <t>install.317fc924c0f766547c4725878af59c3c9d8facba.es-es.xlf</t>
-  </si>
-  <si>
-    <t>jea_endpoint.1dc052fe583a907a6c090cf8bfd42293d94d2975.es-es.xlf</t>
-  </si>
-  <si>
-    <t>jea_overview.3fa3008e719be8235adffe51808ac66714940871.es-es.xlf</t>
-  </si>
-  <si>
-    <t>jea_report.7860cec6e93b7405844ccbbe5bc879921447ac0b.es-es.xlf</t>
-  </si>
-  <si>
-    <t>limitation_dsc.3684c81bb088cba98089dffdb1a1e56e1c098335.es-es.xlf</t>
-  </si>
-  <si>
-    <t>limitation_overview.6cc9c8c028f5912636637d836aed7db0614de522.es-es.xlf</t>
-  </si>
-  <si>
-    <t>networkswitch_overview.7a87eb0741cd43b8b9284ea6cb605920c4961b79.es-es.xlf</t>
-  </si>
-  <si>
-    <t>odata_overview.c3f7efdde29fe7ac5685a61cd61d75b65524a4c3.es-es.xlf</t>
-  </si>
-  <si>
-    <t>oneget_cmdlets.469b2350a72495ac2cf62e4130b4df8036f5d135.es-es.xlf</t>
-  </si>
-  <si>
-    <t>oneget_overview.e71a25f36f957ab7471d259c6e716651f6f23c94.es-es.xlf</t>
-  </si>
-  <si>
-    <t>productincompat.62bb00299c0283b5297001553476a745e28a49cb.es-es.xlf</t>
-  </si>
-  <si>
-    <t>psget_module_overview.4149c468ffd0f17a2fabd03f90059c12effc3170.es-es.xlf</t>
-  </si>
-  <si>
-    <t>psget_modulecmdlets.1f808cfdf9a9aa920f88e15f7f5fa4701fe805e3.es-es.xlf</t>
-  </si>
-  <si>
-    <t>psget_moduledependency.89ba9310335ae64db5481a3c02034ac4fe01b6a2.es-es.xlf</t>
-  </si>
-  <si>
-    <t>psget_modulesxsinstall.110ba80d8f917899ef488b46bd15f5654f6ba06c.es-es.xlf</t>
-  </si>
-  <si>
-    <t>psget_psrepository.c4381b2ff7bb6496ab74ed8bb2b07325cfbfc056.es-es.xlf</t>
-  </si>
-  <si>
-    <t>psget_script_overview.f035cc99497d17dc73e3a61f214e40a5860fc70a.es-es.xlf</t>
-  </si>
-  <si>
-    <t>psget_scriptcmdlets.1762d5f29292d59c1afb37cb29eb11a34cf63990.es-es.xlf</t>
-  </si>
-  <si>
-    <t>releasenotes.311750b4da54b1d4ef7997b328edd6ff177fb71f.es-es.xlf</t>
-  </si>
-  <si>
-    <t>requirements.ef8332f358d65b1759bfd4c7336b11d1dc8c2d46.es-es.xlf</t>
-  </si>
-  <si>
-    <t>sil_overview.a2b1f7c716aad317993a5eaffba21fa28ce0c0d8.es-es.xlf</t>
-  </si>
-  <si>
-    <t>TOC.60497266061c38453b3db893ec675eb65584af89.es-es.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-16 22:52:09</t>
-  </si>
-  <si>
-    <t>uninstall.b07adaaaf7f41869dfa201b88e29342aced76c96.es-es.xlf</t>
+    <t>informationstream_overview.d2f238b2b4021ccdb7271cf89f53d58970d56cf5.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>install.317fc924c0f766547c4725878af59c3c9d8facba.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>jea_endpoint.1dc052fe583a907a6c090cf8bfd42293d94d2975.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>jea_overview.3fa3008e719be8235adffe51808ac66714940871.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>jea_report.7860cec6e93b7405844ccbbe5bc879921447ac0b.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>limitation_dsc.3684c81bb088cba98089dffdb1a1e56e1c098335.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>limitation_overview.6cc9c8c028f5912636637d836aed7db0614de522.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>networkswitch_overview.7a87eb0741cd43b8b9284ea6cb605920c4961b79.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>odata_overview.c3f7efdde29fe7ac5685a61cd61d75b65524a4c3.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>oneget_cmdlets.469b2350a72495ac2cf62e4130b4df8036f5d135.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>oneget_overview.e71a25f36f957ab7471d259c6e716651f6f23c94.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>productincompat.62bb00299c0283b5297001553476a745e28a49cb.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>psget_module_overview.4149c468ffd0f17a2fabd03f90059c12effc3170.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>psget_modulecmdlets.1f808cfdf9a9aa920f88e15f7f5fa4701fe805e3.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>psget_moduledependency.89ba9310335ae64db5481a3c02034ac4fe01b6a2.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>psget_modulesxsinstall.110ba80d8f917899ef488b46bd15f5654f6ba06c.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>psget_psrepository.c4381b2ff7bb6496ab74ed8bb2b07325cfbfc056.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>psget_script_overview.f035cc99497d17dc73e3a61f214e40a5860fc70a.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>psget_scriptcmdlets.1762d5f29292d59c1afb37cb29eb11a34cf63990.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>releasenotes.311750b4da54b1d4ef7997b328edd6ff177fb71f.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>requirements.ef8332f358d65b1759bfd4c7336b11d1dc8c2d46.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>sil_overview.a2b1f7c716aad317993a5eaffba21fa28ce0c0d8.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>TOC.60497266061c38453b3db893ec675eb65584af89.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-16 22:51:47</t>
+  </si>
+  <si>
+    <t>uninstall.b07adaaaf7f41869dfa201b88e29342aced76c96.ja-jp.xlf</t>
   </si>
 </sst>
 </file>
@@ -1077,7 +1086,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="es-es" displayName="es_es" ref="A1:L1" headerRowCount="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="ja-jp" displayName="ja_jp" ref="A1:L1" headerRowCount="0">
   <tableColumns count="12">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -1100,7 +1109,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Overview" displayName="Overview" ref="A1:D1" headerRowCount="0">
   <tableColumns count="4">
     <tableColumn id="1" name="File Name"/>
-    <tableColumn id="2" name="es-es"/>
+    <tableColumn id="2" name="ja-jp"/>
     <tableColumn id="3" name="Latest Handoff Date"/>
     <tableColumn id="4" name="Column4"/>
   </tableColumns>
@@ -1184,45 +1193,45 @@
         <v>4</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>4</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>4</v>
@@ -1233,7 +1242,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>4</v>
@@ -1244,7 +1253,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>4</v>
@@ -1255,7 +1264,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>4</v>
@@ -1266,7 +1275,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>4</v>
@@ -1277,7 +1286,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>4</v>
@@ -1288,13 +1297,13 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B16" s="0" t="s">
         <v>4</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -1305,7 +1314,7 @@
         <v>4</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18">
@@ -1316,7 +1325,7 @@
         <v>4</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19">
@@ -1327,7 +1336,7 @@
         <v>4</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20">
@@ -1426,7 +1435,7 @@
         <v>4</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29">
@@ -1445,7 +1454,7 @@
         <v>35</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="C30" s="0" t="s">
         <v>5</v>
@@ -1453,10 +1462,10 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="C31" s="0" t="s">
         <v>5</v>
@@ -1464,10 +1473,10 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="C32" s="0" t="s">
         <v>5</v>
@@ -1475,10 +1484,10 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="C33" s="0" t="s">
         <v>5</v>
@@ -1486,21 +1495,21 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>5</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="C35" s="0" t="s">
         <v>5</v>
@@ -1508,10 +1517,10 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="C36" s="0" t="s">
         <v>5</v>
@@ -1519,10 +1528,10 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="C37" s="0" t="s">
         <v>5</v>
@@ -1530,32 +1539,32 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>5</v>
+        <v>46</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="C40" s="0" t="s">
         <v>5</v>
@@ -1563,10 +1572,10 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="C41" s="0" t="s">
         <v>5</v>
@@ -1574,21 +1583,21 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="C43" s="0" t="s">
         <v>5</v>
@@ -1596,32 +1605,32 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>5</v>
+        <v>55</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="C46" s="0" t="s">
         <v>5</v>
@@ -1629,10 +1638,10 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="C47" s="0" t="s">
         <v>5</v>
@@ -1640,10 +1649,10 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="C48" s="0" t="s">
         <v>5</v>
@@ -1651,79 +1660,79 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>56</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>58</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>66</v>
+        <v>5</v>
       </c>
     </row>
     <row r="56">
@@ -1731,10 +1740,10 @@
         <v>67</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>56</v>
+        <v>5</v>
       </c>
     </row>
     <row r="57">
@@ -1742,10 +1751,10 @@
         <v>68</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
     </row>
     <row r="58">
@@ -1753,10 +1762,10 @@
         <v>69</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>66</v>
+        <v>5</v>
       </c>
     </row>
     <row r="59">
@@ -1764,10 +1773,10 @@
         <v>70</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
     </row>
     <row r="60">
@@ -1775,10 +1784,10 @@
         <v>71</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
     </row>
     <row r="61">
@@ -1786,10 +1795,10 @@
         <v>72</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
     </row>
     <row r="62">
@@ -1797,10 +1806,10 @@
         <v>73</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
     </row>
     <row r="63">
@@ -1808,7 +1817,7 @@
         <v>74</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C63" s="0" t="s">
         <v>75</v>
@@ -1819,7 +1828,7 @@
         <v>76</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C64" s="0" t="s">
         <v>77</v>
@@ -1830,7 +1839,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C65" s="0" t="s">
         <v>77</v>
@@ -1841,7 +1850,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C66" s="0" t="s">
         <v>77</v>
@@ -1852,7 +1861,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C67" s="0" t="s">
         <v>77</v>
@@ -1863,7 +1872,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C68" s="0" t="s">
         <v>77</v>
@@ -1874,7 +1883,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C69" s="0" t="s">
         <v>77</v>
@@ -1885,7 +1894,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C70" s="0" t="s">
         <v>77</v>
@@ -1896,7 +1905,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C71" s="0" t="s">
         <v>77</v>
@@ -1907,7 +1916,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C72" s="0" t="s">
         <v>77</v>
@@ -1918,7 +1927,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C73" s="0" t="s">
         <v>77</v>
@@ -1929,7 +1938,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C74" s="0" t="s">
         <v>77</v>
@@ -1940,7 +1949,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C75" s="0" t="s">
         <v>77</v>
@@ -1951,7 +1960,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C76" s="0" t="s">
         <v>77</v>
@@ -1962,7 +1971,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C77" s="0" t="s">
         <v>77</v>
@@ -1973,7 +1982,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C78" s="0" t="s">
         <v>77</v>
@@ -1984,7 +1993,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C79" s="0" t="s">
         <v>77</v>
@@ -1995,7 +2004,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C80" s="0" t="s">
         <v>77</v>
@@ -2006,7 +2015,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C81" s="0" t="s">
         <v>77</v>
@@ -2017,7 +2026,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C82" s="0" t="s">
         <v>77</v>
@@ -2028,7 +2037,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C83" s="0" t="s">
         <v>77</v>
@@ -2039,7 +2048,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C84" s="0" t="s">
         <v>77</v>
@@ -2050,7 +2059,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C85" s="0" t="s">
         <v>77</v>
@@ -2061,7 +2070,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C86" s="0" t="s">
         <v>77</v>
@@ -2072,7 +2081,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C87" s="0" t="s">
         <v>77</v>
@@ -2083,7 +2092,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C88" s="0" t="s">
         <v>77</v>
@@ -2094,7 +2103,7 @@
         <v>102</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C89" s="0" t="s">
         <v>77</v>
@@ -2105,7 +2114,7 @@
         <v>103</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C90" s="0" t="s">
         <v>77</v>
@@ -2116,7 +2125,7 @@
         <v>104</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C91" s="0" t="s">
         <v>77</v>
@@ -2127,7 +2136,7 @@
         <v>105</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C92" s="0" t="s">
         <v>77</v>
@@ -2138,7 +2147,7 @@
         <v>106</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C93" s="0" t="s">
         <v>77</v>
@@ -2149,7 +2158,7 @@
         <v>107</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C94" s="0" t="s">
         <v>77</v>
@@ -2160,7 +2169,7 @@
         <v>108</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C95" s="0" t="s">
         <v>77</v>
@@ -2171,7 +2180,7 @@
         <v>109</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C96" s="0" t="s">
         <v>77</v>
@@ -2182,7 +2191,7 @@
         <v>110</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C97" s="0" t="s">
         <v>77</v>
@@ -2193,7 +2202,7 @@
         <v>111</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C98" s="0" t="s">
         <v>77</v>
@@ -2204,7 +2213,7 @@
         <v>112</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C99" s="0" t="s">
         <v>77</v>
@@ -2215,7 +2224,7 @@
         <v>113</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C100" s="0" t="s">
         <v>77</v>
@@ -2226,7 +2235,7 @@
         <v>114</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C101" s="0" t="s">
         <v>77</v>
@@ -2237,7 +2246,7 @@
         <v>115</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C102" s="0" t="s">
         <v>77</v>
@@ -2248,10 +2257,10 @@
         <v>116</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
     </row>
     <row r="104">
@@ -2259,7 +2268,7 @@
         <v>117</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C104" s="0" t="s">
         <v>77</v>
@@ -2270,7 +2279,7 @@
         <v>118</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C105" s="0" t="s">
         <v>77</v>
@@ -2281,7 +2290,7 @@
         <v>119</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C106" s="0" t="s">
         <v>77</v>
@@ -2292,7 +2301,7 @@
         <v>120</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C107" s="0" t="s">
         <v>77</v>
@@ -2303,7 +2312,7 @@
         <v>121</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C108" s="0" t="s">
         <v>77</v>
@@ -2314,7 +2323,7 @@
         <v>122</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C109" s="0" t="s">
         <v>77</v>
@@ -2325,7 +2334,7 @@
         <v>123</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C110" s="0" t="s">
         <v>77</v>
@@ -2336,7 +2345,7 @@
         <v>124</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C111" s="0" t="s">
         <v>77</v>
@@ -2347,7 +2356,7 @@
         <v>125</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C112" s="0" t="s">
         <v>77</v>
@@ -2358,7 +2367,7 @@
         <v>126</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C113" s="0" t="s">
         <v>77</v>
@@ -2369,7 +2378,7 @@
         <v>127</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C114" s="0" t="s">
         <v>77</v>
@@ -2380,7 +2389,7 @@
         <v>128</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C115" s="0" t="s">
         <v>77</v>
@@ -2391,7 +2400,7 @@
         <v>129</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C116" s="0" t="s">
         <v>77</v>
@@ -2402,7 +2411,7 @@
         <v>130</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C117" s="0" t="s">
         <v>77</v>
@@ -2413,7 +2422,7 @@
         <v>131</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C118" s="0" t="s">
         <v>77</v>
@@ -2424,10 +2433,10 @@
         <v>132</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="120">
@@ -2435,10 +2444,10 @@
         <v>133</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="121">
@@ -2446,10 +2455,10 @@
         <v>134</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="122">
@@ -2457,7 +2466,7 @@
         <v>135</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C122" s="0" t="s">
         <v>77</v>
@@ -2468,7 +2477,7 @@
         <v>136</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C123" s="0" t="s">
         <v>77</v>
@@ -2479,7 +2488,7 @@
         <v>137</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C124" s="0" t="s">
         <v>77</v>
@@ -2490,7 +2499,7 @@
         <v>138</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C125" s="0" t="s">
         <v>77</v>
@@ -2501,7 +2510,7 @@
         <v>139</v>
       </c>
       <c r="B126" s="0" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C126" s="0" t="s">
         <v>77</v>
@@ -2512,7 +2521,7 @@
         <v>140</v>
       </c>
       <c r="B127" s="0" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C127" s="0" t="s">
         <v>77</v>
@@ -2523,7 +2532,7 @@
         <v>141</v>
       </c>
       <c r="B128" s="0" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C128" s="0" t="s">
         <v>77</v>
@@ -2534,7 +2543,7 @@
         <v>142</v>
       </c>
       <c r="B129" s="0" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C129" s="0" t="s">
         <v>77</v>
@@ -2545,7 +2554,7 @@
         <v>143</v>
       </c>
       <c r="B130" s="0" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C130" s="0" t="s">
         <v>77</v>
@@ -2556,7 +2565,7 @@
         <v>144</v>
       </c>
       <c r="B131" s="0" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C131" s="0" t="s">
         <v>77</v>
@@ -2567,7 +2576,7 @@
         <v>145</v>
       </c>
       <c r="B132" s="0" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C132" s="0" t="s">
         <v>77</v>
@@ -2578,7 +2587,7 @@
         <v>146</v>
       </c>
       <c r="B133" s="0" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C133" s="0" t="s">
         <v>77</v>
@@ -2589,7 +2598,7 @@
         <v>147</v>
       </c>
       <c r="B134" s="0" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C134" s="0" t="s">
         <v>77</v>
@@ -2600,7 +2609,7 @@
         <v>148</v>
       </c>
       <c r="B135" s="0" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C135" s="0" t="s">
         <v>77</v>
@@ -2611,7 +2620,7 @@
         <v>149</v>
       </c>
       <c r="B136" s="0" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C136" s="0" t="s">
         <v>77</v>
@@ -2622,7 +2631,7 @@
         <v>150</v>
       </c>
       <c r="B137" s="0" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C137" s="0" t="s">
         <v>77</v>
@@ -2633,7 +2642,7 @@
         <v>151</v>
       </c>
       <c r="B138" s="0" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C138" s="0" t="s">
         <v>77</v>
@@ -2644,7 +2653,7 @@
         <v>152</v>
       </c>
       <c r="B139" s="0" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C139" s="0" t="s">
         <v>77</v>
@@ -2655,7 +2664,7 @@
         <v>153</v>
       </c>
       <c r="B140" s="0" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C140" s="0" t="s">
         <v>77</v>
@@ -2666,7 +2675,7 @@
         <v>154</v>
       </c>
       <c r="B141" s="0" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C141" s="0" t="s">
         <v>77</v>
@@ -2677,7 +2686,7 @@
         <v>155</v>
       </c>
       <c r="B142" s="0" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C142" s="0" t="s">
         <v>77</v>
@@ -2688,7 +2697,7 @@
         <v>156</v>
       </c>
       <c r="B143" s="0" t="s">
-    